--- a/doc/Casos de Prueba GSIAM.xlsx
+++ b/doc/Casos de Prueba GSIAM.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Escala Impacto" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Casos de Prueba - dd-mm-yyyy'!$A$1:$K$429</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Casos de Prueba - dd-mm-yyyy'!$A$1:$K$436</definedName>
     <definedName name="acciones">#REF!</definedName>
     <definedName name="Clasificacion">#REF!</definedName>
     <definedName name="ClasificacionRiesgos">#REF!</definedName>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="113">
   <si>
     <t>Alcance</t>
   </si>
@@ -158,21 +158,6 @@
   </si>
   <si>
     <t>Geolocalización de Sitios de Interés Para Aplicaciónes Móviles</t>
-  </si>
-  <si>
-    <t>CU00</t>
-  </si>
-  <si>
-    <t>000-001</t>
-  </si>
-  <si>
-    <t>000-002</t>
-  </si>
-  <si>
-    <t>000-004</t>
-  </si>
-  <si>
-    <t>000-003</t>
   </si>
   <si>
     <t>Datos de prueba</t>
@@ -331,13 +316,7 @@
     <t>CU01</t>
   </si>
   <si>
-    <t>001-001</t>
-  </si>
-  <si>
     <t>Creacion del usuario</t>
-  </si>
-  <si>
-    <t>000-005</t>
   </si>
   <si>
     <t>Tamaño de datos</t>
@@ -1089,6 +1068,36 @@
   </si>
   <si>
     <t>El usuario se modifica exitosamente y se muestra un mensaje de exito.</t>
+  </si>
+  <si>
+    <t>CU03</t>
+  </si>
+  <si>
+    <t>CP01-01</t>
+  </si>
+  <si>
+    <t>CP03-01</t>
+  </si>
+  <si>
+    <t>CU04</t>
+  </si>
+  <si>
+    <t>CP04-01</t>
+  </si>
+  <si>
+    <t>CP04-02</t>
+  </si>
+  <si>
+    <t>CP04-03</t>
+  </si>
+  <si>
+    <t>CP04-04</t>
+  </si>
+  <si>
+    <t>CP04-05</t>
+  </si>
+  <si>
+    <t>CP04-06</t>
   </si>
 </sst>
 </file>
@@ -1444,6 +1453,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1458,9 +1470,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1882,31 +1891,31 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="36">
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
       <c r="M12" s="14"/>
     </row>
     <row r="13" spans="1:13" ht="12" customHeight="1">
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
       <c r="M13" s="14"/>
     </row>
     <row r="14" spans="1:13" ht="12" customHeight="1">
@@ -1923,20 +1932,20 @@
       <c r="M14" s="14"/>
     </row>
     <row r="15" spans="1:13" ht="23.25">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
     </row>
     <row r="16" spans="1:13"/>
     <row r="17" spans="6:9"/>
@@ -1944,12 +1953,12 @@
     <row r="19" spans="6:9"/>
     <row r="20" spans="6:9"/>
     <row r="21" spans="6:9">
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
     </row>
     <row r="22" spans="6:9"/>
     <row r="23" spans="6:9"/>
@@ -5957,11 +5966,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:K429"/>
+  <dimension ref="A1:K436"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -5992,594 +6001,605 @@
         <v>35</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>37</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>36</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K2" s="26" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="38.25">
-      <c r="A3" s="35"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="20" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="E3" s="27"/>
       <c r="F3" s="21" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="25.5">
-      <c r="A4" s="35"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="20" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="21" t="s">
         <v>51</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>56</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
       <c r="K4" s="21" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="51">
-      <c r="A5" s="35"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="20" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>79</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>57</v>
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
       <c r="K5" s="21" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="18" customFormat="1" ht="25.5">
-      <c r="A6" s="35"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="20" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>44</v>
+        <v>74</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>80</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="K6" s="21" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="18" customFormat="1" ht="51">
-      <c r="A7" s="35"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="20" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
       <c r="K7" s="21" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="18" customFormat="1" ht="38.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="22" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>82</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="21" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
       <c r="K8" s="21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="18" customFormat="1" ht="63.75">
-      <c r="A9" s="35"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="22" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>85</v>
+        <v>44</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>83</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>57</v>
       </c>
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
       <c r="K9" s="21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="18" customFormat="1" ht="38.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="22" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>86</v>
+        <v>74</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>84</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
       <c r="K10" s="21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="18" customFormat="1" ht="38.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="22" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>87</v>
+        <v>67</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>85</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
       <c r="K11" s="21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="18" customFormat="1" ht="76.5">
-      <c r="A12" s="35"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="22" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>88</v>
+        <v>60</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>86</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="18" customFormat="1" ht="89.25">
-      <c r="B13" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>109</v>
-      </c>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="18" customFormat="1">
+      <c r="A13" s="30"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
-      <c r="K13" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="18" customFormat="1" ht="51">
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" spans="1:11" s="18" customFormat="1">
+      <c r="A14" s="30"/>
       <c r="B14" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>89</v>
+        <v>103</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="27" t="s">
+        <v>105</v>
       </c>
       <c r="E14" s="23"/>
-      <c r="F14" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>108</v>
-      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
-      <c r="K14" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="18" customFormat="1" ht="76.5">
-      <c r="B15" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>90</v>
-      </c>
+      <c r="K14" s="21"/>
+    </row>
+    <row r="15" spans="1:11" s="18" customFormat="1">
+      <c r="A15" s="30"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
-      <c r="G15" s="23" t="s">
-        <v>105</v>
-      </c>
+      <c r="G15" s="28"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
-      <c r="K15" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="18" customFormat="1" ht="51">
-      <c r="B16" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>91</v>
-      </c>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" s="18" customFormat="1">
+      <c r="A16" s="30"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
-      <c r="G16" s="23" t="s">
-        <v>96</v>
-      </c>
+      <c r="G16" s="28"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
-      <c r="K16" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" s="18" customFormat="1" ht="51">
-      <c r="B17" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>92</v>
-      </c>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" s="18" customFormat="1">
+      <c r="A17" s="30"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
-      <c r="G17" s="23" t="s">
-        <v>97</v>
-      </c>
+      <c r="G17" s="28"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
-      <c r="K17" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" s="18" customFormat="1" ht="89.25">
-      <c r="B18" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="28"/>
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18" spans="1:11" s="18" customFormat="1">
+      <c r="A18" s="30"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="28" t="s">
-        <v>98</v>
-      </c>
+      <c r="G18" s="28"/>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
-      <c r="K18" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" s="18" customFormat="1">
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19" spans="1:11" s="18" customFormat="1">
+      <c r="A19" s="30"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="2:11" s="18" customFormat="1">
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="2:11" s="18" customFormat="1">
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="2:11" s="18" customFormat="1">
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="21"/>
-    </row>
-    <row r="23" spans="2:11" s="18" customFormat="1">
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="21"/>
-    </row>
-    <row r="24" spans="2:11" s="18" customFormat="1">
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="21"/>
-    </row>
-    <row r="25" spans="2:11" s="18" customFormat="1">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-    </row>
-    <row r="26" spans="2:11" s="18" customFormat="1">
+    <row r="20" spans="1:11" s="18" customFormat="1" ht="89.25">
+      <c r="B20" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="18" customFormat="1" ht="51">
+      <c r="B21" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="18" customFormat="1" ht="76.5">
+      <c r="B22" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="18" customFormat="1" ht="51">
+      <c r="B23" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="18" customFormat="1" ht="51">
+      <c r="B24" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="18" customFormat="1" ht="89.25">
+      <c r="B25" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="18" customFormat="1">
       <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-    </row>
-    <row r="27" spans="2:11" s="18" customFormat="1">
+      <c r="C26" s="25"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="21"/>
+    </row>
+    <row r="27" spans="1:11" s="18" customFormat="1">
       <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-    </row>
-    <row r="28" spans="2:11" s="18" customFormat="1">
+      <c r="C27" s="25"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="21"/>
+    </row>
+    <row r="28" spans="1:11" s="18" customFormat="1">
       <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-    </row>
-    <row r="29" spans="2:11" s="18" customFormat="1">
+      <c r="C28" s="25"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="21"/>
+    </row>
+    <row r="29" spans="1:11" s="18" customFormat="1">
       <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-    </row>
-    <row r="30" spans="2:11" s="18" customFormat="1">
+      <c r="C29" s="25"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="21"/>
+    </row>
+    <row r="30" spans="1:11" s="18" customFormat="1">
       <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-    </row>
-    <row r="31" spans="2:11" s="18" customFormat="1">
+      <c r="C30" s="25"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="21"/>
+    </row>
+    <row r="31" spans="1:11" s="18" customFormat="1">
       <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-    </row>
-    <row r="32" spans="2:11" s="18" customFormat="1">
+      <c r="C31" s="25"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="21"/>
+    </row>
+    <row r="32" spans="1:11" s="18" customFormat="1">
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
@@ -6904,69 +6924,132 @@
       <c r="K58" s="24"/>
     </row>
     <row r="59" spans="2:11" s="18" customFormat="1">
-      <c r="B59" s="19"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
     </row>
     <row r="60" spans="2:11" s="18" customFormat="1">
-      <c r="B60" s="19"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
     </row>
     <row r="61" spans="2:11" s="18" customFormat="1">
-      <c r="B61" s="19"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
     </row>
     <row r="62" spans="2:11" s="18" customFormat="1">
-      <c r="B62" s="19"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
     </row>
     <row r="63" spans="2:11" s="18" customFormat="1">
-      <c r="B63" s="19"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
     </row>
     <row r="64" spans="2:11" s="18" customFormat="1">
-      <c r="B64" s="19"/>
-    </row>
-    <row r="65" spans="2:2" s="18" customFormat="1">
-      <c r="B65" s="19"/>
-    </row>
-    <row r="66" spans="2:2" s="18" customFormat="1">
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+    </row>
+    <row r="65" spans="2:11" s="18" customFormat="1">
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+    </row>
+    <row r="66" spans="2:11" s="18" customFormat="1">
       <c r="B66" s="19"/>
     </row>
-    <row r="67" spans="2:2" s="18" customFormat="1">
+    <row r="67" spans="2:11" s="18" customFormat="1">
       <c r="B67" s="19"/>
     </row>
-    <row r="68" spans="2:2" s="18" customFormat="1">
+    <row r="68" spans="2:11" s="18" customFormat="1">
       <c r="B68" s="19"/>
     </row>
-    <row r="69" spans="2:2" s="18" customFormat="1">
+    <row r="69" spans="2:11" s="18" customFormat="1">
       <c r="B69" s="19"/>
     </row>
-    <row r="70" spans="2:2" s="18" customFormat="1">
+    <row r="70" spans="2:11" s="18" customFormat="1">
       <c r="B70" s="19"/>
     </row>
-    <row r="71" spans="2:2" s="18" customFormat="1">
+    <row r="71" spans="2:11" s="18" customFormat="1">
       <c r="B71" s="19"/>
     </row>
-    <row r="72" spans="2:2" s="18" customFormat="1">
+    <row r="72" spans="2:11" s="18" customFormat="1">
       <c r="B72" s="19"/>
     </row>
-    <row r="73" spans="2:2" s="18" customFormat="1">
+    <row r="73" spans="2:11" s="18" customFormat="1">
       <c r="B73" s="19"/>
     </row>
-    <row r="74" spans="2:2" s="18" customFormat="1">
+    <row r="74" spans="2:11" s="18" customFormat="1">
       <c r="B74" s="19"/>
     </row>
-    <row r="75" spans="2:2" s="18" customFormat="1">
+    <row r="75" spans="2:11" s="18" customFormat="1">
       <c r="B75" s="19"/>
     </row>
-    <row r="76" spans="2:2" s="18" customFormat="1">
+    <row r="76" spans="2:11" s="18" customFormat="1">
       <c r="B76" s="19"/>
     </row>
-    <row r="77" spans="2:2" s="18" customFormat="1">
+    <row r="77" spans="2:11" s="18" customFormat="1">
       <c r="B77" s="19"/>
     </row>
-    <row r="78" spans="2:2" s="18" customFormat="1">
+    <row r="78" spans="2:11" s="18" customFormat="1">
       <c r="B78" s="19"/>
     </row>
-    <row r="79" spans="2:2" s="18" customFormat="1">
+    <row r="79" spans="2:11" s="18" customFormat="1">
       <c r="B79" s="19"/>
     </row>
-    <row r="80" spans="2:2" s="18" customFormat="1">
+    <row r="80" spans="2:11" s="18" customFormat="1">
       <c r="B80" s="19"/>
     </row>
     <row r="81" spans="2:2" s="18" customFormat="1">
@@ -7977,60 +8060,81 @@
     <row r="416" spans="2:2" s="18" customFormat="1">
       <c r="B416" s="19"/>
     </row>
-    <row r="417" spans="2:10" s="18" customFormat="1">
+    <row r="417" spans="2:2" s="18" customFormat="1">
       <c r="B417" s="19"/>
     </row>
-    <row r="418" spans="2:10" s="18" customFormat="1">
+    <row r="418" spans="2:2" s="18" customFormat="1">
       <c r="B418" s="19"/>
     </row>
-    <row r="419" spans="2:10" s="18" customFormat="1">
+    <row r="419" spans="2:2" s="18" customFormat="1">
       <c r="B419" s="19"/>
     </row>
-    <row r="420" spans="2:10" s="18" customFormat="1">
+    <row r="420" spans="2:2" s="18" customFormat="1">
       <c r="B420" s="19"/>
     </row>
-    <row r="421" spans="2:10" s="18" customFormat="1">
+    <row r="421" spans="2:2" s="18" customFormat="1">
       <c r="B421" s="19"/>
     </row>
-    <row r="422" spans="2:10" s="18" customFormat="1">
+    <row r="422" spans="2:2" s="18" customFormat="1">
       <c r="B422" s="19"/>
     </row>
-    <row r="423" spans="2:10" s="18" customFormat="1">
+    <row r="423" spans="2:2" s="18" customFormat="1">
       <c r="B423" s="19"/>
     </row>
-    <row r="424" spans="2:10" s="18" customFormat="1">
+    <row r="424" spans="2:2" s="18" customFormat="1">
       <c r="B424" s="19"/>
     </row>
-    <row r="425" spans="2:10" s="18" customFormat="1">
+    <row r="425" spans="2:2" s="18" customFormat="1">
       <c r="B425" s="19"/>
     </row>
-    <row r="426" spans="2:10" s="18" customFormat="1">
+    <row r="426" spans="2:2" s="18" customFormat="1">
       <c r="B426" s="19"/>
     </row>
-    <row r="427" spans="2:10" s="18" customFormat="1">
+    <row r="427" spans="2:2" s="18" customFormat="1">
       <c r="B427" s="19"/>
     </row>
-    <row r="428" spans="2:10">
+    <row r="428" spans="2:2" s="18" customFormat="1">
       <c r="B428" s="19"/>
-      <c r="C428" s="18"/>
-      <c r="D428" s="18"/>
-      <c r="E428" s="18"/>
-      <c r="F428" s="18"/>
-      <c r="G428" s="18"/>
-      <c r="H428" s="18"/>
-      <c r="I428" s="18"/>
-      <c r="J428" s="18"/>
-    </row>
-    <row r="429" spans="2:10">
+    </row>
+    <row r="429" spans="2:2" s="18" customFormat="1">
       <c r="B429" s="19"/>
-      <c r="C429" s="18"/>
-      <c r="D429" s="18"/>
-      <c r="E429" s="18"/>
-      <c r="F429" s="18"/>
-      <c r="G429" s="18"/>
-      <c r="H429" s="18"/>
-      <c r="I429" s="18"/>
-      <c r="J429" s="18"/>
+    </row>
+    <row r="430" spans="2:2" s="18" customFormat="1">
+      <c r="B430" s="19"/>
+    </row>
+    <row r="431" spans="2:2" s="18" customFormat="1">
+      <c r="B431" s="19"/>
+    </row>
+    <row r="432" spans="2:2" s="18" customFormat="1">
+      <c r="B432" s="19"/>
+    </row>
+    <row r="433" spans="2:10" s="18" customFormat="1">
+      <c r="B433" s="19"/>
+    </row>
+    <row r="434" spans="2:10" s="18" customFormat="1">
+      <c r="B434" s="19"/>
+    </row>
+    <row r="435" spans="2:10">
+      <c r="B435" s="19"/>
+      <c r="C435" s="18"/>
+      <c r="D435" s="18"/>
+      <c r="E435" s="18"/>
+      <c r="F435" s="18"/>
+      <c r="G435" s="18"/>
+      <c r="H435" s="18"/>
+      <c r="I435" s="18"/>
+      <c r="J435" s="18"/>
+    </row>
+    <row r="436" spans="2:10">
+      <c r="B436" s="19"/>
+      <c r="C436" s="18"/>
+      <c r="D436" s="18"/>
+      <c r="E436" s="18"/>
+      <c r="F436" s="18"/>
+      <c r="G436" s="18"/>
+      <c r="H436" s="18"/>
+      <c r="I436" s="18"/>
+      <c r="J436" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>

--- a/doc/Casos de Prueba GSIAM.xlsx
+++ b/doc/Casos de Prueba GSIAM.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Escala Impacto" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Casos de Prueba - dd-mm-yyyy'!$A$1:$K$436</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Casos de Prueba - dd-mm-yyyy'!$A$1:$K$431</definedName>
     <definedName name="acciones">#REF!</definedName>
     <definedName name="Clasificacion">#REF!</definedName>
     <definedName name="ClasificacionRiesgos">#REF!</definedName>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="140">
   <si>
     <t>Alcance</t>
   </si>
@@ -729,6 +729,386 @@
     </r>
   </si>
   <si>
+    <t>Modificacion del usuario y camara de fotos</t>
+  </si>
+  <si>
+    <t>Usuario es modificado con datos correctos. La foto la debe sacar de la galeria de imágenes del telefono.</t>
+  </si>
+  <si>
+    <t>Requisitos</t>
+  </si>
+  <si>
+    <t>Tener al menos una imagen en la galeria del telefono.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>e-mail:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (vacio)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>contraseña:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (vacio)
+NOTA: La prueba se debera ejecutar combinando las opciones posibles.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(vacio)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>e-mail:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (vacio)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>contraseña:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (vacio)
+NOTA: La prueba se debera ejecutar combinando las opciones posibles.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(vacio)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>e-mail:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (vacio)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>contraseña:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (vacio)
+avatar: 
+NOTA: La prueba se debera ejecutar combinando las opciones posibles.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Pedrito Lopez
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>e-mail:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> gsiam.test2@gmail.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>contraseña:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1234
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>avatar:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Seleccionar una imagen al azar de la galeria.
+NOTA: La prueba se debera ejecutar combinando las opciones posibles.</t>
+    </r>
+  </si>
+  <si>
+    <t>Usuario es modificado con datos correctos. La foto la debe sacar con la camara de fotos del telefono.</t>
+  </si>
+  <si>
+    <t>El usuario se modifica exitosamente y se muestra un mensaje de exito.</t>
+  </si>
+  <si>
+    <t>CU03</t>
+  </si>
+  <si>
+    <t>CP01-01</t>
+  </si>
+  <si>
+    <t>CP03-01</t>
+  </si>
+  <si>
+    <t>CU04</t>
+  </si>
+  <si>
+    <t>CP04-01</t>
+  </si>
+  <si>
+    <t>CP04-02</t>
+  </si>
+  <si>
+    <t>CP04-03</t>
+  </si>
+  <si>
+    <t>CP04-04</t>
+  </si>
+  <si>
+    <t>CP04-05</t>
+  </si>
+  <si>
+    <t>CP04-06</t>
+  </si>
+  <si>
+    <t>Ver Perfil</t>
+  </si>
+  <si>
+    <t>Usuario ve su peril</t>
+  </si>
+  <si>
+    <t>e-mail: gsiam.test@gmail.com
+contraseña: 123</t>
+  </si>
+  <si>
+    <t>nombre: Pedro Lopez
+e-mail: gsiam.test@gmail.com
+contraseña: 123</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Pedro Lopez
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>e-mail:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> gsiam.test@gmail.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>contraseña:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 123
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>avatar:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Tomar una foto con el telefono.
+NOTA: La prueba se debera ejecutar combinando las opciones posibles.</t>
+    </r>
+  </si>
+  <si>
+    <t>CP04-07</t>
+  </si>
+  <si>
+    <t>Al momento de que el sistema pregunte si esta seguro de confirmar al accion, se selecciona No.</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>No se modifica el perfil del usuairo.</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que el e-mail ya existe en el sistema.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa e-mail que ya existe en el sistema.</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">nombre: </t>
     </r>
@@ -750,20 +1130,29 @@
       <t xml:space="preserve">
 e-mail: gsiam.test12345678901@gmail.com
 contraseña: 12345678901234567890123
-avatar: </t>
-    </r>
-  </si>
-  <si>
-    <t>Modificacion del usuario y camara de fotos</t>
-  </si>
-  <si>
-    <t>Usuario es modificado con datos correctos. La foto la debe sacar de la galeria de imágenes del telefono.</t>
-  </si>
-  <si>
-    <t>Requisitos</t>
-  </si>
-  <si>
-    <t>Tener al menos una imagen en la galeria del telefono.</t>
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Ya existe el usuario gsiam.test@gmail.com en el sistema (CP02-01)</t>
+  </si>
+  <si>
+    <t>Cierre de cuenta</t>
+  </si>
+  <si>
+    <t>Modificacion del usuario. No se confirma la accion</t>
+  </si>
+  <si>
+    <t>Cierre de cuenta. No se confirma la accion</t>
+  </si>
+  <si>
+    <t>CP04-08</t>
+  </si>
+  <si>
+    <t>CP04-09</t>
+  </si>
+  <si>
+    <t>Debe existir el usuario gsiam.test3@gmail.com en el sistema</t>
   </si>
   <si>
     <r>
@@ -781,7 +1170,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> (vacio)
+      <t xml:space="preserve"> gsiam.test3@gmail.com
 </t>
     </r>
     <r>
@@ -799,305 +1188,35 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> (vacio)
-NOTA: La prueba se debera ejecutar combinando las opciones posibles.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">nombre: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(vacio)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>e-mail:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (vacio)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>contraseña:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (vacio)
-NOTA: La prueba se debera ejecutar combinando las opciones posibles.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">nombre: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(vacio)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>e-mail:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (vacio)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>contraseña:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (vacio)
-avatar: 
-NOTA: La prueba se debera ejecutar combinando las opciones posibles.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">nombre: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Pedrito Lopez
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>e-mail:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> gsiam.test2@gmail.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>contraseña:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1234
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>avatar:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Seleccionar una imagen al azar de la galeria.
-NOTA: La prueba se debera ejecutar combinando las opciones posibles.</t>
-    </r>
-  </si>
-  <si>
-    <t>Usuario es modificado con datos correctos. La foto la debe sacar con la camara de fotos del telefono.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">nombre: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Pedro Lopez
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>e-mail:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> gsiam.test@gmail.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>contraseña:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 123
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>avatar:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Tomar una foto con el telefono.</t>
-    </r>
-  </si>
-  <si>
-    <t>El usuario se modifica exitosamente y se muestra un mensaje de exito.</t>
-  </si>
-  <si>
-    <t>CU03</t>
-  </si>
-  <si>
-    <t>CP01-01</t>
-  </si>
-  <si>
-    <t>CP03-01</t>
-  </si>
-  <si>
-    <t>CU04</t>
-  </si>
-  <si>
-    <t>CP04-01</t>
-  </si>
-  <si>
-    <t>CP04-02</t>
-  </si>
-  <si>
-    <t>CP04-03</t>
-  </si>
-  <si>
-    <t>CP04-04</t>
-  </si>
-  <si>
-    <t>CP04-05</t>
-  </si>
-  <si>
-    <t>CP04-06</t>
+      <t xml:space="preserve"> 123</t>
+    </r>
+  </si>
+  <si>
+    <t>El usuario se loguea con este mail y se da de baja su cuenta.</t>
+  </si>
+  <si>
+    <t>Usuario queda inactivo en el sistema (no puede volver a ingresar) y se eliminan las solicitudes en caso de tenerlas.</t>
+  </si>
+  <si>
+    <t>No se cierra la cuenta del usuario.</t>
+  </si>
+  <si>
+    <t>CU05</t>
+  </si>
+  <si>
+    <t>CP05-01</t>
+  </si>
+  <si>
+    <t>CP05-02</t>
+  </si>
+  <si>
+    <t>CP05-03</t>
+  </si>
+  <si>
+    <t>CP05-04</t>
+  </si>
+  <si>
+    <t>CP05-05</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1487,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1449,9 +1568,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1891,31 +2007,31 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="36">
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
       <c r="M12" s="14"/>
     </row>
     <row r="13" spans="1:13" ht="12" customHeight="1">
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
       <c r="M13" s="14"/>
     </row>
     <row r="14" spans="1:13" ht="12" customHeight="1">
@@ -1932,20 +2048,20 @@
       <c r="M14" s="14"/>
     </row>
     <row r="15" spans="1:13" ht="23.25">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
     </row>
     <row r="16" spans="1:13"/>
     <row r="17" spans="6:9"/>
@@ -1953,12 +2069,12 @@
     <row r="19" spans="6:9"/>
     <row r="20" spans="6:9"/>
     <row r="21" spans="6:9">
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
     </row>
     <row r="22" spans="6:9"/>
     <row r="23" spans="6:9"/>
@@ -5966,11 +6082,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:K436"/>
+  <dimension ref="A1:K431"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6001,7 +6117,7 @@
         <v>35</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>37</v>
@@ -6023,7 +6139,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="38.25">
-      <c r="A3" s="30"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="20" t="s">
         <v>58</v>
       </c>
@@ -6031,9 +6147,11 @@
         <v>42</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="27"/>
+        <v>102</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>123</v>
+      </c>
       <c r="F3" s="21" t="s">
         <v>45</v>
       </c>
@@ -6050,7 +6168,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="25.5">
-      <c r="A4" s="30"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="20" t="s">
         <v>58</v>
       </c>
@@ -6077,7 +6195,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="51">
-      <c r="A5" s="30"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="20" t="s">
         <v>58</v>
       </c>
@@ -6092,7 +6210,7 @@
         <v>47</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H5" s="21" t="s">
         <v>52</v>
@@ -6104,7 +6222,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" s="18" customFormat="1" ht="25.5">
-      <c r="A6" s="30"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="20" t="s">
         <v>58</v>
       </c>
@@ -6131,7 +6249,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="18" customFormat="1" ht="51">
-      <c r="A7" s="30"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="20" t="s">
         <v>58</v>
       </c>
@@ -6158,7 +6276,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="18" customFormat="1" ht="38.25">
-      <c r="A8" s="30"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="22" t="s">
         <v>77</v>
       </c>
@@ -6185,7 +6303,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="18" customFormat="1" ht="63.75">
-      <c r="A9" s="30"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="22" t="s">
         <v>77</v>
       </c>
@@ -6200,7 +6318,7 @@
         <v>47</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H9" s="23" t="s">
         <v>52</v>
@@ -6212,7 +6330,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="18" customFormat="1" ht="38.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="22" t="s">
         <v>77</v>
       </c>
@@ -6239,7 +6357,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" s="18" customFormat="1" ht="38.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="22" t="s">
         <v>77</v>
       </c>
@@ -6266,7 +6384,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" s="18" customFormat="1" ht="76.5">
-      <c r="A12" s="30"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="22" t="s">
         <v>77</v>
       </c>
@@ -6292,122 +6410,205 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="18" customFormat="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="27"/>
+    <row r="13" spans="1:11" s="18" customFormat="1" ht="38.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>103</v>
+      </c>
       <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="23"/>
+      <c r="F13" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" s="18" customFormat="1">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:11" s="18" customFormat="1" ht="89.25">
       <c r="B14" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="23"/>
+      <c r="E14" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>100</v>
+      </c>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" spans="1:11" s="18" customFormat="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="27"/>
+      <c r="K14" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="18" customFormat="1" ht="76.5">
+      <c r="B15" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>106</v>
+      </c>
       <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="23"/>
+      <c r="F15" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>100</v>
+      </c>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:11" s="18" customFormat="1">
-      <c r="A16" s="30"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="27"/>
+      <c r="K15" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="18" customFormat="1" ht="38.25">
+      <c r="B16" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>107</v>
+      </c>
       <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="23"/>
+      <c r="F16" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>119</v>
+      </c>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" s="18" customFormat="1">
-      <c r="A17" s="30"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="27"/>
+    <row r="17" spans="2:11" s="18" customFormat="1" ht="76.5">
+      <c r="B17" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>108</v>
+      </c>
       <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="23"/>
+      <c r="F17" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>52</v>
+      </c>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
-      <c r="K17" s="21"/>
-    </row>
-    <row r="18" spans="1:11" s="18" customFormat="1">
-      <c r="A18" s="30"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="27"/>
+      <c r="K17" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" s="18" customFormat="1" ht="51">
+      <c r="B18" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>109</v>
+      </c>
       <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="23"/>
+      <c r="F18" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>68</v>
+      </c>
       <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="1:11" s="18" customFormat="1">
-      <c r="A19" s="30"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="27"/>
+      <c r="K18" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" s="18" customFormat="1" ht="51">
+      <c r="B19" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>110</v>
+      </c>
       <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="23"/>
+      <c r="F19" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>120</v>
+      </c>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
-      <c r="K19" s="21"/>
-    </row>
-    <row r="20" spans="1:11" s="18" customFormat="1" ht="89.25">
+      <c r="K19" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" s="18" customFormat="1" ht="89.25">
       <c r="B20" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>95</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E20" s="28"/>
       <c r="F20" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>99</v>
+        <v>70</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>122</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
@@ -6415,198 +6616,192 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="18" customFormat="1" ht="51">
+    <row r="21" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B21" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>92</v>
+        <v>104</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>124</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="23"/>
+        <v>127</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>129</v>
+      </c>
       <c r="F21" s="23" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="18" customFormat="1" ht="76.5">
+        <v>130</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="21"/>
+    </row>
+    <row r="22" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B22" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="18" customFormat="1" ht="51">
+        <v>128</v>
+      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="21"/>
+    </row>
+    <row r="23" spans="2:11" s="18" customFormat="1">
       <c r="B23" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>74</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C23" s="23"/>
       <c r="D23" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E23" s="23"/>
+        <v>135</v>
+      </c>
+      <c r="E23" s="28"/>
       <c r="F23" s="23"/>
-      <c r="G23" s="23" t="s">
-        <v>89</v>
-      </c>
+      <c r="G23" s="25"/>
       <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="18" customFormat="1" ht="51">
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="21"/>
+    </row>
+    <row r="24" spans="2:11" s="18" customFormat="1">
       <c r="B24" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>88</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C24" s="23"/>
       <c r="D24" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="23"/>
+        <v>136</v>
+      </c>
+      <c r="E24" s="28"/>
       <c r="F24" s="23"/>
-      <c r="G24" s="23" t="s">
-        <v>90</v>
-      </c>
+      <c r="G24" s="25"/>
       <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="18" customFormat="1" ht="89.25">
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="21"/>
+    </row>
+    <row r="25" spans="2:11" s="18" customFormat="1">
       <c r="B25" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>60</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C25" s="23"/>
       <c r="D25" s="28" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="23"/>
-      <c r="G25" s="28" t="s">
-        <v>91</v>
-      </c>
+      <c r="G25" s="25"/>
       <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="18" customFormat="1">
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="21"/>
+    </row>
+    <row r="26" spans="2:11" s="18" customFormat="1">
+      <c r="B26" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
+      <c r="H26" s="23"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" s="18" customFormat="1">
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="21"/>
-    </row>
-    <row r="28" spans="1:11" s="18" customFormat="1">
+    <row r="27" spans="2:11" s="18" customFormat="1">
+      <c r="B27" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+    </row>
+    <row r="28" spans="2:11" s="18" customFormat="1">
       <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="21"/>
-    </row>
-    <row r="29" spans="1:11" s="18" customFormat="1">
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+    </row>
+    <row r="29" spans="2:11" s="18" customFormat="1">
       <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="21"/>
-    </row>
-    <row r="30" spans="1:11" s="18" customFormat="1">
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+    </row>
+    <row r="30" spans="2:11" s="18" customFormat="1">
       <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="21"/>
-    </row>
-    <row r="31" spans="1:11" s="18" customFormat="1">
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+    </row>
+    <row r="31" spans="2:11" s="18" customFormat="1">
       <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="21"/>
-    </row>
-    <row r="32" spans="1:11" s="18" customFormat="1">
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="2:11" s="18" customFormat="1">
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
+      <c r="H32" s="23"/>
       <c r="I32" s="24"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
@@ -6618,7 +6813,7 @@
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
+      <c r="H33" s="23"/>
       <c r="I33" s="24"/>
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
@@ -6630,7 +6825,7 @@
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
+      <c r="H34" s="23"/>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
@@ -6642,7 +6837,7 @@
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
+      <c r="H35" s="23"/>
       <c r="I35" s="24"/>
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
@@ -6654,7 +6849,7 @@
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
+      <c r="H36" s="23"/>
       <c r="I36" s="24"/>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
@@ -6948,108 +7143,63 @@
       <c r="K60" s="24"/>
     </row>
     <row r="61" spans="2:11" s="18" customFormat="1">
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
+      <c r="B61" s="19"/>
     </row>
     <row r="62" spans="2:11" s="18" customFormat="1">
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
+      <c r="B62" s="19"/>
     </row>
     <row r="63" spans="2:11" s="18" customFormat="1">
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
+      <c r="B63" s="19"/>
     </row>
     <row r="64" spans="2:11" s="18" customFormat="1">
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="24"/>
-    </row>
-    <row r="65" spans="2:11" s="18" customFormat="1">
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
-    </row>
-    <row r="66" spans="2:11" s="18" customFormat="1">
+      <c r="B64" s="19"/>
+    </row>
+    <row r="65" spans="2:2" s="18" customFormat="1">
+      <c r="B65" s="19"/>
+    </row>
+    <row r="66" spans="2:2" s="18" customFormat="1">
       <c r="B66" s="19"/>
     </row>
-    <row r="67" spans="2:11" s="18" customFormat="1">
+    <row r="67" spans="2:2" s="18" customFormat="1">
       <c r="B67" s="19"/>
     </row>
-    <row r="68" spans="2:11" s="18" customFormat="1">
+    <row r="68" spans="2:2" s="18" customFormat="1">
       <c r="B68" s="19"/>
     </row>
-    <row r="69" spans="2:11" s="18" customFormat="1">
+    <row r="69" spans="2:2" s="18" customFormat="1">
       <c r="B69" s="19"/>
     </row>
-    <row r="70" spans="2:11" s="18" customFormat="1">
+    <row r="70" spans="2:2" s="18" customFormat="1">
       <c r="B70" s="19"/>
     </row>
-    <row r="71" spans="2:11" s="18" customFormat="1">
+    <row r="71" spans="2:2" s="18" customFormat="1">
       <c r="B71" s="19"/>
     </row>
-    <row r="72" spans="2:11" s="18" customFormat="1">
+    <row r="72" spans="2:2" s="18" customFormat="1">
       <c r="B72" s="19"/>
     </row>
-    <row r="73" spans="2:11" s="18" customFormat="1">
+    <row r="73" spans="2:2" s="18" customFormat="1">
       <c r="B73" s="19"/>
     </row>
-    <row r="74" spans="2:11" s="18" customFormat="1">
+    <row r="74" spans="2:2" s="18" customFormat="1">
       <c r="B74" s="19"/>
     </row>
-    <row r="75" spans="2:11" s="18" customFormat="1">
+    <row r="75" spans="2:2" s="18" customFormat="1">
       <c r="B75" s="19"/>
     </row>
-    <row r="76" spans="2:11" s="18" customFormat="1">
+    <row r="76" spans="2:2" s="18" customFormat="1">
       <c r="B76" s="19"/>
     </row>
-    <row r="77" spans="2:11" s="18" customFormat="1">
+    <row r="77" spans="2:2" s="18" customFormat="1">
       <c r="B77" s="19"/>
     </row>
-    <row r="78" spans="2:11" s="18" customFormat="1">
+    <row r="78" spans="2:2" s="18" customFormat="1">
       <c r="B78" s="19"/>
     </row>
-    <row r="79" spans="2:11" s="18" customFormat="1">
+    <row r="79" spans="2:2" s="18" customFormat="1">
       <c r="B79" s="19"/>
     </row>
-    <row r="80" spans="2:11" s="18" customFormat="1">
+    <row r="80" spans="2:2" s="18" customFormat="1">
       <c r="B80" s="19"/>
     </row>
     <row r="81" spans="2:2" s="18" customFormat="1">
@@ -8060,81 +8210,66 @@
     <row r="416" spans="2:2" s="18" customFormat="1">
       <c r="B416" s="19"/>
     </row>
-    <row r="417" spans="2:2" s="18" customFormat="1">
+    <row r="417" spans="2:10" s="18" customFormat="1">
       <c r="B417" s="19"/>
     </row>
-    <row r="418" spans="2:2" s="18" customFormat="1">
+    <row r="418" spans="2:10" s="18" customFormat="1">
       <c r="B418" s="19"/>
     </row>
-    <row r="419" spans="2:2" s="18" customFormat="1">
+    <row r="419" spans="2:10" s="18" customFormat="1">
       <c r="B419" s="19"/>
     </row>
-    <row r="420" spans="2:2" s="18" customFormat="1">
+    <row r="420" spans="2:10" s="18" customFormat="1">
       <c r="B420" s="19"/>
     </row>
-    <row r="421" spans="2:2" s="18" customFormat="1">
+    <row r="421" spans="2:10" s="18" customFormat="1">
       <c r="B421" s="19"/>
     </row>
-    <row r="422" spans="2:2" s="18" customFormat="1">
+    <row r="422" spans="2:10" s="18" customFormat="1">
       <c r="B422" s="19"/>
     </row>
-    <row r="423" spans="2:2" s="18" customFormat="1">
+    <row r="423" spans="2:10" s="18" customFormat="1">
       <c r="B423" s="19"/>
     </row>
-    <row r="424" spans="2:2" s="18" customFormat="1">
+    <row r="424" spans="2:10" s="18" customFormat="1">
       <c r="B424" s="19"/>
     </row>
-    <row r="425" spans="2:2" s="18" customFormat="1">
+    <row r="425" spans="2:10" s="18" customFormat="1">
       <c r="B425" s="19"/>
     </row>
-    <row r="426" spans="2:2" s="18" customFormat="1">
+    <row r="426" spans="2:10" s="18" customFormat="1">
       <c r="B426" s="19"/>
     </row>
-    <row r="427" spans="2:2" s="18" customFormat="1">
+    <row r="427" spans="2:10" s="18" customFormat="1">
       <c r="B427" s="19"/>
     </row>
-    <row r="428" spans="2:2" s="18" customFormat="1">
+    <row r="428" spans="2:10" s="18" customFormat="1">
       <c r="B428" s="19"/>
     </row>
-    <row r="429" spans="2:2" s="18" customFormat="1">
+    <row r="429" spans="2:10" s="18" customFormat="1">
       <c r="B429" s="19"/>
     </row>
-    <row r="430" spans="2:2" s="18" customFormat="1">
+    <row r="430" spans="2:10">
       <c r="B430" s="19"/>
-    </row>
-    <row r="431" spans="2:2" s="18" customFormat="1">
+      <c r="C430" s="18"/>
+      <c r="D430" s="18"/>
+      <c r="E430" s="18"/>
+      <c r="F430" s="18"/>
+      <c r="G430" s="18"/>
+      <c r="H430" s="18"/>
+      <c r="I430" s="18"/>
+      <c r="J430" s="18"/>
+    </row>
+    <row r="431" spans="2:10">
       <c r="B431" s="19"/>
-    </row>
-    <row r="432" spans="2:2" s="18" customFormat="1">
-      <c r="B432" s="19"/>
-    </row>
-    <row r="433" spans="2:10" s="18" customFormat="1">
-      <c r="B433" s="19"/>
-    </row>
-    <row r="434" spans="2:10" s="18" customFormat="1">
-      <c r="B434" s="19"/>
-    </row>
-    <row r="435" spans="2:10">
-      <c r="B435" s="19"/>
-      <c r="C435" s="18"/>
-      <c r="D435" s="18"/>
-      <c r="E435" s="18"/>
-      <c r="F435" s="18"/>
-      <c r="G435" s="18"/>
-      <c r="H435" s="18"/>
-      <c r="I435" s="18"/>
-      <c r="J435" s="18"/>
-    </row>
-    <row r="436" spans="2:10">
-      <c r="B436" s="19"/>
-      <c r="C436" s="18"/>
-      <c r="D436" s="18"/>
-      <c r="E436" s="18"/>
-      <c r="F436" s="18"/>
-      <c r="G436" s="18"/>
-      <c r="H436" s="18"/>
-      <c r="I436" s="18"/>
-      <c r="J436" s="18"/>
+      <c r="C431" s="18"/>
+      <c r="D431" s="18"/>
+      <c r="E431" s="18"/>
+      <c r="F431" s="18"/>
+      <c r="G431" s="18"/>
+      <c r="H431" s="18"/>
+      <c r="I431" s="18"/>
+      <c r="J431" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>

--- a/doc/Casos de Prueba GSIAM.xlsx
+++ b/doc/Casos de Prueba GSIAM.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Escala Impacto" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Casos de Prueba - dd-mm-yyyy'!$A$1:$K$431</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Casos de Prueba - dd-mm-yyyy'!$A$2:$K$433</definedName>
     <definedName name="acciones">#REF!</definedName>
     <definedName name="Clasificacion">#REF!</definedName>
     <definedName name="ClasificacionRiesgos">#REF!</definedName>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="185">
   <si>
     <t>Alcance</t>
   </si>
@@ -1217,6 +1217,205 @@
   </si>
   <si>
     <t>CP05-05</t>
+  </si>
+  <si>
+    <t>Busqueda de usuario</t>
+  </si>
+  <si>
+    <t>Busqueda de usuarios</t>
+  </si>
+  <si>
+    <t>Busqueda de amigos</t>
+  </si>
+  <si>
+    <t>Se ingresa una parte de un nombre</t>
+  </si>
+  <si>
+    <t>Se ingresa un nombre exacto</t>
+  </si>
+  <si>
+    <t>Se ingresa el nombre de un amigo</t>
+  </si>
+  <si>
+    <t>No se ingresa ningun nombre</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>nombre:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (vacio) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>nombre:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ar </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>nombre:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Martin Gomez </t>
+    </r>
+  </si>
+  <si>
+    <t>NOTA: Para todos los test que no diga lo contrario las pruebas se realizaran con el usuario gsiam.test@gmail.com logueado</t>
+  </si>
+  <si>
+    <t>Deben existir mas de un usuario con parte del su nombre con la cadena 'ar' en el sistema</t>
+  </si>
+  <si>
+    <t>Sistema muestra todos los usuarios con 'ar' en su nombre.</t>
+  </si>
+  <si>
+    <t>Sistema muestra un unico registro con los datos del usaurio.</t>
+  </si>
+  <si>
+    <t>Debe existir un unico usuario con su nombre igual al de datos de prueba.</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que se debe ingresar un valor.</t>
+  </si>
+  <si>
+    <t>El usuario debe tener un amigo con el nombre igual al de datos de prueba.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>nombre:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Martin Martinez </t>
+    </r>
+  </si>
+  <si>
+    <t>Sistema no trae datos.</t>
+  </si>
+  <si>
+    <t>CU06</t>
+  </si>
+  <si>
+    <t>CP06-01</t>
+  </si>
+  <si>
+    <t>CP06-02</t>
+  </si>
+  <si>
+    <t>CP06-03</t>
+  </si>
+  <si>
+    <t>Ver solicitudes Recibidas.</t>
+  </si>
+  <si>
+    <t>Ver solicitudes Enviadas.</t>
+  </si>
+  <si>
+    <t>Opcion Actualizar</t>
+  </si>
+  <si>
+    <t>Chekear con la busqueda de usuario</t>
+  </si>
+  <si>
+    <t>Tener al menos una solicitud recibida</t>
+  </si>
+  <si>
+    <t>Tener al menos una solicitud enviada</t>
+  </si>
+  <si>
+    <t>Se ven las solicitudes recibidas</t>
+  </si>
+  <si>
+    <t>Se ven las solicitudes enviadas</t>
+  </si>
+  <si>
+    <t>Se muestran las solicitudes listadas</t>
+  </si>
+  <si>
+    <t>Se actualizan las listas</t>
+  </si>
+  <si>
+    <t>Se actualizan las listas de solicitudes</t>
+  </si>
+  <si>
+    <t>Generar mas solicitudes para poder ver el cambio.</t>
+  </si>
+  <si>
+    <t>Se debera alternar con el CU06 para ver si el tipo de solicitud de cada usuario es correcta.</t>
+  </si>
+  <si>
+    <t>Se ve correctamente el tipo de solicitud de cada usuario (en caso de tener alguna)</t>
+  </si>
+  <si>
+    <t>CU07</t>
+  </si>
+  <si>
+    <t>CP07-01</t>
+  </si>
+  <si>
+    <t>CP07-02</t>
+  </si>
+  <si>
+    <t>CP07-03</t>
+  </si>
+  <si>
+    <t>CP07-04</t>
+  </si>
+  <si>
+    <t>Enviar solicitud</t>
+  </si>
+  <si>
+    <t>Volver a enviar solicitud</t>
+  </si>
+  <si>
+    <t>Usuario envia</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1506,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1341,12 +1540,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1487,7 +1680,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1569,9 +1762,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1586,6 +1776,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2007,31 +2203,31 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="36">
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
       <c r="M12" s="14"/>
     </row>
     <row r="13" spans="1:13" ht="12" customHeight="1">
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
       <c r="M13" s="14"/>
     </row>
     <row r="14" spans="1:13" ht="12" customHeight="1">
@@ -2048,20 +2244,20 @@
       <c r="M14" s="14"/>
     </row>
     <row r="15" spans="1:13" ht="23.25">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
     </row>
     <row r="16" spans="1:13"/>
     <row r="17" spans="6:9"/>
@@ -2069,12 +2265,12 @@
     <row r="19" spans="6:9"/>
     <row r="20" spans="6:9"/>
     <row r="21" spans="6:9">
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
     </row>
     <row r="22" spans="6:9"/>
     <row r="23" spans="6:9"/>
@@ -6082,11 +6278,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:K431"/>
+  <dimension ref="A2:K433"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6105,88 +6301,69 @@
     <col min="12" max="16384" width="11.42578125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1"/>
-    <row r="2" spans="1:11" s="17" customFormat="1" ht="37.5">
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="1:11" ht="18" customHeight="1">
+      <c r="B2" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+    </row>
+    <row r="3" spans="1:11" s="17" customFormat="1" ht="37.5">
+      <c r="B3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D3" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E3" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F3" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G3" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H3" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I3" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J3" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K3" s="26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="38.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="25.5">
-      <c r="A4" s="29"/>
+    <row r="4" spans="1:11" ht="38.25">
+      <c r="A4" s="35"/>
       <c r="B4" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="27"/>
+        <v>102</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>123</v>
+      </c>
       <c r="F4" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
@@ -6194,134 +6371,134 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="51">
-      <c r="A5" s="29"/>
+    <row r="5" spans="1:11" ht="25.5">
+      <c r="A5" s="35"/>
       <c r="B5" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>44</v>
+      <c r="C5" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="28"/>
+        <v>78</v>
+      </c>
+      <c r="E5" s="27"/>
       <c r="F5" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
       <c r="K5" s="21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="18" customFormat="1" ht="25.5">
-      <c r="A6" s="29"/>
+    <row r="6" spans="1:11" ht="51">
+      <c r="A6" s="35"/>
       <c r="B6" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>95</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
+        <v>52</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
       <c r="K6" s="21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="18" customFormat="1" ht="51">
-      <c r="A7" s="29"/>
+    <row r="7" spans="1:11" s="18" customFormat="1" ht="25.5">
+      <c r="A7" s="35"/>
       <c r="B7" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="21" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
+        <v>68</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="18" customFormat="1" ht="38.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="22" t="s">
-        <v>77</v>
+    <row r="8" spans="1:11" s="18" customFormat="1" ht="51">
+      <c r="A8" s="35"/>
+      <c r="B8" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="21" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>62</v>
       </c>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
       <c r="K8" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="18" customFormat="1" ht="63.75">
-      <c r="A9" s="29"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="18" customFormat="1" ht="38.25">
+      <c r="A9" s="35"/>
       <c r="B9" s="22" t="s">
         <v>77</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23" t="s">
-        <v>47</v>
+        <v>82</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
@@ -6329,26 +6506,26 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="18" customFormat="1" ht="38.25">
-      <c r="A10" s="29"/>
+    <row r="10" spans="1:11" s="18" customFormat="1" ht="63.75">
+      <c r="A10" s="35"/>
       <c r="B10" s="22" t="s">
         <v>77</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
@@ -6357,25 +6534,25 @@
       </c>
     </row>
     <row r="11" spans="1:11" s="18" customFormat="1" ht="38.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="22" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
@@ -6383,26 +6560,26 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="18" customFormat="1" ht="76.5">
-      <c r="A12" s="29"/>
+    <row r="12" spans="1:11" s="18" customFormat="1" ht="38.25">
+      <c r="A12" s="35"/>
       <c r="B12" s="22" t="s">
         <v>77</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
@@ -6410,75 +6587,76 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="18" customFormat="1" ht="38.25">
-      <c r="A13" s="29"/>
+    <row r="13" spans="1:11" s="18" customFormat="1" ht="76.5">
+      <c r="A13" s="35"/>
       <c r="B13" s="22" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
-      <c r="K13" s="21"/>
-    </row>
-    <row r="14" spans="1:11" s="18" customFormat="1" ht="89.25">
+      <c r="K13" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="18" customFormat="1" ht="38.25">
+      <c r="A14" s="35"/>
       <c r="B14" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>94</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="23"/>
       <c r="F14" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>98</v>
+        <v>112</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>113</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
-      <c r="K14" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="18" customFormat="1" ht="76.5">
+      <c r="K14" s="21"/>
+    </row>
+    <row r="15" spans="1:11" s="18" customFormat="1" ht="89.25">
       <c r="B15" s="22" t="s">
         <v>104</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="23"/>
+        <v>105</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>94</v>
+      </c>
       <c r="F15" s="23" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="H15" s="23" t="s">
         <v>100</v>
@@ -6489,77 +6667,78 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="18" customFormat="1" ht="38.25">
+    <row r="16" spans="1:11" s="18" customFormat="1" ht="76.5">
       <c r="B16" s="22" t="s">
         <v>104</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
-      <c r="K16" s="21"/>
-    </row>
-    <row r="17" spans="2:11" s="18" customFormat="1" ht="76.5">
+      <c r="K16" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B17" s="22" t="s">
         <v>104</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
-      <c r="K17" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" s="18" customFormat="1" ht="51">
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18" spans="2:11" s="18" customFormat="1" ht="76.5">
       <c r="B18" s="22" t="s">
         <v>104</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
       <c r="K18" s="21" t="s">
         <v>57</v>
       </c>
@@ -6569,46 +6748,45 @@
         <v>104</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
       <c r="K19" s="21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:11" s="18" customFormat="1" ht="89.25">
+    <row r="20" spans="2:11" s="18" customFormat="1" ht="51">
       <c r="B20" s="22" t="s">
         <v>104</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" s="28"/>
+        <v>110</v>
+      </c>
+      <c r="E20" s="23"/>
       <c r="F20" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
@@ -6616,227 +6794,355 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="2:11" s="18" customFormat="1" ht="38.25">
+    <row r="21" spans="2:11" s="18" customFormat="1" ht="89.25">
       <c r="B21" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>124</v>
+      <c r="C21" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>129</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E21" s="28"/>
       <c r="F21" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>130</v>
+        <v>70</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>122</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="21"/>
+        <v>73</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="21" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="22" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B22" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>126</v>
+      <c r="C22" s="25" t="s">
+        <v>124</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" s="28"/>
+        <v>127</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>129</v>
+      </c>
       <c r="F22" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>118</v>
+        <v>131</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>130</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="2:11" s="18" customFormat="1">
+    <row r="23" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B23" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="C23" s="23"/>
+        <v>104</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>126</v>
+      </c>
       <c r="D23" s="28" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E23" s="28"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="23"/>
+      <c r="F23" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>133</v>
+      </c>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="2:11" s="18" customFormat="1">
+    <row r="24" spans="2:11" s="18" customFormat="1" ht="51">
       <c r="B24" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="23" t="s">
+        <v>141</v>
+      </c>
       <c r="D24" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="23"/>
+        <v>135</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>152</v>
+      </c>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="2:11" s="18" customFormat="1">
+    <row r="25" spans="2:11" s="18" customFormat="1" ht="51">
       <c r="B25" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="23"/>
+      <c r="C25" s="23" t="s">
+        <v>140</v>
+      </c>
       <c r="D25" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="23"/>
+        <v>136</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>153</v>
+      </c>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="2:11" s="18" customFormat="1">
+    <row r="26" spans="2:11" s="18" customFormat="1" ht="51">
       <c r="B26" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="23"/>
+      <c r="C26" s="23" t="s">
+        <v>142</v>
+      </c>
       <c r="D26" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="23"/>
+        <v>137</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>158</v>
+      </c>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="2:11" s="18" customFormat="1">
+    <row r="27" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B27" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="D27" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="21"/>
+    </row>
+    <row r="28" spans="2:11" s="18" customFormat="1" ht="38.25">
+      <c r="B28" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-    </row>
-    <row r="28" spans="2:11" s="18" customFormat="1">
-      <c r="B28" s="24"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-    </row>
-    <row r="29" spans="2:11" s="18" customFormat="1">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="21"/>
+    </row>
+    <row r="29" spans="2:11" s="18" customFormat="1" ht="25.5">
+      <c r="B29" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>171</v>
+      </c>
       <c r="I29" s="24"/>
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="2:11" s="18" customFormat="1">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="23"/>
+    <row r="30" spans="2:11" s="18" customFormat="1" ht="25.5">
+      <c r="B30" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>171</v>
+      </c>
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="2:11" s="18" customFormat="1">
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="23"/>
+    <row r="31" spans="2:11" s="18" customFormat="1" ht="38.25">
+      <c r="B31" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>173</v>
+      </c>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
     </row>
     <row r="32" spans="2:11" s="18" customFormat="1">
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
+      <c r="B32" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G32" s="25"/>
       <c r="H32" s="23"/>
       <c r="I32" s="24"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
     </row>
     <row r="33" spans="2:11" s="18" customFormat="1">
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
+      <c r="B33" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" s="23"/>
+      <c r="G33" s="25"/>
       <c r="H33" s="23"/>
       <c r="I33" s="24"/>
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
     </row>
     <row r="34" spans="2:11" s="18" customFormat="1">
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
+      <c r="B34" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="25"/>
       <c r="H34" s="23"/>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
     </row>
     <row r="35" spans="2:11" s="18" customFormat="1">
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
+      <c r="B35" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="25"/>
       <c r="H35" s="23"/>
       <c r="I35" s="24"/>
       <c r="J35" s="24"/>
@@ -6844,11 +7150,11 @@
     </row>
     <row r="36" spans="2:11" s="18" customFormat="1">
       <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
+      <c r="C36" s="23"/>
       <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="25"/>
       <c r="H36" s="23"/>
       <c r="I36" s="24"/>
       <c r="J36" s="24"/>
@@ -6856,84 +7162,84 @@
     </row>
     <row r="37" spans="2:11" s="18" customFormat="1">
       <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
+      <c r="C37" s="23"/>
       <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="23"/>
       <c r="I37" s="24"/>
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
     </row>
     <row r="38" spans="2:11" s="18" customFormat="1">
       <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="23"/>
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
     </row>
     <row r="39" spans="2:11" s="18" customFormat="1">
       <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
+      <c r="C39" s="23"/>
       <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="23"/>
       <c r="I39" s="24"/>
       <c r="J39" s="24"/>
       <c r="K39" s="24"/>
     </row>
     <row r="40" spans="2:11" s="18" customFormat="1">
       <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
+      <c r="C40" s="23"/>
       <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="23"/>
       <c r="I40" s="24"/>
       <c r="J40" s="24"/>
       <c r="K40" s="24"/>
     </row>
     <row r="41" spans="2:11" s="18" customFormat="1">
       <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
+      <c r="C41" s="23"/>
       <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="23"/>
       <c r="I41" s="24"/>
       <c r="J41" s="24"/>
       <c r="K41" s="24"/>
     </row>
     <row r="42" spans="2:11" s="18" customFormat="1">
       <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
+      <c r="C42" s="23"/>
       <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="23"/>
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
     </row>
     <row r="43" spans="2:11" s="18" customFormat="1">
       <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
+      <c r="C43" s="23"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="23"/>
       <c r="I43" s="24"/>
       <c r="J43" s="24"/>
       <c r="K43" s="24"/>
@@ -6944,8 +7250,8 @@
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="23"/>
       <c r="I44" s="24"/>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
@@ -6956,8 +7262,8 @@
       <c r="D45" s="24"/>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="23"/>
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
@@ -6968,8 +7274,8 @@
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="23"/>
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
       <c r="K46" s="24"/>
@@ -6980,8 +7286,8 @@
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="23"/>
       <c r="I47" s="24"/>
       <c r="J47" s="24"/>
       <c r="K47" s="24"/>
@@ -6992,7 +7298,7 @@
       <c r="D48" s="24"/>
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
+      <c r="G48" s="25"/>
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
       <c r="J48" s="24"/>
@@ -7004,7 +7310,7 @@
       <c r="D49" s="24"/>
       <c r="E49" s="24"/>
       <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
+      <c r="G49" s="25"/>
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
       <c r="J49" s="24"/>
@@ -7016,7 +7322,7 @@
       <c r="D50" s="24"/>
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
+      <c r="G50" s="25"/>
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
@@ -7028,7 +7334,7 @@
       <c r="D51" s="24"/>
       <c r="E51" s="24"/>
       <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
+      <c r="G51" s="25"/>
       <c r="H51" s="24"/>
       <c r="I51" s="24"/>
       <c r="J51" s="24"/>
@@ -7040,7 +7346,7 @@
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
       <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
+      <c r="G52" s="25"/>
       <c r="H52" s="24"/>
       <c r="I52" s="24"/>
       <c r="J52" s="24"/>
@@ -7052,7 +7358,7 @@
       <c r="D53" s="24"/>
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
+      <c r="G53" s="25"/>
       <c r="H53" s="24"/>
       <c r="I53" s="24"/>
       <c r="J53" s="24"/>
@@ -7143,10 +7449,28 @@
       <c r="K60" s="24"/>
     </row>
     <row r="61" spans="2:11" s="18" customFormat="1">
-      <c r="B61" s="19"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
     </row>
     <row r="62" spans="2:11" s="18" customFormat="1">
-      <c r="B62" s="19"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
     </row>
     <row r="63" spans="2:11" s="18" customFormat="1">
       <c r="B63" s="19"/>
@@ -8249,27 +8573,33 @@
     <row r="429" spans="2:10" s="18" customFormat="1">
       <c r="B429" s="19"/>
     </row>
-    <row r="430" spans="2:10">
+    <row r="430" spans="2:10" s="18" customFormat="1">
       <c r="B430" s="19"/>
-      <c r="C430" s="18"/>
-      <c r="D430" s="18"/>
-      <c r="E430" s="18"/>
-      <c r="F430" s="18"/>
-      <c r="G430" s="18"/>
-      <c r="H430" s="18"/>
-      <c r="I430" s="18"/>
-      <c r="J430" s="18"/>
-    </row>
-    <row r="431" spans="2:10">
+    </row>
+    <row r="431" spans="2:10" s="18" customFormat="1">
       <c r="B431" s="19"/>
-      <c r="C431" s="18"/>
-      <c r="D431" s="18"/>
-      <c r="E431" s="18"/>
-      <c r="F431" s="18"/>
-      <c r="G431" s="18"/>
-      <c r="H431" s="18"/>
-      <c r="I431" s="18"/>
-      <c r="J431" s="18"/>
+    </row>
+    <row r="432" spans="2:10">
+      <c r="B432" s="19"/>
+      <c r="C432" s="18"/>
+      <c r="D432" s="18"/>
+      <c r="E432" s="18"/>
+      <c r="F432" s="18"/>
+      <c r="G432" s="18"/>
+      <c r="H432" s="18"/>
+      <c r="I432" s="18"/>
+      <c r="J432" s="18"/>
+    </row>
+    <row r="433" spans="2:10">
+      <c r="B433" s="19"/>
+      <c r="C433" s="18"/>
+      <c r="D433" s="18"/>
+      <c r="E433" s="18"/>
+      <c r="F433" s="18"/>
+      <c r="G433" s="18"/>
+      <c r="H433" s="18"/>
+      <c r="I433" s="18"/>
+      <c r="J433" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>

--- a/doc/Casos de Prueba GSIAM.xlsx
+++ b/doc/Casos de Prueba GSIAM.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="201">
   <si>
     <t>Alcance</t>
   </si>
@@ -1406,16 +1406,64 @@
     <t>CP07-03</t>
   </si>
   <si>
-    <t>CP07-04</t>
-  </si>
-  <si>
     <t>Enviar solicitud</t>
   </si>
   <si>
     <t>Volver a enviar solicitud</t>
   </si>
   <si>
-    <t>Usuario envia</t>
+    <t>Enviar solicitud. No se confirma la accion</t>
+  </si>
+  <si>
+    <t>Se selecciona un usuario para enviarle una solicitud de amistad.</t>
+  </si>
+  <si>
+    <t>Se selecciona un usuario el cual ya se le envio una solicitud de amistad.</t>
+  </si>
+  <si>
+    <t>Seleccionar al usuario del CP07-01</t>
+  </si>
+  <si>
+    <t>CU05, modificar al usuario a enviarle la solicitud, ponerle un mail accesible para revisar la casilla.</t>
+  </si>
+  <si>
+    <t>Seleccionar un usuario de la lista que genero el CU 5.</t>
+  </si>
+  <si>
+    <t>Se crea la solicitud, esto se comprueba viendo als solicitudes (CU06). Se le envia un mail al usaurio seleccionado.</t>
+  </si>
+  <si>
+    <t>sistema muestra un mensaje indicando que ya se le envio una solicitud al usuario.</t>
+  </si>
+  <si>
+    <t>No se envia la solciitud.</t>
+  </si>
+  <si>
+    <t>CU08</t>
+  </si>
+  <si>
+    <t>CP08-01</t>
+  </si>
+  <si>
+    <t>CP08-02</t>
+  </si>
+  <si>
+    <t>CP08-03</t>
+  </si>
+  <si>
+    <t>CP08-04</t>
+  </si>
+  <si>
+    <t>Responder solicitud. No se confirma la accion</t>
+  </si>
+  <si>
+    <t>Confirmar Amistad desde buscar usuario.</t>
+  </si>
+  <si>
+    <t>Rechazar Amistad desde buscar usuario</t>
+  </si>
+  <si>
+    <t>Responder solicitud desde las solicitudes recibidas.</t>
   </si>
 </sst>
 </file>
@@ -1762,6 +1810,12 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1776,12 +1830,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2203,31 +2251,31 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="36">
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
       <c r="M12" s="14"/>
     </row>
     <row r="13" spans="1:13" ht="12" customHeight="1">
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
       <c r="M13" s="14"/>
     </row>
     <row r="14" spans="1:13" ht="12" customHeight="1">
@@ -2244,20 +2292,20 @@
       <c r="M14" s="14"/>
     </row>
     <row r="15" spans="1:13" ht="23.25">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
     </row>
     <row r="16" spans="1:13"/>
     <row r="17" spans="6:9"/>
@@ -2265,12 +2313,12 @@
     <row r="19" spans="6:9"/>
     <row r="20" spans="6:9"/>
     <row r="21" spans="6:9">
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
     </row>
     <row r="22" spans="6:9"/>
     <row r="23" spans="6:9"/>
@@ -6281,8 +6329,8 @@
   <dimension ref="A2:K433"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6302,13 +6350,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:11" s="17" customFormat="1" ht="37.5">
       <c r="B3" s="26" t="s">
@@ -6343,7 +6391,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="38.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="20" t="s">
         <v>58</v>
       </c>
@@ -6372,7 +6420,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="25.5">
-      <c r="A5" s="35"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="20" t="s">
         <v>58</v>
       </c>
@@ -6399,7 +6447,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="51">
-      <c r="A6" s="35"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="20" t="s">
         <v>58</v>
       </c>
@@ -6426,7 +6474,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="18" customFormat="1" ht="25.5">
-      <c r="A7" s="35"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="20" t="s">
         <v>58</v>
       </c>
@@ -6453,7 +6501,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="18" customFormat="1" ht="51">
-      <c r="A8" s="35"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="20" t="s">
         <v>58</v>
       </c>
@@ -6480,7 +6528,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="18" customFormat="1" ht="38.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="22" t="s">
         <v>77</v>
       </c>
@@ -6507,7 +6555,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="18" customFormat="1" ht="63.75">
-      <c r="A10" s="35"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="22" t="s">
         <v>77</v>
       </c>
@@ -6534,7 +6582,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" s="18" customFormat="1" ht="38.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="22" t="s">
         <v>77</v>
       </c>
@@ -6561,7 +6609,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" s="18" customFormat="1" ht="38.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="22" t="s">
         <v>77</v>
       </c>
@@ -6588,7 +6636,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" s="18" customFormat="1" ht="76.5">
-      <c r="A13" s="35"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="22" t="s">
         <v>77</v>
       </c>
@@ -6615,7 +6663,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" s="18" customFormat="1" ht="38.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="22" t="s">
         <v>101</v>
       </c>
@@ -6986,7 +7034,7 @@
       <c r="F28" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="23" t="s">
         <v>118</v>
       </c>
       <c r="H28" s="23" t="s">
@@ -7012,7 +7060,7 @@
       <c r="F29" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="23" t="s">
         <v>118</v>
       </c>
       <c r="H29" s="23" t="s">
@@ -7038,7 +7086,7 @@
       <c r="F30" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="23" t="s">
         <v>118</v>
       </c>
       <c r="H30" s="23" t="s">
@@ -7064,7 +7112,7 @@
       <c r="F31" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="23" t="s">
         <v>118</v>
       </c>
       <c r="H31" s="23" t="s">
@@ -7074,34 +7122,38 @@
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
     </row>
-    <row r="32" spans="2:11" s="18" customFormat="1">
+    <row r="32" spans="2:11" s="18" customFormat="1" ht="63.75">
       <c r="B32" s="22" t="s">
         <v>177</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D32" s="28" t="s">
         <v>178</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="F32" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G32" s="25"/>
-      <c r="H32" s="23"/>
+      <c r="G32" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>189</v>
+      </c>
       <c r="I32" s="24"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="2:11" s="18" customFormat="1">
+    <row r="33" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B33" s="22" t="s">
         <v>177</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D33" s="28" t="s">
         <v>179</v>
@@ -7109,76 +7161,112 @@
       <c r="E33" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="23"/>
+      <c r="F33" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>190</v>
+      </c>
       <c r="I33" s="24"/>
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
     </row>
-    <row r="34" spans="2:11" s="18" customFormat="1">
+    <row r="34" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B34" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="23"/>
+      <c r="C34" s="23" t="s">
+        <v>183</v>
+      </c>
       <c r="D34" s="28" t="s">
         <v>180</v>
       </c>
       <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="23"/>
+      <c r="F34" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>191</v>
+      </c>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
     </row>
-    <row r="35" spans="2:11" s="18" customFormat="1">
+    <row r="35" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B35" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C35" s="23"/>
+        <v>192</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>198</v>
+      </c>
       <c r="D35" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="E35" s="23"/>
+        <v>193</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>178</v>
+      </c>
       <c r="F35" s="23"/>
-      <c r="G35" s="25"/>
+      <c r="G35" s="23"/>
       <c r="H35" s="23"/>
       <c r="I35" s="24"/>
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
     </row>
-    <row r="36" spans="2:11" s="18" customFormat="1">
-      <c r="B36" s="24"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="24"/>
+    <row r="36" spans="2:11" s="18" customFormat="1" ht="25.5">
+      <c r="B36" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>194</v>
+      </c>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
-      <c r="G36" s="25"/>
+      <c r="G36" s="23"/>
       <c r="H36" s="23"/>
       <c r="I36" s="24"/>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
     </row>
-    <row r="37" spans="2:11" s="18" customFormat="1">
-      <c r="B37" s="24"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="24"/>
+    <row r="37" spans="2:11" s="18" customFormat="1" ht="25.5">
+      <c r="B37" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>195</v>
+      </c>
       <c r="E37" s="23"/>
       <c r="F37" s="23"/>
-      <c r="G37" s="25"/>
+      <c r="G37" s="23"/>
       <c r="H37" s="23"/>
       <c r="I37" s="24"/>
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="2:11" s="18" customFormat="1">
-      <c r="B38" s="24"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="24"/>
+    <row r="38" spans="2:11" s="18" customFormat="1" ht="25.5">
+      <c r="B38" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>196</v>
+      </c>
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
-      <c r="G38" s="25"/>
+      <c r="G38" s="23"/>
       <c r="H38" s="23"/>
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
@@ -7190,7 +7278,7 @@
       <c r="D39" s="24"/>
       <c r="E39" s="23"/>
       <c r="F39" s="23"/>
-      <c r="G39" s="25"/>
+      <c r="G39" s="23"/>
       <c r="H39" s="23"/>
       <c r="I39" s="24"/>
       <c r="J39" s="24"/>
@@ -7202,7 +7290,7 @@
       <c r="D40" s="24"/>
       <c r="E40" s="23"/>
       <c r="F40" s="23"/>
-      <c r="G40" s="25"/>
+      <c r="G40" s="23"/>
       <c r="H40" s="23"/>
       <c r="I40" s="24"/>
       <c r="J40" s="24"/>
@@ -7214,7 +7302,7 @@
       <c r="D41" s="24"/>
       <c r="E41" s="23"/>
       <c r="F41" s="23"/>
-      <c r="G41" s="25"/>
+      <c r="G41" s="23"/>
       <c r="H41" s="23"/>
       <c r="I41" s="24"/>
       <c r="J41" s="24"/>
@@ -7226,7 +7314,7 @@
       <c r="D42" s="24"/>
       <c r="E42" s="23"/>
       <c r="F42" s="23"/>
-      <c r="G42" s="25"/>
+      <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>

--- a/doc/Casos de Prueba GSIAM.xlsx
+++ b/doc/Casos de Prueba GSIAM.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="254">
   <si>
     <t>Alcance</t>
   </si>
@@ -1464,6 +1464,181 @@
   </si>
   <si>
     <t>Responder solicitud desde las solicitudes recibidas.</t>
+  </si>
+  <si>
+    <t>Loguearse con un usuario al cual se le envio la solicitud en el CP07-01</t>
+  </si>
+  <si>
+    <t>Se confirma la amistad.</t>
+  </si>
+  <si>
+    <t>Se rechaza la amistad.</t>
+  </si>
+  <si>
+    <t>Al usuario seleccionado se le borra el tipo de solicitud.</t>
+  </si>
+  <si>
+    <t>El usuario seleccionado desaparece de la lista de busqueda y aparece en al lista de amigos (CU09).</t>
+  </si>
+  <si>
+    <t>Repetir las pruebas CP08-01 y CP08-02 pero desde la pantalla de ver solicitudes recibidas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se elimina la solicitud de la lista de solicitudes. </t>
+  </si>
+  <si>
+    <t>No se responde la solciitud.</t>
+  </si>
+  <si>
+    <t>CU09</t>
+  </si>
+  <si>
+    <t>CP09-01</t>
+  </si>
+  <si>
+    <t>CP09-02</t>
+  </si>
+  <si>
+    <t>Visualizar amigos</t>
+  </si>
+  <si>
+    <t>Ver los amigos recientemente agregados y chequear que los rechazados no esten en la lista.</t>
+  </si>
+  <si>
+    <t>Actualizar</t>
+  </si>
+  <si>
+    <t>Visualizacion de los amigos que se agegaron en lso CP anteriores.</t>
+  </si>
+  <si>
+    <t>Enviar una solicitud de amistad a una persona.</t>
+  </si>
+  <si>
+    <t>Con la pantalla de amigos a la vista, la persona a la cual recientemente se le envio una solicitud debera aceptar como amigo.</t>
+  </si>
+  <si>
+    <t>Al actualizar la pantalla debera aparecer la nueva persona a la cual acepto la solicitud.</t>
+  </si>
+  <si>
+    <t>CU10</t>
+  </si>
+  <si>
+    <t>CP10-01</t>
+  </si>
+  <si>
+    <t>CP10-02</t>
+  </si>
+  <si>
+    <t>Ver amigos en radar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin señal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deshabilitar el GPS y la red </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema intenta sacar la posicion. </t>
+  </si>
+  <si>
+    <t>Sistema muestra un mensaje de error indicando que se debera habilitar el GPS.</t>
+  </si>
+  <si>
+    <t>Ubicar a los amigos en el mapa</t>
+  </si>
+  <si>
+    <t>CU11 - Debe existir algun amigo con la opcion compartir ubicación.</t>
+  </si>
+  <si>
+    <t>Se visualizan los amigos en al mapa.</t>
+  </si>
+  <si>
+    <t>CU11</t>
+  </si>
+  <si>
+    <t>CP11-01</t>
+  </si>
+  <si>
+    <t>CP11-02</t>
+  </si>
+  <si>
+    <t>CP11-03</t>
+  </si>
+  <si>
+    <t>Compartir Ubicación</t>
+  </si>
+  <si>
+    <t>No Compartir ubicación</t>
+  </si>
+  <si>
+    <t>Esta prueba es en conjunto con la CP10-01</t>
+  </si>
+  <si>
+    <t>Se utiliza esta prueba para ver los amgios en el radar en el CU 10.</t>
+  </si>
+  <si>
+    <t>Dejar de compartir la ubicación</t>
+  </si>
+  <si>
+    <t>Se debera revisar los datos para ver si se dejo de enviar las coordenadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se selecciona la opcion compartir y el Sistema intenta sacar la posicion. </t>
+  </si>
+  <si>
+    <t>CU12</t>
+  </si>
+  <si>
+    <t>CP12-01</t>
+  </si>
+  <si>
+    <t>CP12-02</t>
+  </si>
+  <si>
+    <t>CP12-03</t>
+  </si>
+  <si>
+    <t>CP12-04</t>
+  </si>
+  <si>
+    <t>Invitar via mail</t>
+  </si>
+  <si>
+    <t>Invitar via Facebook</t>
+  </si>
+  <si>
+    <t>Sistema envia invitacion a un mail.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>mail:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> un mail que no este en el sistema y que se tenga acceso.</t>
+    </r>
+  </si>
+  <si>
+    <t>Le llega un mail a la casilla ingresada con la invitacion.</t>
+  </si>
+  <si>
+    <t>Sistema envia invitacion a amigos de su facebook.</t>
+  </si>
+  <si>
+    <t>se deberan elegir 1 o mas amigos del facebook.</t>
+  </si>
+  <si>
+    <t>Revisar el muro de lso amigos seleccionados, se debe encontrar la invitacion.</t>
   </si>
 </sst>
 </file>
@@ -6329,8 +6504,8 @@
   <dimension ref="A2:K433"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35:E36"/>
+      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -7198,7 +7373,7 @@
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
     </row>
-    <row r="35" spans="2:11" s="18" customFormat="1" ht="25.5">
+    <row r="35" spans="2:11" s="18" customFormat="1" ht="51">
       <c r="B35" s="22" t="s">
         <v>192</v>
       </c>
@@ -7209,16 +7384,22 @@
         <v>193</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
+        <v>201</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>205</v>
+      </c>
       <c r="I35" s="24"/>
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
     </row>
-    <row r="36" spans="2:11" s="18" customFormat="1" ht="25.5">
+    <row r="36" spans="2:11" s="18" customFormat="1" ht="51">
       <c r="B36" s="22" t="s">
         <v>192</v>
       </c>
@@ -7228,15 +7409,23 @@
       <c r="D36" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
+      <c r="E36" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>204</v>
+      </c>
       <c r="I36" s="24"/>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
     </row>
-    <row r="37" spans="2:11" s="18" customFormat="1" ht="25.5">
+    <row r="37" spans="2:11" s="18" customFormat="1" ht="51">
       <c r="B37" s="22" t="s">
         <v>192</v>
       </c>
@@ -7246,15 +7435,23 @@
       <c r="D37" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
+      <c r="E37" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>207</v>
+      </c>
       <c r="I37" s="24"/>
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="2:11" s="18" customFormat="1" ht="25.5">
+    <row r="38" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B38" s="22" t="s">
         <v>192</v>
       </c>
@@ -7265,152 +7462,286 @@
         <v>196</v>
       </c>
       <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
+      <c r="F38" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>208</v>
+      </c>
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="2:11" s="18" customFormat="1">
-      <c r="B39" s="24"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="24"/>
+    <row r="39" spans="2:11" s="18" customFormat="1" ht="38.25">
+      <c r="B39" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>210</v>
+      </c>
       <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
+      <c r="F39" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>215</v>
+      </c>
       <c r="I39" s="24"/>
       <c r="J39" s="24"/>
       <c r="K39" s="24"/>
     </row>
-    <row r="40" spans="2:11" s="18" customFormat="1">
-      <c r="B40" s="24"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
+    <row r="40" spans="2:11" s="18" customFormat="1" ht="51">
+      <c r="B40" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>218</v>
+      </c>
       <c r="I40" s="24"/>
       <c r="J40" s="24"/>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" spans="2:11" s="18" customFormat="1">
-      <c r="B41" s="24"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
+    <row r="41" spans="2:11" s="18" customFormat="1" ht="38.25">
+      <c r="B41" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>229</v>
+      </c>
       <c r="I41" s="24"/>
       <c r="J41" s="24"/>
       <c r="K41" s="24"/>
     </row>
-    <row r="42" spans="2:11" s="18" customFormat="1">
-      <c r="B42" s="24"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
+    <row r="42" spans="2:11" s="18" customFormat="1" ht="25.5">
+      <c r="B42" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>226</v>
+      </c>
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
     </row>
-    <row r="43" spans="2:11" s="18" customFormat="1">
-      <c r="B43" s="24"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="24"/>
+    <row r="43" spans="2:11" s="18" customFormat="1" ht="25.5">
+      <c r="B43" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>231</v>
+      </c>
       <c r="E43" s="24"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="23"/>
+      <c r="F43" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>237</v>
+      </c>
       <c r="I43" s="24"/>
       <c r="J43" s="24"/>
       <c r="K43" s="24"/>
     </row>
-    <row r="44" spans="2:11" s="18" customFormat="1">
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
+    <row r="44" spans="2:11" s="18" customFormat="1" ht="25.5">
+      <c r="B44" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>232</v>
+      </c>
       <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="23"/>
+      <c r="F44" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>239</v>
+      </c>
       <c r="I44" s="24"/>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
     </row>
-    <row r="45" spans="2:11" s="18" customFormat="1">
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="23"/>
+    <row r="45" spans="2:11" s="18" customFormat="1" ht="25.5">
+      <c r="B45" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>226</v>
+      </c>
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
     </row>
-    <row r="46" spans="2:11" s="18" customFormat="1">
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
+    <row r="46" spans="2:11" s="18" customFormat="1" ht="25.5">
+      <c r="B46" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>242</v>
+      </c>
       <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="23"/>
+      <c r="F46" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>250</v>
+      </c>
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
       <c r="K46" s="24"/>
     </row>
-    <row r="47" spans="2:11" s="18" customFormat="1">
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
+    <row r="47" spans="2:11" s="18" customFormat="1" ht="25.5">
+      <c r="B47" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>243</v>
+      </c>
       <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="23"/>
+      <c r="F47" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>253</v>
+      </c>
       <c r="I47" s="24"/>
       <c r="J47" s="24"/>
       <c r="K47" s="24"/>
     </row>
     <row r="48" spans="2:11" s="18" customFormat="1">
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
+      <c r="B48" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>244</v>
+      </c>
       <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="25"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
     </row>
     <row r="49" spans="2:11" s="18" customFormat="1">
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
+      <c r="B49" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>245</v>
+      </c>
       <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="25"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
       <c r="J49" s="24"/>
       <c r="K49" s="24"/>
     </row>
     <row r="50" spans="2:11" s="18" customFormat="1">
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="28"/>
       <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="25"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
@@ -7418,11 +7749,11 @@
     </row>
     <row r="51" spans="2:11" s="18" customFormat="1">
       <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
+      <c r="C51" s="23"/>
       <c r="D51" s="24"/>
       <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="25"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
       <c r="H51" s="24"/>
       <c r="I51" s="24"/>
       <c r="J51" s="24"/>
@@ -7430,11 +7761,11 @@
     </row>
     <row r="52" spans="2:11" s="18" customFormat="1">
       <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
+      <c r="C52" s="23"/>
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="25"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
       <c r="H52" s="24"/>
       <c r="I52" s="24"/>
       <c r="J52" s="24"/>
@@ -7442,11 +7773,11 @@
     </row>
     <row r="53" spans="2:11" s="18" customFormat="1">
       <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
+      <c r="C53" s="23"/>
       <c r="D53" s="24"/>
       <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="25"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
       <c r="H53" s="24"/>
       <c r="I53" s="24"/>
       <c r="J53" s="24"/>
@@ -7454,11 +7785,11 @@
     </row>
     <row r="54" spans="2:11" s="18" customFormat="1">
       <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
+      <c r="C54" s="23"/>
       <c r="D54" s="24"/>
       <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="22"/>
       <c r="H54" s="24"/>
       <c r="I54" s="24"/>
       <c r="J54" s="24"/>
@@ -7466,11 +7797,11 @@
     </row>
     <row r="55" spans="2:11" s="18" customFormat="1">
       <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
+      <c r="C55" s="23"/>
       <c r="D55" s="24"/>
       <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="22"/>
       <c r="H55" s="24"/>
       <c r="I55" s="24"/>
       <c r="J55" s="24"/>
@@ -7481,8 +7812,8 @@
       <c r="C56" s="24"/>
       <c r="D56" s="24"/>
       <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="22"/>
       <c r="H56" s="24"/>
       <c r="I56" s="24"/>
       <c r="J56" s="24"/>
@@ -7493,8 +7824,8 @@
       <c r="C57" s="24"/>
       <c r="D57" s="24"/>
       <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="22"/>
       <c r="H57" s="24"/>
       <c r="I57" s="24"/>
       <c r="J57" s="24"/>

--- a/doc/Casos de Prueba GSIAM.xlsx
+++ b/doc/Casos de Prueba GSIAM.xlsx
@@ -10,9 +10,10 @@
     <sheet name="Portada" sheetId="8" r:id="rId1"/>
     <sheet name="Casos de Prueba - dd-mm-yyyy" sheetId="12" r:id="rId2"/>
     <sheet name="Escala Impacto" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="cuentas de e-mail" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Casos de Prueba - dd-mm-yyyy'!$A$2:$K$433</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Casos de Prueba - dd-mm-yyyy'!$A$2:$K$434</definedName>
     <definedName name="acciones">#REF!</definedName>
     <definedName name="Clasificacion">#REF!</definedName>
     <definedName name="ClasificacionRiesgos">#REF!</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="277">
   <si>
     <t>Alcance</t>
   </si>
@@ -1639,6 +1640,104 @@
   </si>
   <si>
     <t>Revisar el muro de lso amigos seleccionados, se debe encontrar la invitacion.</t>
+  </si>
+  <si>
+    <t>gsiam.test@gmail.com</t>
+  </si>
+  <si>
+    <t>gsiam.2011</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>gsiam.test2@gmail.com</t>
+  </si>
+  <si>
+    <t>El usuario ingresa e-mail de un usuario ya registrado.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>e-mail:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> mailerroneo.com</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que el usuario ya existe en el sistema.</t>
+  </si>
+  <si>
+    <t>CU13</t>
+  </si>
+  <si>
+    <t>CP13-01</t>
+  </si>
+  <si>
+    <t>CP13-02</t>
+  </si>
+  <si>
+    <t>CP13-03</t>
+  </si>
+  <si>
+    <t>CP13-04</t>
+  </si>
+  <si>
+    <t>CP13-05</t>
+  </si>
+  <si>
+    <t>CP13-06</t>
+  </si>
+  <si>
+    <t>CU14</t>
+  </si>
+  <si>
+    <t>CP14-01</t>
+  </si>
+  <si>
+    <t>CP14-02</t>
+  </si>
+  <si>
+    <t>CP14-03</t>
+  </si>
+  <si>
+    <t>CP14-04</t>
+  </si>
+  <si>
+    <t>CP14-05</t>
+  </si>
+  <si>
+    <t>Creacion del sitio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre Dirección: 
+Teléfono:  
+Pagina web: 
+Categoría: 
+Ubicación en el Mapa: </t>
   </si>
 </sst>
 </file>
@@ -6501,11 +6600,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A2:K433"/>
+  <dimension ref="A2:K434"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B50" sqref="B50:D50"/>
+      <pane ySplit="3" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -7699,7 +7798,7 @@
       <c r="J47" s="24"/>
       <c r="K47" s="24"/>
     </row>
-    <row r="48" spans="2:11" s="18" customFormat="1">
+    <row r="48" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B48" s="22" t="s">
         <v>241</v>
       </c>
@@ -7710,14 +7809,20 @@
         <v>244</v>
       </c>
       <c r="E48" s="24"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="24"/>
+      <c r="F48" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>68</v>
+      </c>
       <c r="I48" s="24"/>
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
     </row>
-    <row r="49" spans="2:11" s="18" customFormat="1">
+    <row r="49" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B49" s="22" t="s">
         <v>241</v>
       </c>
@@ -7728,149 +7833,207 @@
         <v>245</v>
       </c>
       <c r="E49" s="24"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="24"/>
+      <c r="F49" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>261</v>
+      </c>
       <c r="I49" s="24"/>
       <c r="J49" s="24"/>
       <c r="K49" s="24"/>
     </row>
     <row r="50" spans="2:11" s="18" customFormat="1">
-      <c r="B50" s="22"/>
+      <c r="B50" s="22" t="s">
+        <v>262</v>
+      </c>
       <c r="C50" s="23"/>
-      <c r="D50" s="28"/>
+      <c r="D50" s="28" t="s">
+        <v>263</v>
+      </c>
       <c r="E50" s="24"/>
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
-      <c r="H50" s="24"/>
+      <c r="H50" s="21"/>
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
     </row>
     <row r="51" spans="2:11" s="18" customFormat="1">
-      <c r="B51" s="24"/>
+      <c r="B51" s="22" t="s">
+        <v>262</v>
+      </c>
       <c r="C51" s="23"/>
-      <c r="D51" s="24"/>
+      <c r="D51" s="28" t="s">
+        <v>264</v>
+      </c>
       <c r="E51" s="24"/>
       <c r="F51" s="23"/>
       <c r="G51" s="23"/>
-      <c r="H51" s="24"/>
+      <c r="H51" s="21"/>
       <c r="I51" s="24"/>
       <c r="J51" s="24"/>
       <c r="K51" s="24"/>
     </row>
     <row r="52" spans="2:11" s="18" customFormat="1">
-      <c r="B52" s="24"/>
+      <c r="B52" s="22" t="s">
+        <v>262</v>
+      </c>
       <c r="C52" s="23"/>
-      <c r="D52" s="24"/>
+      <c r="D52" s="28" t="s">
+        <v>265</v>
+      </c>
       <c r="E52" s="24"/>
       <c r="F52" s="23"/>
       <c r="G52" s="23"/>
-      <c r="H52" s="24"/>
+      <c r="H52" s="21"/>
       <c r="I52" s="24"/>
       <c r="J52" s="24"/>
       <c r="K52" s="24"/>
     </row>
     <row r="53" spans="2:11" s="18" customFormat="1">
-      <c r="B53" s="24"/>
+      <c r="B53" s="22" t="s">
+        <v>262</v>
+      </c>
       <c r="C53" s="23"/>
-      <c r="D53" s="24"/>
+      <c r="D53" s="28" t="s">
+        <v>266</v>
+      </c>
       <c r="E53" s="24"/>
       <c r="F53" s="23"/>
       <c r="G53" s="23"/>
-      <c r="H53" s="24"/>
+      <c r="H53" s="21"/>
       <c r="I53" s="24"/>
       <c r="J53" s="24"/>
       <c r="K53" s="24"/>
     </row>
     <row r="54" spans="2:11" s="18" customFormat="1">
-      <c r="B54" s="24"/>
+      <c r="B54" s="22" t="s">
+        <v>262</v>
+      </c>
       <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
+      <c r="D54" s="28" t="s">
+        <v>267</v>
+      </c>
       <c r="E54" s="24"/>
       <c r="F54" s="23"/>
       <c r="G54" s="22"/>
-      <c r="H54" s="24"/>
+      <c r="H54" s="21"/>
       <c r="I54" s="24"/>
       <c r="J54" s="24"/>
       <c r="K54" s="24"/>
     </row>
     <row r="55" spans="2:11" s="18" customFormat="1">
-      <c r="B55" s="24"/>
+      <c r="B55" s="22" t="s">
+        <v>262</v>
+      </c>
       <c r="C55" s="23"/>
-      <c r="D55" s="24"/>
+      <c r="D55" s="28" t="s">
+        <v>268</v>
+      </c>
       <c r="E55" s="24"/>
       <c r="F55" s="23"/>
       <c r="G55" s="22"/>
-      <c r="H55" s="24"/>
+      <c r="H55" s="21"/>
       <c r="I55" s="24"/>
       <c r="J55" s="24"/>
       <c r="K55" s="24"/>
     </row>
     <row r="56" spans="2:11" s="18" customFormat="1">
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="28"/>
       <c r="E56" s="24"/>
       <c r="F56" s="23"/>
       <c r="G56" s="22"/>
-      <c r="H56" s="24"/>
+      <c r="H56" s="21"/>
       <c r="I56" s="24"/>
       <c r="J56" s="24"/>
       <c r="K56" s="24"/>
     </row>
-    <row r="57" spans="2:11" s="18" customFormat="1">
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
+    <row r="57" spans="2:11" s="18" customFormat="1" ht="63.75">
+      <c r="B57" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>270</v>
+      </c>
       <c r="E57" s="24"/>
       <c r="F57" s="23"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="24"/>
+      <c r="G57" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="H57" s="21"/>
       <c r="I57" s="24"/>
       <c r="J57" s="24"/>
       <c r="K57" s="24"/>
     </row>
     <row r="58" spans="2:11" s="18" customFormat="1">
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
+      <c r="B58" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>271</v>
+      </c>
       <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="21"/>
       <c r="I58" s="24"/>
       <c r="J58" s="24"/>
       <c r="K58" s="24"/>
     </row>
     <row r="59" spans="2:11" s="18" customFormat="1">
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
+      <c r="B59" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>272</v>
+      </c>
       <c r="E59" s="24"/>
       <c r="F59" s="24"/>
       <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
+      <c r="H59" s="21"/>
       <c r="I59" s="24"/>
       <c r="J59" s="24"/>
       <c r="K59" s="24"/>
     </row>
     <row r="60" spans="2:11" s="18" customFormat="1">
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
+      <c r="B60" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="C60" s="23"/>
+      <c r="D60" s="28" t="s">
+        <v>273</v>
+      </c>
       <c r="E60" s="24"/>
       <c r="F60" s="24"/>
       <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
+      <c r="H60" s="21"/>
       <c r="I60" s="24"/>
       <c r="J60" s="24"/>
       <c r="K60" s="24"/>
     </row>
     <row r="61" spans="2:11" s="18" customFormat="1">
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
+      <c r="B61" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="C61" s="23"/>
+      <c r="D61" s="28" t="s">
+        <v>274</v>
+      </c>
       <c r="E61" s="24"/>
       <c r="F61" s="24"/>
       <c r="G61" s="24"/>
@@ -7892,57 +8055,138 @@
       <c r="K62" s="24"/>
     </row>
     <row r="63" spans="2:11" s="18" customFormat="1">
-      <c r="B63" s="19"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
     </row>
     <row r="64" spans="2:11" s="18" customFormat="1">
-      <c r="B64" s="19"/>
-    </row>
-    <row r="65" spans="2:2" s="18" customFormat="1">
-      <c r="B65" s="19"/>
-    </row>
-    <row r="66" spans="2:2" s="18" customFormat="1">
-      <c r="B66" s="19"/>
-    </row>
-    <row r="67" spans="2:2" s="18" customFormat="1">
-      <c r="B67" s="19"/>
-    </row>
-    <row r="68" spans="2:2" s="18" customFormat="1">
-      <c r="B68" s="19"/>
-    </row>
-    <row r="69" spans="2:2" s="18" customFormat="1">
-      <c r="B69" s="19"/>
-    </row>
-    <row r="70" spans="2:2" s="18" customFormat="1">
-      <c r="B70" s="19"/>
-    </row>
-    <row r="71" spans="2:2" s="18" customFormat="1">
-      <c r="B71" s="19"/>
-    </row>
-    <row r="72" spans="2:2" s="18" customFormat="1">
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+    </row>
+    <row r="65" spans="2:11" s="18" customFormat="1">
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+    </row>
+    <row r="66" spans="2:11" s="18" customFormat="1">
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+    </row>
+    <row r="67" spans="2:11" s="18" customFormat="1">
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+    </row>
+    <row r="68" spans="2:11" s="18" customFormat="1">
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+    </row>
+    <row r="69" spans="2:11" s="18" customFormat="1">
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+    </row>
+    <row r="70" spans="2:11" s="18" customFormat="1">
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+    </row>
+    <row r="71" spans="2:11" s="18" customFormat="1">
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+    </row>
+    <row r="72" spans="2:11" s="18" customFormat="1">
       <c r="B72" s="19"/>
     </row>
-    <row r="73" spans="2:2" s="18" customFormat="1">
+    <row r="73" spans="2:11" s="18" customFormat="1">
       <c r="B73" s="19"/>
     </row>
-    <row r="74" spans="2:2" s="18" customFormat="1">
+    <row r="74" spans="2:11" s="18" customFormat="1">
       <c r="B74" s="19"/>
     </row>
-    <row r="75" spans="2:2" s="18" customFormat="1">
+    <row r="75" spans="2:11" s="18" customFormat="1">
       <c r="B75" s="19"/>
     </row>
-    <row r="76" spans="2:2" s="18" customFormat="1">
+    <row r="76" spans="2:11" s="18" customFormat="1">
       <c r="B76" s="19"/>
     </row>
-    <row r="77" spans="2:2" s="18" customFormat="1">
+    <row r="77" spans="2:11" s="18" customFormat="1">
       <c r="B77" s="19"/>
     </row>
-    <row r="78" spans="2:2" s="18" customFormat="1">
+    <row r="78" spans="2:11" s="18" customFormat="1">
       <c r="B78" s="19"/>
     </row>
-    <row r="79" spans="2:2" s="18" customFormat="1">
+    <row r="79" spans="2:11" s="18" customFormat="1">
       <c r="B79" s="19"/>
     </row>
-    <row r="80" spans="2:2" s="18" customFormat="1">
+    <row r="80" spans="2:11" s="18" customFormat="1">
       <c r="B80" s="19"/>
     </row>
     <row r="81" spans="2:2" s="18" customFormat="1">
@@ -8953,61 +9197,53 @@
     <row r="416" spans="2:2" s="18" customFormat="1">
       <c r="B416" s="19"/>
     </row>
-    <row r="417" spans="2:10" s="18" customFormat="1">
+    <row r="417" spans="2:2" s="18" customFormat="1">
       <c r="B417" s="19"/>
     </row>
-    <row r="418" spans="2:10" s="18" customFormat="1">
+    <row r="418" spans="2:2" s="18" customFormat="1">
       <c r="B418" s="19"/>
     </row>
-    <row r="419" spans="2:10" s="18" customFormat="1">
+    <row r="419" spans="2:2" s="18" customFormat="1">
       <c r="B419" s="19"/>
     </row>
-    <row r="420" spans="2:10" s="18" customFormat="1">
+    <row r="420" spans="2:2" s="18" customFormat="1">
       <c r="B420" s="19"/>
     </row>
-    <row r="421" spans="2:10" s="18" customFormat="1">
+    <row r="421" spans="2:2" s="18" customFormat="1">
       <c r="B421" s="19"/>
     </row>
-    <row r="422" spans="2:10" s="18" customFormat="1">
+    <row r="422" spans="2:2" s="18" customFormat="1">
       <c r="B422" s="19"/>
     </row>
-    <row r="423" spans="2:10" s="18" customFormat="1">
+    <row r="423" spans="2:2" s="18" customFormat="1">
       <c r="B423" s="19"/>
     </row>
-    <row r="424" spans="2:10" s="18" customFormat="1">
+    <row r="424" spans="2:2" s="18" customFormat="1">
       <c r="B424" s="19"/>
     </row>
-    <row r="425" spans="2:10" s="18" customFormat="1">
+    <row r="425" spans="2:2" s="18" customFormat="1">
       <c r="B425" s="19"/>
     </row>
-    <row r="426" spans="2:10" s="18" customFormat="1">
+    <row r="426" spans="2:2" s="18" customFormat="1">
       <c r="B426" s="19"/>
     </row>
-    <row r="427" spans="2:10" s="18" customFormat="1">
+    <row r="427" spans="2:2" s="18" customFormat="1">
       <c r="B427" s="19"/>
     </row>
-    <row r="428" spans="2:10" s="18" customFormat="1">
+    <row r="428" spans="2:2" s="18" customFormat="1">
       <c r="B428" s="19"/>
     </row>
-    <row r="429" spans="2:10" s="18" customFormat="1">
+    <row r="429" spans="2:2" s="18" customFormat="1">
       <c r="B429" s="19"/>
     </row>
-    <row r="430" spans="2:10" s="18" customFormat="1">
+    <row r="430" spans="2:2" s="18" customFormat="1">
       <c r="B430" s="19"/>
     </row>
-    <row r="431" spans="2:10" s="18" customFormat="1">
+    <row r="431" spans="2:2" s="18" customFormat="1">
       <c r="B431" s="19"/>
     </row>
-    <row r="432" spans="2:10">
+    <row r="432" spans="2:2" s="18" customFormat="1">
       <c r="B432" s="19"/>
-      <c r="C432" s="18"/>
-      <c r="D432" s="18"/>
-      <c r="E432" s="18"/>
-      <c r="F432" s="18"/>
-      <c r="G432" s="18"/>
-      <c r="H432" s="18"/>
-      <c r="I432" s="18"/>
-      <c r="J432" s="18"/>
     </row>
     <row r="433" spans="2:10">
       <c r="B433" s="19"/>
@@ -9019,6 +9255,17 @@
       <c r="H433" s="18"/>
       <c r="I433" s="18"/>
       <c r="J433" s="18"/>
+    </row>
+    <row r="434" spans="2:10">
+      <c r="B434" s="19"/>
+      <c r="C434" s="18"/>
+      <c r="D434" s="18"/>
+      <c r="E434" s="18"/>
+      <c r="F434" s="18"/>
+      <c r="G434" s="18"/>
+      <c r="H434" s="18"/>
+      <c r="I434" s="18"/>
+      <c r="J434" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -9165,4 +9412,49 @@
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/Casos de Prueba GSIAM.xlsx
+++ b/doc/Casos de Prueba GSIAM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="6795" windowHeight="7740" tabRatio="423" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="6795" windowHeight="7740" tabRatio="423" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="8" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="cuentas de e-mail" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Casos de Prueba - dd-mm-yyyy'!$A$2:$K$434</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Casos de Prueba - dd-mm-yyyy'!$A$2:$K$428</definedName>
     <definedName name="acciones">#REF!</definedName>
     <definedName name="Clasificacion">#REF!</definedName>
     <definedName name="ClasificacionRiesgos">#REF!</definedName>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="348">
   <si>
     <t>Alcance</t>
   </si>
@@ -742,231 +742,6 @@
     <t>Tener al menos una imagen en la galeria del telefono.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>e-mail:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (vacio)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>contraseña:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (vacio)
-NOTA: La prueba se debera ejecutar combinando las opciones posibles.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">nombre: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(vacio)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>e-mail:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (vacio)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>contraseña:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (vacio)
-NOTA: La prueba se debera ejecutar combinando las opciones posibles.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">nombre: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(vacio)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>e-mail:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (vacio)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>contraseña:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (vacio)
-avatar: 
-NOTA: La prueba se debera ejecutar combinando las opciones posibles.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">nombre: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Pedrito Lopez
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>e-mail:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> gsiam.test2@gmail.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>contraseña:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1234
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>avatar:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Seleccionar una imagen al azar de la galeria.
-NOTA: La prueba se debera ejecutar combinando las opciones posibles.</t>
-    </r>
-  </si>
-  <si>
     <t>Usuario es modificado con datos correctos. La foto la debe sacar con la camara de fotos del telefono.</t>
   </si>
   <si>
@@ -1016,80 +791,6 @@
     <t>nombre: Pedro Lopez
 e-mail: gsiam.test@gmail.com
 contraseña: 123</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">nombre: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Pedro Lopez
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>e-mail:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> gsiam.test@gmail.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>contraseña:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 123
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>avatar:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Tomar una foto con el telefono.
-NOTA: La prueba se debera ejecutar combinando las opciones posibles.</t>
-    </r>
   </si>
   <si>
     <t>CP04-07</t>
@@ -1709,9 +1410,6 @@
     <t>CP13-05</t>
   </si>
   <si>
-    <t>CP13-06</t>
-  </si>
-  <si>
     <t>CU14</t>
   </si>
   <si>
@@ -1724,20 +1422,949 @@
     <t>CP14-03</t>
   </si>
   <si>
-    <t>CP14-04</t>
-  </si>
-  <si>
-    <t>CP14-05</t>
-  </si>
-  <si>
     <t>Creacion del sitio</t>
   </si>
   <si>
-    <t xml:space="preserve">Nombre Dirección: 
-Teléfono:  
-Pagina web: 
-Categoría: 
+    <t>Usuario crea un sitio exitosamente.</t>
+  </si>
+  <si>
+    <t>Se crea el nuevo sitio y se muestra un mensaje de éxito.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa Nombre, Dirección, Teléfono y Pagina web mayor al tamaño permitido.</t>
+  </si>
+  <si>
+    <r>
+      <t>Nombre:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Este sitio tiene un nombre muy muy largo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Dirección: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Avenida muy larga esquina bulevard demasiado largo entre las calles treinta y cuarenta numero 1234</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Teléfono: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>00569876335665559</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Pagina web: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://geolocalizacion-uas.googlecode.com/svn/code/trunk/GsiamMovil/res/drawable-hdpi/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>El sistema no debe permitir el ingreso de los caracteres que exedan el maximo (nombre= 30, dirección= 50, telefono=15 y pagina web= 50).</t>
+  </si>
+  <si>
+    <t>CU15</t>
+  </si>
+  <si>
+    <t>CP15-01</t>
+  </si>
+  <si>
+    <t>CP15-02</t>
+  </si>
+  <si>
+    <t>CP15-03</t>
+  </si>
+  <si>
+    <t>CP15-04</t>
+  </si>
+  <si>
+    <t>Modificacion de un sitio</t>
+  </si>
+  <si>
+    <t>Modificacion de un sitio. No se confirma la accion</t>
+  </si>
+  <si>
+    <t>Eliminacion de un sitio</t>
+  </si>
+  <si>
+    <t>Eliminacion de un sitio. No se confirma la accion</t>
+  </si>
+  <si>
+    <t>Validacion del usuario</t>
+  </si>
+  <si>
+    <t>CP15-05</t>
+  </si>
+  <si>
+    <t>CP15-06</t>
+  </si>
+  <si>
+    <t>CP15-07</t>
+  </si>
+  <si>
+    <t>Modificar sitio creado por el mismo usuario que esta logueado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sitio es modificado con datos correctos. </t>
+  </si>
+  <si>
+    <t>El sitio se modifica exitosamente y se muestra un mensaje de exito.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sitio prueba 2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Dirección: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Direccion de prueba</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2
+Teléfono:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>005698763999</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Pagina web: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>www.code.google.com/p/geolocalizacion-uas/modificado</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Categoría: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Casino</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
 Ubicación en el Mapa: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Moverla unos metros.
+NOTA: La prueba se debera ejecutar combinando todas estas opciones. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(vacio)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>e-mail:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (vacio)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>contraseña:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (vacio)
+NOTA: La prueba se debera ejecutar combinando todas estas opciones.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Pedrito Lopez
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>e-mail:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> gsiam.test2@gmail.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>contraseña:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1234
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>avatar:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Seleccionar una imagen al azar de la galeria.
+NOTA: La prueba se debera ejecutar combinando todas estas opciones.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Pedro Lopez
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>e-mail:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> gsiam.test@gmail.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>contraseña:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 123
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>avatar:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Tomar una foto con el telefono.
+NOTA: La prueba se debera ejecutar combinando todas estas opciones.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(vacio)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>e-mail:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (vacio)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>contraseña:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (vacio)
+avatar: 
+NOTA: La prueba se debera ejecutar combinando todas estas opciones.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sitio prueba</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Dirección: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Direccion de prueba</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Teléfono:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0056987633566</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Pagina web: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>www.code.google.com/p/geolocalizacion-uas/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Categoría: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Monumento</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Ubicación en el Mapa: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">La obtenida por el GPS
+NOTA: La prueba se debera ejecutar combinando todas estas opciones. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(vacio)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Dirección: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(vacio)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Teléfono:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0056987633566</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Pagina web: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>www.code.google.com/p/geolocalizacion-uas/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Categoría: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(vacio)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Ubicación en el Mapa: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>La obtenida por el GPS
+NOTA: La prueba se debera ejecutar combinando todas estas opciones.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>e-mail:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (vacio)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>contraseña:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (vacio)
+NOTA: La prueba se debera ejecutar combinando todas estas opciones.</t>
+    </r>
+  </si>
+  <si>
+    <t>Seleccionar un sitio que no sea creado por el usuario que esta logueado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema muestra mensaje indicando  que no es posible modificar o eliminar un sitio no creado por el. </t>
+  </si>
+  <si>
+    <t>El sistema debera validar que el usuario no es el que lo creo, por lo tanto no debera permitir esta accion.</t>
+  </si>
+  <si>
+    <t>No se modifica el sitio.</t>
+  </si>
+  <si>
+    <t>No se elimina el sitio.</t>
+  </si>
+  <si>
+    <t>Eliminar un sitio creado por el mismo usuario que esta logueado</t>
+  </si>
+  <si>
+    <t>El sitio se elimina pro el usuario que lo creo.</t>
+  </si>
+  <si>
+    <t>El sitio se elimina exitosamente y se muestra un mensaje de exito. Tambien se eliminan las publicaciones en caso de tenerlas.</t>
+  </si>
+  <si>
+    <t>CP01-06</t>
+  </si>
+  <si>
+    <t>Usuario invalido</t>
+  </si>
+  <si>
+    <t>Usuario invalido intenta ingresar al sistema.</t>
+  </si>
+  <si>
+    <t>Ingresar con un usuario con cuenta cerrada.</t>
+  </si>
+  <si>
+    <t>CU16</t>
+  </si>
+  <si>
+    <t>CP16-01</t>
+  </si>
+  <si>
+    <t>CP16-02</t>
+  </si>
+  <si>
+    <t>CP16-03</t>
+  </si>
+  <si>
+    <t>CP16-04</t>
+  </si>
+  <si>
+    <t>CP16-05</t>
+  </si>
+  <si>
+    <t>CU17</t>
+  </si>
+  <si>
+    <t>CP17-01</t>
+  </si>
+  <si>
+    <t>CP17-02</t>
+  </si>
+  <si>
+    <t>CP17-03</t>
+  </si>
+  <si>
+    <t>CP17-04</t>
+  </si>
+  <si>
+    <t>Encontrar Sitios cercanos</t>
+  </si>
+  <si>
+    <t>Encontrar sitios en la base de datos</t>
+  </si>
+  <si>
+    <t>Filtrar Sitios</t>
+  </si>
+  <si>
+    <t>Actualizar sitios</t>
+  </si>
+  <si>
+    <t>Haber creado sitios cercanos al lugar del dispositivo</t>
+  </si>
+  <si>
+    <t>Usuario busca los sitios cercanos a su posicion.</t>
+  </si>
+  <si>
+    <t>Se debera chequear que la consulta traiga todos los sitios creados asi como tambein la informacion que se muestra.</t>
+  </si>
+  <si>
+    <t>ejecutar el CP13-01</t>
+  </si>
+  <si>
+    <t>Usuario filtra los sitios encontrados</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>filtro categoria
+filtro ranking
+sin filtro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+NOTA: La prueba se debera ejecutar combinando todas las opciones de todos los filtros.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sistema muestra en pantalla los sitios según filtro aplicado.</t>
+  </si>
+  <si>
+    <t>CU14 - Crear un sitio lejano a la ubicación del usuario</t>
+  </si>
+  <si>
+    <t>Sistema ingresa el nombre del sitio.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>nombre:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ingresar el nombre del sitio anteriormente creado.</t>
+    </r>
+  </si>
+  <si>
+    <t>sistema muestra en pantalla el sitio.</t>
+  </si>
+  <si>
+    <t>Crear un sitio con otro usuario.</t>
+  </si>
+  <si>
+    <t>Con la pantalla de busqueda de sitios a la vista, otra persona debera crear un sitio. Despues se orpime la opcion actualizar.</t>
+  </si>
+  <si>
+    <t>Al actualizar la pantalla debera aparecer el nuevo sitio creado.</t>
+  </si>
+  <si>
+    <t>Ver sitio</t>
+  </si>
+  <si>
+    <t>Ver sitio en mapa</t>
+  </si>
+  <si>
+    <t>Compartir sitio</t>
+  </si>
+  <si>
+    <t>Como ir al sitio</t>
+  </si>
+  <si>
+    <t>Ver comentarios</t>
+  </si>
+  <si>
+    <t>Publicar</t>
+  </si>
+  <si>
+    <t>Publicar y camara de fotos</t>
+  </si>
+  <si>
+    <t>Publicar Facebook</t>
+  </si>
+  <si>
+    <t>CP17-05</t>
+  </si>
+  <si>
+    <t>CP17-06</t>
   </si>
 </sst>
 </file>
@@ -2002,7 +2629,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2104,6 +2731,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6600,11 +7233,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A2:K434"/>
+  <dimension ref="A2:K428"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6625,7 +7258,7 @@
   <sheetData>
     <row r="2" spans="1:11" ht="18" customHeight="1">
       <c r="B2" s="29" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -6673,10 +7306,10 @@
         <v>42</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>45</v>
@@ -6720,26 +7353,28 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="51">
+    <row r="6" spans="1:11" ht="25.5">
       <c r="A6" s="30"/>
       <c r="B6" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>44</v>
+      <c r="C6" s="21" t="s">
+        <v>306</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="21" t="s">
+        <v>122</v>
+      </c>
       <c r="F6" s="21" t="s">
-        <v>47</v>
+        <v>307</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>95</v>
+        <v>308</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
@@ -6747,26 +7382,26 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="18" customFormat="1" ht="25.5">
+    <row r="7" spans="1:11" s="18" customFormat="1" ht="51">
       <c r="A7" s="30"/>
       <c r="B7" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>80</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
@@ -6774,26 +7409,26 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="18" customFormat="1" ht="51">
+    <row r="8" spans="1:11" s="18" customFormat="1" ht="25.5">
       <c r="A8" s="30"/>
       <c r="B8" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>81</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="21" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
@@ -6801,53 +7436,49 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="18" customFormat="1" ht="38.25">
+    <row r="9" spans="1:11" s="18" customFormat="1" ht="51">
       <c r="A9" s="30"/>
-      <c r="B9" s="22" t="s">
-        <v>77</v>
-      </c>
+      <c r="B9" s="20"/>
       <c r="C9" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>82</v>
+        <v>305</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="21" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>62</v>
       </c>
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
-      <c r="K9" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="18" customFormat="1" ht="63.75">
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" s="18" customFormat="1" ht="38.25">
       <c r="A10" s="30"/>
       <c r="B10" s="22" t="s">
         <v>77</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23" t="s">
-        <v>47</v>
+        <v>82</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
@@ -6855,26 +7486,26 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="18" customFormat="1" ht="38.25">
+    <row r="11" spans="1:11" s="18" customFormat="1" ht="63.75">
       <c r="A11" s="30"/>
       <c r="B11" s="22" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
@@ -6888,20 +7519,20 @@
         <v>77</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
@@ -6909,26 +7540,26 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="18" customFormat="1" ht="76.5">
+    <row r="13" spans="1:11" s="18" customFormat="1" ht="38.25">
       <c r="A13" s="30"/>
       <c r="B13" s="22" t="s">
         <v>77</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
@@ -6936,78 +7567,79 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="18" customFormat="1" ht="38.25">
+    <row r="14" spans="1:11" s="18" customFormat="1" ht="76.5">
       <c r="A14" s="30"/>
       <c r="B14" s="22" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" spans="1:11" s="18" customFormat="1" ht="89.25">
+      <c r="K14" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="18" customFormat="1" ht="38.25">
+      <c r="A15" s="30"/>
       <c r="B15" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>94</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="23"/>
       <c r="F15" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>98</v>
+        <v>108</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>109</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
-      <c r="K15" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="18" customFormat="1" ht="76.5">
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" s="18" customFormat="1" ht="89.25">
       <c r="B16" s="22" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="23"/>
+        <v>101</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>94</v>
+      </c>
       <c r="F16" s="23" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>115</v>
+        <v>291</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
@@ -7015,126 +7647,126 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:11" s="18" customFormat="1" ht="38.25">
+    <row r="17" spans="2:11" s="18" customFormat="1" ht="76.5">
       <c r="B17" s="22" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>118</v>
+        <v>292</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
-      <c r="K17" s="21"/>
-    </row>
-    <row r="18" spans="2:11" s="18" customFormat="1" ht="76.5">
+      <c r="K17" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B18" s="22" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
-      <c r="K18" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" s="18" customFormat="1" ht="51">
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19" spans="2:11" s="18" customFormat="1" ht="76.5">
       <c r="B19" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="28" t="s">
         <v>104</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>109</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>89</v>
+        <v>293</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
       <c r="K19" s="21" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:11" s="18" customFormat="1" ht="51">
       <c r="B20" s="22" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
       <c r="K20" s="21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="2:11" s="18" customFormat="1" ht="89.25">
+    <row r="21" spans="2:11" s="18" customFormat="1" ht="51">
       <c r="B21" s="22" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="D21" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>122</v>
+      <c r="G21" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
@@ -7142,77 +7774,77 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:11" s="18" customFormat="1" ht="38.25">
+    <row r="22" spans="2:11" s="18" customFormat="1" ht="89.25">
       <c r="B22" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>124</v>
+        <v>100</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>129</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="E22" s="28"/>
       <c r="F22" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>130</v>
+        <v>70</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>117</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="21"/>
+        <v>73</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="21" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="23" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B23" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D23" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>118</v>
+      <c r="G23" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="2:11" s="18" customFormat="1" ht="51">
+    <row r="24" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B24" s="22" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>151</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E24" s="28"/>
       <c r="F24" s="23" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
@@ -7220,25 +7852,25 @@
     </row>
     <row r="25" spans="2:11" s="18" customFormat="1" ht="51">
       <c r="B25" s="22" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
@@ -7246,253 +7878,253 @@
     </row>
     <row r="26" spans="2:11" s="18" customFormat="1" ht="51">
       <c r="B26" s="22" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="2:11" s="18" customFormat="1" ht="25.5">
+    <row r="27" spans="2:11" s="18" customFormat="1" ht="51">
       <c r="B27" s="22" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="E27" s="23"/>
+        <v>132</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>151</v>
+      </c>
       <c r="F27" s="23" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="2:11" s="18" customFormat="1" ht="38.25">
+    <row r="28" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B28" s="22" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>118</v>
+        <v>141</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>142</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="2:11" s="18" customFormat="1" ht="25.5">
+    <row r="29" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B29" s="22" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>167</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="E29" s="23"/>
       <c r="F29" s="23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H29" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="21"/>
     </row>
     <row r="30" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B30" s="22" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C30" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="D30" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>170</v>
-      </c>
       <c r="G30" s="23" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="2:11" s="18" customFormat="1" ht="38.25">
+    <row r="31" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B31" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="D31" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="F31" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="D31" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>172</v>
-      </c>
       <c r="G31" s="23" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
     </row>
-    <row r="32" spans="2:11" s="18" customFormat="1" ht="63.75">
+    <row r="32" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B32" s="22" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="I32" s="24"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="2:11" s="18" customFormat="1" ht="25.5">
+    <row r="33" spans="2:11" s="18" customFormat="1" ht="63.75">
       <c r="B33" s="22" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C33" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="F33" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="E33" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>185</v>
-      </c>
       <c r="G33" s="23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I33" s="24"/>
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
     </row>
-    <row r="34" spans="2:11" s="18" customFormat="1" ht="38.25">
+    <row r="34" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B34" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="23" t="s">
-        <v>183</v>
-      </c>
       <c r="D34" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>118</v>
+      <c r="G34" s="23" t="s">
+        <v>181</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
     </row>
-    <row r="35" spans="2:11" s="18" customFormat="1" ht="51">
+    <row r="35" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B35" s="22" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>201</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="E35" s="23"/>
       <c r="F35" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>118</v>
+        <v>112</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>113</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="I35" s="24"/>
       <c r="J35" s="24"/>
@@ -7500,25 +8132,25 @@
     </row>
     <row r="36" spans="2:11" s="18" customFormat="1" ht="51">
       <c r="B36" s="22" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I36" s="24"/>
       <c r="J36" s="24"/>
@@ -7526,49 +8158,51 @@
     </row>
     <row r="37" spans="2:11" s="18" customFormat="1" ht="51">
       <c r="B37" s="22" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="I37" s="24"/>
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="2:11" s="18" customFormat="1" ht="38.25">
+    <row r="38" spans="2:11" s="18" customFormat="1" ht="51">
       <c r="B38" s="22" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D38" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="E38" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="E38" s="23"/>
       <c r="F38" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="G38" s="25" t="s">
-        <v>118</v>
+        <v>201</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
@@ -7576,101 +8210,99 @@
     </row>
     <row r="39" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B39" s="22" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E39" s="23"/>
       <c r="F39" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>118</v>
+        <v>112</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>113</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="I39" s="24"/>
       <c r="J39" s="24"/>
       <c r="K39" s="24"/>
     </row>
-    <row r="40" spans="2:11" s="18" customFormat="1" ht="51">
+    <row r="40" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B40" s="22" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>216</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E40" s="23"/>
       <c r="F40" s="23" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="I40" s="24"/>
       <c r="J40" s="24"/>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" spans="2:11" s="18" customFormat="1" ht="38.25">
+    <row r="41" spans="2:11" s="18" customFormat="1" ht="51">
       <c r="B41" s="22" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="I41" s="24"/>
       <c r="J41" s="24"/>
       <c r="K41" s="24"/>
     </row>
-    <row r="42" spans="2:11" s="18" customFormat="1" ht="25.5">
+    <row r="42" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B42" s="22" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C42" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="E42" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="D42" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="E42" s="23" t="s">
+      <c r="F42" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H42" s="23" t="s">
         <v>224</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="G42" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="H42" s="23" t="s">
-        <v>226</v>
       </c>
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
@@ -7678,23 +8310,25 @@
     </row>
     <row r="43" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B43" s="22" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="E43" s="24"/>
+        <v>216</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>219</v>
+      </c>
       <c r="F43" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="G43" s="25" t="s">
-        <v>118</v>
+        <v>220</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="H43" s="23" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="I43" s="24"/>
       <c r="J43" s="24"/>
@@ -7702,23 +8336,23 @@
     </row>
     <row r="44" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B44" s="22" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D44" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="H44" s="23" t="s">
         <v>232</v>
-      </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="G44" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="H44" s="23" t="s">
-        <v>239</v>
       </c>
       <c r="I44" s="24"/>
       <c r="J44" s="24"/>
@@ -7726,25 +8360,23 @@
     </row>
     <row r="45" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B45" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C45" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="C45" s="23" t="s">
-        <v>223</v>
-      </c>
       <c r="D45" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="E45" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>240</v>
-      </c>
       <c r="G45" s="23" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
@@ -7752,23 +8384,25 @@
     </row>
     <row r="46" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B46" s="22" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="E46" s="24"/>
+        <v>228</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>219</v>
+      </c>
       <c r="F46" s="23" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>249</v>
+        <v>113</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
@@ -7776,23 +8410,23 @@
     </row>
     <row r="47" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B47" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="C47" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="C47" s="23" t="s">
-        <v>247</v>
-      </c>
       <c r="D47" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="23" t="s">
-        <v>251</v>
-      </c>
       <c r="G47" s="23" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="I47" s="24"/>
       <c r="J47" s="24"/>
@@ -7800,23 +8434,23 @@
     </row>
     <row r="48" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B48" s="22" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>74</v>
+        <v>242</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="21" t="s">
-        <v>48</v>
+        <v>238</v>
+      </c>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23" t="s">
+        <v>246</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H48" s="21" t="s">
-        <v>68</v>
+        <v>247</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>248</v>
       </c>
       <c r="I48" s="24"/>
       <c r="J48" s="24"/>
@@ -7824,417 +8458,765 @@
     </row>
     <row r="49" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B49" s="22" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="E49" s="24"/>
+        <v>239</v>
+      </c>
+      <c r="E49" s="23"/>
       <c r="F49" s="21" t="s">
-        <v>259</v>
+        <v>48</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>260</v>
+        <v>49</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>261</v>
+        <v>68</v>
       </c>
       <c r="I49" s="24"/>
       <c r="J49" s="24"/>
       <c r="K49" s="24"/>
     </row>
-    <row r="50" spans="2:11" s="18" customFormat="1">
+    <row r="50" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B50" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="C50" s="23"/>
+        <v>236</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>88</v>
+      </c>
       <c r="D50" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="E50" s="24"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="21"/>
+        <v>240</v>
+      </c>
+      <c r="E50" s="23"/>
+      <c r="F50" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>256</v>
+      </c>
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
     </row>
-    <row r="51" spans="2:11" s="18" customFormat="1">
+    <row r="51" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B51" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="C51" s="23"/>
+        <v>257</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>320</v>
+      </c>
       <c r="D51" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="E51" s="24"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="21"/>
+        <v>258</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H51" s="21" t="s">
+        <v>326</v>
+      </c>
       <c r="I51" s="24"/>
       <c r="J51" s="24"/>
       <c r="K51" s="24"/>
     </row>
-    <row r="52" spans="2:11" s="18" customFormat="1">
+    <row r="52" spans="2:11" s="18" customFormat="1" ht="76.5">
       <c r="B52" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="C52" s="23"/>
+        <v>257</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>322</v>
+      </c>
       <c r="D52" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="E52" s="24"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="21"/>
+        <v>259</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="H52" s="21" t="s">
+        <v>330</v>
+      </c>
       <c r="I52" s="24"/>
       <c r="J52" s="24"/>
       <c r="K52" s="24"/>
     </row>
-    <row r="53" spans="2:11" s="18" customFormat="1">
+    <row r="53" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B53" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="C53" s="23"/>
+        <v>257</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>321</v>
+      </c>
       <c r="D53" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="E53" s="24"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="21"/>
+        <v>260</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="H53" s="21" t="s">
+        <v>334</v>
+      </c>
       <c r="I53" s="24"/>
       <c r="J53" s="24"/>
       <c r="K53" s="24"/>
     </row>
-    <row r="54" spans="2:11" s="18" customFormat="1">
-      <c r="B54" s="22" t="s">
+    <row r="54" spans="2:11" s="37" customFormat="1" ht="51">
+      <c r="B54" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+    </row>
+    <row r="55" spans="2:11" s="18" customFormat="1" ht="25.5">
+      <c r="B55" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="D55" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="E54" s="24"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-    </row>
-    <row r="55" spans="2:11" s="18" customFormat="1">
-      <c r="B55" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="C55" s="23"/>
-      <c r="D55" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="21"/>
+      <c r="E55" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H55" s="23" t="s">
+        <v>221</v>
+      </c>
       <c r="I55" s="24"/>
       <c r="J55" s="24"/>
       <c r="K55" s="24"/>
     </row>
-    <row r="56" spans="2:11" s="18" customFormat="1">
-      <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="21"/>
+    <row r="56" spans="2:11" s="18" customFormat="1" ht="140.25">
+      <c r="B56" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="G56" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>269</v>
+      </c>
       <c r="I56" s="24"/>
       <c r="J56" s="24"/>
       <c r="K56" s="24"/>
     </row>
-    <row r="57" spans="2:11" s="18" customFormat="1" ht="63.75">
+    <row r="57" spans="2:11" s="18" customFormat="1" ht="140.25">
       <c r="B57" s="22" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="E57" s="24"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="H57" s="21"/>
+        <v>265</v>
+      </c>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G57" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="H57" s="23" t="s">
+        <v>52</v>
+      </c>
       <c r="I57" s="24"/>
       <c r="J57" s="24"/>
       <c r="K57" s="24"/>
     </row>
-    <row r="58" spans="2:11" s="18" customFormat="1">
+    <row r="58" spans="2:11" s="18" customFormat="1" ht="127.5">
       <c r="B58" s="22" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D58" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="G58" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="E58" s="24"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="21"/>
+      <c r="H58" s="23" t="s">
+        <v>272</v>
+      </c>
       <c r="I58" s="24"/>
       <c r="J58" s="24"/>
       <c r="K58" s="24"/>
     </row>
-    <row r="59" spans="2:11" s="18" customFormat="1">
+    <row r="59" spans="2:11" s="18" customFormat="1" ht="140.25">
       <c r="B59" s="22" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>60</v>
+        <v>278</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="21"/>
+        <v>274</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="H59" s="23" t="s">
+        <v>288</v>
+      </c>
       <c r="I59" s="24"/>
       <c r="J59" s="24"/>
       <c r="K59" s="24"/>
     </row>
-    <row r="60" spans="2:11" s="18" customFormat="1">
+    <row r="60" spans="2:11" s="18" customFormat="1" ht="140.25">
       <c r="B60" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="C60" s="23"/>
+        <v>273</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="D60" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="21"/>
+        <v>275</v>
+      </c>
+      <c r="E60" s="23"/>
+      <c r="F60" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>52</v>
+      </c>
       <c r="I60" s="24"/>
       <c r="J60" s="24"/>
       <c r="K60" s="24"/>
     </row>
-    <row r="61" spans="2:11" s="18" customFormat="1">
+    <row r="61" spans="2:11" s="18" customFormat="1" ht="127.5">
       <c r="B61" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="C61" s="23"/>
+        <v>273</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>60</v>
+      </c>
       <c r="D61" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
+        <v>276</v>
+      </c>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="G61" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="H61" s="23" t="s">
+        <v>272</v>
+      </c>
       <c r="I61" s="24"/>
       <c r="J61" s="24"/>
       <c r="K61" s="24"/>
     </row>
-    <row r="62" spans="2:11" s="18" customFormat="1">
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
+    <row r="62" spans="2:11" s="18" customFormat="1" ht="51">
+      <c r="B62" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="G62" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H62" s="23" t="s">
+        <v>298</v>
+      </c>
       <c r="I62" s="24"/>
       <c r="J62" s="24"/>
       <c r="K62" s="24"/>
     </row>
-    <row r="63" spans="2:11" s="18" customFormat="1">
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
+    <row r="63" spans="2:11" s="18" customFormat="1" ht="38.25">
+      <c r="B63" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="G63" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H63" s="23" t="s">
+        <v>304</v>
+      </c>
       <c r="I63" s="24"/>
       <c r="J63" s="24"/>
       <c r="K63" s="24"/>
     </row>
-    <row r="64" spans="2:11" s="18" customFormat="1">
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
+    <row r="64" spans="2:11" s="18" customFormat="1" ht="38.25">
+      <c r="B64" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="H64" s="23" t="s">
+        <v>300</v>
+      </c>
       <c r="I64" s="24"/>
       <c r="J64" s="24"/>
       <c r="K64" s="24"/>
     </row>
-    <row r="65" spans="2:11" s="18" customFormat="1">
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
+    <row r="65" spans="2:11" s="18" customFormat="1" ht="38.25">
+      <c r="B65" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G65" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="H65" s="23" t="s">
+        <v>301</v>
+      </c>
       <c r="I65" s="24"/>
       <c r="J65" s="24"/>
       <c r="K65" s="24"/>
     </row>
     <row r="66" spans="2:11" s="18" customFormat="1">
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
+      <c r="B66" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
       <c r="H66" s="24"/>
       <c r="I66" s="24"/>
       <c r="J66" s="24"/>
       <c r="K66" s="24"/>
     </row>
     <row r="67" spans="2:11" s="18" customFormat="1">
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
+      <c r="B67" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
       <c r="H67" s="24"/>
       <c r="I67" s="24"/>
       <c r="J67" s="24"/>
       <c r="K67" s="24"/>
     </row>
     <row r="68" spans="2:11" s="18" customFormat="1">
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
+      <c r="B68" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
       <c r="H68" s="24"/>
       <c r="I68" s="24"/>
       <c r="J68" s="24"/>
       <c r="K68" s="24"/>
     </row>
     <row r="69" spans="2:11" s="18" customFormat="1">
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
+      <c r="B69" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23"/>
     </row>
     <row r="70" spans="2:11" s="18" customFormat="1">
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="24"/>
+      <c r="B70" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="23"/>
     </row>
     <row r="71" spans="2:11" s="18" customFormat="1">
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="24"/>
+      <c r="B71" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="D71" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="23"/>
     </row>
     <row r="72" spans="2:11" s="18" customFormat="1">
-      <c r="B72" s="19"/>
+      <c r="B72" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="23"/>
     </row>
     <row r="73" spans="2:11" s="18" customFormat="1">
-      <c r="B73" s="19"/>
+      <c r="B73" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
     </row>
     <row r="74" spans="2:11" s="18" customFormat="1">
-      <c r="B74" s="19"/>
+      <c r="B74" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="23"/>
     </row>
     <row r="75" spans="2:11" s="18" customFormat="1">
-      <c r="B75" s="19"/>
+      <c r="B75" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="23"/>
     </row>
     <row r="76" spans="2:11" s="18" customFormat="1">
-      <c r="B76" s="19"/>
+      <c r="B76" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D76" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="23"/>
+      <c r="K76" s="23"/>
     </row>
     <row r="77" spans="2:11" s="18" customFormat="1">
-      <c r="B77" s="19"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="23"/>
     </row>
     <row r="78" spans="2:11" s="18" customFormat="1">
-      <c r="B78" s="19"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="23"/>
     </row>
     <row r="79" spans="2:11" s="18" customFormat="1">
-      <c r="B79" s="19"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="23"/>
     </row>
     <row r="80" spans="2:11" s="18" customFormat="1">
-      <c r="B80" s="19"/>
-    </row>
-    <row r="81" spans="2:2" s="18" customFormat="1">
-      <c r="B81" s="19"/>
-    </row>
-    <row r="82" spans="2:2" s="18" customFormat="1">
-      <c r="B82" s="19"/>
-    </row>
-    <row r="83" spans="2:2" s="18" customFormat="1">
-      <c r="B83" s="19"/>
-    </row>
-    <row r="84" spans="2:2" s="18" customFormat="1">
-      <c r="B84" s="19"/>
-    </row>
-    <row r="85" spans="2:2" s="18" customFormat="1">
-      <c r="B85" s="19"/>
-    </row>
-    <row r="86" spans="2:2" s="18" customFormat="1">
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23"/>
+      <c r="K80" s="23"/>
+    </row>
+    <row r="81" spans="2:11" s="18" customFormat="1">
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="23"/>
+    </row>
+    <row r="82" spans="2:11" s="18" customFormat="1">
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="23"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="23"/>
+    </row>
+    <row r="83" spans="2:11" s="18" customFormat="1">
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="23"/>
+      <c r="K83" s="23"/>
+    </row>
+    <row r="84" spans="2:11" s="18" customFormat="1">
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="23"/>
+    </row>
+    <row r="85" spans="2:11" s="18" customFormat="1">
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="23"/>
+    </row>
+    <row r="86" spans="2:11" s="18" customFormat="1">
       <c r="B86" s="19"/>
     </row>
-    <row r="87" spans="2:2" s="18" customFormat="1">
+    <row r="87" spans="2:11" s="18" customFormat="1">
       <c r="B87" s="19"/>
     </row>
-    <row r="88" spans="2:2" s="18" customFormat="1">
+    <row r="88" spans="2:11" s="18" customFormat="1">
       <c r="B88" s="19"/>
     </row>
-    <row r="89" spans="2:2" s="18" customFormat="1">
+    <row r="89" spans="2:11" s="18" customFormat="1">
       <c r="B89" s="19"/>
     </row>
-    <row r="90" spans="2:2" s="18" customFormat="1">
+    <row r="90" spans="2:11" s="18" customFormat="1">
       <c r="B90" s="19"/>
     </row>
-    <row r="91" spans="2:2" s="18" customFormat="1">
+    <row r="91" spans="2:11" s="18" customFormat="1">
       <c r="B91" s="19"/>
     </row>
-    <row r="92" spans="2:2" s="18" customFormat="1">
+    <row r="92" spans="2:11" s="18" customFormat="1">
       <c r="B92" s="19"/>
     </row>
-    <row r="93" spans="2:2" s="18" customFormat="1">
+    <row r="93" spans="2:11" s="18" customFormat="1">
       <c r="B93" s="19"/>
     </row>
-    <row r="94" spans="2:2" s="18" customFormat="1">
+    <row r="94" spans="2:11" s="18" customFormat="1">
       <c r="B94" s="19"/>
     </row>
-    <row r="95" spans="2:2" s="18" customFormat="1">
+    <row r="95" spans="2:11" s="18" customFormat="1">
       <c r="B95" s="19"/>
     </row>
-    <row r="96" spans="2:2" s="18" customFormat="1">
+    <row r="96" spans="2:11" s="18" customFormat="1">
       <c r="B96" s="19"/>
     </row>
     <row r="97" spans="2:2" s="18" customFormat="1">
@@ -9197,75 +10179,57 @@
     <row r="416" spans="2:2" s="18" customFormat="1">
       <c r="B416" s="19"/>
     </row>
-    <row r="417" spans="2:2" s="18" customFormat="1">
+    <row r="417" spans="2:10" s="18" customFormat="1">
       <c r="B417" s="19"/>
     </row>
-    <row r="418" spans="2:2" s="18" customFormat="1">
+    <row r="418" spans="2:10" s="18" customFormat="1">
       <c r="B418" s="19"/>
     </row>
-    <row r="419" spans="2:2" s="18" customFormat="1">
+    <row r="419" spans="2:10" s="18" customFormat="1">
       <c r="B419" s="19"/>
     </row>
-    <row r="420" spans="2:2" s="18" customFormat="1">
+    <row r="420" spans="2:10" s="18" customFormat="1">
       <c r="B420" s="19"/>
     </row>
-    <row r="421" spans="2:2" s="18" customFormat="1">
+    <row r="421" spans="2:10" s="18" customFormat="1">
       <c r="B421" s="19"/>
     </row>
-    <row r="422" spans="2:2" s="18" customFormat="1">
+    <row r="422" spans="2:10" s="18" customFormat="1">
       <c r="B422" s="19"/>
     </row>
-    <row r="423" spans="2:2" s="18" customFormat="1">
+    <row r="423" spans="2:10" s="18" customFormat="1">
       <c r="B423" s="19"/>
     </row>
-    <row r="424" spans="2:2" s="18" customFormat="1">
+    <row r="424" spans="2:10" s="18" customFormat="1">
       <c r="B424" s="19"/>
     </row>
-    <row r="425" spans="2:2" s="18" customFormat="1">
+    <row r="425" spans="2:10" s="18" customFormat="1">
       <c r="B425" s="19"/>
     </row>
-    <row r="426" spans="2:2" s="18" customFormat="1">
+    <row r="426" spans="2:10" s="18" customFormat="1">
       <c r="B426" s="19"/>
     </row>
-    <row r="427" spans="2:2" s="18" customFormat="1">
+    <row r="427" spans="2:10">
       <c r="B427" s="19"/>
-    </row>
-    <row r="428" spans="2:2" s="18" customFormat="1">
+      <c r="C427" s="18"/>
+      <c r="D427" s="18"/>
+      <c r="E427" s="18"/>
+      <c r="F427" s="18"/>
+      <c r="G427" s="18"/>
+      <c r="H427" s="18"/>
+      <c r="I427" s="18"/>
+      <c r="J427" s="18"/>
+    </row>
+    <row r="428" spans="2:10">
       <c r="B428" s="19"/>
-    </row>
-    <row r="429" spans="2:2" s="18" customFormat="1">
-      <c r="B429" s="19"/>
-    </row>
-    <row r="430" spans="2:2" s="18" customFormat="1">
-      <c r="B430" s="19"/>
-    </row>
-    <row r="431" spans="2:2" s="18" customFormat="1">
-      <c r="B431" s="19"/>
-    </row>
-    <row r="432" spans="2:2" s="18" customFormat="1">
-      <c r="B432" s="19"/>
-    </row>
-    <row r="433" spans="2:10">
-      <c r="B433" s="19"/>
-      <c r="C433" s="18"/>
-      <c r="D433" s="18"/>
-      <c r="E433" s="18"/>
-      <c r="F433" s="18"/>
-      <c r="G433" s="18"/>
-      <c r="H433" s="18"/>
-      <c r="I433" s="18"/>
-      <c r="J433" s="18"/>
-    </row>
-    <row r="434" spans="2:10">
-      <c r="B434" s="19"/>
-      <c r="C434" s="18"/>
-      <c r="D434" s="18"/>
-      <c r="E434" s="18"/>
-      <c r="F434" s="18"/>
-      <c r="G434" s="18"/>
-      <c r="H434" s="18"/>
-      <c r="I434" s="18"/>
-      <c r="J434" s="18"/>
+      <c r="C428" s="18"/>
+      <c r="D428" s="18"/>
+      <c r="E428" s="18"/>
+      <c r="F428" s="18"/>
+      <c r="G428" s="18"/>
+      <c r="H428" s="18"/>
+      <c r="I428" s="18"/>
+      <c r="J428" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -9429,26 +10393,26 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Casos de Prueba GSIAM.xlsx
+++ b/doc/Casos de Prueba GSIAM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="6795" windowHeight="7740" tabRatio="423" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="6795" windowHeight="7740" tabRatio="423" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="8" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="cuentas de e-mail" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Casos de Prueba - dd-mm-yyyy'!$A$2:$K$428</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Casos de Prueba - dd-mm-yyyy'!$A$2:$K$420</definedName>
     <definedName name="acciones">#REF!</definedName>
     <definedName name="Clasificacion">#REF!</definedName>
     <definedName name="ClasificacionRiesgos">#REF!</definedName>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="373">
   <si>
     <t>Alcance</t>
   </si>
@@ -1340,9 +1340,6 @@
     <t>se deberan elegir 1 o mas amigos del facebook.</t>
   </si>
   <si>
-    <t>Revisar el muro de lso amigos seleccionados, se debe encontrar la invitacion.</t>
-  </si>
-  <si>
     <t>gsiam.test@gmail.com</t>
   </si>
   <si>
@@ -2365,6 +2362,351 @@
   </si>
   <si>
     <t>CP17-06</t>
+  </si>
+  <si>
+    <t>Se selecciona cualquier sitio de la lista de sitios.</t>
+  </si>
+  <si>
+    <t>Se visualizan toda la informacion correctamente.</t>
+  </si>
+  <si>
+    <t>Se visualiza el sitio seleccionado en el mapa de manera correcta.</t>
+  </si>
+  <si>
+    <t>Se visualiza el sitio en el mapa correctamente.</t>
+  </si>
+  <si>
+    <t>tener configurado el e-mail en el celular</t>
+  </si>
+  <si>
+    <t>Se nvia el sitio por mail a un mail conocido para poder chaquear.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">e-mail: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>gsiam.test2@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>Revisar el mail ingresado y chequear que al informacion del sitio sea la correcta.</t>
+  </si>
+  <si>
+    <t>tener instalado GoogleMaps y un navegador en el celular</t>
+  </si>
+  <si>
+    <t>Como llegar al sitio.</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar la aplicacion externa (GoogleMaps o navegador) correctamente con el sitio como punto de destino.
+NOTA: probar con ambas aplicaciones.</t>
+  </si>
+  <si>
+    <t>Se visualizan los comentarios del sitio</t>
+  </si>
+  <si>
+    <t>Seleccionar un sitio con comentarios.</t>
+  </si>
+  <si>
+    <t>Se publica con datos correctos. La foto la debe sacar de la galeria de imágenes del telefono.</t>
+  </si>
+  <si>
+    <t>Se publica con datos correctos. La foto la debe sacar con la camara de fotos del telefono.</t>
+  </si>
+  <si>
+    <t>La publicacion se crea exitosamente y se muestra un mensaje de error. Se debera validar en el detalle del sitio la actualizacion de los datos (comentarios y o foto). CP16-01</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Comentario:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Esto es una prueba
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Puntaje (del 1 al 5): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Foto del Sitio:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Seleccionar una imagen al azar de la galeria. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Opción “Compartir en Facebook”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: No
+NOTA: La prueba se debera ejecutar combinando todas estas opciones.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Comentario:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Esto es una prueba
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Puntaje (del 1 al 5): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Foto del Sitio:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Tomar una foto con el telefono. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Opción “Compartir en Facebook”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: No
+NOTA: La prueba se debera ejecutar combinando todas estas opciones.</t>
+    </r>
+  </si>
+  <si>
+    <t>Repetir las pruebas CP17-02 y CP17-03, con la opcion compartir en facebook.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Opción “Compartir en Facebook”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: No
+NOTA: La prueba se debera ejecutar combinando todas estas opciones.</t>
+    </r>
+  </si>
+  <si>
+    <t>Revisar el muro de los amigos seleccionados, se debe encontrar la invitacion.</t>
+  </si>
+  <si>
+    <t>La publicacion se crea exitosamente y se muestra un mensaje de error. Se debera validar en el detalle del sitio la actualizacion de los datos (comentarios y o foto). CP16-01.
+Revisar el muro del usuario, se debe encontrar la publicacion.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Comentario:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (vacio)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Puntaje (del 1 al 5): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Foto del Sitio:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Seleccionar una imagen al azar de la galeria. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Opción “Compartir en Facebook”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: No</t>
+    </r>
+  </si>
+  <si>
+    <t>El usuario ingresa coemntario mayor al tamaño permitido.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Comentario:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Este es un comentario demasiado largo dado que esta aplicación no me deberia dejar ingresar textos mayores a cien caracteres.</t>
+    </r>
+  </si>
+  <si>
+    <t>El sistema no debe permitir el ingreso de los caracteres que exedan el maximo (comentario= 100).</t>
   </si>
 </sst>
 </file>
@@ -2455,7 +2797,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2489,6 +2831,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2629,7 +2977,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2731,6 +3079,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7233,11 +7590,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A2:K428"/>
+  <dimension ref="A2:K420"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+      <pane ySplit="3" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -7359,7 +7716,7 @@
         <v>58</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>79</v>
@@ -7368,10 +7725,10 @@
         <v>122</v>
       </c>
       <c r="F6" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="G6" s="21" t="s">
         <v>307</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>308</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>51</v>
@@ -7398,7 +7755,7 @@
         <v>47</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>52</v>
@@ -7443,7 +7800,7 @@
         <v>60</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="21" t="s">
@@ -7502,7 +7859,7 @@
         <v>47</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H11" s="23" t="s">
         <v>52</v>
@@ -7636,7 +7993,7 @@
         <v>92</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H16" s="23" t="s">
         <v>96</v>
@@ -7662,7 +8019,7 @@
         <v>95</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H17" s="23" t="s">
         <v>96</v>
@@ -7712,7 +8069,7 @@
         <v>47</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H19" s="23" t="s">
         <v>52</v>
@@ -8450,7 +8807,7 @@
         <v>247</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>248</v>
+        <v>367</v>
       </c>
       <c r="I48" s="24"/>
       <c r="J48" s="24"/>
@@ -8492,13 +8849,13 @@
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="G50" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="G50" s="23" t="s">
+      <c r="H50" s="21" t="s">
         <v>255</v>
-      </c>
-      <c r="H50" s="21" t="s">
-        <v>256</v>
       </c>
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
@@ -8506,25 +8863,25 @@
     </row>
     <row r="51" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B51" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="D51" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="C51" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="D51" s="28" t="s">
-        <v>258</v>
-      </c>
       <c r="E51" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="F51" s="23" t="s">
         <v>324</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>325</v>
       </c>
       <c r="G51" s="23" t="s">
         <v>113</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I51" s="24"/>
       <c r="J51" s="24"/>
@@ -8532,25 +8889,25 @@
     </row>
     <row r="52" spans="2:11" s="18" customFormat="1" ht="76.5">
       <c r="B52" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E52" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="F52" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="F52" s="23" t="s">
+      <c r="G52" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="G52" s="23" t="s">
+      <c r="H52" s="21" t="s">
         <v>329</v>
-      </c>
-      <c r="H52" s="21" t="s">
-        <v>330</v>
       </c>
       <c r="I52" s="24"/>
       <c r="J52" s="24"/>
@@ -8558,65 +8915,65 @@
     </row>
     <row r="53" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B53" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E53" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="F53" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="F53" s="23" t="s">
+      <c r="G53" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="G53" s="23" t="s">
+      <c r="H53" s="21" t="s">
         <v>333</v>
-      </c>
-      <c r="H53" s="21" t="s">
-        <v>334</v>
       </c>
       <c r="I53" s="24"/>
       <c r="J53" s="24"/>
       <c r="K53" s="24"/>
     </row>
-    <row r="54" spans="2:11" s="37" customFormat="1" ht="51">
+    <row r="54" spans="2:11" s="40" customFormat="1" ht="51">
       <c r="B54" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E54" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="F54" s="21" t="s">
         <v>335</v>
-      </c>
-      <c r="F54" s="21" t="s">
-        <v>336</v>
       </c>
       <c r="G54" s="21" t="s">
         <v>113</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
+        <v>336</v>
+      </c>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
     </row>
     <row r="55" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B55" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C55" s="23" t="s">
         <v>218</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E55" s="23" t="s">
         <v>219</v>
@@ -8636,23 +8993,23 @@
     </row>
     <row r="56" spans="2:11" s="18" customFormat="1" ht="140.25">
       <c r="B56" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="D56" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="E56" s="23"/>
       <c r="F56" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="G56" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="H56" s="21" t="s">
         <v>268</v>
-      </c>
-      <c r="G56" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="H56" s="21" t="s">
-        <v>269</v>
       </c>
       <c r="I56" s="24"/>
       <c r="J56" s="24"/>
@@ -8660,20 +9017,20 @@
     </row>
     <row r="57" spans="2:11" s="18" customFormat="1" ht="140.25">
       <c r="B57" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C57" s="23" t="s">
         <v>44</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="23" t="s">
         <v>47</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H57" s="23" t="s">
         <v>52</v>
@@ -8684,23 +9041,23 @@
     </row>
     <row r="58" spans="2:11" s="18" customFormat="1" ht="127.5">
       <c r="B58" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C58" s="23" t="s">
         <v>60</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E58" s="23"/>
       <c r="F58" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="G58" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="G58" s="28" t="s">
+      <c r="H58" s="23" t="s">
         <v>271</v>
-      </c>
-      <c r="H58" s="23" t="s">
-        <v>272</v>
       </c>
       <c r="I58" s="24"/>
       <c r="J58" s="24"/>
@@ -8708,25 +9065,25 @@
     </row>
     <row r="59" spans="2:11" s="18" customFormat="1" ht="140.25">
       <c r="B59" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="D59" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="C59" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="D59" s="28" t="s">
-        <v>274</v>
-      </c>
       <c r="E59" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="F59" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="G59" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="H59" s="23" t="s">
         <v>287</v>
-      </c>
-      <c r="G59" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="H59" s="23" t="s">
-        <v>288</v>
       </c>
       <c r="I59" s="24"/>
       <c r="J59" s="24"/>
@@ -8734,20 +9091,20 @@
     </row>
     <row r="60" spans="2:11" s="18" customFormat="1" ht="140.25">
       <c r="B60" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C60" s="23" t="s">
         <v>44</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="21" t="s">
         <v>47</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H60" s="21" t="s">
         <v>52</v>
@@ -8758,23 +9115,23 @@
     </row>
     <row r="61" spans="2:11" s="18" customFormat="1" ht="127.5">
       <c r="B61" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C61" s="23" t="s">
         <v>60</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="G61" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="G61" s="28" t="s">
+      <c r="H61" s="23" t="s">
         <v>271</v>
-      </c>
-      <c r="H61" s="23" t="s">
-        <v>272</v>
       </c>
       <c r="I61" s="24"/>
       <c r="J61" s="24"/>
@@ -8782,25 +9139,25 @@
     </row>
     <row r="62" spans="2:11" s="18" customFormat="1" ht="51">
       <c r="B62" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G62" s="23" t="s">
         <v>113</v>
       </c>
       <c r="H62" s="23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I62" s="24"/>
       <c r="J62" s="24"/>
@@ -8808,25 +9165,25 @@
     </row>
     <row r="63" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B63" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E63" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="F63" s="23" t="s">
         <v>302</v>
-      </c>
-      <c r="F63" s="23" t="s">
-        <v>303</v>
       </c>
       <c r="G63" s="23" t="s">
         <v>113</v>
       </c>
       <c r="H63" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I63" s="24"/>
       <c r="J63" s="24"/>
@@ -8834,13 +9191,13 @@
     </row>
     <row r="64" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B64" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E64" s="23"/>
       <c r="F64" s="23" t="s">
@@ -8850,7 +9207,7 @@
         <v>113</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I64" s="24"/>
       <c r="J64" s="24"/>
@@ -8858,13 +9215,13 @@
     </row>
     <row r="65" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B65" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E65" s="23"/>
       <c r="F65" s="23" t="s">
@@ -8874,349 +9231,347 @@
         <v>113</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I65" s="24"/>
       <c r="J65" s="24"/>
       <c r="K65" s="24"/>
     </row>
-    <row r="66" spans="2:11" s="18" customFormat="1">
+    <row r="66" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B66" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="D66" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="C66" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="D66" s="28" t="s">
-        <v>310</v>
-      </c>
       <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="24"/>
+      <c r="F66" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="G66" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H66" s="23" t="s">
+        <v>348</v>
+      </c>
       <c r="I66" s="24"/>
       <c r="J66" s="24"/>
       <c r="K66" s="24"/>
     </row>
-    <row r="67" spans="2:11" s="18" customFormat="1">
+    <row r="67" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B67" s="22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="24"/>
+      <c r="F67" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="G67" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H67" s="23" t="s">
+        <v>350</v>
+      </c>
       <c r="I67" s="24"/>
       <c r="J67" s="24"/>
       <c r="K67" s="24"/>
     </row>
-    <row r="68" spans="2:11" s="18" customFormat="1">
+    <row r="68" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B68" s="22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="24"/>
+        <v>311</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="F68" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="G68" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="H68" s="23" t="s">
+        <v>354</v>
+      </c>
       <c r="I68" s="24"/>
       <c r="J68" s="24"/>
       <c r="K68" s="24"/>
     </row>
-    <row r="69" spans="2:11" s="18" customFormat="1">
+    <row r="69" spans="2:11" s="18" customFormat="1" ht="63.75">
       <c r="B69" s="22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
+        <v>312</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="G69" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H69" s="23" t="s">
+        <v>357</v>
+      </c>
       <c r="I69" s="23"/>
       <c r="J69" s="23"/>
       <c r="K69" s="23"/>
     </row>
     <row r="70" spans="2:11" s="18" customFormat="1">
-      <c r="B70" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="C70" s="23" t="s">
+      <c r="B70" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="C70" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="D70" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
+      <c r="D70" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
       <c r="I70" s="23"/>
       <c r="J70" s="23"/>
       <c r="K70" s="23"/>
     </row>
     <row r="71" spans="2:11" s="18" customFormat="1">
       <c r="B71" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="D71" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="C71" s="23" t="s">
-        <v>342</v>
-      </c>
-      <c r="D71" s="28" t="s">
-        <v>316</v>
-      </c>
       <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
+      <c r="F71" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="G71" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="H71" s="23" t="s">
+        <v>358</v>
+      </c>
       <c r="I71" s="23"/>
       <c r="J71" s="23"/>
       <c r="K71" s="23"/>
     </row>
-    <row r="72" spans="2:11" s="18" customFormat="1">
+    <row r="72" spans="2:11" s="18" customFormat="1" ht="89.25">
       <c r="B72" s="22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
+        <v>316</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F72" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="G72" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="H72" s="23" t="s">
+        <v>362</v>
+      </c>
       <c r="I72" s="23"/>
       <c r="J72" s="23"/>
       <c r="K72" s="23"/>
     </row>
-    <row r="73" spans="2:11" s="18" customFormat="1">
+    <row r="73" spans="2:11" s="18" customFormat="1" ht="89.25">
       <c r="B73" s="22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
+      <c r="F73" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="G73" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="H73" s="23" t="s">
+        <v>362</v>
+      </c>
       <c r="I73" s="23"/>
       <c r="J73" s="23"/>
       <c r="K73" s="23"/>
     </row>
-    <row r="74" spans="2:11" s="18" customFormat="1">
+    <row r="74" spans="2:11" s="18" customFormat="1" ht="76.5">
       <c r="B74" s="22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
+      <c r="F74" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="G74" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="H74" s="23" t="s">
+        <v>368</v>
+      </c>
       <c r="I74" s="23"/>
       <c r="J74" s="23"/>
       <c r="K74" s="23"/>
     </row>
-    <row r="75" spans="2:11" s="18" customFormat="1">
+    <row r="75" spans="2:11" s="18" customFormat="1" ht="63.75">
       <c r="B75" s="22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C75" s="23" t="s">
         <v>44</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
+      <c r="F75" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G75" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="H75" s="23" t="s">
+        <v>52</v>
+      </c>
       <c r="I75" s="23"/>
       <c r="J75" s="23"/>
       <c r="K75" s="23"/>
     </row>
-    <row r="76" spans="2:11" s="18" customFormat="1">
+    <row r="76" spans="2:11" s="18" customFormat="1" ht="63.75">
       <c r="B76" s="22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C76" s="23" t="s">
         <v>60</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
+      <c r="F76" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="G76" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="H76" s="23" t="s">
+        <v>372</v>
+      </c>
       <c r="I76" s="23"/>
       <c r="J76" s="23"/>
       <c r="K76" s="23"/>
     </row>
     <row r="77" spans="2:11" s="18" customFormat="1">
-      <c r="B77" s="22"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
+      <c r="B77" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="C77" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="D77" s="38"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="37"/>
       <c r="I77" s="23"/>
       <c r="J77" s="23"/>
       <c r="K77" s="23"/>
     </row>
     <row r="78" spans="2:11" s="18" customFormat="1">
-      <c r="B78" s="22"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="23"/>
-      <c r="J78" s="23"/>
-      <c r="K78" s="23"/>
+      <c r="B78" s="19"/>
     </row>
     <row r="79" spans="2:11" s="18" customFormat="1">
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="23"/>
-      <c r="J79" s="23"/>
-      <c r="K79" s="23"/>
+      <c r="B79" s="19"/>
     </row>
     <row r="80" spans="2:11" s="18" customFormat="1">
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="23"/>
-      <c r="J80" s="23"/>
-      <c r="K80" s="23"/>
-    </row>
-    <row r="81" spans="2:11" s="18" customFormat="1">
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="23"/>
-      <c r="J81" s="23"/>
-      <c r="K81" s="23"/>
-    </row>
-    <row r="82" spans="2:11" s="18" customFormat="1">
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="23"/>
-      <c r="J82" s="23"/>
-      <c r="K82" s="23"/>
-    </row>
-    <row r="83" spans="2:11" s="18" customFormat="1">
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
-      <c r="I83" s="23"/>
-      <c r="J83" s="23"/>
-      <c r="K83" s="23"/>
-    </row>
-    <row r="84" spans="2:11" s="18" customFormat="1">
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="23"/>
-      <c r="J84" s="23"/>
-      <c r="K84" s="23"/>
-    </row>
-    <row r="85" spans="2:11" s="18" customFormat="1">
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
-      <c r="I85" s="23"/>
-      <c r="J85" s="23"/>
-      <c r="K85" s="23"/>
-    </row>
-    <row r="86" spans="2:11" s="18" customFormat="1">
+      <c r="B80" s="19"/>
+    </row>
+    <row r="81" spans="2:2" s="18" customFormat="1">
+      <c r="B81" s="19"/>
+    </row>
+    <row r="82" spans="2:2" s="18" customFormat="1">
+      <c r="B82" s="19"/>
+    </row>
+    <row r="83" spans="2:2" s="18" customFormat="1">
+      <c r="B83" s="19"/>
+    </row>
+    <row r="84" spans="2:2" s="18" customFormat="1">
+      <c r="B84" s="19"/>
+    </row>
+    <row r="85" spans="2:2" s="18" customFormat="1">
+      <c r="B85" s="19"/>
+    </row>
+    <row r="86" spans="2:2" s="18" customFormat="1">
       <c r="B86" s="19"/>
     </row>
-    <row r="87" spans="2:11" s="18" customFormat="1">
+    <row r="87" spans="2:2" s="18" customFormat="1">
       <c r="B87" s="19"/>
     </row>
-    <row r="88" spans="2:11" s="18" customFormat="1">
+    <row r="88" spans="2:2" s="18" customFormat="1">
       <c r="B88" s="19"/>
     </row>
-    <row r="89" spans="2:11" s="18" customFormat="1">
+    <row r="89" spans="2:2" s="18" customFormat="1">
       <c r="B89" s="19"/>
     </row>
-    <row r="90" spans="2:11" s="18" customFormat="1">
+    <row r="90" spans="2:2" s="18" customFormat="1">
       <c r="B90" s="19"/>
     </row>
-    <row r="91" spans="2:11" s="18" customFormat="1">
+    <row r="91" spans="2:2" s="18" customFormat="1">
       <c r="B91" s="19"/>
     </row>
-    <row r="92" spans="2:11" s="18" customFormat="1">
+    <row r="92" spans="2:2" s="18" customFormat="1">
       <c r="B92" s="19"/>
     </row>
-    <row r="93" spans="2:11" s="18" customFormat="1">
+    <row r="93" spans="2:2" s="18" customFormat="1">
       <c r="B93" s="19"/>
     </row>
-    <row r="94" spans="2:11" s="18" customFormat="1">
+    <row r="94" spans="2:2" s="18" customFormat="1">
       <c r="B94" s="19"/>
     </row>
-    <row r="95" spans="2:11" s="18" customFormat="1">
+    <row r="95" spans="2:2" s="18" customFormat="1">
       <c r="B95" s="19"/>
     </row>
-    <row r="96" spans="2:11" s="18" customFormat="1">
+    <row r="96" spans="2:2" s="18" customFormat="1">
       <c r="B96" s="19"/>
     </row>
     <row r="97" spans="2:2" s="18" customFormat="1">
@@ -10185,51 +10540,27 @@
     <row r="418" spans="2:10" s="18" customFormat="1">
       <c r="B418" s="19"/>
     </row>
-    <row r="419" spans="2:10" s="18" customFormat="1">
+    <row r="419" spans="2:10">
       <c r="B419" s="19"/>
-    </row>
-    <row r="420" spans="2:10" s="18" customFormat="1">
+      <c r="C419" s="18"/>
+      <c r="D419" s="18"/>
+      <c r="E419" s="18"/>
+      <c r="F419" s="18"/>
+      <c r="G419" s="18"/>
+      <c r="H419" s="18"/>
+      <c r="I419" s="18"/>
+      <c r="J419" s="18"/>
+    </row>
+    <row r="420" spans="2:10">
       <c r="B420" s="19"/>
-    </row>
-    <row r="421" spans="2:10" s="18" customFormat="1">
-      <c r="B421" s="19"/>
-    </row>
-    <row r="422" spans="2:10" s="18" customFormat="1">
-      <c r="B422" s="19"/>
-    </row>
-    <row r="423" spans="2:10" s="18" customFormat="1">
-      <c r="B423" s="19"/>
-    </row>
-    <row r="424" spans="2:10" s="18" customFormat="1">
-      <c r="B424" s="19"/>
-    </row>
-    <row r="425" spans="2:10" s="18" customFormat="1">
-      <c r="B425" s="19"/>
-    </row>
-    <row r="426" spans="2:10" s="18" customFormat="1">
-      <c r="B426" s="19"/>
-    </row>
-    <row r="427" spans="2:10">
-      <c r="B427" s="19"/>
-      <c r="C427" s="18"/>
-      <c r="D427" s="18"/>
-      <c r="E427" s="18"/>
-      <c r="F427" s="18"/>
-      <c r="G427" s="18"/>
-      <c r="H427" s="18"/>
-      <c r="I427" s="18"/>
-      <c r="J427" s="18"/>
-    </row>
-    <row r="428" spans="2:10">
-      <c r="B428" s="19"/>
-      <c r="C428" s="18"/>
-      <c r="D428" s="18"/>
-      <c r="E428" s="18"/>
-      <c r="F428" s="18"/>
-      <c r="G428" s="18"/>
-      <c r="H428" s="18"/>
-      <c r="I428" s="18"/>
-      <c r="J428" s="18"/>
+      <c r="C420" s="18"/>
+      <c r="D420" s="18"/>
+      <c r="E420" s="18"/>
+      <c r="F420" s="18"/>
+      <c r="G420" s="18"/>
+      <c r="H420" s="18"/>
+      <c r="I420" s="18"/>
+      <c r="J420" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -10393,26 +10724,26 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" t="s">
         <v>251</v>
-      </c>
-      <c r="C2" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" t="s">
         <v>249</v>
-      </c>
-      <c r="C3" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Casos de Prueba GSIAM.xlsx
+++ b/doc/Casos de Prueba GSIAM.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="381">
   <si>
     <t>Alcance</t>
   </si>
@@ -180,9 +180,6 @@
   </si>
   <si>
     <t>El usuario no ingresa los datos obligatorios.</t>
-  </si>
-  <si>
-    <t>El usuario ingresa e-mail con formato erroneo.</t>
   </si>
   <si>
     <r>
@@ -317,9 +314,6 @@
     <t>CU01</t>
   </si>
   <si>
-    <t>Creacion del usuario</t>
-  </si>
-  <si>
     <t>Tamaño de datos</t>
   </si>
   <si>
@@ -360,9 +354,6 @@
     </r>
   </si>
   <si>
-    <t>El sistema no debe permitir el ingreso de los caracteres que exedan el maximo (email= 30 y contraseña= 20).</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -421,9 +412,6 @@
     <t>Resultado (ok, error)</t>
   </si>
   <si>
-    <t>El usuario se crea exitosamente y llega un correo electronico de bienvenida al usuario.</t>
-  </si>
-  <si>
     <t>El usuario ingresa e-mail ya registrado en el sistema.</t>
   </si>
   <si>
@@ -442,7 +430,16 @@
     <t>El usuario ingresa e-mail y contraseña mayor al tamaño permitido.</t>
   </si>
   <si>
-    <r>
+    <t>Email no valido</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">nombre: </t>
     </r>
     <r>
@@ -451,7 +448,1400 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Pedro Lopez Gomez Gonzales Guituierrez</t>
+      <t xml:space="preserve">Pedro Lopez
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>e-mail:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> mailerroneo.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>contraseña:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 123</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Pedro Lopez
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>e-mail:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> mloure@gmail.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>contraseña:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 123</t>
+    </r>
+  </si>
+  <si>
+    <t>CU02</t>
+  </si>
+  <si>
+    <t>CP01-02</t>
+  </si>
+  <si>
+    <t>CP01-03</t>
+  </si>
+  <si>
+    <t>CP01-04</t>
+  </si>
+  <si>
+    <t>CP01-05</t>
+  </si>
+  <si>
+    <t>CP02-01</t>
+  </si>
+  <si>
+    <t>CP02-02</t>
+  </si>
+  <si>
+    <t>CP02-03</t>
+  </si>
+  <si>
+    <t>CP02-04</t>
+  </si>
+  <si>
+    <t>CP02-05</t>
+  </si>
+  <si>
+    <t>Email existente</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Pedro Lopez
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>e-mail:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> mailerroneo.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>contraseña:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 123
+avatar: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Pedro Lopez
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>e-mail:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> mloure@gmail.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>contraseña:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 123
+avatar: </t>
+    </r>
+  </si>
+  <si>
+    <t>Requisitos</t>
+  </si>
+  <si>
+    <t>CU03</t>
+  </si>
+  <si>
+    <t>CP01-01</t>
+  </si>
+  <si>
+    <t>CP03-01</t>
+  </si>
+  <si>
+    <t>CU04</t>
+  </si>
+  <si>
+    <t>CP04-01</t>
+  </si>
+  <si>
+    <t>CP04-02</t>
+  </si>
+  <si>
+    <t>CP04-03</t>
+  </si>
+  <si>
+    <t>CP04-04</t>
+  </si>
+  <si>
+    <t>CP04-05</t>
+  </si>
+  <si>
+    <t>CP04-06</t>
+  </si>
+  <si>
+    <t>Ver Perfil</t>
+  </si>
+  <si>
+    <t>e-mail: gsiam.test@gmail.com
+contraseña: 123</t>
+  </si>
+  <si>
+    <t>nombre: Pedro Lopez
+e-mail: gsiam.test@gmail.com
+contraseña: 123</t>
+  </si>
+  <si>
+    <t>CP04-07</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que el e-mail ya existe en el sistema.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa e-mail que ya existe en el sistema.</t>
+  </si>
+  <si>
+    <t>Ya existe el usuario gsiam.test@gmail.com en el sistema (CP02-01)</t>
+  </si>
+  <si>
+    <t>Cierre de cuenta</t>
+  </si>
+  <si>
+    <t>CP04-08</t>
+  </si>
+  <si>
+    <t>CP04-09</t>
+  </si>
+  <si>
+    <t>Debe existir el usuario gsiam.test3@gmail.com en el sistema</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>e-mail:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> gsiam.test3@gmail.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>contraseña:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 123</t>
+    </r>
+  </si>
+  <si>
+    <t>El usuario se loguea con este mail y se da de baja su cuenta.</t>
+  </si>
+  <si>
+    <t>Usuario queda inactivo en el sistema (no puede volver a ingresar) y se eliminan las solicitudes en caso de tenerlas.</t>
+  </si>
+  <si>
+    <t>No se cierra la cuenta del usuario.</t>
+  </si>
+  <si>
+    <t>CU05</t>
+  </si>
+  <si>
+    <t>CP05-01</t>
+  </si>
+  <si>
+    <t>CP05-02</t>
+  </si>
+  <si>
+    <t>CP05-03</t>
+  </si>
+  <si>
+    <t>CP05-04</t>
+  </si>
+  <si>
+    <t>CP05-05</t>
+  </si>
+  <si>
+    <t>Se ingresa una parte de un nombre</t>
+  </si>
+  <si>
+    <t>Se ingresa un nombre exacto</t>
+  </si>
+  <si>
+    <t>Se ingresa el nombre de un amigo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>nombre:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (vacio) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>nombre:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ar </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>nombre:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Martin Gomez </t>
+    </r>
+  </si>
+  <si>
+    <t>NOTA: Para todos los test que no diga lo contrario las pruebas se realizaran con el usuario gsiam.test@gmail.com logueado</t>
+  </si>
+  <si>
+    <t>Deben existir mas de un usuario con parte del su nombre con la cadena 'ar' en el sistema</t>
+  </si>
+  <si>
+    <t>Sistema muestra todos los usuarios con 'ar' en su nombre.</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que se debe ingresar un valor.</t>
+  </si>
+  <si>
+    <t>El usuario debe tener un amigo con el nombre igual al de datos de prueba.</t>
+  </si>
+  <si>
+    <t>Sistema no trae datos.</t>
+  </si>
+  <si>
+    <t>CU06</t>
+  </si>
+  <si>
+    <t>CP06-01</t>
+  </si>
+  <si>
+    <t>CP06-02</t>
+  </si>
+  <si>
+    <t>CP06-03</t>
+  </si>
+  <si>
+    <t>Ver solicitudes Recibidas.</t>
+  </si>
+  <si>
+    <t>Ver solicitudes Enviadas.</t>
+  </si>
+  <si>
+    <t>Tener al menos una solicitud recibida</t>
+  </si>
+  <si>
+    <t>Tener al menos una solicitud enviada</t>
+  </si>
+  <si>
+    <t>Se ven las solicitudes recibidas</t>
+  </si>
+  <si>
+    <t>Se ven las solicitudes enviadas</t>
+  </si>
+  <si>
+    <t>Se muestran las solicitudes listadas</t>
+  </si>
+  <si>
+    <t>Se actualizan las listas</t>
+  </si>
+  <si>
+    <t>Se actualizan las listas de solicitudes</t>
+  </si>
+  <si>
+    <t>Generar mas solicitudes para poder ver el cambio.</t>
+  </si>
+  <si>
+    <t>Se ve correctamente el tipo de solicitud de cada usuario (en caso de tener alguna)</t>
+  </si>
+  <si>
+    <t>CU07</t>
+  </si>
+  <si>
+    <t>CP07-01</t>
+  </si>
+  <si>
+    <t>CP07-02</t>
+  </si>
+  <si>
+    <t>CP07-03</t>
+  </si>
+  <si>
+    <t>Enviar solicitud</t>
+  </si>
+  <si>
+    <t>Volver a enviar solicitud</t>
+  </si>
+  <si>
+    <t>Se selecciona un usuario para enviarle una solicitud de amistad.</t>
+  </si>
+  <si>
+    <t>Seleccionar al usuario del CP07-01</t>
+  </si>
+  <si>
+    <t>CU05, modificar al usuario a enviarle la solicitud, ponerle un mail accesible para revisar la casilla.</t>
+  </si>
+  <si>
+    <t>Seleccionar un usuario de la lista que genero el CU 5.</t>
+  </si>
+  <si>
+    <t>CU08</t>
+  </si>
+  <si>
+    <t>CP08-01</t>
+  </si>
+  <si>
+    <t>CP08-02</t>
+  </si>
+  <si>
+    <t>CP08-03</t>
+  </si>
+  <si>
+    <t>CP08-04</t>
+  </si>
+  <si>
+    <t>Confirmar Amistad desde buscar usuario.</t>
+  </si>
+  <si>
+    <t>Rechazar Amistad desde buscar usuario</t>
+  </si>
+  <si>
+    <t>Responder solicitud desde las solicitudes recibidas.</t>
+  </si>
+  <si>
+    <t>Se confirma la amistad.</t>
+  </si>
+  <si>
+    <t>Se rechaza la amistad.</t>
+  </si>
+  <si>
+    <t>Al usuario seleccionado se le borra el tipo de solicitud.</t>
+  </si>
+  <si>
+    <t>Repetir las pruebas CP08-01 y CP08-02 pero desde la pantalla de ver solicitudes recibidas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se elimina la solicitud de la lista de solicitudes. </t>
+  </si>
+  <si>
+    <t>CU09</t>
+  </si>
+  <si>
+    <t>CP09-01</t>
+  </si>
+  <si>
+    <t>CP09-02</t>
+  </si>
+  <si>
+    <t>Visualizar amigos</t>
+  </si>
+  <si>
+    <t>Actualizar</t>
+  </si>
+  <si>
+    <t>Enviar una solicitud de amistad a una persona.</t>
+  </si>
+  <si>
+    <t>CU10</t>
+  </si>
+  <si>
+    <t>CP10-01</t>
+  </si>
+  <si>
+    <t>CP10-02</t>
+  </si>
+  <si>
+    <t>Ver amigos en radar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin señal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deshabilitar el GPS y la red </t>
+  </si>
+  <si>
+    <t>Ubicar a los amigos en el mapa</t>
+  </si>
+  <si>
+    <t>Se visualizan los amigos en al mapa.</t>
+  </si>
+  <si>
+    <t>CU11</t>
+  </si>
+  <si>
+    <t>CP11-01</t>
+  </si>
+  <si>
+    <t>CP11-02</t>
+  </si>
+  <si>
+    <t>CP11-03</t>
+  </si>
+  <si>
+    <t>Compartir Ubicación</t>
+  </si>
+  <si>
+    <t>No Compartir ubicación</t>
+  </si>
+  <si>
+    <t>Esta prueba es en conjunto con la CP10-01</t>
+  </si>
+  <si>
+    <t>Dejar de compartir la ubicación</t>
+  </si>
+  <si>
+    <t>CU12</t>
+  </si>
+  <si>
+    <t>CP12-01</t>
+  </si>
+  <si>
+    <t>CP12-02</t>
+  </si>
+  <si>
+    <t>CP12-03</t>
+  </si>
+  <si>
+    <t>CP12-04</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>mail:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> un mail que no este en el sistema y que se tenga acceso.</t>
+    </r>
+  </si>
+  <si>
+    <t>gsiam.test@gmail.com</t>
+  </si>
+  <si>
+    <t>gsiam.2011</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>gsiam.test2@gmail.com</t>
+  </si>
+  <si>
+    <t>El usuario ingresa e-mail de un usuario ya registrado.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>e-mail:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> mailerroneo.com</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que el usuario ya existe en el sistema.</t>
+  </si>
+  <si>
+    <t>CU13</t>
+  </si>
+  <si>
+    <t>CP13-01</t>
+  </si>
+  <si>
+    <t>CP13-02</t>
+  </si>
+  <si>
+    <t>CP13-03</t>
+  </si>
+  <si>
+    <t>CP13-04</t>
+  </si>
+  <si>
+    <t>CP13-05</t>
+  </si>
+  <si>
+    <t>CU14</t>
+  </si>
+  <si>
+    <t>CP14-01</t>
+  </si>
+  <si>
+    <t>CP14-02</t>
+  </si>
+  <si>
+    <t>CP14-03</t>
+  </si>
+  <si>
+    <t>Usuario crea un sitio exitosamente.</t>
+  </si>
+  <si>
+    <t>Se crea el nuevo sitio y se muestra un mensaje de éxito.</t>
+  </si>
+  <si>
+    <t>El usuario ingresa Nombre, Dirección, Teléfono y Pagina web mayor al tamaño permitido.</t>
+  </si>
+  <si>
+    <t>CU15</t>
+  </si>
+  <si>
+    <t>CP15-01</t>
+  </si>
+  <si>
+    <t>CP15-02</t>
+  </si>
+  <si>
+    <t>CP15-03</t>
+  </si>
+  <si>
+    <t>CP15-04</t>
+  </si>
+  <si>
+    <t>CP15-05</t>
+  </si>
+  <si>
+    <t>CP15-06</t>
+  </si>
+  <si>
+    <t>CP15-07</t>
+  </si>
+  <si>
+    <t>Modificar sitio creado por el mismo usuario que esta logueado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sitio es modificado con datos correctos. </t>
+  </si>
+  <si>
+    <t>Seleccionar un sitio que no sea creado por el usuario que esta logueado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema muestra mensaje indicando  que no es posible modificar o eliminar un sitio no creado por el. </t>
+  </si>
+  <si>
+    <t>No se modifica el sitio.</t>
+  </si>
+  <si>
+    <t>No se elimina el sitio.</t>
+  </si>
+  <si>
+    <t>Eliminar un sitio creado por el mismo usuario que esta logueado</t>
+  </si>
+  <si>
+    <t>El sitio se elimina pro el usuario que lo creo.</t>
+  </si>
+  <si>
+    <t>CP01-06</t>
+  </si>
+  <si>
+    <t>Usuario invalido</t>
+  </si>
+  <si>
+    <t>Usuario invalido intenta ingresar al sistema.</t>
+  </si>
+  <si>
+    <t>Ingresar con un usuario con cuenta cerrada.</t>
+  </si>
+  <si>
+    <t>CU16</t>
+  </si>
+  <si>
+    <t>CP16-01</t>
+  </si>
+  <si>
+    <t>CP16-02</t>
+  </si>
+  <si>
+    <t>CP16-03</t>
+  </si>
+  <si>
+    <t>CP16-04</t>
+  </si>
+  <si>
+    <t>CP16-05</t>
+  </si>
+  <si>
+    <t>CU17</t>
+  </si>
+  <si>
+    <t>CP17-01</t>
+  </si>
+  <si>
+    <t>CP17-02</t>
+  </si>
+  <si>
+    <t>CP17-03</t>
+  </si>
+  <si>
+    <t>CP17-04</t>
+  </si>
+  <si>
+    <t>Encontrar Sitios cercanos</t>
+  </si>
+  <si>
+    <t>Encontrar sitios en la base de datos</t>
+  </si>
+  <si>
+    <t>Filtrar Sitios</t>
+  </si>
+  <si>
+    <t>Actualizar sitios</t>
+  </si>
+  <si>
+    <t>Haber creado sitios cercanos al lugar del dispositivo</t>
+  </si>
+  <si>
+    <t>ejecutar el CP13-01</t>
+  </si>
+  <si>
+    <t>Usuario filtra los sitios encontrados</t>
+  </si>
+  <si>
+    <t>Sistema muestra en pantalla los sitios según filtro aplicado.</t>
+  </si>
+  <si>
+    <t>CU14 - Crear un sitio lejano a la ubicación del usuario</t>
+  </si>
+  <si>
+    <t>Sistema ingresa el nombre del sitio.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>nombre:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ingresar el nombre del sitio anteriormente creado.</t>
+    </r>
+  </si>
+  <si>
+    <t>sistema muestra en pantalla el sitio.</t>
+  </si>
+  <si>
+    <t>Crear un sitio con otro usuario.</t>
+  </si>
+  <si>
+    <t>Ver sitio</t>
+  </si>
+  <si>
+    <t>Ver sitio en mapa</t>
+  </si>
+  <si>
+    <t>Compartir sitio</t>
+  </si>
+  <si>
+    <t>Como ir al sitio</t>
+  </si>
+  <si>
+    <t>Ver comentarios</t>
+  </si>
+  <si>
+    <t>Publicar</t>
+  </si>
+  <si>
+    <t>Publicar Facebook</t>
+  </si>
+  <si>
+    <t>CP17-05</t>
+  </si>
+  <si>
+    <t>CP17-06</t>
+  </si>
+  <si>
+    <t>Se selecciona cualquier sitio de la lista de sitios.</t>
+  </si>
+  <si>
+    <t>Se visualiza el sitio seleccionado en el mapa de manera correcta.</t>
+  </si>
+  <si>
+    <t>Se visualiza el sitio en el mapa correctamente.</t>
+  </si>
+  <si>
+    <t>tener configurado el e-mail en el celular</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">e-mail: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>gsiam.test2@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>Como llegar al sitio.</t>
+  </si>
+  <si>
+    <t>Se visualizan los comentarios del sitio</t>
+  </si>
+  <si>
+    <t>Seleccionar un sitio con comentarios.</t>
+  </si>
+  <si>
+    <t>Crear un comentario con otro usuario.</t>
+  </si>
+  <si>
+    <t>CP17-07</t>
+  </si>
+  <si>
+    <t>El usuario ingresa comentario mayor al tamaño permitido.</t>
+  </si>
+  <si>
+    <t>Modificar el sitio con el usuario que lo creo.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Comentario:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Esto es una prueba
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Puntaje (del 1 al 5): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Foto del Sitio:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Seleccionar una imagen al azar de la galería. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Opción “Compartir en Facebook”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: No
+NOTA: La prueba se deberá ejecutar combinando todas estas opciones.</t>
+    </r>
+  </si>
+  <si>
+    <t>La publicación se crea exitosamente y se muestra un mensaje de error. Se deberá validar en el detalle del sitio la actualización de los datos (comentarios y o foto). CP16-01</t>
+  </si>
+  <si>
+    <t>Publicar y cámara de fotos</t>
+  </si>
+  <si>
+    <t>Se publica con datos correctos. La foto la debe sacar con la cámara de fotos del teléfono.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Comentario:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Esto es una prueba
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Puntaje (del 1 al 5): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Foto del Sitio:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Tomar una foto con el teléfono. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Opción “Compartir en Facebook”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: No
+NOTA: La prueba se deberá ejecutar combinando todas estas opciones.</t>
+    </r>
+  </si>
+  <si>
+    <t>Repetir las pruebas CP17-02 y CP17-03, con la opción compartir en facebook.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Opción “Compartir en Facebook”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: No
+NOTA: La prueba se deberá ejecutar combinando todas estas opciones.</t>
+    </r>
+  </si>
+  <si>
+    <t>La publicación se crea exitosamente y se muestra un mensaje de error. Se deberá validar en el detalle del sitio la actualización de los datos (comentarios y o foto). CP16-01.
+Revisar el muro del usuario, se debe encontrar la publicación.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Comentario:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (vacio)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Puntaje (del 1 al 5): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Foto del Sitio:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Seleccionar una imagen al azar de la galería. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Opción “Compartir en Facebook”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: No</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Comentario:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Este es un comentario demasiado largo dado que esta aplicación no me debería dejar ingresar textos mayores a cien caracteres.</t>
+    </r>
+  </si>
+  <si>
+    <t>El sistema no debe permitir el ingreso de los caracteres que excedan el máximo (comentario= 100).</t>
+  </si>
+  <si>
+    <t>Con la pantalla de comentarios a la vista, otra persona deberá comentar el sitio. Después se oprime la opción actualizar.</t>
+  </si>
+  <si>
+    <t>Al actualizar la pantalla deberá aparecer el nuevo comentario ingresado.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>e-mail:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (vacio)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>contraseña:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (vacio)
+NOTA: La prueba se deberá ejecutar combinando todas estas opciones.</t>
+    </r>
+  </si>
+  <si>
+    <t>El usuario ingresa e-mail con formato erróneo.</t>
+  </si>
+  <si>
+    <t>El sistema no debe permitir el ingreso de los caracteres que excedan el máximo (email= 30 y contraseña= 20).</t>
+  </si>
+  <si>
+    <t>Creación del usuario</t>
+  </si>
+  <si>
+    <t>El usuario se crea exitosamente y llega un correo electrónico de bienvenida al usuario.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(vacio)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>e-mail:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (vacio)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>contraseña:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (vacio)
+NOTA: La prueba se deberá ejecutar combinando todas estas opciones.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pedro Lopez Gomez Gonzales Gutiérrez</t>
     </r>
     <r>
       <rPr>
@@ -466,10 +1856,102 @@
     </r>
   </si>
   <si>
-    <t>El sistema no debe permitir el ingreso de los caracteres que exedan el maximo (nombre= 35, email= 30 y contraseña= 20).</t>
-  </si>
-  <si>
-    <t>Email no valido</t>
+    <t>El sistema no debe permitir el ingreso de los caracteres que excedan el máximo (nombre= 35, email= 30 y contraseña= 20).</t>
+  </si>
+  <si>
+    <t>Usuario ve su perfil</t>
+  </si>
+  <si>
+    <t>Modificación del usuario</t>
+  </si>
+  <si>
+    <t>Tener al menos una imagen en la galería del teléfono.</t>
+  </si>
+  <si>
+    <t>Usuario es modificado con datos correctos. La foto la debe sacar de la galería de imágenes del teléfono.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Pedrito Lopez
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>e-mail:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> gsiam.test2@gmail.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>contraseña:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1234
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>avatar:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Seleccionar una imagen al azar de la galería.
+NOTA: La prueba se deberá ejecutar combinando todas estas opciones.</t>
+    </r>
+  </si>
+  <si>
+    <t>El usuario se modifica exitosamente y se muestra un mensaje de éxito.</t>
+  </si>
+  <si>
+    <t>Modificación del usuario y cámara de fotos</t>
+  </si>
+  <si>
+    <t>Usuario es modificado con datos correctos. La foto la debe sacar con la cámara de fotos del teléfono.</t>
   </si>
   <si>
     <r>
@@ -505,7 +1987,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> mailerroneo.com
+      <t xml:space="preserve"> gsiam.test@gmail.com
 </t>
     </r>
     <r>
@@ -523,10 +2005,9 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 123</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve"> 123
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -534,6 +2015,35 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
+      <t>avatar:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Tomar una foto con el teléfono.
+NOTA: La prueba se deberá ejecutar combinando todas estas opciones.</t>
+    </r>
+  </si>
+  <si>
+    <t>Modificación del usuario. No se confirma la acción</t>
+  </si>
+  <si>
+    <t>Al momento de que el sistema pregunte si esta seguro de confirmar al acción, se selecciona No.</t>
+  </si>
+  <si>
+    <t>No se modifica el perfil del usuario.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">nombre: </t>
     </r>
     <r>
@@ -542,7 +2052,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Pedro Lopez
+      <t xml:space="preserve">(vacio)
 </t>
     </r>
     <r>
@@ -560,7 +2070,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> mloure@gmail.com
+      <t xml:space="preserve"> (vacio)
 </t>
     </r>
     <r>
@@ -578,53 +2088,13 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 123</t>
-    </r>
-  </si>
-  <si>
-    <t>CU02</t>
-  </si>
-  <si>
-    <t>CP01-02</t>
-  </si>
-  <si>
-    <t>CP01-03</t>
-  </si>
-  <si>
-    <t>CP01-04</t>
-  </si>
-  <si>
-    <t>CP01-05</t>
-  </si>
-  <si>
-    <t>CP02-01</t>
-  </si>
-  <si>
-    <t>CP02-02</t>
-  </si>
-  <si>
-    <t>CP02-03</t>
-  </si>
-  <si>
-    <t>CP02-04</t>
-  </si>
-  <si>
-    <t>CP02-05</t>
-  </si>
-  <si>
-    <t>Modificacion del usuario</t>
-  </si>
-  <si>
-    <t>Email existente</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
+      <t xml:space="preserve"> (vacio)
+avatar: 
+NOTA: La prueba se deberá ejecutar combinando todas estas opciones.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">nombre: </t>
     </r>
     <r>
@@ -633,194 +2103,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Pedro Lopez
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>e-mail:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> mailerroneo.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>contraseña:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 123
-avatar: </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">nombre: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Pedro Lopez
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>e-mail:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> mloure@gmail.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>contraseña:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 123
-avatar: </t>
-    </r>
-  </si>
-  <si>
-    <t>Modificacion del usuario y camara de fotos</t>
-  </si>
-  <si>
-    <t>Usuario es modificado con datos correctos. La foto la debe sacar de la galeria de imágenes del telefono.</t>
-  </si>
-  <si>
-    <t>Requisitos</t>
-  </si>
-  <si>
-    <t>Tener al menos una imagen en la galeria del telefono.</t>
-  </si>
-  <si>
-    <t>Usuario es modificado con datos correctos. La foto la debe sacar con la camara de fotos del telefono.</t>
-  </si>
-  <si>
-    <t>El usuario se modifica exitosamente y se muestra un mensaje de exito.</t>
-  </si>
-  <si>
-    <t>CU03</t>
-  </si>
-  <si>
-    <t>CP01-01</t>
-  </si>
-  <si>
-    <t>CP03-01</t>
-  </si>
-  <si>
-    <t>CU04</t>
-  </si>
-  <si>
-    <t>CP04-01</t>
-  </si>
-  <si>
-    <t>CP04-02</t>
-  </si>
-  <si>
-    <t>CP04-03</t>
-  </si>
-  <si>
-    <t>CP04-04</t>
-  </si>
-  <si>
-    <t>CP04-05</t>
-  </si>
-  <si>
-    <t>CP04-06</t>
-  </si>
-  <si>
-    <t>Ver Perfil</t>
-  </si>
-  <si>
-    <t>Usuario ve su peril</t>
-  </si>
-  <si>
-    <t>e-mail: gsiam.test@gmail.com
-contraseña: 123</t>
-  </si>
-  <si>
-    <t>nombre: Pedro Lopez
-e-mail: gsiam.test@gmail.com
-contraseña: 123</t>
-  </si>
-  <si>
-    <t>CP04-07</t>
-  </si>
-  <si>
-    <t>Al momento de que el sistema pregunte si esta seguro de confirmar al accion, se selecciona No.</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>No se modifica el perfil del usuairo.</t>
-  </si>
-  <si>
-    <t>Mensaje de error indicando que el e-mail ya existe en el sistema.</t>
-  </si>
-  <si>
-    <t>El usuario ingresa e-mail que ya existe en el sistema.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">nombre: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pedro Lopez Gomez Gonzales Guituierrez</t>
+      <t>Pedro Lopez Gomez Gonzales Gutiérrez</t>
     </r>
     <r>
       <rPr>
@@ -836,25 +2119,22 @@
     </r>
   </si>
   <si>
-    <t>Ya existe el usuario gsiam.test@gmail.com en el sistema (CP02-01)</t>
-  </si>
-  <si>
-    <t>Cierre de cuenta</t>
-  </si>
-  <si>
-    <t>Modificacion del usuario. No se confirma la accion</t>
-  </si>
-  <si>
-    <t>Cierre de cuenta. No se confirma la accion</t>
-  </si>
-  <si>
-    <t>CP04-08</t>
-  </si>
-  <si>
-    <t>CP04-09</t>
-  </si>
-  <si>
-    <t>Debe existir el usuario gsiam.test3@gmail.com en el sistema</t>
+    <t>Cierre de cuenta. No se confirma la acción</t>
+  </si>
+  <si>
+    <t>Búsqueda de usuarios</t>
+  </si>
+  <si>
+    <t>Búsqueda de usuario</t>
+  </si>
+  <si>
+    <t>Debe existir un único usuario con su nombre igual al de datos de prueba.</t>
+  </si>
+  <si>
+    <t>Sistema muestra un único registro con los datos del usuario.</t>
+  </si>
+  <si>
+    <t>Búsqueda de amigos</t>
   </si>
   <si>
     <r>
@@ -864,17 +2144,117 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>e-mail:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> gsiam.test3@gmail.com
-</t>
-    </r>
+      <t>nombre:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Martin Martínez </t>
+    </r>
+  </si>
+  <si>
+    <t>No se ingresa ningún nombre</t>
+  </si>
+  <si>
+    <t>Chequear con la búsqueda de usuario</t>
+  </si>
+  <si>
+    <t>Se deberá alternar con el CU06 para ver si el tipo de solicitud de cada usuario es correcta.</t>
+  </si>
+  <si>
+    <t>Opción Actualizar</t>
+  </si>
+  <si>
+    <t>Se crea la solicitud, esto se comprueba viendo las solicitudes (CU06). Se le envía un mail al usuario seleccionado.</t>
+  </si>
+  <si>
+    <t>Se selecciona un usuario el cual ya se le envió una solicitud de amistad.</t>
+  </si>
+  <si>
+    <t>sistema muestra un mensaje indicando que ya se le envió una solicitud al usuario.</t>
+  </si>
+  <si>
+    <t>Enviar solicitud. No se confirma la acción</t>
+  </si>
+  <si>
+    <t>No se envía la solicitud.</t>
+  </si>
+  <si>
+    <t>Loguearse con un usuario al cual se le envío la solicitud en el CP07-01</t>
+  </si>
+  <si>
+    <t>El usuario seleccionado desaparece de la lista de búsqueda y aparece en al lista de amigos (CU09).</t>
+  </si>
+  <si>
+    <t>Loguearse con un usuario al cual se le envió la solicitud en el CP07-01</t>
+  </si>
+  <si>
+    <t>Responder solicitud. No se confirma la acción</t>
+  </si>
+  <si>
+    <t>No se responde la solicitud.</t>
+  </si>
+  <si>
+    <t>Ver los amigos recientemente agregados y chequear que los rechazados no estén en la lista.</t>
+  </si>
+  <si>
+    <t>Visualización de los amigos que se agregaron en los CP anteriores.</t>
+  </si>
+  <si>
+    <t>Con la pantalla de amigos a la vista, la persona a la cual recientemente se le envió una solicitud deberá aceptar como amigo.</t>
+  </si>
+  <si>
+    <t>Al actualizar la pantalla deberá aparecer la nueva persona a la cual acepto la solicitud.</t>
+  </si>
+  <si>
+    <t>CU11 - Debe existir algún amigo con la opción compartir ubicación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema intenta sacar la posición. </t>
+  </si>
+  <si>
+    <t>Sistema muestra un mensaje de error indicando que se deberá habilitar el GPS.</t>
+  </si>
+  <si>
+    <t>Se utiliza esta prueba para ver los amigos en el radar en el CU 10.</t>
+  </si>
+  <si>
+    <t>Se deberá revisar los datos para ver si se dejo de enviar las coordenadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se selecciona la opción compartir y el Sistema intenta sacar la posición. </t>
+  </si>
+  <si>
+    <t>Invitar vía mail</t>
+  </si>
+  <si>
+    <t>Sistema envía invitación a un mail.</t>
+  </si>
+  <si>
+    <t>Le llega un mail a la casilla ingresada con la invitación.</t>
+  </si>
+  <si>
+    <t>Invitar vía Facebook</t>
+  </si>
+  <si>
+    <t>Sistema envía invitación a amigos de su facebook.</t>
+  </si>
+  <si>
+    <t>se deberán elegir 1 o mas amigos del facebook.</t>
+  </si>
+  <si>
+    <t>Revisar el muro de los amigos seleccionados, se debe encontrar la invitación.</t>
+  </si>
+  <si>
+    <t>Usuario busca los sitios cercanos a su posición.</t>
+  </si>
+  <si>
+    <t>Se deberá chequear que la consulta traiga todos los sitios creados así como también la información que se muestra.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -882,565 +2262,40 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>contraseña:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 123</t>
-    </r>
-  </si>
-  <si>
-    <t>El usuario se loguea con este mail y se da de baja su cuenta.</t>
-  </si>
-  <si>
-    <t>Usuario queda inactivo en el sistema (no puede volver a ingresar) y se eliminan las solicitudes en caso de tenerlas.</t>
-  </si>
-  <si>
-    <t>No se cierra la cuenta del usuario.</t>
-  </si>
-  <si>
-    <t>CU05</t>
-  </si>
-  <si>
-    <t>CP05-01</t>
-  </si>
-  <si>
-    <t>CP05-02</t>
-  </si>
-  <si>
-    <t>CP05-03</t>
-  </si>
-  <si>
-    <t>CP05-04</t>
-  </si>
-  <si>
-    <t>CP05-05</t>
-  </si>
-  <si>
-    <t>Busqueda de usuario</t>
-  </si>
-  <si>
-    <t>Busqueda de usuarios</t>
-  </si>
-  <si>
-    <t>Busqueda de amigos</t>
-  </si>
-  <si>
-    <t>Se ingresa una parte de un nombre</t>
-  </si>
-  <si>
-    <t>Se ingresa un nombre exacto</t>
-  </si>
-  <si>
-    <t>Se ingresa el nombre de un amigo</t>
-  </si>
-  <si>
-    <t>No se ingresa ningun nombre</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>nombre:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (vacio) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>nombre:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ar </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>nombre:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Martin Gomez </t>
-    </r>
-  </si>
-  <si>
-    <t>NOTA: Para todos los test que no diga lo contrario las pruebas se realizaran con el usuario gsiam.test@gmail.com logueado</t>
-  </si>
-  <si>
-    <t>Deben existir mas de un usuario con parte del su nombre con la cadena 'ar' en el sistema</t>
-  </si>
-  <si>
-    <t>Sistema muestra todos los usuarios con 'ar' en su nombre.</t>
-  </si>
-  <si>
-    <t>Sistema muestra un unico registro con los datos del usaurio.</t>
-  </si>
-  <si>
-    <t>Debe existir un unico usuario con su nombre igual al de datos de prueba.</t>
-  </si>
-  <si>
-    <t>Mensaje de error indicando que se debe ingresar un valor.</t>
-  </si>
-  <si>
-    <t>El usuario debe tener un amigo con el nombre igual al de datos de prueba.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>nombre:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Martin Martinez </t>
-    </r>
-  </si>
-  <si>
-    <t>Sistema no trae datos.</t>
-  </si>
-  <si>
-    <t>CU06</t>
-  </si>
-  <si>
-    <t>CP06-01</t>
-  </si>
-  <si>
-    <t>CP06-02</t>
-  </si>
-  <si>
-    <t>CP06-03</t>
-  </si>
-  <si>
-    <t>Ver solicitudes Recibidas.</t>
-  </si>
-  <si>
-    <t>Ver solicitudes Enviadas.</t>
-  </si>
-  <si>
-    <t>Opcion Actualizar</t>
-  </si>
-  <si>
-    <t>Chekear con la busqueda de usuario</t>
-  </si>
-  <si>
-    <t>Tener al menos una solicitud recibida</t>
-  </si>
-  <si>
-    <t>Tener al menos una solicitud enviada</t>
-  </si>
-  <si>
-    <t>Se ven las solicitudes recibidas</t>
-  </si>
-  <si>
-    <t>Se ven las solicitudes enviadas</t>
-  </si>
-  <si>
-    <t>Se muestran las solicitudes listadas</t>
-  </si>
-  <si>
-    <t>Se actualizan las listas</t>
-  </si>
-  <si>
-    <t>Se actualizan las listas de solicitudes</t>
-  </si>
-  <si>
-    <t>Generar mas solicitudes para poder ver el cambio.</t>
-  </si>
-  <si>
-    <t>Se debera alternar con el CU06 para ver si el tipo de solicitud de cada usuario es correcta.</t>
-  </si>
-  <si>
-    <t>Se ve correctamente el tipo de solicitud de cada usuario (en caso de tener alguna)</t>
-  </si>
-  <si>
-    <t>CU07</t>
-  </si>
-  <si>
-    <t>CP07-01</t>
-  </si>
-  <si>
-    <t>CP07-02</t>
-  </si>
-  <si>
-    <t>CP07-03</t>
-  </si>
-  <si>
-    <t>Enviar solicitud</t>
-  </si>
-  <si>
-    <t>Volver a enviar solicitud</t>
-  </si>
-  <si>
-    <t>Enviar solicitud. No se confirma la accion</t>
-  </si>
-  <si>
-    <t>Se selecciona un usuario para enviarle una solicitud de amistad.</t>
-  </si>
-  <si>
-    <t>Se selecciona un usuario el cual ya se le envio una solicitud de amistad.</t>
-  </si>
-  <si>
-    <t>Seleccionar al usuario del CP07-01</t>
-  </si>
-  <si>
-    <t>CU05, modificar al usuario a enviarle la solicitud, ponerle un mail accesible para revisar la casilla.</t>
-  </si>
-  <si>
-    <t>Seleccionar un usuario de la lista que genero el CU 5.</t>
-  </si>
-  <si>
-    <t>Se crea la solicitud, esto se comprueba viendo als solicitudes (CU06). Se le envia un mail al usaurio seleccionado.</t>
-  </si>
-  <si>
-    <t>sistema muestra un mensaje indicando que ya se le envio una solicitud al usuario.</t>
-  </si>
-  <si>
-    <t>No se envia la solciitud.</t>
-  </si>
-  <si>
-    <t>CU08</t>
-  </si>
-  <si>
-    <t>CP08-01</t>
-  </si>
-  <si>
-    <t>CP08-02</t>
-  </si>
-  <si>
-    <t>CP08-03</t>
-  </si>
-  <si>
-    <t>CP08-04</t>
-  </si>
-  <si>
-    <t>Responder solicitud. No se confirma la accion</t>
-  </si>
-  <si>
-    <t>Confirmar Amistad desde buscar usuario.</t>
-  </si>
-  <si>
-    <t>Rechazar Amistad desde buscar usuario</t>
-  </si>
-  <si>
-    <t>Responder solicitud desde las solicitudes recibidas.</t>
-  </si>
-  <si>
-    <t>Loguearse con un usuario al cual se le envio la solicitud en el CP07-01</t>
-  </si>
-  <si>
-    <t>Se confirma la amistad.</t>
-  </si>
-  <si>
-    <t>Se rechaza la amistad.</t>
-  </si>
-  <si>
-    <t>Al usuario seleccionado se le borra el tipo de solicitud.</t>
-  </si>
-  <si>
-    <t>El usuario seleccionado desaparece de la lista de busqueda y aparece en al lista de amigos (CU09).</t>
-  </si>
-  <si>
-    <t>Repetir las pruebas CP08-01 y CP08-02 pero desde la pantalla de ver solicitudes recibidas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se elimina la solicitud de la lista de solicitudes. </t>
-  </si>
-  <si>
-    <t>No se responde la solciitud.</t>
-  </si>
-  <si>
-    <t>CU09</t>
-  </si>
-  <si>
-    <t>CP09-01</t>
-  </si>
-  <si>
-    <t>CP09-02</t>
-  </si>
-  <si>
-    <t>Visualizar amigos</t>
-  </si>
-  <si>
-    <t>Ver los amigos recientemente agregados y chequear que los rechazados no esten en la lista.</t>
-  </si>
-  <si>
-    <t>Actualizar</t>
-  </si>
-  <si>
-    <t>Visualizacion de los amigos que se agegaron en lso CP anteriores.</t>
-  </si>
-  <si>
-    <t>Enviar una solicitud de amistad a una persona.</t>
-  </si>
-  <si>
-    <t>Con la pantalla de amigos a la vista, la persona a la cual recientemente se le envio una solicitud debera aceptar como amigo.</t>
-  </si>
-  <si>
-    <t>Al actualizar la pantalla debera aparecer la nueva persona a la cual acepto la solicitud.</t>
-  </si>
-  <si>
-    <t>CU10</t>
-  </si>
-  <si>
-    <t>CP10-01</t>
-  </si>
-  <si>
-    <t>CP10-02</t>
-  </si>
-  <si>
-    <t>Ver amigos en radar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sin señal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deshabilitar el GPS y la red </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema intenta sacar la posicion. </t>
-  </si>
-  <si>
-    <t>Sistema muestra un mensaje de error indicando que se debera habilitar el GPS.</t>
-  </si>
-  <si>
-    <t>Ubicar a los amigos en el mapa</t>
-  </si>
-  <si>
-    <t>CU11 - Debe existir algun amigo con la opcion compartir ubicación.</t>
-  </si>
-  <si>
-    <t>Se visualizan los amigos en al mapa.</t>
-  </si>
-  <si>
-    <t>CU11</t>
-  </si>
-  <si>
-    <t>CP11-01</t>
-  </si>
-  <si>
-    <t>CP11-02</t>
-  </si>
-  <si>
-    <t>CP11-03</t>
-  </si>
-  <si>
-    <t>Compartir Ubicación</t>
-  </si>
-  <si>
-    <t>No Compartir ubicación</t>
-  </si>
-  <si>
-    <t>Esta prueba es en conjunto con la CP10-01</t>
-  </si>
-  <si>
-    <t>Se utiliza esta prueba para ver los amgios en el radar en el CU 10.</t>
-  </si>
-  <si>
-    <t>Dejar de compartir la ubicación</t>
-  </si>
-  <si>
-    <t>Se debera revisar los datos para ver si se dejo de enviar las coordenadas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se selecciona la opcion compartir y el Sistema intenta sacar la posicion. </t>
-  </si>
-  <si>
-    <t>CU12</t>
-  </si>
-  <si>
-    <t>CP12-01</t>
-  </si>
-  <si>
-    <t>CP12-02</t>
-  </si>
-  <si>
-    <t>CP12-03</t>
-  </si>
-  <si>
-    <t>CP12-04</t>
-  </si>
-  <si>
-    <t>Invitar via mail</t>
-  </si>
-  <si>
-    <t>Invitar via Facebook</t>
-  </si>
-  <si>
-    <t>Sistema envia invitacion a un mail.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>mail:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> un mail que no este en el sistema y que se tenga acceso.</t>
-    </r>
-  </si>
-  <si>
-    <t>Le llega un mail a la casilla ingresada con la invitacion.</t>
-  </si>
-  <si>
-    <t>Sistema envia invitacion a amigos de su facebook.</t>
-  </si>
-  <si>
-    <t>se deberan elegir 1 o mas amigos del facebook.</t>
-  </si>
-  <si>
-    <t>gsiam.test@gmail.com</t>
-  </si>
-  <si>
-    <t>gsiam.2011</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>gsiam.test2@gmail.com</t>
-  </si>
-  <si>
-    <t>El usuario ingresa e-mail de un usuario ya registrado.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>e-mail:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> mailerroneo.com</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>Mensaje de error indicando que el usuario ya existe en el sistema.</t>
-  </si>
-  <si>
-    <t>CU13</t>
-  </si>
-  <si>
-    <t>CP13-01</t>
-  </si>
-  <si>
-    <t>CP13-02</t>
-  </si>
-  <si>
-    <t>CP13-03</t>
-  </si>
-  <si>
-    <t>CP13-04</t>
-  </si>
-  <si>
-    <t>CP13-05</t>
-  </si>
-  <si>
-    <t>CU14</t>
-  </si>
-  <si>
-    <t>CP14-01</t>
-  </si>
-  <si>
-    <t>CP14-02</t>
-  </si>
-  <si>
-    <t>CP14-03</t>
-  </si>
-  <si>
-    <t>Creacion del sitio</t>
-  </si>
-  <si>
-    <t>Usuario crea un sitio exitosamente.</t>
-  </si>
-  <si>
-    <t>Se crea el nuevo sitio y se muestra un mensaje de éxito.</t>
-  </si>
-  <si>
-    <t>El usuario ingresa Nombre, Dirección, Teléfono y Pagina web mayor al tamaño permitido.</t>
-  </si>
-  <si>
-    <r>
-      <t>Nombre:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Este sitio tiene un nombre muy muy largo</t>
+      <t>filtro categoría
+filtro ranking
+sin filtro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+NOTA: La prueba se deberá ejecutar combinando todas las opciones de todos los filtros.</t>
+    </r>
+  </si>
+  <si>
+    <t>Con la pantalla de búsqueda de sitios a la vista, otra persona deberá crear un sitio. Después se oprime la opción actualizar.</t>
+  </si>
+  <si>
+    <t>Al actualizar la pantalla deberá aparecer el nuevo sitio creado.</t>
+  </si>
+  <si>
+    <t>Creación del sitio</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sitio prueba</t>
     </r>
     <r>
       <rPr>
@@ -1458,7 +2313,221 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Avenida muy larga esquina bulevard demasiado largo entre las calles treinta y cuarenta numero 1234</t>
+      <t>Dirección de prueba</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Teléfono:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0056987633566</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Pagina web: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>www.code.google.com/p/geolocalizacion-uas/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Categoría: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Monumento</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Ubicación en el Mapa: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">La obtenida por el GPS
+NOTA: La prueba se deberá ejecutar combinando todas estas opciones. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(vacio)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Dirección: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(vacio)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Teléfono:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0056987633566</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Pagina web: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>www.code.google.com/p/geolocalizacion-uas/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Categoría: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(vacio)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Ubicación en el Mapa: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>La obtenida por el GPS
+NOTA: La prueba se deberá ejecutar combinando todas estas opciones.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Nombre:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Este sitio tiene un nombre muy muy largo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Dirección: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Avenida muy larga esquina boulevard demasiado largo entre las calles treinta y cuarenta numero 1234</t>
     </r>
     <r>
       <rPr>
@@ -1508,55 +2577,10 @@
     </r>
   </si>
   <si>
-    <t>El sistema no debe permitir el ingreso de los caracteres que exedan el maximo (nombre= 30, dirección= 50, telefono=15 y pagina web= 50).</t>
-  </si>
-  <si>
-    <t>CU15</t>
-  </si>
-  <si>
-    <t>CP15-01</t>
-  </si>
-  <si>
-    <t>CP15-02</t>
-  </si>
-  <si>
-    <t>CP15-03</t>
-  </si>
-  <si>
-    <t>CP15-04</t>
-  </si>
-  <si>
-    <t>Modificacion de un sitio</t>
-  </si>
-  <si>
-    <t>Modificacion de un sitio. No se confirma la accion</t>
-  </si>
-  <si>
-    <t>Eliminacion de un sitio</t>
-  </si>
-  <si>
-    <t>Eliminacion de un sitio. No se confirma la accion</t>
-  </si>
-  <si>
-    <t>Validacion del usuario</t>
-  </si>
-  <si>
-    <t>CP15-05</t>
-  </si>
-  <si>
-    <t>CP15-06</t>
-  </si>
-  <si>
-    <t>CP15-07</t>
-  </si>
-  <si>
-    <t>Modificar sitio creado por el mismo usuario que esta logueado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sitio es modificado con datos correctos. </t>
-  </si>
-  <si>
-    <t>El sitio se modifica exitosamente y se muestra un mensaje de exito.</t>
+    <t>El sistema no debe permitir el ingreso de los caracteres que excedan el máximo (nombre= 30, dirección= 50, teléfono=15 y pagina web= 50).</t>
+  </si>
+  <si>
+    <t>Modificación de un sitio</t>
   </si>
   <si>
     <r>
@@ -1586,7 +2610,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Direccion de prueba</t>
+      <t>Dirección de prueba</t>
     </r>
     <r>
       <rPr>
@@ -1659,1054 +2683,54 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">Moverla unos metros.
-NOTA: La prueba se debera ejecutar combinando todas estas opciones. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">nombre: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(vacio)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>e-mail:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (vacio)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>contraseña:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (vacio)
-NOTA: La prueba se debera ejecutar combinando todas estas opciones.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">nombre: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Pedrito Lopez
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>e-mail:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> gsiam.test2@gmail.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>contraseña:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1234
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>avatar:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Seleccionar una imagen al azar de la galeria.
-NOTA: La prueba se debera ejecutar combinando todas estas opciones.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">nombre: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Pedro Lopez
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>e-mail:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> gsiam.test@gmail.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>contraseña:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 123
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>avatar:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Tomar una foto con el telefono.
-NOTA: La prueba se debera ejecutar combinando todas estas opciones.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">nombre: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(vacio)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>e-mail:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (vacio)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>contraseña:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (vacio)
-avatar: 
-NOTA: La prueba se debera ejecutar combinando todas estas opciones.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nombre: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sitio prueba</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Dirección: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Direccion de prueba</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-Teléfono:  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0056987633566</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Pagina web: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>www.code.google.com/p/geolocalizacion-uas/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Categoría: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Monumento</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Ubicación en el Mapa: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">La obtenida por el GPS
-NOTA: La prueba se debera ejecutar combinando todas estas opciones. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Nombre: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(vacio)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Dirección: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(vacio)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-Teléfono:  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0056987633566</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Pagina web: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>www.code.google.com/p/geolocalizacion-uas/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Categoría: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(vacio)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Ubicación en el Mapa: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>La obtenida por el GPS
-NOTA: La prueba se debera ejecutar combinando todas estas opciones.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>e-mail:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (vacio)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>contraseña:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (vacio)
-NOTA: La prueba se debera ejecutar combinando todas estas opciones.</t>
-    </r>
-  </si>
-  <si>
-    <t>Seleccionar un sitio que no sea creado por el usuario que esta logueado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema muestra mensaje indicando  que no es posible modificar o eliminar un sitio no creado por el. </t>
-  </si>
-  <si>
-    <t>El sistema debera validar que el usuario no es el que lo creo, por lo tanto no debera permitir esta accion.</t>
-  </si>
-  <si>
-    <t>No se modifica el sitio.</t>
-  </si>
-  <si>
-    <t>No se elimina el sitio.</t>
-  </si>
-  <si>
-    <t>Eliminar un sitio creado por el mismo usuario que esta logueado</t>
-  </si>
-  <si>
-    <t>El sitio se elimina pro el usuario que lo creo.</t>
-  </si>
-  <si>
-    <t>El sitio se elimina exitosamente y se muestra un mensaje de exito. Tambien se eliminan las publicaciones en caso de tenerlas.</t>
-  </si>
-  <si>
-    <t>CP01-06</t>
-  </si>
-  <si>
-    <t>Usuario invalido</t>
-  </si>
-  <si>
-    <t>Usuario invalido intenta ingresar al sistema.</t>
-  </si>
-  <si>
-    <t>Ingresar con un usuario con cuenta cerrada.</t>
-  </si>
-  <si>
-    <t>CU16</t>
-  </si>
-  <si>
-    <t>CP16-01</t>
-  </si>
-  <si>
-    <t>CP16-02</t>
-  </si>
-  <si>
-    <t>CP16-03</t>
-  </si>
-  <si>
-    <t>CP16-04</t>
-  </si>
-  <si>
-    <t>CP16-05</t>
-  </si>
-  <si>
-    <t>CU17</t>
-  </si>
-  <si>
-    <t>CP17-01</t>
-  </si>
-  <si>
-    <t>CP17-02</t>
-  </si>
-  <si>
-    <t>CP17-03</t>
-  </si>
-  <si>
-    <t>CP17-04</t>
-  </si>
-  <si>
-    <t>Encontrar Sitios cercanos</t>
-  </si>
-  <si>
-    <t>Encontrar sitios en la base de datos</t>
-  </si>
-  <si>
-    <t>Filtrar Sitios</t>
-  </si>
-  <si>
-    <t>Actualizar sitios</t>
-  </si>
-  <si>
-    <t>Haber creado sitios cercanos al lugar del dispositivo</t>
-  </si>
-  <si>
-    <t>Usuario busca los sitios cercanos a su posicion.</t>
-  </si>
-  <si>
-    <t>Se debera chequear que la consulta traiga todos los sitios creados asi como tambein la informacion que se muestra.</t>
-  </si>
-  <si>
-    <t>ejecutar el CP13-01</t>
-  </si>
-  <si>
-    <t>Usuario filtra los sitios encontrados</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>filtro categoria
-filtro ranking
-sin filtro</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-NOTA: La prueba se debera ejecutar combinando todas las opciones de todos los filtros.</t>
-    </r>
-  </si>
-  <si>
-    <t>Sistema muestra en pantalla los sitios según filtro aplicado.</t>
-  </si>
-  <si>
-    <t>CU14 - Crear un sitio lejano a la ubicación del usuario</t>
-  </si>
-  <si>
-    <t>Sistema ingresa el nombre del sitio.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>nombre:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ingresar el nombre del sitio anteriormente creado.</t>
-    </r>
-  </si>
-  <si>
-    <t>sistema muestra en pantalla el sitio.</t>
-  </si>
-  <si>
-    <t>Crear un sitio con otro usuario.</t>
-  </si>
-  <si>
-    <t>Con la pantalla de busqueda de sitios a la vista, otra persona debera crear un sitio. Despues se orpime la opcion actualizar.</t>
-  </si>
-  <si>
-    <t>Al actualizar la pantalla debera aparecer el nuevo sitio creado.</t>
-  </si>
-  <si>
-    <t>Ver sitio</t>
-  </si>
-  <si>
-    <t>Ver sitio en mapa</t>
-  </si>
-  <si>
-    <t>Compartir sitio</t>
-  </si>
-  <si>
-    <t>Como ir al sitio</t>
-  </si>
-  <si>
-    <t>Ver comentarios</t>
-  </si>
-  <si>
-    <t>Publicar</t>
-  </si>
-  <si>
-    <t>Publicar y camara de fotos</t>
-  </si>
-  <si>
-    <t>Publicar Facebook</t>
-  </si>
-  <si>
-    <t>CP17-05</t>
-  </si>
-  <si>
-    <t>CP17-06</t>
-  </si>
-  <si>
-    <t>Se selecciona cualquier sitio de la lista de sitios.</t>
-  </si>
-  <si>
-    <t>Se visualizan toda la informacion correctamente.</t>
-  </si>
-  <si>
-    <t>Se visualiza el sitio seleccionado en el mapa de manera correcta.</t>
-  </si>
-  <si>
-    <t>Se visualiza el sitio en el mapa correctamente.</t>
-  </si>
-  <si>
-    <t>tener configurado el e-mail en el celular</t>
-  </si>
-  <si>
-    <t>Se nvia el sitio por mail a un mail conocido para poder chaquear.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">e-mail: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>gsiam.test2@gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>Revisar el mail ingresado y chequear que al informacion del sitio sea la correcta.</t>
-  </si>
-  <si>
-    <t>tener instalado GoogleMaps y un navegador en el celular</t>
-  </si>
-  <si>
-    <t>Como llegar al sitio.</t>
-  </si>
-  <si>
-    <t>El sistema debe mostrar la aplicacion externa (GoogleMaps o navegador) correctamente con el sitio como punto de destino.
+NOTA: La prueba se deberá ejecutar combinando todas estas opciones. </t>
+    </r>
+  </si>
+  <si>
+    <t>El sitio se modifica exitosamente y se muestra un mensaje de éxito.</t>
+  </si>
+  <si>
+    <t>Validación del usuario</t>
+  </si>
+  <si>
+    <t>El sistema deberá validar que el usuario no es el que lo creo, por lo tanto no deberá permitir esta acción.</t>
+  </si>
+  <si>
+    <t>Eliminación de un sitio</t>
+  </si>
+  <si>
+    <t>El sitio se elimina exitosamente y se muestra un mensaje de éxito. También se eliminan las publicaciones en caso de tenerlas.</t>
+  </si>
+  <si>
+    <t>Modificación de un sitio. No se confirma la acción</t>
+  </si>
+  <si>
+    <t>Eliminación de un sitio. No se confirma la acción</t>
+  </si>
+  <si>
+    <t>Se visualizan toda la información correctamente.</t>
+  </si>
+  <si>
+    <t>Se envía el sitio por mail a un mail conocido para poder chaquear.</t>
+  </si>
+  <si>
+    <t>Revisar el mail ingresado y chequear que al información del sitio sea la correcta.</t>
+  </si>
+  <si>
+    <t>tener instalado Google Maps y un navegador en el celular</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar la aplicación externa (Google Maps o navegador) correctamente con el sitio como punto de destino.
 NOTA: probar con ambas aplicaciones.</t>
   </si>
   <si>
-    <t>Se visualizan los comentarios del sitio</t>
-  </si>
-  <si>
-    <t>Seleccionar un sitio con comentarios.</t>
-  </si>
-  <si>
-    <t>Se publica con datos correctos. La foto la debe sacar de la galeria de imágenes del telefono.</t>
-  </si>
-  <si>
-    <t>Se publica con datos correctos. La foto la debe sacar con la camara de fotos del telefono.</t>
-  </si>
-  <si>
-    <t>La publicacion se crea exitosamente y se muestra un mensaje de error. Se debera validar en el detalle del sitio la actualizacion de los datos (comentarios y o foto). CP16-01</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comentario:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Esto es una prueba
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Puntaje (del 1 al 5): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Foto del Sitio:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Seleccionar una imagen al azar de la galeria. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Opción “Compartir en Facebook”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>: No
-NOTA: La prueba se debera ejecutar combinando todas estas opciones.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comentario:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Esto es una prueba
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Puntaje (del 1 al 5): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Foto del Sitio:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Tomar una foto con el telefono. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Opción “Compartir en Facebook”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>: No
-NOTA: La prueba se debera ejecutar combinando todas estas opciones.</t>
-    </r>
-  </si>
-  <si>
-    <t>Repetir las pruebas CP17-02 y CP17-03, con la opcion compartir en facebook.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Opción “Compartir en Facebook”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>: No
-NOTA: La prueba se debera ejecutar combinando todas estas opciones.</t>
-    </r>
-  </si>
-  <si>
-    <t>Revisar el muro de los amigos seleccionados, se debe encontrar la invitacion.</t>
-  </si>
-  <si>
-    <t>La publicacion se crea exitosamente y se muestra un mensaje de error. Se debera validar en el detalle del sitio la actualizacion de los datos (comentarios y o foto). CP16-01.
-Revisar el muro del usuario, se debe encontrar la publicacion.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comentario:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (vacio)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Puntaje (del 1 al 5): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Foto del Sitio:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Seleccionar una imagen al azar de la galeria. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Opción “Compartir en Facebook”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>: No</t>
-    </r>
-  </si>
-  <si>
-    <t>El usuario ingresa coemntario mayor al tamaño permitido.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comentario:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Este es un comentario demasiado largo dado que esta aplicación no me deberia dejar ingresar textos mayores a cien caracteres.</t>
-    </r>
-  </si>
-  <si>
-    <t>El sistema no debe permitir el ingreso de los caracteres que exedan el maximo (comentario= 100).</t>
+    <t>Con la pantalla del sitio a la vista, otra persona deberá modificar el sitio. Después se oprime la opción actualizar.</t>
+  </si>
+  <si>
+    <t>Al actualizar la pantalla deberán aparecer los cambios en el sitio.</t>
+  </si>
+  <si>
+    <t>Se publica con datos correctos. La foto la debe sacar de la galería de imágenes del teléfono.</t>
   </si>
 </sst>
 </file>
@@ -2797,7 +2821,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2831,12 +2855,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2977,7 +2995,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3065,6 +3083,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3079,21 +3103,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3515,31 +3524,31 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="36">
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
       <c r="M12" s="14"/>
     </row>
     <row r="13" spans="1:13" ht="12" customHeight="1">
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
       <c r="M13" s="14"/>
     </row>
     <row r="14" spans="1:13" ht="12" customHeight="1">
@@ -3556,20 +3565,20 @@
       <c r="M14" s="14"/>
     </row>
     <row r="15" spans="1:13" ht="23.25">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
     </row>
     <row r="16" spans="1:13"/>
     <row r="17" spans="6:9"/>
@@ -3577,12 +3586,12 @@
     <row r="19" spans="6:9"/>
     <row r="20" spans="6:9"/>
     <row r="21" spans="6:9">
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
     </row>
     <row r="22" spans="6:9"/>
     <row r="23" spans="6:9"/>
@@ -7593,8 +7602,8 @@
   <dimension ref="A2:K420"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
+      <pane ySplit="3" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -7615,7 +7624,7 @@
   <sheetData>
     <row r="2" spans="1:11" ht="18" customHeight="1">
       <c r="B2" s="29" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -7633,7 +7642,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>37</v>
@@ -7645,10 +7654,10 @@
         <v>36</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K3" s="26" t="s">
         <v>31</v>
@@ -7657,160 +7666,160 @@
     <row r="4" spans="1:11" ht="38.25">
       <c r="A4" s="30"/>
       <c r="B4" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>45</v>
       </c>
       <c r="G4" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="21" t="s">
         <v>54</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>55</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
       <c r="K4" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="25.5">
       <c r="A5" s="30"/>
       <c r="B5" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="21" t="s">
         <v>46</v>
       </c>
       <c r="G5" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="21" t="s">
         <v>50</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>51</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
       <c r="K5" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="25.5">
       <c r="A6" s="30"/>
       <c r="B6" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>305</v>
+        <v>233</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>306</v>
+        <v>234</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>307</v>
+        <v>235</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
       <c r="K6" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="18" customFormat="1" ht="51">
       <c r="A7" s="30"/>
       <c r="B7" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>44</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="21" t="s">
         <v>47</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
       <c r="K7" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="18" customFormat="1" ht="25.5">
       <c r="A8" s="30"/>
       <c r="B8" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="G8" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="23" t="s">
-        <v>49</v>
-      </c>
       <c r="H8" s="21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
       <c r="K8" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="18" customFormat="1" ht="51">
       <c r="A9" s="30"/>
       <c r="B9" s="20"/>
       <c r="C9" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>304</v>
+        <v>232</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>62</v>
+        <v>296</v>
       </c>
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
@@ -7819,158 +7828,158 @@
     <row r="10" spans="1:11" s="18" customFormat="1" ht="38.25">
       <c r="A10" s="30"/>
       <c r="B10" s="22" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>59</v>
+        <v>297</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="21" t="s">
         <v>45</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>65</v>
+        <v>298</v>
       </c>
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
       <c r="K10" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="18" customFormat="1" ht="63.75">
       <c r="A11" s="30"/>
       <c r="B11" s="22" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23" t="s">
         <v>47</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
       <c r="K11" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="18" customFormat="1" ht="38.25">
       <c r="A12" s="30"/>
       <c r="B12" s="22" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23" t="s">
-        <v>48</v>
+        <v>295</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="18" customFormat="1" ht="38.25">
       <c r="A13" s="30"/>
       <c r="B13" s="22" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
       <c r="K13" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="18" customFormat="1" ht="76.5">
       <c r="A14" s="30"/>
       <c r="B14" s="22" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>72</v>
+        <v>300</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>73</v>
+        <v>301</v>
       </c>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
       <c r="K14" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="18" customFormat="1" ht="38.25">
       <c r="A15" s="30"/>
       <c r="B15" s="22" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23" t="s">
-        <v>108</v>
+        <v>302</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
@@ -7978,77 +7987,77 @@
     </row>
     <row r="16" spans="1:11" s="18" customFormat="1" ht="89.25">
       <c r="B16" s="22" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>87</v>
+        <v>303</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>94</v>
+        <v>304</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>92</v>
+        <v>305</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>96</v>
+        <v>307</v>
       </c>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
       <c r="K16" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="2:11" s="18" customFormat="1" ht="76.5">
       <c r="B17" s="22" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>91</v>
+        <v>308</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23" t="s">
-        <v>95</v>
+        <v>309</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>96</v>
+        <v>307</v>
       </c>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
       <c r="K17" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B18" s="22" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>120</v>
+        <v>311</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>114</v>
+        <v>313</v>
       </c>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
@@ -8056,128 +8065,128 @@
     </row>
     <row r="19" spans="2:11" s="18" customFormat="1" ht="76.5">
       <c r="B19" s="22" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23" t="s">
         <v>47</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
       <c r="K19" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:11" s="18" customFormat="1" ht="51">
       <c r="B20" s="22" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23" t="s">
-        <v>48</v>
+        <v>295</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I20" s="23"/>
       <c r="K20" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:11" s="18" customFormat="1" ht="51">
       <c r="B21" s="22" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
       <c r="K21" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:11" s="18" customFormat="1" ht="89.25">
       <c r="B22" s="22" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="23" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>73</v>
+        <v>301</v>
       </c>
       <c r="I22" s="23"/>
       <c r="J22" s="23"/>
       <c r="K22" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B23" s="22" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
@@ -8185,23 +8194,23 @@
     </row>
     <row r="24" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B24" s="22" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>121</v>
+        <v>316</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="23" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
@@ -8209,25 +8218,25 @@
     </row>
     <row r="25" spans="2:11" s="18" customFormat="1" ht="51">
       <c r="B25" s="22" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>136</v>
+        <v>317</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
@@ -8235,25 +8244,25 @@
     </row>
     <row r="26" spans="2:11" s="18" customFormat="1" ht="51">
       <c r="B26" s="22" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>135</v>
+        <v>318</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>149</v>
+        <v>319</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>148</v>
+        <v>320</v>
       </c>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
@@ -8261,25 +8270,25 @@
     </row>
     <row r="27" spans="2:11" s="18" customFormat="1" ht="51">
       <c r="B27" s="22" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>137</v>
+        <v>321</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>152</v>
+        <v>322</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
@@ -8287,23 +8296,23 @@
     </row>
     <row r="28" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B28" s="22" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>44</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="23" t="s">
-        <v>141</v>
+        <v>323</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
@@ -8311,23 +8320,23 @@
     </row>
     <row r="29" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B29" s="22" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>161</v>
+        <v>324</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="23" t="s">
-        <v>170</v>
+        <v>325</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
@@ -8335,25 +8344,25 @@
     </row>
     <row r="30" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B30" s="22" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
@@ -8361,25 +8370,25 @@
     </row>
     <row r="31" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B31" s="22" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
@@ -8387,25 +8396,25 @@
     </row>
     <row r="32" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B32" s="22" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>160</v>
+        <v>326</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="I32" s="24"/>
       <c r="J32" s="24"/>
@@ -8413,25 +8422,25 @@
     </row>
     <row r="33" spans="2:11" s="18" customFormat="1" ht="63.75">
       <c r="B33" s="22" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>184</v>
+        <v>327</v>
       </c>
       <c r="I33" s="24"/>
       <c r="J33" s="24"/>
@@ -8439,25 +8448,25 @@
     </row>
     <row r="34" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B34" s="22" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>180</v>
+        <v>328</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>185</v>
+        <v>329</v>
       </c>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
@@ -8465,23 +8474,23 @@
     </row>
     <row r="35" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B35" s="22" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>178</v>
+        <v>330</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="E35" s="23"/>
       <c r="F35" s="23" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>186</v>
+        <v>331</v>
       </c>
       <c r="I35" s="24"/>
       <c r="J35" s="24"/>
@@ -8489,25 +8498,25 @@
     </row>
     <row r="36" spans="2:11" s="18" customFormat="1" ht="51">
       <c r="B36" s="22" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>196</v>
+        <v>332</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>200</v>
+        <v>333</v>
       </c>
       <c r="I36" s="24"/>
       <c r="J36" s="24"/>
@@ -8515,25 +8524,25 @@
     </row>
     <row r="37" spans="2:11" s="18" customFormat="1" ht="51">
       <c r="B37" s="22" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>196</v>
+        <v>334</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="I37" s="24"/>
       <c r="J37" s="24"/>
@@ -8541,25 +8550,25 @@
     </row>
     <row r="38" spans="2:11" s="18" customFormat="1" ht="51">
       <c r="B38" s="22" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>196</v>
+        <v>332</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
@@ -8567,23 +8576,23 @@
     </row>
     <row r="39" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B39" s="22" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>192</v>
+        <v>335</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="E39" s="23"/>
       <c r="F39" s="23" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>203</v>
+        <v>336</v>
       </c>
       <c r="I39" s="24"/>
       <c r="J39" s="24"/>
@@ -8591,23 +8600,23 @@
     </row>
     <row r="40" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B40" s="22" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="E40" s="23"/>
       <c r="F40" s="23" t="s">
-        <v>208</v>
+        <v>337</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>210</v>
+        <v>338</v>
       </c>
       <c r="I40" s="24"/>
       <c r="J40" s="24"/>
@@ -8615,25 +8624,25 @@
     </row>
     <row r="41" spans="2:11" s="18" customFormat="1" ht="51">
       <c r="B41" s="22" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>212</v>
+        <v>339</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>213</v>
+        <v>340</v>
       </c>
       <c r="I41" s="24"/>
       <c r="J41" s="24"/>
@@ -8641,25 +8650,25 @@
     </row>
     <row r="42" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B42" s="22" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
@@ -8667,25 +8676,25 @@
     </row>
     <row r="43" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B43" s="22" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>220</v>
+        <v>342</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H43" s="23" t="s">
-        <v>221</v>
+        <v>343</v>
       </c>
       <c r="I43" s="24"/>
       <c r="J43" s="24"/>
@@ -8693,23 +8702,23 @@
     </row>
     <row r="44" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B44" s="22" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="E44" s="23"/>
       <c r="F44" s="23" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>232</v>
+        <v>344</v>
       </c>
       <c r="I44" s="24"/>
       <c r="J44" s="24"/>
@@ -8717,23 +8726,23 @@
     </row>
     <row r="45" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B45" s="22" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="23" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>234</v>
+        <v>345</v>
       </c>
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
@@ -8741,25 +8750,25 @@
     </row>
     <row r="46" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B46" s="22" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>235</v>
+        <v>346</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>221</v>
+        <v>343</v>
       </c>
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
@@ -8767,23 +8776,23 @@
     </row>
     <row r="47" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B47" s="22" t="s">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>241</v>
+        <v>347</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="23" t="s">
-        <v>243</v>
+        <v>348</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>245</v>
+        <v>349</v>
       </c>
       <c r="I47" s="24"/>
       <c r="J47" s="24"/>
@@ -8791,23 +8800,23 @@
     </row>
     <row r="48" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B48" s="22" t="s">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>242</v>
+        <v>350</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="23" t="s">
-        <v>246</v>
+        <v>351</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>247</v>
+        <v>352</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="I48" s="24"/>
       <c r="J48" s="24"/>
@@ -8815,23 +8824,23 @@
     </row>
     <row r="49" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B49" s="22" t="s">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="G49" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G49" s="23" t="s">
-        <v>49</v>
-      </c>
       <c r="H49" s="21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I49" s="24"/>
       <c r="J49" s="24"/>
@@ -8839,23 +8848,23 @@
     </row>
     <row r="50" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B50" s="22" t="s">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="21" t="s">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
@@ -8863,25 +8872,25 @@
     </row>
     <row r="51" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B51" s="22" t="s">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>319</v>
+        <v>247</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>257</v>
+        <v>204</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>323</v>
+        <v>251</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="I51" s="24"/>
       <c r="J51" s="24"/>
@@ -8889,25 +8898,25 @@
     </row>
     <row r="52" spans="2:11" s="18" customFormat="1" ht="76.5">
       <c r="B52" s="22" t="s">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>321</v>
+        <v>249</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>258</v>
+        <v>205</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>326</v>
+        <v>252</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>327</v>
+        <v>253</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>329</v>
+        <v>254</v>
       </c>
       <c r="I52" s="24"/>
       <c r="J52" s="24"/>
@@ -8915,77 +8924,77 @@
     </row>
     <row r="53" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B53" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="F53" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="C53" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="D53" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="E53" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>331</v>
-      </c>
       <c r="G53" s="23" t="s">
-        <v>332</v>
+        <v>257</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="I53" s="24"/>
       <c r="J53" s="24"/>
       <c r="K53" s="24"/>
     </row>
-    <row r="54" spans="2:11" s="40" customFormat="1" ht="51">
+    <row r="54" spans="2:11" s="32" customFormat="1" ht="51">
       <c r="B54" s="20" t="s">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>322</v>
+        <v>250</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>260</v>
+        <v>207</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>334</v>
+        <v>259</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="G54" s="21" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
+        <v>358</v>
+      </c>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
     </row>
     <row r="55" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B55" s="22" t="s">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>261</v>
+        <v>208</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>220</v>
+        <v>342</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H55" s="23" t="s">
-        <v>221</v>
+        <v>343</v>
       </c>
       <c r="I55" s="24"/>
       <c r="J55" s="24"/>
@@ -8993,23 +9002,23 @@
     </row>
     <row r="56" spans="2:11" s="18" customFormat="1" ht="140.25">
       <c r="B56" s="22" t="s">
-        <v>262</v>
+        <v>209</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>266</v>
+        <v>359</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>263</v>
+        <v>210</v>
       </c>
       <c r="E56" s="23"/>
       <c r="F56" s="23" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="G56" s="28" t="s">
-        <v>293</v>
+        <v>360</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="I56" s="24"/>
       <c r="J56" s="24"/>
@@ -9017,23 +9026,23 @@
     </row>
     <row r="57" spans="2:11" s="18" customFormat="1" ht="140.25">
       <c r="B57" s="22" t="s">
-        <v>262</v>
+        <v>209</v>
       </c>
       <c r="C57" s="23" t="s">
         <v>44</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>264</v>
+        <v>211</v>
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="23" t="s">
         <v>47</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>294</v>
+        <v>361</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I57" s="24"/>
       <c r="J57" s="24"/>
@@ -9041,23 +9050,23 @@
     </row>
     <row r="58" spans="2:11" s="18" customFormat="1" ht="127.5">
       <c r="B58" s="22" t="s">
-        <v>262</v>
+        <v>209</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>265</v>
+        <v>212</v>
       </c>
       <c r="E58" s="23"/>
       <c r="F58" s="23" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="G58" s="28" t="s">
-        <v>270</v>
+        <v>362</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>271</v>
+        <v>363</v>
       </c>
       <c r="I58" s="24"/>
       <c r="J58" s="24"/>
@@ -9065,25 +9074,25 @@
     </row>
     <row r="59" spans="2:11" s="18" customFormat="1" ht="140.25">
       <c r="B59" s="22" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>277</v>
+        <v>364</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>285</v>
+        <v>224</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>286</v>
+        <v>225</v>
       </c>
       <c r="G59" s="28" t="s">
-        <v>288</v>
+        <v>365</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>287</v>
+        <v>366</v>
       </c>
       <c r="I59" s="24"/>
       <c r="J59" s="24"/>
@@ -9091,23 +9100,23 @@
     </row>
     <row r="60" spans="2:11" s="18" customFormat="1" ht="140.25">
       <c r="B60" s="22" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
       <c r="C60" s="23" t="s">
         <v>44</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="21" t="s">
         <v>47</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>294</v>
+        <v>361</v>
       </c>
       <c r="H60" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I60" s="24"/>
       <c r="J60" s="24"/>
@@ -9115,23 +9124,23 @@
     </row>
     <row r="61" spans="2:11" s="18" customFormat="1" ht="127.5">
       <c r="B61" s="22" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="23" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="G61" s="28" t="s">
-        <v>270</v>
+        <v>362</v>
       </c>
       <c r="H61" s="23" t="s">
-        <v>271</v>
+        <v>363</v>
       </c>
       <c r="I61" s="24"/>
       <c r="J61" s="24"/>
@@ -9139,25 +9148,25 @@
     </row>
     <row r="62" spans="2:11" s="18" customFormat="1" ht="51">
       <c r="B62" s="22" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>281</v>
+        <v>367</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>296</v>
+        <v>226</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>298</v>
+        <v>368</v>
       </c>
       <c r="G62" s="23" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H62" s="23" t="s">
-        <v>297</v>
+        <v>227</v>
       </c>
       <c r="I62" s="24"/>
       <c r="J62" s="24"/>
@@ -9165,25 +9174,25 @@
     </row>
     <row r="63" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B63" s="22" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>279</v>
+        <v>369</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>282</v>
+        <v>221</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>301</v>
+        <v>230</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>302</v>
+        <v>231</v>
       </c>
       <c r="G63" s="23" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H63" s="23" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="I63" s="24"/>
       <c r="J63" s="24"/>
@@ -9191,23 +9200,23 @@
     </row>
     <row r="64" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B64" s="22" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>278</v>
+        <v>371</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>283</v>
+        <v>222</v>
       </c>
       <c r="E64" s="23"/>
       <c r="F64" s="23" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>299</v>
+        <v>228</v>
       </c>
       <c r="I64" s="24"/>
       <c r="J64" s="24"/>
@@ -9215,23 +9224,23 @@
     </row>
     <row r="65" spans="2:11" s="18" customFormat="1" ht="38.25">
       <c r="B65" s="22" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>280</v>
+        <v>372</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>284</v>
+        <v>223</v>
       </c>
       <c r="E65" s="23"/>
       <c r="F65" s="23" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>300</v>
+        <v>229</v>
       </c>
       <c r="I65" s="24"/>
       <c r="J65" s="24"/>
@@ -9239,23 +9248,23 @@
     </row>
     <row r="66" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B66" s="22" t="s">
-        <v>308</v>
+        <v>236</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>337</v>
+        <v>260</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>309</v>
+        <v>237</v>
       </c>
       <c r="E66" s="23"/>
       <c r="F66" s="23" t="s">
-        <v>347</v>
+        <v>269</v>
       </c>
       <c r="G66" s="23" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H66" s="23" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="I66" s="24"/>
       <c r="J66" s="24"/>
@@ -9263,23 +9272,23 @@
     </row>
     <row r="67" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B67" s="22" t="s">
-        <v>308</v>
+        <v>236</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>338</v>
+        <v>261</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>310</v>
+        <v>238</v>
       </c>
       <c r="E67" s="23"/>
       <c r="F67" s="23" t="s">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="G67" s="23" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H67" s="23" t="s">
-        <v>350</v>
+        <v>271</v>
       </c>
       <c r="I67" s="24"/>
       <c r="J67" s="24"/>
@@ -9287,25 +9296,25 @@
     </row>
     <row r="68" spans="2:11" s="18" customFormat="1" ht="25.5">
       <c r="B68" s="22" t="s">
-        <v>308</v>
+        <v>236</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>339</v>
+        <v>262</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>311</v>
+        <v>239</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>351</v>
+        <v>272</v>
       </c>
       <c r="F68" s="23" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="G68" s="23" t="s">
-        <v>353</v>
+        <v>273</v>
       </c>
       <c r="H68" s="23" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="I68" s="24"/>
       <c r="J68" s="24"/>
@@ -9313,67 +9322,75 @@
     </row>
     <row r="69" spans="2:11" s="18" customFormat="1" ht="63.75">
       <c r="B69" s="22" t="s">
-        <v>308</v>
+        <v>236</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>340</v>
+        <v>263</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>312</v>
+        <v>240</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>356</v>
+        <v>274</v>
       </c>
       <c r="G69" s="23" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H69" s="23" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="I69" s="23"/>
       <c r="J69" s="23"/>
       <c r="K69" s="23"/>
     </row>
-    <row r="70" spans="2:11" s="18" customFormat="1">
-      <c r="B70" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="C70" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="D70" s="38" t="s">
-        <v>313</v>
-      </c>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
+    <row r="70" spans="2:11" s="18" customFormat="1" ht="38.25">
+      <c r="B70" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="G70" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="H70" s="21" t="s">
+        <v>379</v>
+      </c>
       <c r="I70" s="23"/>
       <c r="J70" s="23"/>
       <c r="K70" s="23"/>
     </row>
     <row r="71" spans="2:11" s="18" customFormat="1">
       <c r="B71" s="22" t="s">
-        <v>314</v>
+        <v>242</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>341</v>
+        <v>264</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>315</v>
+        <v>243</v>
       </c>
       <c r="E71" s="23"/>
       <c r="F71" s="23" t="s">
-        <v>358</v>
+        <v>275</v>
       </c>
       <c r="G71" s="23" t="s">
-        <v>359</v>
+        <v>276</v>
       </c>
       <c r="H71" s="23" t="s">
-        <v>358</v>
+        <v>275</v>
       </c>
       <c r="I71" s="23"/>
       <c r="J71" s="23"/>
@@ -9381,25 +9398,25 @@
     </row>
     <row r="72" spans="2:11" s="18" customFormat="1" ht="89.25">
       <c r="B72" s="22" t="s">
-        <v>314</v>
+        <v>242</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>342</v>
+        <v>265</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>316</v>
+        <v>244</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>94</v>
+        <v>304</v>
       </c>
       <c r="F72" s="23" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="G72" s="23" t="s">
-        <v>363</v>
+        <v>281</v>
       </c>
       <c r="H72" s="23" t="s">
-        <v>362</v>
+        <v>282</v>
       </c>
       <c r="I72" s="23"/>
       <c r="J72" s="23"/>
@@ -9407,23 +9424,23 @@
     </row>
     <row r="73" spans="2:11" s="18" customFormat="1" ht="89.25">
       <c r="B73" s="22" t="s">
-        <v>314</v>
+        <v>242</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>343</v>
+        <v>283</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>317</v>
+        <v>245</v>
       </c>
       <c r="E73" s="23"/>
       <c r="F73" s="23" t="s">
-        <v>361</v>
+        <v>284</v>
       </c>
       <c r="G73" s="23" t="s">
-        <v>364</v>
+        <v>285</v>
       </c>
       <c r="H73" s="23" t="s">
-        <v>362</v>
+        <v>282</v>
       </c>
       <c r="I73" s="23"/>
       <c r="J73" s="23"/>
@@ -9431,23 +9448,23 @@
     </row>
     <row r="74" spans="2:11" s="18" customFormat="1" ht="76.5">
       <c r="B74" s="22" t="s">
-        <v>314</v>
+        <v>242</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>344</v>
+        <v>266</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="E74" s="23"/>
       <c r="F74" s="23" t="s">
-        <v>365</v>
+        <v>286</v>
       </c>
       <c r="G74" s="23" t="s">
-        <v>366</v>
+        <v>287</v>
       </c>
       <c r="H74" s="23" t="s">
-        <v>368</v>
+        <v>288</v>
       </c>
       <c r="I74" s="23"/>
       <c r="J74" s="23"/>
@@ -9455,23 +9472,23 @@
     </row>
     <row r="75" spans="2:11" s="18" customFormat="1" ht="63.75">
       <c r="B75" s="22" t="s">
-        <v>314</v>
+        <v>242</v>
       </c>
       <c r="C75" s="23" t="s">
         <v>44</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>345</v>
+        <v>267</v>
       </c>
       <c r="E75" s="23"/>
       <c r="F75" s="23" t="s">
         <v>47</v>
       </c>
       <c r="G75" s="23" t="s">
-        <v>369</v>
+        <v>289</v>
       </c>
       <c r="H75" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I75" s="23"/>
       <c r="J75" s="23"/>
@@ -9479,40 +9496,50 @@
     </row>
     <row r="76" spans="2:11" s="18" customFormat="1" ht="63.75">
       <c r="B76" s="22" t="s">
-        <v>314</v>
+        <v>242</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>346</v>
+        <v>268</v>
       </c>
       <c r="E76" s="23"/>
       <c r="F76" s="23" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="G76" s="23" t="s">
-        <v>371</v>
+        <v>290</v>
       </c>
       <c r="H76" s="23" t="s">
-        <v>372</v>
+        <v>291</v>
       </c>
       <c r="I76" s="23"/>
       <c r="J76" s="23"/>
       <c r="K76" s="23"/>
     </row>
-    <row r="77" spans="2:11" s="18" customFormat="1">
-      <c r="B77" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="C77" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="D77" s="38"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="37"/>
+    <row r="77" spans="2:11" s="18" customFormat="1" ht="38.25">
+      <c r="B77" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="G77" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="H77" s="21" t="s">
+        <v>293</v>
+      </c>
       <c r="I77" s="23"/>
       <c r="J77" s="23"/>
       <c r="K77" s="23"/>
@@ -10724,26 +10751,26 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>250</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>252</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Casos de Prueba GSIAM.xlsx
+++ b/doc/Casos de Prueba GSIAM.xlsx
@@ -21,13 +21,14 @@
     <definedName name="ObjetivoProyecto">'Escala Impacto'!$B$4:$B$8</definedName>
     <definedName name="ObjetivosProyecto">'Escala Impacto'!$B$3:$B$7</definedName>
     <definedName name="ocurrencia">#REF!</definedName>
+    <definedName name="Resultado">'cuentas de e-mail'!$B$10:$B$11</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="399">
   <si>
     <t>Alcance</t>
   </si>
@@ -2731,6 +2732,61 @@
   </si>
   <si>
     <t>Se publica con datos correctos. La foto la debe sacar de la galería de imágenes del teléfono.</t>
+  </si>
+  <si>
+    <t>El sistema no esta validando esto, solo valida el formato del mail. No se controla si los campos van vacios</t>
+  </si>
+  <si>
+    <t>No se esta controlando los tamaños de ambos campos.</t>
+  </si>
+  <si>
+    <t>El mail no esta llegando</t>
+  </si>
+  <si>
+    <t>No se esta controlando los tamaños de los campos.</t>
+  </si>
+  <si>
+    <t>Listas</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>No se controla si los campos van vacios</t>
+  </si>
+  <si>
+    <t>El avatar por defecto se ve mal.. Hay que cambiarlo por otro.</t>
+  </si>
+  <si>
+    <t>La confirmacion no sale</t>
+  </si>
+  <si>
+    <t>Cuando elijo que quiero cerrar mi cuenta vuelve a salir el mismo popup, no me deja seleccionar la opcion si.</t>
+  </si>
+  <si>
+    <t>se podria actualizar las solicitudes….</t>
+  </si>
+  <si>
+    <t>Cambiar los botones aceptar y cancelar a si o no</t>
+  </si>
+  <si>
+    <t>actualizar la lista de amigos en al momento de confirmarla… ver que pasa si tengo al amigo en al lista de busqueda del CU 5</t>
+  </si>
+  <si>
+    <t>mismo error q los anteriores</t>
+  </si>
+  <si>
+    <t>Falta probar bien el tema de las distancias.. Si es q estan correctas.</t>
+  </si>
+  <si>
+    <t>no funciona esta validacion</t>
+  </si>
+  <si>
+    <t>Ordenar amigos por orden alfabetico..
+Si no se selecciona un amigo no manda mensaje ,,,</t>
   </si>
 </sst>
 </file>
@@ -2821,7 +2877,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2855,6 +2911,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2995,7 +3057,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3038,18 +3100,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3062,12 +3112,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3078,15 +3122,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3103,6 +3138,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3524,31 +3583,31 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="36">
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
       <c r="M12" s="14"/>
     </row>
     <row r="13" spans="1:13" ht="12" customHeight="1">
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
       <c r="M13" s="14"/>
     </row>
     <row r="14" spans="1:13" ht="12" customHeight="1">
@@ -3565,20 +3624,20 @@
       <c r="M14" s="14"/>
     </row>
     <row r="15" spans="1:13" ht="23.25">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
     </row>
     <row r="16" spans="1:13"/>
     <row r="17" spans="6:9"/>
@@ -3586,12 +3645,12 @@
     <row r="19" spans="6:9"/>
     <row r="20" spans="6:9"/>
     <row r="21" spans="6:9">
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="6:9"/>
     <row r="23" spans="6:9"/>
@@ -7601,2996 +7660,3446 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A2:K420"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H69" sqref="H69"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52:H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="9" style="16" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="37.42578125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="16" customWidth="1"/>
-    <col min="11" max="11" width="27.42578125" style="16" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="16"/>
+    <col min="1" max="1" width="1.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="9" style="29" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" style="29" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" style="29" customWidth="1"/>
+    <col min="8" max="8" width="34.5703125" style="29" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" style="29" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" style="29" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="29"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-    </row>
-    <row r="3" spans="1:11" s="17" customFormat="1" ht="37.5">
-      <c r="B3" s="26" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" s="31" customFormat="1" ht="37.5">
+      <c r="B3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="38.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="20" t="s">
+    <row r="4" spans="1:11" ht="63.75">
+      <c r="A4" s="32"/>
+      <c r="B4" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21" t="s">
+      <c r="I4" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="25.5">
-      <c r="A5" s="30"/>
-      <c r="B5" s="20" t="s">
+    <row r="5" spans="1:11" ht="38.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="21" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21" t="s">
+      <c r="I5" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="25.5">
-      <c r="A6" s="30"/>
-      <c r="B6" s="20" t="s">
+    <row r="6" spans="1:11" ht="38.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="21" t="s">
+      <c r="I6" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="18" customFormat="1" ht="51">
-      <c r="A7" s="30"/>
-      <c r="B7" s="20" t="s">
+    <row r="7" spans="1:11" s="33" customFormat="1" ht="63.75">
+      <c r="A7" s="32"/>
+      <c r="B7" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="22"/>
+      <c r="F7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="21" t="s">
+      <c r="I7" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="K7" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="18" customFormat="1" ht="25.5">
-      <c r="A8" s="30"/>
-      <c r="B8" s="20" t="s">
+    <row r="8" spans="1:11" s="33" customFormat="1" ht="25.5">
+      <c r="A8" s="32"/>
+      <c r="B8" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="21" t="s">
+      <c r="E8" s="22"/>
+      <c r="F8" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="21" t="s">
+      <c r="I8" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="18" customFormat="1" ht="51">
-      <c r="A9" s="30"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="23" t="s">
+    <row r="9" spans="1:11" s="33" customFormat="1" ht="51">
+      <c r="A9" s="32"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="21" t="s">
+      <c r="E9" s="22"/>
+      <c r="F9" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="21"/>
-    </row>
-    <row r="10" spans="1:11" s="18" customFormat="1" ht="38.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="22" t="s">
+      <c r="I9" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="38.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="21" t="s">
+      <c r="E10" s="22"/>
+      <c r="F10" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="18" customFormat="1" ht="63.75">
-      <c r="A11" s="30"/>
-      <c r="B11" s="22" t="s">
+      <c r="I10" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="1:11" s="33" customFormat="1" ht="63.75">
+      <c r="A11" s="32"/>
+      <c r="B11" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23" t="s">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="18" customFormat="1" ht="38.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="22" t="s">
+      <c r="I11" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="1:11" s="33" customFormat="1" ht="38.25">
+      <c r="A12" s="32"/>
+      <c r="B12" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="18" customFormat="1" ht="38.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="22" t="s">
+      <c r="I12" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="38.25">
+      <c r="A13" s="32"/>
+      <c r="B13" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="18" customFormat="1" ht="76.5">
-      <c r="A14" s="30"/>
-      <c r="B14" s="22" t="s">
+      <c r="I13" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="1:11" s="33" customFormat="1" ht="76.5">
+      <c r="A14" s="32"/>
+      <c r="B14" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23" t="s">
+      <c r="E14" s="19"/>
+      <c r="F14" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="18" customFormat="1" ht="38.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="22" t="s">
+      <c r="I14" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="1:11" s="33" customFormat="1" ht="38.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23" t="s">
+      <c r="E15" s="19"/>
+      <c r="F15" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:11" s="18" customFormat="1" ht="89.25">
-      <c r="B16" s="22" t="s">
+      <c r="I15" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="1:11" s="33" customFormat="1" ht="89.25">
+      <c r="B16" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" s="18" customFormat="1" ht="76.5">
-      <c r="B17" s="22" t="s">
+      <c r="I16" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="2:11" s="33" customFormat="1" ht="76.5">
+      <c r="B17" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23" t="s">
+      <c r="E17" s="19"/>
+      <c r="F17" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" s="18" customFormat="1" ht="38.25">
-      <c r="B18" s="22" t="s">
+      <c r="I17" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="17"/>
+    </row>
+    <row r="18" spans="2:11" s="33" customFormat="1" ht="38.25">
+      <c r="B18" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23" t="s">
+      <c r="E18" s="19"/>
+      <c r="F18" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="2:11" s="18" customFormat="1" ht="76.5">
-      <c r="B19" s="22" t="s">
+      <c r="I18" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="K18" s="17"/>
+    </row>
+    <row r="19" spans="2:11" s="33" customFormat="1" ht="76.5">
+      <c r="B19" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23" t="s">
+      <c r="E19" s="19"/>
+      <c r="F19" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" s="18" customFormat="1" ht="51">
-      <c r="B20" s="22" t="s">
+      <c r="I19" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="2:11" s="33" customFormat="1" ht="51">
+      <c r="B20" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23" t="s">
+      <c r="E20" s="19"/>
+      <c r="F20" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="K20" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" s="18" customFormat="1" ht="51">
-      <c r="B21" s="22" t="s">
+      <c r="I20" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="J20" s="19"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="2:11" s="33" customFormat="1" ht="51">
+      <c r="B21" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23" t="s">
+      <c r="E21" s="19"/>
+      <c r="F21" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" s="18" customFormat="1" ht="89.25">
-      <c r="B22" s="22" t="s">
+      <c r="I21" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="J21" s="19"/>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="2:11" s="33" customFormat="1" ht="89.25">
+      <c r="B22" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="23" t="s">
+      <c r="E22" s="22"/>
+      <c r="F22" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" s="18" customFormat="1" ht="38.25">
-      <c r="B23" s="22" t="s">
+      <c r="I22" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="2:11" s="33" customFormat="1" ht="63.75">
+      <c r="B23" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="21"/>
-    </row>
-    <row r="24" spans="2:11" s="18" customFormat="1" ht="38.25">
-      <c r="B24" s="22" t="s">
+      <c r="I23" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="2:11" s="33" customFormat="1" ht="38.25">
+      <c r="B24" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="23" t="s">
+      <c r="E24" s="22"/>
+      <c r="F24" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="21"/>
-    </row>
-    <row r="25" spans="2:11" s="18" customFormat="1" ht="51">
-      <c r="B25" s="22" t="s">
+      <c r="I24" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="2:11" s="33" customFormat="1" ht="76.5">
+      <c r="B25" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="21"/>
-    </row>
-    <row r="26" spans="2:11" s="18" customFormat="1" ht="51">
-      <c r="B26" s="22" t="s">
+      <c r="I25" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="J25" s="19"/>
+      <c r="K25" s="17"/>
+    </row>
+    <row r="26" spans="2:11" s="33" customFormat="1" ht="63.75">
+      <c r="B26" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H26" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="21"/>
-    </row>
-    <row r="27" spans="2:11" s="18" customFormat="1" ht="51">
-      <c r="B27" s="22" t="s">
+      <c r="I26" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="J26" s="19"/>
+      <c r="K26" s="17"/>
+    </row>
+    <row r="27" spans="2:11" s="33" customFormat="1" ht="63.75">
+      <c r="B27" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="21"/>
-    </row>
-    <row r="28" spans="2:11" s="18" customFormat="1" ht="25.5">
-      <c r="B28" s="22" t="s">
+      <c r="I27" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="J27" s="19"/>
+      <c r="K27" s="17"/>
+    </row>
+    <row r="28" spans="2:11" s="33" customFormat="1" ht="25.5">
+      <c r="B28" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23" t="s">
+      <c r="E28" s="19"/>
+      <c r="F28" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="21"/>
-    </row>
-    <row r="29" spans="2:11" s="18" customFormat="1" ht="38.25">
-      <c r="B29" s="22" t="s">
+      <c r="I28" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="J28" s="19"/>
+      <c r="K28" s="17"/>
+    </row>
+    <row r="29" spans="2:11" s="33" customFormat="1" ht="38.25">
+      <c r="B29" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23" t="s">
+      <c r="E29" s="19"/>
+      <c r="F29" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="21"/>
-    </row>
-    <row r="30" spans="2:11" s="18" customFormat="1" ht="25.5">
-      <c r="B30" s="22" t="s">
+      <c r="I29" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="J29" s="19"/>
+      <c r="K29" s="17"/>
+    </row>
+    <row r="30" spans="2:11" s="33" customFormat="1" ht="38.25">
+      <c r="B30" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-    </row>
-    <row r="31" spans="2:11" s="18" customFormat="1" ht="25.5">
-      <c r="B31" s="22" t="s">
+      <c r="I30" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="J30" s="19"/>
+      <c r="K30" s="17"/>
+    </row>
+    <row r="31" spans="2:11" s="33" customFormat="1" ht="38.25">
+      <c r="B31" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="H31" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-    </row>
-    <row r="32" spans="2:11" s="18" customFormat="1" ht="38.25">
-      <c r="B32" s="22" t="s">
+      <c r="I31" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="J31" s="19"/>
+      <c r="K31" s="17"/>
+    </row>
+    <row r="32" spans="2:11" s="33" customFormat="1" ht="51">
+      <c r="B32" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="G32" s="23" t="s">
+      <c r="G32" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="H32" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-    </row>
-    <row r="33" spans="2:11" s="18" customFormat="1" ht="63.75">
-      <c r="B33" s="22" t="s">
+      <c r="I32" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="J32" s="19"/>
+      <c r="K32" s="17"/>
+    </row>
+    <row r="33" spans="2:11" s="33" customFormat="1" ht="89.25">
+      <c r="B33" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="F33" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="G33" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H33" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-    </row>
-    <row r="34" spans="2:11" s="18" customFormat="1" ht="25.5">
-      <c r="B34" s="22" t="s">
+      <c r="I33" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="J33" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="K33" s="17"/>
+    </row>
+    <row r="34" spans="2:11" s="33" customFormat="1" ht="38.25">
+      <c r="B34" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="G34" s="23" t="s">
+      <c r="G34" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="H34" s="23" t="s">
+      <c r="H34" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-    </row>
-    <row r="35" spans="2:11" s="18" customFormat="1" ht="38.25">
-      <c r="B35" s="22" t="s">
+      <c r="I34" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="J34" s="19"/>
+      <c r="K34" s="17"/>
+    </row>
+    <row r="35" spans="2:11" s="33" customFormat="1" ht="38.25">
+      <c r="B35" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23" t="s">
+      <c r="E35" s="19"/>
+      <c r="F35" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H35" s="23" t="s">
+      <c r="H35" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-    </row>
-    <row r="36" spans="2:11" s="18" customFormat="1" ht="51">
-      <c r="B36" s="22" t="s">
+      <c r="I35" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="K35" s="17"/>
+    </row>
+    <row r="36" spans="2:11" s="33" customFormat="1" ht="63.75">
+      <c r="B36" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="G36" s="23" t="s">
+      <c r="G36" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H36" s="23" t="s">
+      <c r="H36" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-    </row>
-    <row r="37" spans="2:11" s="18" customFormat="1" ht="51">
-      <c r="B37" s="22" t="s">
+      <c r="I36" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="J36" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="K36" s="17"/>
+    </row>
+    <row r="37" spans="2:11" s="33" customFormat="1" ht="63.75">
+      <c r="B37" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="G37" s="23" t="s">
+      <c r="G37" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H37" s="23" t="s">
+      <c r="H37" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-    </row>
-    <row r="38" spans="2:11" s="18" customFormat="1" ht="51">
-      <c r="B38" s="22" t="s">
+      <c r="I37" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="J37" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="K37" s="17"/>
+    </row>
+    <row r="38" spans="2:11" s="33" customFormat="1" ht="63.75">
+      <c r="B38" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="G38" s="23" t="s">
+      <c r="G38" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H38" s="23" t="s">
+      <c r="H38" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-    </row>
-    <row r="39" spans="2:11" s="18" customFormat="1" ht="38.25">
-      <c r="B39" s="22" t="s">
+      <c r="I38" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="J38" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="K38" s="17"/>
+    </row>
+    <row r="39" spans="2:11" s="33" customFormat="1" ht="38.25">
+      <c r="B39" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23" t="s">
+      <c r="E39" s="19"/>
+      <c r="F39" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="G39" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H39" s="23" t="s">
+      <c r="H39" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-    </row>
-    <row r="40" spans="2:11" s="18" customFormat="1" ht="38.25">
-      <c r="B40" s="22" t="s">
+      <c r="I39" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="J39" s="19"/>
+      <c r="K39" s="17"/>
+    </row>
+    <row r="40" spans="2:11" s="33" customFormat="1" ht="38.25">
+      <c r="B40" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23" t="s">
+      <c r="E40" s="19"/>
+      <c r="F40" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="G40" s="23" t="s">
+      <c r="G40" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H40" s="23" t="s">
+      <c r="H40" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-    </row>
-    <row r="41" spans="2:11" s="18" customFormat="1" ht="51">
-      <c r="B41" s="22" t="s">
+      <c r="I40" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="J40" s="19"/>
+      <c r="K40" s="17"/>
+    </row>
+    <row r="41" spans="2:11" s="33" customFormat="1" ht="51">
+      <c r="B41" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="F41" s="23" t="s">
+      <c r="F41" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="G41" s="23" t="s">
+      <c r="G41" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H41" s="23" t="s">
+      <c r="H41" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-    </row>
-    <row r="42" spans="2:11" s="18" customFormat="1" ht="38.25">
-      <c r="B42" s="22" t="s">
+      <c r="I41" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="J41" s="19"/>
+      <c r="K41" s="17"/>
+    </row>
+    <row r="42" spans="2:11" s="33" customFormat="1" ht="63.75">
+      <c r="B42" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="F42" s="23" t="s">
+      <c r="F42" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H42" s="23" t="s">
+      <c r="H42" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-    </row>
-    <row r="43" spans="2:11" s="18" customFormat="1" ht="25.5">
-      <c r="B43" s="22" t="s">
+      <c r="I42" s="16"/>
+      <c r="J42" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="K42" s="17"/>
+    </row>
+    <row r="43" spans="2:11" s="33" customFormat="1" ht="25.5">
+      <c r="B43" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D43" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="F43" s="23" t="s">
+      <c r="F43" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="G43" s="23" t="s">
+      <c r="G43" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H43" s="23" t="s">
+      <c r="H43" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-    </row>
-    <row r="44" spans="2:11" s="18" customFormat="1" ht="25.5">
-      <c r="B44" s="22" t="s">
+      <c r="I43" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="J43" s="19"/>
+      <c r="K43" s="17"/>
+    </row>
+    <row r="44" spans="2:11" s="33" customFormat="1" ht="25.5">
+      <c r="B44" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23" t="s">
+      <c r="E44" s="19"/>
+      <c r="F44" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="G44" s="25" t="s">
+      <c r="G44" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H44" s="23" t="s">
+      <c r="H44" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-    </row>
-    <row r="45" spans="2:11" s="18" customFormat="1" ht="25.5">
-      <c r="B45" s="22" t="s">
+      <c r="I44" s="16"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="17"/>
+    </row>
+    <row r="45" spans="2:11" s="33" customFormat="1" ht="25.5">
+      <c r="B45" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23" t="s">
+      <c r="E45" s="19"/>
+      <c r="F45" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="G45" s="23" t="s">
+      <c r="G45" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H45" s="23" t="s">
+      <c r="H45" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-    </row>
-    <row r="46" spans="2:11" s="18" customFormat="1" ht="25.5">
-      <c r="B46" s="22" t="s">
+      <c r="I45" s="16"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="17"/>
+    </row>
+    <row r="46" spans="2:11" s="33" customFormat="1" ht="25.5">
+      <c r="B46" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="E46" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="F46" s="23" t="s">
+      <c r="F46" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="G46" s="23" t="s">
+      <c r="G46" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H46" s="23" t="s">
+      <c r="H46" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-    </row>
-    <row r="47" spans="2:11" s="18" customFormat="1" ht="25.5">
-      <c r="B47" s="22" t="s">
+      <c r="I46" s="16"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="17"/>
+    </row>
+    <row r="47" spans="2:11" s="33" customFormat="1" ht="25.5">
+      <c r="B47" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23" t="s">
+      <c r="E47" s="19"/>
+      <c r="F47" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="G47" s="23" t="s">
+      <c r="G47" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="H47" s="23" t="s">
+      <c r="H47" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-    </row>
-    <row r="48" spans="2:11" s="18" customFormat="1" ht="25.5">
-      <c r="B48" s="22" t="s">
+      <c r="I47" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="J47" s="19"/>
+      <c r="K47" s="17"/>
+    </row>
+    <row r="48" spans="2:11" s="33" customFormat="1" ht="63.75">
+      <c r="B48" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="D48" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23" t="s">
+      <c r="E48" s="19"/>
+      <c r="F48" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="G48" s="23" t="s">
+      <c r="G48" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="H48" s="23" t="s">
+      <c r="H48" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-    </row>
-    <row r="49" spans="2:11" s="18" customFormat="1" ht="25.5">
-      <c r="B49" s="22" t="s">
+      <c r="I48" s="16"/>
+      <c r="J48" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="K48" s="17"/>
+    </row>
+    <row r="49" spans="2:11" s="33" customFormat="1" ht="25.5">
+      <c r="B49" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D49" s="28" t="s">
+      <c r="D49" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="E49" s="23"/>
-      <c r="F49" s="21" t="s">
+      <c r="E49" s="19"/>
+      <c r="F49" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="G49" s="23" t="s">
+      <c r="G49" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H49" s="21" t="s">
+      <c r="H49" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-    </row>
-    <row r="50" spans="2:11" s="18" customFormat="1" ht="25.5">
-      <c r="B50" s="22" t="s">
+      <c r="I49" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="J49" s="19"/>
+      <c r="K49" s="17"/>
+    </row>
+    <row r="50" spans="2:11" s="33" customFormat="1" ht="25.5">
+      <c r="B50" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="D50" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="E50" s="23"/>
-      <c r="F50" s="21" t="s">
+      <c r="E50" s="19"/>
+      <c r="F50" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="G50" s="23" t="s">
+      <c r="G50" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="H50" s="21" t="s">
+      <c r="H50" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-    </row>
-    <row r="51" spans="2:11" s="18" customFormat="1" ht="38.25">
-      <c r="B51" s="22" t="s">
+      <c r="I50" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="J50" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="K50" s="17"/>
+    </row>
+    <row r="51" spans="2:11" s="33" customFormat="1" ht="51">
+      <c r="B51" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="E51" s="23" t="s">
+      <c r="E51" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="F51" s="23" t="s">
+      <c r="F51" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="G51" s="23" t="s">
+      <c r="G51" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H51" s="21" t="s">
+      <c r="H51" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-    </row>
-    <row r="52" spans="2:11" s="18" customFormat="1" ht="76.5">
-      <c r="B52" s="22" t="s">
+      <c r="I51" s="16"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="17"/>
+    </row>
+    <row r="52" spans="2:11" s="33" customFormat="1" ht="76.5">
+      <c r="B52" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="D52" s="28" t="s">
+      <c r="D52" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="E52" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="F52" s="23" t="s">
+      <c r="F52" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="G52" s="23" t="s">
+      <c r="G52" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="H52" s="21" t="s">
+      <c r="H52" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-    </row>
-    <row r="53" spans="2:11" s="18" customFormat="1" ht="38.25">
-      <c r="B53" s="22" t="s">
+      <c r="I52" s="16"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="17"/>
+    </row>
+    <row r="53" spans="2:11" s="33" customFormat="1" ht="51">
+      <c r="B53" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E53" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="F53" s="23" t="s">
+      <c r="F53" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="G53" s="23" t="s">
+      <c r="G53" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="H53" s="21" t="s">
+      <c r="H53" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-    </row>
-    <row r="54" spans="2:11" s="32" customFormat="1" ht="51">
-      <c r="B54" s="20" t="s">
+      <c r="I53" s="16"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="17"/>
+    </row>
+    <row r="54" spans="2:11" s="34" customFormat="1" ht="51">
+      <c r="B54" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="E54" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="F54" s="21" t="s">
+      <c r="F54" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="G54" s="21" t="s">
+      <c r="G54" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H54" s="21" t="s">
+      <c r="H54" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
-    </row>
-    <row r="55" spans="2:11" s="18" customFormat="1" ht="25.5">
-      <c r="B55" s="22" t="s">
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="17"/>
+    </row>
+    <row r="55" spans="2:11" s="33" customFormat="1" ht="25.5">
+      <c r="B55" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="E55" s="23" t="s">
+      <c r="E55" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="F55" s="23" t="s">
+      <c r="F55" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="G55" s="23" t="s">
+      <c r="G55" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H55" s="23" t="s">
+      <c r="H55" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
-    </row>
-    <row r="56" spans="2:11" s="18" customFormat="1" ht="140.25">
-      <c r="B56" s="22" t="s">
+      <c r="I55" s="16"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="17"/>
+    </row>
+    <row r="56" spans="2:11" s="33" customFormat="1" ht="140.25">
+      <c r="B56" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23" t="s">
+      <c r="E56" s="19"/>
+      <c r="F56" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="G56" s="28" t="s">
+      <c r="G56" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="H56" s="21" t="s">
+      <c r="H56" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-    </row>
-    <row r="57" spans="2:11" s="18" customFormat="1" ht="140.25">
-      <c r="B57" s="22" t="s">
+      <c r="I56" s="16"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="17"/>
+    </row>
+    <row r="57" spans="2:11" s="33" customFormat="1" ht="140.25">
+      <c r="B57" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="28" t="s">
+      <c r="D57" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23" t="s">
+      <c r="E57" s="19"/>
+      <c r="F57" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G57" s="23" t="s">
+      <c r="G57" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="H57" s="23" t="s">
+      <c r="H57" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-    </row>
-    <row r="58" spans="2:11" s="18" customFormat="1" ht="127.5">
-      <c r="B58" s="22" t="s">
+      <c r="I57" s="16"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="17"/>
+    </row>
+    <row r="58" spans="2:11" s="33" customFormat="1" ht="127.5">
+      <c r="B58" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="28" t="s">
+      <c r="D58" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23" t="s">
+      <c r="E58" s="19"/>
+      <c r="F58" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="G58" s="28" t="s">
+      <c r="G58" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="H58" s="23" t="s">
+      <c r="H58" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
-    </row>
-    <row r="59" spans="2:11" s="18" customFormat="1" ht="140.25">
-      <c r="B59" s="22" t="s">
+      <c r="I58" s="16"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="17"/>
+    </row>
+    <row r="59" spans="2:11" s="33" customFormat="1" ht="140.25">
+      <c r="B59" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="E59" s="23" t="s">
+      <c r="E59" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="G59" s="28" t="s">
+      <c r="G59" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="H59" s="23" t="s">
+      <c r="H59" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
-    </row>
-    <row r="60" spans="2:11" s="18" customFormat="1" ht="140.25">
-      <c r="B60" s="22" t="s">
+      <c r="I59" s="16"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="17"/>
+    </row>
+    <row r="60" spans="2:11" s="33" customFormat="1" ht="140.25">
+      <c r="B60" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C60" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="E60" s="23"/>
-      <c r="F60" s="21" t="s">
+      <c r="E60" s="19"/>
+      <c r="F60" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G60" s="23" t="s">
+      <c r="G60" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="H60" s="21" t="s">
+      <c r="H60" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-    </row>
-    <row r="61" spans="2:11" s="18" customFormat="1" ht="127.5">
-      <c r="B61" s="22" t="s">
+      <c r="I60" s="16"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="17"/>
+    </row>
+    <row r="61" spans="2:11" s="33" customFormat="1" ht="127.5">
+      <c r="B61" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D61" s="28" t="s">
+      <c r="D61" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23" t="s">
+      <c r="E61" s="19"/>
+      <c r="F61" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="G61" s="28" t="s">
+      <c r="G61" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="H61" s="23" t="s">
+      <c r="H61" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
-    </row>
-    <row r="62" spans="2:11" s="18" customFormat="1" ht="51">
-      <c r="B62" s="22" t="s">
+      <c r="I61" s="16"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="17"/>
+    </row>
+    <row r="62" spans="2:11" s="33" customFormat="1" ht="63.75">
+      <c r="B62" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="C62" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="D62" s="28" t="s">
+      <c r="D62" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="E62" s="23" t="s">
+      <c r="E62" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="F62" s="23" t="s">
+      <c r="F62" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="G62" s="23" t="s">
+      <c r="G62" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H62" s="23" t="s">
+      <c r="H62" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-    </row>
-    <row r="63" spans="2:11" s="18" customFormat="1" ht="38.25">
-      <c r="B63" s="22" t="s">
+      <c r="I62" s="16"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="17"/>
+    </row>
+    <row r="63" spans="2:11" s="33" customFormat="1" ht="51">
+      <c r="B63" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C63" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="D63" s="28" t="s">
+      <c r="D63" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="E63" s="23" t="s">
+      <c r="E63" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="F63" s="23" t="s">
+      <c r="F63" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="G63" s="23" t="s">
+      <c r="G63" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H63" s="23" t="s">
+      <c r="H63" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
-    </row>
-    <row r="64" spans="2:11" s="18" customFormat="1" ht="38.25">
-      <c r="B64" s="22" t="s">
+      <c r="I63" s="16"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="17"/>
+    </row>
+    <row r="64" spans="2:11" s="33" customFormat="1" ht="38.25">
+      <c r="B64" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="C64" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="D64" s="28" t="s">
+      <c r="D64" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23" t="s">
+      <c r="E64" s="19"/>
+      <c r="F64" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="G64" s="25" t="s">
+      <c r="G64" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H64" s="23" t="s">
+      <c r="H64" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="24"/>
-    </row>
-    <row r="65" spans="2:11" s="18" customFormat="1" ht="38.25">
-      <c r="B65" s="22" t="s">
+      <c r="I64" s="16"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="17"/>
+    </row>
+    <row r="65" spans="2:11" s="33" customFormat="1" ht="38.25">
+      <c r="B65" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C65" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23" t="s">
+      <c r="E65" s="19"/>
+      <c r="F65" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="G65" s="25" t="s">
+      <c r="G65" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H65" s="23" t="s">
+      <c r="H65" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
-    </row>
-    <row r="66" spans="2:11" s="18" customFormat="1" ht="25.5">
-      <c r="B66" s="22" t="s">
+      <c r="I65" s="16"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="17"/>
+    </row>
+    <row r="66" spans="2:11" s="33" customFormat="1" ht="25.5">
+      <c r="B66" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C66" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="D66" s="28" t="s">
+      <c r="D66" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23" t="s">
+      <c r="E66" s="19"/>
+      <c r="F66" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="G66" s="23" t="s">
+      <c r="G66" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H66" s="23" t="s">
+      <c r="H66" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
-    </row>
-    <row r="67" spans="2:11" s="18" customFormat="1" ht="25.5">
-      <c r="B67" s="22" t="s">
+      <c r="I66" s="16"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="17"/>
+    </row>
+    <row r="67" spans="2:11" s="33" customFormat="1" ht="25.5">
+      <c r="B67" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="C67" s="23" t="s">
+      <c r="C67" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23" t="s">
+      <c r="E67" s="19"/>
+      <c r="F67" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="G67" s="23" t="s">
+      <c r="G67" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H67" s="23" t="s">
+      <c r="H67" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="24"/>
-    </row>
-    <row r="68" spans="2:11" s="18" customFormat="1" ht="25.5">
-      <c r="B68" s="22" t="s">
+      <c r="I67" s="16"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="17"/>
+    </row>
+    <row r="68" spans="2:11" s="33" customFormat="1" ht="38.25">
+      <c r="B68" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="C68" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="D68" s="28" t="s">
+      <c r="D68" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="E68" s="23" t="s">
+      <c r="E68" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="F68" s="23" t="s">
+      <c r="F68" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="G68" s="23" t="s">
+      <c r="G68" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="H68" s="23" t="s">
+      <c r="H68" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
-    </row>
-    <row r="69" spans="2:11" s="18" customFormat="1" ht="63.75">
-      <c r="B69" s="22" t="s">
+      <c r="I68" s="16"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="17"/>
+    </row>
+    <row r="69" spans="2:11" s="33" customFormat="1" ht="63.75">
+      <c r="B69" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="C69" s="23" t="s">
+      <c r="C69" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="D69" s="28" t="s">
+      <c r="D69" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="E69" s="23" t="s">
+      <c r="E69" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="F69" s="23" t="s">
+      <c r="F69" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="G69" s="23" t="s">
+      <c r="G69" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H69" s="23" t="s">
+      <c r="H69" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="23"/>
-    </row>
-    <row r="70" spans="2:11" s="18" customFormat="1" ht="38.25">
-      <c r="B70" s="20" t="s">
+      <c r="I69" s="16"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="17"/>
+    </row>
+    <row r="70" spans="2:11" s="33" customFormat="1" ht="51">
+      <c r="B70" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D70" s="27" t="s">
+      <c r="D70" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E70" s="21" t="s">
+      <c r="E70" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="F70" s="21" t="s">
+      <c r="F70" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="G70" s="21" t="s">
+      <c r="G70" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H70" s="21" t="s">
+      <c r="H70" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="I70" s="23"/>
-      <c r="J70" s="23"/>
-      <c r="K70" s="23"/>
-    </row>
-    <row r="71" spans="2:11" s="18" customFormat="1">
-      <c r="B71" s="22" t="s">
+      <c r="I70" s="16"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="17"/>
+    </row>
+    <row r="71" spans="2:11" s="33" customFormat="1" ht="25.5">
+      <c r="B71" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="C71" s="23" t="s">
+      <c r="C71" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="D71" s="28" t="s">
+      <c r="D71" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23" t="s">
+      <c r="E71" s="19"/>
+      <c r="F71" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="G71" s="23" t="s">
+      <c r="G71" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="H71" s="23" t="s">
+      <c r="H71" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
-      <c r="K71" s="23"/>
-    </row>
-    <row r="72" spans="2:11" s="18" customFormat="1" ht="89.25">
-      <c r="B72" s="22" t="s">
+      <c r="I71" s="16"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="17"/>
+    </row>
+    <row r="72" spans="2:11" s="33" customFormat="1" ht="89.25">
+      <c r="B72" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="C72" s="23" t="s">
+      <c r="C72" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="D72" s="28" t="s">
+      <c r="D72" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="E72" s="23" t="s">
+      <c r="E72" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="F72" s="23" t="s">
+      <c r="F72" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="G72" s="23" t="s">
+      <c r="G72" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="H72" s="23" t="s">
+      <c r="H72" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="I72" s="23"/>
-      <c r="J72" s="23"/>
-      <c r="K72" s="23"/>
-    </row>
-    <row r="73" spans="2:11" s="18" customFormat="1" ht="89.25">
-      <c r="B73" s="22" t="s">
+      <c r="I72" s="16"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="17"/>
+    </row>
+    <row r="73" spans="2:11" s="33" customFormat="1" ht="89.25">
+      <c r="B73" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C73" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="D73" s="28" t="s">
+      <c r="D73" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23" t="s">
+      <c r="E73" s="19"/>
+      <c r="F73" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="G73" s="23" t="s">
+      <c r="G73" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="H73" s="23" t="s">
+      <c r="H73" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="I73" s="23"/>
-      <c r="J73" s="23"/>
-      <c r="K73" s="23"/>
-    </row>
-    <row r="74" spans="2:11" s="18" customFormat="1" ht="76.5">
-      <c r="B74" s="22" t="s">
+      <c r="I73" s="16"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="17"/>
+    </row>
+    <row r="74" spans="2:11" s="33" customFormat="1" ht="89.25">
+      <c r="B74" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="D74" s="28" t="s">
+      <c r="D74" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23" t="s">
+      <c r="E74" s="19"/>
+      <c r="F74" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="G74" s="23" t="s">
+      <c r="G74" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="H74" s="23" t="s">
+      <c r="H74" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="I74" s="23"/>
-      <c r="J74" s="23"/>
-      <c r="K74" s="23"/>
-    </row>
-    <row r="75" spans="2:11" s="18" customFormat="1" ht="63.75">
-      <c r="B75" s="22" t="s">
+      <c r="I74" s="16"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="17"/>
+    </row>
+    <row r="75" spans="2:11" s="33" customFormat="1" ht="63.75">
+      <c r="B75" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="C75" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D75" s="28" t="s">
+      <c r="D75" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23" t="s">
+      <c r="E75" s="19"/>
+      <c r="F75" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G75" s="23" t="s">
+      <c r="G75" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="H75" s="23" t="s">
+      <c r="H75" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23"/>
-      <c r="K75" s="23"/>
-    </row>
-    <row r="76" spans="2:11" s="18" customFormat="1" ht="63.75">
-      <c r="B76" s="22" t="s">
+      <c r="I75" s="16"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="17"/>
+    </row>
+    <row r="76" spans="2:11" s="33" customFormat="1" ht="63.75">
+      <c r="B76" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C76" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D76" s="28" t="s">
+      <c r="D76" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23" t="s">
+      <c r="E76" s="19"/>
+      <c r="F76" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="G76" s="23" t="s">
+      <c r="G76" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="H76" s="23" t="s">
+      <c r="H76" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="I76" s="23"/>
-      <c r="J76" s="23"/>
-      <c r="K76" s="23"/>
-    </row>
-    <row r="77" spans="2:11" s="18" customFormat="1" ht="38.25">
-      <c r="B77" s="20" t="s">
+      <c r="I76" s="16"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="17"/>
+    </row>
+    <row r="77" spans="2:11" s="33" customFormat="1" ht="51">
+      <c r="B77" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D77" s="28" t="s">
+      <c r="D77" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="E77" s="21" t="s">
+      <c r="E77" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="F77" s="21" t="s">
+      <c r="F77" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="G77" s="21" t="s">
+      <c r="G77" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H77" s="21" t="s">
+      <c r="H77" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="I77" s="23"/>
-      <c r="J77" s="23"/>
-      <c r="K77" s="23"/>
-    </row>
-    <row r="78" spans="2:11" s="18" customFormat="1">
-      <c r="B78" s="19"/>
-    </row>
-    <row r="79" spans="2:11" s="18" customFormat="1">
-      <c r="B79" s="19"/>
-    </row>
-    <row r="80" spans="2:11" s="18" customFormat="1">
-      <c r="B80" s="19"/>
-    </row>
-    <row r="81" spans="2:2" s="18" customFormat="1">
-      <c r="B81" s="19"/>
-    </row>
-    <row r="82" spans="2:2" s="18" customFormat="1">
-      <c r="B82" s="19"/>
-    </row>
-    <row r="83" spans="2:2" s="18" customFormat="1">
-      <c r="B83" s="19"/>
-    </row>
-    <row r="84" spans="2:2" s="18" customFormat="1">
-      <c r="B84" s="19"/>
-    </row>
-    <row r="85" spans="2:2" s="18" customFormat="1">
-      <c r="B85" s="19"/>
-    </row>
-    <row r="86" spans="2:2" s="18" customFormat="1">
-      <c r="B86" s="19"/>
-    </row>
-    <row r="87" spans="2:2" s="18" customFormat="1">
-      <c r="B87" s="19"/>
-    </row>
-    <row r="88" spans="2:2" s="18" customFormat="1">
-      <c r="B88" s="19"/>
-    </row>
-    <row r="89" spans="2:2" s="18" customFormat="1">
-      <c r="B89" s="19"/>
-    </row>
-    <row r="90" spans="2:2" s="18" customFormat="1">
-      <c r="B90" s="19"/>
-    </row>
-    <row r="91" spans="2:2" s="18" customFormat="1">
-      <c r="B91" s="19"/>
-    </row>
-    <row r="92" spans="2:2" s="18" customFormat="1">
-      <c r="B92" s="19"/>
-    </row>
-    <row r="93" spans="2:2" s="18" customFormat="1">
-      <c r="B93" s="19"/>
-    </row>
-    <row r="94" spans="2:2" s="18" customFormat="1">
-      <c r="B94" s="19"/>
-    </row>
-    <row r="95" spans="2:2" s="18" customFormat="1">
-      <c r="B95" s="19"/>
-    </row>
-    <row r="96" spans="2:2" s="18" customFormat="1">
-      <c r="B96" s="19"/>
-    </row>
-    <row r="97" spans="2:2" s="18" customFormat="1">
-      <c r="B97" s="19"/>
-    </row>
-    <row r="98" spans="2:2" s="18" customFormat="1">
-      <c r="B98" s="19"/>
-    </row>
-    <row r="99" spans="2:2" s="18" customFormat="1">
-      <c r="B99" s="19"/>
-    </row>
-    <row r="100" spans="2:2" s="18" customFormat="1">
-      <c r="B100" s="19"/>
-    </row>
-    <row r="101" spans="2:2" s="18" customFormat="1">
-      <c r="B101" s="19"/>
-    </row>
-    <row r="102" spans="2:2" s="18" customFormat="1">
-      <c r="B102" s="19"/>
-    </row>
-    <row r="103" spans="2:2" s="18" customFormat="1">
-      <c r="B103" s="19"/>
-    </row>
-    <row r="104" spans="2:2" s="18" customFormat="1">
-      <c r="B104" s="19"/>
-    </row>
-    <row r="105" spans="2:2" s="18" customFormat="1">
-      <c r="B105" s="19"/>
-    </row>
-    <row r="106" spans="2:2" s="18" customFormat="1">
-      <c r="B106" s="19"/>
-    </row>
-    <row r="107" spans="2:2" s="18" customFormat="1">
-      <c r="B107" s="19"/>
-    </row>
-    <row r="108" spans="2:2" s="18" customFormat="1">
-      <c r="B108" s="19"/>
-    </row>
-    <row r="109" spans="2:2" s="18" customFormat="1">
-      <c r="B109" s="19"/>
-    </row>
-    <row r="110" spans="2:2" s="18" customFormat="1">
-      <c r="B110" s="19"/>
-    </row>
-    <row r="111" spans="2:2" s="18" customFormat="1">
-      <c r="B111" s="19"/>
-    </row>
-    <row r="112" spans="2:2" s="18" customFormat="1">
-      <c r="B112" s="19"/>
-    </row>
-    <row r="113" spans="2:2" s="18" customFormat="1">
-      <c r="B113" s="19"/>
-    </row>
-    <row r="114" spans="2:2" s="18" customFormat="1">
-      <c r="B114" s="19"/>
-    </row>
-    <row r="115" spans="2:2" s="18" customFormat="1">
-      <c r="B115" s="19"/>
-    </row>
-    <row r="116" spans="2:2" s="18" customFormat="1">
-      <c r="B116" s="19"/>
-    </row>
-    <row r="117" spans="2:2" s="18" customFormat="1">
-      <c r="B117" s="19"/>
-    </row>
-    <row r="118" spans="2:2" s="18" customFormat="1">
-      <c r="B118" s="19"/>
-    </row>
-    <row r="119" spans="2:2" s="18" customFormat="1">
-      <c r="B119" s="19"/>
-    </row>
-    <row r="120" spans="2:2" s="18" customFormat="1">
-      <c r="B120" s="19"/>
-    </row>
-    <row r="121" spans="2:2" s="18" customFormat="1">
-      <c r="B121" s="19"/>
-    </row>
-    <row r="122" spans="2:2" s="18" customFormat="1">
-      <c r="B122" s="19"/>
-    </row>
-    <row r="123" spans="2:2" s="18" customFormat="1">
-      <c r="B123" s="19"/>
-    </row>
-    <row r="124" spans="2:2" s="18" customFormat="1">
-      <c r="B124" s="19"/>
-    </row>
-    <row r="125" spans="2:2" s="18" customFormat="1">
-      <c r="B125" s="19"/>
-    </row>
-    <row r="126" spans="2:2" s="18" customFormat="1">
-      <c r="B126" s="19"/>
-    </row>
-    <row r="127" spans="2:2" s="18" customFormat="1">
-      <c r="B127" s="19"/>
-    </row>
-    <row r="128" spans="2:2" s="18" customFormat="1">
-      <c r="B128" s="19"/>
-    </row>
-    <row r="129" spans="2:2" s="18" customFormat="1">
-      <c r="B129" s="19"/>
-    </row>
-    <row r="130" spans="2:2" s="18" customFormat="1">
-      <c r="B130" s="19"/>
-    </row>
-    <row r="131" spans="2:2" s="18" customFormat="1">
-      <c r="B131" s="19"/>
-    </row>
-    <row r="132" spans="2:2" s="18" customFormat="1">
-      <c r="B132" s="19"/>
-    </row>
-    <row r="133" spans="2:2" s="18" customFormat="1">
-      <c r="B133" s="19"/>
-    </row>
-    <row r="134" spans="2:2" s="18" customFormat="1">
-      <c r="B134" s="19"/>
-    </row>
-    <row r="135" spans="2:2" s="18" customFormat="1">
-      <c r="B135" s="19"/>
-    </row>
-    <row r="136" spans="2:2" s="18" customFormat="1">
-      <c r="B136" s="19"/>
-    </row>
-    <row r="137" spans="2:2" s="18" customFormat="1">
-      <c r="B137" s="19"/>
-    </row>
-    <row r="138" spans="2:2" s="18" customFormat="1">
-      <c r="B138" s="19"/>
-    </row>
-    <row r="139" spans="2:2" s="18" customFormat="1">
-      <c r="B139" s="19"/>
-    </row>
-    <row r="140" spans="2:2" s="18" customFormat="1">
-      <c r="B140" s="19"/>
-    </row>
-    <row r="141" spans="2:2" s="18" customFormat="1">
-      <c r="B141" s="19"/>
-    </row>
-    <row r="142" spans="2:2" s="18" customFormat="1">
-      <c r="B142" s="19"/>
-    </row>
-    <row r="143" spans="2:2" s="18" customFormat="1">
-      <c r="B143" s="19"/>
-    </row>
-    <row r="144" spans="2:2" s="18" customFormat="1">
-      <c r="B144" s="19"/>
-    </row>
-    <row r="145" spans="2:2" s="18" customFormat="1">
-      <c r="B145" s="19"/>
-    </row>
-    <row r="146" spans="2:2" s="18" customFormat="1">
-      <c r="B146" s="19"/>
-    </row>
-    <row r="147" spans="2:2" s="18" customFormat="1">
-      <c r="B147" s="19"/>
-    </row>
-    <row r="148" spans="2:2" s="18" customFormat="1">
-      <c r="B148" s="19"/>
-    </row>
-    <row r="149" spans="2:2" s="18" customFormat="1">
-      <c r="B149" s="19"/>
-    </row>
-    <row r="150" spans="2:2" s="18" customFormat="1">
-      <c r="B150" s="19"/>
-    </row>
-    <row r="151" spans="2:2" s="18" customFormat="1">
-      <c r="B151" s="19"/>
-    </row>
-    <row r="152" spans="2:2" s="18" customFormat="1">
-      <c r="B152" s="19"/>
-    </row>
-    <row r="153" spans="2:2" s="18" customFormat="1">
-      <c r="B153" s="19"/>
-    </row>
-    <row r="154" spans="2:2" s="18" customFormat="1">
-      <c r="B154" s="19"/>
-    </row>
-    <row r="155" spans="2:2" s="18" customFormat="1">
-      <c r="B155" s="19"/>
-    </row>
-    <row r="156" spans="2:2" s="18" customFormat="1">
-      <c r="B156" s="19"/>
-    </row>
-    <row r="157" spans="2:2" s="18" customFormat="1">
-      <c r="B157" s="19"/>
-    </row>
-    <row r="158" spans="2:2" s="18" customFormat="1">
-      <c r="B158" s="19"/>
-    </row>
-    <row r="159" spans="2:2" s="18" customFormat="1">
-      <c r="B159" s="19"/>
-    </row>
-    <row r="160" spans="2:2" s="18" customFormat="1">
-      <c r="B160" s="19"/>
-    </row>
-    <row r="161" spans="2:2" s="18" customFormat="1">
-      <c r="B161" s="19"/>
-    </row>
-    <row r="162" spans="2:2" s="18" customFormat="1">
-      <c r="B162" s="19"/>
-    </row>
-    <row r="163" spans="2:2" s="18" customFormat="1">
-      <c r="B163" s="19"/>
-    </row>
-    <row r="164" spans="2:2" s="18" customFormat="1">
-      <c r="B164" s="19"/>
-    </row>
-    <row r="165" spans="2:2" s="18" customFormat="1">
-      <c r="B165" s="19"/>
-    </row>
-    <row r="166" spans="2:2" s="18" customFormat="1">
-      <c r="B166" s="19"/>
-    </row>
-    <row r="167" spans="2:2" s="18" customFormat="1">
-      <c r="B167" s="19"/>
-    </row>
-    <row r="168" spans="2:2" s="18" customFormat="1">
-      <c r="B168" s="19"/>
-    </row>
-    <row r="169" spans="2:2" s="18" customFormat="1">
-      <c r="B169" s="19"/>
-    </row>
-    <row r="170" spans="2:2" s="18" customFormat="1">
-      <c r="B170" s="19"/>
-    </row>
-    <row r="171" spans="2:2" s="18" customFormat="1">
-      <c r="B171" s="19"/>
-    </row>
-    <row r="172" spans="2:2" s="18" customFormat="1">
-      <c r="B172" s="19"/>
-    </row>
-    <row r="173" spans="2:2" s="18" customFormat="1">
-      <c r="B173" s="19"/>
-    </row>
-    <row r="174" spans="2:2" s="18" customFormat="1">
-      <c r="B174" s="19"/>
-    </row>
-    <row r="175" spans="2:2" s="18" customFormat="1">
-      <c r="B175" s="19"/>
-    </row>
-    <row r="176" spans="2:2" s="18" customFormat="1">
-      <c r="B176" s="19"/>
-    </row>
-    <row r="177" spans="2:2" s="18" customFormat="1">
-      <c r="B177" s="19"/>
-    </row>
-    <row r="178" spans="2:2" s="18" customFormat="1">
-      <c r="B178" s="19"/>
-    </row>
-    <row r="179" spans="2:2" s="18" customFormat="1">
-      <c r="B179" s="19"/>
-    </row>
-    <row r="180" spans="2:2" s="18" customFormat="1">
-      <c r="B180" s="19"/>
-    </row>
-    <row r="181" spans="2:2" s="18" customFormat="1">
-      <c r="B181" s="19"/>
-    </row>
-    <row r="182" spans="2:2" s="18" customFormat="1">
-      <c r="B182" s="19"/>
-    </row>
-    <row r="183" spans="2:2" s="18" customFormat="1">
-      <c r="B183" s="19"/>
-    </row>
-    <row r="184" spans="2:2" s="18" customFormat="1">
-      <c r="B184" s="19"/>
-    </row>
-    <row r="185" spans="2:2" s="18" customFormat="1">
-      <c r="B185" s="19"/>
-    </row>
-    <row r="186" spans="2:2" s="18" customFormat="1">
-      <c r="B186" s="19"/>
-    </row>
-    <row r="187" spans="2:2" s="18" customFormat="1">
-      <c r="B187" s="19"/>
-    </row>
-    <row r="188" spans="2:2" s="18" customFormat="1">
-      <c r="B188" s="19"/>
-    </row>
-    <row r="189" spans="2:2" s="18" customFormat="1">
-      <c r="B189" s="19"/>
-    </row>
-    <row r="190" spans="2:2" s="18" customFormat="1">
-      <c r="B190" s="19"/>
-    </row>
-    <row r="191" spans="2:2" s="18" customFormat="1">
-      <c r="B191" s="19"/>
-    </row>
-    <row r="192" spans="2:2" s="18" customFormat="1">
-      <c r="B192" s="19"/>
-    </row>
-    <row r="193" spans="2:2" s="18" customFormat="1">
-      <c r="B193" s="19"/>
-    </row>
-    <row r="194" spans="2:2" s="18" customFormat="1">
-      <c r="B194" s="19"/>
-    </row>
-    <row r="195" spans="2:2" s="18" customFormat="1">
-      <c r="B195" s="19"/>
-    </row>
-    <row r="196" spans="2:2" s="18" customFormat="1">
-      <c r="B196" s="19"/>
-    </row>
-    <row r="197" spans="2:2" s="18" customFormat="1">
-      <c r="B197" s="19"/>
-    </row>
-    <row r="198" spans="2:2" s="18" customFormat="1">
-      <c r="B198" s="19"/>
-    </row>
-    <row r="199" spans="2:2" s="18" customFormat="1">
-      <c r="B199" s="19"/>
-    </row>
-    <row r="200" spans="2:2" s="18" customFormat="1">
-      <c r="B200" s="19"/>
-    </row>
-    <row r="201" spans="2:2" s="18" customFormat="1">
-      <c r="B201" s="19"/>
-    </row>
-    <row r="202" spans="2:2" s="18" customFormat="1">
-      <c r="B202" s="19"/>
-    </row>
-    <row r="203" spans="2:2" s="18" customFormat="1">
-      <c r="B203" s="19"/>
-    </row>
-    <row r="204" spans="2:2" s="18" customFormat="1">
-      <c r="B204" s="19"/>
-    </row>
-    <row r="205" spans="2:2" s="18" customFormat="1">
-      <c r="B205" s="19"/>
-    </row>
-    <row r="206" spans="2:2" s="18" customFormat="1">
-      <c r="B206" s="19"/>
-    </row>
-    <row r="207" spans="2:2" s="18" customFormat="1">
-      <c r="B207" s="19"/>
-    </row>
-    <row r="208" spans="2:2" s="18" customFormat="1">
-      <c r="B208" s="19"/>
-    </row>
-    <row r="209" spans="2:2" s="18" customFormat="1">
-      <c r="B209" s="19"/>
-    </row>
-    <row r="210" spans="2:2" s="18" customFormat="1">
-      <c r="B210" s="19"/>
-    </row>
-    <row r="211" spans="2:2" s="18" customFormat="1">
-      <c r="B211" s="19"/>
-    </row>
-    <row r="212" spans="2:2" s="18" customFormat="1">
-      <c r="B212" s="19"/>
-    </row>
-    <row r="213" spans="2:2" s="18" customFormat="1">
-      <c r="B213" s="19"/>
-    </row>
-    <row r="214" spans="2:2" s="18" customFormat="1">
-      <c r="B214" s="19"/>
-    </row>
-    <row r="215" spans="2:2" s="18" customFormat="1">
-      <c r="B215" s="19"/>
-    </row>
-    <row r="216" spans="2:2" s="18" customFormat="1">
-      <c r="B216" s="19"/>
-    </row>
-    <row r="217" spans="2:2" s="18" customFormat="1">
-      <c r="B217" s="19"/>
-    </row>
-    <row r="218" spans="2:2" s="18" customFormat="1">
-      <c r="B218" s="19"/>
-    </row>
-    <row r="219" spans="2:2" s="18" customFormat="1">
-      <c r="B219" s="19"/>
-    </row>
-    <row r="220" spans="2:2" s="18" customFormat="1">
-      <c r="B220" s="19"/>
-    </row>
-    <row r="221" spans="2:2" s="18" customFormat="1">
-      <c r="B221" s="19"/>
-    </row>
-    <row r="222" spans="2:2" s="18" customFormat="1">
-      <c r="B222" s="19"/>
-    </row>
-    <row r="223" spans="2:2" s="18" customFormat="1">
-      <c r="B223" s="19"/>
-    </row>
-    <row r="224" spans="2:2" s="18" customFormat="1">
-      <c r="B224" s="19"/>
-    </row>
-    <row r="225" spans="2:2" s="18" customFormat="1">
-      <c r="B225" s="19"/>
-    </row>
-    <row r="226" spans="2:2" s="18" customFormat="1">
-      <c r="B226" s="19"/>
-    </row>
-    <row r="227" spans="2:2" s="18" customFormat="1">
-      <c r="B227" s="19"/>
-    </row>
-    <row r="228" spans="2:2" s="18" customFormat="1">
-      <c r="B228" s="19"/>
-    </row>
-    <row r="229" spans="2:2" s="18" customFormat="1">
-      <c r="B229" s="19"/>
-    </row>
-    <row r="230" spans="2:2" s="18" customFormat="1">
-      <c r="B230" s="19"/>
-    </row>
-    <row r="231" spans="2:2" s="18" customFormat="1">
-      <c r="B231" s="19"/>
-    </row>
-    <row r="232" spans="2:2" s="18" customFormat="1">
-      <c r="B232" s="19"/>
-    </row>
-    <row r="233" spans="2:2" s="18" customFormat="1">
-      <c r="B233" s="19"/>
-    </row>
-    <row r="234" spans="2:2" s="18" customFormat="1">
-      <c r="B234" s="19"/>
-    </row>
-    <row r="235" spans="2:2" s="18" customFormat="1">
-      <c r="B235" s="19"/>
-    </row>
-    <row r="236" spans="2:2" s="18" customFormat="1">
-      <c r="B236" s="19"/>
-    </row>
-    <row r="237" spans="2:2" s="18" customFormat="1">
-      <c r="B237" s="19"/>
-    </row>
-    <row r="238" spans="2:2" s="18" customFormat="1">
-      <c r="B238" s="19"/>
-    </row>
-    <row r="239" spans="2:2" s="18" customFormat="1">
-      <c r="B239" s="19"/>
-    </row>
-    <row r="240" spans="2:2" s="18" customFormat="1">
-      <c r="B240" s="19"/>
-    </row>
-    <row r="241" spans="2:2" s="18" customFormat="1">
-      <c r="B241" s="19"/>
-    </row>
-    <row r="242" spans="2:2" s="18" customFormat="1">
-      <c r="B242" s="19"/>
-    </row>
-    <row r="243" spans="2:2" s="18" customFormat="1">
-      <c r="B243" s="19"/>
-    </row>
-    <row r="244" spans="2:2" s="18" customFormat="1">
-      <c r="B244" s="19"/>
-    </row>
-    <row r="245" spans="2:2" s="18" customFormat="1">
-      <c r="B245" s="19"/>
-    </row>
-    <row r="246" spans="2:2" s="18" customFormat="1">
-      <c r="B246" s="19"/>
-    </row>
-    <row r="247" spans="2:2" s="18" customFormat="1">
-      <c r="B247" s="19"/>
-    </row>
-    <row r="248" spans="2:2" s="18" customFormat="1">
-      <c r="B248" s="19"/>
-    </row>
-    <row r="249" spans="2:2" s="18" customFormat="1">
-      <c r="B249" s="19"/>
-    </row>
-    <row r="250" spans="2:2" s="18" customFormat="1">
-      <c r="B250" s="19"/>
-    </row>
-    <row r="251" spans="2:2" s="18" customFormat="1">
-      <c r="B251" s="19"/>
-    </row>
-    <row r="252" spans="2:2" s="18" customFormat="1">
-      <c r="B252" s="19"/>
-    </row>
-    <row r="253" spans="2:2" s="18" customFormat="1">
-      <c r="B253" s="19"/>
-    </row>
-    <row r="254" spans="2:2" s="18" customFormat="1">
-      <c r="B254" s="19"/>
-    </row>
-    <row r="255" spans="2:2" s="18" customFormat="1">
-      <c r="B255" s="19"/>
-    </row>
-    <row r="256" spans="2:2" s="18" customFormat="1">
-      <c r="B256" s="19"/>
-    </row>
-    <row r="257" spans="2:2" s="18" customFormat="1">
-      <c r="B257" s="19"/>
-    </row>
-    <row r="258" spans="2:2" s="18" customFormat="1">
-      <c r="B258" s="19"/>
-    </row>
-    <row r="259" spans="2:2" s="18" customFormat="1">
-      <c r="B259" s="19"/>
-    </row>
-    <row r="260" spans="2:2" s="18" customFormat="1">
-      <c r="B260" s="19"/>
-    </row>
-    <row r="261" spans="2:2" s="18" customFormat="1">
-      <c r="B261" s="19"/>
-    </row>
-    <row r="262" spans="2:2" s="18" customFormat="1">
-      <c r="B262" s="19"/>
-    </row>
-    <row r="263" spans="2:2" s="18" customFormat="1">
-      <c r="B263" s="19"/>
-    </row>
-    <row r="264" spans="2:2" s="18" customFormat="1">
-      <c r="B264" s="19"/>
-    </row>
-    <row r="265" spans="2:2" s="18" customFormat="1">
-      <c r="B265" s="19"/>
-    </row>
-    <row r="266" spans="2:2" s="18" customFormat="1">
-      <c r="B266" s="19"/>
-    </row>
-    <row r="267" spans="2:2" s="18" customFormat="1">
-      <c r="B267" s="19"/>
-    </row>
-    <row r="268" spans="2:2" s="18" customFormat="1">
-      <c r="B268" s="19"/>
-    </row>
-    <row r="269" spans="2:2" s="18" customFormat="1">
-      <c r="B269" s="19"/>
-    </row>
-    <row r="270" spans="2:2" s="18" customFormat="1">
-      <c r="B270" s="19"/>
-    </row>
-    <row r="271" spans="2:2" s="18" customFormat="1">
-      <c r="B271" s="19"/>
-    </row>
-    <row r="272" spans="2:2" s="18" customFormat="1">
-      <c r="B272" s="19"/>
-    </row>
-    <row r="273" spans="2:2" s="18" customFormat="1">
-      <c r="B273" s="19"/>
-    </row>
-    <row r="274" spans="2:2" s="18" customFormat="1">
-      <c r="B274" s="19"/>
-    </row>
-    <row r="275" spans="2:2" s="18" customFormat="1">
-      <c r="B275" s="19"/>
-    </row>
-    <row r="276" spans="2:2" s="18" customFormat="1">
-      <c r="B276" s="19"/>
-    </row>
-    <row r="277" spans="2:2" s="18" customFormat="1">
-      <c r="B277" s="19"/>
-    </row>
-    <row r="278" spans="2:2" s="18" customFormat="1">
-      <c r="B278" s="19"/>
-    </row>
-    <row r="279" spans="2:2" s="18" customFormat="1">
-      <c r="B279" s="19"/>
-    </row>
-    <row r="280" spans="2:2" s="18" customFormat="1">
-      <c r="B280" s="19"/>
-    </row>
-    <row r="281" spans="2:2" s="18" customFormat="1">
-      <c r="B281" s="19"/>
-    </row>
-    <row r="282" spans="2:2" s="18" customFormat="1">
-      <c r="B282" s="19"/>
-    </row>
-    <row r="283" spans="2:2" s="18" customFormat="1">
-      <c r="B283" s="19"/>
-    </row>
-    <row r="284" spans="2:2" s="18" customFormat="1">
-      <c r="B284" s="19"/>
-    </row>
-    <row r="285" spans="2:2" s="18" customFormat="1">
-      <c r="B285" s="19"/>
-    </row>
-    <row r="286" spans="2:2" s="18" customFormat="1">
-      <c r="B286" s="19"/>
-    </row>
-    <row r="287" spans="2:2" s="18" customFormat="1">
-      <c r="B287" s="19"/>
-    </row>
-    <row r="288" spans="2:2" s="18" customFormat="1">
-      <c r="B288" s="19"/>
-    </row>
-    <row r="289" spans="2:2" s="18" customFormat="1">
-      <c r="B289" s="19"/>
-    </row>
-    <row r="290" spans="2:2" s="18" customFormat="1">
-      <c r="B290" s="19"/>
-    </row>
-    <row r="291" spans="2:2" s="18" customFormat="1">
-      <c r="B291" s="19"/>
-    </row>
-    <row r="292" spans="2:2" s="18" customFormat="1">
-      <c r="B292" s="19"/>
-    </row>
-    <row r="293" spans="2:2" s="18" customFormat="1">
-      <c r="B293" s="19"/>
-    </row>
-    <row r="294" spans="2:2" s="18" customFormat="1">
-      <c r="B294" s="19"/>
-    </row>
-    <row r="295" spans="2:2" s="18" customFormat="1">
-      <c r="B295" s="19"/>
-    </row>
-    <row r="296" spans="2:2" s="18" customFormat="1">
-      <c r="B296" s="19"/>
-    </row>
-    <row r="297" spans="2:2" s="18" customFormat="1">
-      <c r="B297" s="19"/>
-    </row>
-    <row r="298" spans="2:2" s="18" customFormat="1">
-      <c r="B298" s="19"/>
-    </row>
-    <row r="299" spans="2:2" s="18" customFormat="1">
-      <c r="B299" s="19"/>
-    </row>
-    <row r="300" spans="2:2" s="18" customFormat="1">
-      <c r="B300" s="19"/>
-    </row>
-    <row r="301" spans="2:2" s="18" customFormat="1">
-      <c r="B301" s="19"/>
-    </row>
-    <row r="302" spans="2:2" s="18" customFormat="1">
-      <c r="B302" s="19"/>
-    </row>
-    <row r="303" spans="2:2" s="18" customFormat="1">
-      <c r="B303" s="19"/>
-    </row>
-    <row r="304" spans="2:2" s="18" customFormat="1">
-      <c r="B304" s="19"/>
-    </row>
-    <row r="305" spans="2:2" s="18" customFormat="1">
-      <c r="B305" s="19"/>
-    </row>
-    <row r="306" spans="2:2" s="18" customFormat="1">
-      <c r="B306" s="19"/>
-    </row>
-    <row r="307" spans="2:2" s="18" customFormat="1">
-      <c r="B307" s="19"/>
-    </row>
-    <row r="308" spans="2:2" s="18" customFormat="1">
-      <c r="B308" s="19"/>
-    </row>
-    <row r="309" spans="2:2" s="18" customFormat="1">
-      <c r="B309" s="19"/>
-    </row>
-    <row r="310" spans="2:2" s="18" customFormat="1">
-      <c r="B310" s="19"/>
-    </row>
-    <row r="311" spans="2:2" s="18" customFormat="1">
-      <c r="B311" s="19"/>
-    </row>
-    <row r="312" spans="2:2" s="18" customFormat="1">
-      <c r="B312" s="19"/>
-    </row>
-    <row r="313" spans="2:2" s="18" customFormat="1">
-      <c r="B313" s="19"/>
-    </row>
-    <row r="314" spans="2:2" s="18" customFormat="1">
-      <c r="B314" s="19"/>
-    </row>
-    <row r="315" spans="2:2" s="18" customFormat="1">
-      <c r="B315" s="19"/>
-    </row>
-    <row r="316" spans="2:2" s="18" customFormat="1">
-      <c r="B316" s="19"/>
-    </row>
-    <row r="317" spans="2:2" s="18" customFormat="1">
-      <c r="B317" s="19"/>
-    </row>
-    <row r="318" spans="2:2" s="18" customFormat="1">
-      <c r="B318" s="19"/>
-    </row>
-    <row r="319" spans="2:2" s="18" customFormat="1">
-      <c r="B319" s="19"/>
-    </row>
-    <row r="320" spans="2:2" s="18" customFormat="1">
-      <c r="B320" s="19"/>
-    </row>
-    <row r="321" spans="2:2" s="18" customFormat="1">
-      <c r="B321" s="19"/>
-    </row>
-    <row r="322" spans="2:2" s="18" customFormat="1">
-      <c r="B322" s="19"/>
-    </row>
-    <row r="323" spans="2:2" s="18" customFormat="1">
-      <c r="B323" s="19"/>
-    </row>
-    <row r="324" spans="2:2" s="18" customFormat="1">
-      <c r="B324" s="19"/>
-    </row>
-    <row r="325" spans="2:2" s="18" customFormat="1">
-      <c r="B325" s="19"/>
-    </row>
-    <row r="326" spans="2:2" s="18" customFormat="1">
-      <c r="B326" s="19"/>
-    </row>
-    <row r="327" spans="2:2" s="18" customFormat="1">
-      <c r="B327" s="19"/>
-    </row>
-    <row r="328" spans="2:2" s="18" customFormat="1">
-      <c r="B328" s="19"/>
-    </row>
-    <row r="329" spans="2:2" s="18" customFormat="1">
-      <c r="B329" s="19"/>
-    </row>
-    <row r="330" spans="2:2" s="18" customFormat="1">
-      <c r="B330" s="19"/>
-    </row>
-    <row r="331" spans="2:2" s="18" customFormat="1">
-      <c r="B331" s="19"/>
-    </row>
-    <row r="332" spans="2:2" s="18" customFormat="1">
-      <c r="B332" s="19"/>
-    </row>
-    <row r="333" spans="2:2" s="18" customFormat="1">
-      <c r="B333" s="19"/>
-    </row>
-    <row r="334" spans="2:2" s="18" customFormat="1">
-      <c r="B334" s="19"/>
-    </row>
-    <row r="335" spans="2:2" s="18" customFormat="1">
-      <c r="B335" s="19"/>
-    </row>
-    <row r="336" spans="2:2" s="18" customFormat="1">
-      <c r="B336" s="19"/>
-    </row>
-    <row r="337" spans="2:2" s="18" customFormat="1">
-      <c r="B337" s="19"/>
-    </row>
-    <row r="338" spans="2:2" s="18" customFormat="1">
-      <c r="B338" s="19"/>
-    </row>
-    <row r="339" spans="2:2" s="18" customFormat="1">
-      <c r="B339" s="19"/>
-    </row>
-    <row r="340" spans="2:2" s="18" customFormat="1">
-      <c r="B340" s="19"/>
-    </row>
-    <row r="341" spans="2:2" s="18" customFormat="1">
-      <c r="B341" s="19"/>
-    </row>
-    <row r="342" spans="2:2" s="18" customFormat="1">
-      <c r="B342" s="19"/>
-    </row>
-    <row r="343" spans="2:2" s="18" customFormat="1">
-      <c r="B343" s="19"/>
-    </row>
-    <row r="344" spans="2:2" s="18" customFormat="1">
-      <c r="B344" s="19"/>
-    </row>
-    <row r="345" spans="2:2" s="18" customFormat="1">
-      <c r="B345" s="19"/>
-    </row>
-    <row r="346" spans="2:2" s="18" customFormat="1">
-      <c r="B346" s="19"/>
-    </row>
-    <row r="347" spans="2:2" s="18" customFormat="1">
-      <c r="B347" s="19"/>
-    </row>
-    <row r="348" spans="2:2" s="18" customFormat="1">
-      <c r="B348" s="19"/>
-    </row>
-    <row r="349" spans="2:2" s="18" customFormat="1">
-      <c r="B349" s="19"/>
-    </row>
-    <row r="350" spans="2:2" s="18" customFormat="1">
-      <c r="B350" s="19"/>
-    </row>
-    <row r="351" spans="2:2" s="18" customFormat="1">
-      <c r="B351" s="19"/>
-    </row>
-    <row r="352" spans="2:2" s="18" customFormat="1">
-      <c r="B352" s="19"/>
-    </row>
-    <row r="353" spans="2:2" s="18" customFormat="1">
-      <c r="B353" s="19"/>
-    </row>
-    <row r="354" spans="2:2" s="18" customFormat="1">
-      <c r="B354" s="19"/>
-    </row>
-    <row r="355" spans="2:2" s="18" customFormat="1">
-      <c r="B355" s="19"/>
-    </row>
-    <row r="356" spans="2:2" s="18" customFormat="1">
-      <c r="B356" s="19"/>
-    </row>
-    <row r="357" spans="2:2" s="18" customFormat="1">
-      <c r="B357" s="19"/>
-    </row>
-    <row r="358" spans="2:2" s="18" customFormat="1">
-      <c r="B358" s="19"/>
-    </row>
-    <row r="359" spans="2:2" s="18" customFormat="1">
-      <c r="B359" s="19"/>
-    </row>
-    <row r="360" spans="2:2" s="18" customFormat="1">
-      <c r="B360" s="19"/>
-    </row>
-    <row r="361" spans="2:2" s="18" customFormat="1">
-      <c r="B361" s="19"/>
-    </row>
-    <row r="362" spans="2:2" s="18" customFormat="1">
-      <c r="B362" s="19"/>
-    </row>
-    <row r="363" spans="2:2" s="18" customFormat="1">
-      <c r="B363" s="19"/>
-    </row>
-    <row r="364" spans="2:2" s="18" customFormat="1">
-      <c r="B364" s="19"/>
-    </row>
-    <row r="365" spans="2:2" s="18" customFormat="1">
-      <c r="B365" s="19"/>
-    </row>
-    <row r="366" spans="2:2" s="18" customFormat="1">
-      <c r="B366" s="19"/>
-    </row>
-    <row r="367" spans="2:2" s="18" customFormat="1">
-      <c r="B367" s="19"/>
-    </row>
-    <row r="368" spans="2:2" s="18" customFormat="1">
-      <c r="B368" s="19"/>
-    </row>
-    <row r="369" spans="2:2" s="18" customFormat="1">
-      <c r="B369" s="19"/>
-    </row>
-    <row r="370" spans="2:2" s="18" customFormat="1">
-      <c r="B370" s="19"/>
-    </row>
-    <row r="371" spans="2:2" s="18" customFormat="1">
-      <c r="B371" s="19"/>
-    </row>
-    <row r="372" spans="2:2" s="18" customFormat="1">
-      <c r="B372" s="19"/>
-    </row>
-    <row r="373" spans="2:2" s="18" customFormat="1">
-      <c r="B373" s="19"/>
-    </row>
-    <row r="374" spans="2:2" s="18" customFormat="1">
-      <c r="B374" s="19"/>
-    </row>
-    <row r="375" spans="2:2" s="18" customFormat="1">
-      <c r="B375" s="19"/>
-    </row>
-    <row r="376" spans="2:2" s="18" customFormat="1">
-      <c r="B376" s="19"/>
-    </row>
-    <row r="377" spans="2:2" s="18" customFormat="1">
-      <c r="B377" s="19"/>
-    </row>
-    <row r="378" spans="2:2" s="18" customFormat="1">
-      <c r="B378" s="19"/>
-    </row>
-    <row r="379" spans="2:2" s="18" customFormat="1">
-      <c r="B379" s="19"/>
-    </row>
-    <row r="380" spans="2:2" s="18" customFormat="1">
-      <c r="B380" s="19"/>
-    </row>
-    <row r="381" spans="2:2" s="18" customFormat="1">
-      <c r="B381" s="19"/>
-    </row>
-    <row r="382" spans="2:2" s="18" customFormat="1">
-      <c r="B382" s="19"/>
-    </row>
-    <row r="383" spans="2:2" s="18" customFormat="1">
-      <c r="B383" s="19"/>
-    </row>
-    <row r="384" spans="2:2" s="18" customFormat="1">
-      <c r="B384" s="19"/>
-    </row>
-    <row r="385" spans="2:2" s="18" customFormat="1">
-      <c r="B385" s="19"/>
-    </row>
-    <row r="386" spans="2:2" s="18" customFormat="1">
-      <c r="B386" s="19"/>
-    </row>
-    <row r="387" spans="2:2" s="18" customFormat="1">
-      <c r="B387" s="19"/>
-    </row>
-    <row r="388" spans="2:2" s="18" customFormat="1">
-      <c r="B388" s="19"/>
-    </row>
-    <row r="389" spans="2:2" s="18" customFormat="1">
-      <c r="B389" s="19"/>
-    </row>
-    <row r="390" spans="2:2" s="18" customFormat="1">
-      <c r="B390" s="19"/>
-    </row>
-    <row r="391" spans="2:2" s="18" customFormat="1">
-      <c r="B391" s="19"/>
-    </row>
-    <row r="392" spans="2:2" s="18" customFormat="1">
-      <c r="B392" s="19"/>
-    </row>
-    <row r="393" spans="2:2" s="18" customFormat="1">
-      <c r="B393" s="19"/>
-    </row>
-    <row r="394" spans="2:2" s="18" customFormat="1">
-      <c r="B394" s="19"/>
-    </row>
-    <row r="395" spans="2:2" s="18" customFormat="1">
-      <c r="B395" s="19"/>
-    </row>
-    <row r="396" spans="2:2" s="18" customFormat="1">
-      <c r="B396" s="19"/>
-    </row>
-    <row r="397" spans="2:2" s="18" customFormat="1">
-      <c r="B397" s="19"/>
-    </row>
-    <row r="398" spans="2:2" s="18" customFormat="1">
-      <c r="B398" s="19"/>
-    </row>
-    <row r="399" spans="2:2" s="18" customFormat="1">
-      <c r="B399" s="19"/>
-    </row>
-    <row r="400" spans="2:2" s="18" customFormat="1">
-      <c r="B400" s="19"/>
-    </row>
-    <row r="401" spans="2:2" s="18" customFormat="1">
-      <c r="B401" s="19"/>
-    </row>
-    <row r="402" spans="2:2" s="18" customFormat="1">
-      <c r="B402" s="19"/>
-    </row>
-    <row r="403" spans="2:2" s="18" customFormat="1">
-      <c r="B403" s="19"/>
-    </row>
-    <row r="404" spans="2:2" s="18" customFormat="1">
-      <c r="B404" s="19"/>
-    </row>
-    <row r="405" spans="2:2" s="18" customFormat="1">
-      <c r="B405" s="19"/>
-    </row>
-    <row r="406" spans="2:2" s="18" customFormat="1">
-      <c r="B406" s="19"/>
-    </row>
-    <row r="407" spans="2:2" s="18" customFormat="1">
-      <c r="B407" s="19"/>
-    </row>
-    <row r="408" spans="2:2" s="18" customFormat="1">
-      <c r="B408" s="19"/>
-    </row>
-    <row r="409" spans="2:2" s="18" customFormat="1">
-      <c r="B409" s="19"/>
-    </row>
-    <row r="410" spans="2:2" s="18" customFormat="1">
-      <c r="B410" s="19"/>
-    </row>
-    <row r="411" spans="2:2" s="18" customFormat="1">
-      <c r="B411" s="19"/>
-    </row>
-    <row r="412" spans="2:2" s="18" customFormat="1">
-      <c r="B412" s="19"/>
-    </row>
-    <row r="413" spans="2:2" s="18" customFormat="1">
-      <c r="B413" s="19"/>
-    </row>
-    <row r="414" spans="2:2" s="18" customFormat="1">
-      <c r="B414" s="19"/>
-    </row>
-    <row r="415" spans="2:2" s="18" customFormat="1">
-      <c r="B415" s="19"/>
-    </row>
-    <row r="416" spans="2:2" s="18" customFormat="1">
-      <c r="B416" s="19"/>
-    </row>
-    <row r="417" spans="2:10" s="18" customFormat="1">
-      <c r="B417" s="19"/>
-    </row>
-    <row r="418" spans="2:10" s="18" customFormat="1">
-      <c r="B418" s="19"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="17"/>
+    </row>
+    <row r="78" spans="2:11" s="33" customFormat="1">
+      <c r="B78" s="35"/>
+      <c r="I78" s="35"/>
+    </row>
+    <row r="79" spans="2:11" s="33" customFormat="1">
+      <c r="B79" s="35"/>
+      <c r="I79" s="35"/>
+    </row>
+    <row r="80" spans="2:11" s="33" customFormat="1">
+      <c r="B80" s="35"/>
+      <c r="I80" s="35"/>
+    </row>
+    <row r="81" spans="2:9" s="33" customFormat="1">
+      <c r="B81" s="35"/>
+      <c r="I81" s="35"/>
+    </row>
+    <row r="82" spans="2:9" s="33" customFormat="1">
+      <c r="B82" s="35"/>
+      <c r="I82" s="35"/>
+    </row>
+    <row r="83" spans="2:9" s="33" customFormat="1">
+      <c r="B83" s="35"/>
+      <c r="I83" s="35"/>
+    </row>
+    <row r="84" spans="2:9" s="33" customFormat="1">
+      <c r="B84" s="35"/>
+      <c r="I84" s="35"/>
+    </row>
+    <row r="85" spans="2:9" s="33" customFormat="1">
+      <c r="B85" s="35"/>
+      <c r="I85" s="35"/>
+    </row>
+    <row r="86" spans="2:9" s="33" customFormat="1">
+      <c r="B86" s="35"/>
+      <c r="I86" s="35"/>
+    </row>
+    <row r="87" spans="2:9" s="33" customFormat="1">
+      <c r="B87" s="35"/>
+      <c r="I87" s="35"/>
+    </row>
+    <row r="88" spans="2:9" s="33" customFormat="1">
+      <c r="B88" s="35"/>
+      <c r="I88" s="35"/>
+    </row>
+    <row r="89" spans="2:9" s="33" customFormat="1">
+      <c r="B89" s="35"/>
+      <c r="I89" s="35"/>
+    </row>
+    <row r="90" spans="2:9" s="33" customFormat="1">
+      <c r="B90" s="35"/>
+      <c r="I90" s="35"/>
+    </row>
+    <row r="91" spans="2:9" s="33" customFormat="1">
+      <c r="B91" s="35"/>
+      <c r="I91" s="35"/>
+    </row>
+    <row r="92" spans="2:9" s="33" customFormat="1">
+      <c r="B92" s="35"/>
+      <c r="I92" s="35"/>
+    </row>
+    <row r="93" spans="2:9" s="33" customFormat="1">
+      <c r="B93" s="35"/>
+      <c r="I93" s="35"/>
+    </row>
+    <row r="94" spans="2:9" s="33" customFormat="1">
+      <c r="B94" s="35"/>
+      <c r="I94" s="35"/>
+    </row>
+    <row r="95" spans="2:9" s="33" customFormat="1">
+      <c r="B95" s="35"/>
+      <c r="I95" s="35"/>
+    </row>
+    <row r="96" spans="2:9" s="33" customFormat="1">
+      <c r="B96" s="35"/>
+      <c r="I96" s="35"/>
+    </row>
+    <row r="97" spans="2:9" s="33" customFormat="1">
+      <c r="B97" s="35"/>
+      <c r="I97" s="35"/>
+    </row>
+    <row r="98" spans="2:9" s="33" customFormat="1">
+      <c r="B98" s="35"/>
+      <c r="I98" s="35"/>
+    </row>
+    <row r="99" spans="2:9" s="33" customFormat="1">
+      <c r="B99" s="35"/>
+      <c r="I99" s="35"/>
+    </row>
+    <row r="100" spans="2:9" s="33" customFormat="1">
+      <c r="B100" s="35"/>
+      <c r="I100" s="35"/>
+    </row>
+    <row r="101" spans="2:9" s="33" customFormat="1">
+      <c r="B101" s="35"/>
+      <c r="I101" s="35"/>
+    </row>
+    <row r="102" spans="2:9" s="33" customFormat="1">
+      <c r="B102" s="35"/>
+      <c r="I102" s="35"/>
+    </row>
+    <row r="103" spans="2:9" s="33" customFormat="1">
+      <c r="B103" s="35"/>
+      <c r="I103" s="35"/>
+    </row>
+    <row r="104" spans="2:9" s="33" customFormat="1">
+      <c r="B104" s="35"/>
+      <c r="I104" s="35"/>
+    </row>
+    <row r="105" spans="2:9" s="33" customFormat="1">
+      <c r="B105" s="35"/>
+      <c r="I105" s="35"/>
+    </row>
+    <row r="106" spans="2:9" s="33" customFormat="1">
+      <c r="B106" s="35"/>
+      <c r="I106" s="35"/>
+    </row>
+    <row r="107" spans="2:9" s="33" customFormat="1">
+      <c r="B107" s="35"/>
+      <c r="I107" s="35"/>
+    </row>
+    <row r="108" spans="2:9" s="33" customFormat="1">
+      <c r="B108" s="35"/>
+      <c r="I108" s="35"/>
+    </row>
+    <row r="109" spans="2:9" s="33" customFormat="1">
+      <c r="B109" s="35"/>
+      <c r="I109" s="35"/>
+    </row>
+    <row r="110" spans="2:9" s="33" customFormat="1">
+      <c r="B110" s="35"/>
+      <c r="I110" s="35"/>
+    </row>
+    <row r="111" spans="2:9" s="33" customFormat="1">
+      <c r="B111" s="35"/>
+      <c r="I111" s="35"/>
+    </row>
+    <row r="112" spans="2:9" s="33" customFormat="1">
+      <c r="B112" s="35"/>
+      <c r="I112" s="35"/>
+    </row>
+    <row r="113" spans="2:9" s="33" customFormat="1">
+      <c r="B113" s="35"/>
+      <c r="I113" s="35"/>
+    </row>
+    <row r="114" spans="2:9" s="33" customFormat="1">
+      <c r="B114" s="35"/>
+      <c r="I114" s="35"/>
+    </row>
+    <row r="115" spans="2:9" s="33" customFormat="1">
+      <c r="B115" s="35"/>
+      <c r="I115" s="35"/>
+    </row>
+    <row r="116" spans="2:9" s="33" customFormat="1">
+      <c r="B116" s="35"/>
+      <c r="I116" s="35"/>
+    </row>
+    <row r="117" spans="2:9" s="33" customFormat="1">
+      <c r="B117" s="35"/>
+      <c r="I117" s="35"/>
+    </row>
+    <row r="118" spans="2:9" s="33" customFormat="1">
+      <c r="B118" s="35"/>
+      <c r="I118" s="35"/>
+    </row>
+    <row r="119" spans="2:9" s="33" customFormat="1">
+      <c r="B119" s="35"/>
+      <c r="I119" s="35"/>
+    </row>
+    <row r="120" spans="2:9" s="33" customFormat="1">
+      <c r="B120" s="35"/>
+      <c r="I120" s="35"/>
+    </row>
+    <row r="121" spans="2:9" s="33" customFormat="1">
+      <c r="B121" s="35"/>
+      <c r="I121" s="35"/>
+    </row>
+    <row r="122" spans="2:9" s="33" customFormat="1">
+      <c r="B122" s="35"/>
+      <c r="I122" s="35"/>
+    </row>
+    <row r="123" spans="2:9" s="33" customFormat="1">
+      <c r="B123" s="35"/>
+      <c r="I123" s="35"/>
+    </row>
+    <row r="124" spans="2:9" s="33" customFormat="1">
+      <c r="B124" s="35"/>
+      <c r="I124" s="35"/>
+    </row>
+    <row r="125" spans="2:9" s="33" customFormat="1">
+      <c r="B125" s="35"/>
+      <c r="I125" s="35"/>
+    </row>
+    <row r="126" spans="2:9" s="33" customFormat="1">
+      <c r="B126" s="35"/>
+      <c r="I126" s="35"/>
+    </row>
+    <row r="127" spans="2:9" s="33" customFormat="1">
+      <c r="B127" s="35"/>
+      <c r="I127" s="35"/>
+    </row>
+    <row r="128" spans="2:9" s="33" customFormat="1">
+      <c r="B128" s="35"/>
+      <c r="I128" s="35"/>
+    </row>
+    <row r="129" spans="2:9" s="33" customFormat="1">
+      <c r="B129" s="35"/>
+      <c r="I129" s="35"/>
+    </row>
+    <row r="130" spans="2:9" s="33" customFormat="1">
+      <c r="B130" s="35"/>
+      <c r="I130" s="35"/>
+    </row>
+    <row r="131" spans="2:9" s="33" customFormat="1">
+      <c r="B131" s="35"/>
+      <c r="I131" s="35"/>
+    </row>
+    <row r="132" spans="2:9" s="33" customFormat="1">
+      <c r="B132" s="35"/>
+      <c r="I132" s="35"/>
+    </row>
+    <row r="133" spans="2:9" s="33" customFormat="1">
+      <c r="B133" s="35"/>
+      <c r="I133" s="35"/>
+    </row>
+    <row r="134" spans="2:9" s="33" customFormat="1">
+      <c r="B134" s="35"/>
+      <c r="I134" s="35"/>
+    </row>
+    <row r="135" spans="2:9" s="33" customFormat="1">
+      <c r="B135" s="35"/>
+      <c r="I135" s="35"/>
+    </row>
+    <row r="136" spans="2:9" s="33" customFormat="1">
+      <c r="B136" s="35"/>
+      <c r="I136" s="35"/>
+    </row>
+    <row r="137" spans="2:9" s="33" customFormat="1">
+      <c r="B137" s="35"/>
+      <c r="I137" s="35"/>
+    </row>
+    <row r="138" spans="2:9" s="33" customFormat="1">
+      <c r="B138" s="35"/>
+      <c r="I138" s="35"/>
+    </row>
+    <row r="139" spans="2:9" s="33" customFormat="1">
+      <c r="B139" s="35"/>
+      <c r="I139" s="35"/>
+    </row>
+    <row r="140" spans="2:9" s="33" customFormat="1">
+      <c r="B140" s="35"/>
+      <c r="I140" s="35"/>
+    </row>
+    <row r="141" spans="2:9" s="33" customFormat="1">
+      <c r="B141" s="35"/>
+      <c r="I141" s="35"/>
+    </row>
+    <row r="142" spans="2:9" s="33" customFormat="1">
+      <c r="B142" s="35"/>
+      <c r="I142" s="35"/>
+    </row>
+    <row r="143" spans="2:9" s="33" customFormat="1">
+      <c r="B143" s="35"/>
+      <c r="I143" s="35"/>
+    </row>
+    <row r="144" spans="2:9" s="33" customFormat="1">
+      <c r="B144" s="35"/>
+      <c r="I144" s="35"/>
+    </row>
+    <row r="145" spans="2:9" s="33" customFormat="1">
+      <c r="B145" s="35"/>
+      <c r="I145" s="35"/>
+    </row>
+    <row r="146" spans="2:9" s="33" customFormat="1">
+      <c r="B146" s="35"/>
+      <c r="I146" s="35"/>
+    </row>
+    <row r="147" spans="2:9" s="33" customFormat="1">
+      <c r="B147" s="35"/>
+      <c r="I147" s="35"/>
+    </row>
+    <row r="148" spans="2:9" s="33" customFormat="1">
+      <c r="B148" s="35"/>
+      <c r="I148" s="35"/>
+    </row>
+    <row r="149" spans="2:9" s="33" customFormat="1">
+      <c r="B149" s="35"/>
+      <c r="I149" s="35"/>
+    </row>
+    <row r="150" spans="2:9" s="33" customFormat="1">
+      <c r="B150" s="35"/>
+      <c r="I150" s="35"/>
+    </row>
+    <row r="151" spans="2:9" s="33" customFormat="1">
+      <c r="B151" s="35"/>
+      <c r="I151" s="35"/>
+    </row>
+    <row r="152" spans="2:9" s="33" customFormat="1">
+      <c r="B152" s="35"/>
+      <c r="I152" s="35"/>
+    </row>
+    <row r="153" spans="2:9" s="33" customFormat="1">
+      <c r="B153" s="35"/>
+      <c r="I153" s="35"/>
+    </row>
+    <row r="154" spans="2:9" s="33" customFormat="1">
+      <c r="B154" s="35"/>
+      <c r="I154" s="35"/>
+    </row>
+    <row r="155" spans="2:9" s="33" customFormat="1">
+      <c r="B155" s="35"/>
+      <c r="I155" s="35"/>
+    </row>
+    <row r="156" spans="2:9" s="33" customFormat="1">
+      <c r="B156" s="35"/>
+      <c r="I156" s="35"/>
+    </row>
+    <row r="157" spans="2:9" s="33" customFormat="1">
+      <c r="B157" s="35"/>
+      <c r="I157" s="35"/>
+    </row>
+    <row r="158" spans="2:9" s="33" customFormat="1">
+      <c r="B158" s="35"/>
+      <c r="I158" s="35"/>
+    </row>
+    <row r="159" spans="2:9" s="33" customFormat="1">
+      <c r="B159" s="35"/>
+      <c r="I159" s="35"/>
+    </row>
+    <row r="160" spans="2:9" s="33" customFormat="1">
+      <c r="B160" s="35"/>
+      <c r="I160" s="35"/>
+    </row>
+    <row r="161" spans="2:9" s="33" customFormat="1">
+      <c r="B161" s="35"/>
+      <c r="I161" s="35"/>
+    </row>
+    <row r="162" spans="2:9" s="33" customFormat="1">
+      <c r="B162" s="35"/>
+      <c r="I162" s="35"/>
+    </row>
+    <row r="163" spans="2:9" s="33" customFormat="1">
+      <c r="B163" s="35"/>
+      <c r="I163" s="35"/>
+    </row>
+    <row r="164" spans="2:9" s="33" customFormat="1">
+      <c r="B164" s="35"/>
+      <c r="I164" s="35"/>
+    </row>
+    <row r="165" spans="2:9" s="33" customFormat="1">
+      <c r="B165" s="35"/>
+      <c r="I165" s="35"/>
+    </row>
+    <row r="166" spans="2:9" s="33" customFormat="1">
+      <c r="B166" s="35"/>
+      <c r="I166" s="35"/>
+    </row>
+    <row r="167" spans="2:9" s="33" customFormat="1">
+      <c r="B167" s="35"/>
+      <c r="I167" s="35"/>
+    </row>
+    <row r="168" spans="2:9" s="33" customFormat="1">
+      <c r="B168" s="35"/>
+      <c r="I168" s="35"/>
+    </row>
+    <row r="169" spans="2:9" s="33" customFormat="1">
+      <c r="B169" s="35"/>
+      <c r="I169" s="35"/>
+    </row>
+    <row r="170" spans="2:9" s="33" customFormat="1">
+      <c r="B170" s="35"/>
+      <c r="I170" s="35"/>
+    </row>
+    <row r="171" spans="2:9" s="33" customFormat="1">
+      <c r="B171" s="35"/>
+      <c r="I171" s="35"/>
+    </row>
+    <row r="172" spans="2:9" s="33" customFormat="1">
+      <c r="B172" s="35"/>
+      <c r="I172" s="35"/>
+    </row>
+    <row r="173" spans="2:9" s="33" customFormat="1">
+      <c r="B173" s="35"/>
+      <c r="I173" s="35"/>
+    </row>
+    <row r="174" spans="2:9" s="33" customFormat="1">
+      <c r="B174" s="35"/>
+      <c r="I174" s="35"/>
+    </row>
+    <row r="175" spans="2:9" s="33" customFormat="1">
+      <c r="B175" s="35"/>
+      <c r="I175" s="35"/>
+    </row>
+    <row r="176" spans="2:9" s="33" customFormat="1">
+      <c r="B176" s="35"/>
+      <c r="I176" s="35"/>
+    </row>
+    <row r="177" spans="2:9" s="33" customFormat="1">
+      <c r="B177" s="35"/>
+      <c r="I177" s="35"/>
+    </row>
+    <row r="178" spans="2:9" s="33" customFormat="1">
+      <c r="B178" s="35"/>
+      <c r="I178" s="35"/>
+    </row>
+    <row r="179" spans="2:9" s="33" customFormat="1">
+      <c r="B179" s="35"/>
+      <c r="I179" s="35"/>
+    </row>
+    <row r="180" spans="2:9" s="33" customFormat="1">
+      <c r="B180" s="35"/>
+      <c r="I180" s="35"/>
+    </row>
+    <row r="181" spans="2:9" s="33" customFormat="1">
+      <c r="B181" s="35"/>
+      <c r="I181" s="35"/>
+    </row>
+    <row r="182" spans="2:9" s="33" customFormat="1">
+      <c r="B182" s="35"/>
+      <c r="I182" s="35"/>
+    </row>
+    <row r="183" spans="2:9" s="33" customFormat="1">
+      <c r="B183" s="35"/>
+      <c r="I183" s="35"/>
+    </row>
+    <row r="184" spans="2:9" s="33" customFormat="1">
+      <c r="B184" s="35"/>
+      <c r="I184" s="35"/>
+    </row>
+    <row r="185" spans="2:9" s="33" customFormat="1">
+      <c r="B185" s="35"/>
+      <c r="I185" s="35"/>
+    </row>
+    <row r="186" spans="2:9" s="33" customFormat="1">
+      <c r="B186" s="35"/>
+      <c r="I186" s="35"/>
+    </row>
+    <row r="187" spans="2:9" s="33" customFormat="1">
+      <c r="B187" s="35"/>
+      <c r="I187" s="35"/>
+    </row>
+    <row r="188" spans="2:9" s="33" customFormat="1">
+      <c r="B188" s="35"/>
+      <c r="I188" s="35"/>
+    </row>
+    <row r="189" spans="2:9" s="33" customFormat="1">
+      <c r="B189" s="35"/>
+      <c r="I189" s="35"/>
+    </row>
+    <row r="190" spans="2:9" s="33" customFormat="1">
+      <c r="B190" s="35"/>
+      <c r="I190" s="35"/>
+    </row>
+    <row r="191" spans="2:9" s="33" customFormat="1">
+      <c r="B191" s="35"/>
+      <c r="I191" s="35"/>
+    </row>
+    <row r="192" spans="2:9" s="33" customFormat="1">
+      <c r="B192" s="35"/>
+      <c r="I192" s="35"/>
+    </row>
+    <row r="193" spans="2:9" s="33" customFormat="1">
+      <c r="B193" s="35"/>
+      <c r="I193" s="35"/>
+    </row>
+    <row r="194" spans="2:9" s="33" customFormat="1">
+      <c r="B194" s="35"/>
+      <c r="I194" s="35"/>
+    </row>
+    <row r="195" spans="2:9" s="33" customFormat="1">
+      <c r="B195" s="35"/>
+      <c r="I195" s="35"/>
+    </row>
+    <row r="196" spans="2:9" s="33" customFormat="1">
+      <c r="B196" s="35"/>
+      <c r="I196" s="35"/>
+    </row>
+    <row r="197" spans="2:9" s="33" customFormat="1">
+      <c r="B197" s="35"/>
+      <c r="I197" s="35"/>
+    </row>
+    <row r="198" spans="2:9" s="33" customFormat="1">
+      <c r="B198" s="35"/>
+      <c r="I198" s="35"/>
+    </row>
+    <row r="199" spans="2:9" s="33" customFormat="1">
+      <c r="B199" s="35"/>
+      <c r="I199" s="35"/>
+    </row>
+    <row r="200" spans="2:9" s="33" customFormat="1">
+      <c r="B200" s="35"/>
+      <c r="I200" s="35"/>
+    </row>
+    <row r="201" spans="2:9" s="33" customFormat="1">
+      <c r="B201" s="35"/>
+      <c r="I201" s="35"/>
+    </row>
+    <row r="202" spans="2:9" s="33" customFormat="1">
+      <c r="B202" s="35"/>
+      <c r="I202" s="35"/>
+    </row>
+    <row r="203" spans="2:9" s="33" customFormat="1">
+      <c r="B203" s="35"/>
+      <c r="I203" s="35"/>
+    </row>
+    <row r="204" spans="2:9" s="33" customFormat="1">
+      <c r="B204" s="35"/>
+      <c r="I204" s="35"/>
+    </row>
+    <row r="205" spans="2:9" s="33" customFormat="1">
+      <c r="B205" s="35"/>
+      <c r="I205" s="35"/>
+    </row>
+    <row r="206" spans="2:9" s="33" customFormat="1">
+      <c r="B206" s="35"/>
+      <c r="I206" s="35"/>
+    </row>
+    <row r="207" spans="2:9" s="33" customFormat="1">
+      <c r="B207" s="35"/>
+      <c r="I207" s="35"/>
+    </row>
+    <row r="208" spans="2:9" s="33" customFormat="1">
+      <c r="B208" s="35"/>
+      <c r="I208" s="35"/>
+    </row>
+    <row r="209" spans="2:9" s="33" customFormat="1">
+      <c r="B209" s="35"/>
+      <c r="I209" s="35"/>
+    </row>
+    <row r="210" spans="2:9" s="33" customFormat="1">
+      <c r="B210" s="35"/>
+      <c r="I210" s="35"/>
+    </row>
+    <row r="211" spans="2:9" s="33" customFormat="1">
+      <c r="B211" s="35"/>
+      <c r="I211" s="35"/>
+    </row>
+    <row r="212" spans="2:9" s="33" customFormat="1">
+      <c r="B212" s="35"/>
+      <c r="I212" s="35"/>
+    </row>
+    <row r="213" spans="2:9" s="33" customFormat="1">
+      <c r="B213" s="35"/>
+      <c r="I213" s="35"/>
+    </row>
+    <row r="214" spans="2:9" s="33" customFormat="1">
+      <c r="B214" s="35"/>
+      <c r="I214" s="35"/>
+    </row>
+    <row r="215" spans="2:9" s="33" customFormat="1">
+      <c r="B215" s="35"/>
+      <c r="I215" s="35"/>
+    </row>
+    <row r="216" spans="2:9" s="33" customFormat="1">
+      <c r="B216" s="35"/>
+      <c r="I216" s="35"/>
+    </row>
+    <row r="217" spans="2:9" s="33" customFormat="1">
+      <c r="B217" s="35"/>
+      <c r="I217" s="35"/>
+    </row>
+    <row r="218" spans="2:9" s="33" customFormat="1">
+      <c r="B218" s="35"/>
+      <c r="I218" s="35"/>
+    </row>
+    <row r="219" spans="2:9" s="33" customFormat="1">
+      <c r="B219" s="35"/>
+      <c r="I219" s="35"/>
+    </row>
+    <row r="220" spans="2:9" s="33" customFormat="1">
+      <c r="B220" s="35"/>
+      <c r="I220" s="35"/>
+    </row>
+    <row r="221" spans="2:9" s="33" customFormat="1">
+      <c r="B221" s="35"/>
+      <c r="I221" s="35"/>
+    </row>
+    <row r="222" spans="2:9" s="33" customFormat="1">
+      <c r="B222" s="35"/>
+      <c r="I222" s="35"/>
+    </row>
+    <row r="223" spans="2:9" s="33" customFormat="1">
+      <c r="B223" s="35"/>
+      <c r="I223" s="35"/>
+    </row>
+    <row r="224" spans="2:9" s="33" customFormat="1">
+      <c r="B224" s="35"/>
+      <c r="I224" s="35"/>
+    </row>
+    <row r="225" spans="2:9" s="33" customFormat="1">
+      <c r="B225" s="35"/>
+      <c r="I225" s="35"/>
+    </row>
+    <row r="226" spans="2:9" s="33" customFormat="1">
+      <c r="B226" s="35"/>
+      <c r="I226" s="35"/>
+    </row>
+    <row r="227" spans="2:9" s="33" customFormat="1">
+      <c r="B227" s="35"/>
+      <c r="I227" s="35"/>
+    </row>
+    <row r="228" spans="2:9" s="33" customFormat="1">
+      <c r="B228" s="35"/>
+      <c r="I228" s="35"/>
+    </row>
+    <row r="229" spans="2:9" s="33" customFormat="1">
+      <c r="B229" s="35"/>
+      <c r="I229" s="35"/>
+    </row>
+    <row r="230" spans="2:9" s="33" customFormat="1">
+      <c r="B230" s="35"/>
+      <c r="I230" s="35"/>
+    </row>
+    <row r="231" spans="2:9" s="33" customFormat="1">
+      <c r="B231" s="35"/>
+      <c r="I231" s="35"/>
+    </row>
+    <row r="232" spans="2:9" s="33" customFormat="1">
+      <c r="B232" s="35"/>
+      <c r="I232" s="35"/>
+    </row>
+    <row r="233" spans="2:9" s="33" customFormat="1">
+      <c r="B233" s="35"/>
+      <c r="I233" s="35"/>
+    </row>
+    <row r="234" spans="2:9" s="33" customFormat="1">
+      <c r="B234" s="35"/>
+      <c r="I234" s="35"/>
+    </row>
+    <row r="235" spans="2:9" s="33" customFormat="1">
+      <c r="B235" s="35"/>
+      <c r="I235" s="35"/>
+    </row>
+    <row r="236" spans="2:9" s="33" customFormat="1">
+      <c r="B236" s="35"/>
+      <c r="I236" s="35"/>
+    </row>
+    <row r="237" spans="2:9" s="33" customFormat="1">
+      <c r="B237" s="35"/>
+      <c r="I237" s="35"/>
+    </row>
+    <row r="238" spans="2:9" s="33" customFormat="1">
+      <c r="B238" s="35"/>
+      <c r="I238" s="35"/>
+    </row>
+    <row r="239" spans="2:9" s="33" customFormat="1">
+      <c r="B239" s="35"/>
+      <c r="I239" s="35"/>
+    </row>
+    <row r="240" spans="2:9" s="33" customFormat="1">
+      <c r="B240" s="35"/>
+      <c r="I240" s="35"/>
+    </row>
+    <row r="241" spans="2:9" s="33" customFormat="1">
+      <c r="B241" s="35"/>
+      <c r="I241" s="35"/>
+    </row>
+    <row r="242" spans="2:9" s="33" customFormat="1">
+      <c r="B242" s="35"/>
+      <c r="I242" s="35"/>
+    </row>
+    <row r="243" spans="2:9" s="33" customFormat="1">
+      <c r="B243" s="35"/>
+      <c r="I243" s="35"/>
+    </row>
+    <row r="244" spans="2:9" s="33" customFormat="1">
+      <c r="B244" s="35"/>
+      <c r="I244" s="35"/>
+    </row>
+    <row r="245" spans="2:9" s="33" customFormat="1">
+      <c r="B245" s="35"/>
+      <c r="I245" s="35"/>
+    </row>
+    <row r="246" spans="2:9" s="33" customFormat="1">
+      <c r="B246" s="35"/>
+      <c r="I246" s="35"/>
+    </row>
+    <row r="247" spans="2:9" s="33" customFormat="1">
+      <c r="B247" s="35"/>
+      <c r="I247" s="35"/>
+    </row>
+    <row r="248" spans="2:9" s="33" customFormat="1">
+      <c r="B248" s="35"/>
+      <c r="I248" s="35"/>
+    </row>
+    <row r="249" spans="2:9" s="33" customFormat="1">
+      <c r="B249" s="35"/>
+      <c r="I249" s="35"/>
+    </row>
+    <row r="250" spans="2:9" s="33" customFormat="1">
+      <c r="B250" s="35"/>
+      <c r="I250" s="35"/>
+    </row>
+    <row r="251" spans="2:9" s="33" customFormat="1">
+      <c r="B251" s="35"/>
+      <c r="I251" s="35"/>
+    </row>
+    <row r="252" spans="2:9" s="33" customFormat="1">
+      <c r="B252" s="35"/>
+      <c r="I252" s="35"/>
+    </row>
+    <row r="253" spans="2:9" s="33" customFormat="1">
+      <c r="B253" s="35"/>
+      <c r="I253" s="35"/>
+    </row>
+    <row r="254" spans="2:9" s="33" customFormat="1">
+      <c r="B254" s="35"/>
+      <c r="I254" s="35"/>
+    </row>
+    <row r="255" spans="2:9" s="33" customFormat="1">
+      <c r="B255" s="35"/>
+      <c r="I255" s="35"/>
+    </row>
+    <row r="256" spans="2:9" s="33" customFormat="1">
+      <c r="B256" s="35"/>
+      <c r="I256" s="35"/>
+    </row>
+    <row r="257" spans="2:9" s="33" customFormat="1">
+      <c r="B257" s="35"/>
+      <c r="I257" s="35"/>
+    </row>
+    <row r="258" spans="2:9" s="33" customFormat="1">
+      <c r="B258" s="35"/>
+      <c r="I258" s="35"/>
+    </row>
+    <row r="259" spans="2:9" s="33" customFormat="1">
+      <c r="B259" s="35"/>
+      <c r="I259" s="35"/>
+    </row>
+    <row r="260" spans="2:9" s="33" customFormat="1">
+      <c r="B260" s="35"/>
+      <c r="I260" s="35"/>
+    </row>
+    <row r="261" spans="2:9" s="33" customFormat="1">
+      <c r="B261" s="35"/>
+      <c r="I261" s="35"/>
+    </row>
+    <row r="262" spans="2:9" s="33" customFormat="1">
+      <c r="B262" s="35"/>
+      <c r="I262" s="35"/>
+    </row>
+    <row r="263" spans="2:9" s="33" customFormat="1">
+      <c r="B263" s="35"/>
+      <c r="I263" s="35"/>
+    </row>
+    <row r="264" spans="2:9" s="33" customFormat="1">
+      <c r="B264" s="35"/>
+      <c r="I264" s="35"/>
+    </row>
+    <row r="265" spans="2:9" s="33" customFormat="1">
+      <c r="B265" s="35"/>
+      <c r="I265" s="35"/>
+    </row>
+    <row r="266" spans="2:9" s="33" customFormat="1">
+      <c r="B266" s="35"/>
+      <c r="I266" s="35"/>
+    </row>
+    <row r="267" spans="2:9" s="33" customFormat="1">
+      <c r="B267" s="35"/>
+      <c r="I267" s="35"/>
+    </row>
+    <row r="268" spans="2:9" s="33" customFormat="1">
+      <c r="B268" s="35"/>
+      <c r="I268" s="35"/>
+    </row>
+    <row r="269" spans="2:9" s="33" customFormat="1">
+      <c r="B269" s="35"/>
+      <c r="I269" s="35"/>
+    </row>
+    <row r="270" spans="2:9" s="33" customFormat="1">
+      <c r="B270" s="35"/>
+      <c r="I270" s="35"/>
+    </row>
+    <row r="271" spans="2:9" s="33" customFormat="1">
+      <c r="B271" s="35"/>
+      <c r="I271" s="35"/>
+    </row>
+    <row r="272" spans="2:9" s="33" customFormat="1">
+      <c r="B272" s="35"/>
+      <c r="I272" s="35"/>
+    </row>
+    <row r="273" spans="2:9" s="33" customFormat="1">
+      <c r="B273" s="35"/>
+      <c r="I273" s="35"/>
+    </row>
+    <row r="274" spans="2:9" s="33" customFormat="1">
+      <c r="B274" s="35"/>
+      <c r="I274" s="35"/>
+    </row>
+    <row r="275" spans="2:9" s="33" customFormat="1">
+      <c r="B275" s="35"/>
+      <c r="I275" s="35"/>
+    </row>
+    <row r="276" spans="2:9" s="33" customFormat="1">
+      <c r="B276" s="35"/>
+      <c r="I276" s="35"/>
+    </row>
+    <row r="277" spans="2:9" s="33" customFormat="1">
+      <c r="B277" s="35"/>
+      <c r="I277" s="35"/>
+    </row>
+    <row r="278" spans="2:9" s="33" customFormat="1">
+      <c r="B278" s="35"/>
+      <c r="I278" s="35"/>
+    </row>
+    <row r="279" spans="2:9" s="33" customFormat="1">
+      <c r="B279" s="35"/>
+      <c r="I279" s="35"/>
+    </row>
+    <row r="280" spans="2:9" s="33" customFormat="1">
+      <c r="B280" s="35"/>
+      <c r="I280" s="35"/>
+    </row>
+    <row r="281" spans="2:9" s="33" customFormat="1">
+      <c r="B281" s="35"/>
+      <c r="I281" s="35"/>
+    </row>
+    <row r="282" spans="2:9" s="33" customFormat="1">
+      <c r="B282" s="35"/>
+      <c r="I282" s="35"/>
+    </row>
+    <row r="283" spans="2:9" s="33" customFormat="1">
+      <c r="B283" s="35"/>
+      <c r="I283" s="35"/>
+    </row>
+    <row r="284" spans="2:9" s="33" customFormat="1">
+      <c r="B284" s="35"/>
+      <c r="I284" s="35"/>
+    </row>
+    <row r="285" spans="2:9" s="33" customFormat="1">
+      <c r="B285" s="35"/>
+      <c r="I285" s="35"/>
+    </row>
+    <row r="286" spans="2:9" s="33" customFormat="1">
+      <c r="B286" s="35"/>
+      <c r="I286" s="35"/>
+    </row>
+    <row r="287" spans="2:9" s="33" customFormat="1">
+      <c r="B287" s="35"/>
+      <c r="I287" s="35"/>
+    </row>
+    <row r="288" spans="2:9" s="33" customFormat="1">
+      <c r="B288" s="35"/>
+      <c r="I288" s="35"/>
+    </row>
+    <row r="289" spans="2:9" s="33" customFormat="1">
+      <c r="B289" s="35"/>
+      <c r="I289" s="35"/>
+    </row>
+    <row r="290" spans="2:9" s="33" customFormat="1">
+      <c r="B290" s="35"/>
+      <c r="I290" s="35"/>
+    </row>
+    <row r="291" spans="2:9" s="33" customFormat="1">
+      <c r="B291" s="35"/>
+      <c r="I291" s="35"/>
+    </row>
+    <row r="292" spans="2:9" s="33" customFormat="1">
+      <c r="B292" s="35"/>
+      <c r="I292" s="35"/>
+    </row>
+    <row r="293" spans="2:9" s="33" customFormat="1">
+      <c r="B293" s="35"/>
+      <c r="I293" s="35"/>
+    </row>
+    <row r="294" spans="2:9" s="33" customFormat="1">
+      <c r="B294" s="35"/>
+      <c r="I294" s="35"/>
+    </row>
+    <row r="295" spans="2:9" s="33" customFormat="1">
+      <c r="B295" s="35"/>
+      <c r="I295" s="35"/>
+    </row>
+    <row r="296" spans="2:9" s="33" customFormat="1">
+      <c r="B296" s="35"/>
+      <c r="I296" s="35"/>
+    </row>
+    <row r="297" spans="2:9" s="33" customFormat="1">
+      <c r="B297" s="35"/>
+      <c r="I297" s="35"/>
+    </row>
+    <row r="298" spans="2:9" s="33" customFormat="1">
+      <c r="B298" s="35"/>
+      <c r="I298" s="35"/>
+    </row>
+    <row r="299" spans="2:9" s="33" customFormat="1">
+      <c r="B299" s="35"/>
+      <c r="I299" s="35"/>
+    </row>
+    <row r="300" spans="2:9" s="33" customFormat="1">
+      <c r="B300" s="35"/>
+      <c r="I300" s="35"/>
+    </row>
+    <row r="301" spans="2:9" s="33" customFormat="1">
+      <c r="B301" s="35"/>
+      <c r="I301" s="35"/>
+    </row>
+    <row r="302" spans="2:9" s="33" customFormat="1">
+      <c r="B302" s="35"/>
+      <c r="I302" s="35"/>
+    </row>
+    <row r="303" spans="2:9" s="33" customFormat="1">
+      <c r="B303" s="35"/>
+      <c r="I303" s="35"/>
+    </row>
+    <row r="304" spans="2:9" s="33" customFormat="1">
+      <c r="B304" s="35"/>
+      <c r="I304" s="35"/>
+    </row>
+    <row r="305" spans="2:9" s="33" customFormat="1">
+      <c r="B305" s="35"/>
+      <c r="I305" s="35"/>
+    </row>
+    <row r="306" spans="2:9" s="33" customFormat="1">
+      <c r="B306" s="35"/>
+      <c r="I306" s="35"/>
+    </row>
+    <row r="307" spans="2:9" s="33" customFormat="1">
+      <c r="B307" s="35"/>
+      <c r="I307" s="35"/>
+    </row>
+    <row r="308" spans="2:9" s="33" customFormat="1">
+      <c r="B308" s="35"/>
+      <c r="I308" s="35"/>
+    </row>
+    <row r="309" spans="2:9" s="33" customFormat="1">
+      <c r="B309" s="35"/>
+      <c r="I309" s="35"/>
+    </row>
+    <row r="310" spans="2:9" s="33" customFormat="1">
+      <c r="B310" s="35"/>
+      <c r="I310" s="35"/>
+    </row>
+    <row r="311" spans="2:9" s="33" customFormat="1">
+      <c r="B311" s="35"/>
+      <c r="I311" s="35"/>
+    </row>
+    <row r="312" spans="2:9" s="33" customFormat="1">
+      <c r="B312" s="35"/>
+      <c r="I312" s="35"/>
+    </row>
+    <row r="313" spans="2:9" s="33" customFormat="1">
+      <c r="B313" s="35"/>
+      <c r="I313" s="35"/>
+    </row>
+    <row r="314" spans="2:9" s="33" customFormat="1">
+      <c r="B314" s="35"/>
+      <c r="I314" s="35"/>
+    </row>
+    <row r="315" spans="2:9" s="33" customFormat="1">
+      <c r="B315" s="35"/>
+      <c r="I315" s="35"/>
+    </row>
+    <row r="316" spans="2:9" s="33" customFormat="1">
+      <c r="B316" s="35"/>
+      <c r="I316" s="35"/>
+    </row>
+    <row r="317" spans="2:9" s="33" customFormat="1">
+      <c r="B317" s="35"/>
+      <c r="I317" s="35"/>
+    </row>
+    <row r="318" spans="2:9" s="33" customFormat="1">
+      <c r="B318" s="35"/>
+      <c r="I318" s="35"/>
+    </row>
+    <row r="319" spans="2:9" s="33" customFormat="1">
+      <c r="B319" s="35"/>
+      <c r="I319" s="35"/>
+    </row>
+    <row r="320" spans="2:9" s="33" customFormat="1">
+      <c r="B320" s="35"/>
+      <c r="I320" s="35"/>
+    </row>
+    <row r="321" spans="2:9" s="33" customFormat="1">
+      <c r="B321" s="35"/>
+      <c r="I321" s="35"/>
+    </row>
+    <row r="322" spans="2:9" s="33" customFormat="1">
+      <c r="B322" s="35"/>
+      <c r="I322" s="35"/>
+    </row>
+    <row r="323" spans="2:9" s="33" customFormat="1">
+      <c r="B323" s="35"/>
+      <c r="I323" s="35"/>
+    </row>
+    <row r="324" spans="2:9" s="33" customFormat="1">
+      <c r="B324" s="35"/>
+      <c r="I324" s="35"/>
+    </row>
+    <row r="325" spans="2:9" s="33" customFormat="1">
+      <c r="B325" s="35"/>
+      <c r="I325" s="35"/>
+    </row>
+    <row r="326" spans="2:9" s="33" customFormat="1">
+      <c r="B326" s="35"/>
+      <c r="I326" s="35"/>
+    </row>
+    <row r="327" spans="2:9" s="33" customFormat="1">
+      <c r="B327" s="35"/>
+      <c r="I327" s="35"/>
+    </row>
+    <row r="328" spans="2:9" s="33" customFormat="1">
+      <c r="B328" s="35"/>
+      <c r="I328" s="35"/>
+    </row>
+    <row r="329" spans="2:9" s="33" customFormat="1">
+      <c r="B329" s="35"/>
+      <c r="I329" s="35"/>
+    </row>
+    <row r="330" spans="2:9" s="33" customFormat="1">
+      <c r="B330" s="35"/>
+      <c r="I330" s="35"/>
+    </row>
+    <row r="331" spans="2:9" s="33" customFormat="1">
+      <c r="B331" s="35"/>
+      <c r="I331" s="35"/>
+    </row>
+    <row r="332" spans="2:9" s="33" customFormat="1">
+      <c r="B332" s="35"/>
+      <c r="I332" s="35"/>
+    </row>
+    <row r="333" spans="2:9" s="33" customFormat="1">
+      <c r="B333" s="35"/>
+      <c r="I333" s="35"/>
+    </row>
+    <row r="334" spans="2:9" s="33" customFormat="1">
+      <c r="B334" s="35"/>
+      <c r="I334" s="35"/>
+    </row>
+    <row r="335" spans="2:9" s="33" customFormat="1">
+      <c r="B335" s="35"/>
+      <c r="I335" s="35"/>
+    </row>
+    <row r="336" spans="2:9" s="33" customFormat="1">
+      <c r="B336" s="35"/>
+      <c r="I336" s="35"/>
+    </row>
+    <row r="337" spans="2:9" s="33" customFormat="1">
+      <c r="B337" s="35"/>
+      <c r="I337" s="35"/>
+    </row>
+    <row r="338" spans="2:9" s="33" customFormat="1">
+      <c r="B338" s="35"/>
+      <c r="I338" s="35"/>
+    </row>
+    <row r="339" spans="2:9" s="33" customFormat="1">
+      <c r="B339" s="35"/>
+      <c r="I339" s="35"/>
+    </row>
+    <row r="340" spans="2:9" s="33" customFormat="1">
+      <c r="B340" s="35"/>
+      <c r="I340" s="35"/>
+    </row>
+    <row r="341" spans="2:9" s="33" customFormat="1">
+      <c r="B341" s="35"/>
+      <c r="I341" s="35"/>
+    </row>
+    <row r="342" spans="2:9" s="33" customFormat="1">
+      <c r="B342" s="35"/>
+      <c r="I342" s="35"/>
+    </row>
+    <row r="343" spans="2:9" s="33" customFormat="1">
+      <c r="B343" s="35"/>
+      <c r="I343" s="35"/>
+    </row>
+    <row r="344" spans="2:9" s="33" customFormat="1">
+      <c r="B344" s="35"/>
+      <c r="I344" s="35"/>
+    </row>
+    <row r="345" spans="2:9" s="33" customFormat="1">
+      <c r="B345" s="35"/>
+      <c r="I345" s="35"/>
+    </row>
+    <row r="346" spans="2:9" s="33" customFormat="1">
+      <c r="B346" s="35"/>
+      <c r="I346" s="35"/>
+    </row>
+    <row r="347" spans="2:9" s="33" customFormat="1">
+      <c r="B347" s="35"/>
+      <c r="I347" s="35"/>
+    </row>
+    <row r="348" spans="2:9" s="33" customFormat="1">
+      <c r="B348" s="35"/>
+      <c r="I348" s="35"/>
+    </row>
+    <row r="349" spans="2:9" s="33" customFormat="1">
+      <c r="B349" s="35"/>
+      <c r="I349" s="35"/>
+    </row>
+    <row r="350" spans="2:9" s="33" customFormat="1">
+      <c r="B350" s="35"/>
+      <c r="I350" s="35"/>
+    </row>
+    <row r="351" spans="2:9" s="33" customFormat="1">
+      <c r="B351" s="35"/>
+      <c r="I351" s="35"/>
+    </row>
+    <row r="352" spans="2:9" s="33" customFormat="1">
+      <c r="B352" s="35"/>
+      <c r="I352" s="35"/>
+    </row>
+    <row r="353" spans="2:9" s="33" customFormat="1">
+      <c r="B353" s="35"/>
+      <c r="I353" s="35"/>
+    </row>
+    <row r="354" spans="2:9" s="33" customFormat="1">
+      <c r="B354" s="35"/>
+      <c r="I354" s="35"/>
+    </row>
+    <row r="355" spans="2:9" s="33" customFormat="1">
+      <c r="B355" s="35"/>
+      <c r="I355" s="35"/>
+    </row>
+    <row r="356" spans="2:9" s="33" customFormat="1">
+      <c r="B356" s="35"/>
+      <c r="I356" s="35"/>
+    </row>
+    <row r="357" spans="2:9" s="33" customFormat="1">
+      <c r="B357" s="35"/>
+      <c r="I357" s="35"/>
+    </row>
+    <row r="358" spans="2:9" s="33" customFormat="1">
+      <c r="B358" s="35"/>
+      <c r="I358" s="35"/>
+    </row>
+    <row r="359" spans="2:9" s="33" customFormat="1">
+      <c r="B359" s="35"/>
+      <c r="I359" s="35"/>
+    </row>
+    <row r="360" spans="2:9" s="33" customFormat="1">
+      <c r="B360" s="35"/>
+      <c r="I360" s="35"/>
+    </row>
+    <row r="361" spans="2:9" s="33" customFormat="1">
+      <c r="B361" s="35"/>
+      <c r="I361" s="35"/>
+    </row>
+    <row r="362" spans="2:9" s="33" customFormat="1">
+      <c r="B362" s="35"/>
+      <c r="I362" s="35"/>
+    </row>
+    <row r="363" spans="2:9" s="33" customFormat="1">
+      <c r="B363" s="35"/>
+      <c r="I363" s="35"/>
+    </row>
+    <row r="364" spans="2:9" s="33" customFormat="1">
+      <c r="B364" s="35"/>
+      <c r="I364" s="35"/>
+    </row>
+    <row r="365" spans="2:9" s="33" customFormat="1">
+      <c r="B365" s="35"/>
+      <c r="I365" s="35"/>
+    </row>
+    <row r="366" spans="2:9" s="33" customFormat="1">
+      <c r="B366" s="35"/>
+      <c r="I366" s="35"/>
+    </row>
+    <row r="367" spans="2:9" s="33" customFormat="1">
+      <c r="B367" s="35"/>
+      <c r="I367" s="35"/>
+    </row>
+    <row r="368" spans="2:9" s="33" customFormat="1">
+      <c r="B368" s="35"/>
+      <c r="I368" s="35"/>
+    </row>
+    <row r="369" spans="2:9" s="33" customFormat="1">
+      <c r="B369" s="35"/>
+      <c r="I369" s="35"/>
+    </row>
+    <row r="370" spans="2:9" s="33" customFormat="1">
+      <c r="B370" s="35"/>
+      <c r="I370" s="35"/>
+    </row>
+    <row r="371" spans="2:9" s="33" customFormat="1">
+      <c r="B371" s="35"/>
+      <c r="I371" s="35"/>
+    </row>
+    <row r="372" spans="2:9" s="33" customFormat="1">
+      <c r="B372" s="35"/>
+      <c r="I372" s="35"/>
+    </row>
+    <row r="373" spans="2:9" s="33" customFormat="1">
+      <c r="B373" s="35"/>
+      <c r="I373" s="35"/>
+    </row>
+    <row r="374" spans="2:9" s="33" customFormat="1">
+      <c r="B374" s="35"/>
+      <c r="I374" s="35"/>
+    </row>
+    <row r="375" spans="2:9" s="33" customFormat="1">
+      <c r="B375" s="35"/>
+      <c r="I375" s="35"/>
+    </row>
+    <row r="376" spans="2:9" s="33" customFormat="1">
+      <c r="B376" s="35"/>
+      <c r="I376" s="35"/>
+    </row>
+    <row r="377" spans="2:9" s="33" customFormat="1">
+      <c r="B377" s="35"/>
+      <c r="I377" s="35"/>
+    </row>
+    <row r="378" spans="2:9" s="33" customFormat="1">
+      <c r="B378" s="35"/>
+      <c r="I378" s="35"/>
+    </row>
+    <row r="379" spans="2:9" s="33" customFormat="1">
+      <c r="B379" s="35"/>
+      <c r="I379" s="35"/>
+    </row>
+    <row r="380" spans="2:9" s="33" customFormat="1">
+      <c r="B380" s="35"/>
+      <c r="I380" s="35"/>
+    </row>
+    <row r="381" spans="2:9" s="33" customFormat="1">
+      <c r="B381" s="35"/>
+      <c r="I381" s="35"/>
+    </row>
+    <row r="382" spans="2:9" s="33" customFormat="1">
+      <c r="B382" s="35"/>
+      <c r="I382" s="35"/>
+    </row>
+    <row r="383" spans="2:9" s="33" customFormat="1">
+      <c r="B383" s="35"/>
+      <c r="I383" s="35"/>
+    </row>
+    <row r="384" spans="2:9" s="33" customFormat="1">
+      <c r="B384" s="35"/>
+      <c r="I384" s="35"/>
+    </row>
+    <row r="385" spans="2:9" s="33" customFormat="1">
+      <c r="B385" s="35"/>
+      <c r="I385" s="35"/>
+    </row>
+    <row r="386" spans="2:9" s="33" customFormat="1">
+      <c r="B386" s="35"/>
+      <c r="I386" s="35"/>
+    </row>
+    <row r="387" spans="2:9" s="33" customFormat="1">
+      <c r="B387" s="35"/>
+      <c r="I387" s="35"/>
+    </row>
+    <row r="388" spans="2:9" s="33" customFormat="1">
+      <c r="B388" s="35"/>
+      <c r="I388" s="35"/>
+    </row>
+    <row r="389" spans="2:9" s="33" customFormat="1">
+      <c r="B389" s="35"/>
+      <c r="I389" s="35"/>
+    </row>
+    <row r="390" spans="2:9" s="33" customFormat="1">
+      <c r="B390" s="35"/>
+      <c r="I390" s="35"/>
+    </row>
+    <row r="391" spans="2:9" s="33" customFormat="1">
+      <c r="B391" s="35"/>
+      <c r="I391" s="35"/>
+    </row>
+    <row r="392" spans="2:9" s="33" customFormat="1">
+      <c r="B392" s="35"/>
+      <c r="I392" s="35"/>
+    </row>
+    <row r="393" spans="2:9" s="33" customFormat="1">
+      <c r="B393" s="35"/>
+      <c r="I393" s="35"/>
+    </row>
+    <row r="394" spans="2:9" s="33" customFormat="1">
+      <c r="B394" s="35"/>
+      <c r="I394" s="35"/>
+    </row>
+    <row r="395" spans="2:9" s="33" customFormat="1">
+      <c r="B395" s="35"/>
+      <c r="I395" s="35"/>
+    </row>
+    <row r="396" spans="2:9" s="33" customFormat="1">
+      <c r="B396" s="35"/>
+      <c r="I396" s="35"/>
+    </row>
+    <row r="397" spans="2:9" s="33" customFormat="1">
+      <c r="B397" s="35"/>
+      <c r="I397" s="35"/>
+    </row>
+    <row r="398" spans="2:9" s="33" customFormat="1">
+      <c r="B398" s="35"/>
+      <c r="I398" s="35"/>
+    </row>
+    <row r="399" spans="2:9" s="33" customFormat="1">
+      <c r="B399" s="35"/>
+      <c r="I399" s="35"/>
+    </row>
+    <row r="400" spans="2:9" s="33" customFormat="1">
+      <c r="B400" s="35"/>
+      <c r="I400" s="35"/>
+    </row>
+    <row r="401" spans="2:9" s="33" customFormat="1">
+      <c r="B401" s="35"/>
+      <c r="I401" s="35"/>
+    </row>
+    <row r="402" spans="2:9" s="33" customFormat="1">
+      <c r="B402" s="35"/>
+      <c r="I402" s="35"/>
+    </row>
+    <row r="403" spans="2:9" s="33" customFormat="1">
+      <c r="B403" s="35"/>
+      <c r="I403" s="35"/>
+    </row>
+    <row r="404" spans="2:9" s="33" customFormat="1">
+      <c r="B404" s="35"/>
+      <c r="I404" s="35"/>
+    </row>
+    <row r="405" spans="2:9" s="33" customFormat="1">
+      <c r="B405" s="35"/>
+      <c r="I405" s="35"/>
+    </row>
+    <row r="406" spans="2:9" s="33" customFormat="1">
+      <c r="B406" s="35"/>
+      <c r="I406" s="35"/>
+    </row>
+    <row r="407" spans="2:9" s="33" customFormat="1">
+      <c r="B407" s="35"/>
+      <c r="I407" s="35"/>
+    </row>
+    <row r="408" spans="2:9" s="33" customFormat="1">
+      <c r="B408" s="35"/>
+      <c r="I408" s="35"/>
+    </row>
+    <row r="409" spans="2:9" s="33" customFormat="1">
+      <c r="B409" s="35"/>
+      <c r="I409" s="35"/>
+    </row>
+    <row r="410" spans="2:9" s="33" customFormat="1">
+      <c r="B410" s="35"/>
+      <c r="I410" s="35"/>
+    </row>
+    <row r="411" spans="2:9" s="33" customFormat="1">
+      <c r="B411" s="35"/>
+      <c r="I411" s="35"/>
+    </row>
+    <row r="412" spans="2:9" s="33" customFormat="1">
+      <c r="B412" s="35"/>
+      <c r="I412" s="35"/>
+    </row>
+    <row r="413" spans="2:9" s="33" customFormat="1">
+      <c r="B413" s="35"/>
+      <c r="I413" s="35"/>
+    </row>
+    <row r="414" spans="2:9" s="33" customFormat="1">
+      <c r="B414" s="35"/>
+      <c r="I414" s="35"/>
+    </row>
+    <row r="415" spans="2:9" s="33" customFormat="1">
+      <c r="B415" s="35"/>
+      <c r="I415" s="35"/>
+    </row>
+    <row r="416" spans="2:9" s="33" customFormat="1">
+      <c r="B416" s="35"/>
+      <c r="I416" s="35"/>
+    </row>
+    <row r="417" spans="2:10" s="33" customFormat="1">
+      <c r="B417" s="35"/>
+      <c r="I417" s="35"/>
+    </row>
+    <row r="418" spans="2:10" s="33" customFormat="1">
+      <c r="B418" s="35"/>
+      <c r="I418" s="35"/>
     </row>
     <row r="419" spans="2:10">
-      <c r="B419" s="19"/>
-      <c r="C419" s="18"/>
-      <c r="D419" s="18"/>
-      <c r="E419" s="18"/>
-      <c r="F419" s="18"/>
-      <c r="G419" s="18"/>
-      <c r="H419" s="18"/>
-      <c r="I419" s="18"/>
-      <c r="J419" s="18"/>
+      <c r="B419" s="35"/>
+      <c r="C419" s="33"/>
+      <c r="D419" s="33"/>
+      <c r="E419" s="33"/>
+      <c r="F419" s="33"/>
+      <c r="G419" s="33"/>
+      <c r="H419" s="33"/>
+      <c r="I419" s="35"/>
+      <c r="J419" s="33"/>
     </row>
     <row r="420" spans="2:10">
-      <c r="B420" s="19"/>
-      <c r="C420" s="18"/>
-      <c r="D420" s="18"/>
-      <c r="E420" s="18"/>
-      <c r="F420" s="18"/>
-      <c r="G420" s="18"/>
-      <c r="H420" s="18"/>
-      <c r="I420" s="18"/>
-      <c r="J420" s="18"/>
+      <c r="B420" s="35"/>
+      <c r="C420" s="33"/>
+      <c r="D420" s="33"/>
+      <c r="E420" s="33"/>
+      <c r="F420" s="33"/>
+      <c r="G420" s="33"/>
+      <c r="H420" s="33"/>
+      <c r="I420" s="35"/>
+      <c r="J420" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I77">
+      <formula1>'cuentas de e-mail'!$B$10:$B$11</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K77">
+      <formula1>'cuentas de e-mail'!$C$10:$C$11</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
@@ -10738,10 +11247,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C4"/>
+  <dimension ref="A2:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B10" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -10749,7 +11258,7 @@
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>197</v>
       </c>
@@ -10757,7 +11266,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
         <v>195</v>
       </c>
@@ -10765,12 +11274,33 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>199</v>
       </c>
       <c r="C4" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>387</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Casos de Prueba GSIAM.xlsx
+++ b/doc/Casos de Prueba GSIAM.xlsx
@@ -13,7 +13,7 @@
     <sheet name="cuentas de e-mail" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Casos de Prueba - dd-mm-yyyy'!$A$2:$K$420</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Casos de Prueba - dd-mm-yyyy'!$A$2:$K$421</definedName>
     <definedName name="acciones">#REF!</definedName>
     <definedName name="Clasificacion">#REF!</definedName>
     <definedName name="ClasificacionRiesgos">#REF!</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="427">
   <si>
     <t>Alcance</t>
   </si>
@@ -1830,30 +1830,6 @@
       </rPr>
       <t xml:space="preserve"> (vacio)
 NOTA: La prueba se deberá ejecutar combinando todas estas opciones.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">nombre: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pedro Lopez Gomez Gonzales Gutiérrez</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-e-mail: gsiam.test12345678901@gmail.com
-contraseña: 12345678901234567890123</t>
     </r>
   </si>
   <si>
@@ -2734,9 +2710,6 @@
     <t>Se publica con datos correctos. La foto la debe sacar de la galería de imágenes del teléfono.</t>
   </si>
   <si>
-    <t>El sistema no esta validando esto, solo valida el formato del mail. No se controla si los campos van vacios</t>
-  </si>
-  <si>
     <t>No se esta controlando los tamaños de ambos campos.</t>
   </si>
   <si>
@@ -2761,32 +2734,178 @@
     <t>El avatar por defecto se ve mal.. Hay que cambiarlo por otro.</t>
   </si>
   <si>
-    <t>La confirmacion no sale</t>
-  </si>
-  <si>
-    <t>Cuando elijo que quiero cerrar mi cuenta vuelve a salir el mismo popup, no me deja seleccionar la opcion si.</t>
-  </si>
-  <si>
-    <t>se podria actualizar las solicitudes….</t>
-  </si>
-  <si>
     <t>Cambiar los botones aceptar y cancelar a si o no</t>
   </si>
   <si>
-    <t>actualizar la lista de amigos en al momento de confirmarla… ver que pasa si tengo al amigo en al lista de busqueda del CU 5</t>
-  </si>
-  <si>
     <t>mismo error q los anteriores</t>
   </si>
   <si>
-    <t>Falta probar bien el tema de las distancias.. Si es q estan correctas.</t>
-  </si>
-  <si>
-    <t>no funciona esta validacion</t>
-  </si>
-  <si>
-    <t>Ordenar amigos por orden alfabetico..
-Si no se selecciona un amigo no manda mensaje ,,,</t>
+    <t>Cuando elijo que quiero cerrar mi cuenta vuelve a salir el mismo popup, no me deja seleccionar la opción si.</t>
+  </si>
+  <si>
+    <t>actualizar la lista de amigos en al momento de confirmarla… ver que pasa si tengo al amigo en al lista de búsqueda del CU 5</t>
+  </si>
+  <si>
+    <t>no funciona esta validación</t>
+  </si>
+  <si>
+    <t>El sistema no esta validando esto, solo valida el formato del mail. No se controla si los campos van vacios. Si la contraseña va vacía sale un error no amigable</t>
+  </si>
+  <si>
+    <t>La confirmación no sale</t>
+  </si>
+  <si>
+    <t>CP02-06</t>
+  </si>
+  <si>
+    <t>Usuario inactivo</t>
+  </si>
+  <si>
+    <t>Tener un usuario inactivo</t>
+  </si>
+  <si>
+    <t>Se intenta crear un usuario con un mail de un usuario inactivo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">e-mail: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>mail de un usaurio inactivo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nombre: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pedro Lopez Gomez Gonzales Gutiérrez</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+e-mail: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>gsiam.test12345678901@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+contraseña: 12345678901234567890123</t>
+    </r>
+  </si>
+  <si>
+    <t>El sistema permite el ingreso de mail de usuarios inactivos.</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que el e-mail esta inhabilitado</t>
+  </si>
+  <si>
+    <t>Al enviar la solicitud, se deberian actualizar las solicitudes de la pestaña de sol.</t>
+  </si>
+  <si>
+    <t>*Selecciono compartir, la posicion es enviada al serv idor, pero cuando cierro sesion y entro a la aplicación con otro usuario sale un error relacionado al servicio de actualizar posicion.
+* Entro con un usuario pongo q comparta ubicación, despues entro con otro usuario que tiene setaado no compartir ubicacion y muestra que si tiene para compartir.</t>
+  </si>
+  <si>
+    <t>Redondear los kilometros, queda muy largo el numero.</t>
+  </si>
+  <si>
+    <t>Se cae la aplicación</t>
+  </si>
+  <si>
+    <t>* en los sitios no se ve el promedio de los puntajes
+* el sistema no trae exactamente todos los sitios en 1km a la redonda. Hay 2 sitios uno a 1046 metros y el otro a 1069. El sistema muestra el de 1069 y no el menor. Las distancias se sacaron usando el busqueda a la base de datos de la aplicacion.</t>
+  </si>
+  <si>
+    <t>Filtrar por ranking no se ve bien, se cortan las opciones</t>
+  </si>
+  <si>
+    <t>en el actualizar del buscar sitio si esta el gps apagado no muestra error y queda colgado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+error en le scroll al crear sitio.. no me deja mover el mapa para arriba o abajo…</t>
+  </si>
+  <si>
+    <t>El campo nombre solo deja ingresar 20 no 30.
+El comportamiento del campo pag web deberia ser igual al de la direccion, se debe ver todo el texto en la pantalla.</t>
+  </si>
+  <si>
+    <t>No valida los datos vacios en ningun campo</t>
+  </si>
+  <si>
+    <t>No valida los tamaños de los datos en ningun campo</t>
+  </si>
+  <si>
+    <t>No se ve la categoria ni la ubicación en el mapa.</t>
+  </si>
+  <si>
+    <t>No se muestra confirmacion para el modificar.</t>
+  </si>
+  <si>
+    <t>No se muestra confirmacion para el eliminar</t>
+  </si>
+  <si>
+    <t>Identificar en le mapa cual es el sitio y cual es el usuario al igual que en el radar, con un popup al seleccionar el objeto indica que es.</t>
+  </si>
+  <si>
+    <t>No se actualizan los datos del sitio al actualizar.</t>
+  </si>
+  <si>
+    <t>cuando se buscan sitios por el nombre el mensaje cuando no encuentra esta mal… dice sitios cercanos a su ubicación</t>
+  </si>
+  <si>
+    <t>No se esta guardando el promedio del sitio, el campo en al base de la tabla sitio esta vacio.</t>
+  </si>
+  <si>
+    <t>* Las fechas estas desalineadas, deberian ir todas a la derecha.
+* La ultima letra del nombre no se ve completa</t>
+  </si>
+  <si>
+    <t>se deberia poner igual que el crear sitio…</t>
+  </si>
+  <si>
+    <t>No se esta validanto el tamaño.</t>
+  </si>
+  <si>
+    <t>No funciona el actualizar</t>
+  </si>
+  <si>
+    <t>* Ordenar amigos por orden alfabético..
+* Si no selecciono ningun amigo y le doy invitar no me muestra mensaje de error.
+* Cuando es envia la solicitud el mensaje dice: se envio la solicitud.. Debe decir invitacion
+* si selecciono que no recuerde la contraseña nunca, cuando vuelvo a entrar no me pide logion de nuevo, ni me da la opcion a cerrar sesion.</t>
+  </si>
+  <si>
+    <t>*Si no señlecciono foto publica una camara de fotos..
+* si selecciono que no recuerde la contraseña nunca, cuando vuelvo a entrar no me pide logion de nuevo, ni me da la opcion a cerrar sesion.</t>
   </si>
 </sst>
 </file>
@@ -2877,7 +2996,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2911,12 +3030,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3057,7 +3170,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3124,21 +3237,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3160,8 +3258,20 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3583,31 +3693,31 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="36">
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
       <c r="M12" s="14"/>
     </row>
     <row r="13" spans="1:13" ht="12" customHeight="1">
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
       <c r="M13" s="14"/>
     </row>
     <row r="14" spans="1:13" ht="12" customHeight="1">
@@ -3624,20 +3734,20 @@
       <c r="M14" s="14"/>
     </row>
     <row r="15" spans="1:13" ht="23.25">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
     </row>
     <row r="16" spans="1:13"/>
     <row r="17" spans="6:9"/>
@@ -3645,12 +3755,12 @@
     <row r="19" spans="6:9"/>
     <row r="20" spans="6:9"/>
     <row r="21" spans="6:9">
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
     </row>
     <row r="22" spans="6:9"/>
     <row r="23" spans="6:9"/>
@@ -7658,39 +7768,39 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A2:K420"/>
+  <dimension ref="A2:K421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52:H52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="29" customWidth="1"/>
-    <col min="4" max="4" width="9" style="29" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="29" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" style="29" customWidth="1"/>
-    <col min="8" max="8" width="34.5703125" style="29" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="29" customWidth="1"/>
-    <col min="11" max="11" width="27.42578125" style="29" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="29"/>
+    <col min="1" max="1" width="1.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9" style="24" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="26" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" style="24" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" style="24" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="24"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18" customHeight="1">
       <c r="B2" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-    </row>
-    <row r="3" spans="1:11" s="31" customFormat="1" ht="37.5">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:11" s="26" customFormat="1" ht="37.5">
       <c r="B3" s="20" t="s">
         <v>34</v>
       </c>
@@ -7723,7 +7833,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="63.75">
-      <c r="A4" s="32"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="16" t="s">
         <v>57</v>
       </c>
@@ -7746,7 +7856,7 @@
         <v>54</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J4" s="19"/>
       <c r="K4" s="17" t="s">
@@ -7754,7 +7864,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="38.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="16" t="s">
         <v>57</v>
       </c>
@@ -7775,7 +7885,7 @@
         <v>50</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="17" t="s">
@@ -7783,7 +7893,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="38.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="16" t="s">
         <v>57</v>
       </c>
@@ -7806,15 +7916,15 @@
         <v>50</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" ht="63.75">
-      <c r="A7" s="32"/>
+    <row r="7" spans="1:11" s="28" customFormat="1" ht="89.25">
+      <c r="A7" s="27"/>
       <c r="B7" s="16" t="s">
         <v>57</v>
       </c>
@@ -7835,17 +7945,17 @@
         <v>51</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="K7" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1" ht="25.5">
-      <c r="A8" s="32"/>
+    <row r="8" spans="1:11" s="28" customFormat="1" ht="25.5">
+      <c r="A8" s="27"/>
       <c r="B8" s="16" t="s">
         <v>57</v>
       </c>
@@ -7866,16 +7976,18 @@
         <v>64</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="51">
-      <c r="A9" s="32"/>
-      <c r="B9" s="16"/>
+    <row r="9" spans="1:11" s="28" customFormat="1" ht="51">
+      <c r="A9" s="27"/>
+      <c r="B9" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="C9" s="19" t="s">
         <v>58</v>
       </c>
@@ -7893,17 +8005,17 @@
         <v>296</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="38.25">
-      <c r="A10" s="32"/>
+    <row r="10" spans="1:11" s="28" customFormat="1" ht="38.25">
+      <c r="A10" s="27"/>
       <c r="B10" s="18" t="s">
         <v>71</v>
       </c>
@@ -7924,15 +8036,15 @@
         <v>298</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" ht="63.75">
-      <c r="A11" s="32"/>
+    <row r="11" spans="1:11" s="28" customFormat="1" ht="63.75">
+      <c r="A11" s="27"/>
       <c r="B11" s="18" t="s">
         <v>71</v>
       </c>
@@ -7953,15 +8065,15 @@
         <v>51</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" ht="38.25">
-      <c r="A12" s="32"/>
+    <row r="12" spans="1:11" s="28" customFormat="1" ht="38.25">
+      <c r="A12" s="27"/>
       <c r="B12" s="18" t="s">
         <v>71</v>
       </c>
@@ -7982,13 +8094,13 @@
         <v>64</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="38.25">
-      <c r="A13" s="32"/>
+    <row r="13" spans="1:11" s="28" customFormat="1" ht="38.25">
+      <c r="A13" s="27"/>
       <c r="B13" s="18" t="s">
         <v>71</v>
       </c>
@@ -8009,13 +8121,13 @@
         <v>65</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" ht="76.5">
-      <c r="A14" s="32"/>
+    <row r="14" spans="1:11" s="28" customFormat="1" ht="76.5">
+      <c r="A14" s="27"/>
       <c r="B14" s="18" t="s">
         <v>71</v>
       </c>
@@ -8030,473 +8142,476 @@
         <v>66</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H14" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="1:11" s="28" customFormat="1" ht="38.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="1:11" s="28" customFormat="1" ht="38.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="G16" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="J16" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="J14" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="K14" s="17"/>
-    </row>
-    <row r="15" spans="1:11" s="33" customFormat="1" ht="38.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="K15" s="17"/>
-    </row>
-    <row r="16" spans="1:11" s="33" customFormat="1" ht="89.25">
-      <c r="B16" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="J16" s="19"/>
       <c r="K16" s="17"/>
     </row>
-    <row r="17" spans="2:11" s="33" customFormat="1" ht="76.5">
+    <row r="17" spans="2:11" s="28" customFormat="1" ht="89.25">
       <c r="B17" s="18" t="s">
         <v>88</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="19"/>
+        <v>89</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>303</v>
+      </c>
       <c r="F17" s="19" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="17"/>
     </row>
-    <row r="18" spans="2:11" s="33" customFormat="1" ht="38.25">
+    <row r="18" spans="2:11" s="28" customFormat="1" ht="89.25">
       <c r="B18" s="18" t="s">
         <v>88</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>99</v>
+        <v>309</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>390</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="J18" s="19"/>
       <c r="K18" s="17"/>
     </row>
-    <row r="19" spans="2:11" s="33" customFormat="1" ht="76.5">
+    <row r="19" spans="2:11" s="28" customFormat="1" ht="51">
       <c r="B19" s="18" t="s">
         <v>88</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>44</v>
+        <v>310</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19" t="s">
-        <v>47</v>
+        <v>311</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>314</v>
+        <v>99</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>51</v>
+        <v>312</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="K19" s="17"/>
     </row>
-    <row r="20" spans="2:11" s="33" customFormat="1" ht="51">
+    <row r="20" spans="2:11" s="28" customFormat="1" ht="76.5">
       <c r="B20" s="18" t="s">
         <v>88</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19" t="s">
-        <v>295</v>
+        <v>47</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>82</v>
+        <v>313</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="I20" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="J20" s="19" t="s">
         <v>386</v>
       </c>
-      <c r="J20" s="19"/>
       <c r="K20" s="17"/>
     </row>
-    <row r="21" spans="2:11" s="33" customFormat="1" ht="51">
+    <row r="21" spans="2:11" s="28" customFormat="1" ht="51">
       <c r="B21" s="18" t="s">
         <v>88</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="19" t="s">
-        <v>101</v>
+        <v>295</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J21" s="19"/>
       <c r="K21" s="17"/>
     </row>
-    <row r="22" spans="2:11" s="33" customFormat="1" ht="89.25">
+    <row r="22" spans="2:11" s="28" customFormat="1" ht="51">
       <c r="B22" s="18" t="s">
         <v>88</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="22"/>
+        <v>94</v>
+      </c>
+      <c r="E22" s="19"/>
       <c r="F22" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>315</v>
+        <v>101</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>301</v>
+        <v>100</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="J22" s="19" t="s">
         <v>384</v>
       </c>
+      <c r="J22" s="19"/>
       <c r="K22" s="17"/>
     </row>
-    <row r="23" spans="2:11" s="33" customFormat="1" ht="63.75">
+    <row r="23" spans="2:11" s="28" customFormat="1" ht="89.25">
       <c r="B23" s="18" t="s">
         <v>88</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="E23" s="22"/>
       <c r="F23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>107</v>
+        <v>66</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>314</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>109</v>
+        <v>300</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="K23" s="17"/>
     </row>
-    <row r="24" spans="2:11" s="33" customFormat="1" ht="38.25">
+    <row r="24" spans="2:11" s="28" customFormat="1" ht="63.75">
       <c r="B24" s="18" t="s">
         <v>88</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>316</v>
+        <v>103</v>
       </c>
       <c r="D24" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="B25" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="D25" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="G24" s="19" t="s">
+      <c r="E25" s="22"/>
+      <c r="F25" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="G25" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H25" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="I24" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="J24" s="19"/>
-      <c r="K24" s="17"/>
-    </row>
-    <row r="25" spans="2:11" s="33" customFormat="1" ht="76.5">
-      <c r="B25" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>125</v>
-      </c>
       <c r="I25" s="16" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J25" s="19"/>
       <c r="K25" s="17"/>
     </row>
-    <row r="26" spans="2:11" s="33" customFormat="1" ht="63.75">
+    <row r="26" spans="2:11" s="28" customFormat="1" ht="76.5">
       <c r="B26" s="18" t="s">
         <v>111</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>319</v>
+        <v>124</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>320</v>
+        <v>125</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J26" s="19"/>
       <c r="K26" s="17"/>
     </row>
-    <row r="27" spans="2:11" s="33" customFormat="1" ht="63.75">
+    <row r="27" spans="2:11" s="28" customFormat="1" ht="63.75">
       <c r="B27" s="18" t="s">
         <v>111</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>127</v>
+        <v>318</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>322</v>
+        <v>122</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>128</v>
+        <v>319</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J27" s="19"/>
       <c r="K27" s="17"/>
     </row>
-    <row r="28" spans="2:11" s="33" customFormat="1" ht="25.5">
+    <row r="28" spans="2:11" s="28" customFormat="1" ht="63.75">
       <c r="B28" s="18" t="s">
         <v>111</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>44</v>
+        <v>320</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>127</v>
+      </c>
       <c r="F28" s="19" t="s">
-        <v>323</v>
+        <v>119</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>120</v>
+        <v>321</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J28" s="19"/>
       <c r="K28" s="17"/>
     </row>
-    <row r="29" spans="2:11" s="33" customFormat="1" ht="38.25">
+    <row r="29" spans="2:11" s="28" customFormat="1" ht="25.5">
       <c r="B29" s="18" t="s">
         <v>111</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="19" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J29" s="19"/>
       <c r="K29" s="17"/>
     </row>
-    <row r="30" spans="2:11" s="33" customFormat="1" ht="38.25">
+    <row r="30" spans="2:11" s="28" customFormat="1" ht="38.25">
       <c r="B30" s="18" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>133</v>
+        <v>323</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>135</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E30" s="19"/>
       <c r="F30" s="19" t="s">
-        <v>137</v>
+        <v>324</v>
       </c>
       <c r="G30" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J30" s="19"/>
       <c r="K30" s="17"/>
     </row>
-    <row r="31" spans="2:11" s="33" customFormat="1" ht="38.25">
+    <row r="31" spans="2:11" s="28" customFormat="1" ht="38.25">
       <c r="B31" s="18" t="s">
         <v>129</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G31" s="19" t="s">
         <v>99</v>
@@ -8505,2598 +8620,2732 @@
         <v>139</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J31" s="19"/>
       <c r="K31" s="17"/>
     </row>
-    <row r="32" spans="2:11" s="33" customFormat="1" ht="51">
+    <row r="32" spans="2:11" s="28" customFormat="1" ht="38.25">
       <c r="B32" s="18" t="s">
         <v>129</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>326</v>
+        <v>134</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G32" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J32" s="19"/>
       <c r="K32" s="17"/>
     </row>
-    <row r="33" spans="2:11" s="33" customFormat="1" ht="89.25">
+    <row r="33" spans="2:11" s="28" customFormat="1" ht="51">
       <c r="B33" s="18" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>148</v>
+        <v>325</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>327</v>
+        <v>141</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="J33" s="36" t="s">
-        <v>392</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="J33" s="19"/>
       <c r="K33" s="17"/>
     </row>
-    <row r="34" spans="2:11" s="33" customFormat="1" ht="38.25">
+    <row r="34" spans="2:11" s="28" customFormat="1" ht="89.25">
       <c r="B34" s="18" t="s">
         <v>144</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>328</v>
+        <v>150</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="J34" s="19"/>
+        <v>385</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>403</v>
+      </c>
       <c r="K34" s="17"/>
     </row>
-    <row r="35" spans="2:11" s="33" customFormat="1" ht="38.25">
+    <row r="35" spans="2:11" s="28" customFormat="1" ht="38.25">
       <c r="B35" s="18" t="s">
         <v>144</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>330</v>
+        <v>149</v>
       </c>
       <c r="D35" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J35" s="19"/>
+      <c r="K35" s="17"/>
+    </row>
+    <row r="36" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="B36" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D36" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="I35" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="J35" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="K35" s="17"/>
-    </row>
-    <row r="36" spans="2:11" s="33" customFormat="1" ht="63.75">
-      <c r="B36" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>332</v>
-      </c>
+      <c r="E36" s="19"/>
       <c r="F36" s="19" t="s">
-        <v>162</v>
+        <v>311</v>
       </c>
       <c r="G36" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="J36" s="36" t="s">
-        <v>394</v>
+        <v>384</v>
+      </c>
+      <c r="J36" s="19" t="s">
+        <v>388</v>
       </c>
       <c r="K36" s="17"/>
     </row>
-    <row r="37" spans="2:11" s="33" customFormat="1" ht="63.75">
+    <row r="37" spans="2:11" s="28" customFormat="1" ht="63.75">
       <c r="B37" s="18" t="s">
         <v>154</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G37" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>164</v>
+        <v>332</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="J37" s="36" t="s">
-        <v>394</v>
+        <v>385</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>391</v>
       </c>
       <c r="K37" s="17"/>
     </row>
-    <row r="38" spans="2:11" s="33" customFormat="1" ht="63.75">
+    <row r="38" spans="2:11" s="28" customFormat="1" ht="63.75">
       <c r="B38" s="18" t="s">
         <v>154</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G38" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="J38" s="36" t="s">
-        <v>395</v>
+        <v>385</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>391</v>
       </c>
       <c r="K38" s="17"/>
     </row>
-    <row r="39" spans="2:11" s="33" customFormat="1" ht="38.25">
+    <row r="39" spans="2:11" s="28" customFormat="1" ht="63.75">
       <c r="B39" s="18" t="s">
         <v>154</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>335</v>
+        <v>161</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="E39" s="19"/>
+        <v>157</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>331</v>
+      </c>
       <c r="F39" s="19" t="s">
-        <v>312</v>
+        <v>165</v>
       </c>
       <c r="G39" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>336</v>
+        <v>166</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="J39" s="19"/>
+        <v>385</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>389</v>
+      </c>
       <c r="K39" s="17"/>
     </row>
-    <row r="40" spans="2:11" s="33" customFormat="1" ht="38.25">
+    <row r="40" spans="2:11" s="28" customFormat="1" ht="51">
       <c r="B40" s="18" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>170</v>
+        <v>334</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E40" s="19"/>
       <c r="F40" s="19" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="G40" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J40" s="19"/>
       <c r="K40" s="17"/>
     </row>
-    <row r="41" spans="2:11" s="33" customFormat="1" ht="51">
+    <row r="41" spans="2:11" s="28" customFormat="1" ht="38.25">
       <c r="B41" s="18" t="s">
         <v>167</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>172</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="E41" s="19"/>
       <c r="F41" s="19" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G41" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J41" s="19"/>
       <c r="K41" s="17"/>
     </row>
-    <row r="42" spans="2:11" s="33" customFormat="1" ht="63.75">
+    <row r="42" spans="2:11" s="28" customFormat="1" ht="63.75">
       <c r="B42" s="18" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>341</v>
+        <v>172</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>179</v>
+        <v>338</v>
       </c>
       <c r="G42" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="I42" s="16"/>
-      <c r="J42" s="19" t="s">
-        <v>396</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J42" s="19"/>
       <c r="K42" s="17"/>
     </row>
-    <row r="43" spans="2:11" s="33" customFormat="1" ht="25.5">
+    <row r="43" spans="2:11" s="28" customFormat="1" ht="63.75">
       <c r="B43" s="18" t="s">
         <v>173</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>178</v>
+        <v>340</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>342</v>
+        <v>179</v>
       </c>
       <c r="G43" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>343</v>
+        <v>180</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="J43" s="19"/>
+        <v>385</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>405</v>
+      </c>
       <c r="K43" s="17"/>
     </row>
-    <row r="44" spans="2:11" s="33" customFormat="1" ht="25.5">
+    <row r="44" spans="2:11" s="28" customFormat="1" ht="38.25">
       <c r="B44" s="18" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="E44" s="19"/>
+        <v>175</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>178</v>
+      </c>
       <c r="F44" s="19" t="s">
-        <v>187</v>
+        <v>341</v>
       </c>
       <c r="G44" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="I44" s="16"/>
+        <v>342</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>384</v>
+      </c>
       <c r="J44" s="19"/>
       <c r="K44" s="17"/>
     </row>
-    <row r="45" spans="2:11" s="33" customFormat="1" ht="25.5">
+    <row r="45" spans="2:11" s="28" customFormat="1" ht="191.25">
       <c r="B45" s="18" t="s">
         <v>181</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E45" s="19"/>
       <c r="F45" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G45" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H45" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="I45" s="16"/>
-      <c r="J45" s="19"/>
+        <v>343</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="J45" s="19" t="s">
+        <v>404</v>
+      </c>
       <c r="K45" s="17"/>
     </row>
-    <row r="46" spans="2:11" s="33" customFormat="1" ht="25.5">
+    <row r="46" spans="2:11" s="28" customFormat="1" ht="38.25">
       <c r="B46" s="18" t="s">
         <v>181</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>178</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="E46" s="19"/>
       <c r="F46" s="19" t="s">
-        <v>346</v>
+        <v>188</v>
       </c>
       <c r="G46" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="I46" s="16"/>
+        <v>344</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>384</v>
+      </c>
       <c r="J46" s="19"/>
       <c r="K46" s="17"/>
     </row>
-    <row r="47" spans="2:11" s="33" customFormat="1" ht="25.5">
+    <row r="47" spans="2:11" s="28" customFormat="1" ht="38.25">
       <c r="B47" s="18" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>347</v>
+        <v>177</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="E47" s="19"/>
+        <v>184</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>178</v>
+      </c>
       <c r="F47" s="19" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>194</v>
+        <v>99</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="J47" s="19"/>
+        <v>385</v>
+      </c>
+      <c r="J47" s="19" t="s">
+        <v>406</v>
+      </c>
       <c r="K47" s="17"/>
     </row>
-    <row r="48" spans="2:11" s="33" customFormat="1" ht="63.75">
+    <row r="48" spans="2:11" s="28" customFormat="1" ht="25.5">
       <c r="B48" s="18" t="s">
         <v>189</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="19" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>352</v>
+        <v>194</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="I48" s="16"/>
-      <c r="J48" s="19" t="s">
-        <v>398</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J48" s="19"/>
       <c r="K48" s="17"/>
     </row>
-    <row r="49" spans="2:11" s="33" customFormat="1" ht="25.5">
+    <row r="49" spans="2:11" s="28" customFormat="1" ht="204">
       <c r="B49" s="18" t="s">
         <v>189</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>68</v>
+        <v>349</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E49" s="19"/>
-      <c r="F49" s="17" t="s">
-        <v>295</v>
+      <c r="F49" s="19" t="s">
+        <v>350</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H49" s="17" t="s">
-        <v>64</v>
+        <v>351</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>352</v>
       </c>
       <c r="I49" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="J49" s="19"/>
+        <v>385</v>
+      </c>
+      <c r="J49" s="19" t="s">
+        <v>425</v>
+      </c>
       <c r="K49" s="17"/>
     </row>
-    <row r="50" spans="2:11" s="33" customFormat="1" ht="25.5">
+    <row r="50" spans="2:11" s="28" customFormat="1" ht="25.5">
       <c r="B50" s="18" t="s">
         <v>189</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J50" s="19"/>
+      <c r="K50" s="17"/>
+    </row>
+    <row r="51" spans="2:11" s="28" customFormat="1" ht="25.5">
+      <c r="B51" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="E51" s="19"/>
+      <c r="F51" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="G50" s="19" t="s">
+      <c r="G51" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="H50" s="17" t="s">
+      <c r="H51" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="I50" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="J50" s="19" t="s">
-        <v>397</v>
-      </c>
-      <c r="K50" s="17"/>
-    </row>
-    <row r="51" spans="2:11" s="33" customFormat="1" ht="51">
-      <c r="B51" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H51" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="I51" s="16"/>
-      <c r="J51" s="19"/>
+      <c r="I51" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="J51" s="19" t="s">
+        <v>392</v>
+      </c>
       <c r="K51" s="17"/>
     </row>
-    <row r="52" spans="2:11" s="33" customFormat="1" ht="76.5">
+    <row r="52" spans="2:11" s="28" customFormat="1" ht="165.75">
       <c r="B52" s="18" t="s">
         <v>203</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>253</v>
+        <v>353</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>356</v>
+        <v>99</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="I52" s="16"/>
-      <c r="J52" s="19"/>
+        <v>354</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="J52" s="19" t="s">
+        <v>407</v>
+      </c>
       <c r="K52" s="17"/>
     </row>
-    <row r="53" spans="2:11" s="33" customFormat="1" ht="51">
+    <row r="53" spans="2:11" s="28" customFormat="1" ht="76.5">
       <c r="B53" s="18" t="s">
         <v>203</v>
       </c>
       <c r="C53" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="H53" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="J53" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="K53" s="17"/>
+    </row>
+    <row r="54" spans="2:11" s="28" customFormat="1" ht="63.75">
+      <c r="B54" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C54" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D54" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E54" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="F53" s="19" t="s">
+      <c r="F54" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="G53" s="19" t="s">
+      <c r="G54" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="H53" s="17" t="s">
+      <c r="H54" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="I53" s="16"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="17"/>
-    </row>
-    <row r="54" spans="2:11" s="34" customFormat="1" ht="51">
-      <c r="B54" s="16" t="s">
+      <c r="I54" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="J54" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="K54" s="17"/>
+    </row>
+    <row r="55" spans="2:11" s="29" customFormat="1" ht="51">
+      <c r="B55" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C55" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D55" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E54" s="17" t="s">
+      <c r="E55" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="F54" s="17" t="s">
+      <c r="F55" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H55" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="G54" s="17" t="s">
+      <c r="I55" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J55" s="16"/>
+      <c r="K55" s="17"/>
+    </row>
+    <row r="56" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="B56" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="G56" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H54" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="17"/>
-    </row>
-    <row r="55" spans="2:11" s="33" customFormat="1" ht="25.5">
-      <c r="B55" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="F55" s="19" t="s">
+      <c r="H56" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="G55" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H55" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="I55" s="16"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="17"/>
-    </row>
-    <row r="56" spans="2:11" s="33" customFormat="1" ht="140.25">
-      <c r="B56" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="G56" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="H56" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="I56" s="16"/>
-      <c r="J56" s="18"/>
+      <c r="I56" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="J56" s="18" t="s">
+        <v>409</v>
+      </c>
       <c r="K56" s="17"/>
     </row>
-    <row r="57" spans="2:11" s="33" customFormat="1" ht="140.25">
+    <row r="57" spans="2:11" s="28" customFormat="1" ht="140.25">
       <c r="B57" s="18" t="s">
         <v>209</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>44</v>
+        <v>358</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E57" s="19"/>
       <c r="F57" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G57" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="H57" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I57" s="16"/>
-      <c r="J57" s="18"/>
+        <v>213</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="J57" s="18" t="s">
+        <v>410</v>
+      </c>
       <c r="K57" s="17"/>
     </row>
-    <row r="58" spans="2:11" s="33" customFormat="1" ht="127.5">
+    <row r="58" spans="2:11" s="28" customFormat="1" ht="140.25">
       <c r="B58" s="18" t="s">
         <v>209</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E58" s="19"/>
       <c r="F58" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="G58" s="22" t="s">
-        <v>362</v>
+        <v>47</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>360</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="I58" s="16"/>
+        <v>51</v>
+      </c>
+      <c r="I58" s="16" t="s">
+        <v>384</v>
+      </c>
       <c r="J58" s="18"/>
       <c r="K58" s="17"/>
     </row>
-    <row r="59" spans="2:11" s="33" customFormat="1" ht="140.25">
+    <row r="59" spans="2:11" s="28" customFormat="1" ht="140.25">
       <c r="B59" s="18" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>364</v>
+        <v>58</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>224</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="E59" s="19"/>
       <c r="F59" s="19" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="G59" s="22" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="I59" s="16"/>
-      <c r="J59" s="18"/>
+        <v>362</v>
+      </c>
+      <c r="I59" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="J59" s="18" t="s">
+        <v>411</v>
+      </c>
       <c r="K59" s="17"/>
     </row>
-    <row r="60" spans="2:11" s="33" customFormat="1" ht="140.25">
+    <row r="60" spans="2:11" s="28" customFormat="1" ht="140.25">
       <c r="B60" s="18" t="s">
         <v>216</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>44</v>
+        <v>363</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="E60" s="19"/>
-      <c r="F60" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G60" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="H60" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I60" s="16"/>
-      <c r="J60" s="18"/>
+        <v>217</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="F60" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="G60" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="H60" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="I60" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="J60" s="18" t="s">
+        <v>414</v>
+      </c>
       <c r="K60" s="17"/>
     </row>
-    <row r="61" spans="2:11" s="33" customFormat="1" ht="127.5">
+    <row r="61" spans="2:11" s="28" customFormat="1" ht="140.25">
       <c r="B61" s="18" t="s">
         <v>216</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E61" s="19"/>
-      <c r="F61" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="G61" s="22" t="s">
-        <v>362</v>
-      </c>
-      <c r="H61" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="I61" s="16"/>
-      <c r="J61" s="18"/>
+      <c r="F61" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="H61" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="J61" s="18" t="s">
+        <v>412</v>
+      </c>
       <c r="K61" s="17"/>
     </row>
-    <row r="62" spans="2:11" s="33" customFormat="1" ht="63.75">
+    <row r="62" spans="2:11" s="28" customFormat="1" ht="140.25">
       <c r="B62" s="18" t="s">
         <v>216</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>367</v>
+        <v>58</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>226</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="E62" s="19"/>
       <c r="F62" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G62" s="19" t="s">
-        <v>99</v>
+        <v>215</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>361</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="I62" s="16"/>
-      <c r="J62" s="18"/>
+        <v>362</v>
+      </c>
+      <c r="I62" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="J62" s="18" t="s">
+        <v>413</v>
+      </c>
       <c r="K62" s="17"/>
     </row>
-    <row r="63" spans="2:11" s="33" customFormat="1" ht="51">
+    <row r="63" spans="2:11" s="28" customFormat="1" ht="63.75">
       <c r="B63" s="18" t="s">
         <v>216</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>231</v>
+        <v>367</v>
       </c>
       <c r="G63" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H63" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I63" s="16"/>
+        <v>227</v>
+      </c>
+      <c r="I63" s="16" t="s">
+        <v>384</v>
+      </c>
       <c r="J63" s="18"/>
       <c r="K63" s="17"/>
     </row>
-    <row r="64" spans="2:11" s="33" customFormat="1" ht="38.25">
+    <row r="64" spans="2:11" s="28" customFormat="1" ht="51">
       <c r="B64" s="18" t="s">
         <v>216</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="E64" s="19"/>
+        <v>221</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>230</v>
+      </c>
       <c r="F64" s="19" t="s">
-        <v>312</v>
+        <v>231</v>
       </c>
       <c r="G64" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="I64" s="16"/>
+        <v>369</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>384</v>
+      </c>
       <c r="J64" s="18"/>
       <c r="K64" s="17"/>
     </row>
-    <row r="65" spans="2:11" s="33" customFormat="1" ht="38.25">
+    <row r="65" spans="2:11" s="28" customFormat="1" ht="51">
       <c r="B65" s="18" t="s">
         <v>216</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E65" s="19"/>
       <c r="F65" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G65" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H65" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="I65" s="16"/>
-      <c r="J65" s="18"/>
+        <v>228</v>
+      </c>
+      <c r="I65" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="J65" s="18" t="s">
+        <v>415</v>
+      </c>
       <c r="K65" s="17"/>
     </row>
-    <row r="66" spans="2:11" s="33" customFormat="1" ht="25.5">
+    <row r="66" spans="2:11" s="28" customFormat="1" ht="51">
       <c r="B66" s="18" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>260</v>
+        <v>371</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="E66" s="19"/>
       <c r="F66" s="19" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="G66" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H66" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="I66" s="16"/>
-      <c r="J66" s="18"/>
+        <v>229</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="J66" s="18" t="s">
+        <v>416</v>
+      </c>
       <c r="K66" s="17"/>
     </row>
-    <row r="67" spans="2:11" s="33" customFormat="1" ht="25.5">
+    <row r="67" spans="2:11" s="28" customFormat="1" ht="25.5">
       <c r="B67" s="18" t="s">
         <v>236</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G67" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H67" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="I67" s="16"/>
+        <v>372</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>384</v>
+      </c>
       <c r="J67" s="18"/>
       <c r="K67" s="17"/>
     </row>
-    <row r="68" spans="2:11" s="33" customFormat="1" ht="38.25">
+    <row r="68" spans="2:11" s="28" customFormat="1" ht="76.5">
       <c r="B68" s="18" t="s">
         <v>236</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="E68" s="19" t="s">
-        <v>272</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="E68" s="19"/>
       <c r="F68" s="19" t="s">
-        <v>374</v>
+        <v>270</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>273</v>
+        <v>99</v>
       </c>
       <c r="H68" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="I68" s="16"/>
-      <c r="J68" s="18"/>
+        <v>271</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="J68" s="18" t="s">
+        <v>417</v>
+      </c>
       <c r="K68" s="17"/>
     </row>
-    <row r="69" spans="2:11" s="33" customFormat="1" ht="63.75">
+    <row r="69" spans="2:11" s="28" customFormat="1" ht="38.25">
       <c r="B69" s="18" t="s">
         <v>236</v>
       </c>
       <c r="C69" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="G69" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="H69" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="I69" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J69" s="18"/>
+      <c r="K69" s="17"/>
+    </row>
+    <row r="70" spans="2:11" s="28" customFormat="1" ht="76.5">
+      <c r="B70" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C70" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="D69" s="22" t="s">
+      <c r="D70" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E70" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G70" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H70" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="F69" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="G69" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H69" s="19" t="s">
-        <v>377</v>
-      </c>
-      <c r="I69" s="16"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="17"/>
-    </row>
-    <row r="70" spans="2:11" s="33" customFormat="1" ht="51">
-      <c r="B70" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="D70" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="E70" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="F70" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="G70" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H70" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="I70" s="16"/>
+      <c r="I70" s="16" t="s">
+        <v>384</v>
+      </c>
       <c r="J70" s="19"/>
       <c r="K70" s="17"/>
     </row>
-    <row r="71" spans="2:11" s="33" customFormat="1" ht="25.5">
-      <c r="B71" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="D71" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="G71" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="H71" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="I71" s="16"/>
-      <c r="J71" s="19"/>
+    <row r="71" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="B71" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H71" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="I71" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="J71" s="19" t="s">
+        <v>418</v>
+      </c>
       <c r="K71" s="17"/>
     </row>
-    <row r="72" spans="2:11" s="33" customFormat="1" ht="89.25">
+    <row r="72" spans="2:11" s="28" customFormat="1" ht="63.75">
       <c r="B72" s="18" t="s">
         <v>242</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="E72" s="19" t="s">
-        <v>304</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="E72" s="19"/>
       <c r="F72" s="19" t="s">
-        <v>380</v>
+        <v>275</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H72" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="I72" s="16"/>
-      <c r="J72" s="19"/>
+        <v>275</v>
+      </c>
+      <c r="I72" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="J72" s="19" t="s">
+        <v>421</v>
+      </c>
       <c r="K72" s="17"/>
     </row>
-    <row r="73" spans="2:11" s="33" customFormat="1" ht="89.25">
+    <row r="73" spans="2:11" s="28" customFormat="1" ht="89.25">
       <c r="B73" s="18" t="s">
         <v>242</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="E73" s="19"/>
+        <v>244</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>303</v>
+      </c>
       <c r="F73" s="19" t="s">
-        <v>284</v>
+        <v>379</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H73" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="I73" s="16"/>
-      <c r="J73" s="19"/>
+      <c r="I73" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="J73" s="19" t="s">
+        <v>420</v>
+      </c>
       <c r="K73" s="17"/>
     </row>
-    <row r="74" spans="2:11" s="33" customFormat="1" ht="89.25">
+    <row r="74" spans="2:11" s="28" customFormat="1" ht="89.25">
       <c r="B74" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="C74" s="33" t="s">
-        <v>266</v>
+      <c r="C74" s="19" t="s">
+        <v>283</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E74" s="19"/>
       <c r="F74" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H74" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I74" s="16"/>
+        <v>282</v>
+      </c>
+      <c r="I74" s="16" t="s">
+        <v>384</v>
+      </c>
       <c r="J74" s="19"/>
       <c r="K74" s="17"/>
     </row>
-    <row r="75" spans="2:11" s="33" customFormat="1" ht="63.75">
+    <row r="75" spans="2:11" s="28" customFormat="1" ht="114.75">
       <c r="B75" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="C75" s="19" t="s">
-        <v>44</v>
+      <c r="C75" s="28" t="s">
+        <v>266</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="E75" s="19"/>
       <c r="F75" s="19" t="s">
-        <v>47</v>
+        <v>286</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I75" s="16"/>
-      <c r="J75" s="19"/>
+        <v>288</v>
+      </c>
+      <c r="I75" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="J75" s="19" t="s">
+        <v>426</v>
+      </c>
       <c r="K75" s="17"/>
     </row>
-    <row r="76" spans="2:11" s="33" customFormat="1" ht="63.75">
+    <row r="76" spans="2:11" s="28" customFormat="1" ht="63.75">
       <c r="B76" s="18" t="s">
         <v>242</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E76" s="19"/>
       <c r="F76" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G76" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="H76" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I76" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J76" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="K76" s="17"/>
+    </row>
+    <row r="77" spans="2:11" s="28" customFormat="1" ht="63.75">
+      <c r="B77" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="G76" s="19" t="s">
+      <c r="G77" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="H76" s="19" t="s">
+      <c r="H77" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="I76" s="16"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="17"/>
-    </row>
-    <row r="77" spans="2:11" s="33" customFormat="1" ht="51">
-      <c r="B77" s="16" t="s">
+      <c r="I77" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="J77" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="K77" s="17"/>
+    </row>
+    <row r="78" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="B78" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C78" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D77" s="22" t="s">
+      <c r="D78" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="E77" s="17" t="s">
+      <c r="E78" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="F77" s="17" t="s">
+      <c r="F78" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="G77" s="17" t="s">
+      <c r="G78" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H77" s="17" t="s">
+      <c r="H78" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="I77" s="16"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="17"/>
-    </row>
-    <row r="78" spans="2:11" s="33" customFormat="1">
-      <c r="B78" s="35"/>
-      <c r="I78" s="35"/>
-    </row>
-    <row r="79" spans="2:11" s="33" customFormat="1">
-      <c r="B79" s="35"/>
-      <c r="I79" s="35"/>
-    </row>
-    <row r="80" spans="2:11" s="33" customFormat="1">
-      <c r="B80" s="35"/>
-      <c r="I80" s="35"/>
-    </row>
-    <row r="81" spans="2:9" s="33" customFormat="1">
-      <c r="B81" s="35"/>
-      <c r="I81" s="35"/>
-    </row>
-    <row r="82" spans="2:9" s="33" customFormat="1">
-      <c r="B82" s="35"/>
-      <c r="I82" s="35"/>
-    </row>
-    <row r="83" spans="2:9" s="33" customFormat="1">
-      <c r="B83" s="35"/>
-      <c r="I83" s="35"/>
-    </row>
-    <row r="84" spans="2:9" s="33" customFormat="1">
-      <c r="B84" s="35"/>
-      <c r="I84" s="35"/>
-    </row>
-    <row r="85" spans="2:9" s="33" customFormat="1">
-      <c r="B85" s="35"/>
-      <c r="I85" s="35"/>
-    </row>
-    <row r="86" spans="2:9" s="33" customFormat="1">
-      <c r="B86" s="35"/>
-      <c r="I86" s="35"/>
-    </row>
-    <row r="87" spans="2:9" s="33" customFormat="1">
-      <c r="B87" s="35"/>
-      <c r="I87" s="35"/>
-    </row>
-    <row r="88" spans="2:9" s="33" customFormat="1">
-      <c r="B88" s="35"/>
-      <c r="I88" s="35"/>
-    </row>
-    <row r="89" spans="2:9" s="33" customFormat="1">
-      <c r="B89" s="35"/>
-      <c r="I89" s="35"/>
-    </row>
-    <row r="90" spans="2:9" s="33" customFormat="1">
-      <c r="B90" s="35"/>
-      <c r="I90" s="35"/>
-    </row>
-    <row r="91" spans="2:9" s="33" customFormat="1">
-      <c r="B91" s="35"/>
-      <c r="I91" s="35"/>
-    </row>
-    <row r="92" spans="2:9" s="33" customFormat="1">
-      <c r="B92" s="35"/>
-      <c r="I92" s="35"/>
-    </row>
-    <row r="93" spans="2:9" s="33" customFormat="1">
-      <c r="B93" s="35"/>
-      <c r="I93" s="35"/>
-    </row>
-    <row r="94" spans="2:9" s="33" customFormat="1">
-      <c r="B94" s="35"/>
-      <c r="I94" s="35"/>
-    </row>
-    <row r="95" spans="2:9" s="33" customFormat="1">
-      <c r="B95" s="35"/>
-      <c r="I95" s="35"/>
-    </row>
-    <row r="96" spans="2:9" s="33" customFormat="1">
-      <c r="B96" s="35"/>
-      <c r="I96" s="35"/>
-    </row>
-    <row r="97" spans="2:9" s="33" customFormat="1">
-      <c r="B97" s="35"/>
-      <c r="I97" s="35"/>
-    </row>
-    <row r="98" spans="2:9" s="33" customFormat="1">
-      <c r="B98" s="35"/>
-      <c r="I98" s="35"/>
-    </row>
-    <row r="99" spans="2:9" s="33" customFormat="1">
-      <c r="B99" s="35"/>
-      <c r="I99" s="35"/>
-    </row>
-    <row r="100" spans="2:9" s="33" customFormat="1">
-      <c r="B100" s="35"/>
-      <c r="I100" s="35"/>
-    </row>
-    <row r="101" spans="2:9" s="33" customFormat="1">
-      <c r="B101" s="35"/>
-      <c r="I101" s="35"/>
-    </row>
-    <row r="102" spans="2:9" s="33" customFormat="1">
-      <c r="B102" s="35"/>
-      <c r="I102" s="35"/>
-    </row>
-    <row r="103" spans="2:9" s="33" customFormat="1">
-      <c r="B103" s="35"/>
-      <c r="I103" s="35"/>
-    </row>
-    <row r="104" spans="2:9" s="33" customFormat="1">
-      <c r="B104" s="35"/>
-      <c r="I104" s="35"/>
-    </row>
-    <row r="105" spans="2:9" s="33" customFormat="1">
-      <c r="B105" s="35"/>
-      <c r="I105" s="35"/>
-    </row>
-    <row r="106" spans="2:9" s="33" customFormat="1">
-      <c r="B106" s="35"/>
-      <c r="I106" s="35"/>
-    </row>
-    <row r="107" spans="2:9" s="33" customFormat="1">
-      <c r="B107" s="35"/>
-      <c r="I107" s="35"/>
-    </row>
-    <row r="108" spans="2:9" s="33" customFormat="1">
-      <c r="B108" s="35"/>
-      <c r="I108" s="35"/>
-    </row>
-    <row r="109" spans="2:9" s="33" customFormat="1">
-      <c r="B109" s="35"/>
-      <c r="I109" s="35"/>
-    </row>
-    <row r="110" spans="2:9" s="33" customFormat="1">
-      <c r="B110" s="35"/>
-      <c r="I110" s="35"/>
-    </row>
-    <row r="111" spans="2:9" s="33" customFormat="1">
-      <c r="B111" s="35"/>
-      <c r="I111" s="35"/>
-    </row>
-    <row r="112" spans="2:9" s="33" customFormat="1">
-      <c r="B112" s="35"/>
-      <c r="I112" s="35"/>
-    </row>
-    <row r="113" spans="2:9" s="33" customFormat="1">
-      <c r="B113" s="35"/>
-      <c r="I113" s="35"/>
-    </row>
-    <row r="114" spans="2:9" s="33" customFormat="1">
-      <c r="B114" s="35"/>
-      <c r="I114" s="35"/>
-    </row>
-    <row r="115" spans="2:9" s="33" customFormat="1">
-      <c r="B115" s="35"/>
-      <c r="I115" s="35"/>
-    </row>
-    <row r="116" spans="2:9" s="33" customFormat="1">
-      <c r="B116" s="35"/>
-      <c r="I116" s="35"/>
-    </row>
-    <row r="117" spans="2:9" s="33" customFormat="1">
-      <c r="B117" s="35"/>
-      <c r="I117" s="35"/>
-    </row>
-    <row r="118" spans="2:9" s="33" customFormat="1">
-      <c r="B118" s="35"/>
-      <c r="I118" s="35"/>
-    </row>
-    <row r="119" spans="2:9" s="33" customFormat="1">
-      <c r="B119" s="35"/>
-      <c r="I119" s="35"/>
-    </row>
-    <row r="120" spans="2:9" s="33" customFormat="1">
-      <c r="B120" s="35"/>
-      <c r="I120" s="35"/>
-    </row>
-    <row r="121" spans="2:9" s="33" customFormat="1">
-      <c r="B121" s="35"/>
-      <c r="I121" s="35"/>
-    </row>
-    <row r="122" spans="2:9" s="33" customFormat="1">
-      <c r="B122" s="35"/>
-      <c r="I122" s="35"/>
-    </row>
-    <row r="123" spans="2:9" s="33" customFormat="1">
-      <c r="B123" s="35"/>
-      <c r="I123" s="35"/>
-    </row>
-    <row r="124" spans="2:9" s="33" customFormat="1">
-      <c r="B124" s="35"/>
-      <c r="I124" s="35"/>
-    </row>
-    <row r="125" spans="2:9" s="33" customFormat="1">
-      <c r="B125" s="35"/>
-      <c r="I125" s="35"/>
-    </row>
-    <row r="126" spans="2:9" s="33" customFormat="1">
-      <c r="B126" s="35"/>
-      <c r="I126" s="35"/>
-    </row>
-    <row r="127" spans="2:9" s="33" customFormat="1">
-      <c r="B127" s="35"/>
-      <c r="I127" s="35"/>
-    </row>
-    <row r="128" spans="2:9" s="33" customFormat="1">
-      <c r="B128" s="35"/>
-      <c r="I128" s="35"/>
-    </row>
-    <row r="129" spans="2:9" s="33" customFormat="1">
-      <c r="B129" s="35"/>
-      <c r="I129" s="35"/>
-    </row>
-    <row r="130" spans="2:9" s="33" customFormat="1">
-      <c r="B130" s="35"/>
-      <c r="I130" s="35"/>
-    </row>
-    <row r="131" spans="2:9" s="33" customFormat="1">
-      <c r="B131" s="35"/>
-      <c r="I131" s="35"/>
-    </row>
-    <row r="132" spans="2:9" s="33" customFormat="1">
-      <c r="B132" s="35"/>
-      <c r="I132" s="35"/>
-    </row>
-    <row r="133" spans="2:9" s="33" customFormat="1">
-      <c r="B133" s="35"/>
-      <c r="I133" s="35"/>
-    </row>
-    <row r="134" spans="2:9" s="33" customFormat="1">
-      <c r="B134" s="35"/>
-      <c r="I134" s="35"/>
-    </row>
-    <row r="135" spans="2:9" s="33" customFormat="1">
-      <c r="B135" s="35"/>
-      <c r="I135" s="35"/>
-    </row>
-    <row r="136" spans="2:9" s="33" customFormat="1">
-      <c r="B136" s="35"/>
-      <c r="I136" s="35"/>
-    </row>
-    <row r="137" spans="2:9" s="33" customFormat="1">
-      <c r="B137" s="35"/>
-      <c r="I137" s="35"/>
-    </row>
-    <row r="138" spans="2:9" s="33" customFormat="1">
-      <c r="B138" s="35"/>
-      <c r="I138" s="35"/>
-    </row>
-    <row r="139" spans="2:9" s="33" customFormat="1">
-      <c r="B139" s="35"/>
-      <c r="I139" s="35"/>
-    </row>
-    <row r="140" spans="2:9" s="33" customFormat="1">
-      <c r="B140" s="35"/>
-      <c r="I140" s="35"/>
-    </row>
-    <row r="141" spans="2:9" s="33" customFormat="1">
-      <c r="B141" s="35"/>
-      <c r="I141" s="35"/>
-    </row>
-    <row r="142" spans="2:9" s="33" customFormat="1">
-      <c r="B142" s="35"/>
-      <c r="I142" s="35"/>
-    </row>
-    <row r="143" spans="2:9" s="33" customFormat="1">
-      <c r="B143" s="35"/>
-      <c r="I143" s="35"/>
-    </row>
-    <row r="144" spans="2:9" s="33" customFormat="1">
-      <c r="B144" s="35"/>
-      <c r="I144" s="35"/>
-    </row>
-    <row r="145" spans="2:9" s="33" customFormat="1">
-      <c r="B145" s="35"/>
-      <c r="I145" s="35"/>
-    </row>
-    <row r="146" spans="2:9" s="33" customFormat="1">
-      <c r="B146" s="35"/>
-      <c r="I146" s="35"/>
-    </row>
-    <row r="147" spans="2:9" s="33" customFormat="1">
-      <c r="B147" s="35"/>
-      <c r="I147" s="35"/>
-    </row>
-    <row r="148" spans="2:9" s="33" customFormat="1">
-      <c r="B148" s="35"/>
-      <c r="I148" s="35"/>
-    </row>
-    <row r="149" spans="2:9" s="33" customFormat="1">
-      <c r="B149" s="35"/>
-      <c r="I149" s="35"/>
-    </row>
-    <row r="150" spans="2:9" s="33" customFormat="1">
-      <c r="B150" s="35"/>
-      <c r="I150" s="35"/>
-    </row>
-    <row r="151" spans="2:9" s="33" customFormat="1">
-      <c r="B151" s="35"/>
-      <c r="I151" s="35"/>
-    </row>
-    <row r="152" spans="2:9" s="33" customFormat="1">
-      <c r="B152" s="35"/>
-      <c r="I152" s="35"/>
-    </row>
-    <row r="153" spans="2:9" s="33" customFormat="1">
-      <c r="B153" s="35"/>
-      <c r="I153" s="35"/>
-    </row>
-    <row r="154" spans="2:9" s="33" customFormat="1">
-      <c r="B154" s="35"/>
-      <c r="I154" s="35"/>
-    </row>
-    <row r="155" spans="2:9" s="33" customFormat="1">
-      <c r="B155" s="35"/>
-      <c r="I155" s="35"/>
-    </row>
-    <row r="156" spans="2:9" s="33" customFormat="1">
-      <c r="B156" s="35"/>
-      <c r="I156" s="35"/>
-    </row>
-    <row r="157" spans="2:9" s="33" customFormat="1">
-      <c r="B157" s="35"/>
-      <c r="I157" s="35"/>
-    </row>
-    <row r="158" spans="2:9" s="33" customFormat="1">
-      <c r="B158" s="35"/>
-      <c r="I158" s="35"/>
-    </row>
-    <row r="159" spans="2:9" s="33" customFormat="1">
-      <c r="B159" s="35"/>
-      <c r="I159" s="35"/>
-    </row>
-    <row r="160" spans="2:9" s="33" customFormat="1">
-      <c r="B160" s="35"/>
-      <c r="I160" s="35"/>
-    </row>
-    <row r="161" spans="2:9" s="33" customFormat="1">
-      <c r="B161" s="35"/>
-      <c r="I161" s="35"/>
-    </row>
-    <row r="162" spans="2:9" s="33" customFormat="1">
-      <c r="B162" s="35"/>
-      <c r="I162" s="35"/>
-    </row>
-    <row r="163" spans="2:9" s="33" customFormat="1">
-      <c r="B163" s="35"/>
-      <c r="I163" s="35"/>
-    </row>
-    <row r="164" spans="2:9" s="33" customFormat="1">
-      <c r="B164" s="35"/>
-      <c r="I164" s="35"/>
-    </row>
-    <row r="165" spans="2:9" s="33" customFormat="1">
-      <c r="B165" s="35"/>
-      <c r="I165" s="35"/>
-    </row>
-    <row r="166" spans="2:9" s="33" customFormat="1">
-      <c r="B166" s="35"/>
-      <c r="I166" s="35"/>
-    </row>
-    <row r="167" spans="2:9" s="33" customFormat="1">
-      <c r="B167" s="35"/>
-      <c r="I167" s="35"/>
-    </row>
-    <row r="168" spans="2:9" s="33" customFormat="1">
-      <c r="B168" s="35"/>
-      <c r="I168" s="35"/>
-    </row>
-    <row r="169" spans="2:9" s="33" customFormat="1">
-      <c r="B169" s="35"/>
-      <c r="I169" s="35"/>
-    </row>
-    <row r="170" spans="2:9" s="33" customFormat="1">
-      <c r="B170" s="35"/>
-      <c r="I170" s="35"/>
-    </row>
-    <row r="171" spans="2:9" s="33" customFormat="1">
-      <c r="B171" s="35"/>
-      <c r="I171" s="35"/>
-    </row>
-    <row r="172" spans="2:9" s="33" customFormat="1">
-      <c r="B172" s="35"/>
-      <c r="I172" s="35"/>
-    </row>
-    <row r="173" spans="2:9" s="33" customFormat="1">
-      <c r="B173" s="35"/>
-      <c r="I173" s="35"/>
-    </row>
-    <row r="174" spans="2:9" s="33" customFormat="1">
-      <c r="B174" s="35"/>
-      <c r="I174" s="35"/>
-    </row>
-    <row r="175" spans="2:9" s="33" customFormat="1">
-      <c r="B175" s="35"/>
-      <c r="I175" s="35"/>
-    </row>
-    <row r="176" spans="2:9" s="33" customFormat="1">
-      <c r="B176" s="35"/>
-      <c r="I176" s="35"/>
-    </row>
-    <row r="177" spans="2:9" s="33" customFormat="1">
-      <c r="B177" s="35"/>
-      <c r="I177" s="35"/>
-    </row>
-    <row r="178" spans="2:9" s="33" customFormat="1">
-      <c r="B178" s="35"/>
-      <c r="I178" s="35"/>
-    </row>
-    <row r="179" spans="2:9" s="33" customFormat="1">
-      <c r="B179" s="35"/>
-      <c r="I179" s="35"/>
-    </row>
-    <row r="180" spans="2:9" s="33" customFormat="1">
-      <c r="B180" s="35"/>
-      <c r="I180" s="35"/>
-    </row>
-    <row r="181" spans="2:9" s="33" customFormat="1">
-      <c r="B181" s="35"/>
-      <c r="I181" s="35"/>
-    </row>
-    <row r="182" spans="2:9" s="33" customFormat="1">
-      <c r="B182" s="35"/>
-      <c r="I182" s="35"/>
-    </row>
-    <row r="183" spans="2:9" s="33" customFormat="1">
-      <c r="B183" s="35"/>
-      <c r="I183" s="35"/>
-    </row>
-    <row r="184" spans="2:9" s="33" customFormat="1">
-      <c r="B184" s="35"/>
-      <c r="I184" s="35"/>
-    </row>
-    <row r="185" spans="2:9" s="33" customFormat="1">
-      <c r="B185" s="35"/>
-      <c r="I185" s="35"/>
-    </row>
-    <row r="186" spans="2:9" s="33" customFormat="1">
-      <c r="B186" s="35"/>
-      <c r="I186" s="35"/>
-    </row>
-    <row r="187" spans="2:9" s="33" customFormat="1">
-      <c r="B187" s="35"/>
-      <c r="I187" s="35"/>
-    </row>
-    <row r="188" spans="2:9" s="33" customFormat="1">
-      <c r="B188" s="35"/>
-      <c r="I188" s="35"/>
-    </row>
-    <row r="189" spans="2:9" s="33" customFormat="1">
-      <c r="B189" s="35"/>
-      <c r="I189" s="35"/>
-    </row>
-    <row r="190" spans="2:9" s="33" customFormat="1">
-      <c r="B190" s="35"/>
-      <c r="I190" s="35"/>
-    </row>
-    <row r="191" spans="2:9" s="33" customFormat="1">
-      <c r="B191" s="35"/>
-      <c r="I191" s="35"/>
-    </row>
-    <row r="192" spans="2:9" s="33" customFormat="1">
-      <c r="B192" s="35"/>
-      <c r="I192" s="35"/>
-    </row>
-    <row r="193" spans="2:9" s="33" customFormat="1">
-      <c r="B193" s="35"/>
-      <c r="I193" s="35"/>
-    </row>
-    <row r="194" spans="2:9" s="33" customFormat="1">
-      <c r="B194" s="35"/>
-      <c r="I194" s="35"/>
-    </row>
-    <row r="195" spans="2:9" s="33" customFormat="1">
-      <c r="B195" s="35"/>
-      <c r="I195" s="35"/>
-    </row>
-    <row r="196" spans="2:9" s="33" customFormat="1">
-      <c r="B196" s="35"/>
-      <c r="I196" s="35"/>
-    </row>
-    <row r="197" spans="2:9" s="33" customFormat="1">
-      <c r="B197" s="35"/>
-      <c r="I197" s="35"/>
-    </row>
-    <row r="198" spans="2:9" s="33" customFormat="1">
-      <c r="B198" s="35"/>
-      <c r="I198" s="35"/>
-    </row>
-    <row r="199" spans="2:9" s="33" customFormat="1">
-      <c r="B199" s="35"/>
-      <c r="I199" s="35"/>
-    </row>
-    <row r="200" spans="2:9" s="33" customFormat="1">
-      <c r="B200" s="35"/>
-      <c r="I200" s="35"/>
-    </row>
-    <row r="201" spans="2:9" s="33" customFormat="1">
-      <c r="B201" s="35"/>
-      <c r="I201" s="35"/>
-    </row>
-    <row r="202" spans="2:9" s="33" customFormat="1">
-      <c r="B202" s="35"/>
-      <c r="I202" s="35"/>
-    </row>
-    <row r="203" spans="2:9" s="33" customFormat="1">
-      <c r="B203" s="35"/>
-      <c r="I203" s="35"/>
-    </row>
-    <row r="204" spans="2:9" s="33" customFormat="1">
-      <c r="B204" s="35"/>
-      <c r="I204" s="35"/>
-    </row>
-    <row r="205" spans="2:9" s="33" customFormat="1">
-      <c r="B205" s="35"/>
-      <c r="I205" s="35"/>
-    </row>
-    <row r="206" spans="2:9" s="33" customFormat="1">
-      <c r="B206" s="35"/>
-      <c r="I206" s="35"/>
-    </row>
-    <row r="207" spans="2:9" s="33" customFormat="1">
-      <c r="B207" s="35"/>
-      <c r="I207" s="35"/>
-    </row>
-    <row r="208" spans="2:9" s="33" customFormat="1">
-      <c r="B208" s="35"/>
-      <c r="I208" s="35"/>
-    </row>
-    <row r="209" spans="2:9" s="33" customFormat="1">
-      <c r="B209" s="35"/>
-      <c r="I209" s="35"/>
-    </row>
-    <row r="210" spans="2:9" s="33" customFormat="1">
-      <c r="B210" s="35"/>
-      <c r="I210" s="35"/>
-    </row>
-    <row r="211" spans="2:9" s="33" customFormat="1">
-      <c r="B211" s="35"/>
-      <c r="I211" s="35"/>
-    </row>
-    <row r="212" spans="2:9" s="33" customFormat="1">
-      <c r="B212" s="35"/>
-      <c r="I212" s="35"/>
-    </row>
-    <row r="213" spans="2:9" s="33" customFormat="1">
-      <c r="B213" s="35"/>
-      <c r="I213" s="35"/>
-    </row>
-    <row r="214" spans="2:9" s="33" customFormat="1">
-      <c r="B214" s="35"/>
-      <c r="I214" s="35"/>
-    </row>
-    <row r="215" spans="2:9" s="33" customFormat="1">
-      <c r="B215" s="35"/>
-      <c r="I215" s="35"/>
-    </row>
-    <row r="216" spans="2:9" s="33" customFormat="1">
-      <c r="B216" s="35"/>
-      <c r="I216" s="35"/>
-    </row>
-    <row r="217" spans="2:9" s="33" customFormat="1">
-      <c r="B217" s="35"/>
-      <c r="I217" s="35"/>
-    </row>
-    <row r="218" spans="2:9" s="33" customFormat="1">
-      <c r="B218" s="35"/>
-      <c r="I218" s="35"/>
-    </row>
-    <row r="219" spans="2:9" s="33" customFormat="1">
-      <c r="B219" s="35"/>
-      <c r="I219" s="35"/>
-    </row>
-    <row r="220" spans="2:9" s="33" customFormat="1">
-      <c r="B220" s="35"/>
-      <c r="I220" s="35"/>
-    </row>
-    <row r="221" spans="2:9" s="33" customFormat="1">
-      <c r="B221" s="35"/>
-      <c r="I221" s="35"/>
-    </row>
-    <row r="222" spans="2:9" s="33" customFormat="1">
-      <c r="B222" s="35"/>
-      <c r="I222" s="35"/>
-    </row>
-    <row r="223" spans="2:9" s="33" customFormat="1">
-      <c r="B223" s="35"/>
-      <c r="I223" s="35"/>
-    </row>
-    <row r="224" spans="2:9" s="33" customFormat="1">
-      <c r="B224" s="35"/>
-      <c r="I224" s="35"/>
-    </row>
-    <row r="225" spans="2:9" s="33" customFormat="1">
-      <c r="B225" s="35"/>
-      <c r="I225" s="35"/>
-    </row>
-    <row r="226" spans="2:9" s="33" customFormat="1">
-      <c r="B226" s="35"/>
-      <c r="I226" s="35"/>
-    </row>
-    <row r="227" spans="2:9" s="33" customFormat="1">
-      <c r="B227" s="35"/>
-      <c r="I227" s="35"/>
-    </row>
-    <row r="228" spans="2:9" s="33" customFormat="1">
-      <c r="B228" s="35"/>
-      <c r="I228" s="35"/>
-    </row>
-    <row r="229" spans="2:9" s="33" customFormat="1">
-      <c r="B229" s="35"/>
-      <c r="I229" s="35"/>
-    </row>
-    <row r="230" spans="2:9" s="33" customFormat="1">
-      <c r="B230" s="35"/>
-      <c r="I230" s="35"/>
-    </row>
-    <row r="231" spans="2:9" s="33" customFormat="1">
-      <c r="B231" s="35"/>
-      <c r="I231" s="35"/>
-    </row>
-    <row r="232" spans="2:9" s="33" customFormat="1">
-      <c r="B232" s="35"/>
-      <c r="I232" s="35"/>
-    </row>
-    <row r="233" spans="2:9" s="33" customFormat="1">
-      <c r="B233" s="35"/>
-      <c r="I233" s="35"/>
-    </row>
-    <row r="234" spans="2:9" s="33" customFormat="1">
-      <c r="B234" s="35"/>
-      <c r="I234" s="35"/>
-    </row>
-    <row r="235" spans="2:9" s="33" customFormat="1">
-      <c r="B235" s="35"/>
-      <c r="I235" s="35"/>
-    </row>
-    <row r="236" spans="2:9" s="33" customFormat="1">
-      <c r="B236" s="35"/>
-      <c r="I236" s="35"/>
-    </row>
-    <row r="237" spans="2:9" s="33" customFormat="1">
-      <c r="B237" s="35"/>
-      <c r="I237" s="35"/>
-    </row>
-    <row r="238" spans="2:9" s="33" customFormat="1">
-      <c r="B238" s="35"/>
-      <c r="I238" s="35"/>
-    </row>
-    <row r="239" spans="2:9" s="33" customFormat="1">
-      <c r="B239" s="35"/>
-      <c r="I239" s="35"/>
-    </row>
-    <row r="240" spans="2:9" s="33" customFormat="1">
-      <c r="B240" s="35"/>
-      <c r="I240" s="35"/>
-    </row>
-    <row r="241" spans="2:9" s="33" customFormat="1">
-      <c r="B241" s="35"/>
-      <c r="I241" s="35"/>
-    </row>
-    <row r="242" spans="2:9" s="33" customFormat="1">
-      <c r="B242" s="35"/>
-      <c r="I242" s="35"/>
-    </row>
-    <row r="243" spans="2:9" s="33" customFormat="1">
-      <c r="B243" s="35"/>
-      <c r="I243" s="35"/>
-    </row>
-    <row r="244" spans="2:9" s="33" customFormat="1">
-      <c r="B244" s="35"/>
-      <c r="I244" s="35"/>
-    </row>
-    <row r="245" spans="2:9" s="33" customFormat="1">
-      <c r="B245" s="35"/>
-      <c r="I245" s="35"/>
-    </row>
-    <row r="246" spans="2:9" s="33" customFormat="1">
-      <c r="B246" s="35"/>
-      <c r="I246" s="35"/>
-    </row>
-    <row r="247" spans="2:9" s="33" customFormat="1">
-      <c r="B247" s="35"/>
-      <c r="I247" s="35"/>
-    </row>
-    <row r="248" spans="2:9" s="33" customFormat="1">
-      <c r="B248" s="35"/>
-      <c r="I248" s="35"/>
-    </row>
-    <row r="249" spans="2:9" s="33" customFormat="1">
-      <c r="B249" s="35"/>
-      <c r="I249" s="35"/>
-    </row>
-    <row r="250" spans="2:9" s="33" customFormat="1">
-      <c r="B250" s="35"/>
-      <c r="I250" s="35"/>
-    </row>
-    <row r="251" spans="2:9" s="33" customFormat="1">
-      <c r="B251" s="35"/>
-      <c r="I251" s="35"/>
-    </row>
-    <row r="252" spans="2:9" s="33" customFormat="1">
-      <c r="B252" s="35"/>
-      <c r="I252" s="35"/>
-    </row>
-    <row r="253" spans="2:9" s="33" customFormat="1">
-      <c r="B253" s="35"/>
-      <c r="I253" s="35"/>
-    </row>
-    <row r="254" spans="2:9" s="33" customFormat="1">
-      <c r="B254" s="35"/>
-      <c r="I254" s="35"/>
-    </row>
-    <row r="255" spans="2:9" s="33" customFormat="1">
-      <c r="B255" s="35"/>
-      <c r="I255" s="35"/>
-    </row>
-    <row r="256" spans="2:9" s="33" customFormat="1">
-      <c r="B256" s="35"/>
-      <c r="I256" s="35"/>
-    </row>
-    <row r="257" spans="2:9" s="33" customFormat="1">
-      <c r="B257" s="35"/>
-      <c r="I257" s="35"/>
-    </row>
-    <row r="258" spans="2:9" s="33" customFormat="1">
-      <c r="B258" s="35"/>
-      <c r="I258" s="35"/>
-    </row>
-    <row r="259" spans="2:9" s="33" customFormat="1">
-      <c r="B259" s="35"/>
-      <c r="I259" s="35"/>
-    </row>
-    <row r="260" spans="2:9" s="33" customFormat="1">
-      <c r="B260" s="35"/>
-      <c r="I260" s="35"/>
-    </row>
-    <row r="261" spans="2:9" s="33" customFormat="1">
-      <c r="B261" s="35"/>
-      <c r="I261" s="35"/>
-    </row>
-    <row r="262" spans="2:9" s="33" customFormat="1">
-      <c r="B262" s="35"/>
-      <c r="I262" s="35"/>
-    </row>
-    <row r="263" spans="2:9" s="33" customFormat="1">
-      <c r="B263" s="35"/>
-      <c r="I263" s="35"/>
-    </row>
-    <row r="264" spans="2:9" s="33" customFormat="1">
-      <c r="B264" s="35"/>
-      <c r="I264" s="35"/>
-    </row>
-    <row r="265" spans="2:9" s="33" customFormat="1">
-      <c r="B265" s="35"/>
-      <c r="I265" s="35"/>
-    </row>
-    <row r="266" spans="2:9" s="33" customFormat="1">
-      <c r="B266" s="35"/>
-      <c r="I266" s="35"/>
-    </row>
-    <row r="267" spans="2:9" s="33" customFormat="1">
-      <c r="B267" s="35"/>
-      <c r="I267" s="35"/>
-    </row>
-    <row r="268" spans="2:9" s="33" customFormat="1">
-      <c r="B268" s="35"/>
-      <c r="I268" s="35"/>
-    </row>
-    <row r="269" spans="2:9" s="33" customFormat="1">
-      <c r="B269" s="35"/>
-      <c r="I269" s="35"/>
-    </row>
-    <row r="270" spans="2:9" s="33" customFormat="1">
-      <c r="B270" s="35"/>
-      <c r="I270" s="35"/>
-    </row>
-    <row r="271" spans="2:9" s="33" customFormat="1">
-      <c r="B271" s="35"/>
-      <c r="I271" s="35"/>
-    </row>
-    <row r="272" spans="2:9" s="33" customFormat="1">
-      <c r="B272" s="35"/>
-      <c r="I272" s="35"/>
-    </row>
-    <row r="273" spans="2:9" s="33" customFormat="1">
-      <c r="B273" s="35"/>
-      <c r="I273" s="35"/>
-    </row>
-    <row r="274" spans="2:9" s="33" customFormat="1">
-      <c r="B274" s="35"/>
-      <c r="I274" s="35"/>
-    </row>
-    <row r="275" spans="2:9" s="33" customFormat="1">
-      <c r="B275" s="35"/>
-      <c r="I275" s="35"/>
-    </row>
-    <row r="276" spans="2:9" s="33" customFormat="1">
-      <c r="B276" s="35"/>
-      <c r="I276" s="35"/>
-    </row>
-    <row r="277" spans="2:9" s="33" customFormat="1">
-      <c r="B277" s="35"/>
-      <c r="I277" s="35"/>
-    </row>
-    <row r="278" spans="2:9" s="33" customFormat="1">
-      <c r="B278" s="35"/>
-      <c r="I278" s="35"/>
-    </row>
-    <row r="279" spans="2:9" s="33" customFormat="1">
-      <c r="B279" s="35"/>
-      <c r="I279" s="35"/>
-    </row>
-    <row r="280" spans="2:9" s="33" customFormat="1">
-      <c r="B280" s="35"/>
-      <c r="I280" s="35"/>
-    </row>
-    <row r="281" spans="2:9" s="33" customFormat="1">
-      <c r="B281" s="35"/>
-      <c r="I281" s="35"/>
-    </row>
-    <row r="282" spans="2:9" s="33" customFormat="1">
-      <c r="B282" s="35"/>
-      <c r="I282" s="35"/>
-    </row>
-    <row r="283" spans="2:9" s="33" customFormat="1">
-      <c r="B283" s="35"/>
-      <c r="I283" s="35"/>
-    </row>
-    <row r="284" spans="2:9" s="33" customFormat="1">
-      <c r="B284" s="35"/>
-      <c r="I284" s="35"/>
-    </row>
-    <row r="285" spans="2:9" s="33" customFormat="1">
-      <c r="B285" s="35"/>
-      <c r="I285" s="35"/>
-    </row>
-    <row r="286" spans="2:9" s="33" customFormat="1">
-      <c r="B286" s="35"/>
-      <c r="I286" s="35"/>
-    </row>
-    <row r="287" spans="2:9" s="33" customFormat="1">
-      <c r="B287" s="35"/>
-      <c r="I287" s="35"/>
-    </row>
-    <row r="288" spans="2:9" s="33" customFormat="1">
-      <c r="B288" s="35"/>
-      <c r="I288" s="35"/>
-    </row>
-    <row r="289" spans="2:9" s="33" customFormat="1">
-      <c r="B289" s="35"/>
-      <c r="I289" s="35"/>
-    </row>
-    <row r="290" spans="2:9" s="33" customFormat="1">
-      <c r="B290" s="35"/>
-      <c r="I290" s="35"/>
-    </row>
-    <row r="291" spans="2:9" s="33" customFormat="1">
-      <c r="B291" s="35"/>
-      <c r="I291" s="35"/>
-    </row>
-    <row r="292" spans="2:9" s="33" customFormat="1">
-      <c r="B292" s="35"/>
-      <c r="I292" s="35"/>
-    </row>
-    <row r="293" spans="2:9" s="33" customFormat="1">
-      <c r="B293" s="35"/>
-      <c r="I293" s="35"/>
-    </row>
-    <row r="294" spans="2:9" s="33" customFormat="1">
-      <c r="B294" s="35"/>
-      <c r="I294" s="35"/>
-    </row>
-    <row r="295" spans="2:9" s="33" customFormat="1">
-      <c r="B295" s="35"/>
-      <c r="I295" s="35"/>
-    </row>
-    <row r="296" spans="2:9" s="33" customFormat="1">
-      <c r="B296" s="35"/>
-      <c r="I296" s="35"/>
-    </row>
-    <row r="297" spans="2:9" s="33" customFormat="1">
-      <c r="B297" s="35"/>
-      <c r="I297" s="35"/>
-    </row>
-    <row r="298" spans="2:9" s="33" customFormat="1">
-      <c r="B298" s="35"/>
-      <c r="I298" s="35"/>
-    </row>
-    <row r="299" spans="2:9" s="33" customFormat="1">
-      <c r="B299" s="35"/>
-      <c r="I299" s="35"/>
-    </row>
-    <row r="300" spans="2:9" s="33" customFormat="1">
-      <c r="B300" s="35"/>
-      <c r="I300" s="35"/>
-    </row>
-    <row r="301" spans="2:9" s="33" customFormat="1">
-      <c r="B301" s="35"/>
-      <c r="I301" s="35"/>
-    </row>
-    <row r="302" spans="2:9" s="33" customFormat="1">
-      <c r="B302" s="35"/>
-      <c r="I302" s="35"/>
-    </row>
-    <row r="303" spans="2:9" s="33" customFormat="1">
-      <c r="B303" s="35"/>
-      <c r="I303" s="35"/>
-    </row>
-    <row r="304" spans="2:9" s="33" customFormat="1">
-      <c r="B304" s="35"/>
-      <c r="I304" s="35"/>
-    </row>
-    <row r="305" spans="2:9" s="33" customFormat="1">
-      <c r="B305" s="35"/>
-      <c r="I305" s="35"/>
-    </row>
-    <row r="306" spans="2:9" s="33" customFormat="1">
-      <c r="B306" s="35"/>
-      <c r="I306" s="35"/>
-    </row>
-    <row r="307" spans="2:9" s="33" customFormat="1">
-      <c r="B307" s="35"/>
-      <c r="I307" s="35"/>
-    </row>
-    <row r="308" spans="2:9" s="33" customFormat="1">
-      <c r="B308" s="35"/>
-      <c r="I308" s="35"/>
-    </row>
-    <row r="309" spans="2:9" s="33" customFormat="1">
-      <c r="B309" s="35"/>
-      <c r="I309" s="35"/>
-    </row>
-    <row r="310" spans="2:9" s="33" customFormat="1">
-      <c r="B310" s="35"/>
-      <c r="I310" s="35"/>
-    </row>
-    <row r="311" spans="2:9" s="33" customFormat="1">
-      <c r="B311" s="35"/>
-      <c r="I311" s="35"/>
-    </row>
-    <row r="312" spans="2:9" s="33" customFormat="1">
-      <c r="B312" s="35"/>
-      <c r="I312" s="35"/>
-    </row>
-    <row r="313" spans="2:9" s="33" customFormat="1">
-      <c r="B313" s="35"/>
-      <c r="I313" s="35"/>
-    </row>
-    <row r="314" spans="2:9" s="33" customFormat="1">
-      <c r="B314" s="35"/>
-      <c r="I314" s="35"/>
-    </row>
-    <row r="315" spans="2:9" s="33" customFormat="1">
-      <c r="B315" s="35"/>
-      <c r="I315" s="35"/>
-    </row>
-    <row r="316" spans="2:9" s="33" customFormat="1">
-      <c r="B316" s="35"/>
-      <c r="I316" s="35"/>
-    </row>
-    <row r="317" spans="2:9" s="33" customFormat="1">
-      <c r="B317" s="35"/>
-      <c r="I317" s="35"/>
-    </row>
-    <row r="318" spans="2:9" s="33" customFormat="1">
-      <c r="B318" s="35"/>
-      <c r="I318" s="35"/>
-    </row>
-    <row r="319" spans="2:9" s="33" customFormat="1">
-      <c r="B319" s="35"/>
-      <c r="I319" s="35"/>
-    </row>
-    <row r="320" spans="2:9" s="33" customFormat="1">
-      <c r="B320" s="35"/>
-      <c r="I320" s="35"/>
-    </row>
-    <row r="321" spans="2:9" s="33" customFormat="1">
-      <c r="B321" s="35"/>
-      <c r="I321" s="35"/>
-    </row>
-    <row r="322" spans="2:9" s="33" customFormat="1">
-      <c r="B322" s="35"/>
-      <c r="I322" s="35"/>
-    </row>
-    <row r="323" spans="2:9" s="33" customFormat="1">
-      <c r="B323" s="35"/>
-      <c r="I323" s="35"/>
-    </row>
-    <row r="324" spans="2:9" s="33" customFormat="1">
-      <c r="B324" s="35"/>
-      <c r="I324" s="35"/>
-    </row>
-    <row r="325" spans="2:9" s="33" customFormat="1">
-      <c r="B325" s="35"/>
-      <c r="I325" s="35"/>
-    </row>
-    <row r="326" spans="2:9" s="33" customFormat="1">
-      <c r="B326" s="35"/>
-      <c r="I326" s="35"/>
-    </row>
-    <row r="327" spans="2:9" s="33" customFormat="1">
-      <c r="B327" s="35"/>
-      <c r="I327" s="35"/>
-    </row>
-    <row r="328" spans="2:9" s="33" customFormat="1">
-      <c r="B328" s="35"/>
-      <c r="I328" s="35"/>
-    </row>
-    <row r="329" spans="2:9" s="33" customFormat="1">
-      <c r="B329" s="35"/>
-      <c r="I329" s="35"/>
-    </row>
-    <row r="330" spans="2:9" s="33" customFormat="1">
-      <c r="B330" s="35"/>
-      <c r="I330" s="35"/>
-    </row>
-    <row r="331" spans="2:9" s="33" customFormat="1">
-      <c r="B331" s="35"/>
-      <c r="I331" s="35"/>
-    </row>
-    <row r="332" spans="2:9" s="33" customFormat="1">
-      <c r="B332" s="35"/>
-      <c r="I332" s="35"/>
-    </row>
-    <row r="333" spans="2:9" s="33" customFormat="1">
-      <c r="B333" s="35"/>
-      <c r="I333" s="35"/>
-    </row>
-    <row r="334" spans="2:9" s="33" customFormat="1">
-      <c r="B334" s="35"/>
-      <c r="I334" s="35"/>
-    </row>
-    <row r="335" spans="2:9" s="33" customFormat="1">
-      <c r="B335" s="35"/>
-      <c r="I335" s="35"/>
-    </row>
-    <row r="336" spans="2:9" s="33" customFormat="1">
-      <c r="B336" s="35"/>
-      <c r="I336" s="35"/>
-    </row>
-    <row r="337" spans="2:9" s="33" customFormat="1">
-      <c r="B337" s="35"/>
-      <c r="I337" s="35"/>
-    </row>
-    <row r="338" spans="2:9" s="33" customFormat="1">
-      <c r="B338" s="35"/>
-      <c r="I338" s="35"/>
-    </row>
-    <row r="339" spans="2:9" s="33" customFormat="1">
-      <c r="B339" s="35"/>
-      <c r="I339" s="35"/>
-    </row>
-    <row r="340" spans="2:9" s="33" customFormat="1">
-      <c r="B340" s="35"/>
-      <c r="I340" s="35"/>
-    </row>
-    <row r="341" spans="2:9" s="33" customFormat="1">
-      <c r="B341" s="35"/>
-      <c r="I341" s="35"/>
-    </row>
-    <row r="342" spans="2:9" s="33" customFormat="1">
-      <c r="B342" s="35"/>
-      <c r="I342" s="35"/>
-    </row>
-    <row r="343" spans="2:9" s="33" customFormat="1">
-      <c r="B343" s="35"/>
-      <c r="I343" s="35"/>
-    </row>
-    <row r="344" spans="2:9" s="33" customFormat="1">
-      <c r="B344" s="35"/>
-      <c r="I344" s="35"/>
-    </row>
-    <row r="345" spans="2:9" s="33" customFormat="1">
-      <c r="B345" s="35"/>
-      <c r="I345" s="35"/>
-    </row>
-    <row r="346" spans="2:9" s="33" customFormat="1">
-      <c r="B346" s="35"/>
-      <c r="I346" s="35"/>
-    </row>
-    <row r="347" spans="2:9" s="33" customFormat="1">
-      <c r="B347" s="35"/>
-      <c r="I347" s="35"/>
-    </row>
-    <row r="348" spans="2:9" s="33" customFormat="1">
-      <c r="B348" s="35"/>
-      <c r="I348" s="35"/>
-    </row>
-    <row r="349" spans="2:9" s="33" customFormat="1">
-      <c r="B349" s="35"/>
-      <c r="I349" s="35"/>
-    </row>
-    <row r="350" spans="2:9" s="33" customFormat="1">
-      <c r="B350" s="35"/>
-      <c r="I350" s="35"/>
-    </row>
-    <row r="351" spans="2:9" s="33" customFormat="1">
-      <c r="B351" s="35"/>
-      <c r="I351" s="35"/>
-    </row>
-    <row r="352" spans="2:9" s="33" customFormat="1">
-      <c r="B352" s="35"/>
-      <c r="I352" s="35"/>
-    </row>
-    <row r="353" spans="2:9" s="33" customFormat="1">
-      <c r="B353" s="35"/>
-      <c r="I353" s="35"/>
-    </row>
-    <row r="354" spans="2:9" s="33" customFormat="1">
-      <c r="B354" s="35"/>
-      <c r="I354" s="35"/>
-    </row>
-    <row r="355" spans="2:9" s="33" customFormat="1">
-      <c r="B355" s="35"/>
-      <c r="I355" s="35"/>
-    </row>
-    <row r="356" spans="2:9" s="33" customFormat="1">
-      <c r="B356" s="35"/>
-      <c r="I356" s="35"/>
-    </row>
-    <row r="357" spans="2:9" s="33" customFormat="1">
-      <c r="B357" s="35"/>
-      <c r="I357" s="35"/>
-    </row>
-    <row r="358" spans="2:9" s="33" customFormat="1">
-      <c r="B358" s="35"/>
-      <c r="I358" s="35"/>
-    </row>
-    <row r="359" spans="2:9" s="33" customFormat="1">
-      <c r="B359" s="35"/>
-      <c r="I359" s="35"/>
-    </row>
-    <row r="360" spans="2:9" s="33" customFormat="1">
-      <c r="B360" s="35"/>
-      <c r="I360" s="35"/>
-    </row>
-    <row r="361" spans="2:9" s="33" customFormat="1">
-      <c r="B361" s="35"/>
-      <c r="I361" s="35"/>
-    </row>
-    <row r="362" spans="2:9" s="33" customFormat="1">
-      <c r="B362" s="35"/>
-      <c r="I362" s="35"/>
-    </row>
-    <row r="363" spans="2:9" s="33" customFormat="1">
-      <c r="B363" s="35"/>
-      <c r="I363" s="35"/>
-    </row>
-    <row r="364" spans="2:9" s="33" customFormat="1">
-      <c r="B364" s="35"/>
-      <c r="I364" s="35"/>
-    </row>
-    <row r="365" spans="2:9" s="33" customFormat="1">
-      <c r="B365" s="35"/>
-      <c r="I365" s="35"/>
-    </row>
-    <row r="366" spans="2:9" s="33" customFormat="1">
-      <c r="B366" s="35"/>
-      <c r="I366" s="35"/>
-    </row>
-    <row r="367" spans="2:9" s="33" customFormat="1">
-      <c r="B367" s="35"/>
-      <c r="I367" s="35"/>
-    </row>
-    <row r="368" spans="2:9" s="33" customFormat="1">
-      <c r="B368" s="35"/>
-      <c r="I368" s="35"/>
-    </row>
-    <row r="369" spans="2:9" s="33" customFormat="1">
-      <c r="B369" s="35"/>
-      <c r="I369" s="35"/>
-    </row>
-    <row r="370" spans="2:9" s="33" customFormat="1">
-      <c r="B370" s="35"/>
-      <c r="I370" s="35"/>
-    </row>
-    <row r="371" spans="2:9" s="33" customFormat="1">
-      <c r="B371" s="35"/>
-      <c r="I371" s="35"/>
-    </row>
-    <row r="372" spans="2:9" s="33" customFormat="1">
-      <c r="B372" s="35"/>
-      <c r="I372" s="35"/>
-    </row>
-    <row r="373" spans="2:9" s="33" customFormat="1">
-      <c r="B373" s="35"/>
-      <c r="I373" s="35"/>
-    </row>
-    <row r="374" spans="2:9" s="33" customFormat="1">
-      <c r="B374" s="35"/>
-      <c r="I374" s="35"/>
-    </row>
-    <row r="375" spans="2:9" s="33" customFormat="1">
-      <c r="B375" s="35"/>
-      <c r="I375" s="35"/>
-    </row>
-    <row r="376" spans="2:9" s="33" customFormat="1">
-      <c r="B376" s="35"/>
-      <c r="I376" s="35"/>
-    </row>
-    <row r="377" spans="2:9" s="33" customFormat="1">
-      <c r="B377" s="35"/>
-      <c r="I377" s="35"/>
-    </row>
-    <row r="378" spans="2:9" s="33" customFormat="1">
-      <c r="B378" s="35"/>
-      <c r="I378" s="35"/>
-    </row>
-    <row r="379" spans="2:9" s="33" customFormat="1">
-      <c r="B379" s="35"/>
-      <c r="I379" s="35"/>
-    </row>
-    <row r="380" spans="2:9" s="33" customFormat="1">
-      <c r="B380" s="35"/>
-      <c r="I380" s="35"/>
-    </row>
-    <row r="381" spans="2:9" s="33" customFormat="1">
-      <c r="B381" s="35"/>
-      <c r="I381" s="35"/>
-    </row>
-    <row r="382" spans="2:9" s="33" customFormat="1">
-      <c r="B382" s="35"/>
-      <c r="I382" s="35"/>
-    </row>
-    <row r="383" spans="2:9" s="33" customFormat="1">
-      <c r="B383" s="35"/>
-      <c r="I383" s="35"/>
-    </row>
-    <row r="384" spans="2:9" s="33" customFormat="1">
-      <c r="B384" s="35"/>
-      <c r="I384" s="35"/>
-    </row>
-    <row r="385" spans="2:9" s="33" customFormat="1">
-      <c r="B385" s="35"/>
-      <c r="I385" s="35"/>
-    </row>
-    <row r="386" spans="2:9" s="33" customFormat="1">
-      <c r="B386" s="35"/>
-      <c r="I386" s="35"/>
-    </row>
-    <row r="387" spans="2:9" s="33" customFormat="1">
-      <c r="B387" s="35"/>
-      <c r="I387" s="35"/>
-    </row>
-    <row r="388" spans="2:9" s="33" customFormat="1">
-      <c r="B388" s="35"/>
-      <c r="I388" s="35"/>
-    </row>
-    <row r="389" spans="2:9" s="33" customFormat="1">
-      <c r="B389" s="35"/>
-      <c r="I389" s="35"/>
-    </row>
-    <row r="390" spans="2:9" s="33" customFormat="1">
-      <c r="B390" s="35"/>
-      <c r="I390" s="35"/>
-    </row>
-    <row r="391" spans="2:9" s="33" customFormat="1">
-      <c r="B391" s="35"/>
-      <c r="I391" s="35"/>
-    </row>
-    <row r="392" spans="2:9" s="33" customFormat="1">
-      <c r="B392" s="35"/>
-      <c r="I392" s="35"/>
-    </row>
-    <row r="393" spans="2:9" s="33" customFormat="1">
-      <c r="B393" s="35"/>
-      <c r="I393" s="35"/>
-    </row>
-    <row r="394" spans="2:9" s="33" customFormat="1">
-      <c r="B394" s="35"/>
-      <c r="I394" s="35"/>
-    </row>
-    <row r="395" spans="2:9" s="33" customFormat="1">
-      <c r="B395" s="35"/>
-      <c r="I395" s="35"/>
-    </row>
-    <row r="396" spans="2:9" s="33" customFormat="1">
-      <c r="B396" s="35"/>
-      <c r="I396" s="35"/>
-    </row>
-    <row r="397" spans="2:9" s="33" customFormat="1">
-      <c r="B397" s="35"/>
-      <c r="I397" s="35"/>
-    </row>
-    <row r="398" spans="2:9" s="33" customFormat="1">
-      <c r="B398" s="35"/>
-      <c r="I398" s="35"/>
-    </row>
-    <row r="399" spans="2:9" s="33" customFormat="1">
-      <c r="B399" s="35"/>
-      <c r="I399" s="35"/>
-    </row>
-    <row r="400" spans="2:9" s="33" customFormat="1">
-      <c r="B400" s="35"/>
-      <c r="I400" s="35"/>
-    </row>
-    <row r="401" spans="2:9" s="33" customFormat="1">
-      <c r="B401" s="35"/>
-      <c r="I401" s="35"/>
-    </row>
-    <row r="402" spans="2:9" s="33" customFormat="1">
-      <c r="B402" s="35"/>
-      <c r="I402" s="35"/>
-    </row>
-    <row r="403" spans="2:9" s="33" customFormat="1">
-      <c r="B403" s="35"/>
-      <c r="I403" s="35"/>
-    </row>
-    <row r="404" spans="2:9" s="33" customFormat="1">
-      <c r="B404" s="35"/>
-      <c r="I404" s="35"/>
-    </row>
-    <row r="405" spans="2:9" s="33" customFormat="1">
-      <c r="B405" s="35"/>
-      <c r="I405" s="35"/>
-    </row>
-    <row r="406" spans="2:9" s="33" customFormat="1">
-      <c r="B406" s="35"/>
-      <c r="I406" s="35"/>
-    </row>
-    <row r="407" spans="2:9" s="33" customFormat="1">
-      <c r="B407" s="35"/>
-      <c r="I407" s="35"/>
-    </row>
-    <row r="408" spans="2:9" s="33" customFormat="1">
-      <c r="B408" s="35"/>
-      <c r="I408" s="35"/>
-    </row>
-    <row r="409" spans="2:9" s="33" customFormat="1">
-      <c r="B409" s="35"/>
-      <c r="I409" s="35"/>
-    </row>
-    <row r="410" spans="2:9" s="33" customFormat="1">
-      <c r="B410" s="35"/>
-      <c r="I410" s="35"/>
-    </row>
-    <row r="411" spans="2:9" s="33" customFormat="1">
-      <c r="B411" s="35"/>
-      <c r="I411" s="35"/>
-    </row>
-    <row r="412" spans="2:9" s="33" customFormat="1">
-      <c r="B412" s="35"/>
-      <c r="I412" s="35"/>
-    </row>
-    <row r="413" spans="2:9" s="33" customFormat="1">
-      <c r="B413" s="35"/>
-      <c r="I413" s="35"/>
-    </row>
-    <row r="414" spans="2:9" s="33" customFormat="1">
-      <c r="B414" s="35"/>
-      <c r="I414" s="35"/>
-    </row>
-    <row r="415" spans="2:9" s="33" customFormat="1">
-      <c r="B415" s="35"/>
-      <c r="I415" s="35"/>
-    </row>
-    <row r="416" spans="2:9" s="33" customFormat="1">
-      <c r="B416" s="35"/>
-      <c r="I416" s="35"/>
-    </row>
-    <row r="417" spans="2:10" s="33" customFormat="1">
-      <c r="B417" s="35"/>
-      <c r="I417" s="35"/>
-    </row>
-    <row r="418" spans="2:10" s="33" customFormat="1">
-      <c r="B418" s="35"/>
-      <c r="I418" s="35"/>
-    </row>
-    <row r="419" spans="2:10">
-      <c r="B419" s="35"/>
-      <c r="C419" s="33"/>
-      <c r="D419" s="33"/>
-      <c r="E419" s="33"/>
-      <c r="F419" s="33"/>
-      <c r="G419" s="33"/>
-      <c r="H419" s="33"/>
-      <c r="I419" s="35"/>
-      <c r="J419" s="33"/>
+      <c r="I78" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="J78" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="K78" s="17"/>
+    </row>
+    <row r="79" spans="2:11" s="28" customFormat="1">
+      <c r="B79" s="30"/>
+      <c r="I79" s="30"/>
+    </row>
+    <row r="80" spans="2:11" s="28" customFormat="1">
+      <c r="B80" s="30"/>
+      <c r="I80" s="30"/>
+    </row>
+    <row r="81" spans="2:9" s="28" customFormat="1">
+      <c r="B81" s="30"/>
+      <c r="I81" s="30"/>
+    </row>
+    <row r="82" spans="2:9" s="28" customFormat="1">
+      <c r="B82" s="30"/>
+      <c r="I82" s="30"/>
+    </row>
+    <row r="83" spans="2:9" s="28" customFormat="1">
+      <c r="B83" s="30"/>
+      <c r="I83" s="30"/>
+    </row>
+    <row r="84" spans="2:9" s="28" customFormat="1">
+      <c r="B84" s="30"/>
+      <c r="I84" s="30"/>
+    </row>
+    <row r="85" spans="2:9" s="28" customFormat="1">
+      <c r="B85" s="30"/>
+      <c r="I85" s="30"/>
+    </row>
+    <row r="86" spans="2:9" s="28" customFormat="1">
+      <c r="B86" s="30"/>
+      <c r="I86" s="30"/>
+    </row>
+    <row r="87" spans="2:9" s="28" customFormat="1">
+      <c r="B87" s="30"/>
+      <c r="I87" s="30"/>
+    </row>
+    <row r="88" spans="2:9" s="28" customFormat="1">
+      <c r="B88" s="30"/>
+      <c r="I88" s="30"/>
+    </row>
+    <row r="89" spans="2:9" s="28" customFormat="1">
+      <c r="B89" s="30"/>
+      <c r="I89" s="30"/>
+    </row>
+    <row r="90" spans="2:9" s="28" customFormat="1">
+      <c r="B90" s="30"/>
+      <c r="I90" s="30"/>
+    </row>
+    <row r="91" spans="2:9" s="28" customFormat="1">
+      <c r="B91" s="30"/>
+      <c r="I91" s="30"/>
+    </row>
+    <row r="92" spans="2:9" s="28" customFormat="1">
+      <c r="B92" s="30"/>
+      <c r="I92" s="30"/>
+    </row>
+    <row r="93" spans="2:9" s="28" customFormat="1">
+      <c r="B93" s="30"/>
+      <c r="I93" s="30"/>
+    </row>
+    <row r="94" spans="2:9" s="28" customFormat="1">
+      <c r="B94" s="30"/>
+      <c r="I94" s="30"/>
+    </row>
+    <row r="95" spans="2:9" s="28" customFormat="1">
+      <c r="B95" s="30"/>
+      <c r="I95" s="30"/>
+    </row>
+    <row r="96" spans="2:9" s="28" customFormat="1">
+      <c r="B96" s="30"/>
+      <c r="I96" s="30"/>
+    </row>
+    <row r="97" spans="2:9" s="28" customFormat="1">
+      <c r="B97" s="30"/>
+      <c r="I97" s="30"/>
+    </row>
+    <row r="98" spans="2:9" s="28" customFormat="1">
+      <c r="B98" s="30"/>
+      <c r="I98" s="30"/>
+    </row>
+    <row r="99" spans="2:9" s="28" customFormat="1">
+      <c r="B99" s="30"/>
+      <c r="I99" s="30"/>
+    </row>
+    <row r="100" spans="2:9" s="28" customFormat="1">
+      <c r="B100" s="30"/>
+      <c r="I100" s="30"/>
+    </row>
+    <row r="101" spans="2:9" s="28" customFormat="1">
+      <c r="B101" s="30"/>
+      <c r="I101" s="30"/>
+    </row>
+    <row r="102" spans="2:9" s="28" customFormat="1">
+      <c r="B102" s="30"/>
+      <c r="I102" s="30"/>
+    </row>
+    <row r="103" spans="2:9" s="28" customFormat="1">
+      <c r="B103" s="30"/>
+      <c r="I103" s="30"/>
+    </row>
+    <row r="104" spans="2:9" s="28" customFormat="1">
+      <c r="B104" s="30"/>
+      <c r="I104" s="30"/>
+    </row>
+    <row r="105" spans="2:9" s="28" customFormat="1">
+      <c r="B105" s="30"/>
+      <c r="I105" s="30"/>
+    </row>
+    <row r="106" spans="2:9" s="28" customFormat="1">
+      <c r="B106" s="30"/>
+      <c r="I106" s="30"/>
+    </row>
+    <row r="107" spans="2:9" s="28" customFormat="1">
+      <c r="B107" s="30"/>
+      <c r="I107" s="30"/>
+    </row>
+    <row r="108" spans="2:9" s="28" customFormat="1">
+      <c r="B108" s="30"/>
+      <c r="I108" s="30"/>
+    </row>
+    <row r="109" spans="2:9" s="28" customFormat="1">
+      <c r="B109" s="30"/>
+      <c r="I109" s="30"/>
+    </row>
+    <row r="110" spans="2:9" s="28" customFormat="1">
+      <c r="B110" s="30"/>
+      <c r="I110" s="30"/>
+    </row>
+    <row r="111" spans="2:9" s="28" customFormat="1">
+      <c r="B111" s="30"/>
+      <c r="I111" s="30"/>
+    </row>
+    <row r="112" spans="2:9" s="28" customFormat="1">
+      <c r="B112" s="30"/>
+      <c r="I112" s="30"/>
+    </row>
+    <row r="113" spans="2:9" s="28" customFormat="1">
+      <c r="B113" s="30"/>
+      <c r="I113" s="30"/>
+    </row>
+    <row r="114" spans="2:9" s="28" customFormat="1">
+      <c r="B114" s="30"/>
+      <c r="I114" s="30"/>
+    </row>
+    <row r="115" spans="2:9" s="28" customFormat="1">
+      <c r="B115" s="30"/>
+      <c r="I115" s="30"/>
+    </row>
+    <row r="116" spans="2:9" s="28" customFormat="1">
+      <c r="B116" s="30"/>
+      <c r="I116" s="30"/>
+    </row>
+    <row r="117" spans="2:9" s="28" customFormat="1">
+      <c r="B117" s="30"/>
+      <c r="I117" s="30"/>
+    </row>
+    <row r="118" spans="2:9" s="28" customFormat="1">
+      <c r="B118" s="30"/>
+      <c r="I118" s="30"/>
+    </row>
+    <row r="119" spans="2:9" s="28" customFormat="1">
+      <c r="B119" s="30"/>
+      <c r="I119" s="30"/>
+    </row>
+    <row r="120" spans="2:9" s="28" customFormat="1">
+      <c r="B120" s="30"/>
+      <c r="I120" s="30"/>
+    </row>
+    <row r="121" spans="2:9" s="28" customFormat="1">
+      <c r="B121" s="30"/>
+      <c r="I121" s="30"/>
+    </row>
+    <row r="122" spans="2:9" s="28" customFormat="1">
+      <c r="B122" s="30"/>
+      <c r="I122" s="30"/>
+    </row>
+    <row r="123" spans="2:9" s="28" customFormat="1">
+      <c r="B123" s="30"/>
+      <c r="I123" s="30"/>
+    </row>
+    <row r="124" spans="2:9" s="28" customFormat="1">
+      <c r="B124" s="30"/>
+      <c r="I124" s="30"/>
+    </row>
+    <row r="125" spans="2:9" s="28" customFormat="1">
+      <c r="B125" s="30"/>
+      <c r="I125" s="30"/>
+    </row>
+    <row r="126" spans="2:9" s="28" customFormat="1">
+      <c r="B126" s="30"/>
+      <c r="I126" s="30"/>
+    </row>
+    <row r="127" spans="2:9" s="28" customFormat="1">
+      <c r="B127" s="30"/>
+      <c r="I127" s="30"/>
+    </row>
+    <row r="128" spans="2:9" s="28" customFormat="1">
+      <c r="B128" s="30"/>
+      <c r="I128" s="30"/>
+    </row>
+    <row r="129" spans="2:9" s="28" customFormat="1">
+      <c r="B129" s="30"/>
+      <c r="I129" s="30"/>
+    </row>
+    <row r="130" spans="2:9" s="28" customFormat="1">
+      <c r="B130" s="30"/>
+      <c r="I130" s="30"/>
+    </row>
+    <row r="131" spans="2:9" s="28" customFormat="1">
+      <c r="B131" s="30"/>
+      <c r="I131" s="30"/>
+    </row>
+    <row r="132" spans="2:9" s="28" customFormat="1">
+      <c r="B132" s="30"/>
+      <c r="I132" s="30"/>
+    </row>
+    <row r="133" spans="2:9" s="28" customFormat="1">
+      <c r="B133" s="30"/>
+      <c r="I133" s="30"/>
+    </row>
+    <row r="134" spans="2:9" s="28" customFormat="1">
+      <c r="B134" s="30"/>
+      <c r="I134" s="30"/>
+    </row>
+    <row r="135" spans="2:9" s="28" customFormat="1">
+      <c r="B135" s="30"/>
+      <c r="I135" s="30"/>
+    </row>
+    <row r="136" spans="2:9" s="28" customFormat="1">
+      <c r="B136" s="30"/>
+      <c r="I136" s="30"/>
+    </row>
+    <row r="137" spans="2:9" s="28" customFormat="1">
+      <c r="B137" s="30"/>
+      <c r="I137" s="30"/>
+    </row>
+    <row r="138" spans="2:9" s="28" customFormat="1">
+      <c r="B138" s="30"/>
+      <c r="I138" s="30"/>
+    </row>
+    <row r="139" spans="2:9" s="28" customFormat="1">
+      <c r="B139" s="30"/>
+      <c r="I139" s="30"/>
+    </row>
+    <row r="140" spans="2:9" s="28" customFormat="1">
+      <c r="B140" s="30"/>
+      <c r="I140" s="30"/>
+    </row>
+    <row r="141" spans="2:9" s="28" customFormat="1">
+      <c r="B141" s="30"/>
+      <c r="I141" s="30"/>
+    </row>
+    <row r="142" spans="2:9" s="28" customFormat="1">
+      <c r="B142" s="30"/>
+      <c r="I142" s="30"/>
+    </row>
+    <row r="143" spans="2:9" s="28" customFormat="1">
+      <c r="B143" s="30"/>
+      <c r="I143" s="30"/>
+    </row>
+    <row r="144" spans="2:9" s="28" customFormat="1">
+      <c r="B144" s="30"/>
+      <c r="I144" s="30"/>
+    </row>
+    <row r="145" spans="2:9" s="28" customFormat="1">
+      <c r="B145" s="30"/>
+      <c r="I145" s="30"/>
+    </row>
+    <row r="146" spans="2:9" s="28" customFormat="1">
+      <c r="B146" s="30"/>
+      <c r="I146" s="30"/>
+    </row>
+    <row r="147" spans="2:9" s="28" customFormat="1">
+      <c r="B147" s="30"/>
+      <c r="I147" s="30"/>
+    </row>
+    <row r="148" spans="2:9" s="28" customFormat="1">
+      <c r="B148" s="30"/>
+      <c r="I148" s="30"/>
+    </row>
+    <row r="149" spans="2:9" s="28" customFormat="1">
+      <c r="B149" s="30"/>
+      <c r="I149" s="30"/>
+    </row>
+    <row r="150" spans="2:9" s="28" customFormat="1">
+      <c r="B150" s="30"/>
+      <c r="I150" s="30"/>
+    </row>
+    <row r="151" spans="2:9" s="28" customFormat="1">
+      <c r="B151" s="30"/>
+      <c r="I151" s="30"/>
+    </row>
+    <row r="152" spans="2:9" s="28" customFormat="1">
+      <c r="B152" s="30"/>
+      <c r="I152" s="30"/>
+    </row>
+    <row r="153" spans="2:9" s="28" customFormat="1">
+      <c r="B153" s="30"/>
+      <c r="I153" s="30"/>
+    </row>
+    <row r="154" spans="2:9" s="28" customFormat="1">
+      <c r="B154" s="30"/>
+      <c r="I154" s="30"/>
+    </row>
+    <row r="155" spans="2:9" s="28" customFormat="1">
+      <c r="B155" s="30"/>
+      <c r="I155" s="30"/>
+    </row>
+    <row r="156" spans="2:9" s="28" customFormat="1">
+      <c r="B156" s="30"/>
+      <c r="I156" s="30"/>
+    </row>
+    <row r="157" spans="2:9" s="28" customFormat="1">
+      <c r="B157" s="30"/>
+      <c r="I157" s="30"/>
+    </row>
+    <row r="158" spans="2:9" s="28" customFormat="1">
+      <c r="B158" s="30"/>
+      <c r="I158" s="30"/>
+    </row>
+    <row r="159" spans="2:9" s="28" customFormat="1">
+      <c r="B159" s="30"/>
+      <c r="I159" s="30"/>
+    </row>
+    <row r="160" spans="2:9" s="28" customFormat="1">
+      <c r="B160" s="30"/>
+      <c r="I160" s="30"/>
+    </row>
+    <row r="161" spans="2:9" s="28" customFormat="1">
+      <c r="B161" s="30"/>
+      <c r="I161" s="30"/>
+    </row>
+    <row r="162" spans="2:9" s="28" customFormat="1">
+      <c r="B162" s="30"/>
+      <c r="I162" s="30"/>
+    </row>
+    <row r="163" spans="2:9" s="28" customFormat="1">
+      <c r="B163" s="30"/>
+      <c r="I163" s="30"/>
+    </row>
+    <row r="164" spans="2:9" s="28" customFormat="1">
+      <c r="B164" s="30"/>
+      <c r="I164" s="30"/>
+    </row>
+    <row r="165" spans="2:9" s="28" customFormat="1">
+      <c r="B165" s="30"/>
+      <c r="I165" s="30"/>
+    </row>
+    <row r="166" spans="2:9" s="28" customFormat="1">
+      <c r="B166" s="30"/>
+      <c r="I166" s="30"/>
+    </row>
+    <row r="167" spans="2:9" s="28" customFormat="1">
+      <c r="B167" s="30"/>
+      <c r="I167" s="30"/>
+    </row>
+    <row r="168" spans="2:9" s="28" customFormat="1">
+      <c r="B168" s="30"/>
+      <c r="I168" s="30"/>
+    </row>
+    <row r="169" spans="2:9" s="28" customFormat="1">
+      <c r="B169" s="30"/>
+      <c r="I169" s="30"/>
+    </row>
+    <row r="170" spans="2:9" s="28" customFormat="1">
+      <c r="B170" s="30"/>
+      <c r="I170" s="30"/>
+    </row>
+    <row r="171" spans="2:9" s="28" customFormat="1">
+      <c r="B171" s="30"/>
+      <c r="I171" s="30"/>
+    </row>
+    <row r="172" spans="2:9" s="28" customFormat="1">
+      <c r="B172" s="30"/>
+      <c r="I172" s="30"/>
+    </row>
+    <row r="173" spans="2:9" s="28" customFormat="1">
+      <c r="B173" s="30"/>
+      <c r="I173" s="30"/>
+    </row>
+    <row r="174" spans="2:9" s="28" customFormat="1">
+      <c r="B174" s="30"/>
+      <c r="I174" s="30"/>
+    </row>
+    <row r="175" spans="2:9" s="28" customFormat="1">
+      <c r="B175" s="30"/>
+      <c r="I175" s="30"/>
+    </row>
+    <row r="176" spans="2:9" s="28" customFormat="1">
+      <c r="B176" s="30"/>
+      <c r="I176" s="30"/>
+    </row>
+    <row r="177" spans="2:9" s="28" customFormat="1">
+      <c r="B177" s="30"/>
+      <c r="I177" s="30"/>
+    </row>
+    <row r="178" spans="2:9" s="28" customFormat="1">
+      <c r="B178" s="30"/>
+      <c r="I178" s="30"/>
+    </row>
+    <row r="179" spans="2:9" s="28" customFormat="1">
+      <c r="B179" s="30"/>
+      <c r="I179" s="30"/>
+    </row>
+    <row r="180" spans="2:9" s="28" customFormat="1">
+      <c r="B180" s="30"/>
+      <c r="I180" s="30"/>
+    </row>
+    <row r="181" spans="2:9" s="28" customFormat="1">
+      <c r="B181" s="30"/>
+      <c r="I181" s="30"/>
+    </row>
+    <row r="182" spans="2:9" s="28" customFormat="1">
+      <c r="B182" s="30"/>
+      <c r="I182" s="30"/>
+    </row>
+    <row r="183" spans="2:9" s="28" customFormat="1">
+      <c r="B183" s="30"/>
+      <c r="I183" s="30"/>
+    </row>
+    <row r="184" spans="2:9" s="28" customFormat="1">
+      <c r="B184" s="30"/>
+      <c r="I184" s="30"/>
+    </row>
+    <row r="185" spans="2:9" s="28" customFormat="1">
+      <c r="B185" s="30"/>
+      <c r="I185" s="30"/>
+    </row>
+    <row r="186" spans="2:9" s="28" customFormat="1">
+      <c r="B186" s="30"/>
+      <c r="I186" s="30"/>
+    </row>
+    <row r="187" spans="2:9" s="28" customFormat="1">
+      <c r="B187" s="30"/>
+      <c r="I187" s="30"/>
+    </row>
+    <row r="188" spans="2:9" s="28" customFormat="1">
+      <c r="B188" s="30"/>
+      <c r="I188" s="30"/>
+    </row>
+    <row r="189" spans="2:9" s="28" customFormat="1">
+      <c r="B189" s="30"/>
+      <c r="I189" s="30"/>
+    </row>
+    <row r="190" spans="2:9" s="28" customFormat="1">
+      <c r="B190" s="30"/>
+      <c r="I190" s="30"/>
+    </row>
+    <row r="191" spans="2:9" s="28" customFormat="1">
+      <c r="B191" s="30"/>
+      <c r="I191" s="30"/>
+    </row>
+    <row r="192" spans="2:9" s="28" customFormat="1">
+      <c r="B192" s="30"/>
+      <c r="I192" s="30"/>
+    </row>
+    <row r="193" spans="2:9" s="28" customFormat="1">
+      <c r="B193" s="30"/>
+      <c r="I193" s="30"/>
+    </row>
+    <row r="194" spans="2:9" s="28" customFormat="1">
+      <c r="B194" s="30"/>
+      <c r="I194" s="30"/>
+    </row>
+    <row r="195" spans="2:9" s="28" customFormat="1">
+      <c r="B195" s="30"/>
+      <c r="I195" s="30"/>
+    </row>
+    <row r="196" spans="2:9" s="28" customFormat="1">
+      <c r="B196" s="30"/>
+      <c r="I196" s="30"/>
+    </row>
+    <row r="197" spans="2:9" s="28" customFormat="1">
+      <c r="B197" s="30"/>
+      <c r="I197" s="30"/>
+    </row>
+    <row r="198" spans="2:9" s="28" customFormat="1">
+      <c r="B198" s="30"/>
+      <c r="I198" s="30"/>
+    </row>
+    <row r="199" spans="2:9" s="28" customFormat="1">
+      <c r="B199" s="30"/>
+      <c r="I199" s="30"/>
+    </row>
+    <row r="200" spans="2:9" s="28" customFormat="1">
+      <c r="B200" s="30"/>
+      <c r="I200" s="30"/>
+    </row>
+    <row r="201" spans="2:9" s="28" customFormat="1">
+      <c r="B201" s="30"/>
+      <c r="I201" s="30"/>
+    </row>
+    <row r="202" spans="2:9" s="28" customFormat="1">
+      <c r="B202" s="30"/>
+      <c r="I202" s="30"/>
+    </row>
+    <row r="203" spans="2:9" s="28" customFormat="1">
+      <c r="B203" s="30"/>
+      <c r="I203" s="30"/>
+    </row>
+    <row r="204" spans="2:9" s="28" customFormat="1">
+      <c r="B204" s="30"/>
+      <c r="I204" s="30"/>
+    </row>
+    <row r="205" spans="2:9" s="28" customFormat="1">
+      <c r="B205" s="30"/>
+      <c r="I205" s="30"/>
+    </row>
+    <row r="206" spans="2:9" s="28" customFormat="1">
+      <c r="B206" s="30"/>
+      <c r="I206" s="30"/>
+    </row>
+    <row r="207" spans="2:9" s="28" customFormat="1">
+      <c r="B207" s="30"/>
+      <c r="I207" s="30"/>
+    </row>
+    <row r="208" spans="2:9" s="28" customFormat="1">
+      <c r="B208" s="30"/>
+      <c r="I208" s="30"/>
+    </row>
+    <row r="209" spans="2:9" s="28" customFormat="1">
+      <c r="B209" s="30"/>
+      <c r="I209" s="30"/>
+    </row>
+    <row r="210" spans="2:9" s="28" customFormat="1">
+      <c r="B210" s="30"/>
+      <c r="I210" s="30"/>
+    </row>
+    <row r="211" spans="2:9" s="28" customFormat="1">
+      <c r="B211" s="30"/>
+      <c r="I211" s="30"/>
+    </row>
+    <row r="212" spans="2:9" s="28" customFormat="1">
+      <c r="B212" s="30"/>
+      <c r="I212" s="30"/>
+    </row>
+    <row r="213" spans="2:9" s="28" customFormat="1">
+      <c r="B213" s="30"/>
+      <c r="I213" s="30"/>
+    </row>
+    <row r="214" spans="2:9" s="28" customFormat="1">
+      <c r="B214" s="30"/>
+      <c r="I214" s="30"/>
+    </row>
+    <row r="215" spans="2:9" s="28" customFormat="1">
+      <c r="B215" s="30"/>
+      <c r="I215" s="30"/>
+    </row>
+    <row r="216" spans="2:9" s="28" customFormat="1">
+      <c r="B216" s="30"/>
+      <c r="I216" s="30"/>
+    </row>
+    <row r="217" spans="2:9" s="28" customFormat="1">
+      <c r="B217" s="30"/>
+      <c r="I217" s="30"/>
+    </row>
+    <row r="218" spans="2:9" s="28" customFormat="1">
+      <c r="B218" s="30"/>
+      <c r="I218" s="30"/>
+    </row>
+    <row r="219" spans="2:9" s="28" customFormat="1">
+      <c r="B219" s="30"/>
+      <c r="I219" s="30"/>
+    </row>
+    <row r="220" spans="2:9" s="28" customFormat="1">
+      <c r="B220" s="30"/>
+      <c r="I220" s="30"/>
+    </row>
+    <row r="221" spans="2:9" s="28" customFormat="1">
+      <c r="B221" s="30"/>
+      <c r="I221" s="30"/>
+    </row>
+    <row r="222" spans="2:9" s="28" customFormat="1">
+      <c r="B222" s="30"/>
+      <c r="I222" s="30"/>
+    </row>
+    <row r="223" spans="2:9" s="28" customFormat="1">
+      <c r="B223" s="30"/>
+      <c r="I223" s="30"/>
+    </row>
+    <row r="224" spans="2:9" s="28" customFormat="1">
+      <c r="B224" s="30"/>
+      <c r="I224" s="30"/>
+    </row>
+    <row r="225" spans="2:9" s="28" customFormat="1">
+      <c r="B225" s="30"/>
+      <c r="I225" s="30"/>
+    </row>
+    <row r="226" spans="2:9" s="28" customFormat="1">
+      <c r="B226" s="30"/>
+      <c r="I226" s="30"/>
+    </row>
+    <row r="227" spans="2:9" s="28" customFormat="1">
+      <c r="B227" s="30"/>
+      <c r="I227" s="30"/>
+    </row>
+    <row r="228" spans="2:9" s="28" customFormat="1">
+      <c r="B228" s="30"/>
+      <c r="I228" s="30"/>
+    </row>
+    <row r="229" spans="2:9" s="28" customFormat="1">
+      <c r="B229" s="30"/>
+      <c r="I229" s="30"/>
+    </row>
+    <row r="230" spans="2:9" s="28" customFormat="1">
+      <c r="B230" s="30"/>
+      <c r="I230" s="30"/>
+    </row>
+    <row r="231" spans="2:9" s="28" customFormat="1">
+      <c r="B231" s="30"/>
+      <c r="I231" s="30"/>
+    </row>
+    <row r="232" spans="2:9" s="28" customFormat="1">
+      <c r="B232" s="30"/>
+      <c r="I232" s="30"/>
+    </row>
+    <row r="233" spans="2:9" s="28" customFormat="1">
+      <c r="B233" s="30"/>
+      <c r="I233" s="30"/>
+    </row>
+    <row r="234" spans="2:9" s="28" customFormat="1">
+      <c r="B234" s="30"/>
+      <c r="I234" s="30"/>
+    </row>
+    <row r="235" spans="2:9" s="28" customFormat="1">
+      <c r="B235" s="30"/>
+      <c r="I235" s="30"/>
+    </row>
+    <row r="236" spans="2:9" s="28" customFormat="1">
+      <c r="B236" s="30"/>
+      <c r="I236" s="30"/>
+    </row>
+    <row r="237" spans="2:9" s="28" customFormat="1">
+      <c r="B237" s="30"/>
+      <c r="I237" s="30"/>
+    </row>
+    <row r="238" spans="2:9" s="28" customFormat="1">
+      <c r="B238" s="30"/>
+      <c r="I238" s="30"/>
+    </row>
+    <row r="239" spans="2:9" s="28" customFormat="1">
+      <c r="B239" s="30"/>
+      <c r="I239" s="30"/>
+    </row>
+    <row r="240" spans="2:9" s="28" customFormat="1">
+      <c r="B240" s="30"/>
+      <c r="I240" s="30"/>
+    </row>
+    <row r="241" spans="2:9" s="28" customFormat="1">
+      <c r="B241" s="30"/>
+      <c r="I241" s="30"/>
+    </row>
+    <row r="242" spans="2:9" s="28" customFormat="1">
+      <c r="B242" s="30"/>
+      <c r="I242" s="30"/>
+    </row>
+    <row r="243" spans="2:9" s="28" customFormat="1">
+      <c r="B243" s="30"/>
+      <c r="I243" s="30"/>
+    </row>
+    <row r="244" spans="2:9" s="28" customFormat="1">
+      <c r="B244" s="30"/>
+      <c r="I244" s="30"/>
+    </row>
+    <row r="245" spans="2:9" s="28" customFormat="1">
+      <c r="B245" s="30"/>
+      <c r="I245" s="30"/>
+    </row>
+    <row r="246" spans="2:9" s="28" customFormat="1">
+      <c r="B246" s="30"/>
+      <c r="I246" s="30"/>
+    </row>
+    <row r="247" spans="2:9" s="28" customFormat="1">
+      <c r="B247" s="30"/>
+      <c r="I247" s="30"/>
+    </row>
+    <row r="248" spans="2:9" s="28" customFormat="1">
+      <c r="B248" s="30"/>
+      <c r="I248" s="30"/>
+    </row>
+    <row r="249" spans="2:9" s="28" customFormat="1">
+      <c r="B249" s="30"/>
+      <c r="I249" s="30"/>
+    </row>
+    <row r="250" spans="2:9" s="28" customFormat="1">
+      <c r="B250" s="30"/>
+      <c r="I250" s="30"/>
+    </row>
+    <row r="251" spans="2:9" s="28" customFormat="1">
+      <c r="B251" s="30"/>
+      <c r="I251" s="30"/>
+    </row>
+    <row r="252" spans="2:9" s="28" customFormat="1">
+      <c r="B252" s="30"/>
+      <c r="I252" s="30"/>
+    </row>
+    <row r="253" spans="2:9" s="28" customFormat="1">
+      <c r="B253" s="30"/>
+      <c r="I253" s="30"/>
+    </row>
+    <row r="254" spans="2:9" s="28" customFormat="1">
+      <c r="B254" s="30"/>
+      <c r="I254" s="30"/>
+    </row>
+    <row r="255" spans="2:9" s="28" customFormat="1">
+      <c r="B255" s="30"/>
+      <c r="I255" s="30"/>
+    </row>
+    <row r="256" spans="2:9" s="28" customFormat="1">
+      <c r="B256" s="30"/>
+      <c r="I256" s="30"/>
+    </row>
+    <row r="257" spans="2:9" s="28" customFormat="1">
+      <c r="B257" s="30"/>
+      <c r="I257" s="30"/>
+    </row>
+    <row r="258" spans="2:9" s="28" customFormat="1">
+      <c r="B258" s="30"/>
+      <c r="I258" s="30"/>
+    </row>
+    <row r="259" spans="2:9" s="28" customFormat="1">
+      <c r="B259" s="30"/>
+      <c r="I259" s="30"/>
+    </row>
+    <row r="260" spans="2:9" s="28" customFormat="1">
+      <c r="B260" s="30"/>
+      <c r="I260" s="30"/>
+    </row>
+    <row r="261" spans="2:9" s="28" customFormat="1">
+      <c r="B261" s="30"/>
+      <c r="I261" s="30"/>
+    </row>
+    <row r="262" spans="2:9" s="28" customFormat="1">
+      <c r="B262" s="30"/>
+      <c r="I262" s="30"/>
+    </row>
+    <row r="263" spans="2:9" s="28" customFormat="1">
+      <c r="B263" s="30"/>
+      <c r="I263" s="30"/>
+    </row>
+    <row r="264" spans="2:9" s="28" customFormat="1">
+      <c r="B264" s="30"/>
+      <c r="I264" s="30"/>
+    </row>
+    <row r="265" spans="2:9" s="28" customFormat="1">
+      <c r="B265" s="30"/>
+      <c r="I265" s="30"/>
+    </row>
+    <row r="266" spans="2:9" s="28" customFormat="1">
+      <c r="B266" s="30"/>
+      <c r="I266" s="30"/>
+    </row>
+    <row r="267" spans="2:9" s="28" customFormat="1">
+      <c r="B267" s="30"/>
+      <c r="I267" s="30"/>
+    </row>
+    <row r="268" spans="2:9" s="28" customFormat="1">
+      <c r="B268" s="30"/>
+      <c r="I268" s="30"/>
+    </row>
+    <row r="269" spans="2:9" s="28" customFormat="1">
+      <c r="B269" s="30"/>
+      <c r="I269" s="30"/>
+    </row>
+    <row r="270" spans="2:9" s="28" customFormat="1">
+      <c r="B270" s="30"/>
+      <c r="I270" s="30"/>
+    </row>
+    <row r="271" spans="2:9" s="28" customFormat="1">
+      <c r="B271" s="30"/>
+      <c r="I271" s="30"/>
+    </row>
+    <row r="272" spans="2:9" s="28" customFormat="1">
+      <c r="B272" s="30"/>
+      <c r="I272" s="30"/>
+    </row>
+    <row r="273" spans="2:9" s="28" customFormat="1">
+      <c r="B273" s="30"/>
+      <c r="I273" s="30"/>
+    </row>
+    <row r="274" spans="2:9" s="28" customFormat="1">
+      <c r="B274" s="30"/>
+      <c r="I274" s="30"/>
+    </row>
+    <row r="275" spans="2:9" s="28" customFormat="1">
+      <c r="B275" s="30"/>
+      <c r="I275" s="30"/>
+    </row>
+    <row r="276" spans="2:9" s="28" customFormat="1">
+      <c r="B276" s="30"/>
+      <c r="I276" s="30"/>
+    </row>
+    <row r="277" spans="2:9" s="28" customFormat="1">
+      <c r="B277" s="30"/>
+      <c r="I277" s="30"/>
+    </row>
+    <row r="278" spans="2:9" s="28" customFormat="1">
+      <c r="B278" s="30"/>
+      <c r="I278" s="30"/>
+    </row>
+    <row r="279" spans="2:9" s="28" customFormat="1">
+      <c r="B279" s="30"/>
+      <c r="I279" s="30"/>
+    </row>
+    <row r="280" spans="2:9" s="28" customFormat="1">
+      <c r="B280" s="30"/>
+      <c r="I280" s="30"/>
+    </row>
+    <row r="281" spans="2:9" s="28" customFormat="1">
+      <c r="B281" s="30"/>
+      <c r="I281" s="30"/>
+    </row>
+    <row r="282" spans="2:9" s="28" customFormat="1">
+      <c r="B282" s="30"/>
+      <c r="I282" s="30"/>
+    </row>
+    <row r="283" spans="2:9" s="28" customFormat="1">
+      <c r="B283" s="30"/>
+      <c r="I283" s="30"/>
+    </row>
+    <row r="284" spans="2:9" s="28" customFormat="1">
+      <c r="B284" s="30"/>
+      <c r="I284" s="30"/>
+    </row>
+    <row r="285" spans="2:9" s="28" customFormat="1">
+      <c r="B285" s="30"/>
+      <c r="I285" s="30"/>
+    </row>
+    <row r="286" spans="2:9" s="28" customFormat="1">
+      <c r="B286" s="30"/>
+      <c r="I286" s="30"/>
+    </row>
+    <row r="287" spans="2:9" s="28" customFormat="1">
+      <c r="B287" s="30"/>
+      <c r="I287" s="30"/>
+    </row>
+    <row r="288" spans="2:9" s="28" customFormat="1">
+      <c r="B288" s="30"/>
+      <c r="I288" s="30"/>
+    </row>
+    <row r="289" spans="2:9" s="28" customFormat="1">
+      <c r="B289" s="30"/>
+      <c r="I289" s="30"/>
+    </row>
+    <row r="290" spans="2:9" s="28" customFormat="1">
+      <c r="B290" s="30"/>
+      <c r="I290" s="30"/>
+    </row>
+    <row r="291" spans="2:9" s="28" customFormat="1">
+      <c r="B291" s="30"/>
+      <c r="I291" s="30"/>
+    </row>
+    <row r="292" spans="2:9" s="28" customFormat="1">
+      <c r="B292" s="30"/>
+      <c r="I292" s="30"/>
+    </row>
+    <row r="293" spans="2:9" s="28" customFormat="1">
+      <c r="B293" s="30"/>
+      <c r="I293" s="30"/>
+    </row>
+    <row r="294" spans="2:9" s="28" customFormat="1">
+      <c r="B294" s="30"/>
+      <c r="I294" s="30"/>
+    </row>
+    <row r="295" spans="2:9" s="28" customFormat="1">
+      <c r="B295" s="30"/>
+      <c r="I295" s="30"/>
+    </row>
+    <row r="296" spans="2:9" s="28" customFormat="1">
+      <c r="B296" s="30"/>
+      <c r="I296" s="30"/>
+    </row>
+    <row r="297" spans="2:9" s="28" customFormat="1">
+      <c r="B297" s="30"/>
+      <c r="I297" s="30"/>
+    </row>
+    <row r="298" spans="2:9" s="28" customFormat="1">
+      <c r="B298" s="30"/>
+      <c r="I298" s="30"/>
+    </row>
+    <row r="299" spans="2:9" s="28" customFormat="1">
+      <c r="B299" s="30"/>
+      <c r="I299" s="30"/>
+    </row>
+    <row r="300" spans="2:9" s="28" customFormat="1">
+      <c r="B300" s="30"/>
+      <c r="I300" s="30"/>
+    </row>
+    <row r="301" spans="2:9" s="28" customFormat="1">
+      <c r="B301" s="30"/>
+      <c r="I301" s="30"/>
+    </row>
+    <row r="302" spans="2:9" s="28" customFormat="1">
+      <c r="B302" s="30"/>
+      <c r="I302" s="30"/>
+    </row>
+    <row r="303" spans="2:9" s="28" customFormat="1">
+      <c r="B303" s="30"/>
+      <c r="I303" s="30"/>
+    </row>
+    <row r="304" spans="2:9" s="28" customFormat="1">
+      <c r="B304" s="30"/>
+      <c r="I304" s="30"/>
+    </row>
+    <row r="305" spans="2:9" s="28" customFormat="1">
+      <c r="B305" s="30"/>
+      <c r="I305" s="30"/>
+    </row>
+    <row r="306" spans="2:9" s="28" customFormat="1">
+      <c r="B306" s="30"/>
+      <c r="I306" s="30"/>
+    </row>
+    <row r="307" spans="2:9" s="28" customFormat="1">
+      <c r="B307" s="30"/>
+      <c r="I307" s="30"/>
+    </row>
+    <row r="308" spans="2:9" s="28" customFormat="1">
+      <c r="B308" s="30"/>
+      <c r="I308" s="30"/>
+    </row>
+    <row r="309" spans="2:9" s="28" customFormat="1">
+      <c r="B309" s="30"/>
+      <c r="I309" s="30"/>
+    </row>
+    <row r="310" spans="2:9" s="28" customFormat="1">
+      <c r="B310" s="30"/>
+      <c r="I310" s="30"/>
+    </row>
+    <row r="311" spans="2:9" s="28" customFormat="1">
+      <c r="B311" s="30"/>
+      <c r="I311" s="30"/>
+    </row>
+    <row r="312" spans="2:9" s="28" customFormat="1">
+      <c r="B312" s="30"/>
+      <c r="I312" s="30"/>
+    </row>
+    <row r="313" spans="2:9" s="28" customFormat="1">
+      <c r="B313" s="30"/>
+      <c r="I313" s="30"/>
+    </row>
+    <row r="314" spans="2:9" s="28" customFormat="1">
+      <c r="B314" s="30"/>
+      <c r="I314" s="30"/>
+    </row>
+    <row r="315" spans="2:9" s="28" customFormat="1">
+      <c r="B315" s="30"/>
+      <c r="I315" s="30"/>
+    </row>
+    <row r="316" spans="2:9" s="28" customFormat="1">
+      <c r="B316" s="30"/>
+      <c r="I316" s="30"/>
+    </row>
+    <row r="317" spans="2:9" s="28" customFormat="1">
+      <c r="B317" s="30"/>
+      <c r="I317" s="30"/>
+    </row>
+    <row r="318" spans="2:9" s="28" customFormat="1">
+      <c r="B318" s="30"/>
+      <c r="I318" s="30"/>
+    </row>
+    <row r="319" spans="2:9" s="28" customFormat="1">
+      <c r="B319" s="30"/>
+      <c r="I319" s="30"/>
+    </row>
+    <row r="320" spans="2:9" s="28" customFormat="1">
+      <c r="B320" s="30"/>
+      <c r="I320" s="30"/>
+    </row>
+    <row r="321" spans="2:9" s="28" customFormat="1">
+      <c r="B321" s="30"/>
+      <c r="I321" s="30"/>
+    </row>
+    <row r="322" spans="2:9" s="28" customFormat="1">
+      <c r="B322" s="30"/>
+      <c r="I322" s="30"/>
+    </row>
+    <row r="323" spans="2:9" s="28" customFormat="1">
+      <c r="B323" s="30"/>
+      <c r="I323" s="30"/>
+    </row>
+    <row r="324" spans="2:9" s="28" customFormat="1">
+      <c r="B324" s="30"/>
+      <c r="I324" s="30"/>
+    </row>
+    <row r="325" spans="2:9" s="28" customFormat="1">
+      <c r="B325" s="30"/>
+      <c r="I325" s="30"/>
+    </row>
+    <row r="326" spans="2:9" s="28" customFormat="1">
+      <c r="B326" s="30"/>
+      <c r="I326" s="30"/>
+    </row>
+    <row r="327" spans="2:9" s="28" customFormat="1">
+      <c r="B327" s="30"/>
+      <c r="I327" s="30"/>
+    </row>
+    <row r="328" spans="2:9" s="28" customFormat="1">
+      <c r="B328" s="30"/>
+      <c r="I328" s="30"/>
+    </row>
+    <row r="329" spans="2:9" s="28" customFormat="1">
+      <c r="B329" s="30"/>
+      <c r="I329" s="30"/>
+    </row>
+    <row r="330" spans="2:9" s="28" customFormat="1">
+      <c r="B330" s="30"/>
+      <c r="I330" s="30"/>
+    </row>
+    <row r="331" spans="2:9" s="28" customFormat="1">
+      <c r="B331" s="30"/>
+      <c r="I331" s="30"/>
+    </row>
+    <row r="332" spans="2:9" s="28" customFormat="1">
+      <c r="B332" s="30"/>
+      <c r="I332" s="30"/>
+    </row>
+    <row r="333" spans="2:9" s="28" customFormat="1">
+      <c r="B333" s="30"/>
+      <c r="I333" s="30"/>
+    </row>
+    <row r="334" spans="2:9" s="28" customFormat="1">
+      <c r="B334" s="30"/>
+      <c r="I334" s="30"/>
+    </row>
+    <row r="335" spans="2:9" s="28" customFormat="1">
+      <c r="B335" s="30"/>
+      <c r="I335" s="30"/>
+    </row>
+    <row r="336" spans="2:9" s="28" customFormat="1">
+      <c r="B336" s="30"/>
+      <c r="I336" s="30"/>
+    </row>
+    <row r="337" spans="2:9" s="28" customFormat="1">
+      <c r="B337" s="30"/>
+      <c r="I337" s="30"/>
+    </row>
+    <row r="338" spans="2:9" s="28" customFormat="1">
+      <c r="B338" s="30"/>
+      <c r="I338" s="30"/>
+    </row>
+    <row r="339" spans="2:9" s="28" customFormat="1">
+      <c r="B339" s="30"/>
+      <c r="I339" s="30"/>
+    </row>
+    <row r="340" spans="2:9" s="28" customFormat="1">
+      <c r="B340" s="30"/>
+      <c r="I340" s="30"/>
+    </row>
+    <row r="341" spans="2:9" s="28" customFormat="1">
+      <c r="B341" s="30"/>
+      <c r="I341" s="30"/>
+    </row>
+    <row r="342" spans="2:9" s="28" customFormat="1">
+      <c r="B342" s="30"/>
+      <c r="I342" s="30"/>
+    </row>
+    <row r="343" spans="2:9" s="28" customFormat="1">
+      <c r="B343" s="30"/>
+      <c r="I343" s="30"/>
+    </row>
+    <row r="344" spans="2:9" s="28" customFormat="1">
+      <c r="B344" s="30"/>
+      <c r="I344" s="30"/>
+    </row>
+    <row r="345" spans="2:9" s="28" customFormat="1">
+      <c r="B345" s="30"/>
+      <c r="I345" s="30"/>
+    </row>
+    <row r="346" spans="2:9" s="28" customFormat="1">
+      <c r="B346" s="30"/>
+      <c r="I346" s="30"/>
+    </row>
+    <row r="347" spans="2:9" s="28" customFormat="1">
+      <c r="B347" s="30"/>
+      <c r="I347" s="30"/>
+    </row>
+    <row r="348" spans="2:9" s="28" customFormat="1">
+      <c r="B348" s="30"/>
+      <c r="I348" s="30"/>
+    </row>
+    <row r="349" spans="2:9" s="28" customFormat="1">
+      <c r="B349" s="30"/>
+      <c r="I349" s="30"/>
+    </row>
+    <row r="350" spans="2:9" s="28" customFormat="1">
+      <c r="B350" s="30"/>
+      <c r="I350" s="30"/>
+    </row>
+    <row r="351" spans="2:9" s="28" customFormat="1">
+      <c r="B351" s="30"/>
+      <c r="I351" s="30"/>
+    </row>
+    <row r="352" spans="2:9" s="28" customFormat="1">
+      <c r="B352" s="30"/>
+      <c r="I352" s="30"/>
+    </row>
+    <row r="353" spans="2:9" s="28" customFormat="1">
+      <c r="B353" s="30"/>
+      <c r="I353" s="30"/>
+    </row>
+    <row r="354" spans="2:9" s="28" customFormat="1">
+      <c r="B354" s="30"/>
+      <c r="I354" s="30"/>
+    </row>
+    <row r="355" spans="2:9" s="28" customFormat="1">
+      <c r="B355" s="30"/>
+      <c r="I355" s="30"/>
+    </row>
+    <row r="356" spans="2:9" s="28" customFormat="1">
+      <c r="B356" s="30"/>
+      <c r="I356" s="30"/>
+    </row>
+    <row r="357" spans="2:9" s="28" customFormat="1">
+      <c r="B357" s="30"/>
+      <c r="I357" s="30"/>
+    </row>
+    <row r="358" spans="2:9" s="28" customFormat="1">
+      <c r="B358" s="30"/>
+      <c r="I358" s="30"/>
+    </row>
+    <row r="359" spans="2:9" s="28" customFormat="1">
+      <c r="B359" s="30"/>
+      <c r="I359" s="30"/>
+    </row>
+    <row r="360" spans="2:9" s="28" customFormat="1">
+      <c r="B360" s="30"/>
+      <c r="I360" s="30"/>
+    </row>
+    <row r="361" spans="2:9" s="28" customFormat="1">
+      <c r="B361" s="30"/>
+      <c r="I361" s="30"/>
+    </row>
+    <row r="362" spans="2:9" s="28" customFormat="1">
+      <c r="B362" s="30"/>
+      <c r="I362" s="30"/>
+    </row>
+    <row r="363" spans="2:9" s="28" customFormat="1">
+      <c r="B363" s="30"/>
+      <c r="I363" s="30"/>
+    </row>
+    <row r="364" spans="2:9" s="28" customFormat="1">
+      <c r="B364" s="30"/>
+      <c r="I364" s="30"/>
+    </row>
+    <row r="365" spans="2:9" s="28" customFormat="1">
+      <c r="B365" s="30"/>
+      <c r="I365" s="30"/>
+    </row>
+    <row r="366" spans="2:9" s="28" customFormat="1">
+      <c r="B366" s="30"/>
+      <c r="I366" s="30"/>
+    </row>
+    <row r="367" spans="2:9" s="28" customFormat="1">
+      <c r="B367" s="30"/>
+      <c r="I367" s="30"/>
+    </row>
+    <row r="368" spans="2:9" s="28" customFormat="1">
+      <c r="B368" s="30"/>
+      <c r="I368" s="30"/>
+    </row>
+    <row r="369" spans="2:9" s="28" customFormat="1">
+      <c r="B369" s="30"/>
+      <c r="I369" s="30"/>
+    </row>
+    <row r="370" spans="2:9" s="28" customFormat="1">
+      <c r="B370" s="30"/>
+      <c r="I370" s="30"/>
+    </row>
+    <row r="371" spans="2:9" s="28" customFormat="1">
+      <c r="B371" s="30"/>
+      <c r="I371" s="30"/>
+    </row>
+    <row r="372" spans="2:9" s="28" customFormat="1">
+      <c r="B372" s="30"/>
+      <c r="I372" s="30"/>
+    </row>
+    <row r="373" spans="2:9" s="28" customFormat="1">
+      <c r="B373" s="30"/>
+      <c r="I373" s="30"/>
+    </row>
+    <row r="374" spans="2:9" s="28" customFormat="1">
+      <c r="B374" s="30"/>
+      <c r="I374" s="30"/>
+    </row>
+    <row r="375" spans="2:9" s="28" customFormat="1">
+      <c r="B375" s="30"/>
+      <c r="I375" s="30"/>
+    </row>
+    <row r="376" spans="2:9" s="28" customFormat="1">
+      <c r="B376" s="30"/>
+      <c r="I376" s="30"/>
+    </row>
+    <row r="377" spans="2:9" s="28" customFormat="1">
+      <c r="B377" s="30"/>
+      <c r="I377" s="30"/>
+    </row>
+    <row r="378" spans="2:9" s="28" customFormat="1">
+      <c r="B378" s="30"/>
+      <c r="I378" s="30"/>
+    </row>
+    <row r="379" spans="2:9" s="28" customFormat="1">
+      <c r="B379" s="30"/>
+      <c r="I379" s="30"/>
+    </row>
+    <row r="380" spans="2:9" s="28" customFormat="1">
+      <c r="B380" s="30"/>
+      <c r="I380" s="30"/>
+    </row>
+    <row r="381" spans="2:9" s="28" customFormat="1">
+      <c r="B381" s="30"/>
+      <c r="I381" s="30"/>
+    </row>
+    <row r="382" spans="2:9" s="28" customFormat="1">
+      <c r="B382" s="30"/>
+      <c r="I382" s="30"/>
+    </row>
+    <row r="383" spans="2:9" s="28" customFormat="1">
+      <c r="B383" s="30"/>
+      <c r="I383" s="30"/>
+    </row>
+    <row r="384" spans="2:9" s="28" customFormat="1">
+      <c r="B384" s="30"/>
+      <c r="I384" s="30"/>
+    </row>
+    <row r="385" spans="2:9" s="28" customFormat="1">
+      <c r="B385" s="30"/>
+      <c r="I385" s="30"/>
+    </row>
+    <row r="386" spans="2:9" s="28" customFormat="1">
+      <c r="B386" s="30"/>
+      <c r="I386" s="30"/>
+    </row>
+    <row r="387" spans="2:9" s="28" customFormat="1">
+      <c r="B387" s="30"/>
+      <c r="I387" s="30"/>
+    </row>
+    <row r="388" spans="2:9" s="28" customFormat="1">
+      <c r="B388" s="30"/>
+      <c r="I388" s="30"/>
+    </row>
+    <row r="389" spans="2:9" s="28" customFormat="1">
+      <c r="B389" s="30"/>
+      <c r="I389" s="30"/>
+    </row>
+    <row r="390" spans="2:9" s="28" customFormat="1">
+      <c r="B390" s="30"/>
+      <c r="I390" s="30"/>
+    </row>
+    <row r="391" spans="2:9" s="28" customFormat="1">
+      <c r="B391" s="30"/>
+      <c r="I391" s="30"/>
+    </row>
+    <row r="392" spans="2:9" s="28" customFormat="1">
+      <c r="B392" s="30"/>
+      <c r="I392" s="30"/>
+    </row>
+    <row r="393" spans="2:9" s="28" customFormat="1">
+      <c r="B393" s="30"/>
+      <c r="I393" s="30"/>
+    </row>
+    <row r="394" spans="2:9" s="28" customFormat="1">
+      <c r="B394" s="30"/>
+      <c r="I394" s="30"/>
+    </row>
+    <row r="395" spans="2:9" s="28" customFormat="1">
+      <c r="B395" s="30"/>
+      <c r="I395" s="30"/>
+    </row>
+    <row r="396" spans="2:9" s="28" customFormat="1">
+      <c r="B396" s="30"/>
+      <c r="I396" s="30"/>
+    </row>
+    <row r="397" spans="2:9" s="28" customFormat="1">
+      <c r="B397" s="30"/>
+      <c r="I397" s="30"/>
+    </row>
+    <row r="398" spans="2:9" s="28" customFormat="1">
+      <c r="B398" s="30"/>
+      <c r="I398" s="30"/>
+    </row>
+    <row r="399" spans="2:9" s="28" customFormat="1">
+      <c r="B399" s="30"/>
+      <c r="I399" s="30"/>
+    </row>
+    <row r="400" spans="2:9" s="28" customFormat="1">
+      <c r="B400" s="30"/>
+      <c r="I400" s="30"/>
+    </row>
+    <row r="401" spans="2:9" s="28" customFormat="1">
+      <c r="B401" s="30"/>
+      <c r="I401" s="30"/>
+    </row>
+    <row r="402" spans="2:9" s="28" customFormat="1">
+      <c r="B402" s="30"/>
+      <c r="I402" s="30"/>
+    </row>
+    <row r="403" spans="2:9" s="28" customFormat="1">
+      <c r="B403" s="30"/>
+      <c r="I403" s="30"/>
+    </row>
+    <row r="404" spans="2:9" s="28" customFormat="1">
+      <c r="B404" s="30"/>
+      <c r="I404" s="30"/>
+    </row>
+    <row r="405" spans="2:9" s="28" customFormat="1">
+      <c r="B405" s="30"/>
+      <c r="I405" s="30"/>
+    </row>
+    <row r="406" spans="2:9" s="28" customFormat="1">
+      <c r="B406" s="30"/>
+      <c r="I406" s="30"/>
+    </row>
+    <row r="407" spans="2:9" s="28" customFormat="1">
+      <c r="B407" s="30"/>
+      <c r="I407" s="30"/>
+    </row>
+    <row r="408" spans="2:9" s="28" customFormat="1">
+      <c r="B408" s="30"/>
+      <c r="I408" s="30"/>
+    </row>
+    <row r="409" spans="2:9" s="28" customFormat="1">
+      <c r="B409" s="30"/>
+      <c r="I409" s="30"/>
+    </row>
+    <row r="410" spans="2:9" s="28" customFormat="1">
+      <c r="B410" s="30"/>
+      <c r="I410" s="30"/>
+    </row>
+    <row r="411" spans="2:9" s="28" customFormat="1">
+      <c r="B411" s="30"/>
+      <c r="I411" s="30"/>
+    </row>
+    <row r="412" spans="2:9" s="28" customFormat="1">
+      <c r="B412" s="30"/>
+      <c r="I412" s="30"/>
+    </row>
+    <row r="413" spans="2:9" s="28" customFormat="1">
+      <c r="B413" s="30"/>
+      <c r="I413" s="30"/>
+    </row>
+    <row r="414" spans="2:9" s="28" customFormat="1">
+      <c r="B414" s="30"/>
+      <c r="I414" s="30"/>
+    </row>
+    <row r="415" spans="2:9" s="28" customFormat="1">
+      <c r="B415" s="30"/>
+      <c r="I415" s="30"/>
+    </row>
+    <row r="416" spans="2:9" s="28" customFormat="1">
+      <c r="B416" s="30"/>
+      <c r="I416" s="30"/>
+    </row>
+    <row r="417" spans="2:10" s="28" customFormat="1">
+      <c r="B417" s="30"/>
+      <c r="I417" s="30"/>
+    </row>
+    <row r="418" spans="2:10" s="28" customFormat="1">
+      <c r="B418" s="30"/>
+      <c r="I418" s="30"/>
+    </row>
+    <row r="419" spans="2:10" s="28" customFormat="1">
+      <c r="B419" s="30"/>
+      <c r="I419" s="30"/>
     </row>
     <row r="420" spans="2:10">
-      <c r="B420" s="35"/>
-      <c r="C420" s="33"/>
-      <c r="D420" s="33"/>
-      <c r="E420" s="33"/>
-      <c r="F420" s="33"/>
-      <c r="G420" s="33"/>
-      <c r="H420" s="33"/>
-      <c r="I420" s="35"/>
-      <c r="J420" s="33"/>
+      <c r="B420" s="30"/>
+      <c r="C420" s="28"/>
+      <c r="D420" s="28"/>
+      <c r="E420" s="28"/>
+      <c r="F420" s="28"/>
+      <c r="G420" s="28"/>
+      <c r="H420" s="28"/>
+      <c r="I420" s="30"/>
+      <c r="J420" s="28"/>
+    </row>
+    <row r="421" spans="2:10">
+      <c r="B421" s="30"/>
+      <c r="C421" s="28"/>
+      <c r="D421" s="28"/>
+      <c r="E421" s="28"/>
+      <c r="F421" s="28"/>
+      <c r="G421" s="28"/>
+      <c r="H421" s="28"/>
+      <c r="I421" s="30"/>
+      <c r="J421" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I77">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I78">
       <formula1>'cuentas de e-mail'!$B$10:$B$11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K77">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K78">
       <formula1>'cuentas de e-mail'!$C$10:$C$11</formula1>
     </dataValidation>
   </dataValidations>
@@ -11284,12 +11533,12 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C10" t="s">
         <v>55</v>
@@ -11297,7 +11546,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C11" t="s">
         <v>56</v>

--- a/doc/Casos de Prueba GSIAM.xlsx
+++ b/doc/Casos de Prueba GSIAM.xlsx
@@ -13,7 +13,7 @@
     <sheet name="cuentas de e-mail" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Casos de Prueba - dd-mm-yyyy'!$A$2:$K$421</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Casos de Prueba - dd-mm-yyyy'!$A$3:$K$79</definedName>
     <definedName name="acciones">#REF!</definedName>
     <definedName name="Clasificacion">#REF!</definedName>
     <definedName name="ClasificacionRiesgos">#REF!</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="428">
   <si>
     <t>Alcance</t>
   </si>
@@ -2830,10 +2830,6 @@
     <t>Al enviar la solicitud, se deberian actualizar las solicitudes de la pestaña de sol.</t>
   </si>
   <si>
-    <t>*Selecciono compartir, la posicion es enviada al serv idor, pero cuando cierro sesion y entro a la aplicación con otro usuario sale un error relacionado al servicio de actualizar posicion.
-* Entro con un usuario pongo q comparta ubicación, despues entro con otro usuario que tiene setaado no compartir ubicacion y muestra que si tiene para compartir.</t>
-  </si>
-  <si>
     <t>Redondear los kilometros, queda muy largo el numero.</t>
   </si>
   <si>
@@ -2896,16 +2892,45 @@
   </si>
   <si>
     <t>No funciona el actualizar</t>
+  </si>
+  <si>
+    <t>*Si no señlecciono foto publica una camara de fotos..
+* si selecciono que no recuerde la contraseña nunca, cuando vuelvo a entrar no me pide logion de nuevo, ni me da la opcion a cerrar sesion.
+* en el log se observan errores, revisar</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>e-mail:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (vacio)</t>
+    </r>
   </si>
   <si>
     <t>* Ordenar amigos por orden alfabético..
 * Si no selecciono ningun amigo y le doy invitar no me muestra mensaje de error.
 * Cuando es envia la solicitud el mensaje dice: se envio la solicitud.. Debe decir invitacion
-* si selecciono que no recuerde la contraseña nunca, cuando vuelvo a entrar no me pide logion de nuevo, ni me da la opcion a cerrar sesion.</t>
-  </si>
-  <si>
-    <t>*Si no señlecciono foto publica una camara de fotos..
-* si selecciono que no recuerde la contraseña nunca, cuando vuelvo a entrar no me pide logion de nuevo, ni me da la opcion a cerrar sesion.</t>
+* si selecciono que no recuerde la contraseña nunca, cuando vuelvo a entrar no me pide logion de nuevo, ni me da la opcion a cerrar sesion.
+* en el log se observan errores, revisar
+* se podria poner un box para buscar , es complicado cuando uno tiene mas de 200 amigos
+*"Martin Loureiro
+Martin Loureiro quiere que te unas a la red Gsiam. " Cambiar el mensaje se repite 2 veces el nombre dado que la publicacion en FB ya sale quien la hace.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Selecciono compartir, la posicion es enviada al serv idor, pero cuando cierro sesion y entro a la aplicación con otro usuario sale un error relacionado al servicio de actualizar posicion.
+* Entro con un usuario pongo q comparta ubicación, despues entro con otro usuario que tiene setaado no compartir ubicacion y muestra que si tiene para compartir.
+*configurar el tiempo para q sea parametrizable </t>
   </si>
 </sst>
 </file>
@@ -7768,11 +7793,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A2:K421"/>
+  <dimension ref="A2:K422"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J74" sqref="J74"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -7783,11 +7808,11 @@
     <col min="4" max="4" width="9" style="24" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="24" customWidth="1"/>
     <col min="6" max="6" width="27.7109375" style="24" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="24" customWidth="1"/>
     <col min="8" max="8" width="28.85546875" style="24" customWidth="1"/>
     <col min="9" max="9" width="14.140625" style="26" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="24" customWidth="1"/>
-    <col min="11" max="11" width="27.42578125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="24" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="24" customWidth="1"/>
     <col min="12" max="16384" width="11.42578125" style="24"/>
   </cols>
   <sheetData>
@@ -8041,9 +8066,11 @@
       <c r="J10" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="K10" s="17"/>
-    </row>
-    <row r="11" spans="1:11" s="28" customFormat="1" ht="63.75">
+      <c r="K10" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="28" customFormat="1" ht="76.5">
       <c r="A11" s="27"/>
       <c r="B11" s="18" t="s">
         <v>71</v>
@@ -8070,7 +8097,9 @@
       <c r="J11" s="19" t="s">
         <v>386</v>
       </c>
-      <c r="K11" s="17"/>
+      <c r="K11" s="17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="1:11" s="28" customFormat="1" ht="38.25">
       <c r="A12" s="27"/>
@@ -8097,7 +8126,9 @@
         <v>384</v>
       </c>
       <c r="J12" s="19"/>
-      <c r="K12" s="17"/>
+      <c r="K12" s="17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:11" s="28" customFormat="1" ht="38.25">
       <c r="A13" s="27"/>
@@ -8124,9 +8155,11 @@
         <v>384</v>
       </c>
       <c r="J13" s="19"/>
-      <c r="K13" s="17"/>
-    </row>
-    <row r="14" spans="1:11" s="28" customFormat="1" ht="76.5">
+      <c r="K13" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="28" customFormat="1" ht="89.25">
       <c r="A14" s="27"/>
       <c r="B14" s="18" t="s">
         <v>71</v>
@@ -8153,9 +8186,11 @@
       <c r="J14" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="K14" s="17"/>
-    </row>
-    <row r="15" spans="1:11" s="28" customFormat="1" ht="38.25">
+      <c r="K14" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="28" customFormat="1" ht="76.5">
       <c r="A15" s="27"/>
       <c r="B15" s="18" t="s">
         <v>71</v>
@@ -8184,9 +8219,11 @@
       <c r="J15" s="19" t="s">
         <v>401</v>
       </c>
-      <c r="K15" s="17"/>
-    </row>
-    <row r="16" spans="1:11" s="28" customFormat="1" ht="38.25">
+      <c r="K15" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="28" customFormat="1" ht="63.75">
       <c r="A16" s="27"/>
       <c r="B16" s="18" t="s">
         <v>85</v>
@@ -8213,9 +8250,11 @@
       <c r="J16" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="2:11" s="28" customFormat="1" ht="89.25">
+      <c r="K16" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" s="28" customFormat="1" ht="102">
       <c r="B17" s="18" t="s">
         <v>88</v>
       </c>
@@ -8241,9 +8280,11 @@
         <v>384</v>
       </c>
       <c r="J17" s="19"/>
-      <c r="K17" s="17"/>
-    </row>
-    <row r="18" spans="2:11" s="28" customFormat="1" ht="89.25">
+      <c r="K17" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" s="28" customFormat="1" ht="102">
       <c r="B18" s="18" t="s">
         <v>88</v>
       </c>
@@ -8267,7 +8308,9 @@
         <v>384</v>
       </c>
       <c r="J18" s="19"/>
-      <c r="K18" s="17"/>
+      <c r="K18" s="17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="19" spans="2:11" s="28" customFormat="1" ht="51">
       <c r="B19" s="18" t="s">
@@ -8295,9 +8338,11 @@
       <c r="J19" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="K19" s="17"/>
-    </row>
-    <row r="20" spans="2:11" s="28" customFormat="1" ht="76.5">
+      <c r="K19" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" s="28" customFormat="1" ht="89.25">
       <c r="B20" s="18" t="s">
         <v>88</v>
       </c>
@@ -8323,7 +8368,9 @@
       <c r="J20" s="19" t="s">
         <v>386</v>
       </c>
-      <c r="K20" s="17"/>
+      <c r="K20" s="17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21" spans="2:11" s="28" customFormat="1" ht="51">
       <c r="B21" s="18" t="s">
@@ -8349,7 +8396,9 @@
         <v>384</v>
       </c>
       <c r="J21" s="19"/>
-      <c r="K21" s="17"/>
+      <c r="K21" s="17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="22" spans="2:11" s="28" customFormat="1" ht="51">
       <c r="B22" s="18" t="s">
@@ -8375,9 +8424,11 @@
         <v>384</v>
       </c>
       <c r="J22" s="19"/>
-      <c r="K22" s="17"/>
-    </row>
-    <row r="23" spans="2:11" s="28" customFormat="1" ht="89.25">
+      <c r="K22" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" s="28" customFormat="1" ht="102">
       <c r="B23" s="18" t="s">
         <v>88</v>
       </c>
@@ -8403,9 +8454,11 @@
       <c r="J23" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="K23" s="17"/>
-    </row>
-    <row r="24" spans="2:11" s="28" customFormat="1" ht="63.75">
+      <c r="K23" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" s="28" customFormat="1" ht="114.75">
       <c r="B24" s="18" t="s">
         <v>88</v>
       </c>
@@ -8433,7 +8486,9 @@
       <c r="J24" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="K24" s="17"/>
+      <c r="K24" s="17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="2:11" s="28" customFormat="1" ht="51">
       <c r="B25" s="18" t="s">
@@ -8459,7 +8514,9 @@
         <v>384</v>
       </c>
       <c r="J25" s="19"/>
-      <c r="K25" s="17"/>
+      <c r="K25" s="17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="26" spans="2:11" s="28" customFormat="1" ht="76.5">
       <c r="B26" s="18" t="s">
@@ -8487,7 +8544,9 @@
         <v>384</v>
       </c>
       <c r="J26" s="19"/>
-      <c r="K26" s="17"/>
+      <c r="K26" s="17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="27" spans="2:11" s="28" customFormat="1" ht="63.75">
       <c r="B27" s="18" t="s">
@@ -8515,7 +8574,9 @@
         <v>384</v>
       </c>
       <c r="J27" s="19"/>
-      <c r="K27" s="17"/>
+      <c r="K27" s="17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="28" spans="2:11" s="28" customFormat="1" ht="63.75">
       <c r="B28" s="18" t="s">
@@ -8543,7 +8604,9 @@
         <v>384</v>
       </c>
       <c r="J28" s="19"/>
-      <c r="K28" s="17"/>
+      <c r="K28" s="17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="29" spans="2:11" s="28" customFormat="1" ht="25.5">
       <c r="B29" s="18" t="s">
@@ -8569,7 +8632,9 @@
         <v>384</v>
       </c>
       <c r="J29" s="19"/>
-      <c r="K29" s="17"/>
+      <c r="K29" s="17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" spans="2:11" s="28" customFormat="1" ht="38.25">
       <c r="B30" s="18" t="s">
@@ -8595,7 +8660,9 @@
         <v>384</v>
       </c>
       <c r="J30" s="19"/>
-      <c r="K30" s="17"/>
+      <c r="K30" s="17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="31" spans="2:11" s="28" customFormat="1" ht="38.25">
       <c r="B31" s="18" t="s">
@@ -8623,7 +8690,9 @@
         <v>384</v>
       </c>
       <c r="J31" s="19"/>
-      <c r="K31" s="17"/>
+      <c r="K31" s="17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="32" spans="2:11" s="28" customFormat="1" ht="38.25">
       <c r="B32" s="18" t="s">
@@ -8651,7 +8720,9 @@
         <v>384</v>
       </c>
       <c r="J32" s="19"/>
-      <c r="K32" s="17"/>
+      <c r="K32" s="17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="33" spans="2:11" s="28" customFormat="1" ht="51">
       <c r="B33" s="18" t="s">
@@ -8679,7 +8750,9 @@
         <v>384</v>
       </c>
       <c r="J33" s="19"/>
-      <c r="K33" s="17"/>
+      <c r="K33" s="17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="34" spans="2:11" s="28" customFormat="1" ht="89.25">
       <c r="B34" s="18" t="s">
@@ -8709,7 +8782,9 @@
       <c r="J34" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="K34" s="17"/>
+      <c r="K34" s="17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="35" spans="2:11" s="28" customFormat="1" ht="38.25">
       <c r="B35" s="18" t="s">
@@ -8737,9 +8812,11 @@
         <v>384</v>
       </c>
       <c r="J35" s="19"/>
-      <c r="K35" s="17"/>
-    </row>
-    <row r="36" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="K35" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" s="28" customFormat="1" ht="63.75">
       <c r="B36" s="18" t="s">
         <v>144</v>
       </c>
@@ -8765,9 +8842,11 @@
       <c r="J36" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="K36" s="17"/>
-    </row>
-    <row r="37" spans="2:11" s="28" customFormat="1" ht="63.75">
+      <c r="K36" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" s="28" customFormat="1" ht="140.25">
       <c r="B37" s="18" t="s">
         <v>154</v>
       </c>
@@ -8795,9 +8874,11 @@
       <c r="J37" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="K37" s="17"/>
-    </row>
-    <row r="38" spans="2:11" s="28" customFormat="1" ht="63.75">
+      <c r="K37" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" s="28" customFormat="1" ht="140.25">
       <c r="B38" s="18" t="s">
         <v>154</v>
       </c>
@@ -8825,7 +8906,9 @@
       <c r="J38" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="K38" s="17"/>
+      <c r="K38" s="17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="39" spans="2:11" s="28" customFormat="1" ht="63.75">
       <c r="B39" s="18" t="s">
@@ -8855,7 +8938,9 @@
       <c r="J39" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="K39" s="17"/>
+      <c r="K39" s="17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="40" spans="2:11" s="28" customFormat="1" ht="51">
       <c r="B40" s="18" t="s">
@@ -8881,7 +8966,9 @@
         <v>384</v>
       </c>
       <c r="J40" s="19"/>
-      <c r="K40" s="17"/>
+      <c r="K40" s="17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="41" spans="2:11" s="28" customFormat="1" ht="38.25">
       <c r="B41" s="18" t="s">
@@ -8907,7 +8994,9 @@
         <v>384</v>
       </c>
       <c r="J41" s="19"/>
-      <c r="K41" s="17"/>
+      <c r="K41" s="17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="42" spans="2:11" s="28" customFormat="1" ht="63.75">
       <c r="B42" s="18" t="s">
@@ -8935,7 +9024,9 @@
         <v>384</v>
       </c>
       <c r="J42" s="19"/>
-      <c r="K42" s="17"/>
+      <c r="K42" s="17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="43" spans="2:11" s="28" customFormat="1" ht="63.75">
       <c r="B43" s="18" t="s">
@@ -8963,9 +9054,11 @@
         <v>385</v>
       </c>
       <c r="J43" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="K43" s="17"/>
+        <v>404</v>
+      </c>
+      <c r="K43" s="17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="2:11" s="28" customFormat="1" ht="38.25">
       <c r="B44" s="18" t="s">
@@ -8993,9 +9086,11 @@
         <v>384</v>
       </c>
       <c r="J44" s="19"/>
-      <c r="K44" s="17"/>
-    </row>
-    <row r="45" spans="2:11" s="28" customFormat="1" ht="191.25">
+      <c r="K44" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" s="28" customFormat="1" ht="409.5">
       <c r="B45" s="18" t="s">
         <v>181</v>
       </c>
@@ -9019,9 +9114,11 @@
         <v>385</v>
       </c>
       <c r="J45" s="19" t="s">
-        <v>404</v>
-      </c>
-      <c r="K45" s="17"/>
+        <v>427</v>
+      </c>
+      <c r="K45" s="17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="2:11" s="28" customFormat="1" ht="38.25">
       <c r="B46" s="18" t="s">
@@ -9047,7 +9144,9 @@
         <v>384</v>
       </c>
       <c r="J46" s="19"/>
-      <c r="K46" s="17"/>
+      <c r="K46" s="17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="47" spans="2:11" s="28" customFormat="1" ht="38.25">
       <c r="B47" s="18" t="s">
@@ -9075,9 +9174,11 @@
         <v>385</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="K47" s="17"/>
+        <v>405</v>
+      </c>
+      <c r="K47" s="17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="48" spans="2:11" s="28" customFormat="1" ht="25.5">
       <c r="B48" s="18" t="s">
@@ -9103,9 +9204,11 @@
         <v>384</v>
       </c>
       <c r="J48" s="19"/>
-      <c r="K48" s="17"/>
-    </row>
-    <row r="49" spans="2:11" s="28" customFormat="1" ht="204">
+      <c r="K48" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" s="28" customFormat="1" ht="409.5">
       <c r="B49" s="18" t="s">
         <v>189</v>
       </c>
@@ -9129,9 +9232,11 @@
         <v>385</v>
       </c>
       <c r="J49" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="K49" s="17"/>
+        <v>426</v>
+      </c>
+      <c r="K49" s="17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="50" spans="2:11" s="28" customFormat="1" ht="25.5">
       <c r="B50" s="18" t="s">
@@ -9157,9 +9262,11 @@
         <v>384</v>
       </c>
       <c r="J50" s="19"/>
-      <c r="K50" s="17"/>
-    </row>
-    <row r="51" spans="2:11" s="28" customFormat="1" ht="25.5">
+      <c r="K50" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" s="28" customFormat="1" ht="38.25">
       <c r="B51" s="18" t="s">
         <v>189</v>
       </c>
@@ -9185,417 +9292,447 @@
       <c r="J51" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="K51" s="17"/>
-    </row>
-    <row r="52" spans="2:11" s="28" customFormat="1" ht="165.75">
+      <c r="K51" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" s="28" customFormat="1" ht="38.25">
       <c r="B52" s="18" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>247</v>
+        <v>44</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>251</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="E52" s="19"/>
       <c r="F52" s="19" t="s">
-        <v>353</v>
+        <v>47</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H52" s="17" t="s">
-        <v>354</v>
+        <v>425</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="I52" s="16" t="s">
         <v>385</v>
       </c>
       <c r="J52" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="K52" s="17"/>
-    </row>
-    <row r="53" spans="2:11" s="28" customFormat="1" ht="76.5">
+        <v>392</v>
+      </c>
+      <c r="K52" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" s="28" customFormat="1" ht="318.75">
       <c r="B53" s="18" t="s">
         <v>203</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>253</v>
+        <v>353</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>355</v>
+        <v>99</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>254</v>
+        <v>354</v>
       </c>
       <c r="I53" s="16" t="s">
         <v>385</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>408</v>
-      </c>
-      <c r="K53" s="17"/>
-    </row>
-    <row r="54" spans="2:11" s="28" customFormat="1" ht="63.75">
+        <v>406</v>
+      </c>
+      <c r="K53" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" s="28" customFormat="1" ht="76.5">
       <c r="B54" s="18" t="s">
         <v>203</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>257</v>
+        <v>355</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I54" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="J54" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="K54" s="17"/>
-    </row>
-    <row r="55" spans="2:11" s="29" customFormat="1" ht="51">
-      <c r="B55" s="16" t="s">
+      <c r="J54" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="K54" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" s="28" customFormat="1" ht="127.5">
+      <c r="B55" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="J55" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="K55" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" s="29" customFormat="1" ht="51">
+      <c r="B56" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C56" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D56" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="E56" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="F55" s="17" t="s">
+      <c r="F56" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="G55" s="17" t="s">
+      <c r="G56" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H55" s="17" t="s">
+      <c r="H56" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I55" s="16" t="s">
+      <c r="I56" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="J55" s="16"/>
-      <c r="K55" s="17"/>
-    </row>
-    <row r="56" spans="2:11" s="28" customFormat="1" ht="51">
-      <c r="B56" s="18" t="s">
+      <c r="J56" s="16"/>
+      <c r="K56" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" s="28" customFormat="1" ht="102">
+      <c r="B57" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C57" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D57" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E57" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="F56" s="19" t="s">
+      <c r="F57" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="G56" s="19" t="s">
+      <c r="G57" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H56" s="19" t="s">
+      <c r="H57" s="19" t="s">
         <v>342</v>
-      </c>
-      <c r="I56" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="J56" s="18" t="s">
-        <v>409</v>
-      </c>
-      <c r="K56" s="17"/>
-    </row>
-    <row r="57" spans="2:11" s="28" customFormat="1" ht="140.25">
-      <c r="B57" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="G57" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="H57" s="17" t="s">
-        <v>214</v>
       </c>
       <c r="I57" s="16" t="s">
         <v>385</v>
       </c>
       <c r="J57" s="18" t="s">
-        <v>410</v>
-      </c>
-      <c r="K57" s="17"/>
-    </row>
-    <row r="58" spans="2:11" s="28" customFormat="1" ht="140.25">
+        <v>408</v>
+      </c>
+      <c r="K57" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" s="28" customFormat="1" ht="153">
       <c r="B58" s="18" t="s">
         <v>209</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>44</v>
+        <v>358</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E58" s="19"/>
       <c r="F58" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G58" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="H58" s="19" t="s">
-        <v>51</v>
+        <v>213</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="H58" s="17" t="s">
+        <v>214</v>
       </c>
       <c r="I58" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J58" s="18"/>
-      <c r="K58" s="17"/>
-    </row>
-    <row r="59" spans="2:11" s="28" customFormat="1" ht="140.25">
+        <v>385</v>
+      </c>
+      <c r="J58" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="K58" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" s="28" customFormat="1" ht="153">
       <c r="B59" s="18" t="s">
         <v>209</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E59" s="19"/>
       <c r="F59" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I59" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J59" s="18"/>
+      <c r="K59" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" s="28" customFormat="1" ht="178.5">
+      <c r="B60" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="G59" s="22" t="s">
+      <c r="G60" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="H59" s="19" t="s">
+      <c r="H60" s="19" t="s">
         <v>362</v>
-      </c>
-      <c r="I59" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="J59" s="18" t="s">
-        <v>411</v>
-      </c>
-      <c r="K59" s="17"/>
-    </row>
-    <row r="60" spans="2:11" s="28" customFormat="1" ht="140.25">
-      <c r="B60" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="G60" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="H60" s="19" t="s">
-        <v>365</v>
       </c>
       <c r="I60" s="16" t="s">
         <v>385</v>
       </c>
       <c r="J60" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="K60" s="17"/>
-    </row>
-    <row r="61" spans="2:11" s="28" customFormat="1" ht="140.25">
+        <v>410</v>
+      </c>
+      <c r="K60" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" s="28" customFormat="1" ht="153">
       <c r="B61" s="18" t="s">
         <v>216</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>44</v>
+        <v>363</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="E61" s="19"/>
-      <c r="F61" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G61" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="H61" s="17" t="s">
-        <v>51</v>
+        <v>217</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="H61" s="19" t="s">
+        <v>365</v>
       </c>
       <c r="I61" s="16" t="s">
         <v>385</v>
       </c>
       <c r="J61" s="18" t="s">
-        <v>412</v>
-      </c>
-      <c r="K61" s="17"/>
-    </row>
-    <row r="62" spans="2:11" s="28" customFormat="1" ht="140.25">
+        <v>413</v>
+      </c>
+      <c r="K61" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" s="28" customFormat="1" ht="153">
       <c r="B62" s="18" t="s">
         <v>216</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E62" s="19"/>
-      <c r="F62" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="G62" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="H62" s="19" t="s">
-        <v>362</v>
+      <c r="F62" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G62" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="H62" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="I62" s="16" t="s">
         <v>385</v>
       </c>
       <c r="J62" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="K62" s="17"/>
-    </row>
-    <row r="63" spans="2:11" s="28" customFormat="1" ht="63.75">
+        <v>411</v>
+      </c>
+      <c r="K62" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" s="28" customFormat="1" ht="165.75">
       <c r="B63" s="18" t="s">
         <v>216</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>366</v>
+        <v>58</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>226</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="E63" s="19"/>
       <c r="F63" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="G63" s="19" t="s">
-        <v>99</v>
+        <v>215</v>
+      </c>
+      <c r="G63" s="22" t="s">
+        <v>361</v>
       </c>
       <c r="H63" s="19" t="s">
-        <v>227</v>
+        <v>362</v>
       </c>
       <c r="I63" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J63" s="18"/>
-      <c r="K63" s="17"/>
-    </row>
-    <row r="64" spans="2:11" s="28" customFormat="1" ht="51">
+        <v>385</v>
+      </c>
+      <c r="J63" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="K63" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" s="28" customFormat="1" ht="63.75">
       <c r="B64" s="18" t="s">
         <v>216</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>231</v>
+        <v>367</v>
       </c>
       <c r="G64" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>369</v>
+        <v>227</v>
       </c>
       <c r="I64" s="16" t="s">
         <v>384</v>
       </c>
       <c r="J64" s="18"/>
-      <c r="K64" s="17"/>
+      <c r="K64" s="17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="65" spans="2:11" s="28" customFormat="1" ht="51">
       <c r="B65" s="18" t="s">
         <v>216</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="E65" s="19"/>
+        <v>221</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>230</v>
+      </c>
       <c r="F65" s="19" t="s">
-        <v>311</v>
+        <v>231</v>
       </c>
       <c r="G65" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H65" s="19" t="s">
-        <v>228</v>
+        <v>369</v>
       </c>
       <c r="I65" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="J65" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="K65" s="17"/>
+        <v>384</v>
+      </c>
+      <c r="J65" s="18"/>
+      <c r="K65" s="17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="66" spans="2:11" s="28" customFormat="1" ht="51">
       <c r="B66" s="18" t="s">
         <v>216</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E66" s="19"/>
       <c r="F66" s="19" t="s">
@@ -9605,205 +9742,217 @@
         <v>99</v>
       </c>
       <c r="H66" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I66" s="16" t="s">
         <v>385</v>
       </c>
       <c r="J66" s="18" t="s">
-        <v>416</v>
-      </c>
-      <c r="K66" s="17"/>
-    </row>
-    <row r="67" spans="2:11" s="28" customFormat="1" ht="25.5">
+        <v>414</v>
+      </c>
+      <c r="K66" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" s="28" customFormat="1" ht="51">
       <c r="B67" s="18" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>260</v>
+        <v>371</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="19" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="G67" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H67" s="19" t="s">
-        <v>372</v>
+        <v>229</v>
       </c>
       <c r="I67" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J67" s="18"/>
-      <c r="K67" s="17"/>
-    </row>
-    <row r="68" spans="2:11" s="28" customFormat="1" ht="76.5">
+        <v>385</v>
+      </c>
+      <c r="J67" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="K67" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" s="28" customFormat="1" ht="25.5">
       <c r="B68" s="18" t="s">
         <v>236</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G68" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H68" s="19" t="s">
-        <v>271</v>
+        <v>372</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="J68" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="K68" s="17"/>
-    </row>
-    <row r="69" spans="2:11" s="28" customFormat="1" ht="38.25">
+        <v>384</v>
+      </c>
+      <c r="J68" s="18"/>
+      <c r="K68" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" s="28" customFormat="1" ht="140.25">
       <c r="B69" s="18" t="s">
         <v>236</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="E69" s="19" t="s">
-        <v>272</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="E69" s="19"/>
       <c r="F69" s="19" t="s">
-        <v>373</v>
+        <v>270</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>273</v>
+        <v>99</v>
       </c>
       <c r="H69" s="19" t="s">
-        <v>374</v>
+        <v>271</v>
       </c>
       <c r="I69" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J69" s="18"/>
-      <c r="K69" s="17"/>
-    </row>
-    <row r="70" spans="2:11" s="28" customFormat="1" ht="76.5">
+        <v>385</v>
+      </c>
+      <c r="J69" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="K69" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" s="28" customFormat="1" ht="38.25">
       <c r="B70" s="18" t="s">
         <v>236</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>274</v>
+        <v>373</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>99</v>
+        <v>273</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I70" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="J70" s="19"/>
-      <c r="K70" s="17"/>
-    </row>
-    <row r="71" spans="2:11" s="28" customFormat="1" ht="51">
-      <c r="B71" s="16" t="s">
+      <c r="J70" s="18"/>
+      <c r="K70" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" s="28" customFormat="1" ht="76.5">
+      <c r="B71" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G71" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H71" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="I71" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J71" s="19"/>
+      <c r="K71" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="B72" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C72" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D71" s="21" t="s">
+      <c r="D72" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E71" s="17" t="s">
+      <c r="E72" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="F71" s="17" t="s">
+      <c r="F72" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="G71" s="17" t="s">
+      <c r="G72" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H71" s="17" t="s">
+      <c r="H72" s="17" t="s">
         <v>378</v>
-      </c>
-      <c r="I71" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="J71" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="K71" s="17"/>
-    </row>
-    <row r="72" spans="2:11" s="28" customFormat="1" ht="63.75">
-      <c r="B72" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="D72" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="G72" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="H72" s="19" t="s">
-        <v>275</v>
       </c>
       <c r="I72" s="16" t="s">
         <v>385</v>
       </c>
       <c r="J72" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="K72" s="17"/>
-    </row>
-    <row r="73" spans="2:11" s="28" customFormat="1" ht="89.25">
+        <v>417</v>
+      </c>
+      <c r="K72" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" s="28" customFormat="1" ht="127.5">
       <c r="B73" s="18" t="s">
         <v>242</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="E73" s="19" t="s">
-        <v>303</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="E73" s="19"/>
       <c r="F73" s="19" t="s">
-        <v>379</v>
+        <v>275</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H73" s="19" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="I73" s="16" t="s">
         <v>385</v>
@@ -9811,151 +9960,191 @@
       <c r="J73" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="K73" s="17"/>
-    </row>
-    <row r="74" spans="2:11" s="28" customFormat="1" ht="89.25">
+      <c r="K73" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" s="28" customFormat="1" ht="114.75">
       <c r="B74" s="18" t="s">
         <v>242</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="E74" s="19"/>
+        <v>244</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>303</v>
+      </c>
       <c r="F74" s="19" t="s">
-        <v>284</v>
+        <v>379</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H74" s="19" t="s">
         <v>282</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J74" s="19"/>
-      <c r="K74" s="17"/>
+        <v>385</v>
+      </c>
+      <c r="J74" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="K74" s="17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="75" spans="2:11" s="28" customFormat="1" ht="114.75">
       <c r="B75" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="C75" s="28" t="s">
-        <v>266</v>
+      <c r="C75" s="19" t="s">
+        <v>283</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E75" s="19"/>
       <c r="F75" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="I75" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="J75" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="K75" s="17"/>
-    </row>
-    <row r="76" spans="2:11" s="28" customFormat="1" ht="63.75">
+        <v>384</v>
+      </c>
+      <c r="J75" s="19"/>
+      <c r="K75" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" s="28" customFormat="1" ht="267.75">
       <c r="B76" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="C76" s="19" t="s">
-        <v>44</v>
+      <c r="C76" s="28" t="s">
+        <v>266</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="E76" s="19"/>
       <c r="F76" s="19" t="s">
-        <v>47</v>
+        <v>286</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H76" s="19" t="s">
-        <v>51</v>
+        <v>288</v>
       </c>
       <c r="I76" s="16" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J76" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="K76" s="17"/>
-    </row>
-    <row r="77" spans="2:11" s="28" customFormat="1" ht="63.75">
+        <v>424</v>
+      </c>
+      <c r="K76" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" s="28" customFormat="1" ht="76.5">
       <c r="B77" s="18" t="s">
         <v>242</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E77" s="19"/>
       <c r="F77" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G77" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="H77" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I77" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J77" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="K77" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" s="28" customFormat="1" ht="63.75">
+      <c r="B78" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="G77" s="19" t="s">
+      <c r="G78" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="H77" s="19" t="s">
+      <c r="H78" s="19" t="s">
         <v>291</v>
-      </c>
-      <c r="I77" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="J77" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="K77" s="17"/>
-    </row>
-    <row r="78" spans="2:11" s="28" customFormat="1" ht="51">
-      <c r="B78" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="D78" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="F78" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="G78" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H78" s="17" t="s">
-        <v>293</v>
       </c>
       <c r="I78" s="16" t="s">
         <v>385</v>
       </c>
       <c r="J78" s="19" t="s">
-        <v>424</v>
-      </c>
-      <c r="K78" s="17"/>
-    </row>
-    <row r="79" spans="2:11" s="28" customFormat="1">
-      <c r="B79" s="30"/>
-      <c r="I79" s="30"/>
+        <v>422</v>
+      </c>
+      <c r="K78" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="B79" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H79" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="I79" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="J79" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="K79" s="17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="80" spans="2:11" s="28" customFormat="1">
       <c r="B80" s="30"/>
@@ -11317,16 +11506,9 @@
       <c r="B419" s="30"/>
       <c r="I419" s="30"/>
     </row>
-    <row r="420" spans="2:10">
+    <row r="420" spans="2:10" s="28" customFormat="1">
       <c r="B420" s="30"/>
-      <c r="C420" s="28"/>
-      <c r="D420" s="28"/>
-      <c r="E420" s="28"/>
-      <c r="F420" s="28"/>
-      <c r="G420" s="28"/>
-      <c r="H420" s="28"/>
       <c r="I420" s="30"/>
-      <c r="J420" s="28"/>
     </row>
     <row r="421" spans="2:10">
       <c r="B421" s="30"/>
@@ -11339,13 +11521,25 @@
       <c r="I421" s="30"/>
       <c r="J421" s="28"/>
     </row>
+    <row r="422" spans="2:10">
+      <c r="B422" s="30"/>
+      <c r="C422" s="28"/>
+      <c r="D422" s="28"/>
+      <c r="E422" s="28"/>
+      <c r="F422" s="28"/>
+      <c r="G422" s="28"/>
+      <c r="H422" s="28"/>
+      <c r="I422" s="30"/>
+      <c r="J422" s="28"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A3:K79"/>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I78">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I79">
       <formula1>'cuentas de e-mail'!$B$10:$B$11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K78">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K79">
       <formula1>'cuentas de e-mail'!$C$10:$C$11</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/Casos de Prueba GSIAM.xlsx
+++ b/doc/Casos de Prueba GSIAM.xlsx
@@ -1833,9 +1833,6 @@
     </r>
   </si>
   <si>
-    <t>El sistema no debe permitir el ingreso de los caracteres que excedan el máximo (nombre= 35, email= 30 y contraseña= 20).</t>
-  </si>
-  <si>
     <t>Usuario ve su perfil</t>
   </si>
   <si>
@@ -2931,6 +2928,9 @@
     <t xml:space="preserve">*Selecciono compartir, la posicion es enviada al serv idor, pero cuando cierro sesion y entro a la aplicación con otro usuario sale un error relacionado al servicio de actualizar posicion.
 * Entro con un usuario pongo q comparta ubicación, despues entro con otro usuario que tiene setaado no compartir ubicacion y muestra que si tiene para compartir.
 *configurar el tiempo para q sea parametrizable </t>
+  </si>
+  <si>
+    <t>El sistema no debe permitir el ingreso de los caracteres que excedan el máximo (nombre= 30, email= 30 y contraseña= 20).</t>
   </si>
 </sst>
 </file>
@@ -7795,9 +7795,9 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A2:K422"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -7881,7 +7881,7 @@
         <v>54</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J4" s="19"/>
       <c r="K4" s="17" t="s">
@@ -7910,7 +7910,7 @@
         <v>50</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="17" t="s">
@@ -7941,7 +7941,7 @@
         <v>50</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="17" t="s">
@@ -7970,10 +7970,10 @@
         <v>51</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K7" s="17" t="s">
         <v>55</v>
@@ -8001,7 +8001,7 @@
         <v>64</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="17" t="s">
@@ -8030,10 +8030,10 @@
         <v>296</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>55</v>
@@ -8061,10 +8061,10 @@
         <v>298</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K10" s="17" t="s">
         <v>56</v>
@@ -8092,10 +8092,10 @@
         <v>51</v>
       </c>
       <c r="I11" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J11" s="19" t="s">
         <v>385</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>386</v>
       </c>
       <c r="K11" s="17" t="s">
         <v>56</v>
@@ -8123,7 +8123,7 @@
         <v>64</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="17" t="s">
@@ -8152,7 +8152,7 @@
         <v>65</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="17" t="s">
@@ -8175,16 +8175,16 @@
         <v>66</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>64</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K14" s="17" t="s">
         <v>56</v>
@@ -8196,28 +8196,28 @@
         <v>71</v>
       </c>
       <c r="C15" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="E15" s="19" t="s">
+      <c r="F15" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="G15" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="G15" s="22" t="s">
-        <v>399</v>
-      </c>
       <c r="H15" s="19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K15" s="17" t="s">
         <v>56</v>
@@ -8236,7 +8236,7 @@
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G16" s="22" t="s">
         <v>96</v>
@@ -8245,10 +8245,10 @@
         <v>97</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K16" s="17" t="s">
         <v>56</v>
@@ -8259,25 +8259,25 @@
         <v>88</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>89</v>
       </c>
       <c r="E17" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="F17" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="G17" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="H17" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="H17" s="19" t="s">
-        <v>306</v>
-      </c>
       <c r="I17" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="17" t="s">
@@ -8289,23 +8289,23 @@
         <v>88</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>90</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="G18" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="G18" s="19" t="s">
-        <v>309</v>
-      </c>
       <c r="H18" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J18" s="19"/>
       <c r="K18" s="17" t="s">
@@ -8317,26 +8317,26 @@
         <v>88</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>91</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K19" s="17" t="s">
         <v>56</v>
@@ -8357,16 +8357,16 @@
         <v>47</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H20" s="19" t="s">
         <v>51</v>
       </c>
       <c r="I20" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J20" s="19" t="s">
         <v>385</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>386</v>
       </c>
       <c r="K20" s="17" t="s">
         <v>56</v>
@@ -8393,7 +8393,7 @@
         <v>64</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J21" s="19"/>
       <c r="K21" s="17" t="s">
@@ -8421,7 +8421,7 @@
         <v>100</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="17" t="s">
@@ -8443,16 +8443,16 @@
         <v>66</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>300</v>
+        <v>427</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K23" s="17" t="s">
         <v>56</v>
@@ -8481,10 +8481,10 @@
         <v>109</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K24" s="17" t="s">
         <v>56</v>
@@ -8495,14 +8495,14 @@
         <v>88</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>105</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G25" s="19" t="s">
         <v>99</v>
@@ -8511,7 +8511,7 @@
         <v>110</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J25" s="19"/>
       <c r="K25" s="17" t="s">
@@ -8523,7 +8523,7 @@
         <v>111</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>112</v>
@@ -8541,7 +8541,7 @@
         <v>125</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J26" s="19"/>
       <c r="K26" s="17" t="s">
@@ -8553,13 +8553,13 @@
         <v>111</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>113</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>118</v>
@@ -8568,10 +8568,10 @@
         <v>122</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J27" s="19"/>
       <c r="K27" s="17" t="s">
@@ -8583,7 +8583,7 @@
         <v>111</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>114</v>
@@ -8595,13 +8595,13 @@
         <v>119</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H28" s="19" t="s">
         <v>128</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J28" s="19"/>
       <c r="K28" s="17" t="s">
@@ -8620,7 +8620,7 @@
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>120</v>
@@ -8629,7 +8629,7 @@
         <v>126</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J29" s="19"/>
       <c r="K29" s="17" t="s">
@@ -8641,14 +8641,14 @@
         <v>111</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>116</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G30" s="19" t="s">
         <v>99</v>
@@ -8657,7 +8657,7 @@
         <v>143</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J30" s="19"/>
       <c r="K30" s="17" t="s">
@@ -8687,7 +8687,7 @@
         <v>139</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J31" s="19"/>
       <c r="K31" s="17" t="s">
@@ -8717,7 +8717,7 @@
         <v>139</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J32" s="19"/>
       <c r="K32" s="17" t="s">
@@ -8729,7 +8729,7 @@
         <v>129</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>132</v>
@@ -8747,7 +8747,7 @@
         <v>141</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J33" s="19"/>
       <c r="K33" s="17" t="s">
@@ -8774,13 +8774,13 @@
         <v>153</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J34" s="19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K34" s="17" t="s">
         <v>56</v>
@@ -8800,16 +8800,16 @@
         <v>145</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G35" s="19" t="s">
         <v>151</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J35" s="19"/>
       <c r="K35" s="17" t="s">
@@ -8821,26 +8821,26 @@
         <v>144</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>147</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G36" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K36" s="17" t="s">
         <v>56</v>
@@ -8857,7 +8857,7 @@
         <v>155</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F37" s="19" t="s">
         <v>162</v>
@@ -8866,13 +8866,13 @@
         <v>99</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K37" s="17" t="s">
         <v>56</v>
@@ -8889,7 +8889,7 @@
         <v>156</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F38" s="19" t="s">
         <v>163</v>
@@ -8901,10 +8901,10 @@
         <v>164</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K38" s="17" t="s">
         <v>56</v>
@@ -8921,7 +8921,7 @@
         <v>157</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F39" s="19" t="s">
         <v>165</v>
@@ -8933,10 +8933,10 @@
         <v>166</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K39" s="17" t="s">
         <v>56</v>
@@ -8947,23 +8947,23 @@
         <v>154</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>158</v>
       </c>
       <c r="E40" s="19"/>
       <c r="F40" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G40" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J40" s="19"/>
       <c r="K40" s="17" t="s">
@@ -8982,16 +8982,16 @@
       </c>
       <c r="E41" s="19"/>
       <c r="F41" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G41" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J41" s="19"/>
       <c r="K41" s="17" t="s">
@@ -9012,16 +9012,16 @@
         <v>172</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G42" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J42" s="19"/>
       <c r="K42" s="17" t="s">
@@ -9039,7 +9039,7 @@
         <v>174</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F43" s="19" t="s">
         <v>179</v>
@@ -9051,10 +9051,10 @@
         <v>180</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J43" s="19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K43" s="17" t="s">
         <v>56</v>
@@ -9074,16 +9074,16 @@
         <v>178</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G44" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I44" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J44" s="19"/>
       <c r="K44" s="17" t="s">
@@ -9108,13 +9108,13 @@
         <v>99</v>
       </c>
       <c r="H45" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J45" s="19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K45" s="17" t="s">
         <v>55</v>
@@ -9138,10 +9138,10 @@
         <v>99</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J46" s="19"/>
       <c r="K46" s="17" t="s">
@@ -9162,19 +9162,19 @@
         <v>178</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G47" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K47" s="17" t="s">
         <v>55</v>
@@ -9185,23 +9185,23 @@
         <v>189</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D48" s="22" t="s">
         <v>190</v>
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G48" s="19" t="s">
         <v>194</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I48" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J48" s="19"/>
       <c r="K48" s="17" t="s">
@@ -9213,26 +9213,26 @@
         <v>189</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D49" s="22" t="s">
         <v>191</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="G49" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="G49" s="19" t="s">
+      <c r="H49" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="H49" s="19" t="s">
-        <v>352</v>
-      </c>
       <c r="I49" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J49" s="19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K49" s="17" t="s">
         <v>55</v>
@@ -9259,7 +9259,7 @@
         <v>64</v>
       </c>
       <c r="I50" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J50" s="19"/>
       <c r="K50" s="17" t="s">
@@ -9287,10 +9287,10 @@
         <v>202</v>
       </c>
       <c r="I51" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J51" s="19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K51" s="17" t="s">
         <v>55</v>
@@ -9311,16 +9311,16 @@
         <v>47</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H52" s="19" t="s">
         <v>51</v>
       </c>
       <c r="I52" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J52" s="19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K52" s="17" t="s">
         <v>55</v>
@@ -9340,19 +9340,19 @@
         <v>251</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G53" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I53" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K53" s="17" t="s">
         <v>55</v>
@@ -9375,16 +9375,16 @@
         <v>253</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H54" s="17" t="s">
         <v>254</v>
       </c>
       <c r="I54" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J54" s="19" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K54" s="17" t="s">
         <v>55</v>
@@ -9413,10 +9413,10 @@
         <v>258</v>
       </c>
       <c r="I55" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J55" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K55" s="17" t="s">
         <v>55</v>
@@ -9436,16 +9436,16 @@
         <v>259</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G56" s="17" t="s">
         <v>99</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I56" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J56" s="16"/>
       <c r="K56" s="17" t="s">
@@ -9466,19 +9466,19 @@
         <v>178</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G57" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I57" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J57" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K57" s="17" t="s">
         <v>55</v>
@@ -9489,7 +9489,7 @@
         <v>209</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D58" s="22" t="s">
         <v>210</v>
@@ -9499,16 +9499,16 @@
         <v>213</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H58" s="17" t="s">
         <v>214</v>
       </c>
       <c r="I58" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J58" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K58" s="17" t="s">
         <v>55</v>
@@ -9529,13 +9529,13 @@
         <v>47</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H59" s="19" t="s">
         <v>51</v>
       </c>
       <c r="I59" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J59" s="18"/>
       <c r="K59" s="17" t="s">
@@ -9557,16 +9557,16 @@
         <v>215</v>
       </c>
       <c r="G60" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="H60" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="H60" s="19" t="s">
-        <v>362</v>
-      </c>
       <c r="I60" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J60" s="18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K60" s="17" t="s">
         <v>55</v>
@@ -9577,7 +9577,7 @@
         <v>216</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D61" s="22" t="s">
         <v>217</v>
@@ -9589,16 +9589,16 @@
         <v>225</v>
       </c>
       <c r="G61" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="H61" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="H61" s="19" t="s">
-        <v>365</v>
-      </c>
       <c r="I61" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J61" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K61" s="17" t="s">
         <v>55</v>
@@ -9619,16 +9619,16 @@
         <v>47</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H62" s="17" t="s">
         <v>51</v>
       </c>
       <c r="I62" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J62" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K62" s="17" t="s">
         <v>55</v>
@@ -9649,16 +9649,16 @@
         <v>215</v>
       </c>
       <c r="G63" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="H63" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="H63" s="19" t="s">
-        <v>362</v>
-      </c>
       <c r="I63" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J63" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K63" s="17" t="s">
         <v>55</v>
@@ -9669,7 +9669,7 @@
         <v>216</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D64" s="22" t="s">
         <v>220</v>
@@ -9678,7 +9678,7 @@
         <v>226</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G64" s="19" t="s">
         <v>99</v>
@@ -9687,7 +9687,7 @@
         <v>227</v>
       </c>
       <c r="I64" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J64" s="18"/>
       <c r="K64" s="17" t="s">
@@ -9699,7 +9699,7 @@
         <v>216</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D65" s="22" t="s">
         <v>221</v>
@@ -9714,10 +9714,10 @@
         <v>99</v>
       </c>
       <c r="H65" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I65" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J65" s="18"/>
       <c r="K65" s="17" t="s">
@@ -9729,14 +9729,14 @@
         <v>216</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D66" s="22" t="s">
         <v>222</v>
       </c>
       <c r="E66" s="19"/>
       <c r="F66" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G66" s="19" t="s">
         <v>99</v>
@@ -9745,10 +9745,10 @@
         <v>228</v>
       </c>
       <c r="I66" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J66" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K66" s="17" t="s">
         <v>55</v>
@@ -9759,14 +9759,14 @@
         <v>216</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D67" s="22" t="s">
         <v>223</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G67" s="19" t="s">
         <v>99</v>
@@ -9775,10 +9775,10 @@
         <v>229</v>
       </c>
       <c r="I67" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J67" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K67" s="17" t="s">
         <v>55</v>
@@ -9802,10 +9802,10 @@
         <v>99</v>
       </c>
       <c r="H68" s="19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J68" s="18"/>
       <c r="K68" s="17" t="s">
@@ -9833,10 +9833,10 @@
         <v>271</v>
       </c>
       <c r="I69" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J69" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K69" s="17" t="s">
         <v>55</v>
@@ -9856,16 +9856,16 @@
         <v>272</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G70" s="19" t="s">
         <v>273</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J70" s="18"/>
       <c r="K70" s="17" t="s">
@@ -9883,7 +9883,7 @@
         <v>240</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F71" s="19" t="s">
         <v>274</v>
@@ -9892,10 +9892,10 @@
         <v>99</v>
       </c>
       <c r="H71" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I71" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J71" s="19"/>
       <c r="K71" s="17" t="s">
@@ -9916,19 +9916,19 @@
         <v>280</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G72" s="17" t="s">
         <v>99</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I72" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J72" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K72" s="17" t="s">
         <v>55</v>
@@ -9955,10 +9955,10 @@
         <v>275</v>
       </c>
       <c r="I73" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J73" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K73" s="17" t="s">
         <v>55</v>
@@ -9975,10 +9975,10 @@
         <v>244</v>
       </c>
       <c r="E74" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G74" s="19" t="s">
         <v>281</v>
@@ -9987,10 +9987,10 @@
         <v>282</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J74" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K74" s="17" t="s">
         <v>55</v>
@@ -10017,7 +10017,7 @@
         <v>282</v>
       </c>
       <c r="I75" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J75" s="19"/>
       <c r="K75" s="17" t="s">
@@ -10045,10 +10045,10 @@
         <v>288</v>
       </c>
       <c r="I76" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J76" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K76" s="17" t="s">
         <v>55</v>
@@ -10075,10 +10075,10 @@
         <v>51</v>
       </c>
       <c r="I77" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J77" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K77" s="17" t="s">
         <v>55</v>
@@ -10105,10 +10105,10 @@
         <v>291</v>
       </c>
       <c r="I78" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J78" s="19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K78" s="17" t="s">
         <v>55</v>
@@ -10137,10 +10137,10 @@
         <v>293</v>
       </c>
       <c r="I79" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J79" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K79" s="17" t="s">
         <v>55</v>
@@ -11727,12 +11727,12 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C10" t="s">
         <v>55</v>
@@ -11740,7 +11740,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C11" t="s">
         <v>56</v>

--- a/doc/Casos de Prueba GSIAM.xlsx
+++ b/doc/Casos de Prueba GSIAM.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="429">
   <si>
     <t>Alcance</t>
   </si>
@@ -2894,6 +2894,9 @@
     <t>*Si no señlecciono foto publica una camara de fotos..
 * si selecciono que no recuerde la contraseña nunca, cuando vuelvo a entrar no me pide logion de nuevo, ni me da la opcion a cerrar sesion.
 * en el log se observan errores, revisar</t>
+  </si>
+  <si>
+    <t>CP12-05</t>
   </si>
   <si>
     <r>
@@ -7792,12 +7795,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Hoja4"/>
+  <sheetPr codeName="Hoja4" filterMode="1"/>
   <dimension ref="A2:K422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -7806,12 +7809,12 @@
     <col min="2" max="2" width="7.42578125" style="26" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" style="24" customWidth="1"/>
     <col min="4" max="4" width="9" style="24" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="12" style="24" customWidth="1"/>
     <col min="6" max="6" width="27.7109375" style="24" customWidth="1"/>
     <col min="7" max="7" width="27.42578125" style="24" customWidth="1"/>
     <col min="8" max="8" width="28.85546875" style="24" customWidth="1"/>
     <col min="9" max="9" width="14.140625" style="26" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="30" style="24" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" style="24" customWidth="1"/>
     <col min="12" max="16384" width="11.42578125" style="24"/>
   </cols>
@@ -7857,7 +7860,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="63.75">
+    <row r="4" spans="1:11" ht="76.5">
       <c r="A4" s="27"/>
       <c r="B4" s="16" t="s">
         <v>57</v>
@@ -7883,7 +7886,7 @@
       <c r="I4" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="J4" s="19"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="17" t="s">
         <v>55</v>
       </c>
@@ -7912,7 +7915,7 @@
       <c r="I5" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="J5" s="19"/>
+      <c r="J5" s="17"/>
       <c r="K5" s="17" t="s">
         <v>55</v>
       </c>
@@ -7943,12 +7946,12 @@
       <c r="I6" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="J6" s="19"/>
+      <c r="J6" s="17"/>
       <c r="K6" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="28" customFormat="1" ht="89.25">
+    <row r="7" spans="1:11" s="28" customFormat="1" ht="63.75">
       <c r="A7" s="27"/>
       <c r="B7" s="16" t="s">
         <v>57</v>
@@ -7972,7 +7975,7 @@
       <c r="I7" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="17" t="s">
         <v>392</v>
       </c>
       <c r="K7" s="17" t="s">
@@ -8003,12 +8006,12 @@
       <c r="I8" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="J8" s="19"/>
+      <c r="J8" s="17"/>
       <c r="K8" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="28" customFormat="1" ht="51">
+    <row r="9" spans="1:11" s="28" customFormat="1" ht="63.75">
       <c r="A9" s="27"/>
       <c r="B9" s="16" t="s">
         <v>57</v>
@@ -8032,14 +8035,14 @@
       <c r="I9" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="17" t="s">
         <v>379</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="28" customFormat="1" ht="38.25">
+    <row r="10" spans="1:11" s="28" customFormat="1" ht="38.25" hidden="1">
       <c r="A10" s="27"/>
       <c r="B10" s="18" t="s">
         <v>71</v>
@@ -8070,7 +8073,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="28" customFormat="1" ht="76.5">
+    <row r="11" spans="1:11" s="28" customFormat="1" ht="76.5" hidden="1">
       <c r="A11" s="27"/>
       <c r="B11" s="18" t="s">
         <v>71</v>
@@ -8101,7 +8104,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="28" customFormat="1" ht="38.25">
+    <row r="12" spans="1:11" s="28" customFormat="1" ht="38.25" hidden="1">
       <c r="A12" s="27"/>
       <c r="B12" s="18" t="s">
         <v>71</v>
@@ -8130,7 +8133,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="28" customFormat="1" ht="38.25">
+    <row r="13" spans="1:11" s="28" customFormat="1" ht="38.25" hidden="1">
       <c r="A13" s="27"/>
       <c r="B13" s="18" t="s">
         <v>71</v>
@@ -8159,7 +8162,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="28" customFormat="1" ht="89.25">
+    <row r="14" spans="1:11" s="28" customFormat="1" ht="89.25" hidden="1">
       <c r="A14" s="27"/>
       <c r="B14" s="18" t="s">
         <v>71</v>
@@ -8190,7 +8193,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="28" customFormat="1" ht="76.5">
+    <row r="15" spans="1:11" s="28" customFormat="1" ht="76.5" hidden="1">
       <c r="A15" s="27"/>
       <c r="B15" s="18" t="s">
         <v>71</v>
@@ -8223,7 +8226,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="28" customFormat="1" ht="63.75">
+    <row r="16" spans="1:11" s="28" customFormat="1" ht="63.75" hidden="1">
       <c r="A16" s="27"/>
       <c r="B16" s="18" t="s">
         <v>85</v>
@@ -8254,7 +8257,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="2:11" s="28" customFormat="1" ht="102">
+    <row r="17" spans="2:11" s="28" customFormat="1" ht="102" hidden="1">
       <c r="B17" s="18" t="s">
         <v>88</v>
       </c>
@@ -8284,7 +8287,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="2:11" s="28" customFormat="1" ht="102">
+    <row r="18" spans="2:11" s="28" customFormat="1" ht="102" hidden="1">
       <c r="B18" s="18" t="s">
         <v>88</v>
       </c>
@@ -8312,7 +8315,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="2:11" s="28" customFormat="1" ht="51">
+    <row r="19" spans="2:11" s="28" customFormat="1" ht="51" hidden="1">
       <c r="B19" s="18" t="s">
         <v>88</v>
       </c>
@@ -8342,7 +8345,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="2:11" s="28" customFormat="1" ht="89.25">
+    <row r="20" spans="2:11" s="28" customFormat="1" ht="89.25" hidden="1">
       <c r="B20" s="18" t="s">
         <v>88</v>
       </c>
@@ -8372,7 +8375,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="2:11" s="28" customFormat="1" ht="51">
+    <row r="21" spans="2:11" s="28" customFormat="1" ht="51" hidden="1">
       <c r="B21" s="18" t="s">
         <v>88</v>
       </c>
@@ -8400,7 +8403,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="2:11" s="28" customFormat="1" ht="51">
+    <row r="22" spans="2:11" s="28" customFormat="1" ht="51" hidden="1">
       <c r="B22" s="18" t="s">
         <v>88</v>
       </c>
@@ -8428,7 +8431,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="2:11" s="28" customFormat="1" ht="102">
+    <row r="23" spans="2:11" s="28" customFormat="1" ht="102" hidden="1">
       <c r="B23" s="18" t="s">
         <v>88</v>
       </c>
@@ -8446,7 +8449,7 @@
         <v>313</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I23" s="16" t="s">
         <v>384</v>
@@ -8458,7 +8461,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="2:11" s="28" customFormat="1" ht="114.75">
+    <row r="24" spans="2:11" s="28" customFormat="1" ht="114.75" hidden="1">
       <c r="B24" s="18" t="s">
         <v>88</v>
       </c>
@@ -8490,7 +8493,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="2:11" s="28" customFormat="1" ht="51">
+    <row r="25" spans="2:11" s="28" customFormat="1" ht="51" hidden="1">
       <c r="B25" s="18" t="s">
         <v>88</v>
       </c>
@@ -8518,7 +8521,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="2:11" s="28" customFormat="1" ht="76.5">
+    <row r="26" spans="2:11" s="28" customFormat="1" ht="76.5" hidden="1">
       <c r="B26" s="18" t="s">
         <v>111</v>
       </c>
@@ -8548,7 +8551,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="2:11" s="28" customFormat="1" ht="63.75">
+    <row r="27" spans="2:11" s="28" customFormat="1" ht="63.75" hidden="1">
       <c r="B27" s="18" t="s">
         <v>111</v>
       </c>
@@ -8578,7 +8581,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="2:11" s="28" customFormat="1" ht="63.75">
+    <row r="28" spans="2:11" s="28" customFormat="1" ht="63.75" hidden="1">
       <c r="B28" s="18" t="s">
         <v>111</v>
       </c>
@@ -8608,7 +8611,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:11" s="28" customFormat="1" ht="25.5">
+    <row r="29" spans="2:11" s="28" customFormat="1" ht="25.5" hidden="1">
       <c r="B29" s="18" t="s">
         <v>111</v>
       </c>
@@ -8636,7 +8639,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="2:11" s="28" customFormat="1" ht="38.25">
+    <row r="30" spans="2:11" s="28" customFormat="1" ht="38.25" hidden="1">
       <c r="B30" s="18" t="s">
         <v>111</v>
       </c>
@@ -8664,7 +8667,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="2:11" s="28" customFormat="1" ht="38.25">
+    <row r="31" spans="2:11" s="28" customFormat="1" ht="38.25" hidden="1">
       <c r="B31" s="18" t="s">
         <v>129</v>
       </c>
@@ -8694,7 +8697,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="2:11" s="28" customFormat="1" ht="38.25">
+    <row r="32" spans="2:11" s="28" customFormat="1" ht="38.25" hidden="1">
       <c r="B32" s="18" t="s">
         <v>129</v>
       </c>
@@ -8724,7 +8727,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="2:11" s="28" customFormat="1" ht="51">
+    <row r="33" spans="2:11" s="28" customFormat="1" ht="51" hidden="1">
       <c r="B33" s="18" t="s">
         <v>129</v>
       </c>
@@ -8754,7 +8757,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="2:11" s="28" customFormat="1" ht="89.25">
+    <row r="34" spans="2:11" s="28" customFormat="1" ht="89.25" hidden="1">
       <c r="B34" s="18" t="s">
         <v>144</v>
       </c>
@@ -8786,7 +8789,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="2:11" s="28" customFormat="1" ht="38.25">
+    <row r="35" spans="2:11" s="28" customFormat="1" ht="38.25" hidden="1">
       <c r="B35" s="18" t="s">
         <v>144</v>
       </c>
@@ -8816,7 +8819,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="2:11" s="28" customFormat="1" ht="63.75">
+    <row r="36" spans="2:11" s="28" customFormat="1" ht="63.75" hidden="1">
       <c r="B36" s="18" t="s">
         <v>144</v>
       </c>
@@ -8846,7 +8849,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="2:11" s="28" customFormat="1" ht="140.25">
+    <row r="37" spans="2:11" s="28" customFormat="1" ht="140.25" hidden="1">
       <c r="B37" s="18" t="s">
         <v>154</v>
       </c>
@@ -8878,7 +8881,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="2:11" s="28" customFormat="1" ht="140.25">
+    <row r="38" spans="2:11" s="28" customFormat="1" ht="140.25" hidden="1">
       <c r="B38" s="18" t="s">
         <v>154</v>
       </c>
@@ -8910,7 +8913,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="2:11" s="28" customFormat="1" ht="63.75">
+    <row r="39" spans="2:11" s="28" customFormat="1" ht="63.75" hidden="1">
       <c r="B39" s="18" t="s">
         <v>154</v>
       </c>
@@ -8942,7 +8945,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="2:11" s="28" customFormat="1" ht="51">
+    <row r="40" spans="2:11" s="28" customFormat="1" ht="51" hidden="1">
       <c r="B40" s="18" t="s">
         <v>154</v>
       </c>
@@ -8970,7 +8973,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="2:11" s="28" customFormat="1" ht="38.25">
+    <row r="41" spans="2:11" s="28" customFormat="1" ht="38.25" hidden="1">
       <c r="B41" s="18" t="s">
         <v>167</v>
       </c>
@@ -8998,7 +9001,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="2:11" s="28" customFormat="1" ht="63.75">
+    <row r="42" spans="2:11" s="28" customFormat="1" ht="63.75" hidden="1">
       <c r="B42" s="18" t="s">
         <v>167</v>
       </c>
@@ -9028,7 +9031,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="2:11" s="28" customFormat="1" ht="63.75">
+    <row r="43" spans="2:11" s="28" customFormat="1" ht="63.75" hidden="1">
       <c r="B43" s="18" t="s">
         <v>173</v>
       </c>
@@ -9060,7 +9063,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="2:11" s="28" customFormat="1" ht="38.25">
+    <row r="44" spans="2:11" s="28" customFormat="1" ht="38.25" hidden="1">
       <c r="B44" s="18" t="s">
         <v>173</v>
       </c>
@@ -9090,7 +9093,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="2:11" s="28" customFormat="1" ht="409.5">
+    <row r="45" spans="2:11" s="28" customFormat="1" ht="165.75">
       <c r="B45" s="18" t="s">
         <v>181</v>
       </c>
@@ -9113,8 +9116,8 @@
       <c r="I45" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="J45" s="19" t="s">
-        <v>426</v>
+      <c r="J45" s="17" t="s">
+        <v>427</v>
       </c>
       <c r="K45" s="17" t="s">
         <v>55</v>
@@ -9143,7 +9146,7 @@
       <c r="I46" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="J46" s="19"/>
+      <c r="J46" s="17"/>
       <c r="K46" s="17" t="s">
         <v>55</v>
       </c>
@@ -9173,7 +9176,7 @@
       <c r="I47" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="J47" s="19" t="s">
+      <c r="J47" s="17" t="s">
         <v>404</v>
       </c>
       <c r="K47" s="17" t="s">
@@ -9203,12 +9206,12 @@
       <c r="I48" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="J48" s="19"/>
+      <c r="J48" s="17"/>
       <c r="K48" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="2:11" s="28" customFormat="1" ht="409.5">
+    <row r="49" spans="2:11" s="28" customFormat="1" ht="293.25">
       <c r="B49" s="18" t="s">
         <v>189</v>
       </c>
@@ -9231,8 +9234,8 @@
       <c r="I49" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="J49" s="19" t="s">
-        <v>425</v>
+      <c r="J49" s="17" t="s">
+        <v>426</v>
       </c>
       <c r="K49" s="17" t="s">
         <v>55</v>
@@ -9261,12 +9264,12 @@
       <c r="I50" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="J50" s="19"/>
+      <c r="J50" s="17"/>
       <c r="K50" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="2:11" s="28" customFormat="1" ht="38.25">
+    <row r="51" spans="2:11" s="28" customFormat="1" ht="25.5">
       <c r="B51" s="18" t="s">
         <v>189</v>
       </c>
@@ -9289,14 +9292,14 @@
       <c r="I51" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="J51" s="19" t="s">
+      <c r="J51" s="17" t="s">
         <v>391</v>
       </c>
       <c r="K51" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="2:11" s="28" customFormat="1" ht="38.25">
+    <row r="52" spans="2:11" s="28" customFormat="1" ht="25.5">
       <c r="B52" s="18" t="s">
         <v>189</v>
       </c>
@@ -9304,14 +9307,14 @@
         <v>44</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>211</v>
+        <v>424</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="19" t="s">
         <v>47</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H52" s="19" t="s">
         <v>51</v>
@@ -9319,14 +9322,14 @@
       <c r="I52" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="J52" s="19" t="s">
+      <c r="J52" s="17" t="s">
         <v>391</v>
       </c>
       <c r="K52" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="2:11" s="28" customFormat="1" ht="318.75">
+    <row r="53" spans="2:11" s="28" customFormat="1" ht="127.5">
       <c r="B53" s="18" t="s">
         <v>203</v>
       </c>
@@ -11533,7 +11536,13 @@
       <c r="J422" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:K79"/>
+  <autoFilter ref="A3:K79">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="Martin Loureiro"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I79">

--- a/doc/Casos de Prueba GSIAM.xlsx
+++ b/doc/Casos de Prueba GSIAM.xlsx
@@ -4,16 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="6795" windowHeight="7740" tabRatio="423" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="6795" windowHeight="7740" tabRatio="586" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="8" r:id="rId1"/>
-    <sheet name="Casos de Prueba - dd-mm-yyyy" sheetId="12" r:id="rId2"/>
+    <sheet name="1er it - CP - dd-mm-yyyy" sheetId="12" r:id="rId2"/>
     <sheet name="Escala Impacto" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="cuentas de e-mail" sheetId="13" r:id="rId4"/>
+    <sheet name="2da it - CP - dd-mm-yyyy" sheetId="14" r:id="rId4"/>
+    <sheet name="Revision Final - dd-mm-yyyy" sheetId="15" r:id="rId5"/>
+    <sheet name="cuentas de e-mail" sheetId="13" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Casos de Prueba - dd-mm-yyyy'!$A$3:$K$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1er it - CP - dd-mm-yyyy'!$A$3:$K$51</definedName>
     <definedName name="acciones">#REF!</definedName>
     <definedName name="Clasificacion">#REF!</definedName>
     <definedName name="ClasificacionRiesgos">#REF!</definedName>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="429">
   <si>
     <t>Alcance</t>
   </si>
@@ -7795,12 +7797,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Hoja4" filterMode="1"/>
-  <dimension ref="A2:K422"/>
+  <sheetPr codeName="Hoja4"/>
+  <dimension ref="A2:K394"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -8042,7 +8044,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="28" customFormat="1" ht="38.25" hidden="1">
+    <row r="10" spans="1:11" s="28" customFormat="1" ht="38.25">
       <c r="A10" s="27"/>
       <c r="B10" s="18" t="s">
         <v>71</v>
@@ -8073,7 +8075,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="28" customFormat="1" ht="76.5" hidden="1">
+    <row r="11" spans="1:11" s="28" customFormat="1" ht="76.5">
       <c r="A11" s="27"/>
       <c r="B11" s="18" t="s">
         <v>71</v>
@@ -8104,7 +8106,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="28" customFormat="1" ht="38.25" hidden="1">
+    <row r="12" spans="1:11" s="28" customFormat="1" ht="38.25">
       <c r="A12" s="27"/>
       <c r="B12" s="18" t="s">
         <v>71</v>
@@ -8133,7 +8135,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="28" customFormat="1" ht="38.25" hidden="1">
+    <row r="13" spans="1:11" s="28" customFormat="1" ht="38.25">
       <c r="A13" s="27"/>
       <c r="B13" s="18" t="s">
         <v>71</v>
@@ -8162,7 +8164,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="28" customFormat="1" ht="89.25" hidden="1">
+    <row r="14" spans="1:11" s="28" customFormat="1" ht="89.25">
       <c r="A14" s="27"/>
       <c r="B14" s="18" t="s">
         <v>71</v>
@@ -8193,7 +8195,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="28" customFormat="1" ht="76.5" hidden="1">
+    <row r="15" spans="1:11" s="28" customFormat="1" ht="38.25">
       <c r="A15" s="27"/>
       <c r="B15" s="18" t="s">
         <v>71</v>
@@ -8226,7 +8228,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="28" customFormat="1" ht="63.75" hidden="1">
+    <row r="16" spans="1:11" s="28" customFormat="1" ht="38.25">
       <c r="A16" s="27"/>
       <c r="B16" s="18" t="s">
         <v>85</v>
@@ -8257,27 +8259,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="2:11" s="28" customFormat="1" ht="102" hidden="1">
+    <row r="17" spans="2:11" s="28" customFormat="1" ht="89.25">
       <c r="B17" s="18" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>302</v>
+        <v>124</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>303</v>
+        <v>117</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>304</v>
+        <v>121</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>305</v>
+        <v>125</v>
       </c>
       <c r="I17" s="16" t="s">
         <v>383</v>
@@ -8287,25 +8289,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="2:11" s="28" customFormat="1" ht="102" hidden="1">
+    <row r="18" spans="2:11" s="28" customFormat="1" ht="89.25">
       <c r="B18" s="18" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>317</v>
+      </c>
       <c r="F18" s="19" t="s">
-        <v>307</v>
+        <v>118</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>308</v>
+        <v>122</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="I18" s="16" t="s">
         <v>383</v>
@@ -8315,85 +8319,83 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="2:11" s="28" customFormat="1" ht="51" hidden="1">
+    <row r="19" spans="2:11" s="28" customFormat="1" ht="76.5">
       <c r="B19" s="18" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>127</v>
+      </c>
       <c r="F19" s="19" t="s">
-        <v>310</v>
+        <v>119</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>99</v>
+        <v>320</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>311</v>
+        <v>128</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>393</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="J19" s="19"/>
       <c r="K19" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="2:11" s="28" customFormat="1" ht="89.25" hidden="1">
+    <row r="20" spans="2:11" s="28" customFormat="1" ht="25.5">
       <c r="B20" s="18" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19" t="s">
-        <v>47</v>
+        <v>321</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>312</v>
+        <v>120</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>385</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="J20" s="19"/>
       <c r="K20" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="2:11" s="28" customFormat="1" ht="51" hidden="1">
+    <row r="21" spans="2:11" s="28" customFormat="1" ht="38.25">
       <c r="B21" s="18" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>68</v>
+        <v>322</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="19" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="I21" s="16" t="s">
         <v>383</v>
@@ -8403,25 +8405,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="2:11" s="28" customFormat="1" ht="51" hidden="1">
+    <row r="22" spans="2:11" s="28" customFormat="1" ht="51">
       <c r="B22" s="18" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="19"/>
+        <v>130</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>135</v>
+      </c>
       <c r="F22" s="19" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="I22" s="16" t="s">
         <v>383</v>
@@ -8431,117 +8435,119 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="2:11" s="28" customFormat="1" ht="102" hidden="1">
+    <row r="23" spans="2:11" s="28" customFormat="1" ht="51">
       <c r="B23" s="18" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="22"/>
+        <v>131</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>136</v>
+      </c>
       <c r="F23" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>313</v>
+        <v>138</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>428</v>
+        <v>139</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>381</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="J23" s="19"/>
       <c r="K23" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="2:11" s="28" customFormat="1" ht="114.75" hidden="1">
+    <row r="24" spans="2:11" s="28" customFormat="1" ht="51">
       <c r="B24" s="18" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>103</v>
+        <v>324</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>389</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="J24" s="19"/>
       <c r="K24" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="2:11" s="28" customFormat="1" ht="51" hidden="1">
+    <row r="25" spans="2:11" s="28" customFormat="1" ht="127.5">
       <c r="B25" s="18" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>314</v>
+        <v>148</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="22"/>
+        <v>145</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>152</v>
+      </c>
       <c r="F25" s="19" t="s">
-        <v>310</v>
+        <v>150</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>110</v>
+        <v>325</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J25" s="19"/>
+        <v>384</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>402</v>
+      </c>
       <c r="K25" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="2:11" s="28" customFormat="1" ht="76.5" hidden="1">
+    <row r="26" spans="2:11" s="28" customFormat="1" ht="38.25">
       <c r="B26" s="18" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>315</v>
+        <v>149</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>117</v>
+        <v>326</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>125</v>
+        <v>327</v>
       </c>
       <c r="I26" s="16" t="s">
         <v>383</v>
@@ -8551,143 +8557,151 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="2:11" s="28" customFormat="1" ht="63.75" hidden="1">
+    <row r="27" spans="2:11" s="28" customFormat="1" ht="51">
       <c r="B27" s="18" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>317</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="E27" s="19"/>
       <c r="F27" s="19" t="s">
-        <v>118</v>
+        <v>310</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="I27" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="J27" s="19"/>
+      <c r="J27" s="19" t="s">
+        <v>387</v>
+      </c>
       <c r="K27" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="2:11" s="28" customFormat="1" ht="63.75" hidden="1">
+    <row r="28" spans="2:11" s="28" customFormat="1" ht="89.25">
       <c r="B28" s="18" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>319</v>
+        <v>159</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>127</v>
+        <v>330</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>320</v>
+        <v>99</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>128</v>
+        <v>331</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J28" s="19"/>
+        <v>384</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>390</v>
+      </c>
       <c r="K28" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:11" s="28" customFormat="1" ht="25.5" hidden="1">
+    <row r="29" spans="2:11" s="28" customFormat="1" ht="89.25">
       <c r="B29" s="18" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" s="19"/>
+        <v>156</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>332</v>
+      </c>
       <c r="F29" s="19" t="s">
-        <v>321</v>
+        <v>163</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J29" s="19"/>
+        <v>384</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>390</v>
+      </c>
       <c r="K29" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="2:11" s="28" customFormat="1" ht="38.25" hidden="1">
+    <row r="30" spans="2:11" s="28" customFormat="1" ht="89.25">
       <c r="B30" s="18" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>322</v>
+        <v>161</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="E30" s="19"/>
+        <v>157</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>330</v>
+      </c>
       <c r="F30" s="19" t="s">
-        <v>323</v>
+        <v>165</v>
       </c>
       <c r="G30" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J30" s="19"/>
+        <v>384</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>388</v>
+      </c>
       <c r="K30" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="2:11" s="28" customFormat="1" ht="38.25" hidden="1">
+    <row r="31" spans="2:11" s="28" customFormat="1" ht="51">
       <c r="B31" s="18" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>133</v>
+        <v>333</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>135</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="E31" s="19"/>
       <c r="F31" s="19" t="s">
-        <v>137</v>
+        <v>310</v>
       </c>
       <c r="G31" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>139</v>
+        <v>334</v>
       </c>
       <c r="I31" s="16" t="s">
         <v>383</v>
@@ -8697,1459 +8711,727 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="2:11" s="28" customFormat="1" ht="38.25" hidden="1">
+    <row r="32" spans="2:11" s="28" customFormat="1" ht="127.5">
       <c r="B32" s="18" t="s">
-        <v>129</v>
+        <v>203</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>134</v>
+        <v>247</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>138</v>
+        <v>352</v>
       </c>
       <c r="G32" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H32" s="19" t="s">
-        <v>139</v>
+      <c r="H32" s="17" t="s">
+        <v>353</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J32" s="19"/>
+        <v>384</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>405</v>
+      </c>
       <c r="K32" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" s="28" customFormat="1" ht="51" hidden="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" s="28" customFormat="1" ht="76.5">
       <c r="B33" s="18" t="s">
-        <v>129</v>
+        <v>203</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>324</v>
+        <v>249</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>142</v>
+        <v>252</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>140</v>
+        <v>253</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>141</v>
+        <v>354</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>254</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J33" s="19"/>
+        <v>384</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>406</v>
+      </c>
       <c r="K33" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" s="28" customFormat="1" ht="89.25" hidden="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" s="28" customFormat="1" ht="63.75">
       <c r="B34" s="18" t="s">
-        <v>144</v>
+        <v>203</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>152</v>
+        <v>255</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>150</v>
+        <v>256</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>325</v>
+        <v>257</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>258</v>
       </c>
       <c r="I34" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="J34" s="19" t="s">
-        <v>402</v>
+      <c r="J34" s="16" t="s">
+        <v>417</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" s="28" customFormat="1" ht="38.25" hidden="1">
-      <c r="B35" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>327</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" s="29" customFormat="1" ht="51">
+      <c r="B35" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>356</v>
       </c>
       <c r="I35" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="J35" s="19"/>
+      <c r="J35" s="16"/>
       <c r="K35" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" s="28" customFormat="1" ht="63.75" hidden="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" s="28" customFormat="1" ht="38.25">
       <c r="B36" s="18" t="s">
-        <v>144</v>
+        <v>203</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>328</v>
+        <v>177</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="E36" s="19"/>
+        <v>208</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>178</v>
+      </c>
       <c r="F36" s="19" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="G36" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J36" s="19" t="s">
-        <v>387</v>
+        <v>384</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>407</v>
       </c>
       <c r="K36" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" s="28" customFormat="1" ht="140.25" hidden="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" s="28" customFormat="1" ht="153">
       <c r="B37" s="18" t="s">
-        <v>154</v>
+        <v>209</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>159</v>
+        <v>357</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>330</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="E37" s="19"/>
       <c r="F37" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>331</v>
+        <v>213</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>214</v>
       </c>
       <c r="I37" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="J37" s="17" t="s">
-        <v>390</v>
+      <c r="J37" s="16" t="s">
+        <v>408</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" s="28" customFormat="1" ht="140.25" hidden="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" s="28" customFormat="1" ht="153">
       <c r="B38" s="18" t="s">
-        <v>154</v>
+        <v>209</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>332</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="E38" s="19"/>
       <c r="F38" s="19" t="s">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>99</v>
+        <v>359</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J38" s="17" t="s">
-        <v>390</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="J38" s="16"/>
       <c r="K38" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" s="28" customFormat="1" ht="63.75" hidden="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" s="28" customFormat="1" ht="165.75">
       <c r="B39" s="18" t="s">
-        <v>154</v>
+        <v>209</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>330</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="E39" s="19"/>
       <c r="F39" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>99</v>
+        <v>215</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>166</v>
+        <v>361</v>
       </c>
       <c r="I39" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="J39" s="17" t="s">
-        <v>388</v>
+      <c r="J39" s="16" t="s">
+        <v>409</v>
       </c>
       <c r="K39" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" s="28" customFormat="1" ht="51" hidden="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" s="28" customFormat="1" ht="25.5">
       <c r="B40" s="18" t="s">
-        <v>154</v>
+        <v>236</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>333</v>
+        <v>260</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>158</v>
+        <v>237</v>
       </c>
       <c r="E40" s="19"/>
       <c r="F40" s="19" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="G40" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="I40" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="J40" s="19"/>
+      <c r="J40" s="16"/>
       <c r="K40" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" s="28" customFormat="1" ht="38.25" hidden="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" s="28" customFormat="1" ht="51">
       <c r="B41" s="18" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>170</v>
+        <v>261</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>168</v>
+        <v>238</v>
       </c>
       <c r="E41" s="19"/>
       <c r="F41" s="19" t="s">
-        <v>335</v>
+        <v>270</v>
       </c>
       <c r="G41" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>336</v>
+        <v>271</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J41" s="19"/>
+        <v>384</v>
+      </c>
+      <c r="J41" s="16" t="s">
+        <v>415</v>
+      </c>
       <c r="K41" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" s="28" customFormat="1" ht="63.75" hidden="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" s="28" customFormat="1" ht="51">
       <c r="B42" s="18" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>171</v>
+        <v>262</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>172</v>
+        <v>272</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>99</v>
+        <v>273</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="I42" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="J42" s="19"/>
+      <c r="J42" s="16"/>
       <c r="K42" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" s="28" customFormat="1" ht="63.75" hidden="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" s="28" customFormat="1" ht="76.5">
       <c r="B43" s="18" t="s">
-        <v>173</v>
+        <v>236</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="G43" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>180</v>
+        <v>375</v>
       </c>
       <c r="I43" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="B44" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="I44" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="J43" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="K43" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" s="28" customFormat="1" ht="38.25" hidden="1">
-      <c r="B44" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="I44" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J44" s="19"/>
+      <c r="J44" s="17" t="s">
+        <v>416</v>
+      </c>
       <c r="K44" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" s="28" customFormat="1" ht="165.75">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" s="28" customFormat="1" ht="51">
       <c r="B45" s="18" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="E45" s="19"/>
       <c r="F45" s="19" t="s">
-        <v>187</v>
+        <v>275</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>99</v>
+        <v>276</v>
       </c>
       <c r="H45" s="19" t="s">
-        <v>342</v>
+        <v>275</v>
       </c>
       <c r="I45" s="16" t="s">
         <v>384</v>
       </c>
       <c r="J45" s="17" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="K45" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="2:11" s="28" customFormat="1" ht="38.25">
+    <row r="46" spans="2:11" s="28" customFormat="1" ht="114.75">
       <c r="B46" s="18" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="E46" s="19"/>
+        <v>244</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>302</v>
+      </c>
       <c r="F46" s="19" t="s">
-        <v>188</v>
+        <v>378</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>99</v>
+        <v>281</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>343</v>
+        <v>282</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J46" s="17"/>
+        <v>384</v>
+      </c>
+      <c r="J46" s="17" t="s">
+        <v>418</v>
+      </c>
       <c r="K46" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="2:11" s="28" customFormat="1" ht="38.25">
+    <row r="47" spans="2:11" s="28" customFormat="1" ht="114.75">
       <c r="B47" s="18" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>177</v>
+        <v>283</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>178</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="E47" s="19"/>
       <c r="F47" s="19" t="s">
-        <v>344</v>
+        <v>284</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>99</v>
+        <v>285</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>341</v>
+        <v>282</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J47" s="17" t="s">
-        <v>404</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="J47" s="17"/>
       <c r="K47" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="2:11" s="28" customFormat="1" ht="25.5">
+    <row r="48" spans="2:11" s="28" customFormat="1" ht="102">
       <c r="B48" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>345</v>
+        <v>242</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>266</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="19" t="s">
-        <v>346</v>
+        <v>286</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>194</v>
+        <v>287</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>347</v>
+        <v>288</v>
       </c>
       <c r="I48" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J48" s="17"/>
+        <v>384</v>
+      </c>
+      <c r="J48" s="17" t="s">
+        <v>423</v>
+      </c>
       <c r="K48" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="2:11" s="28" customFormat="1" ht="293.25">
+    <row r="49" spans="2:11" s="28" customFormat="1" ht="76.5">
       <c r="B49" s="18" t="s">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>348</v>
+        <v>44</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>191</v>
+        <v>267</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="19" t="s">
-        <v>349</v>
+        <v>47</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>350</v>
+        <v>289</v>
       </c>
       <c r="H49" s="19" t="s">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="I49" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J49" s="17" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="K49" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="2:11" s="28" customFormat="1" ht="25.5">
+    <row r="50" spans="2:11" s="28" customFormat="1" ht="63.75">
       <c r="B50" s="18" t="s">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>192</v>
+        <v>268</v>
       </c>
       <c r="E50" s="19"/>
-      <c r="F50" s="17" t="s">
-        <v>295</v>
+      <c r="F50" s="19" t="s">
+        <v>279</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H50" s="17" t="s">
-        <v>64</v>
+        <v>290</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="I50" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J50" s="17"/>
+        <v>384</v>
+      </c>
+      <c r="J50" s="17" t="s">
+        <v>421</v>
+      </c>
       <c r="K50" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="2:11" s="28" customFormat="1" ht="25.5">
-      <c r="B51" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>81</v>
+    <row r="51" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="B51" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="E51" s="19"/>
+        <v>278</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="F51" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>201</v>
+        <v>292</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>202</v>
+        <v>293</v>
       </c>
       <c r="I51" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="J51" s="17" t="s">
-        <v>391</v>
+      <c r="J51" s="19" t="s">
+        <v>422</v>
       </c>
       <c r="K51" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="2:11" s="28" customFormat="1" ht="25.5">
-      <c r="B52" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G52" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="H52" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I52" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J52" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="K52" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" s="28" customFormat="1" ht="127.5">
-      <c r="B53" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H53" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="I53" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J53" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="K53" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" s="28" customFormat="1" ht="76.5">
-      <c r="B54" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="G54" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="H54" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="I54" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J54" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="K54" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" s="28" customFormat="1" ht="127.5">
-      <c r="B55" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="F55" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="G55" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="H55" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="I55" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J55" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="K55" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" s="29" customFormat="1" ht="51">
-      <c r="B56" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="D56" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="E56" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="F56" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="G56" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H56" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="I56" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J56" s="16"/>
-      <c r="K56" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" s="28" customFormat="1" ht="102">
-      <c r="B57" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="G57" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H57" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="I57" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J57" s="18" t="s">
-        <v>407</v>
-      </c>
-      <c r="K57" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" s="28" customFormat="1" ht="153">
-      <c r="B58" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="G58" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="H58" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="I58" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J58" s="18" t="s">
-        <v>408</v>
-      </c>
-      <c r="K58" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" s="28" customFormat="1" ht="153">
-      <c r="B59" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G59" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="H59" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I59" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J59" s="18"/>
-      <c r="K59" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" s="28" customFormat="1" ht="178.5">
-      <c r="B60" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="G60" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="H60" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="I60" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J60" s="18" t="s">
-        <v>409</v>
-      </c>
-      <c r="K60" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" s="28" customFormat="1" ht="153">
-      <c r="B61" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="G61" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="H61" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="I61" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J61" s="18" t="s">
-        <v>412</v>
-      </c>
-      <c r="K61" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" s="28" customFormat="1" ht="153">
-      <c r="B62" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D62" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="E62" s="19"/>
-      <c r="F62" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G62" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="H62" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I62" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J62" s="18" t="s">
-        <v>410</v>
-      </c>
-      <c r="K62" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" s="28" customFormat="1" ht="165.75">
-      <c r="B63" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="G63" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="H63" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="I63" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J63" s="18" t="s">
-        <v>411</v>
-      </c>
-      <c r="K63" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" s="28" customFormat="1" ht="63.75">
-      <c r="B64" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="D64" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="E64" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="F64" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="G64" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H64" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="I64" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J64" s="18"/>
-      <c r="K64" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" s="28" customFormat="1" ht="51">
-      <c r="B65" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="E65" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="F65" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="G65" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H65" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="I65" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J65" s="18"/>
-      <c r="K65" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" s="28" customFormat="1" ht="51">
-      <c r="B66" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="D66" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="G66" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H66" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="I66" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J66" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="K66" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" s="28" customFormat="1" ht="51">
-      <c r="B67" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="G67" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H67" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="I67" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J67" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="K67" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" s="28" customFormat="1" ht="25.5">
-      <c r="B68" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="G68" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H68" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="I68" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J68" s="18"/>
-      <c r="K68" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" s="28" customFormat="1" ht="140.25">
-      <c r="B69" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="D69" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="G69" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H69" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="I69" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J69" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="K69" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" s="28" customFormat="1" ht="38.25">
-      <c r="B70" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="D70" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="F70" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="G70" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="H70" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="I70" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J70" s="18"/>
-      <c r="K70" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" s="28" customFormat="1" ht="76.5">
-      <c r="B71" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="D71" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="E71" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="F71" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="G71" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H71" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="I71" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J71" s="19"/>
-      <c r="K71" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" s="28" customFormat="1" ht="51">
-      <c r="B72" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="D72" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="E72" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="F72" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="G72" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H72" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="I72" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J72" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="K72" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" s="28" customFormat="1" ht="127.5">
-      <c r="B73" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="D73" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="G73" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="H73" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="I73" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J73" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="K73" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" s="28" customFormat="1" ht="114.75">
-      <c r="B74" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="D74" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="E74" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="F74" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="G74" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="H74" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="I74" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J74" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="K74" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" s="28" customFormat="1" ht="114.75">
-      <c r="B75" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="D75" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="G75" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="H75" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="I75" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J75" s="19"/>
-      <c r="K75" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" s="28" customFormat="1" ht="267.75">
-      <c r="B76" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="C76" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="D76" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="G76" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="H76" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I76" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J76" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="K76" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" s="28" customFormat="1" ht="76.5">
-      <c r="B77" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D77" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G77" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="H77" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I77" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J77" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="K77" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11" s="28" customFormat="1" ht="63.75">
-      <c r="B78" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D78" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="G78" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="H78" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="I78" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J78" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="K78" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" s="28" customFormat="1" ht="51">
-      <c r="B79" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="D79" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="E79" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="F79" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="G79" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H79" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="I79" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J79" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="K79" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11" s="28" customFormat="1">
+    <row r="52" spans="2:11" s="28" customFormat="1">
+      <c r="B52" s="30"/>
+      <c r="I52" s="30"/>
+    </row>
+    <row r="53" spans="2:11" s="28" customFormat="1">
+      <c r="B53" s="30"/>
+      <c r="I53" s="30"/>
+    </row>
+    <row r="54" spans="2:11" s="28" customFormat="1">
+      <c r="B54" s="30"/>
+      <c r="I54" s="30"/>
+    </row>
+    <row r="55" spans="2:11" s="28" customFormat="1">
+      <c r="B55" s="30"/>
+      <c r="I55" s="30"/>
+    </row>
+    <row r="56" spans="2:11" s="28" customFormat="1">
+      <c r="B56" s="30"/>
+      <c r="I56" s="30"/>
+    </row>
+    <row r="57" spans="2:11" s="28" customFormat="1">
+      <c r="B57" s="30"/>
+      <c r="I57" s="30"/>
+    </row>
+    <row r="58" spans="2:11" s="28" customFormat="1">
+      <c r="B58" s="30"/>
+      <c r="I58" s="30"/>
+    </row>
+    <row r="59" spans="2:11" s="28" customFormat="1">
+      <c r="B59" s="30"/>
+      <c r="I59" s="30"/>
+    </row>
+    <row r="60" spans="2:11" s="28" customFormat="1">
+      <c r="B60" s="30"/>
+      <c r="I60" s="30"/>
+    </row>
+    <row r="61" spans="2:11" s="28" customFormat="1">
+      <c r="B61" s="30"/>
+      <c r="I61" s="30"/>
+    </row>
+    <row r="62" spans="2:11" s="28" customFormat="1">
+      <c r="B62" s="30"/>
+      <c r="I62" s="30"/>
+    </row>
+    <row r="63" spans="2:11" s="28" customFormat="1">
+      <c r="B63" s="30"/>
+      <c r="I63" s="30"/>
+    </row>
+    <row r="64" spans="2:11" s="28" customFormat="1">
+      <c r="B64" s="30"/>
+      <c r="I64" s="30"/>
+    </row>
+    <row r="65" spans="2:9" s="28" customFormat="1">
+      <c r="B65" s="30"/>
+      <c r="I65" s="30"/>
+    </row>
+    <row r="66" spans="2:9" s="28" customFormat="1">
+      <c r="B66" s="30"/>
+      <c r="I66" s="30"/>
+    </row>
+    <row r="67" spans="2:9" s="28" customFormat="1">
+      <c r="B67" s="30"/>
+      <c r="I67" s="30"/>
+    </row>
+    <row r="68" spans="2:9" s="28" customFormat="1">
+      <c r="B68" s="30"/>
+      <c r="I68" s="30"/>
+    </row>
+    <row r="69" spans="2:9" s="28" customFormat="1">
+      <c r="B69" s="30"/>
+      <c r="I69" s="30"/>
+    </row>
+    <row r="70" spans="2:9" s="28" customFormat="1">
+      <c r="B70" s="30"/>
+      <c r="I70" s="30"/>
+    </row>
+    <row r="71" spans="2:9" s="28" customFormat="1">
+      <c r="B71" s="30"/>
+      <c r="I71" s="30"/>
+    </row>
+    <row r="72" spans="2:9" s="28" customFormat="1">
+      <c r="B72" s="30"/>
+      <c r="I72" s="30"/>
+    </row>
+    <row r="73" spans="2:9" s="28" customFormat="1">
+      <c r="B73" s="30"/>
+      <c r="I73" s="30"/>
+    </row>
+    <row r="74" spans="2:9" s="28" customFormat="1">
+      <c r="B74" s="30"/>
+      <c r="I74" s="30"/>
+    </row>
+    <row r="75" spans="2:9" s="28" customFormat="1">
+      <c r="B75" s="30"/>
+      <c r="I75" s="30"/>
+    </row>
+    <row r="76" spans="2:9" s="28" customFormat="1">
+      <c r="B76" s="30"/>
+      <c r="I76" s="30"/>
+    </row>
+    <row r="77" spans="2:9" s="28" customFormat="1">
+      <c r="B77" s="30"/>
+      <c r="I77" s="30"/>
+    </row>
+    <row r="78" spans="2:9" s="28" customFormat="1">
+      <c r="B78" s="30"/>
+      <c r="I78" s="30"/>
+    </row>
+    <row r="79" spans="2:9" s="28" customFormat="1">
+      <c r="B79" s="30"/>
+      <c r="I79" s="30"/>
+    </row>
+    <row r="80" spans="2:9" s="28" customFormat="1">
       <c r="B80" s="30"/>
       <c r="I80" s="30"/>
     </row>
@@ -11369,186 +10651,70 @@
       <c r="B384" s="30"/>
       <c r="I384" s="30"/>
     </row>
-    <row r="385" spans="2:9" s="28" customFormat="1">
+    <row r="385" spans="2:10" s="28" customFormat="1">
       <c r="B385" s="30"/>
       <c r="I385" s="30"/>
     </row>
-    <row r="386" spans="2:9" s="28" customFormat="1">
+    <row r="386" spans="2:10" s="28" customFormat="1">
       <c r="B386" s="30"/>
       <c r="I386" s="30"/>
     </row>
-    <row r="387" spans="2:9" s="28" customFormat="1">
+    <row r="387" spans="2:10" s="28" customFormat="1">
       <c r="B387" s="30"/>
       <c r="I387" s="30"/>
     </row>
-    <row r="388" spans="2:9" s="28" customFormat="1">
+    <row r="388" spans="2:10" s="28" customFormat="1">
       <c r="B388" s="30"/>
       <c r="I388" s="30"/>
     </row>
-    <row r="389" spans="2:9" s="28" customFormat="1">
+    <row r="389" spans="2:10" s="28" customFormat="1">
       <c r="B389" s="30"/>
       <c r="I389" s="30"/>
     </row>
-    <row r="390" spans="2:9" s="28" customFormat="1">
+    <row r="390" spans="2:10" s="28" customFormat="1">
       <c r="B390" s="30"/>
       <c r="I390" s="30"/>
     </row>
-    <row r="391" spans="2:9" s="28" customFormat="1">
+    <row r="391" spans="2:10" s="28" customFormat="1">
       <c r="B391" s="30"/>
       <c r="I391" s="30"/>
     </row>
-    <row r="392" spans="2:9" s="28" customFormat="1">
+    <row r="392" spans="2:10" s="28" customFormat="1">
       <c r="B392" s="30"/>
       <c r="I392" s="30"/>
     </row>
-    <row r="393" spans="2:9" s="28" customFormat="1">
+    <row r="393" spans="2:10">
       <c r="B393" s="30"/>
+      <c r="C393" s="28"/>
+      <c r="D393" s="28"/>
+      <c r="E393" s="28"/>
+      <c r="F393" s="28"/>
+      <c r="G393" s="28"/>
+      <c r="H393" s="28"/>
       <c r="I393" s="30"/>
-    </row>
-    <row r="394" spans="2:9" s="28" customFormat="1">
+      <c r="J393" s="28"/>
+    </row>
+    <row r="394" spans="2:10">
       <c r="B394" s="30"/>
+      <c r="C394" s="28"/>
+      <c r="D394" s="28"/>
+      <c r="E394" s="28"/>
+      <c r="F394" s="28"/>
+      <c r="G394" s="28"/>
+      <c r="H394" s="28"/>
       <c r="I394" s="30"/>
-    </row>
-    <row r="395" spans="2:9" s="28" customFormat="1">
-      <c r="B395" s="30"/>
-      <c r="I395" s="30"/>
-    </row>
-    <row r="396" spans="2:9" s="28" customFormat="1">
-      <c r="B396" s="30"/>
-      <c r="I396" s="30"/>
-    </row>
-    <row r="397" spans="2:9" s="28" customFormat="1">
-      <c r="B397" s="30"/>
-      <c r="I397" s="30"/>
-    </row>
-    <row r="398" spans="2:9" s="28" customFormat="1">
-      <c r="B398" s="30"/>
-      <c r="I398" s="30"/>
-    </row>
-    <row r="399" spans="2:9" s="28" customFormat="1">
-      <c r="B399" s="30"/>
-      <c r="I399" s="30"/>
-    </row>
-    <row r="400" spans="2:9" s="28" customFormat="1">
-      <c r="B400" s="30"/>
-      <c r="I400" s="30"/>
-    </row>
-    <row r="401" spans="2:9" s="28" customFormat="1">
-      <c r="B401" s="30"/>
-      <c r="I401" s="30"/>
-    </row>
-    <row r="402" spans="2:9" s="28" customFormat="1">
-      <c r="B402" s="30"/>
-      <c r="I402" s="30"/>
-    </row>
-    <row r="403" spans="2:9" s="28" customFormat="1">
-      <c r="B403" s="30"/>
-      <c r="I403" s="30"/>
-    </row>
-    <row r="404" spans="2:9" s="28" customFormat="1">
-      <c r="B404" s="30"/>
-      <c r="I404" s="30"/>
-    </row>
-    <row r="405" spans="2:9" s="28" customFormat="1">
-      <c r="B405" s="30"/>
-      <c r="I405" s="30"/>
-    </row>
-    <row r="406" spans="2:9" s="28" customFormat="1">
-      <c r="B406" s="30"/>
-      <c r="I406" s="30"/>
-    </row>
-    <row r="407" spans="2:9" s="28" customFormat="1">
-      <c r="B407" s="30"/>
-      <c r="I407" s="30"/>
-    </row>
-    <row r="408" spans="2:9" s="28" customFormat="1">
-      <c r="B408" s="30"/>
-      <c r="I408" s="30"/>
-    </row>
-    <row r="409" spans="2:9" s="28" customFormat="1">
-      <c r="B409" s="30"/>
-      <c r="I409" s="30"/>
-    </row>
-    <row r="410" spans="2:9" s="28" customFormat="1">
-      <c r="B410" s="30"/>
-      <c r="I410" s="30"/>
-    </row>
-    <row r="411" spans="2:9" s="28" customFormat="1">
-      <c r="B411" s="30"/>
-      <c r="I411" s="30"/>
-    </row>
-    <row r="412" spans="2:9" s="28" customFormat="1">
-      <c r="B412" s="30"/>
-      <c r="I412" s="30"/>
-    </row>
-    <row r="413" spans="2:9" s="28" customFormat="1">
-      <c r="B413" s="30"/>
-      <c r="I413" s="30"/>
-    </row>
-    <row r="414" spans="2:9" s="28" customFormat="1">
-      <c r="B414" s="30"/>
-      <c r="I414" s="30"/>
-    </row>
-    <row r="415" spans="2:9" s="28" customFormat="1">
-      <c r="B415" s="30"/>
-      <c r="I415" s="30"/>
-    </row>
-    <row r="416" spans="2:9" s="28" customFormat="1">
-      <c r="B416" s="30"/>
-      <c r="I416" s="30"/>
-    </row>
-    <row r="417" spans="2:10" s="28" customFormat="1">
-      <c r="B417" s="30"/>
-      <c r="I417" s="30"/>
-    </row>
-    <row r="418" spans="2:10" s="28" customFormat="1">
-      <c r="B418" s="30"/>
-      <c r="I418" s="30"/>
-    </row>
-    <row r="419" spans="2:10" s="28" customFormat="1">
-      <c r="B419" s="30"/>
-      <c r="I419" s="30"/>
-    </row>
-    <row r="420" spans="2:10" s="28" customFormat="1">
-      <c r="B420" s="30"/>
-      <c r="I420" s="30"/>
-    </row>
-    <row r="421" spans="2:10">
-      <c r="B421" s="30"/>
-      <c r="C421" s="28"/>
-      <c r="D421" s="28"/>
-      <c r="E421" s="28"/>
-      <c r="F421" s="28"/>
-      <c r="G421" s="28"/>
-      <c r="H421" s="28"/>
-      <c r="I421" s="30"/>
-      <c r="J421" s="28"/>
-    </row>
-    <row r="422" spans="2:10">
-      <c r="B422" s="30"/>
-      <c r="C422" s="28"/>
-      <c r="D422" s="28"/>
-      <c r="E422" s="28"/>
-      <c r="F422" s="28"/>
-      <c r="G422" s="28"/>
-      <c r="H422" s="28"/>
-      <c r="I422" s="30"/>
-      <c r="J422" s="28"/>
+      <c r="J394" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:K79">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="Martin Loureiro"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A3:K51">
+    <filterColumn colId="10"/>
   </autoFilter>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I79">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I51">
       <formula1>'cuentas de e-mail'!$B$10:$B$11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K79">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K51">
       <formula1>'cuentas de e-mail'!$C$10:$C$11</formula1>
     </dataValidation>
   </dataValidations>
@@ -11699,6 +10865,5943 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:K374"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="1.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9" style="24" customWidth="1"/>
+    <col min="5" max="5" width="12" style="24" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="26" customWidth="1"/>
+    <col min="10" max="10" width="30" style="24" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="24" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="18" customHeight="1">
+      <c r="B2" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="2:11" s="26" customFormat="1" ht="37.5">
+      <c r="B3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" s="28" customFormat="1" ht="102">
+      <c r="B4" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" s="28" customFormat="1" ht="102">
+      <c r="B5" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="B6" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" s="28" customFormat="1" ht="89.25">
+      <c r="B7" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="B8" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="B9" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" s="28" customFormat="1" ht="102">
+      <c r="B10" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" s="28" customFormat="1" ht="63.75">
+      <c r="B11" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="B12" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" s="28" customFormat="1" ht="38.25">
+      <c r="B13" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" s="28" customFormat="1" ht="63.75">
+      <c r="B14" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" s="28" customFormat="1" ht="76.5">
+      <c r="B15" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" s="28" customFormat="1" ht="38.25">
+      <c r="B16" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" s="28" customFormat="1" ht="165.75">
+      <c r="B17" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" s="28" customFormat="1" ht="38.25">
+      <c r="B18" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" s="28" customFormat="1" ht="38.25">
+      <c r="B19" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" s="28" customFormat="1" ht="25.5">
+      <c r="B20" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" s="28" customFormat="1" ht="293.25">
+      <c r="B21" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" s="28" customFormat="1" ht="25.5">
+      <c r="B22" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" s="28" customFormat="1" ht="25.5">
+      <c r="B23" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" s="28" customFormat="1" ht="25.5">
+      <c r="B24" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" s="28" customFormat="1" ht="153">
+      <c r="B25" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" s="28" customFormat="1" ht="153">
+      <c r="B26" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" s="28" customFormat="1" ht="165.75">
+      <c r="B27" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" s="28" customFormat="1" ht="89.25">
+      <c r="B28" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J28" s="16"/>
+      <c r="K28" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" s="28" customFormat="1" ht="63.75">
+      <c r="B29" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J29" s="16"/>
+      <c r="K29" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="B30" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="B31" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" s="28" customFormat="1">
+      <c r="B32" s="30"/>
+      <c r="I32" s="30"/>
+    </row>
+    <row r="33" spans="2:9" s="28" customFormat="1">
+      <c r="B33" s="30"/>
+      <c r="I33" s="30"/>
+    </row>
+    <row r="34" spans="2:9" s="28" customFormat="1">
+      <c r="B34" s="30"/>
+      <c r="I34" s="30"/>
+    </row>
+    <row r="35" spans="2:9" s="28" customFormat="1">
+      <c r="B35" s="30"/>
+      <c r="I35" s="30"/>
+    </row>
+    <row r="36" spans="2:9" s="28" customFormat="1">
+      <c r="B36" s="30"/>
+      <c r="I36" s="30"/>
+    </row>
+    <row r="37" spans="2:9" s="28" customFormat="1">
+      <c r="B37" s="30"/>
+      <c r="I37" s="30"/>
+    </row>
+    <row r="38" spans="2:9" s="28" customFormat="1">
+      <c r="B38" s="30"/>
+      <c r="I38" s="30"/>
+    </row>
+    <row r="39" spans="2:9" s="28" customFormat="1">
+      <c r="B39" s="30"/>
+      <c r="I39" s="30"/>
+    </row>
+    <row r="40" spans="2:9" s="28" customFormat="1">
+      <c r="B40" s="30"/>
+      <c r="I40" s="30"/>
+    </row>
+    <row r="41" spans="2:9" s="28" customFormat="1">
+      <c r="B41" s="30"/>
+      <c r="I41" s="30"/>
+    </row>
+    <row r="42" spans="2:9" s="28" customFormat="1">
+      <c r="B42" s="30"/>
+      <c r="I42" s="30"/>
+    </row>
+    <row r="43" spans="2:9" s="28" customFormat="1">
+      <c r="B43" s="30"/>
+      <c r="I43" s="30"/>
+    </row>
+    <row r="44" spans="2:9" s="28" customFormat="1">
+      <c r="B44" s="30"/>
+      <c r="I44" s="30"/>
+    </row>
+    <row r="45" spans="2:9" s="28" customFormat="1">
+      <c r="B45" s="30"/>
+      <c r="I45" s="30"/>
+    </row>
+    <row r="46" spans="2:9" s="28" customFormat="1">
+      <c r="B46" s="30"/>
+      <c r="I46" s="30"/>
+    </row>
+    <row r="47" spans="2:9" s="28" customFormat="1">
+      <c r="B47" s="30"/>
+      <c r="I47" s="30"/>
+    </row>
+    <row r="48" spans="2:9" s="28" customFormat="1">
+      <c r="B48" s="30"/>
+      <c r="I48" s="30"/>
+    </row>
+    <row r="49" spans="2:9" s="28" customFormat="1">
+      <c r="B49" s="30"/>
+      <c r="I49" s="30"/>
+    </row>
+    <row r="50" spans="2:9" s="28" customFormat="1">
+      <c r="B50" s="30"/>
+      <c r="I50" s="30"/>
+    </row>
+    <row r="51" spans="2:9" s="28" customFormat="1">
+      <c r="B51" s="30"/>
+      <c r="I51" s="30"/>
+    </row>
+    <row r="52" spans="2:9" s="28" customFormat="1">
+      <c r="B52" s="30"/>
+      <c r="I52" s="30"/>
+    </row>
+    <row r="53" spans="2:9" s="28" customFormat="1">
+      <c r="B53" s="30"/>
+      <c r="I53" s="30"/>
+    </row>
+    <row r="54" spans="2:9" s="28" customFormat="1">
+      <c r="B54" s="30"/>
+      <c r="I54" s="30"/>
+    </row>
+    <row r="55" spans="2:9" s="28" customFormat="1">
+      <c r="B55" s="30"/>
+      <c r="I55" s="30"/>
+    </row>
+    <row r="56" spans="2:9" s="28" customFormat="1">
+      <c r="B56" s="30"/>
+      <c r="I56" s="30"/>
+    </row>
+    <row r="57" spans="2:9" s="28" customFormat="1">
+      <c r="B57" s="30"/>
+      <c r="I57" s="30"/>
+    </row>
+    <row r="58" spans="2:9" s="28" customFormat="1">
+      <c r="B58" s="30"/>
+      <c r="I58" s="30"/>
+    </row>
+    <row r="59" spans="2:9" s="28" customFormat="1">
+      <c r="B59" s="30"/>
+      <c r="I59" s="30"/>
+    </row>
+    <row r="60" spans="2:9" s="28" customFormat="1">
+      <c r="B60" s="30"/>
+      <c r="I60" s="30"/>
+    </row>
+    <row r="61" spans="2:9" s="28" customFormat="1">
+      <c r="B61" s="30"/>
+      <c r="I61" s="30"/>
+    </row>
+    <row r="62" spans="2:9" s="28" customFormat="1">
+      <c r="B62" s="30"/>
+      <c r="I62" s="30"/>
+    </row>
+    <row r="63" spans="2:9" s="28" customFormat="1">
+      <c r="B63" s="30"/>
+      <c r="I63" s="30"/>
+    </row>
+    <row r="64" spans="2:9" s="28" customFormat="1">
+      <c r="B64" s="30"/>
+      <c r="I64" s="30"/>
+    </row>
+    <row r="65" spans="2:9" s="28" customFormat="1">
+      <c r="B65" s="30"/>
+      <c r="I65" s="30"/>
+    </row>
+    <row r="66" spans="2:9" s="28" customFormat="1">
+      <c r="B66" s="30"/>
+      <c r="I66" s="30"/>
+    </row>
+    <row r="67" spans="2:9" s="28" customFormat="1">
+      <c r="B67" s="30"/>
+      <c r="I67" s="30"/>
+    </row>
+    <row r="68" spans="2:9" s="28" customFormat="1">
+      <c r="B68" s="30"/>
+      <c r="I68" s="30"/>
+    </row>
+    <row r="69" spans="2:9" s="28" customFormat="1">
+      <c r="B69" s="30"/>
+      <c r="I69" s="30"/>
+    </row>
+    <row r="70" spans="2:9" s="28" customFormat="1">
+      <c r="B70" s="30"/>
+      <c r="I70" s="30"/>
+    </row>
+    <row r="71" spans="2:9" s="28" customFormat="1">
+      <c r="B71" s="30"/>
+      <c r="I71" s="30"/>
+    </row>
+    <row r="72" spans="2:9" s="28" customFormat="1">
+      <c r="B72" s="30"/>
+      <c r="I72" s="30"/>
+    </row>
+    <row r="73" spans="2:9" s="28" customFormat="1">
+      <c r="B73" s="30"/>
+      <c r="I73" s="30"/>
+    </row>
+    <row r="74" spans="2:9" s="28" customFormat="1">
+      <c r="B74" s="30"/>
+      <c r="I74" s="30"/>
+    </row>
+    <row r="75" spans="2:9" s="28" customFormat="1">
+      <c r="B75" s="30"/>
+      <c r="I75" s="30"/>
+    </row>
+    <row r="76" spans="2:9" s="28" customFormat="1">
+      <c r="B76" s="30"/>
+      <c r="I76" s="30"/>
+    </row>
+    <row r="77" spans="2:9" s="28" customFormat="1">
+      <c r="B77" s="30"/>
+      <c r="I77" s="30"/>
+    </row>
+    <row r="78" spans="2:9" s="28" customFormat="1">
+      <c r="B78" s="30"/>
+      <c r="I78" s="30"/>
+    </row>
+    <row r="79" spans="2:9" s="28" customFormat="1">
+      <c r="B79" s="30"/>
+      <c r="I79" s="30"/>
+    </row>
+    <row r="80" spans="2:9" s="28" customFormat="1">
+      <c r="B80" s="30"/>
+      <c r="I80" s="30"/>
+    </row>
+    <row r="81" spans="2:9" s="28" customFormat="1">
+      <c r="B81" s="30"/>
+      <c r="I81" s="30"/>
+    </row>
+    <row r="82" spans="2:9" s="28" customFormat="1">
+      <c r="B82" s="30"/>
+      <c r="I82" s="30"/>
+    </row>
+    <row r="83" spans="2:9" s="28" customFormat="1">
+      <c r="B83" s="30"/>
+      <c r="I83" s="30"/>
+    </row>
+    <row r="84" spans="2:9" s="28" customFormat="1">
+      <c r="B84" s="30"/>
+      <c r="I84" s="30"/>
+    </row>
+    <row r="85" spans="2:9" s="28" customFormat="1">
+      <c r="B85" s="30"/>
+      <c r="I85" s="30"/>
+    </row>
+    <row r="86" spans="2:9" s="28" customFormat="1">
+      <c r="B86" s="30"/>
+      <c r="I86" s="30"/>
+    </row>
+    <row r="87" spans="2:9" s="28" customFormat="1">
+      <c r="B87" s="30"/>
+      <c r="I87" s="30"/>
+    </row>
+    <row r="88" spans="2:9" s="28" customFormat="1">
+      <c r="B88" s="30"/>
+      <c r="I88" s="30"/>
+    </row>
+    <row r="89" spans="2:9" s="28" customFormat="1">
+      <c r="B89" s="30"/>
+      <c r="I89" s="30"/>
+    </row>
+    <row r="90" spans="2:9" s="28" customFormat="1">
+      <c r="B90" s="30"/>
+      <c r="I90" s="30"/>
+    </row>
+    <row r="91" spans="2:9" s="28" customFormat="1">
+      <c r="B91" s="30"/>
+      <c r="I91" s="30"/>
+    </row>
+    <row r="92" spans="2:9" s="28" customFormat="1">
+      <c r="B92" s="30"/>
+      <c r="I92" s="30"/>
+    </row>
+    <row r="93" spans="2:9" s="28" customFormat="1">
+      <c r="B93" s="30"/>
+      <c r="I93" s="30"/>
+    </row>
+    <row r="94" spans="2:9" s="28" customFormat="1">
+      <c r="B94" s="30"/>
+      <c r="I94" s="30"/>
+    </row>
+    <row r="95" spans="2:9" s="28" customFormat="1">
+      <c r="B95" s="30"/>
+      <c r="I95" s="30"/>
+    </row>
+    <row r="96" spans="2:9" s="28" customFormat="1">
+      <c r="B96" s="30"/>
+      <c r="I96" s="30"/>
+    </row>
+    <row r="97" spans="2:9" s="28" customFormat="1">
+      <c r="B97" s="30"/>
+      <c r="I97" s="30"/>
+    </row>
+    <row r="98" spans="2:9" s="28" customFormat="1">
+      <c r="B98" s="30"/>
+      <c r="I98" s="30"/>
+    </row>
+    <row r="99" spans="2:9" s="28" customFormat="1">
+      <c r="B99" s="30"/>
+      <c r="I99" s="30"/>
+    </row>
+    <row r="100" spans="2:9" s="28" customFormat="1">
+      <c r="B100" s="30"/>
+      <c r="I100" s="30"/>
+    </row>
+    <row r="101" spans="2:9" s="28" customFormat="1">
+      <c r="B101" s="30"/>
+      <c r="I101" s="30"/>
+    </row>
+    <row r="102" spans="2:9" s="28" customFormat="1">
+      <c r="B102" s="30"/>
+      <c r="I102" s="30"/>
+    </row>
+    <row r="103" spans="2:9" s="28" customFormat="1">
+      <c r="B103" s="30"/>
+      <c r="I103" s="30"/>
+    </row>
+    <row r="104" spans="2:9" s="28" customFormat="1">
+      <c r="B104" s="30"/>
+      <c r="I104" s="30"/>
+    </row>
+    <row r="105" spans="2:9" s="28" customFormat="1">
+      <c r="B105" s="30"/>
+      <c r="I105" s="30"/>
+    </row>
+    <row r="106" spans="2:9" s="28" customFormat="1">
+      <c r="B106" s="30"/>
+      <c r="I106" s="30"/>
+    </row>
+    <row r="107" spans="2:9" s="28" customFormat="1">
+      <c r="B107" s="30"/>
+      <c r="I107" s="30"/>
+    </row>
+    <row r="108" spans="2:9" s="28" customFormat="1">
+      <c r="B108" s="30"/>
+      <c r="I108" s="30"/>
+    </row>
+    <row r="109" spans="2:9" s="28" customFormat="1">
+      <c r="B109" s="30"/>
+      <c r="I109" s="30"/>
+    </row>
+    <row r="110" spans="2:9" s="28" customFormat="1">
+      <c r="B110" s="30"/>
+      <c r="I110" s="30"/>
+    </row>
+    <row r="111" spans="2:9" s="28" customFormat="1">
+      <c r="B111" s="30"/>
+      <c r="I111" s="30"/>
+    </row>
+    <row r="112" spans="2:9" s="28" customFormat="1">
+      <c r="B112" s="30"/>
+      <c r="I112" s="30"/>
+    </row>
+    <row r="113" spans="2:9" s="28" customFormat="1">
+      <c r="B113" s="30"/>
+      <c r="I113" s="30"/>
+    </row>
+    <row r="114" spans="2:9" s="28" customFormat="1">
+      <c r="B114" s="30"/>
+      <c r="I114" s="30"/>
+    </row>
+    <row r="115" spans="2:9" s="28" customFormat="1">
+      <c r="B115" s="30"/>
+      <c r="I115" s="30"/>
+    </row>
+    <row r="116" spans="2:9" s="28" customFormat="1">
+      <c r="B116" s="30"/>
+      <c r="I116" s="30"/>
+    </row>
+    <row r="117" spans="2:9" s="28" customFormat="1">
+      <c r="B117" s="30"/>
+      <c r="I117" s="30"/>
+    </row>
+    <row r="118" spans="2:9" s="28" customFormat="1">
+      <c r="B118" s="30"/>
+      <c r="I118" s="30"/>
+    </row>
+    <row r="119" spans="2:9" s="28" customFormat="1">
+      <c r="B119" s="30"/>
+      <c r="I119" s="30"/>
+    </row>
+    <row r="120" spans="2:9" s="28" customFormat="1">
+      <c r="B120" s="30"/>
+      <c r="I120" s="30"/>
+    </row>
+    <row r="121" spans="2:9" s="28" customFormat="1">
+      <c r="B121" s="30"/>
+      <c r="I121" s="30"/>
+    </row>
+    <row r="122" spans="2:9" s="28" customFormat="1">
+      <c r="B122" s="30"/>
+      <c r="I122" s="30"/>
+    </row>
+    <row r="123" spans="2:9" s="28" customFormat="1">
+      <c r="B123" s="30"/>
+      <c r="I123" s="30"/>
+    </row>
+    <row r="124" spans="2:9" s="28" customFormat="1">
+      <c r="B124" s="30"/>
+      <c r="I124" s="30"/>
+    </row>
+    <row r="125" spans="2:9" s="28" customFormat="1">
+      <c r="B125" s="30"/>
+      <c r="I125" s="30"/>
+    </row>
+    <row r="126" spans="2:9" s="28" customFormat="1">
+      <c r="B126" s="30"/>
+      <c r="I126" s="30"/>
+    </row>
+    <row r="127" spans="2:9" s="28" customFormat="1">
+      <c r="B127" s="30"/>
+      <c r="I127" s="30"/>
+    </row>
+    <row r="128" spans="2:9" s="28" customFormat="1">
+      <c r="B128" s="30"/>
+      <c r="I128" s="30"/>
+    </row>
+    <row r="129" spans="2:9" s="28" customFormat="1">
+      <c r="B129" s="30"/>
+      <c r="I129" s="30"/>
+    </row>
+    <row r="130" spans="2:9" s="28" customFormat="1">
+      <c r="B130" s="30"/>
+      <c r="I130" s="30"/>
+    </row>
+    <row r="131" spans="2:9" s="28" customFormat="1">
+      <c r="B131" s="30"/>
+      <c r="I131" s="30"/>
+    </row>
+    <row r="132" spans="2:9" s="28" customFormat="1">
+      <c r="B132" s="30"/>
+      <c r="I132" s="30"/>
+    </row>
+    <row r="133" spans="2:9" s="28" customFormat="1">
+      <c r="B133" s="30"/>
+      <c r="I133" s="30"/>
+    </row>
+    <row r="134" spans="2:9" s="28" customFormat="1">
+      <c r="B134" s="30"/>
+      <c r="I134" s="30"/>
+    </row>
+    <row r="135" spans="2:9" s="28" customFormat="1">
+      <c r="B135" s="30"/>
+      <c r="I135" s="30"/>
+    </row>
+    <row r="136" spans="2:9" s="28" customFormat="1">
+      <c r="B136" s="30"/>
+      <c r="I136" s="30"/>
+    </row>
+    <row r="137" spans="2:9" s="28" customFormat="1">
+      <c r="B137" s="30"/>
+      <c r="I137" s="30"/>
+    </row>
+    <row r="138" spans="2:9" s="28" customFormat="1">
+      <c r="B138" s="30"/>
+      <c r="I138" s="30"/>
+    </row>
+    <row r="139" spans="2:9" s="28" customFormat="1">
+      <c r="B139" s="30"/>
+      <c r="I139" s="30"/>
+    </row>
+    <row r="140" spans="2:9" s="28" customFormat="1">
+      <c r="B140" s="30"/>
+      <c r="I140" s="30"/>
+    </row>
+    <row r="141" spans="2:9" s="28" customFormat="1">
+      <c r="B141" s="30"/>
+      <c r="I141" s="30"/>
+    </row>
+    <row r="142" spans="2:9" s="28" customFormat="1">
+      <c r="B142" s="30"/>
+      <c r="I142" s="30"/>
+    </row>
+    <row r="143" spans="2:9" s="28" customFormat="1">
+      <c r="B143" s="30"/>
+      <c r="I143" s="30"/>
+    </row>
+    <row r="144" spans="2:9" s="28" customFormat="1">
+      <c r="B144" s="30"/>
+      <c r="I144" s="30"/>
+    </row>
+    <row r="145" spans="2:9" s="28" customFormat="1">
+      <c r="B145" s="30"/>
+      <c r="I145" s="30"/>
+    </row>
+    <row r="146" spans="2:9" s="28" customFormat="1">
+      <c r="B146" s="30"/>
+      <c r="I146" s="30"/>
+    </row>
+    <row r="147" spans="2:9" s="28" customFormat="1">
+      <c r="B147" s="30"/>
+      <c r="I147" s="30"/>
+    </row>
+    <row r="148" spans="2:9" s="28" customFormat="1">
+      <c r="B148" s="30"/>
+      <c r="I148" s="30"/>
+    </row>
+    <row r="149" spans="2:9" s="28" customFormat="1">
+      <c r="B149" s="30"/>
+      <c r="I149" s="30"/>
+    </row>
+    <row r="150" spans="2:9" s="28" customFormat="1">
+      <c r="B150" s="30"/>
+      <c r="I150" s="30"/>
+    </row>
+    <row r="151" spans="2:9" s="28" customFormat="1">
+      <c r="B151" s="30"/>
+      <c r="I151" s="30"/>
+    </row>
+    <row r="152" spans="2:9" s="28" customFormat="1">
+      <c r="B152" s="30"/>
+      <c r="I152" s="30"/>
+    </row>
+    <row r="153" spans="2:9" s="28" customFormat="1">
+      <c r="B153" s="30"/>
+      <c r="I153" s="30"/>
+    </row>
+    <row r="154" spans="2:9" s="28" customFormat="1">
+      <c r="B154" s="30"/>
+      <c r="I154" s="30"/>
+    </row>
+    <row r="155" spans="2:9" s="28" customFormat="1">
+      <c r="B155" s="30"/>
+      <c r="I155" s="30"/>
+    </row>
+    <row r="156" spans="2:9" s="28" customFormat="1">
+      <c r="B156" s="30"/>
+      <c r="I156" s="30"/>
+    </row>
+    <row r="157" spans="2:9" s="28" customFormat="1">
+      <c r="B157" s="30"/>
+      <c r="I157" s="30"/>
+    </row>
+    <row r="158" spans="2:9" s="28" customFormat="1">
+      <c r="B158" s="30"/>
+      <c r="I158" s="30"/>
+    </row>
+    <row r="159" spans="2:9" s="28" customFormat="1">
+      <c r="B159" s="30"/>
+      <c r="I159" s="30"/>
+    </row>
+    <row r="160" spans="2:9" s="28" customFormat="1">
+      <c r="B160" s="30"/>
+      <c r="I160" s="30"/>
+    </row>
+    <row r="161" spans="2:9" s="28" customFormat="1">
+      <c r="B161" s="30"/>
+      <c r="I161" s="30"/>
+    </row>
+    <row r="162" spans="2:9" s="28" customFormat="1">
+      <c r="B162" s="30"/>
+      <c r="I162" s="30"/>
+    </row>
+    <row r="163" spans="2:9" s="28" customFormat="1">
+      <c r="B163" s="30"/>
+      <c r="I163" s="30"/>
+    </row>
+    <row r="164" spans="2:9" s="28" customFormat="1">
+      <c r="B164" s="30"/>
+      <c r="I164" s="30"/>
+    </row>
+    <row r="165" spans="2:9" s="28" customFormat="1">
+      <c r="B165" s="30"/>
+      <c r="I165" s="30"/>
+    </row>
+    <row r="166" spans="2:9" s="28" customFormat="1">
+      <c r="B166" s="30"/>
+      <c r="I166" s="30"/>
+    </row>
+    <row r="167" spans="2:9" s="28" customFormat="1">
+      <c r="B167" s="30"/>
+      <c r="I167" s="30"/>
+    </row>
+    <row r="168" spans="2:9" s="28" customFormat="1">
+      <c r="B168" s="30"/>
+      <c r="I168" s="30"/>
+    </row>
+    <row r="169" spans="2:9" s="28" customFormat="1">
+      <c r="B169" s="30"/>
+      <c r="I169" s="30"/>
+    </row>
+    <row r="170" spans="2:9" s="28" customFormat="1">
+      <c r="B170" s="30"/>
+      <c r="I170" s="30"/>
+    </row>
+    <row r="171" spans="2:9" s="28" customFormat="1">
+      <c r="B171" s="30"/>
+      <c r="I171" s="30"/>
+    </row>
+    <row r="172" spans="2:9" s="28" customFormat="1">
+      <c r="B172" s="30"/>
+      <c r="I172" s="30"/>
+    </row>
+    <row r="173" spans="2:9" s="28" customFormat="1">
+      <c r="B173" s="30"/>
+      <c r="I173" s="30"/>
+    </row>
+    <row r="174" spans="2:9" s="28" customFormat="1">
+      <c r="B174" s="30"/>
+      <c r="I174" s="30"/>
+    </row>
+    <row r="175" spans="2:9" s="28" customFormat="1">
+      <c r="B175" s="30"/>
+      <c r="I175" s="30"/>
+    </row>
+    <row r="176" spans="2:9" s="28" customFormat="1">
+      <c r="B176" s="30"/>
+      <c r="I176" s="30"/>
+    </row>
+    <row r="177" spans="2:9" s="28" customFormat="1">
+      <c r="B177" s="30"/>
+      <c r="I177" s="30"/>
+    </row>
+    <row r="178" spans="2:9" s="28" customFormat="1">
+      <c r="B178" s="30"/>
+      <c r="I178" s="30"/>
+    </row>
+    <row r="179" spans="2:9" s="28" customFormat="1">
+      <c r="B179" s="30"/>
+      <c r="I179" s="30"/>
+    </row>
+    <row r="180" spans="2:9" s="28" customFormat="1">
+      <c r="B180" s="30"/>
+      <c r="I180" s="30"/>
+    </row>
+    <row r="181" spans="2:9" s="28" customFormat="1">
+      <c r="B181" s="30"/>
+      <c r="I181" s="30"/>
+    </row>
+    <row r="182" spans="2:9" s="28" customFormat="1">
+      <c r="B182" s="30"/>
+      <c r="I182" s="30"/>
+    </row>
+    <row r="183" spans="2:9" s="28" customFormat="1">
+      <c r="B183" s="30"/>
+      <c r="I183" s="30"/>
+    </row>
+    <row r="184" spans="2:9" s="28" customFormat="1">
+      <c r="B184" s="30"/>
+      <c r="I184" s="30"/>
+    </row>
+    <row r="185" spans="2:9" s="28" customFormat="1">
+      <c r="B185" s="30"/>
+      <c r="I185" s="30"/>
+    </row>
+    <row r="186" spans="2:9" s="28" customFormat="1">
+      <c r="B186" s="30"/>
+      <c r="I186" s="30"/>
+    </row>
+    <row r="187" spans="2:9" s="28" customFormat="1">
+      <c r="B187" s="30"/>
+      <c r="I187" s="30"/>
+    </row>
+    <row r="188" spans="2:9" s="28" customFormat="1">
+      <c r="B188" s="30"/>
+      <c r="I188" s="30"/>
+    </row>
+    <row r="189" spans="2:9" s="28" customFormat="1">
+      <c r="B189" s="30"/>
+      <c r="I189" s="30"/>
+    </row>
+    <row r="190" spans="2:9" s="28" customFormat="1">
+      <c r="B190" s="30"/>
+      <c r="I190" s="30"/>
+    </row>
+    <row r="191" spans="2:9" s="28" customFormat="1">
+      <c r="B191" s="30"/>
+      <c r="I191" s="30"/>
+    </row>
+    <row r="192" spans="2:9" s="28" customFormat="1">
+      <c r="B192" s="30"/>
+      <c r="I192" s="30"/>
+    </row>
+    <row r="193" spans="2:9" s="28" customFormat="1">
+      <c r="B193" s="30"/>
+      <c r="I193" s="30"/>
+    </row>
+    <row r="194" spans="2:9" s="28" customFormat="1">
+      <c r="B194" s="30"/>
+      <c r="I194" s="30"/>
+    </row>
+    <row r="195" spans="2:9" s="28" customFormat="1">
+      <c r="B195" s="30"/>
+      <c r="I195" s="30"/>
+    </row>
+    <row r="196" spans="2:9" s="28" customFormat="1">
+      <c r="B196" s="30"/>
+      <c r="I196" s="30"/>
+    </row>
+    <row r="197" spans="2:9" s="28" customFormat="1">
+      <c r="B197" s="30"/>
+      <c r="I197" s="30"/>
+    </row>
+    <row r="198" spans="2:9" s="28" customFormat="1">
+      <c r="B198" s="30"/>
+      <c r="I198" s="30"/>
+    </row>
+    <row r="199" spans="2:9" s="28" customFormat="1">
+      <c r="B199" s="30"/>
+      <c r="I199" s="30"/>
+    </row>
+    <row r="200" spans="2:9" s="28" customFormat="1">
+      <c r="B200" s="30"/>
+      <c r="I200" s="30"/>
+    </row>
+    <row r="201" spans="2:9" s="28" customFormat="1">
+      <c r="B201" s="30"/>
+      <c r="I201" s="30"/>
+    </row>
+    <row r="202" spans="2:9" s="28" customFormat="1">
+      <c r="B202" s="30"/>
+      <c r="I202" s="30"/>
+    </row>
+    <row r="203" spans="2:9" s="28" customFormat="1">
+      <c r="B203" s="30"/>
+      <c r="I203" s="30"/>
+    </row>
+    <row r="204" spans="2:9" s="28" customFormat="1">
+      <c r="B204" s="30"/>
+      <c r="I204" s="30"/>
+    </row>
+    <row r="205" spans="2:9" s="28" customFormat="1">
+      <c r="B205" s="30"/>
+      <c r="I205" s="30"/>
+    </row>
+    <row r="206" spans="2:9" s="28" customFormat="1">
+      <c r="B206" s="30"/>
+      <c r="I206" s="30"/>
+    </row>
+    <row r="207" spans="2:9" s="28" customFormat="1">
+      <c r="B207" s="30"/>
+      <c r="I207" s="30"/>
+    </row>
+    <row r="208" spans="2:9" s="28" customFormat="1">
+      <c r="B208" s="30"/>
+      <c r="I208" s="30"/>
+    </row>
+    <row r="209" spans="2:9" s="28" customFormat="1">
+      <c r="B209" s="30"/>
+      <c r="I209" s="30"/>
+    </row>
+    <row r="210" spans="2:9" s="28" customFormat="1">
+      <c r="B210" s="30"/>
+      <c r="I210" s="30"/>
+    </row>
+    <row r="211" spans="2:9" s="28" customFormat="1">
+      <c r="B211" s="30"/>
+      <c r="I211" s="30"/>
+    </row>
+    <row r="212" spans="2:9" s="28" customFormat="1">
+      <c r="B212" s="30"/>
+      <c r="I212" s="30"/>
+    </row>
+    <row r="213" spans="2:9" s="28" customFormat="1">
+      <c r="B213" s="30"/>
+      <c r="I213" s="30"/>
+    </row>
+    <row r="214" spans="2:9" s="28" customFormat="1">
+      <c r="B214" s="30"/>
+      <c r="I214" s="30"/>
+    </row>
+    <row r="215" spans="2:9" s="28" customFormat="1">
+      <c r="B215" s="30"/>
+      <c r="I215" s="30"/>
+    </row>
+    <row r="216" spans="2:9" s="28" customFormat="1">
+      <c r="B216" s="30"/>
+      <c r="I216" s="30"/>
+    </row>
+    <row r="217" spans="2:9" s="28" customFormat="1">
+      <c r="B217" s="30"/>
+      <c r="I217" s="30"/>
+    </row>
+    <row r="218" spans="2:9" s="28" customFormat="1">
+      <c r="B218" s="30"/>
+      <c r="I218" s="30"/>
+    </row>
+    <row r="219" spans="2:9" s="28" customFormat="1">
+      <c r="B219" s="30"/>
+      <c r="I219" s="30"/>
+    </row>
+    <row r="220" spans="2:9" s="28" customFormat="1">
+      <c r="B220" s="30"/>
+      <c r="I220" s="30"/>
+    </row>
+    <row r="221" spans="2:9" s="28" customFormat="1">
+      <c r="B221" s="30"/>
+      <c r="I221" s="30"/>
+    </row>
+    <row r="222" spans="2:9" s="28" customFormat="1">
+      <c r="B222" s="30"/>
+      <c r="I222" s="30"/>
+    </row>
+    <row r="223" spans="2:9" s="28" customFormat="1">
+      <c r="B223" s="30"/>
+      <c r="I223" s="30"/>
+    </row>
+    <row r="224" spans="2:9" s="28" customFormat="1">
+      <c r="B224" s="30"/>
+      <c r="I224" s="30"/>
+    </row>
+    <row r="225" spans="2:9" s="28" customFormat="1">
+      <c r="B225" s="30"/>
+      <c r="I225" s="30"/>
+    </row>
+    <row r="226" spans="2:9" s="28" customFormat="1">
+      <c r="B226" s="30"/>
+      <c r="I226" s="30"/>
+    </row>
+    <row r="227" spans="2:9" s="28" customFormat="1">
+      <c r="B227" s="30"/>
+      <c r="I227" s="30"/>
+    </row>
+    <row r="228" spans="2:9" s="28" customFormat="1">
+      <c r="B228" s="30"/>
+      <c r="I228" s="30"/>
+    </row>
+    <row r="229" spans="2:9" s="28" customFormat="1">
+      <c r="B229" s="30"/>
+      <c r="I229" s="30"/>
+    </row>
+    <row r="230" spans="2:9" s="28" customFormat="1">
+      <c r="B230" s="30"/>
+      <c r="I230" s="30"/>
+    </row>
+    <row r="231" spans="2:9" s="28" customFormat="1">
+      <c r="B231" s="30"/>
+      <c r="I231" s="30"/>
+    </row>
+    <row r="232" spans="2:9" s="28" customFormat="1">
+      <c r="B232" s="30"/>
+      <c r="I232" s="30"/>
+    </row>
+    <row r="233" spans="2:9" s="28" customFormat="1">
+      <c r="B233" s="30"/>
+      <c r="I233" s="30"/>
+    </row>
+    <row r="234" spans="2:9" s="28" customFormat="1">
+      <c r="B234" s="30"/>
+      <c r="I234" s="30"/>
+    </row>
+    <row r="235" spans="2:9" s="28" customFormat="1">
+      <c r="B235" s="30"/>
+      <c r="I235" s="30"/>
+    </row>
+    <row r="236" spans="2:9" s="28" customFormat="1">
+      <c r="B236" s="30"/>
+      <c r="I236" s="30"/>
+    </row>
+    <row r="237" spans="2:9" s="28" customFormat="1">
+      <c r="B237" s="30"/>
+      <c r="I237" s="30"/>
+    </row>
+    <row r="238" spans="2:9" s="28" customFormat="1">
+      <c r="B238" s="30"/>
+      <c r="I238" s="30"/>
+    </row>
+    <row r="239" spans="2:9" s="28" customFormat="1">
+      <c r="B239" s="30"/>
+      <c r="I239" s="30"/>
+    </row>
+    <row r="240" spans="2:9" s="28" customFormat="1">
+      <c r="B240" s="30"/>
+      <c r="I240" s="30"/>
+    </row>
+    <row r="241" spans="2:9" s="28" customFormat="1">
+      <c r="B241" s="30"/>
+      <c r="I241" s="30"/>
+    </row>
+    <row r="242" spans="2:9" s="28" customFormat="1">
+      <c r="B242" s="30"/>
+      <c r="I242" s="30"/>
+    </row>
+    <row r="243" spans="2:9" s="28" customFormat="1">
+      <c r="B243" s="30"/>
+      <c r="I243" s="30"/>
+    </row>
+    <row r="244" spans="2:9" s="28" customFormat="1">
+      <c r="B244" s="30"/>
+      <c r="I244" s="30"/>
+    </row>
+    <row r="245" spans="2:9" s="28" customFormat="1">
+      <c r="B245" s="30"/>
+      <c r="I245" s="30"/>
+    </row>
+    <row r="246" spans="2:9" s="28" customFormat="1">
+      <c r="B246" s="30"/>
+      <c r="I246" s="30"/>
+    </row>
+    <row r="247" spans="2:9" s="28" customFormat="1">
+      <c r="B247" s="30"/>
+      <c r="I247" s="30"/>
+    </row>
+    <row r="248" spans="2:9" s="28" customFormat="1">
+      <c r="B248" s="30"/>
+      <c r="I248" s="30"/>
+    </row>
+    <row r="249" spans="2:9" s="28" customFormat="1">
+      <c r="B249" s="30"/>
+      <c r="I249" s="30"/>
+    </row>
+    <row r="250" spans="2:9" s="28" customFormat="1">
+      <c r="B250" s="30"/>
+      <c r="I250" s="30"/>
+    </row>
+    <row r="251" spans="2:9" s="28" customFormat="1">
+      <c r="B251" s="30"/>
+      <c r="I251" s="30"/>
+    </row>
+    <row r="252" spans="2:9" s="28" customFormat="1">
+      <c r="B252" s="30"/>
+      <c r="I252" s="30"/>
+    </row>
+    <row r="253" spans="2:9" s="28" customFormat="1">
+      <c r="B253" s="30"/>
+      <c r="I253" s="30"/>
+    </row>
+    <row r="254" spans="2:9" s="28" customFormat="1">
+      <c r="B254" s="30"/>
+      <c r="I254" s="30"/>
+    </row>
+    <row r="255" spans="2:9" s="28" customFormat="1">
+      <c r="B255" s="30"/>
+      <c r="I255" s="30"/>
+    </row>
+    <row r="256" spans="2:9" s="28" customFormat="1">
+      <c r="B256" s="30"/>
+      <c r="I256" s="30"/>
+    </row>
+    <row r="257" spans="2:9" s="28" customFormat="1">
+      <c r="B257" s="30"/>
+      <c r="I257" s="30"/>
+    </row>
+    <row r="258" spans="2:9" s="28" customFormat="1">
+      <c r="B258" s="30"/>
+      <c r="I258" s="30"/>
+    </row>
+    <row r="259" spans="2:9" s="28" customFormat="1">
+      <c r="B259" s="30"/>
+      <c r="I259" s="30"/>
+    </row>
+    <row r="260" spans="2:9" s="28" customFormat="1">
+      <c r="B260" s="30"/>
+      <c r="I260" s="30"/>
+    </row>
+    <row r="261" spans="2:9" s="28" customFormat="1">
+      <c r="B261" s="30"/>
+      <c r="I261" s="30"/>
+    </row>
+    <row r="262" spans="2:9" s="28" customFormat="1">
+      <c r="B262" s="30"/>
+      <c r="I262" s="30"/>
+    </row>
+    <row r="263" spans="2:9" s="28" customFormat="1">
+      <c r="B263" s="30"/>
+      <c r="I263" s="30"/>
+    </row>
+    <row r="264" spans="2:9" s="28" customFormat="1">
+      <c r="B264" s="30"/>
+      <c r="I264" s="30"/>
+    </row>
+    <row r="265" spans="2:9" s="28" customFormat="1">
+      <c r="B265" s="30"/>
+      <c r="I265" s="30"/>
+    </row>
+    <row r="266" spans="2:9" s="28" customFormat="1">
+      <c r="B266" s="30"/>
+      <c r="I266" s="30"/>
+    </row>
+    <row r="267" spans="2:9" s="28" customFormat="1">
+      <c r="B267" s="30"/>
+      <c r="I267" s="30"/>
+    </row>
+    <row r="268" spans="2:9" s="28" customFormat="1">
+      <c r="B268" s="30"/>
+      <c r="I268" s="30"/>
+    </row>
+    <row r="269" spans="2:9" s="28" customFormat="1">
+      <c r="B269" s="30"/>
+      <c r="I269" s="30"/>
+    </row>
+    <row r="270" spans="2:9" s="28" customFormat="1">
+      <c r="B270" s="30"/>
+      <c r="I270" s="30"/>
+    </row>
+    <row r="271" spans="2:9" s="28" customFormat="1">
+      <c r="B271" s="30"/>
+      <c r="I271" s="30"/>
+    </row>
+    <row r="272" spans="2:9" s="28" customFormat="1">
+      <c r="B272" s="30"/>
+      <c r="I272" s="30"/>
+    </row>
+    <row r="273" spans="2:9" s="28" customFormat="1">
+      <c r="B273" s="30"/>
+      <c r="I273" s="30"/>
+    </row>
+    <row r="274" spans="2:9" s="28" customFormat="1">
+      <c r="B274" s="30"/>
+      <c r="I274" s="30"/>
+    </row>
+    <row r="275" spans="2:9" s="28" customFormat="1">
+      <c r="B275" s="30"/>
+      <c r="I275" s="30"/>
+    </row>
+    <row r="276" spans="2:9" s="28" customFormat="1">
+      <c r="B276" s="30"/>
+      <c r="I276" s="30"/>
+    </row>
+    <row r="277" spans="2:9" s="28" customFormat="1">
+      <c r="B277" s="30"/>
+      <c r="I277" s="30"/>
+    </row>
+    <row r="278" spans="2:9" s="28" customFormat="1">
+      <c r="B278" s="30"/>
+      <c r="I278" s="30"/>
+    </row>
+    <row r="279" spans="2:9" s="28" customFormat="1">
+      <c r="B279" s="30"/>
+      <c r="I279" s="30"/>
+    </row>
+    <row r="280" spans="2:9" s="28" customFormat="1">
+      <c r="B280" s="30"/>
+      <c r="I280" s="30"/>
+    </row>
+    <row r="281" spans="2:9" s="28" customFormat="1">
+      <c r="B281" s="30"/>
+      <c r="I281" s="30"/>
+    </row>
+    <row r="282" spans="2:9" s="28" customFormat="1">
+      <c r="B282" s="30"/>
+      <c r="I282" s="30"/>
+    </row>
+    <row r="283" spans="2:9" s="28" customFormat="1">
+      <c r="B283" s="30"/>
+      <c r="I283" s="30"/>
+    </row>
+    <row r="284" spans="2:9" s="28" customFormat="1">
+      <c r="B284" s="30"/>
+      <c r="I284" s="30"/>
+    </row>
+    <row r="285" spans="2:9" s="28" customFormat="1">
+      <c r="B285" s="30"/>
+      <c r="I285" s="30"/>
+    </row>
+    <row r="286" spans="2:9" s="28" customFormat="1">
+      <c r="B286" s="30"/>
+      <c r="I286" s="30"/>
+    </row>
+    <row r="287" spans="2:9" s="28" customFormat="1">
+      <c r="B287" s="30"/>
+      <c r="I287" s="30"/>
+    </row>
+    <row r="288" spans="2:9" s="28" customFormat="1">
+      <c r="B288" s="30"/>
+      <c r="I288" s="30"/>
+    </row>
+    <row r="289" spans="2:9" s="28" customFormat="1">
+      <c r="B289" s="30"/>
+      <c r="I289" s="30"/>
+    </row>
+    <row r="290" spans="2:9" s="28" customFormat="1">
+      <c r="B290" s="30"/>
+      <c r="I290" s="30"/>
+    </row>
+    <row r="291" spans="2:9" s="28" customFormat="1">
+      <c r="B291" s="30"/>
+      <c r="I291" s="30"/>
+    </row>
+    <row r="292" spans="2:9" s="28" customFormat="1">
+      <c r="B292" s="30"/>
+      <c r="I292" s="30"/>
+    </row>
+    <row r="293" spans="2:9" s="28" customFormat="1">
+      <c r="B293" s="30"/>
+      <c r="I293" s="30"/>
+    </row>
+    <row r="294" spans="2:9" s="28" customFormat="1">
+      <c r="B294" s="30"/>
+      <c r="I294" s="30"/>
+    </row>
+    <row r="295" spans="2:9" s="28" customFormat="1">
+      <c r="B295" s="30"/>
+      <c r="I295" s="30"/>
+    </row>
+    <row r="296" spans="2:9" s="28" customFormat="1">
+      <c r="B296" s="30"/>
+      <c r="I296" s="30"/>
+    </row>
+    <row r="297" spans="2:9" s="28" customFormat="1">
+      <c r="B297" s="30"/>
+      <c r="I297" s="30"/>
+    </row>
+    <row r="298" spans="2:9" s="28" customFormat="1">
+      <c r="B298" s="30"/>
+      <c r="I298" s="30"/>
+    </row>
+    <row r="299" spans="2:9" s="28" customFormat="1">
+      <c r="B299" s="30"/>
+      <c r="I299" s="30"/>
+    </row>
+    <row r="300" spans="2:9" s="28" customFormat="1">
+      <c r="B300" s="30"/>
+      <c r="I300" s="30"/>
+    </row>
+    <row r="301" spans="2:9" s="28" customFormat="1">
+      <c r="B301" s="30"/>
+      <c r="I301" s="30"/>
+    </row>
+    <row r="302" spans="2:9" s="28" customFormat="1">
+      <c r="B302" s="30"/>
+      <c r="I302" s="30"/>
+    </row>
+    <row r="303" spans="2:9" s="28" customFormat="1">
+      <c r="B303" s="30"/>
+      <c r="I303" s="30"/>
+    </row>
+    <row r="304" spans="2:9" s="28" customFormat="1">
+      <c r="B304" s="30"/>
+      <c r="I304" s="30"/>
+    </row>
+    <row r="305" spans="2:9" s="28" customFormat="1">
+      <c r="B305" s="30"/>
+      <c r="I305" s="30"/>
+    </row>
+    <row r="306" spans="2:9" s="28" customFormat="1">
+      <c r="B306" s="30"/>
+      <c r="I306" s="30"/>
+    </row>
+    <row r="307" spans="2:9" s="28" customFormat="1">
+      <c r="B307" s="30"/>
+      <c r="I307" s="30"/>
+    </row>
+    <row r="308" spans="2:9" s="28" customFormat="1">
+      <c r="B308" s="30"/>
+      <c r="I308" s="30"/>
+    </row>
+    <row r="309" spans="2:9" s="28" customFormat="1">
+      <c r="B309" s="30"/>
+      <c r="I309" s="30"/>
+    </row>
+    <row r="310" spans="2:9" s="28" customFormat="1">
+      <c r="B310" s="30"/>
+      <c r="I310" s="30"/>
+    </row>
+    <row r="311" spans="2:9" s="28" customFormat="1">
+      <c r="B311" s="30"/>
+      <c r="I311" s="30"/>
+    </row>
+    <row r="312" spans="2:9" s="28" customFormat="1">
+      <c r="B312" s="30"/>
+      <c r="I312" s="30"/>
+    </row>
+    <row r="313" spans="2:9" s="28" customFormat="1">
+      <c r="B313" s="30"/>
+      <c r="I313" s="30"/>
+    </row>
+    <row r="314" spans="2:9" s="28" customFormat="1">
+      <c r="B314" s="30"/>
+      <c r="I314" s="30"/>
+    </row>
+    <row r="315" spans="2:9" s="28" customFormat="1">
+      <c r="B315" s="30"/>
+      <c r="I315" s="30"/>
+    </row>
+    <row r="316" spans="2:9" s="28" customFormat="1">
+      <c r="B316" s="30"/>
+      <c r="I316" s="30"/>
+    </row>
+    <row r="317" spans="2:9" s="28" customFormat="1">
+      <c r="B317" s="30"/>
+      <c r="I317" s="30"/>
+    </row>
+    <row r="318" spans="2:9" s="28" customFormat="1">
+      <c r="B318" s="30"/>
+      <c r="I318" s="30"/>
+    </row>
+    <row r="319" spans="2:9" s="28" customFormat="1">
+      <c r="B319" s="30"/>
+      <c r="I319" s="30"/>
+    </row>
+    <row r="320" spans="2:9" s="28" customFormat="1">
+      <c r="B320" s="30"/>
+      <c r="I320" s="30"/>
+    </row>
+    <row r="321" spans="2:9" s="28" customFormat="1">
+      <c r="B321" s="30"/>
+      <c r="I321" s="30"/>
+    </row>
+    <row r="322" spans="2:9" s="28" customFormat="1">
+      <c r="B322" s="30"/>
+      <c r="I322" s="30"/>
+    </row>
+    <row r="323" spans="2:9" s="28" customFormat="1">
+      <c r="B323" s="30"/>
+      <c r="I323" s="30"/>
+    </row>
+    <row r="324" spans="2:9" s="28" customFormat="1">
+      <c r="B324" s="30"/>
+      <c r="I324" s="30"/>
+    </row>
+    <row r="325" spans="2:9" s="28" customFormat="1">
+      <c r="B325" s="30"/>
+      <c r="I325" s="30"/>
+    </row>
+    <row r="326" spans="2:9" s="28" customFormat="1">
+      <c r="B326" s="30"/>
+      <c r="I326" s="30"/>
+    </row>
+    <row r="327" spans="2:9" s="28" customFormat="1">
+      <c r="B327" s="30"/>
+      <c r="I327" s="30"/>
+    </row>
+    <row r="328" spans="2:9" s="28" customFormat="1">
+      <c r="B328" s="30"/>
+      <c r="I328" s="30"/>
+    </row>
+    <row r="329" spans="2:9" s="28" customFormat="1">
+      <c r="B329" s="30"/>
+      <c r="I329" s="30"/>
+    </row>
+    <row r="330" spans="2:9" s="28" customFormat="1">
+      <c r="B330" s="30"/>
+      <c r="I330" s="30"/>
+    </row>
+    <row r="331" spans="2:9" s="28" customFormat="1">
+      <c r="B331" s="30"/>
+      <c r="I331" s="30"/>
+    </row>
+    <row r="332" spans="2:9" s="28" customFormat="1">
+      <c r="B332" s="30"/>
+      <c r="I332" s="30"/>
+    </row>
+    <row r="333" spans="2:9" s="28" customFormat="1">
+      <c r="B333" s="30"/>
+      <c r="I333" s="30"/>
+    </row>
+    <row r="334" spans="2:9" s="28" customFormat="1">
+      <c r="B334" s="30"/>
+      <c r="I334" s="30"/>
+    </row>
+    <row r="335" spans="2:9" s="28" customFormat="1">
+      <c r="B335" s="30"/>
+      <c r="I335" s="30"/>
+    </row>
+    <row r="336" spans="2:9" s="28" customFormat="1">
+      <c r="B336" s="30"/>
+      <c r="I336" s="30"/>
+    </row>
+    <row r="337" spans="2:9" s="28" customFormat="1">
+      <c r="B337" s="30"/>
+      <c r="I337" s="30"/>
+    </row>
+    <row r="338" spans="2:9" s="28" customFormat="1">
+      <c r="B338" s="30"/>
+      <c r="I338" s="30"/>
+    </row>
+    <row r="339" spans="2:9" s="28" customFormat="1">
+      <c r="B339" s="30"/>
+      <c r="I339" s="30"/>
+    </row>
+    <row r="340" spans="2:9" s="28" customFormat="1">
+      <c r="B340" s="30"/>
+      <c r="I340" s="30"/>
+    </row>
+    <row r="341" spans="2:9" s="28" customFormat="1">
+      <c r="B341" s="30"/>
+      <c r="I341" s="30"/>
+    </row>
+    <row r="342" spans="2:9" s="28" customFormat="1">
+      <c r="B342" s="30"/>
+      <c r="I342" s="30"/>
+    </row>
+    <row r="343" spans="2:9" s="28" customFormat="1">
+      <c r="B343" s="30"/>
+      <c r="I343" s="30"/>
+    </row>
+    <row r="344" spans="2:9" s="28" customFormat="1">
+      <c r="B344" s="30"/>
+      <c r="I344" s="30"/>
+    </row>
+    <row r="345" spans="2:9" s="28" customFormat="1">
+      <c r="B345" s="30"/>
+      <c r="I345" s="30"/>
+    </row>
+    <row r="346" spans="2:9" s="28" customFormat="1">
+      <c r="B346" s="30"/>
+      <c r="I346" s="30"/>
+    </row>
+    <row r="347" spans="2:9" s="28" customFormat="1">
+      <c r="B347" s="30"/>
+      <c r="I347" s="30"/>
+    </row>
+    <row r="348" spans="2:9" s="28" customFormat="1">
+      <c r="B348" s="30"/>
+      <c r="I348" s="30"/>
+    </row>
+    <row r="349" spans="2:9" s="28" customFormat="1">
+      <c r="B349" s="30"/>
+      <c r="I349" s="30"/>
+    </row>
+    <row r="350" spans="2:9" s="28" customFormat="1">
+      <c r="B350" s="30"/>
+      <c r="I350" s="30"/>
+    </row>
+    <row r="351" spans="2:9" s="28" customFormat="1">
+      <c r="B351" s="30"/>
+      <c r="I351" s="30"/>
+    </row>
+    <row r="352" spans="2:9" s="28" customFormat="1">
+      <c r="B352" s="30"/>
+      <c r="I352" s="30"/>
+    </row>
+    <row r="353" spans="2:9" s="28" customFormat="1">
+      <c r="B353" s="30"/>
+      <c r="I353" s="30"/>
+    </row>
+    <row r="354" spans="2:9" s="28" customFormat="1">
+      <c r="B354" s="30"/>
+      <c r="I354" s="30"/>
+    </row>
+    <row r="355" spans="2:9" s="28" customFormat="1">
+      <c r="B355" s="30"/>
+      <c r="I355" s="30"/>
+    </row>
+    <row r="356" spans="2:9" s="28" customFormat="1">
+      <c r="B356" s="30"/>
+      <c r="I356" s="30"/>
+    </row>
+    <row r="357" spans="2:9" s="28" customFormat="1">
+      <c r="B357" s="30"/>
+      <c r="I357" s="30"/>
+    </row>
+    <row r="358" spans="2:9" s="28" customFormat="1">
+      <c r="B358" s="30"/>
+      <c r="I358" s="30"/>
+    </row>
+    <row r="359" spans="2:9" s="28" customFormat="1">
+      <c r="B359" s="30"/>
+      <c r="I359" s="30"/>
+    </row>
+    <row r="360" spans="2:9" s="28" customFormat="1">
+      <c r="B360" s="30"/>
+      <c r="I360" s="30"/>
+    </row>
+    <row r="361" spans="2:9" s="28" customFormat="1">
+      <c r="B361" s="30"/>
+      <c r="I361" s="30"/>
+    </row>
+    <row r="362" spans="2:9" s="28" customFormat="1">
+      <c r="B362" s="30"/>
+      <c r="I362" s="30"/>
+    </row>
+    <row r="363" spans="2:9" s="28" customFormat="1">
+      <c r="B363" s="30"/>
+      <c r="I363" s="30"/>
+    </row>
+    <row r="364" spans="2:9" s="28" customFormat="1">
+      <c r="B364" s="30"/>
+      <c r="I364" s="30"/>
+    </row>
+    <row r="365" spans="2:9" s="28" customFormat="1">
+      <c r="B365" s="30"/>
+      <c r="I365" s="30"/>
+    </row>
+    <row r="366" spans="2:9" s="28" customFormat="1">
+      <c r="B366" s="30"/>
+      <c r="I366" s="30"/>
+    </row>
+    <row r="367" spans="2:9" s="28" customFormat="1">
+      <c r="B367" s="30"/>
+      <c r="I367" s="30"/>
+    </row>
+    <row r="368" spans="2:9" s="28" customFormat="1">
+      <c r="B368" s="30"/>
+      <c r="I368" s="30"/>
+    </row>
+    <row r="369" spans="2:10" s="28" customFormat="1">
+      <c r="B369" s="30"/>
+      <c r="I369" s="30"/>
+    </row>
+    <row r="370" spans="2:10" s="28" customFormat="1">
+      <c r="B370" s="30"/>
+      <c r="I370" s="30"/>
+    </row>
+    <row r="371" spans="2:10" s="28" customFormat="1">
+      <c r="B371" s="30"/>
+      <c r="I371" s="30"/>
+    </row>
+    <row r="372" spans="2:10" s="28" customFormat="1">
+      <c r="B372" s="30"/>
+      <c r="I372" s="30"/>
+    </row>
+    <row r="373" spans="2:10">
+      <c r="B373" s="30"/>
+      <c r="C373" s="28"/>
+      <c r="D373" s="28"/>
+      <c r="E373" s="28"/>
+      <c r="F373" s="28"/>
+      <c r="G373" s="28"/>
+      <c r="H373" s="28"/>
+      <c r="I373" s="30"/>
+      <c r="J373" s="28"/>
+    </row>
+    <row r="374" spans="2:10">
+      <c r="B374" s="30"/>
+      <c r="C374" s="28"/>
+      <c r="D374" s="28"/>
+      <c r="E374" s="28"/>
+      <c r="F374" s="28"/>
+      <c r="G374" s="28"/>
+      <c r="H374" s="28"/>
+      <c r="I374" s="30"/>
+      <c r="J374" s="28"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K31">
+      <formula1>'cuentas de e-mail'!$C$10:$C$11</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I31">
+      <formula1>'cuentas de e-mail'!$B$10:$B$11</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:K394"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="1.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9" style="24" customWidth="1"/>
+    <col min="5" max="5" width="12" style="24" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="26" customWidth="1"/>
+    <col min="10" max="10" width="30" style="24" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="24" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="18" customHeight="1">
+      <c r="B2" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:11" s="26" customFormat="1" ht="37.5">
+      <c r="B3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="76.5">
+      <c r="A4" s="27"/>
+      <c r="B4" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="38.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="38.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="28" customFormat="1" ht="63.75">
+      <c r="A7" s="27"/>
+      <c r="B7" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="28" customFormat="1" ht="25.5">
+      <c r="A8" s="27"/>
+      <c r="B8" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="28" customFormat="1" ht="63.75">
+      <c r="A9" s="27"/>
+      <c r="B9" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="28" customFormat="1" ht="38.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="28" customFormat="1" ht="76.5">
+      <c r="A11" s="27"/>
+      <c r="B11" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="28" customFormat="1" ht="38.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="28" customFormat="1" ht="38.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="28" customFormat="1" ht="89.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="28" customFormat="1" ht="38.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="28" customFormat="1" ht="38.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" s="28" customFormat="1" ht="89.25">
+      <c r="B17" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" s="28" customFormat="1" ht="89.25">
+      <c r="B18" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J18" s="19"/>
+      <c r="K18" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" s="28" customFormat="1" ht="76.5">
+      <c r="B19" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J19" s="19"/>
+      <c r="K19" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" s="28" customFormat="1" ht="25.5">
+      <c r="B20" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J20" s="19"/>
+      <c r="K20" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" s="28" customFormat="1" ht="38.25">
+      <c r="B21" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J21" s="19"/>
+      <c r="K21" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="B22" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J22" s="19"/>
+      <c r="K22" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="B23" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J23" s="19"/>
+      <c r="K23" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="B24" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" s="28" customFormat="1" ht="127.5">
+      <c r="B25" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" s="28" customFormat="1" ht="38.25">
+      <c r="B26" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J26" s="19"/>
+      <c r="K26" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="B27" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" s="28" customFormat="1" ht="89.25">
+      <c r="B28" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" s="28" customFormat="1" ht="89.25">
+      <c r="B29" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" s="28" customFormat="1" ht="89.25">
+      <c r="B30" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="B31" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J31" s="19"/>
+      <c r="K31" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" s="28" customFormat="1" ht="127.5">
+      <c r="B32" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" s="28" customFormat="1" ht="76.5">
+      <c r="B33" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" s="28" customFormat="1" ht="63.75">
+      <c r="B34" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="K34" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" s="29" customFormat="1" ht="51">
+      <c r="B35" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J35" s="16"/>
+      <c r="K35" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" s="28" customFormat="1" ht="38.25">
+      <c r="B36" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="K36" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" s="28" customFormat="1" ht="153">
+      <c r="B37" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" s="28" customFormat="1" ht="153">
+      <c r="B38" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J38" s="16"/>
+      <c r="K38" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" s="28" customFormat="1" ht="165.75">
+      <c r="B39" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="K39" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" s="28" customFormat="1" ht="25.5">
+      <c r="B40" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J40" s="16"/>
+      <c r="K40" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="B41" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J41" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="K41" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="B42" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J42" s="16"/>
+      <c r="K42" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" s="28" customFormat="1" ht="76.5">
+      <c r="B43" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="B44" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="K44" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="B45" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J45" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="K45" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" s="28" customFormat="1" ht="114.75">
+      <c r="B46" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J46" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="K46" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" s="28" customFormat="1" ht="114.75">
+      <c r="B47" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" s="28" customFormat="1" ht="102">
+      <c r="B48" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J48" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="K48" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" s="28" customFormat="1" ht="76.5">
+      <c r="B49" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J49" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="K49" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" s="28" customFormat="1" ht="63.75">
+      <c r="B50" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J50" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="K50" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="B51" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J51" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="K51" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" s="28" customFormat="1" ht="102">
+      <c r="B52" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J52" s="19"/>
+      <c r="K52" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" s="28" customFormat="1" ht="102">
+      <c r="B53" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J53" s="19"/>
+      <c r="K53" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="B54" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="I54" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J54" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="K54" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" s="28" customFormat="1" ht="89.25">
+      <c r="B55" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J55" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="K55" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="B56" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J56" s="19"/>
+      <c r="K56" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="B57" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H57" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J57" s="19"/>
+      <c r="K57" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" s="28" customFormat="1" ht="102">
+      <c r="B58" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" s="22"/>
+      <c r="F58" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="H58" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="I58" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J58" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="K58" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" s="28" customFormat="1" ht="63.75">
+      <c r="B59" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I59" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J59" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="K59" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="B60" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" s="22"/>
+      <c r="F60" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="G60" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H60" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I60" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J60" s="19"/>
+      <c r="K60" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" s="28" customFormat="1" ht="38.25">
+      <c r="B61" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H61" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J61" s="19"/>
+      <c r="K61" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" s="28" customFormat="1" ht="63.75">
+      <c r="B62" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="G62" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H62" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="I62" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J62" s="19"/>
+      <c r="K62" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" s="28" customFormat="1" ht="76.5">
+      <c r="B63" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H63" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="I63" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J63" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="K63" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" s="28" customFormat="1" ht="38.25">
+      <c r="B64" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="G64" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H64" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J64" s="19"/>
+      <c r="K64" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" s="28" customFormat="1" ht="165.75">
+      <c r="B65" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H65" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="I65" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J65" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="K65" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" s="28" customFormat="1" ht="38.25">
+      <c r="B66" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G66" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H66" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" s="28" customFormat="1" ht="38.25">
+      <c r="B67" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="G67" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H67" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J67" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="K67" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" s="28" customFormat="1" ht="25.5">
+      <c r="B68" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="G68" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="H68" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" s="28" customFormat="1" ht="293.25">
+      <c r="B69" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="G69" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="H69" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="I69" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J69" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="K69" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" s="28" customFormat="1" ht="25.5">
+      <c r="B70" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E70" s="19"/>
+      <c r="F70" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="G70" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H70" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I70" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" s="28" customFormat="1" ht="25.5">
+      <c r="B71" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="E71" s="19"/>
+      <c r="F71" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G71" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="H71" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="I71" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J71" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="K71" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" s="28" customFormat="1" ht="25.5">
+      <c r="B72" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="H72" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I72" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J72" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="K72" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" s="28" customFormat="1" ht="153">
+      <c r="B73" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="F73" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="G73" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="H73" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="I73" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J73" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="K73" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" s="28" customFormat="1" ht="153">
+      <c r="B74" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="E74" s="19"/>
+      <c r="F74" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G74" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="H74" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I74" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J74" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="K74" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" s="28" customFormat="1" ht="165.75">
+      <c r="B75" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="G75" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="H75" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="I75" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J75" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="K75" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" s="28" customFormat="1" ht="89.25">
+      <c r="B76" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="F76" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="G76" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H76" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="I76" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J76" s="16"/>
+      <c r="K76" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" s="28" customFormat="1" ht="63.75">
+      <c r="B77" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="F77" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="G77" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H77" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="I77" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J77" s="16"/>
+      <c r="K77" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="B78" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="G78" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H78" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="I78" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J78" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="K78" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="B79" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="G79" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H79" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="I79" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J79" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="K79" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" s="28" customFormat="1">
+      <c r="B80" s="30"/>
+      <c r="I80" s="30"/>
+    </row>
+    <row r="81" spans="2:9" s="28" customFormat="1">
+      <c r="B81" s="30"/>
+      <c r="I81" s="30"/>
+    </row>
+    <row r="82" spans="2:9" s="28" customFormat="1">
+      <c r="B82" s="30"/>
+      <c r="I82" s="30"/>
+    </row>
+    <row r="83" spans="2:9" s="28" customFormat="1">
+      <c r="B83" s="30"/>
+      <c r="I83" s="30"/>
+    </row>
+    <row r="84" spans="2:9" s="28" customFormat="1">
+      <c r="B84" s="30"/>
+      <c r="I84" s="30"/>
+    </row>
+    <row r="85" spans="2:9" s="28" customFormat="1">
+      <c r="B85" s="30"/>
+      <c r="I85" s="30"/>
+    </row>
+    <row r="86" spans="2:9" s="28" customFormat="1">
+      <c r="B86" s="30"/>
+      <c r="I86" s="30"/>
+    </row>
+    <row r="87" spans="2:9" s="28" customFormat="1">
+      <c r="B87" s="30"/>
+      <c r="I87" s="30"/>
+    </row>
+    <row r="88" spans="2:9" s="28" customFormat="1">
+      <c r="B88" s="30"/>
+      <c r="I88" s="30"/>
+    </row>
+    <row r="89" spans="2:9" s="28" customFormat="1">
+      <c r="B89" s="30"/>
+      <c r="I89" s="30"/>
+    </row>
+    <row r="90" spans="2:9" s="28" customFormat="1">
+      <c r="B90" s="30"/>
+      <c r="I90" s="30"/>
+    </row>
+    <row r="91" spans="2:9" s="28" customFormat="1">
+      <c r="B91" s="30"/>
+      <c r="I91" s="30"/>
+    </row>
+    <row r="92" spans="2:9" s="28" customFormat="1">
+      <c r="B92" s="30"/>
+      <c r="I92" s="30"/>
+    </row>
+    <row r="93" spans="2:9" s="28" customFormat="1">
+      <c r="B93" s="30"/>
+      <c r="I93" s="30"/>
+    </row>
+    <row r="94" spans="2:9" s="28" customFormat="1">
+      <c r="B94" s="30"/>
+      <c r="I94" s="30"/>
+    </row>
+    <row r="95" spans="2:9" s="28" customFormat="1">
+      <c r="B95" s="30"/>
+      <c r="I95" s="30"/>
+    </row>
+    <row r="96" spans="2:9" s="28" customFormat="1">
+      <c r="B96" s="30"/>
+      <c r="I96" s="30"/>
+    </row>
+    <row r="97" spans="2:9" s="28" customFormat="1">
+      <c r="B97" s="30"/>
+      <c r="I97" s="30"/>
+    </row>
+    <row r="98" spans="2:9" s="28" customFormat="1">
+      <c r="B98" s="30"/>
+      <c r="I98" s="30"/>
+    </row>
+    <row r="99" spans="2:9" s="28" customFormat="1">
+      <c r="B99" s="30"/>
+      <c r="I99" s="30"/>
+    </row>
+    <row r="100" spans="2:9" s="28" customFormat="1">
+      <c r="B100" s="30"/>
+      <c r="I100" s="30"/>
+    </row>
+    <row r="101" spans="2:9" s="28" customFormat="1">
+      <c r="B101" s="30"/>
+      <c r="I101" s="30"/>
+    </row>
+    <row r="102" spans="2:9" s="28" customFormat="1">
+      <c r="B102" s="30"/>
+      <c r="I102" s="30"/>
+    </row>
+    <row r="103" spans="2:9" s="28" customFormat="1">
+      <c r="B103" s="30"/>
+      <c r="I103" s="30"/>
+    </row>
+    <row r="104" spans="2:9" s="28" customFormat="1">
+      <c r="B104" s="30"/>
+      <c r="I104" s="30"/>
+    </row>
+    <row r="105" spans="2:9" s="28" customFormat="1">
+      <c r="B105" s="30"/>
+      <c r="I105" s="30"/>
+    </row>
+    <row r="106" spans="2:9" s="28" customFormat="1">
+      <c r="B106" s="30"/>
+      <c r="I106" s="30"/>
+    </row>
+    <row r="107" spans="2:9" s="28" customFormat="1">
+      <c r="B107" s="30"/>
+      <c r="I107" s="30"/>
+    </row>
+    <row r="108" spans="2:9" s="28" customFormat="1">
+      <c r="B108" s="30"/>
+      <c r="I108" s="30"/>
+    </row>
+    <row r="109" spans="2:9" s="28" customFormat="1">
+      <c r="B109" s="30"/>
+      <c r="I109" s="30"/>
+    </row>
+    <row r="110" spans="2:9" s="28" customFormat="1">
+      <c r="B110" s="30"/>
+      <c r="I110" s="30"/>
+    </row>
+    <row r="111" spans="2:9" s="28" customFormat="1">
+      <c r="B111" s="30"/>
+      <c r="I111" s="30"/>
+    </row>
+    <row r="112" spans="2:9" s="28" customFormat="1">
+      <c r="B112" s="30"/>
+      <c r="I112" s="30"/>
+    </row>
+    <row r="113" spans="2:9" s="28" customFormat="1">
+      <c r="B113" s="30"/>
+      <c r="I113" s="30"/>
+    </row>
+    <row r="114" spans="2:9" s="28" customFormat="1">
+      <c r="B114" s="30"/>
+      <c r="I114" s="30"/>
+    </row>
+    <row r="115" spans="2:9" s="28" customFormat="1">
+      <c r="B115" s="30"/>
+      <c r="I115" s="30"/>
+    </row>
+    <row r="116" spans="2:9" s="28" customFormat="1">
+      <c r="B116" s="30"/>
+      <c r="I116" s="30"/>
+    </row>
+    <row r="117" spans="2:9" s="28" customFormat="1">
+      <c r="B117" s="30"/>
+      <c r="I117" s="30"/>
+    </row>
+    <row r="118" spans="2:9" s="28" customFormat="1">
+      <c r="B118" s="30"/>
+      <c r="I118" s="30"/>
+    </row>
+    <row r="119" spans="2:9" s="28" customFormat="1">
+      <c r="B119" s="30"/>
+      <c r="I119" s="30"/>
+    </row>
+    <row r="120" spans="2:9" s="28" customFormat="1">
+      <c r="B120" s="30"/>
+      <c r="I120" s="30"/>
+    </row>
+    <row r="121" spans="2:9" s="28" customFormat="1">
+      <c r="B121" s="30"/>
+      <c r="I121" s="30"/>
+    </row>
+    <row r="122" spans="2:9" s="28" customFormat="1">
+      <c r="B122" s="30"/>
+      <c r="I122" s="30"/>
+    </row>
+    <row r="123" spans="2:9" s="28" customFormat="1">
+      <c r="B123" s="30"/>
+      <c r="I123" s="30"/>
+    </row>
+    <row r="124" spans="2:9" s="28" customFormat="1">
+      <c r="B124" s="30"/>
+      <c r="I124" s="30"/>
+    </row>
+    <row r="125" spans="2:9" s="28" customFormat="1">
+      <c r="B125" s="30"/>
+      <c r="I125" s="30"/>
+    </row>
+    <row r="126" spans="2:9" s="28" customFormat="1">
+      <c r="B126" s="30"/>
+      <c r="I126" s="30"/>
+    </row>
+    <row r="127" spans="2:9" s="28" customFormat="1">
+      <c r="B127" s="30"/>
+      <c r="I127" s="30"/>
+    </row>
+    <row r="128" spans="2:9" s="28" customFormat="1">
+      <c r="B128" s="30"/>
+      <c r="I128" s="30"/>
+    </row>
+    <row r="129" spans="2:9" s="28" customFormat="1">
+      <c r="B129" s="30"/>
+      <c r="I129" s="30"/>
+    </row>
+    <row r="130" spans="2:9" s="28" customFormat="1">
+      <c r="B130" s="30"/>
+      <c r="I130" s="30"/>
+    </row>
+    <row r="131" spans="2:9" s="28" customFormat="1">
+      <c r="B131" s="30"/>
+      <c r="I131" s="30"/>
+    </row>
+    <row r="132" spans="2:9" s="28" customFormat="1">
+      <c r="B132" s="30"/>
+      <c r="I132" s="30"/>
+    </row>
+    <row r="133" spans="2:9" s="28" customFormat="1">
+      <c r="B133" s="30"/>
+      <c r="I133" s="30"/>
+    </row>
+    <row r="134" spans="2:9" s="28" customFormat="1">
+      <c r="B134" s="30"/>
+      <c r="I134" s="30"/>
+    </row>
+    <row r="135" spans="2:9" s="28" customFormat="1">
+      <c r="B135" s="30"/>
+      <c r="I135" s="30"/>
+    </row>
+    <row r="136" spans="2:9" s="28" customFormat="1">
+      <c r="B136" s="30"/>
+      <c r="I136" s="30"/>
+    </row>
+    <row r="137" spans="2:9" s="28" customFormat="1">
+      <c r="B137" s="30"/>
+      <c r="I137" s="30"/>
+    </row>
+    <row r="138" spans="2:9" s="28" customFormat="1">
+      <c r="B138" s="30"/>
+      <c r="I138" s="30"/>
+    </row>
+    <row r="139" spans="2:9" s="28" customFormat="1">
+      <c r="B139" s="30"/>
+      <c r="I139" s="30"/>
+    </row>
+    <row r="140" spans="2:9" s="28" customFormat="1">
+      <c r="B140" s="30"/>
+      <c r="I140" s="30"/>
+    </row>
+    <row r="141" spans="2:9" s="28" customFormat="1">
+      <c r="B141" s="30"/>
+      <c r="I141" s="30"/>
+    </row>
+    <row r="142" spans="2:9" s="28" customFormat="1">
+      <c r="B142" s="30"/>
+      <c r="I142" s="30"/>
+    </row>
+    <row r="143" spans="2:9" s="28" customFormat="1">
+      <c r="B143" s="30"/>
+      <c r="I143" s="30"/>
+    </row>
+    <row r="144" spans="2:9" s="28" customFormat="1">
+      <c r="B144" s="30"/>
+      <c r="I144" s="30"/>
+    </row>
+    <row r="145" spans="2:9" s="28" customFormat="1">
+      <c r="B145" s="30"/>
+      <c r="I145" s="30"/>
+    </row>
+    <row r="146" spans="2:9" s="28" customFormat="1">
+      <c r="B146" s="30"/>
+      <c r="I146" s="30"/>
+    </row>
+    <row r="147" spans="2:9" s="28" customFormat="1">
+      <c r="B147" s="30"/>
+      <c r="I147" s="30"/>
+    </row>
+    <row r="148" spans="2:9" s="28" customFormat="1">
+      <c r="B148" s="30"/>
+      <c r="I148" s="30"/>
+    </row>
+    <row r="149" spans="2:9" s="28" customFormat="1">
+      <c r="B149" s="30"/>
+      <c r="I149" s="30"/>
+    </row>
+    <row r="150" spans="2:9" s="28" customFormat="1">
+      <c r="B150" s="30"/>
+      <c r="I150" s="30"/>
+    </row>
+    <row r="151" spans="2:9" s="28" customFormat="1">
+      <c r="B151" s="30"/>
+      <c r="I151" s="30"/>
+    </row>
+    <row r="152" spans="2:9" s="28" customFormat="1">
+      <c r="B152" s="30"/>
+      <c r="I152" s="30"/>
+    </row>
+    <row r="153" spans="2:9" s="28" customFormat="1">
+      <c r="B153" s="30"/>
+      <c r="I153" s="30"/>
+    </row>
+    <row r="154" spans="2:9" s="28" customFormat="1">
+      <c r="B154" s="30"/>
+      <c r="I154" s="30"/>
+    </row>
+    <row r="155" spans="2:9" s="28" customFormat="1">
+      <c r="B155" s="30"/>
+      <c r="I155" s="30"/>
+    </row>
+    <row r="156" spans="2:9" s="28" customFormat="1">
+      <c r="B156" s="30"/>
+      <c r="I156" s="30"/>
+    </row>
+    <row r="157" spans="2:9" s="28" customFormat="1">
+      <c r="B157" s="30"/>
+      <c r="I157" s="30"/>
+    </row>
+    <row r="158" spans="2:9" s="28" customFormat="1">
+      <c r="B158" s="30"/>
+      <c r="I158" s="30"/>
+    </row>
+    <row r="159" spans="2:9" s="28" customFormat="1">
+      <c r="B159" s="30"/>
+      <c r="I159" s="30"/>
+    </row>
+    <row r="160" spans="2:9" s="28" customFormat="1">
+      <c r="B160" s="30"/>
+      <c r="I160" s="30"/>
+    </row>
+    <row r="161" spans="2:9" s="28" customFormat="1">
+      <c r="B161" s="30"/>
+      <c r="I161" s="30"/>
+    </row>
+    <row r="162" spans="2:9" s="28" customFormat="1">
+      <c r="B162" s="30"/>
+      <c r="I162" s="30"/>
+    </row>
+    <row r="163" spans="2:9" s="28" customFormat="1">
+      <c r="B163" s="30"/>
+      <c r="I163" s="30"/>
+    </row>
+    <row r="164" spans="2:9" s="28" customFormat="1">
+      <c r="B164" s="30"/>
+      <c r="I164" s="30"/>
+    </row>
+    <row r="165" spans="2:9" s="28" customFormat="1">
+      <c r="B165" s="30"/>
+      <c r="I165" s="30"/>
+    </row>
+    <row r="166" spans="2:9" s="28" customFormat="1">
+      <c r="B166" s="30"/>
+      <c r="I166" s="30"/>
+    </row>
+    <row r="167" spans="2:9" s="28" customFormat="1">
+      <c r="B167" s="30"/>
+      <c r="I167" s="30"/>
+    </row>
+    <row r="168" spans="2:9" s="28" customFormat="1">
+      <c r="B168" s="30"/>
+      <c r="I168" s="30"/>
+    </row>
+    <row r="169" spans="2:9" s="28" customFormat="1">
+      <c r="B169" s="30"/>
+      <c r="I169" s="30"/>
+    </row>
+    <row r="170" spans="2:9" s="28" customFormat="1">
+      <c r="B170" s="30"/>
+      <c r="I170" s="30"/>
+    </row>
+    <row r="171" spans="2:9" s="28" customFormat="1">
+      <c r="B171" s="30"/>
+      <c r="I171" s="30"/>
+    </row>
+    <row r="172" spans="2:9" s="28" customFormat="1">
+      <c r="B172" s="30"/>
+      <c r="I172" s="30"/>
+    </row>
+    <row r="173" spans="2:9" s="28" customFormat="1">
+      <c r="B173" s="30"/>
+      <c r="I173" s="30"/>
+    </row>
+    <row r="174" spans="2:9" s="28" customFormat="1">
+      <c r="B174" s="30"/>
+      <c r="I174" s="30"/>
+    </row>
+    <row r="175" spans="2:9" s="28" customFormat="1">
+      <c r="B175" s="30"/>
+      <c r="I175" s="30"/>
+    </row>
+    <row r="176" spans="2:9" s="28" customFormat="1">
+      <c r="B176" s="30"/>
+      <c r="I176" s="30"/>
+    </row>
+    <row r="177" spans="2:9" s="28" customFormat="1">
+      <c r="B177" s="30"/>
+      <c r="I177" s="30"/>
+    </row>
+    <row r="178" spans="2:9" s="28" customFormat="1">
+      <c r="B178" s="30"/>
+      <c r="I178" s="30"/>
+    </row>
+    <row r="179" spans="2:9" s="28" customFormat="1">
+      <c r="B179" s="30"/>
+      <c r="I179" s="30"/>
+    </row>
+    <row r="180" spans="2:9" s="28" customFormat="1">
+      <c r="B180" s="30"/>
+      <c r="I180" s="30"/>
+    </row>
+    <row r="181" spans="2:9" s="28" customFormat="1">
+      <c r="B181" s="30"/>
+      <c r="I181" s="30"/>
+    </row>
+    <row r="182" spans="2:9" s="28" customFormat="1">
+      <c r="B182" s="30"/>
+      <c r="I182" s="30"/>
+    </row>
+    <row r="183" spans="2:9" s="28" customFormat="1">
+      <c r="B183" s="30"/>
+      <c r="I183" s="30"/>
+    </row>
+    <row r="184" spans="2:9" s="28" customFormat="1">
+      <c r="B184" s="30"/>
+      <c r="I184" s="30"/>
+    </row>
+    <row r="185" spans="2:9" s="28" customFormat="1">
+      <c r="B185" s="30"/>
+      <c r="I185" s="30"/>
+    </row>
+    <row r="186" spans="2:9" s="28" customFormat="1">
+      <c r="B186" s="30"/>
+      <c r="I186" s="30"/>
+    </row>
+    <row r="187" spans="2:9" s="28" customFormat="1">
+      <c r="B187" s="30"/>
+      <c r="I187" s="30"/>
+    </row>
+    <row r="188" spans="2:9" s="28" customFormat="1">
+      <c r="B188" s="30"/>
+      <c r="I188" s="30"/>
+    </row>
+    <row r="189" spans="2:9" s="28" customFormat="1">
+      <c r="B189" s="30"/>
+      <c r="I189" s="30"/>
+    </row>
+    <row r="190" spans="2:9" s="28" customFormat="1">
+      <c r="B190" s="30"/>
+      <c r="I190" s="30"/>
+    </row>
+    <row r="191" spans="2:9" s="28" customFormat="1">
+      <c r="B191" s="30"/>
+      <c r="I191" s="30"/>
+    </row>
+    <row r="192" spans="2:9" s="28" customFormat="1">
+      <c r="B192" s="30"/>
+      <c r="I192" s="30"/>
+    </row>
+    <row r="193" spans="2:9" s="28" customFormat="1">
+      <c r="B193" s="30"/>
+      <c r="I193" s="30"/>
+    </row>
+    <row r="194" spans="2:9" s="28" customFormat="1">
+      <c r="B194" s="30"/>
+      <c r="I194" s="30"/>
+    </row>
+    <row r="195" spans="2:9" s="28" customFormat="1">
+      <c r="B195" s="30"/>
+      <c r="I195" s="30"/>
+    </row>
+    <row r="196" spans="2:9" s="28" customFormat="1">
+      <c r="B196" s="30"/>
+      <c r="I196" s="30"/>
+    </row>
+    <row r="197" spans="2:9" s="28" customFormat="1">
+      <c r="B197" s="30"/>
+      <c r="I197" s="30"/>
+    </row>
+    <row r="198" spans="2:9" s="28" customFormat="1">
+      <c r="B198" s="30"/>
+      <c r="I198" s="30"/>
+    </row>
+    <row r="199" spans="2:9" s="28" customFormat="1">
+      <c r="B199" s="30"/>
+      <c r="I199" s="30"/>
+    </row>
+    <row r="200" spans="2:9" s="28" customFormat="1">
+      <c r="B200" s="30"/>
+      <c r="I200" s="30"/>
+    </row>
+    <row r="201" spans="2:9" s="28" customFormat="1">
+      <c r="B201" s="30"/>
+      <c r="I201" s="30"/>
+    </row>
+    <row r="202" spans="2:9" s="28" customFormat="1">
+      <c r="B202" s="30"/>
+      <c r="I202" s="30"/>
+    </row>
+    <row r="203" spans="2:9" s="28" customFormat="1">
+      <c r="B203" s="30"/>
+      <c r="I203" s="30"/>
+    </row>
+    <row r="204" spans="2:9" s="28" customFormat="1">
+      <c r="B204" s="30"/>
+      <c r="I204" s="30"/>
+    </row>
+    <row r="205" spans="2:9" s="28" customFormat="1">
+      <c r="B205" s="30"/>
+      <c r="I205" s="30"/>
+    </row>
+    <row r="206" spans="2:9" s="28" customFormat="1">
+      <c r="B206" s="30"/>
+      <c r="I206" s="30"/>
+    </row>
+    <row r="207" spans="2:9" s="28" customFormat="1">
+      <c r="B207" s="30"/>
+      <c r="I207" s="30"/>
+    </row>
+    <row r="208" spans="2:9" s="28" customFormat="1">
+      <c r="B208" s="30"/>
+      <c r="I208" s="30"/>
+    </row>
+    <row r="209" spans="2:9" s="28" customFormat="1">
+      <c r="B209" s="30"/>
+      <c r="I209" s="30"/>
+    </row>
+    <row r="210" spans="2:9" s="28" customFormat="1">
+      <c r="B210" s="30"/>
+      <c r="I210" s="30"/>
+    </row>
+    <row r="211" spans="2:9" s="28" customFormat="1">
+      <c r="B211" s="30"/>
+      <c r="I211" s="30"/>
+    </row>
+    <row r="212" spans="2:9" s="28" customFormat="1">
+      <c r="B212" s="30"/>
+      <c r="I212" s="30"/>
+    </row>
+    <row r="213" spans="2:9" s="28" customFormat="1">
+      <c r="B213" s="30"/>
+      <c r="I213" s="30"/>
+    </row>
+    <row r="214" spans="2:9" s="28" customFormat="1">
+      <c r="B214" s="30"/>
+      <c r="I214" s="30"/>
+    </row>
+    <row r="215" spans="2:9" s="28" customFormat="1">
+      <c r="B215" s="30"/>
+      <c r="I215" s="30"/>
+    </row>
+    <row r="216" spans="2:9" s="28" customFormat="1">
+      <c r="B216" s="30"/>
+      <c r="I216" s="30"/>
+    </row>
+    <row r="217" spans="2:9" s="28" customFormat="1">
+      <c r="B217" s="30"/>
+      <c r="I217" s="30"/>
+    </row>
+    <row r="218" spans="2:9" s="28" customFormat="1">
+      <c r="B218" s="30"/>
+      <c r="I218" s="30"/>
+    </row>
+    <row r="219" spans="2:9" s="28" customFormat="1">
+      <c r="B219" s="30"/>
+      <c r="I219" s="30"/>
+    </row>
+    <row r="220" spans="2:9" s="28" customFormat="1">
+      <c r="B220" s="30"/>
+      <c r="I220" s="30"/>
+    </row>
+    <row r="221" spans="2:9" s="28" customFormat="1">
+      <c r="B221" s="30"/>
+      <c r="I221" s="30"/>
+    </row>
+    <row r="222" spans="2:9" s="28" customFormat="1">
+      <c r="B222" s="30"/>
+      <c r="I222" s="30"/>
+    </row>
+    <row r="223" spans="2:9" s="28" customFormat="1">
+      <c r="B223" s="30"/>
+      <c r="I223" s="30"/>
+    </row>
+    <row r="224" spans="2:9" s="28" customFormat="1">
+      <c r="B224" s="30"/>
+      <c r="I224" s="30"/>
+    </row>
+    <row r="225" spans="2:9" s="28" customFormat="1">
+      <c r="B225" s="30"/>
+      <c r="I225" s="30"/>
+    </row>
+    <row r="226" spans="2:9" s="28" customFormat="1">
+      <c r="B226" s="30"/>
+      <c r="I226" s="30"/>
+    </row>
+    <row r="227" spans="2:9" s="28" customFormat="1">
+      <c r="B227" s="30"/>
+      <c r="I227" s="30"/>
+    </row>
+    <row r="228" spans="2:9" s="28" customFormat="1">
+      <c r="B228" s="30"/>
+      <c r="I228" s="30"/>
+    </row>
+    <row r="229" spans="2:9" s="28" customFormat="1">
+      <c r="B229" s="30"/>
+      <c r="I229" s="30"/>
+    </row>
+    <row r="230" spans="2:9" s="28" customFormat="1">
+      <c r="B230" s="30"/>
+      <c r="I230" s="30"/>
+    </row>
+    <row r="231" spans="2:9" s="28" customFormat="1">
+      <c r="B231" s="30"/>
+      <c r="I231" s="30"/>
+    </row>
+    <row r="232" spans="2:9" s="28" customFormat="1">
+      <c r="B232" s="30"/>
+      <c r="I232" s="30"/>
+    </row>
+    <row r="233" spans="2:9" s="28" customFormat="1">
+      <c r="B233" s="30"/>
+      <c r="I233" s="30"/>
+    </row>
+    <row r="234" spans="2:9" s="28" customFormat="1">
+      <c r="B234" s="30"/>
+      <c r="I234" s="30"/>
+    </row>
+    <row r="235" spans="2:9" s="28" customFormat="1">
+      <c r="B235" s="30"/>
+      <c r="I235" s="30"/>
+    </row>
+    <row r="236" spans="2:9" s="28" customFormat="1">
+      <c r="B236" s="30"/>
+      <c r="I236" s="30"/>
+    </row>
+    <row r="237" spans="2:9" s="28" customFormat="1">
+      <c r="B237" s="30"/>
+      <c r="I237" s="30"/>
+    </row>
+    <row r="238" spans="2:9" s="28" customFormat="1">
+      <c r="B238" s="30"/>
+      <c r="I238" s="30"/>
+    </row>
+    <row r="239" spans="2:9" s="28" customFormat="1">
+      <c r="B239" s="30"/>
+      <c r="I239" s="30"/>
+    </row>
+    <row r="240" spans="2:9" s="28" customFormat="1">
+      <c r="B240" s="30"/>
+      <c r="I240" s="30"/>
+    </row>
+    <row r="241" spans="2:9" s="28" customFormat="1">
+      <c r="B241" s="30"/>
+      <c r="I241" s="30"/>
+    </row>
+    <row r="242" spans="2:9" s="28" customFormat="1">
+      <c r="B242" s="30"/>
+      <c r="I242" s="30"/>
+    </row>
+    <row r="243" spans="2:9" s="28" customFormat="1">
+      <c r="B243" s="30"/>
+      <c r="I243" s="30"/>
+    </row>
+    <row r="244" spans="2:9" s="28" customFormat="1">
+      <c r="B244" s="30"/>
+      <c r="I244" s="30"/>
+    </row>
+    <row r="245" spans="2:9" s="28" customFormat="1">
+      <c r="B245" s="30"/>
+      <c r="I245" s="30"/>
+    </row>
+    <row r="246" spans="2:9" s="28" customFormat="1">
+      <c r="B246" s="30"/>
+      <c r="I246" s="30"/>
+    </row>
+    <row r="247" spans="2:9" s="28" customFormat="1">
+      <c r="B247" s="30"/>
+      <c r="I247" s="30"/>
+    </row>
+    <row r="248" spans="2:9" s="28" customFormat="1">
+      <c r="B248" s="30"/>
+      <c r="I248" s="30"/>
+    </row>
+    <row r="249" spans="2:9" s="28" customFormat="1">
+      <c r="B249" s="30"/>
+      <c r="I249" s="30"/>
+    </row>
+    <row r="250" spans="2:9" s="28" customFormat="1">
+      <c r="B250" s="30"/>
+      <c r="I250" s="30"/>
+    </row>
+    <row r="251" spans="2:9" s="28" customFormat="1">
+      <c r="B251" s="30"/>
+      <c r="I251" s="30"/>
+    </row>
+    <row r="252" spans="2:9" s="28" customFormat="1">
+      <c r="B252" s="30"/>
+      <c r="I252" s="30"/>
+    </row>
+    <row r="253" spans="2:9" s="28" customFormat="1">
+      <c r="B253" s="30"/>
+      <c r="I253" s="30"/>
+    </row>
+    <row r="254" spans="2:9" s="28" customFormat="1">
+      <c r="B254" s="30"/>
+      <c r="I254" s="30"/>
+    </row>
+    <row r="255" spans="2:9" s="28" customFormat="1">
+      <c r="B255" s="30"/>
+      <c r="I255" s="30"/>
+    </row>
+    <row r="256" spans="2:9" s="28" customFormat="1">
+      <c r="B256" s="30"/>
+      <c r="I256" s="30"/>
+    </row>
+    <row r="257" spans="2:9" s="28" customFormat="1">
+      <c r="B257" s="30"/>
+      <c r="I257" s="30"/>
+    </row>
+    <row r="258" spans="2:9" s="28" customFormat="1">
+      <c r="B258" s="30"/>
+      <c r="I258" s="30"/>
+    </row>
+    <row r="259" spans="2:9" s="28" customFormat="1">
+      <c r="B259" s="30"/>
+      <c r="I259" s="30"/>
+    </row>
+    <row r="260" spans="2:9" s="28" customFormat="1">
+      <c r="B260" s="30"/>
+      <c r="I260" s="30"/>
+    </row>
+    <row r="261" spans="2:9" s="28" customFormat="1">
+      <c r="B261" s="30"/>
+      <c r="I261" s="30"/>
+    </row>
+    <row r="262" spans="2:9" s="28" customFormat="1">
+      <c r="B262" s="30"/>
+      <c r="I262" s="30"/>
+    </row>
+    <row r="263" spans="2:9" s="28" customFormat="1">
+      <c r="B263" s="30"/>
+      <c r="I263" s="30"/>
+    </row>
+    <row r="264" spans="2:9" s="28" customFormat="1">
+      <c r="B264" s="30"/>
+      <c r="I264" s="30"/>
+    </row>
+    <row r="265" spans="2:9" s="28" customFormat="1">
+      <c r="B265" s="30"/>
+      <c r="I265" s="30"/>
+    </row>
+    <row r="266" spans="2:9" s="28" customFormat="1">
+      <c r="B266" s="30"/>
+      <c r="I266" s="30"/>
+    </row>
+    <row r="267" spans="2:9" s="28" customFormat="1">
+      <c r="B267" s="30"/>
+      <c r="I267" s="30"/>
+    </row>
+    <row r="268" spans="2:9" s="28" customFormat="1">
+      <c r="B268" s="30"/>
+      <c r="I268" s="30"/>
+    </row>
+    <row r="269" spans="2:9" s="28" customFormat="1">
+      <c r="B269" s="30"/>
+      <c r="I269" s="30"/>
+    </row>
+    <row r="270" spans="2:9" s="28" customFormat="1">
+      <c r="B270" s="30"/>
+      <c r="I270" s="30"/>
+    </row>
+    <row r="271" spans="2:9" s="28" customFormat="1">
+      <c r="B271" s="30"/>
+      <c r="I271" s="30"/>
+    </row>
+    <row r="272" spans="2:9" s="28" customFormat="1">
+      <c r="B272" s="30"/>
+      <c r="I272" s="30"/>
+    </row>
+    <row r="273" spans="2:9" s="28" customFormat="1">
+      <c r="B273" s="30"/>
+      <c r="I273" s="30"/>
+    </row>
+    <row r="274" spans="2:9" s="28" customFormat="1">
+      <c r="B274" s="30"/>
+      <c r="I274" s="30"/>
+    </row>
+    <row r="275" spans="2:9" s="28" customFormat="1">
+      <c r="B275" s="30"/>
+      <c r="I275" s="30"/>
+    </row>
+    <row r="276" spans="2:9" s="28" customFormat="1">
+      <c r="B276" s="30"/>
+      <c r="I276" s="30"/>
+    </row>
+    <row r="277" spans="2:9" s="28" customFormat="1">
+      <c r="B277" s="30"/>
+      <c r="I277" s="30"/>
+    </row>
+    <row r="278" spans="2:9" s="28" customFormat="1">
+      <c r="B278" s="30"/>
+      <c r="I278" s="30"/>
+    </row>
+    <row r="279" spans="2:9" s="28" customFormat="1">
+      <c r="B279" s="30"/>
+      <c r="I279" s="30"/>
+    </row>
+    <row r="280" spans="2:9" s="28" customFormat="1">
+      <c r="B280" s="30"/>
+      <c r="I280" s="30"/>
+    </row>
+    <row r="281" spans="2:9" s="28" customFormat="1">
+      <c r="B281" s="30"/>
+      <c r="I281" s="30"/>
+    </row>
+    <row r="282" spans="2:9" s="28" customFormat="1">
+      <c r="B282" s="30"/>
+      <c r="I282" s="30"/>
+    </row>
+    <row r="283" spans="2:9" s="28" customFormat="1">
+      <c r="B283" s="30"/>
+      <c r="I283" s="30"/>
+    </row>
+    <row r="284" spans="2:9" s="28" customFormat="1">
+      <c r="B284" s="30"/>
+      <c r="I284" s="30"/>
+    </row>
+    <row r="285" spans="2:9" s="28" customFormat="1">
+      <c r="B285" s="30"/>
+      <c r="I285" s="30"/>
+    </row>
+    <row r="286" spans="2:9" s="28" customFormat="1">
+      <c r="B286" s="30"/>
+      <c r="I286" s="30"/>
+    </row>
+    <row r="287" spans="2:9" s="28" customFormat="1">
+      <c r="B287" s="30"/>
+      <c r="I287" s="30"/>
+    </row>
+    <row r="288" spans="2:9" s="28" customFormat="1">
+      <c r="B288" s="30"/>
+      <c r="I288" s="30"/>
+    </row>
+    <row r="289" spans="2:9" s="28" customFormat="1">
+      <c r="B289" s="30"/>
+      <c r="I289" s="30"/>
+    </row>
+    <row r="290" spans="2:9" s="28" customFormat="1">
+      <c r="B290" s="30"/>
+      <c r="I290" s="30"/>
+    </row>
+    <row r="291" spans="2:9" s="28" customFormat="1">
+      <c r="B291" s="30"/>
+      <c r="I291" s="30"/>
+    </row>
+    <row r="292" spans="2:9" s="28" customFormat="1">
+      <c r="B292" s="30"/>
+      <c r="I292" s="30"/>
+    </row>
+    <row r="293" spans="2:9" s="28" customFormat="1">
+      <c r="B293" s="30"/>
+      <c r="I293" s="30"/>
+    </row>
+    <row r="294" spans="2:9" s="28" customFormat="1">
+      <c r="B294" s="30"/>
+      <c r="I294" s="30"/>
+    </row>
+    <row r="295" spans="2:9" s="28" customFormat="1">
+      <c r="B295" s="30"/>
+      <c r="I295" s="30"/>
+    </row>
+    <row r="296" spans="2:9" s="28" customFormat="1">
+      <c r="B296" s="30"/>
+      <c r="I296" s="30"/>
+    </row>
+    <row r="297" spans="2:9" s="28" customFormat="1">
+      <c r="B297" s="30"/>
+      <c r="I297" s="30"/>
+    </row>
+    <row r="298" spans="2:9" s="28" customFormat="1">
+      <c r="B298" s="30"/>
+      <c r="I298" s="30"/>
+    </row>
+    <row r="299" spans="2:9" s="28" customFormat="1">
+      <c r="B299" s="30"/>
+      <c r="I299" s="30"/>
+    </row>
+    <row r="300" spans="2:9" s="28" customFormat="1">
+      <c r="B300" s="30"/>
+      <c r="I300" s="30"/>
+    </row>
+    <row r="301" spans="2:9" s="28" customFormat="1">
+      <c r="B301" s="30"/>
+      <c r="I301" s="30"/>
+    </row>
+    <row r="302" spans="2:9" s="28" customFormat="1">
+      <c r="B302" s="30"/>
+      <c r="I302" s="30"/>
+    </row>
+    <row r="303" spans="2:9" s="28" customFormat="1">
+      <c r="B303" s="30"/>
+      <c r="I303" s="30"/>
+    </row>
+    <row r="304" spans="2:9" s="28" customFormat="1">
+      <c r="B304" s="30"/>
+      <c r="I304" s="30"/>
+    </row>
+    <row r="305" spans="2:9" s="28" customFormat="1">
+      <c r="B305" s="30"/>
+      <c r="I305" s="30"/>
+    </row>
+    <row r="306" spans="2:9" s="28" customFormat="1">
+      <c r="B306" s="30"/>
+      <c r="I306" s="30"/>
+    </row>
+    <row r="307" spans="2:9" s="28" customFormat="1">
+      <c r="B307" s="30"/>
+      <c r="I307" s="30"/>
+    </row>
+    <row r="308" spans="2:9" s="28" customFormat="1">
+      <c r="B308" s="30"/>
+      <c r="I308" s="30"/>
+    </row>
+    <row r="309" spans="2:9" s="28" customFormat="1">
+      <c r="B309" s="30"/>
+      <c r="I309" s="30"/>
+    </row>
+    <row r="310" spans="2:9" s="28" customFormat="1">
+      <c r="B310" s="30"/>
+      <c r="I310" s="30"/>
+    </row>
+    <row r="311" spans="2:9" s="28" customFormat="1">
+      <c r="B311" s="30"/>
+      <c r="I311" s="30"/>
+    </row>
+    <row r="312" spans="2:9" s="28" customFormat="1">
+      <c r="B312" s="30"/>
+      <c r="I312" s="30"/>
+    </row>
+    <row r="313" spans="2:9" s="28" customFormat="1">
+      <c r="B313" s="30"/>
+      <c r="I313" s="30"/>
+    </row>
+    <row r="314" spans="2:9" s="28" customFormat="1">
+      <c r="B314" s="30"/>
+      <c r="I314" s="30"/>
+    </row>
+    <row r="315" spans="2:9" s="28" customFormat="1">
+      <c r="B315" s="30"/>
+      <c r="I315" s="30"/>
+    </row>
+    <row r="316" spans="2:9" s="28" customFormat="1">
+      <c r="B316" s="30"/>
+      <c r="I316" s="30"/>
+    </row>
+    <row r="317" spans="2:9" s="28" customFormat="1">
+      <c r="B317" s="30"/>
+      <c r="I317" s="30"/>
+    </row>
+    <row r="318" spans="2:9" s="28" customFormat="1">
+      <c r="B318" s="30"/>
+      <c r="I318" s="30"/>
+    </row>
+    <row r="319" spans="2:9" s="28" customFormat="1">
+      <c r="B319" s="30"/>
+      <c r="I319" s="30"/>
+    </row>
+    <row r="320" spans="2:9" s="28" customFormat="1">
+      <c r="B320" s="30"/>
+      <c r="I320" s="30"/>
+    </row>
+    <row r="321" spans="2:9" s="28" customFormat="1">
+      <c r="B321" s="30"/>
+      <c r="I321" s="30"/>
+    </row>
+    <row r="322" spans="2:9" s="28" customFormat="1">
+      <c r="B322" s="30"/>
+      <c r="I322" s="30"/>
+    </row>
+    <row r="323" spans="2:9" s="28" customFormat="1">
+      <c r="B323" s="30"/>
+      <c r="I323" s="30"/>
+    </row>
+    <row r="324" spans="2:9" s="28" customFormat="1">
+      <c r="B324" s="30"/>
+      <c r="I324" s="30"/>
+    </row>
+    <row r="325" spans="2:9" s="28" customFormat="1">
+      <c r="B325" s="30"/>
+      <c r="I325" s="30"/>
+    </row>
+    <row r="326" spans="2:9" s="28" customFormat="1">
+      <c r="B326" s="30"/>
+      <c r="I326" s="30"/>
+    </row>
+    <row r="327" spans="2:9" s="28" customFormat="1">
+      <c r="B327" s="30"/>
+      <c r="I327" s="30"/>
+    </row>
+    <row r="328" spans="2:9" s="28" customFormat="1">
+      <c r="B328" s="30"/>
+      <c r="I328" s="30"/>
+    </row>
+    <row r="329" spans="2:9" s="28" customFormat="1">
+      <c r="B329" s="30"/>
+      <c r="I329" s="30"/>
+    </row>
+    <row r="330" spans="2:9" s="28" customFormat="1">
+      <c r="B330" s="30"/>
+      <c r="I330" s="30"/>
+    </row>
+    <row r="331" spans="2:9" s="28" customFormat="1">
+      <c r="B331" s="30"/>
+      <c r="I331" s="30"/>
+    </row>
+    <row r="332" spans="2:9" s="28" customFormat="1">
+      <c r="B332" s="30"/>
+      <c r="I332" s="30"/>
+    </row>
+    <row r="333" spans="2:9" s="28" customFormat="1">
+      <c r="B333" s="30"/>
+      <c r="I333" s="30"/>
+    </row>
+    <row r="334" spans="2:9" s="28" customFormat="1">
+      <c r="B334" s="30"/>
+      <c r="I334" s="30"/>
+    </row>
+    <row r="335" spans="2:9" s="28" customFormat="1">
+      <c r="B335" s="30"/>
+      <c r="I335" s="30"/>
+    </row>
+    <row r="336" spans="2:9" s="28" customFormat="1">
+      <c r="B336" s="30"/>
+      <c r="I336" s="30"/>
+    </row>
+    <row r="337" spans="2:9" s="28" customFormat="1">
+      <c r="B337" s="30"/>
+      <c r="I337" s="30"/>
+    </row>
+    <row r="338" spans="2:9" s="28" customFormat="1">
+      <c r="B338" s="30"/>
+      <c r="I338" s="30"/>
+    </row>
+    <row r="339" spans="2:9" s="28" customFormat="1">
+      <c r="B339" s="30"/>
+      <c r="I339" s="30"/>
+    </row>
+    <row r="340" spans="2:9" s="28" customFormat="1">
+      <c r="B340" s="30"/>
+      <c r="I340" s="30"/>
+    </row>
+    <row r="341" spans="2:9" s="28" customFormat="1">
+      <c r="B341" s="30"/>
+      <c r="I341" s="30"/>
+    </row>
+    <row r="342" spans="2:9" s="28" customFormat="1">
+      <c r="B342" s="30"/>
+      <c r="I342" s="30"/>
+    </row>
+    <row r="343" spans="2:9" s="28" customFormat="1">
+      <c r="B343" s="30"/>
+      <c r="I343" s="30"/>
+    </row>
+    <row r="344" spans="2:9" s="28" customFormat="1">
+      <c r="B344" s="30"/>
+      <c r="I344" s="30"/>
+    </row>
+    <row r="345" spans="2:9" s="28" customFormat="1">
+      <c r="B345" s="30"/>
+      <c r="I345" s="30"/>
+    </row>
+    <row r="346" spans="2:9" s="28" customFormat="1">
+      <c r="B346" s="30"/>
+      <c r="I346" s="30"/>
+    </row>
+    <row r="347" spans="2:9" s="28" customFormat="1">
+      <c r="B347" s="30"/>
+      <c r="I347" s="30"/>
+    </row>
+    <row r="348" spans="2:9" s="28" customFormat="1">
+      <c r="B348" s="30"/>
+      <c r="I348" s="30"/>
+    </row>
+    <row r="349" spans="2:9" s="28" customFormat="1">
+      <c r="B349" s="30"/>
+      <c r="I349" s="30"/>
+    </row>
+    <row r="350" spans="2:9" s="28" customFormat="1">
+      <c r="B350" s="30"/>
+      <c r="I350" s="30"/>
+    </row>
+    <row r="351" spans="2:9" s="28" customFormat="1">
+      <c r="B351" s="30"/>
+      <c r="I351" s="30"/>
+    </row>
+    <row r="352" spans="2:9" s="28" customFormat="1">
+      <c r="B352" s="30"/>
+      <c r="I352" s="30"/>
+    </row>
+    <row r="353" spans="2:9" s="28" customFormat="1">
+      <c r="B353" s="30"/>
+      <c r="I353" s="30"/>
+    </row>
+    <row r="354" spans="2:9" s="28" customFormat="1">
+      <c r="B354" s="30"/>
+      <c r="I354" s="30"/>
+    </row>
+    <row r="355" spans="2:9" s="28" customFormat="1">
+      <c r="B355" s="30"/>
+      <c r="I355" s="30"/>
+    </row>
+    <row r="356" spans="2:9" s="28" customFormat="1">
+      <c r="B356" s="30"/>
+      <c r="I356" s="30"/>
+    </row>
+    <row r="357" spans="2:9" s="28" customFormat="1">
+      <c r="B357" s="30"/>
+      <c r="I357" s="30"/>
+    </row>
+    <row r="358" spans="2:9" s="28" customFormat="1">
+      <c r="B358" s="30"/>
+      <c r="I358" s="30"/>
+    </row>
+    <row r="359" spans="2:9" s="28" customFormat="1">
+      <c r="B359" s="30"/>
+      <c r="I359" s="30"/>
+    </row>
+    <row r="360" spans="2:9" s="28" customFormat="1">
+      <c r="B360" s="30"/>
+      <c r="I360" s="30"/>
+    </row>
+    <row r="361" spans="2:9" s="28" customFormat="1">
+      <c r="B361" s="30"/>
+      <c r="I361" s="30"/>
+    </row>
+    <row r="362" spans="2:9" s="28" customFormat="1">
+      <c r="B362" s="30"/>
+      <c r="I362" s="30"/>
+    </row>
+    <row r="363" spans="2:9" s="28" customFormat="1">
+      <c r="B363" s="30"/>
+      <c r="I363" s="30"/>
+    </row>
+    <row r="364" spans="2:9" s="28" customFormat="1">
+      <c r="B364" s="30"/>
+      <c r="I364" s="30"/>
+    </row>
+    <row r="365" spans="2:9" s="28" customFormat="1">
+      <c r="B365" s="30"/>
+      <c r="I365" s="30"/>
+    </row>
+    <row r="366" spans="2:9" s="28" customFormat="1">
+      <c r="B366" s="30"/>
+      <c r="I366" s="30"/>
+    </row>
+    <row r="367" spans="2:9" s="28" customFormat="1">
+      <c r="B367" s="30"/>
+      <c r="I367" s="30"/>
+    </row>
+    <row r="368" spans="2:9" s="28" customFormat="1">
+      <c r="B368" s="30"/>
+      <c r="I368" s="30"/>
+    </row>
+    <row r="369" spans="2:9" s="28" customFormat="1">
+      <c r="B369" s="30"/>
+      <c r="I369" s="30"/>
+    </row>
+    <row r="370" spans="2:9" s="28" customFormat="1">
+      <c r="B370" s="30"/>
+      <c r="I370" s="30"/>
+    </row>
+    <row r="371" spans="2:9" s="28" customFormat="1">
+      <c r="B371" s="30"/>
+      <c r="I371" s="30"/>
+    </row>
+    <row r="372" spans="2:9" s="28" customFormat="1">
+      <c r="B372" s="30"/>
+      <c r="I372" s="30"/>
+    </row>
+    <row r="373" spans="2:9" s="28" customFormat="1">
+      <c r="B373" s="30"/>
+      <c r="I373" s="30"/>
+    </row>
+    <row r="374" spans="2:9" s="28" customFormat="1">
+      <c r="B374" s="30"/>
+      <c r="I374" s="30"/>
+    </row>
+    <row r="375" spans="2:9" s="28" customFormat="1">
+      <c r="B375" s="30"/>
+      <c r="I375" s="30"/>
+    </row>
+    <row r="376" spans="2:9" s="28" customFormat="1">
+      <c r="B376" s="30"/>
+      <c r="I376" s="30"/>
+    </row>
+    <row r="377" spans="2:9" s="28" customFormat="1">
+      <c r="B377" s="30"/>
+      <c r="I377" s="30"/>
+    </row>
+    <row r="378" spans="2:9" s="28" customFormat="1">
+      <c r="B378" s="30"/>
+      <c r="I378" s="30"/>
+    </row>
+    <row r="379" spans="2:9" s="28" customFormat="1">
+      <c r="B379" s="30"/>
+      <c r="I379" s="30"/>
+    </row>
+    <row r="380" spans="2:9" s="28" customFormat="1">
+      <c r="B380" s="30"/>
+      <c r="I380" s="30"/>
+    </row>
+    <row r="381" spans="2:9" s="28" customFormat="1">
+      <c r="B381" s="30"/>
+      <c r="I381" s="30"/>
+    </row>
+    <row r="382" spans="2:9" s="28" customFormat="1">
+      <c r="B382" s="30"/>
+      <c r="I382" s="30"/>
+    </row>
+    <row r="383" spans="2:9" s="28" customFormat="1">
+      <c r="B383" s="30"/>
+      <c r="I383" s="30"/>
+    </row>
+    <row r="384" spans="2:9" s="28" customFormat="1">
+      <c r="B384" s="30"/>
+      <c r="I384" s="30"/>
+    </row>
+    <row r="385" spans="2:10" s="28" customFormat="1">
+      <c r="B385" s="30"/>
+      <c r="I385" s="30"/>
+    </row>
+    <row r="386" spans="2:10" s="28" customFormat="1">
+      <c r="B386" s="30"/>
+      <c r="I386" s="30"/>
+    </row>
+    <row r="387" spans="2:10" s="28" customFormat="1">
+      <c r="B387" s="30"/>
+      <c r="I387" s="30"/>
+    </row>
+    <row r="388" spans="2:10" s="28" customFormat="1">
+      <c r="B388" s="30"/>
+      <c r="I388" s="30"/>
+    </row>
+    <row r="389" spans="2:10" s="28" customFormat="1">
+      <c r="B389" s="30"/>
+      <c r="I389" s="30"/>
+    </row>
+    <row r="390" spans="2:10" s="28" customFormat="1">
+      <c r="B390" s="30"/>
+      <c r="I390" s="30"/>
+    </row>
+    <row r="391" spans="2:10" s="28" customFormat="1">
+      <c r="B391" s="30"/>
+      <c r="I391" s="30"/>
+    </row>
+    <row r="392" spans="2:10" s="28" customFormat="1">
+      <c r="B392" s="30"/>
+      <c r="I392" s="30"/>
+    </row>
+    <row r="393" spans="2:10">
+      <c r="B393" s="30"/>
+      <c r="C393" s="28"/>
+      <c r="D393" s="28"/>
+      <c r="E393" s="28"/>
+      <c r="F393" s="28"/>
+      <c r="G393" s="28"/>
+      <c r="H393" s="28"/>
+      <c r="I393" s="30"/>
+      <c r="J393" s="28"/>
+    </row>
+    <row r="394" spans="2:10">
+      <c r="B394" s="30"/>
+      <c r="C394" s="28"/>
+      <c r="D394" s="28"/>
+      <c r="E394" s="28"/>
+      <c r="F394" s="28"/>
+      <c r="G394" s="28"/>
+      <c r="H394" s="28"/>
+      <c r="I394" s="30"/>
+      <c r="J394" s="28"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K79">
+      <formula1>'cuentas de e-mail'!$C$10:$C$11</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I79">
+      <formula1>'cuentas de e-mail'!$B$10:$B$11</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doc/Casos de Prueba GSIAM.xlsx
+++ b/doc/Casos de Prueba GSIAM.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="6795" windowHeight="7740" tabRatio="586" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="6795" windowHeight="7740" tabRatio="586" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="8" r:id="rId1"/>
     <sheet name="1er it - CP - dd-mm-yyyy" sheetId="12" r:id="rId2"/>
     <sheet name="Escala Impacto" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="2da it - CP - dd-mm-yyyy" sheetId="14" r:id="rId4"/>
-    <sheet name="Revision Final - dd-mm-yyyy" sheetId="15" r:id="rId5"/>
-    <sheet name="cuentas de e-mail" sheetId="13" r:id="rId6"/>
+    <sheet name="3da it - CP - dd-mm-yyyy" sheetId="16" r:id="rId5"/>
+    <sheet name="Revision Final - dd-mm-yyyy" sheetId="15" r:id="rId6"/>
+    <sheet name="cuentas de e-mail" sheetId="13" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1er it - CP - dd-mm-yyyy'!$A$3:$K$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1er it - CP - dd-mm-yyyy'!$A$3:$K$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2da it - CP - dd-mm-yyyy'!$A$3:$K$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3da it - CP - dd-mm-yyyy'!$A$3:$K$3</definedName>
     <definedName name="acciones">#REF!</definedName>
     <definedName name="Clasificacion">#REF!</definedName>
     <definedName name="ClasificacionRiesgos">#REF!</definedName>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="430">
   <si>
     <t>Alcance</t>
   </si>
@@ -2936,6 +2939,9 @@
   </si>
   <si>
     <t>El sistema no debe permitir el ingreso de los caracteres que excedan el máximo (nombre= 30, email= 30 y contraseña= 20).</t>
+  </si>
+  <si>
+    <t>Validación</t>
   </si>
 </sst>
 </file>
@@ -7798,11 +7804,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A2:K394"/>
+  <dimension ref="A2:L384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B4:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -7816,12 +7822,13 @@
     <col min="7" max="7" width="27.42578125" style="24" customWidth="1"/>
     <col min="8" max="8" width="28.85546875" style="24" customWidth="1"/>
     <col min="9" max="9" width="14.140625" style="26" customWidth="1"/>
-    <col min="10" max="10" width="30" style="24" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" style="24" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" style="24" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="24"/>
+    <col min="12" max="12" width="16.42578125" style="24" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="24"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="18" customHeight="1">
+    <row r="2" spans="1:12" ht="18" customHeight="1">
       <c r="B2" s="23" t="s">
         <v>123</v>
       </c>
@@ -7830,7 +7837,7 @@
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
     </row>
-    <row r="3" spans="1:11" s="26" customFormat="1" ht="37.5">
+    <row r="3" spans="1:12" s="26" customFormat="1" ht="37.5">
       <c r="B3" s="20" t="s">
         <v>34</v>
       </c>
@@ -7861,8 +7868,11 @@
       <c r="K3" s="20" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="76.5">
+      <c r="L3" s="20" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="76.5">
       <c r="A4" s="27"/>
       <c r="B4" s="16" t="s">
         <v>57</v>
@@ -7892,8 +7902,9 @@
       <c r="K4" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="38.25">
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="1:12" ht="38.25">
       <c r="A5" s="27"/>
       <c r="B5" s="16" t="s">
         <v>57</v>
@@ -7921,8 +7932,9 @@
       <c r="K5" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="38.25">
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="1:12" ht="38.25">
       <c r="A6" s="27"/>
       <c r="B6" s="16" t="s">
         <v>57</v>
@@ -7952,8 +7964,9 @@
       <c r="K6" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" s="28" customFormat="1" ht="63.75">
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:12" s="28" customFormat="1" ht="76.5">
       <c r="A7" s="27"/>
       <c r="B7" s="16" t="s">
         <v>57</v>
@@ -7983,8 +7996,9 @@
       <c r="K7" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" s="28" customFormat="1" ht="25.5">
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" s="28" customFormat="1" ht="25.5">
       <c r="A8" s="27"/>
       <c r="B8" s="16" t="s">
         <v>57</v>
@@ -8012,8 +8026,9 @@
       <c r="K8" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" s="28" customFormat="1" ht="63.75">
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="1:12" s="28" customFormat="1" ht="63.75">
       <c r="A9" s="27"/>
       <c r="B9" s="16" t="s">
         <v>57</v>
@@ -8043,8 +8058,9 @@
       <c r="K9" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" s="28" customFormat="1" ht="38.25">
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:12" s="28" customFormat="1" ht="38.25">
       <c r="A10" s="27"/>
       <c r="B10" s="18" t="s">
         <v>71</v>
@@ -8074,8 +8090,9 @@
       <c r="K10" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="28" customFormat="1" ht="76.5">
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="1:12" s="28" customFormat="1" ht="76.5">
       <c r="A11" s="27"/>
       <c r="B11" s="18" t="s">
         <v>71</v>
@@ -8105,8 +8122,9 @@
       <c r="K11" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" s="28" customFormat="1" ht="38.25">
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="1:12" s="28" customFormat="1" ht="38.25">
       <c r="A12" s="27"/>
       <c r="B12" s="18" t="s">
         <v>71</v>
@@ -8134,8 +8152,9 @@
       <c r="K12" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" s="28" customFormat="1" ht="38.25">
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="1:12" s="28" customFormat="1" ht="38.25">
       <c r="A13" s="27"/>
       <c r="B13" s="18" t="s">
         <v>71</v>
@@ -8163,8 +8182,9 @@
       <c r="K13" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="28" customFormat="1" ht="89.25">
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" spans="1:12" s="28" customFormat="1" ht="89.25">
       <c r="A14" s="27"/>
       <c r="B14" s="18" t="s">
         <v>71</v>
@@ -8194,8 +8214,9 @@
       <c r="K14" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="28" customFormat="1" ht="38.25">
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" spans="1:12" s="28" customFormat="1" ht="38.25">
       <c r="A15" s="27"/>
       <c r="B15" s="18" t="s">
         <v>71</v>
@@ -8227,8 +8248,9 @@
       <c r="K15" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" s="28" customFormat="1" ht="38.25">
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="1:12" s="28" customFormat="1" ht="38.25">
       <c r="A16" s="27"/>
       <c r="B16" s="18" t="s">
         <v>85</v>
@@ -8258,8 +8280,10 @@
       <c r="K16" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" s="28" customFormat="1" ht="89.25">
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="1:12" s="28" customFormat="1" ht="89.25">
+      <c r="A17" s="27"/>
       <c r="B17" s="18" t="s">
         <v>111</v>
       </c>
@@ -8288,8 +8312,10 @@
       <c r="K17" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" s="28" customFormat="1" ht="89.25">
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="1:12" s="28" customFormat="1" ht="89.25">
+      <c r="A18" s="27"/>
       <c r="B18" s="18" t="s">
         <v>111</v>
       </c>
@@ -8318,8 +8344,10 @@
       <c r="K18" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" s="28" customFormat="1" ht="76.5">
+      <c r="L18" s="19"/>
+    </row>
+    <row r="19" spans="1:12" s="28" customFormat="1" ht="76.5">
+      <c r="A19" s="27"/>
       <c r="B19" s="18" t="s">
         <v>111</v>
       </c>
@@ -8348,8 +8376,10 @@
       <c r="K19" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" s="28" customFormat="1" ht="25.5">
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="1:12" s="28" customFormat="1" ht="25.5">
+      <c r="A20" s="27"/>
       <c r="B20" s="18" t="s">
         <v>111</v>
       </c>
@@ -8376,8 +8406,10 @@
       <c r="K20" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" s="28" customFormat="1" ht="38.25">
+      <c r="L20" s="19"/>
+    </row>
+    <row r="21" spans="1:12" s="28" customFormat="1" ht="38.25">
+      <c r="A21" s="27"/>
       <c r="B21" s="18" t="s">
         <v>111</v>
       </c>
@@ -8404,970 +8436,513 @@
       <c r="K21" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="L21" s="19"/>
+    </row>
+    <row r="22" spans="1:12" s="28" customFormat="1" ht="127.5">
       <c r="B22" s="18" t="s">
-        <v>129</v>
+        <v>203</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>135</v>
+        <v>251</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>137</v>
+        <v>352</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="19" t="s">
-        <v>139</v>
+      <c r="H22" s="17" t="s">
+        <v>353</v>
       </c>
       <c r="I22" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="1:12" s="28" customFormat="1" ht="76.5">
+      <c r="B23" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="1:12" s="28" customFormat="1" ht="63.75">
+      <c r="B24" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="1:12" s="29" customFormat="1" ht="51">
+      <c r="B25" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="I25" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="J22" s="19"/>
-      <c r="K22" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" s="28" customFormat="1" ht="51">
-      <c r="B23" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="G23" s="19" t="s">
+      <c r="J25" s="16"/>
+      <c r="K25" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" s="17"/>
+    </row>
+    <row r="26" spans="1:12" s="28" customFormat="1" ht="38.25">
+      <c r="B26" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="G26" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H23" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" s="28" customFormat="1" ht="51">
-      <c r="B24" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J24" s="19"/>
-      <c r="K24" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" s="28" customFormat="1" ht="127.5">
-      <c r="B25" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="I25" s="16" t="s">
+      <c r="H26" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="I26" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="J25" s="19" t="s">
-        <v>402</v>
-      </c>
-      <c r="K25" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" s="28" customFormat="1" ht="38.25">
-      <c r="B26" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J26" s="19"/>
+      <c r="J26" s="16" t="s">
+        <v>407</v>
+      </c>
       <c r="K26" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" s="28" customFormat="1" ht="51">
+        <v>55</v>
+      </c>
+      <c r="L26" s="17"/>
+    </row>
+    <row r="27" spans="1:12" s="28" customFormat="1" ht="153">
       <c r="B27" s="18" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>147</v>
+        <v>210</v>
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>329</v>
+        <v>213</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>214</v>
       </c>
       <c r="I27" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" s="17"/>
+    </row>
+    <row r="28" spans="1:12" s="28" customFormat="1" ht="153">
+      <c r="B28" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="J27" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" s="28" customFormat="1" ht="89.25">
-      <c r="B28" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J28" s="17" t="s">
-        <v>390</v>
-      </c>
+      <c r="J28" s="16"/>
       <c r="K28" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" s="28" customFormat="1" ht="89.25">
+        <v>55</v>
+      </c>
+      <c r="L28" s="17"/>
+    </row>
+    <row r="29" spans="1:12" s="28" customFormat="1" ht="165.75">
       <c r="B29" s="18" t="s">
-        <v>154</v>
+        <v>209</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>332</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="E29" s="19"/>
       <c r="F29" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>99</v>
+        <v>215</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>164</v>
+        <v>361</v>
       </c>
       <c r="I29" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="J29" s="17" t="s">
-        <v>390</v>
+      <c r="J29" s="16" t="s">
+        <v>409</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" s="28" customFormat="1" ht="89.25">
+        <v>55</v>
+      </c>
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" spans="1:12" s="28" customFormat="1" ht="25.5">
       <c r="B30" s="18" t="s">
-        <v>154</v>
+        <v>236</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>161</v>
+        <v>260</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>330</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="E30" s="19"/>
       <c r="F30" s="19" t="s">
-        <v>165</v>
+        <v>269</v>
       </c>
       <c r="G30" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>166</v>
+        <v>371</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J30" s="17" t="s">
-        <v>388</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="J30" s="16"/>
       <c r="K30" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" s="28" customFormat="1" ht="51">
+        <v>55</v>
+      </c>
+      <c r="L30" s="17"/>
+    </row>
+    <row r="31" spans="1:12" s="28" customFormat="1" ht="63.75">
       <c r="B31" s="18" t="s">
-        <v>154</v>
+        <v>236</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>333</v>
+        <v>261</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>158</v>
+        <v>238</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="19" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="G31" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>334</v>
+        <v>271</v>
       </c>
       <c r="I31" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L31" s="17"/>
+    </row>
+    <row r="32" spans="1:12" s="28" customFormat="1" ht="51">
+      <c r="B32" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="I32" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="J31" s="19"/>
-      <c r="K31" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" s="28" customFormat="1" ht="127.5">
-      <c r="B32" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J32" s="17" t="s">
-        <v>405</v>
-      </c>
+      <c r="J32" s="16"/>
       <c r="K32" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" s="28" customFormat="1" ht="76.5">
+      <c r="L32" s="17"/>
+    </row>
+    <row r="33" spans="2:12" s="28" customFormat="1" ht="76.5">
       <c r="B33" s="18" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>252</v>
+        <v>374</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>254</v>
+        <v>99</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>375</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J33" s="17" t="s">
-        <v>406</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="J33" s="17"/>
       <c r="K33" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" s="28" customFormat="1" ht="63.75">
-      <c r="B34" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>257</v>
+      <c r="L33" s="17"/>
+    </row>
+    <row r="34" spans="2:12" s="28" customFormat="1" ht="51">
+      <c r="B34" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>258</v>
+        <v>377</v>
       </c>
       <c r="I34" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="J34" s="16" t="s">
-        <v>417</v>
+      <c r="J34" s="17" t="s">
+        <v>416</v>
       </c>
       <c r="K34" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" s="29" customFormat="1" ht="51">
-      <c r="B35" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="I35" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J35" s="16"/>
-      <c r="K35" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" s="28" customFormat="1" ht="38.25">
-      <c r="B36" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="I36" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J36" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="K36" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" s="28" customFormat="1" ht="153">
-      <c r="B37" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J37" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="K37" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" s="28" customFormat="1" ht="153">
-      <c r="B38" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I38" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J38" s="16"/>
-      <c r="K38" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" s="28" customFormat="1" ht="165.75">
-      <c r="B39" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="G39" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="I39" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J39" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="K39" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" s="28" customFormat="1" ht="25.5">
-      <c r="B40" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="I40" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J40" s="16"/>
-      <c r="K40" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" s="28" customFormat="1" ht="51">
-      <c r="B41" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="I41" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J41" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="K41" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" s="28" customFormat="1" ht="51">
-      <c r="B42" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="I42" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J42" s="16"/>
-      <c r="K42" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" s="28" customFormat="1" ht="76.5">
-      <c r="B43" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="I43" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" s="28" customFormat="1" ht="51">
-      <c r="B44" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H44" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="I44" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J44" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="K44" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" s="28" customFormat="1" ht="51">
-      <c r="B45" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="H45" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="I45" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J45" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="K45" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" s="28" customFormat="1" ht="114.75">
-      <c r="B46" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="H46" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="I46" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J46" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="K46" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" s="28" customFormat="1" ht="114.75">
-      <c r="B47" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="H47" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="I47" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" s="28" customFormat="1" ht="102">
-      <c r="B48" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="H48" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I48" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J48" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="K48" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" s="28" customFormat="1" ht="76.5">
-      <c r="B49" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="H49" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I49" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J49" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="K49" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" s="28" customFormat="1" ht="63.75">
-      <c r="B50" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="H50" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="I50" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J50" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="K50" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" s="28" customFormat="1" ht="51">
-      <c r="B51" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H51" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="I51" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J51" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="K51" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" s="28" customFormat="1">
+      <c r="L34" s="17"/>
+    </row>
+    <row r="35" spans="2:12" s="28" customFormat="1"/>
+    <row r="36" spans="2:12" s="28" customFormat="1"/>
+    <row r="37" spans="2:12" s="28" customFormat="1"/>
+    <row r="38" spans="2:12" s="28" customFormat="1"/>
+    <row r="39" spans="2:12" s="28" customFormat="1"/>
+    <row r="40" spans="2:12" s="28" customFormat="1"/>
+    <row r="41" spans="2:12" s="28" customFormat="1"/>
+    <row r="42" spans="2:12" s="28" customFormat="1">
+      <c r="B42" s="30"/>
+      <c r="I42" s="30"/>
+    </row>
+    <row r="43" spans="2:12" s="28" customFormat="1">
+      <c r="B43" s="30"/>
+      <c r="I43" s="30"/>
+    </row>
+    <row r="44" spans="2:12" s="28" customFormat="1">
+      <c r="B44" s="30"/>
+      <c r="I44" s="30"/>
+    </row>
+    <row r="45" spans="2:12" s="28" customFormat="1">
+      <c r="B45" s="30"/>
+      <c r="I45" s="30"/>
+    </row>
+    <row r="46" spans="2:12" s="28" customFormat="1">
+      <c r="B46" s="30"/>
+      <c r="I46" s="30"/>
+    </row>
+    <row r="47" spans="2:12" s="28" customFormat="1">
+      <c r="B47" s="30"/>
+      <c r="I47" s="30"/>
+    </row>
+    <row r="48" spans="2:12" s="28" customFormat="1">
+      <c r="B48" s="30"/>
+      <c r="I48" s="30"/>
+    </row>
+    <row r="49" spans="2:9" s="28" customFormat="1">
+      <c r="B49" s="30"/>
+      <c r="I49" s="30"/>
+    </row>
+    <row r="50" spans="2:9" s="28" customFormat="1">
+      <c r="B50" s="30"/>
+      <c r="I50" s="30"/>
+    </row>
+    <row r="51" spans="2:9" s="28" customFormat="1">
+      <c r="B51" s="30"/>
+      <c r="I51" s="30"/>
+    </row>
+    <row r="52" spans="2:9" s="28" customFormat="1">
       <c r="B52" s="30"/>
       <c r="I52" s="30"/>
     </row>
-    <row r="53" spans="2:11" s="28" customFormat="1">
+    <row r="53" spans="2:9" s="28" customFormat="1">
       <c r="B53" s="30"/>
       <c r="I53" s="30"/>
     </row>
-    <row r="54" spans="2:11" s="28" customFormat="1">
+    <row r="54" spans="2:9" s="28" customFormat="1">
       <c r="B54" s="30"/>
       <c r="I54" s="30"/>
     </row>
-    <row r="55" spans="2:11" s="28" customFormat="1">
+    <row r="55" spans="2:9" s="28" customFormat="1">
       <c r="B55" s="30"/>
       <c r="I55" s="30"/>
     </row>
-    <row r="56" spans="2:11" s="28" customFormat="1">
+    <row r="56" spans="2:9" s="28" customFormat="1">
       <c r="B56" s="30"/>
       <c r="I56" s="30"/>
     </row>
-    <row r="57" spans="2:11" s="28" customFormat="1">
+    <row r="57" spans="2:9" s="28" customFormat="1">
       <c r="B57" s="30"/>
       <c r="I57" s="30"/>
     </row>
-    <row r="58" spans="2:11" s="28" customFormat="1">
+    <row r="58" spans="2:9" s="28" customFormat="1">
       <c r="B58" s="30"/>
       <c r="I58" s="30"/>
     </row>
-    <row r="59" spans="2:11" s="28" customFormat="1">
+    <row r="59" spans="2:9" s="28" customFormat="1">
       <c r="B59" s="30"/>
       <c r="I59" s="30"/>
     </row>
-    <row r="60" spans="2:11" s="28" customFormat="1">
+    <row r="60" spans="2:9" s="28" customFormat="1">
       <c r="B60" s="30"/>
       <c r="I60" s="30"/>
     </row>
-    <row r="61" spans="2:11" s="28" customFormat="1">
+    <row r="61" spans="2:9" s="28" customFormat="1">
       <c r="B61" s="30"/>
       <c r="I61" s="30"/>
     </row>
-    <row r="62" spans="2:11" s="28" customFormat="1">
+    <row r="62" spans="2:9" s="28" customFormat="1">
       <c r="B62" s="30"/>
       <c r="I62" s="30"/>
     </row>
-    <row r="63" spans="2:11" s="28" customFormat="1">
+    <row r="63" spans="2:9" s="28" customFormat="1">
       <c r="B63" s="30"/>
       <c r="I63" s="30"/>
     </row>
-    <row r="64" spans="2:11" s="28" customFormat="1">
+    <row r="64" spans="2:9" s="28" customFormat="1">
       <c r="B64" s="30"/>
       <c r="I64" s="30"/>
     </row>
@@ -10587,134 +10162,91 @@
       <c r="B368" s="30"/>
       <c r="I368" s="30"/>
     </row>
-    <row r="369" spans="2:9" s="28" customFormat="1">
+    <row r="369" spans="2:10" s="28" customFormat="1">
       <c r="B369" s="30"/>
       <c r="I369" s="30"/>
     </row>
-    <row r="370" spans="2:9" s="28" customFormat="1">
+    <row r="370" spans="2:10" s="28" customFormat="1">
       <c r="B370" s="30"/>
       <c r="I370" s="30"/>
     </row>
-    <row r="371" spans="2:9" s="28" customFormat="1">
+    <row r="371" spans="2:10" s="28" customFormat="1">
       <c r="B371" s="30"/>
       <c r="I371" s="30"/>
     </row>
-    <row r="372" spans="2:9" s="28" customFormat="1">
+    <row r="372" spans="2:10" s="28" customFormat="1">
       <c r="B372" s="30"/>
       <c r="I372" s="30"/>
     </row>
-    <row r="373" spans="2:9" s="28" customFormat="1">
+    <row r="373" spans="2:10" s="28" customFormat="1">
       <c r="B373" s="30"/>
       <c r="I373" s="30"/>
     </row>
-    <row r="374" spans="2:9" s="28" customFormat="1">
+    <row r="374" spans="2:10" s="28" customFormat="1">
       <c r="B374" s="30"/>
       <c r="I374" s="30"/>
     </row>
-    <row r="375" spans="2:9" s="28" customFormat="1">
+    <row r="375" spans="2:10" s="28" customFormat="1">
       <c r="B375" s="30"/>
       <c r="I375" s="30"/>
     </row>
-    <row r="376" spans="2:9" s="28" customFormat="1">
+    <row r="376" spans="2:10" s="28" customFormat="1">
       <c r="B376" s="30"/>
       <c r="I376" s="30"/>
     </row>
-    <row r="377" spans="2:9" s="28" customFormat="1">
+    <row r="377" spans="2:10" s="28" customFormat="1">
       <c r="B377" s="30"/>
       <c r="I377" s="30"/>
     </row>
-    <row r="378" spans="2:9" s="28" customFormat="1">
+    <row r="378" spans="2:10" s="28" customFormat="1">
       <c r="B378" s="30"/>
       <c r="I378" s="30"/>
     </row>
-    <row r="379" spans="2:9" s="28" customFormat="1">
+    <row r="379" spans="2:10" s="28" customFormat="1">
       <c r="B379" s="30"/>
       <c r="I379" s="30"/>
     </row>
-    <row r="380" spans="2:9" s="28" customFormat="1">
+    <row r="380" spans="2:10" s="28" customFormat="1">
       <c r="B380" s="30"/>
       <c r="I380" s="30"/>
     </row>
-    <row r="381" spans="2:9" s="28" customFormat="1">
+    <row r="381" spans="2:10" s="28" customFormat="1">
       <c r="B381" s="30"/>
       <c r="I381" s="30"/>
     </row>
-    <row r="382" spans="2:9" s="28" customFormat="1">
+    <row r="382" spans="2:10" s="28" customFormat="1">
       <c r="B382" s="30"/>
       <c r="I382" s="30"/>
     </row>
-    <row r="383" spans="2:9" s="28" customFormat="1">
+    <row r="383" spans="2:10">
       <c r="B383" s="30"/>
+      <c r="C383" s="28"/>
+      <c r="D383" s="28"/>
+      <c r="E383" s="28"/>
+      <c r="F383" s="28"/>
+      <c r="G383" s="28"/>
+      <c r="H383" s="28"/>
       <c r="I383" s="30"/>
-    </row>
-    <row r="384" spans="2:9" s="28" customFormat="1">
+      <c r="J383" s="28"/>
+    </row>
+    <row r="384" spans="2:10">
       <c r="B384" s="30"/>
+      <c r="C384" s="28"/>
+      <c r="D384" s="28"/>
+      <c r="E384" s="28"/>
+      <c r="F384" s="28"/>
+      <c r="G384" s="28"/>
+      <c r="H384" s="28"/>
       <c r="I384" s="30"/>
-    </row>
-    <row r="385" spans="2:10" s="28" customFormat="1">
-      <c r="B385" s="30"/>
-      <c r="I385" s="30"/>
-    </row>
-    <row r="386" spans="2:10" s="28" customFormat="1">
-      <c r="B386" s="30"/>
-      <c r="I386" s="30"/>
-    </row>
-    <row r="387" spans="2:10" s="28" customFormat="1">
-      <c r="B387" s="30"/>
-      <c r="I387" s="30"/>
-    </row>
-    <row r="388" spans="2:10" s="28" customFormat="1">
-      <c r="B388" s="30"/>
-      <c r="I388" s="30"/>
-    </row>
-    <row r="389" spans="2:10" s="28" customFormat="1">
-      <c r="B389" s="30"/>
-      <c r="I389" s="30"/>
-    </row>
-    <row r="390" spans="2:10" s="28" customFormat="1">
-      <c r="B390" s="30"/>
-      <c r="I390" s="30"/>
-    </row>
-    <row r="391" spans="2:10" s="28" customFormat="1">
-      <c r="B391" s="30"/>
-      <c r="I391" s="30"/>
-    </row>
-    <row r="392" spans="2:10" s="28" customFormat="1">
-      <c r="B392" s="30"/>
-      <c r="I392" s="30"/>
-    </row>
-    <row r="393" spans="2:10">
-      <c r="B393" s="30"/>
-      <c r="C393" s="28"/>
-      <c r="D393" s="28"/>
-      <c r="E393" s="28"/>
-      <c r="F393" s="28"/>
-      <c r="G393" s="28"/>
-      <c r="H393" s="28"/>
-      <c r="I393" s="30"/>
-      <c r="J393" s="28"/>
-    </row>
-    <row r="394" spans="2:10">
-      <c r="B394" s="30"/>
-      <c r="C394" s="28"/>
-      <c r="D394" s="28"/>
-      <c r="E394" s="28"/>
-      <c r="F394" s="28"/>
-      <c r="G394" s="28"/>
-      <c r="H394" s="28"/>
-      <c r="I394" s="30"/>
-      <c r="J394" s="28"/>
+      <c r="J384" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:K51">
-    <filterColumn colId="10"/>
-  </autoFilter>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I34">
       <formula1>'cuentas de e-mail'!$B$10:$B$11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K34">
       <formula1>'cuentas de e-mail'!$C$10:$C$11</formula1>
     </dataValidation>
   </dataValidations>
@@ -10865,10 +10397,2152 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K374"/>
+  <dimension ref="B2:L363"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:K31"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="1.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9" style="24" customWidth="1"/>
+    <col min="5" max="5" width="12" style="24" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="26" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" style="24" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="24" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="24" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="18" customHeight="1">
+      <c r="B2" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="2:12" s="26" customFormat="1" ht="37.5">
+      <c r="B3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" s="28" customFormat="1" ht="51">
+      <c r="B4" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="2:12" s="28" customFormat="1" ht="51">
+      <c r="B5" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="2:12" s="28" customFormat="1" ht="51">
+      <c r="B6" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" spans="2:12" s="28" customFormat="1" ht="127.5">
+      <c r="B7" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="2:12" s="28" customFormat="1" ht="38.25">
+      <c r="B8" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" spans="2:12" s="28" customFormat="1" ht="51">
+      <c r="B9" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="2:12" s="28" customFormat="1" ht="89.25">
+      <c r="B10" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" spans="2:12" s="28" customFormat="1" ht="89.25">
+      <c r="B11" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="2:12" s="28" customFormat="1" ht="89.25">
+      <c r="B12" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="19"/>
+    </row>
+    <row r="13" spans="2:12" s="28" customFormat="1" ht="51">
+      <c r="B13" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="2:12" s="28" customFormat="1" ht="38.25">
+      <c r="B14" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" spans="2:12" s="28" customFormat="1" ht="63.75">
+      <c r="B15" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="2:12" s="28" customFormat="1" ht="25.5">
+      <c r="B16" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="19"/>
+    </row>
+    <row r="17" spans="2:12" s="28" customFormat="1" ht="318.75">
+      <c r="B17" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="2:12" s="28" customFormat="1" ht="25.5">
+      <c r="B18" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" s="19"/>
+    </row>
+    <row r="19" spans="2:12" s="28" customFormat="1" ht="25.5">
+      <c r="B19" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="2:12" s="28" customFormat="1" ht="25.5">
+      <c r="B20" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" s="19"/>
+    </row>
+    <row r="21" spans="2:12" s="28" customFormat="1" ht="51">
+      <c r="B21" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="2:12" s="28" customFormat="1" ht="114.75">
+      <c r="B22" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="2:12" s="28" customFormat="1" ht="114.75">
+      <c r="B23" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="2:12" s="28" customFormat="1" ht="114.75">
+      <c r="B24" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="2:12" s="28" customFormat="1" ht="76.5">
+      <c r="B25" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" s="17"/>
+    </row>
+    <row r="26" spans="2:12" s="28" customFormat="1" ht="63.75">
+      <c r="B26" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L26" s="17"/>
+    </row>
+    <row r="27" spans="2:12" s="28" customFormat="1" ht="51">
+      <c r="B27" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" s="17"/>
+    </row>
+    <row r="28" spans="2:12" s="28" customFormat="1">
+      <c r="B28" s="30"/>
+      <c r="I28" s="30"/>
+    </row>
+    <row r="29" spans="2:12" s="28" customFormat="1"/>
+    <row r="30" spans="2:12" s="28" customFormat="1"/>
+    <row r="31" spans="2:12" s="28" customFormat="1"/>
+    <row r="32" spans="2:12" s="28" customFormat="1"/>
+    <row r="33" spans="2:9" s="28" customFormat="1"/>
+    <row r="34" spans="2:9" s="28" customFormat="1"/>
+    <row r="35" spans="2:9" s="28" customFormat="1"/>
+    <row r="36" spans="2:9" s="28" customFormat="1"/>
+    <row r="37" spans="2:9" s="28" customFormat="1"/>
+    <row r="38" spans="2:9" s="28" customFormat="1"/>
+    <row r="39" spans="2:9" s="28" customFormat="1"/>
+    <row r="40" spans="2:9" s="28" customFormat="1"/>
+    <row r="41" spans="2:9" s="28" customFormat="1"/>
+    <row r="42" spans="2:9" s="28" customFormat="1"/>
+    <row r="43" spans="2:9" s="28" customFormat="1"/>
+    <row r="44" spans="2:9" s="28" customFormat="1">
+      <c r="B44" s="30"/>
+      <c r="I44" s="30"/>
+    </row>
+    <row r="45" spans="2:9" s="28" customFormat="1">
+      <c r="B45" s="30"/>
+      <c r="I45" s="30"/>
+    </row>
+    <row r="46" spans="2:9" s="28" customFormat="1">
+      <c r="B46" s="30"/>
+      <c r="I46" s="30"/>
+    </row>
+    <row r="47" spans="2:9" s="28" customFormat="1">
+      <c r="B47" s="30"/>
+      <c r="I47" s="30"/>
+    </row>
+    <row r="48" spans="2:9" s="28" customFormat="1">
+      <c r="B48" s="30"/>
+      <c r="I48" s="30"/>
+    </row>
+    <row r="49" spans="2:9" s="28" customFormat="1">
+      <c r="B49" s="30"/>
+      <c r="I49" s="30"/>
+    </row>
+    <row r="50" spans="2:9" s="28" customFormat="1">
+      <c r="B50" s="30"/>
+      <c r="I50" s="30"/>
+    </row>
+    <row r="51" spans="2:9" s="28" customFormat="1">
+      <c r="B51" s="30"/>
+      <c r="I51" s="30"/>
+    </row>
+    <row r="52" spans="2:9" s="28" customFormat="1">
+      <c r="B52" s="30"/>
+      <c r="I52" s="30"/>
+    </row>
+    <row r="53" spans="2:9" s="28" customFormat="1">
+      <c r="B53" s="30"/>
+      <c r="I53" s="30"/>
+    </row>
+    <row r="54" spans="2:9" s="28" customFormat="1">
+      <c r="B54" s="30"/>
+      <c r="I54" s="30"/>
+    </row>
+    <row r="55" spans="2:9" s="28" customFormat="1">
+      <c r="B55" s="30"/>
+      <c r="I55" s="30"/>
+    </row>
+    <row r="56" spans="2:9" s="28" customFormat="1">
+      <c r="B56" s="30"/>
+      <c r="I56" s="30"/>
+    </row>
+    <row r="57" spans="2:9" s="28" customFormat="1">
+      <c r="B57" s="30"/>
+      <c r="I57" s="30"/>
+    </row>
+    <row r="58" spans="2:9" s="28" customFormat="1">
+      <c r="B58" s="30"/>
+      <c r="I58" s="30"/>
+    </row>
+    <row r="59" spans="2:9" s="28" customFormat="1">
+      <c r="B59" s="30"/>
+      <c r="I59" s="30"/>
+    </row>
+    <row r="60" spans="2:9" s="28" customFormat="1">
+      <c r="B60" s="30"/>
+      <c r="I60" s="30"/>
+    </row>
+    <row r="61" spans="2:9" s="28" customFormat="1">
+      <c r="B61" s="30"/>
+      <c r="I61" s="30"/>
+    </row>
+    <row r="62" spans="2:9" s="28" customFormat="1">
+      <c r="B62" s="30"/>
+      <c r="I62" s="30"/>
+    </row>
+    <row r="63" spans="2:9" s="28" customFormat="1">
+      <c r="B63" s="30"/>
+      <c r="I63" s="30"/>
+    </row>
+    <row r="64" spans="2:9" s="28" customFormat="1">
+      <c r="B64" s="30"/>
+      <c r="I64" s="30"/>
+    </row>
+    <row r="65" spans="2:9" s="28" customFormat="1">
+      <c r="B65" s="30"/>
+      <c r="I65" s="30"/>
+    </row>
+    <row r="66" spans="2:9" s="28" customFormat="1">
+      <c r="B66" s="30"/>
+      <c r="I66" s="30"/>
+    </row>
+    <row r="67" spans="2:9" s="28" customFormat="1">
+      <c r="B67" s="30"/>
+      <c r="I67" s="30"/>
+    </row>
+    <row r="68" spans="2:9" s="28" customFormat="1">
+      <c r="B68" s="30"/>
+      <c r="I68" s="30"/>
+    </row>
+    <row r="69" spans="2:9" s="28" customFormat="1">
+      <c r="B69" s="30"/>
+      <c r="I69" s="30"/>
+    </row>
+    <row r="70" spans="2:9" s="28" customFormat="1">
+      <c r="B70" s="30"/>
+      <c r="I70" s="30"/>
+    </row>
+    <row r="71" spans="2:9" s="28" customFormat="1">
+      <c r="B71" s="30"/>
+      <c r="I71" s="30"/>
+    </row>
+    <row r="72" spans="2:9" s="28" customFormat="1">
+      <c r="B72" s="30"/>
+      <c r="I72" s="30"/>
+    </row>
+    <row r="73" spans="2:9" s="28" customFormat="1">
+      <c r="B73" s="30"/>
+      <c r="I73" s="30"/>
+    </row>
+    <row r="74" spans="2:9" s="28" customFormat="1">
+      <c r="B74" s="30"/>
+      <c r="I74" s="30"/>
+    </row>
+    <row r="75" spans="2:9" s="28" customFormat="1">
+      <c r="B75" s="30"/>
+      <c r="I75" s="30"/>
+    </row>
+    <row r="76" spans="2:9" s="28" customFormat="1">
+      <c r="B76" s="30"/>
+      <c r="I76" s="30"/>
+    </row>
+    <row r="77" spans="2:9" s="28" customFormat="1">
+      <c r="B77" s="30"/>
+      <c r="I77" s="30"/>
+    </row>
+    <row r="78" spans="2:9" s="28" customFormat="1">
+      <c r="B78" s="30"/>
+      <c r="I78" s="30"/>
+    </row>
+    <row r="79" spans="2:9" s="28" customFormat="1">
+      <c r="B79" s="30"/>
+      <c r="I79" s="30"/>
+    </row>
+    <row r="80" spans="2:9" s="28" customFormat="1">
+      <c r="B80" s="30"/>
+      <c r="I80" s="30"/>
+    </row>
+    <row r="81" spans="2:9" s="28" customFormat="1">
+      <c r="B81" s="30"/>
+      <c r="I81" s="30"/>
+    </row>
+    <row r="82" spans="2:9" s="28" customFormat="1">
+      <c r="B82" s="30"/>
+      <c r="I82" s="30"/>
+    </row>
+    <row r="83" spans="2:9" s="28" customFormat="1">
+      <c r="B83" s="30"/>
+      <c r="I83" s="30"/>
+    </row>
+    <row r="84" spans="2:9" s="28" customFormat="1">
+      <c r="B84" s="30"/>
+      <c r="I84" s="30"/>
+    </row>
+    <row r="85" spans="2:9" s="28" customFormat="1">
+      <c r="B85" s="30"/>
+      <c r="I85" s="30"/>
+    </row>
+    <row r="86" spans="2:9" s="28" customFormat="1">
+      <c r="B86" s="30"/>
+      <c r="I86" s="30"/>
+    </row>
+    <row r="87" spans="2:9" s="28" customFormat="1">
+      <c r="B87" s="30"/>
+      <c r="I87" s="30"/>
+    </row>
+    <row r="88" spans="2:9" s="28" customFormat="1">
+      <c r="B88" s="30"/>
+      <c r="I88" s="30"/>
+    </row>
+    <row r="89" spans="2:9" s="28" customFormat="1">
+      <c r="B89" s="30"/>
+      <c r="I89" s="30"/>
+    </row>
+    <row r="90" spans="2:9" s="28" customFormat="1">
+      <c r="B90" s="30"/>
+      <c r="I90" s="30"/>
+    </row>
+    <row r="91" spans="2:9" s="28" customFormat="1">
+      <c r="B91" s="30"/>
+      <c r="I91" s="30"/>
+    </row>
+    <row r="92" spans="2:9" s="28" customFormat="1">
+      <c r="B92" s="30"/>
+      <c r="I92" s="30"/>
+    </row>
+    <row r="93" spans="2:9" s="28" customFormat="1">
+      <c r="B93" s="30"/>
+      <c r="I93" s="30"/>
+    </row>
+    <row r="94" spans="2:9" s="28" customFormat="1">
+      <c r="B94" s="30"/>
+      <c r="I94" s="30"/>
+    </row>
+    <row r="95" spans="2:9" s="28" customFormat="1">
+      <c r="B95" s="30"/>
+      <c r="I95" s="30"/>
+    </row>
+    <row r="96" spans="2:9" s="28" customFormat="1">
+      <c r="B96" s="30"/>
+      <c r="I96" s="30"/>
+    </row>
+    <row r="97" spans="2:9" s="28" customFormat="1">
+      <c r="B97" s="30"/>
+      <c r="I97" s="30"/>
+    </row>
+    <row r="98" spans="2:9" s="28" customFormat="1">
+      <c r="B98" s="30"/>
+      <c r="I98" s="30"/>
+    </row>
+    <row r="99" spans="2:9" s="28" customFormat="1">
+      <c r="B99" s="30"/>
+      <c r="I99" s="30"/>
+    </row>
+    <row r="100" spans="2:9" s="28" customFormat="1">
+      <c r="B100" s="30"/>
+      <c r="I100" s="30"/>
+    </row>
+    <row r="101" spans="2:9" s="28" customFormat="1">
+      <c r="B101" s="30"/>
+      <c r="I101" s="30"/>
+    </row>
+    <row r="102" spans="2:9" s="28" customFormat="1">
+      <c r="B102" s="30"/>
+      <c r="I102" s="30"/>
+    </row>
+    <row r="103" spans="2:9" s="28" customFormat="1">
+      <c r="B103" s="30"/>
+      <c r="I103" s="30"/>
+    </row>
+    <row r="104" spans="2:9" s="28" customFormat="1">
+      <c r="B104" s="30"/>
+      <c r="I104" s="30"/>
+    </row>
+    <row r="105" spans="2:9" s="28" customFormat="1">
+      <c r="B105" s="30"/>
+      <c r="I105" s="30"/>
+    </row>
+    <row r="106" spans="2:9" s="28" customFormat="1">
+      <c r="B106" s="30"/>
+      <c r="I106" s="30"/>
+    </row>
+    <row r="107" spans="2:9" s="28" customFormat="1">
+      <c r="B107" s="30"/>
+      <c r="I107" s="30"/>
+    </row>
+    <row r="108" spans="2:9" s="28" customFormat="1">
+      <c r="B108" s="30"/>
+      <c r="I108" s="30"/>
+    </row>
+    <row r="109" spans="2:9" s="28" customFormat="1">
+      <c r="B109" s="30"/>
+      <c r="I109" s="30"/>
+    </row>
+    <row r="110" spans="2:9" s="28" customFormat="1">
+      <c r="B110" s="30"/>
+      <c r="I110" s="30"/>
+    </row>
+    <row r="111" spans="2:9" s="28" customFormat="1">
+      <c r="B111" s="30"/>
+      <c r="I111" s="30"/>
+    </row>
+    <row r="112" spans="2:9" s="28" customFormat="1">
+      <c r="B112" s="30"/>
+      <c r="I112" s="30"/>
+    </row>
+    <row r="113" spans="2:9" s="28" customFormat="1">
+      <c r="B113" s="30"/>
+      <c r="I113" s="30"/>
+    </row>
+    <row r="114" spans="2:9" s="28" customFormat="1">
+      <c r="B114" s="30"/>
+      <c r="I114" s="30"/>
+    </row>
+    <row r="115" spans="2:9" s="28" customFormat="1">
+      <c r="B115" s="30"/>
+      <c r="I115" s="30"/>
+    </row>
+    <row r="116" spans="2:9" s="28" customFormat="1">
+      <c r="B116" s="30"/>
+      <c r="I116" s="30"/>
+    </row>
+    <row r="117" spans="2:9" s="28" customFormat="1">
+      <c r="B117" s="30"/>
+      <c r="I117" s="30"/>
+    </row>
+    <row r="118" spans="2:9" s="28" customFormat="1">
+      <c r="B118" s="30"/>
+      <c r="I118" s="30"/>
+    </row>
+    <row r="119" spans="2:9" s="28" customFormat="1">
+      <c r="B119" s="30"/>
+      <c r="I119" s="30"/>
+    </row>
+    <row r="120" spans="2:9" s="28" customFormat="1">
+      <c r="B120" s="30"/>
+      <c r="I120" s="30"/>
+    </row>
+    <row r="121" spans="2:9" s="28" customFormat="1">
+      <c r="B121" s="30"/>
+      <c r="I121" s="30"/>
+    </row>
+    <row r="122" spans="2:9" s="28" customFormat="1">
+      <c r="B122" s="30"/>
+      <c r="I122" s="30"/>
+    </row>
+    <row r="123" spans="2:9" s="28" customFormat="1">
+      <c r="B123" s="30"/>
+      <c r="I123" s="30"/>
+    </row>
+    <row r="124" spans="2:9" s="28" customFormat="1">
+      <c r="B124" s="30"/>
+      <c r="I124" s="30"/>
+    </row>
+    <row r="125" spans="2:9" s="28" customFormat="1">
+      <c r="B125" s="30"/>
+      <c r="I125" s="30"/>
+    </row>
+    <row r="126" spans="2:9" s="28" customFormat="1">
+      <c r="B126" s="30"/>
+      <c r="I126" s="30"/>
+    </row>
+    <row r="127" spans="2:9" s="28" customFormat="1">
+      <c r="B127" s="30"/>
+      <c r="I127" s="30"/>
+    </row>
+    <row r="128" spans="2:9" s="28" customFormat="1">
+      <c r="B128" s="30"/>
+      <c r="I128" s="30"/>
+    </row>
+    <row r="129" spans="2:9" s="28" customFormat="1">
+      <c r="B129" s="30"/>
+      <c r="I129" s="30"/>
+    </row>
+    <row r="130" spans="2:9" s="28" customFormat="1">
+      <c r="B130" s="30"/>
+      <c r="I130" s="30"/>
+    </row>
+    <row r="131" spans="2:9" s="28" customFormat="1">
+      <c r="B131" s="30"/>
+      <c r="I131" s="30"/>
+    </row>
+    <row r="132" spans="2:9" s="28" customFormat="1">
+      <c r="B132" s="30"/>
+      <c r="I132" s="30"/>
+    </row>
+    <row r="133" spans="2:9" s="28" customFormat="1">
+      <c r="B133" s="30"/>
+      <c r="I133" s="30"/>
+    </row>
+    <row r="134" spans="2:9" s="28" customFormat="1">
+      <c r="B134" s="30"/>
+      <c r="I134" s="30"/>
+    </row>
+    <row r="135" spans="2:9" s="28" customFormat="1">
+      <c r="B135" s="30"/>
+      <c r="I135" s="30"/>
+    </row>
+    <row r="136" spans="2:9" s="28" customFormat="1">
+      <c r="B136" s="30"/>
+      <c r="I136" s="30"/>
+    </row>
+    <row r="137" spans="2:9" s="28" customFormat="1">
+      <c r="B137" s="30"/>
+      <c r="I137" s="30"/>
+    </row>
+    <row r="138" spans="2:9" s="28" customFormat="1">
+      <c r="B138" s="30"/>
+      <c r="I138" s="30"/>
+    </row>
+    <row r="139" spans="2:9" s="28" customFormat="1">
+      <c r="B139" s="30"/>
+      <c r="I139" s="30"/>
+    </row>
+    <row r="140" spans="2:9" s="28" customFormat="1">
+      <c r="B140" s="30"/>
+      <c r="I140" s="30"/>
+    </row>
+    <row r="141" spans="2:9" s="28" customFormat="1">
+      <c r="B141" s="30"/>
+      <c r="I141" s="30"/>
+    </row>
+    <row r="142" spans="2:9" s="28" customFormat="1">
+      <c r="B142" s="30"/>
+      <c r="I142" s="30"/>
+    </row>
+    <row r="143" spans="2:9" s="28" customFormat="1">
+      <c r="B143" s="30"/>
+      <c r="I143" s="30"/>
+    </row>
+    <row r="144" spans="2:9" s="28" customFormat="1">
+      <c r="B144" s="30"/>
+      <c r="I144" s="30"/>
+    </row>
+    <row r="145" spans="2:9" s="28" customFormat="1">
+      <c r="B145" s="30"/>
+      <c r="I145" s="30"/>
+    </row>
+    <row r="146" spans="2:9" s="28" customFormat="1">
+      <c r="B146" s="30"/>
+      <c r="I146" s="30"/>
+    </row>
+    <row r="147" spans="2:9" s="28" customFormat="1">
+      <c r="B147" s="30"/>
+      <c r="I147" s="30"/>
+    </row>
+    <row r="148" spans="2:9" s="28" customFormat="1">
+      <c r="B148" s="30"/>
+      <c r="I148" s="30"/>
+    </row>
+    <row r="149" spans="2:9" s="28" customFormat="1">
+      <c r="B149" s="30"/>
+      <c r="I149" s="30"/>
+    </row>
+    <row r="150" spans="2:9" s="28" customFormat="1">
+      <c r="B150" s="30"/>
+      <c r="I150" s="30"/>
+    </row>
+    <row r="151" spans="2:9" s="28" customFormat="1">
+      <c r="B151" s="30"/>
+      <c r="I151" s="30"/>
+    </row>
+    <row r="152" spans="2:9" s="28" customFormat="1">
+      <c r="B152" s="30"/>
+      <c r="I152" s="30"/>
+    </row>
+    <row r="153" spans="2:9" s="28" customFormat="1">
+      <c r="B153" s="30"/>
+      <c r="I153" s="30"/>
+    </row>
+    <row r="154" spans="2:9" s="28" customFormat="1">
+      <c r="B154" s="30"/>
+      <c r="I154" s="30"/>
+    </row>
+    <row r="155" spans="2:9" s="28" customFormat="1">
+      <c r="B155" s="30"/>
+      <c r="I155" s="30"/>
+    </row>
+    <row r="156" spans="2:9" s="28" customFormat="1">
+      <c r="B156" s="30"/>
+      <c r="I156" s="30"/>
+    </row>
+    <row r="157" spans="2:9" s="28" customFormat="1">
+      <c r="B157" s="30"/>
+      <c r="I157" s="30"/>
+    </row>
+    <row r="158" spans="2:9" s="28" customFormat="1">
+      <c r="B158" s="30"/>
+      <c r="I158" s="30"/>
+    </row>
+    <row r="159" spans="2:9" s="28" customFormat="1">
+      <c r="B159" s="30"/>
+      <c r="I159" s="30"/>
+    </row>
+    <row r="160" spans="2:9" s="28" customFormat="1">
+      <c r="B160" s="30"/>
+      <c r="I160" s="30"/>
+    </row>
+    <row r="161" spans="2:9" s="28" customFormat="1">
+      <c r="B161" s="30"/>
+      <c r="I161" s="30"/>
+    </row>
+    <row r="162" spans="2:9" s="28" customFormat="1">
+      <c r="B162" s="30"/>
+      <c r="I162" s="30"/>
+    </row>
+    <row r="163" spans="2:9" s="28" customFormat="1">
+      <c r="B163" s="30"/>
+      <c r="I163" s="30"/>
+    </row>
+    <row r="164" spans="2:9" s="28" customFormat="1">
+      <c r="B164" s="30"/>
+      <c r="I164" s="30"/>
+    </row>
+    <row r="165" spans="2:9" s="28" customFormat="1">
+      <c r="B165" s="30"/>
+      <c r="I165" s="30"/>
+    </row>
+    <row r="166" spans="2:9" s="28" customFormat="1">
+      <c r="B166" s="30"/>
+      <c r="I166" s="30"/>
+    </row>
+    <row r="167" spans="2:9" s="28" customFormat="1">
+      <c r="B167" s="30"/>
+      <c r="I167" s="30"/>
+    </row>
+    <row r="168" spans="2:9" s="28" customFormat="1">
+      <c r="B168" s="30"/>
+      <c r="I168" s="30"/>
+    </row>
+    <row r="169" spans="2:9" s="28" customFormat="1">
+      <c r="B169" s="30"/>
+      <c r="I169" s="30"/>
+    </row>
+    <row r="170" spans="2:9" s="28" customFormat="1">
+      <c r="B170" s="30"/>
+      <c r="I170" s="30"/>
+    </row>
+    <row r="171" spans="2:9" s="28" customFormat="1">
+      <c r="B171" s="30"/>
+      <c r="I171" s="30"/>
+    </row>
+    <row r="172" spans="2:9" s="28" customFormat="1">
+      <c r="B172" s="30"/>
+      <c r="I172" s="30"/>
+    </row>
+    <row r="173" spans="2:9" s="28" customFormat="1">
+      <c r="B173" s="30"/>
+      <c r="I173" s="30"/>
+    </row>
+    <row r="174" spans="2:9" s="28" customFormat="1">
+      <c r="B174" s="30"/>
+      <c r="I174" s="30"/>
+    </row>
+    <row r="175" spans="2:9" s="28" customFormat="1">
+      <c r="B175" s="30"/>
+      <c r="I175" s="30"/>
+    </row>
+    <row r="176" spans="2:9" s="28" customFormat="1">
+      <c r="B176" s="30"/>
+      <c r="I176" s="30"/>
+    </row>
+    <row r="177" spans="2:9" s="28" customFormat="1">
+      <c r="B177" s="30"/>
+      <c r="I177" s="30"/>
+    </row>
+    <row r="178" spans="2:9" s="28" customFormat="1">
+      <c r="B178" s="30"/>
+      <c r="I178" s="30"/>
+    </row>
+    <row r="179" spans="2:9" s="28" customFormat="1">
+      <c r="B179" s="30"/>
+      <c r="I179" s="30"/>
+    </row>
+    <row r="180" spans="2:9" s="28" customFormat="1">
+      <c r="B180" s="30"/>
+      <c r="I180" s="30"/>
+    </row>
+    <row r="181" spans="2:9" s="28" customFormat="1">
+      <c r="B181" s="30"/>
+      <c r="I181" s="30"/>
+    </row>
+    <row r="182" spans="2:9" s="28" customFormat="1">
+      <c r="B182" s="30"/>
+      <c r="I182" s="30"/>
+    </row>
+    <row r="183" spans="2:9" s="28" customFormat="1">
+      <c r="B183" s="30"/>
+      <c r="I183" s="30"/>
+    </row>
+    <row r="184" spans="2:9" s="28" customFormat="1">
+      <c r="B184" s="30"/>
+      <c r="I184" s="30"/>
+    </row>
+    <row r="185" spans="2:9" s="28" customFormat="1">
+      <c r="B185" s="30"/>
+      <c r="I185" s="30"/>
+    </row>
+    <row r="186" spans="2:9" s="28" customFormat="1">
+      <c r="B186" s="30"/>
+      <c r="I186" s="30"/>
+    </row>
+    <row r="187" spans="2:9" s="28" customFormat="1">
+      <c r="B187" s="30"/>
+      <c r="I187" s="30"/>
+    </row>
+    <row r="188" spans="2:9" s="28" customFormat="1">
+      <c r="B188" s="30"/>
+      <c r="I188" s="30"/>
+    </row>
+    <row r="189" spans="2:9" s="28" customFormat="1">
+      <c r="B189" s="30"/>
+      <c r="I189" s="30"/>
+    </row>
+    <row r="190" spans="2:9" s="28" customFormat="1">
+      <c r="B190" s="30"/>
+      <c r="I190" s="30"/>
+    </row>
+    <row r="191" spans="2:9" s="28" customFormat="1">
+      <c r="B191" s="30"/>
+      <c r="I191" s="30"/>
+    </row>
+    <row r="192" spans="2:9" s="28" customFormat="1">
+      <c r="B192" s="30"/>
+      <c r="I192" s="30"/>
+    </row>
+    <row r="193" spans="2:9" s="28" customFormat="1">
+      <c r="B193" s="30"/>
+      <c r="I193" s="30"/>
+    </row>
+    <row r="194" spans="2:9" s="28" customFormat="1">
+      <c r="B194" s="30"/>
+      <c r="I194" s="30"/>
+    </row>
+    <row r="195" spans="2:9" s="28" customFormat="1">
+      <c r="B195" s="30"/>
+      <c r="I195" s="30"/>
+    </row>
+    <row r="196" spans="2:9" s="28" customFormat="1">
+      <c r="B196" s="30"/>
+      <c r="I196" s="30"/>
+    </row>
+    <row r="197" spans="2:9" s="28" customFormat="1">
+      <c r="B197" s="30"/>
+      <c r="I197" s="30"/>
+    </row>
+    <row r="198" spans="2:9" s="28" customFormat="1">
+      <c r="B198" s="30"/>
+      <c r="I198" s="30"/>
+    </row>
+    <row r="199" spans="2:9" s="28" customFormat="1">
+      <c r="B199" s="30"/>
+      <c r="I199" s="30"/>
+    </row>
+    <row r="200" spans="2:9" s="28" customFormat="1">
+      <c r="B200" s="30"/>
+      <c r="I200" s="30"/>
+    </row>
+    <row r="201" spans="2:9" s="28" customFormat="1">
+      <c r="B201" s="30"/>
+      <c r="I201" s="30"/>
+    </row>
+    <row r="202" spans="2:9" s="28" customFormat="1">
+      <c r="B202" s="30"/>
+      <c r="I202" s="30"/>
+    </row>
+    <row r="203" spans="2:9" s="28" customFormat="1">
+      <c r="B203" s="30"/>
+      <c r="I203" s="30"/>
+    </row>
+    <row r="204" spans="2:9" s="28" customFormat="1">
+      <c r="B204" s="30"/>
+      <c r="I204" s="30"/>
+    </row>
+    <row r="205" spans="2:9" s="28" customFormat="1">
+      <c r="B205" s="30"/>
+      <c r="I205" s="30"/>
+    </row>
+    <row r="206" spans="2:9" s="28" customFormat="1">
+      <c r="B206" s="30"/>
+      <c r="I206" s="30"/>
+    </row>
+    <row r="207" spans="2:9" s="28" customFormat="1">
+      <c r="B207" s="30"/>
+      <c r="I207" s="30"/>
+    </row>
+    <row r="208" spans="2:9" s="28" customFormat="1">
+      <c r="B208" s="30"/>
+      <c r="I208" s="30"/>
+    </row>
+    <row r="209" spans="2:9" s="28" customFormat="1">
+      <c r="B209" s="30"/>
+      <c r="I209" s="30"/>
+    </row>
+    <row r="210" spans="2:9" s="28" customFormat="1">
+      <c r="B210" s="30"/>
+      <c r="I210" s="30"/>
+    </row>
+    <row r="211" spans="2:9" s="28" customFormat="1">
+      <c r="B211" s="30"/>
+      <c r="I211" s="30"/>
+    </row>
+    <row r="212" spans="2:9" s="28" customFormat="1">
+      <c r="B212" s="30"/>
+      <c r="I212" s="30"/>
+    </row>
+    <row r="213" spans="2:9" s="28" customFormat="1">
+      <c r="B213" s="30"/>
+      <c r="I213" s="30"/>
+    </row>
+    <row r="214" spans="2:9" s="28" customFormat="1">
+      <c r="B214" s="30"/>
+      <c r="I214" s="30"/>
+    </row>
+    <row r="215" spans="2:9" s="28" customFormat="1">
+      <c r="B215" s="30"/>
+      <c r="I215" s="30"/>
+    </row>
+    <row r="216" spans="2:9" s="28" customFormat="1">
+      <c r="B216" s="30"/>
+      <c r="I216" s="30"/>
+    </row>
+    <row r="217" spans="2:9" s="28" customFormat="1">
+      <c r="B217" s="30"/>
+      <c r="I217" s="30"/>
+    </row>
+    <row r="218" spans="2:9" s="28" customFormat="1">
+      <c r="B218" s="30"/>
+      <c r="I218" s="30"/>
+    </row>
+    <row r="219" spans="2:9" s="28" customFormat="1">
+      <c r="B219" s="30"/>
+      <c r="I219" s="30"/>
+    </row>
+    <row r="220" spans="2:9" s="28" customFormat="1">
+      <c r="B220" s="30"/>
+      <c r="I220" s="30"/>
+    </row>
+    <row r="221" spans="2:9" s="28" customFormat="1">
+      <c r="B221" s="30"/>
+      <c r="I221" s="30"/>
+    </row>
+    <row r="222" spans="2:9" s="28" customFormat="1">
+      <c r="B222" s="30"/>
+      <c r="I222" s="30"/>
+    </row>
+    <row r="223" spans="2:9" s="28" customFormat="1">
+      <c r="B223" s="30"/>
+      <c r="I223" s="30"/>
+    </row>
+    <row r="224" spans="2:9" s="28" customFormat="1">
+      <c r="B224" s="30"/>
+      <c r="I224" s="30"/>
+    </row>
+    <row r="225" spans="2:9" s="28" customFormat="1">
+      <c r="B225" s="30"/>
+      <c r="I225" s="30"/>
+    </row>
+    <row r="226" spans="2:9" s="28" customFormat="1">
+      <c r="B226" s="30"/>
+      <c r="I226" s="30"/>
+    </row>
+    <row r="227" spans="2:9" s="28" customFormat="1">
+      <c r="B227" s="30"/>
+      <c r="I227" s="30"/>
+    </row>
+    <row r="228" spans="2:9" s="28" customFormat="1">
+      <c r="B228" s="30"/>
+      <c r="I228" s="30"/>
+    </row>
+    <row r="229" spans="2:9" s="28" customFormat="1">
+      <c r="B229" s="30"/>
+      <c r="I229" s="30"/>
+    </row>
+    <row r="230" spans="2:9" s="28" customFormat="1">
+      <c r="B230" s="30"/>
+      <c r="I230" s="30"/>
+    </row>
+    <row r="231" spans="2:9" s="28" customFormat="1">
+      <c r="B231" s="30"/>
+      <c r="I231" s="30"/>
+    </row>
+    <row r="232" spans="2:9" s="28" customFormat="1">
+      <c r="B232" s="30"/>
+      <c r="I232" s="30"/>
+    </row>
+    <row r="233" spans="2:9" s="28" customFormat="1">
+      <c r="B233" s="30"/>
+      <c r="I233" s="30"/>
+    </row>
+    <row r="234" spans="2:9" s="28" customFormat="1">
+      <c r="B234" s="30"/>
+      <c r="I234" s="30"/>
+    </row>
+    <row r="235" spans="2:9" s="28" customFormat="1">
+      <c r="B235" s="30"/>
+      <c r="I235" s="30"/>
+    </row>
+    <row r="236" spans="2:9" s="28" customFormat="1">
+      <c r="B236" s="30"/>
+      <c r="I236" s="30"/>
+    </row>
+    <row r="237" spans="2:9" s="28" customFormat="1">
+      <c r="B237" s="30"/>
+      <c r="I237" s="30"/>
+    </row>
+    <row r="238" spans="2:9" s="28" customFormat="1">
+      <c r="B238" s="30"/>
+      <c r="I238" s="30"/>
+    </row>
+    <row r="239" spans="2:9" s="28" customFormat="1">
+      <c r="B239" s="30"/>
+      <c r="I239" s="30"/>
+    </row>
+    <row r="240" spans="2:9" s="28" customFormat="1">
+      <c r="B240" s="30"/>
+      <c r="I240" s="30"/>
+    </row>
+    <row r="241" spans="2:9" s="28" customFormat="1">
+      <c r="B241" s="30"/>
+      <c r="I241" s="30"/>
+    </row>
+    <row r="242" spans="2:9" s="28" customFormat="1">
+      <c r="B242" s="30"/>
+      <c r="I242" s="30"/>
+    </row>
+    <row r="243" spans="2:9" s="28" customFormat="1">
+      <c r="B243" s="30"/>
+      <c r="I243" s="30"/>
+    </row>
+    <row r="244" spans="2:9" s="28" customFormat="1">
+      <c r="B244" s="30"/>
+      <c r="I244" s="30"/>
+    </row>
+    <row r="245" spans="2:9" s="28" customFormat="1">
+      <c r="B245" s="30"/>
+      <c r="I245" s="30"/>
+    </row>
+    <row r="246" spans="2:9" s="28" customFormat="1">
+      <c r="B246" s="30"/>
+      <c r="I246" s="30"/>
+    </row>
+    <row r="247" spans="2:9" s="28" customFormat="1">
+      <c r="B247" s="30"/>
+      <c r="I247" s="30"/>
+    </row>
+    <row r="248" spans="2:9" s="28" customFormat="1">
+      <c r="B248" s="30"/>
+      <c r="I248" s="30"/>
+    </row>
+    <row r="249" spans="2:9" s="28" customFormat="1">
+      <c r="B249" s="30"/>
+      <c r="I249" s="30"/>
+    </row>
+    <row r="250" spans="2:9" s="28" customFormat="1">
+      <c r="B250" s="30"/>
+      <c r="I250" s="30"/>
+    </row>
+    <row r="251" spans="2:9" s="28" customFormat="1">
+      <c r="B251" s="30"/>
+      <c r="I251" s="30"/>
+    </row>
+    <row r="252" spans="2:9" s="28" customFormat="1">
+      <c r="B252" s="30"/>
+      <c r="I252" s="30"/>
+    </row>
+    <row r="253" spans="2:9" s="28" customFormat="1">
+      <c r="B253" s="30"/>
+      <c r="I253" s="30"/>
+    </row>
+    <row r="254" spans="2:9" s="28" customFormat="1">
+      <c r="B254" s="30"/>
+      <c r="I254" s="30"/>
+    </row>
+    <row r="255" spans="2:9" s="28" customFormat="1">
+      <c r="B255" s="30"/>
+      <c r="I255" s="30"/>
+    </row>
+    <row r="256" spans="2:9" s="28" customFormat="1">
+      <c r="B256" s="30"/>
+      <c r="I256" s="30"/>
+    </row>
+    <row r="257" spans="2:9" s="28" customFormat="1">
+      <c r="B257" s="30"/>
+      <c r="I257" s="30"/>
+    </row>
+    <row r="258" spans="2:9" s="28" customFormat="1">
+      <c r="B258" s="30"/>
+      <c r="I258" s="30"/>
+    </row>
+    <row r="259" spans="2:9" s="28" customFormat="1">
+      <c r="B259" s="30"/>
+      <c r="I259" s="30"/>
+    </row>
+    <row r="260" spans="2:9" s="28" customFormat="1">
+      <c r="B260" s="30"/>
+      <c r="I260" s="30"/>
+    </row>
+    <row r="261" spans="2:9" s="28" customFormat="1">
+      <c r="B261" s="30"/>
+      <c r="I261" s="30"/>
+    </row>
+    <row r="262" spans="2:9" s="28" customFormat="1">
+      <c r="B262" s="30"/>
+      <c r="I262" s="30"/>
+    </row>
+    <row r="263" spans="2:9" s="28" customFormat="1">
+      <c r="B263" s="30"/>
+      <c r="I263" s="30"/>
+    </row>
+    <row r="264" spans="2:9" s="28" customFormat="1">
+      <c r="B264" s="30"/>
+      <c r="I264" s="30"/>
+    </row>
+    <row r="265" spans="2:9" s="28" customFormat="1">
+      <c r="B265" s="30"/>
+      <c r="I265" s="30"/>
+    </row>
+    <row r="266" spans="2:9" s="28" customFormat="1">
+      <c r="B266" s="30"/>
+      <c r="I266" s="30"/>
+    </row>
+    <row r="267" spans="2:9" s="28" customFormat="1">
+      <c r="B267" s="30"/>
+      <c r="I267" s="30"/>
+    </row>
+    <row r="268" spans="2:9" s="28" customFormat="1">
+      <c r="B268" s="30"/>
+      <c r="I268" s="30"/>
+    </row>
+    <row r="269" spans="2:9" s="28" customFormat="1">
+      <c r="B269" s="30"/>
+      <c r="I269" s="30"/>
+    </row>
+    <row r="270" spans="2:9" s="28" customFormat="1">
+      <c r="B270" s="30"/>
+      <c r="I270" s="30"/>
+    </row>
+    <row r="271" spans="2:9" s="28" customFormat="1">
+      <c r="B271" s="30"/>
+      <c r="I271" s="30"/>
+    </row>
+    <row r="272" spans="2:9" s="28" customFormat="1">
+      <c r="B272" s="30"/>
+      <c r="I272" s="30"/>
+    </row>
+    <row r="273" spans="2:9" s="28" customFormat="1">
+      <c r="B273" s="30"/>
+      <c r="I273" s="30"/>
+    </row>
+    <row r="274" spans="2:9" s="28" customFormat="1">
+      <c r="B274" s="30"/>
+      <c r="I274" s="30"/>
+    </row>
+    <row r="275" spans="2:9" s="28" customFormat="1">
+      <c r="B275" s="30"/>
+      <c r="I275" s="30"/>
+    </row>
+    <row r="276" spans="2:9" s="28" customFormat="1">
+      <c r="B276" s="30"/>
+      <c r="I276" s="30"/>
+    </row>
+    <row r="277" spans="2:9" s="28" customFormat="1">
+      <c r="B277" s="30"/>
+      <c r="I277" s="30"/>
+    </row>
+    <row r="278" spans="2:9" s="28" customFormat="1">
+      <c r="B278" s="30"/>
+      <c r="I278" s="30"/>
+    </row>
+    <row r="279" spans="2:9" s="28" customFormat="1">
+      <c r="B279" s="30"/>
+      <c r="I279" s="30"/>
+    </row>
+    <row r="280" spans="2:9" s="28" customFormat="1">
+      <c r="B280" s="30"/>
+      <c r="I280" s="30"/>
+    </row>
+    <row r="281" spans="2:9" s="28" customFormat="1">
+      <c r="B281" s="30"/>
+      <c r="I281" s="30"/>
+    </row>
+    <row r="282" spans="2:9" s="28" customFormat="1">
+      <c r="B282" s="30"/>
+      <c r="I282" s="30"/>
+    </row>
+    <row r="283" spans="2:9" s="28" customFormat="1">
+      <c r="B283" s="30"/>
+      <c r="I283" s="30"/>
+    </row>
+    <row r="284" spans="2:9" s="28" customFormat="1">
+      <c r="B284" s="30"/>
+      <c r="I284" s="30"/>
+    </row>
+    <row r="285" spans="2:9" s="28" customFormat="1">
+      <c r="B285" s="30"/>
+      <c r="I285" s="30"/>
+    </row>
+    <row r="286" spans="2:9" s="28" customFormat="1">
+      <c r="B286" s="30"/>
+      <c r="I286" s="30"/>
+    </row>
+    <row r="287" spans="2:9" s="28" customFormat="1">
+      <c r="B287" s="30"/>
+      <c r="I287" s="30"/>
+    </row>
+    <row r="288" spans="2:9" s="28" customFormat="1">
+      <c r="B288" s="30"/>
+      <c r="I288" s="30"/>
+    </row>
+    <row r="289" spans="2:9" s="28" customFormat="1">
+      <c r="B289" s="30"/>
+      <c r="I289" s="30"/>
+    </row>
+    <row r="290" spans="2:9" s="28" customFormat="1">
+      <c r="B290" s="30"/>
+      <c r="I290" s="30"/>
+    </row>
+    <row r="291" spans="2:9" s="28" customFormat="1">
+      <c r="B291" s="30"/>
+      <c r="I291" s="30"/>
+    </row>
+    <row r="292" spans="2:9" s="28" customFormat="1">
+      <c r="B292" s="30"/>
+      <c r="I292" s="30"/>
+    </row>
+    <row r="293" spans="2:9" s="28" customFormat="1">
+      <c r="B293" s="30"/>
+      <c r="I293" s="30"/>
+    </row>
+    <row r="294" spans="2:9" s="28" customFormat="1">
+      <c r="B294" s="30"/>
+      <c r="I294" s="30"/>
+    </row>
+    <row r="295" spans="2:9" s="28" customFormat="1">
+      <c r="B295" s="30"/>
+      <c r="I295" s="30"/>
+    </row>
+    <row r="296" spans="2:9" s="28" customFormat="1">
+      <c r="B296" s="30"/>
+      <c r="I296" s="30"/>
+    </row>
+    <row r="297" spans="2:9" s="28" customFormat="1">
+      <c r="B297" s="30"/>
+      <c r="I297" s="30"/>
+    </row>
+    <row r="298" spans="2:9" s="28" customFormat="1">
+      <c r="B298" s="30"/>
+      <c r="I298" s="30"/>
+    </row>
+    <row r="299" spans="2:9" s="28" customFormat="1">
+      <c r="B299" s="30"/>
+      <c r="I299" s="30"/>
+    </row>
+    <row r="300" spans="2:9" s="28" customFormat="1">
+      <c r="B300" s="30"/>
+      <c r="I300" s="30"/>
+    </row>
+    <row r="301" spans="2:9" s="28" customFormat="1">
+      <c r="B301" s="30"/>
+      <c r="I301" s="30"/>
+    </row>
+    <row r="302" spans="2:9" s="28" customFormat="1">
+      <c r="B302" s="30"/>
+      <c r="I302" s="30"/>
+    </row>
+    <row r="303" spans="2:9" s="28" customFormat="1">
+      <c r="B303" s="30"/>
+      <c r="I303" s="30"/>
+    </row>
+    <row r="304" spans="2:9" s="28" customFormat="1">
+      <c r="B304" s="30"/>
+      <c r="I304" s="30"/>
+    </row>
+    <row r="305" spans="2:9" s="28" customFormat="1">
+      <c r="B305" s="30"/>
+      <c r="I305" s="30"/>
+    </row>
+    <row r="306" spans="2:9" s="28" customFormat="1">
+      <c r="B306" s="30"/>
+      <c r="I306" s="30"/>
+    </row>
+    <row r="307" spans="2:9" s="28" customFormat="1">
+      <c r="B307" s="30"/>
+      <c r="I307" s="30"/>
+    </row>
+    <row r="308" spans="2:9" s="28" customFormat="1">
+      <c r="B308" s="30"/>
+      <c r="I308" s="30"/>
+    </row>
+    <row r="309" spans="2:9" s="28" customFormat="1">
+      <c r="B309" s="30"/>
+      <c r="I309" s="30"/>
+    </row>
+    <row r="310" spans="2:9" s="28" customFormat="1">
+      <c r="B310" s="30"/>
+      <c r="I310" s="30"/>
+    </row>
+    <row r="311" spans="2:9" s="28" customFormat="1">
+      <c r="B311" s="30"/>
+      <c r="I311" s="30"/>
+    </row>
+    <row r="312" spans="2:9" s="28" customFormat="1">
+      <c r="B312" s="30"/>
+      <c r="I312" s="30"/>
+    </row>
+    <row r="313" spans="2:9" s="28" customFormat="1">
+      <c r="B313" s="30"/>
+      <c r="I313" s="30"/>
+    </row>
+    <row r="314" spans="2:9" s="28" customFormat="1">
+      <c r="B314" s="30"/>
+      <c r="I314" s="30"/>
+    </row>
+    <row r="315" spans="2:9" s="28" customFormat="1">
+      <c r="B315" s="30"/>
+      <c r="I315" s="30"/>
+    </row>
+    <row r="316" spans="2:9" s="28" customFormat="1">
+      <c r="B316" s="30"/>
+      <c r="I316" s="30"/>
+    </row>
+    <row r="317" spans="2:9" s="28" customFormat="1">
+      <c r="B317" s="30"/>
+      <c r="I317" s="30"/>
+    </row>
+    <row r="318" spans="2:9" s="28" customFormat="1">
+      <c r="B318" s="30"/>
+      <c r="I318" s="30"/>
+    </row>
+    <row r="319" spans="2:9" s="28" customFormat="1">
+      <c r="B319" s="30"/>
+      <c r="I319" s="30"/>
+    </row>
+    <row r="320" spans="2:9" s="28" customFormat="1">
+      <c r="B320" s="30"/>
+      <c r="I320" s="30"/>
+    </row>
+    <row r="321" spans="2:9" s="28" customFormat="1">
+      <c r="B321" s="30"/>
+      <c r="I321" s="30"/>
+    </row>
+    <row r="322" spans="2:9" s="28" customFormat="1">
+      <c r="B322" s="30"/>
+      <c r="I322" s="30"/>
+    </row>
+    <row r="323" spans="2:9" s="28" customFormat="1">
+      <c r="B323" s="30"/>
+      <c r="I323" s="30"/>
+    </row>
+    <row r="324" spans="2:9" s="28" customFormat="1">
+      <c r="B324" s="30"/>
+      <c r="I324" s="30"/>
+    </row>
+    <row r="325" spans="2:9" s="28" customFormat="1">
+      <c r="B325" s="30"/>
+      <c r="I325" s="30"/>
+    </row>
+    <row r="326" spans="2:9" s="28" customFormat="1">
+      <c r="B326" s="30"/>
+      <c r="I326" s="30"/>
+    </row>
+    <row r="327" spans="2:9" s="28" customFormat="1">
+      <c r="B327" s="30"/>
+      <c r="I327" s="30"/>
+    </row>
+    <row r="328" spans="2:9" s="28" customFormat="1">
+      <c r="B328" s="30"/>
+      <c r="I328" s="30"/>
+    </row>
+    <row r="329" spans="2:9" s="28" customFormat="1">
+      <c r="B329" s="30"/>
+      <c r="I329" s="30"/>
+    </row>
+    <row r="330" spans="2:9" s="28" customFormat="1">
+      <c r="B330" s="30"/>
+      <c r="I330" s="30"/>
+    </row>
+    <row r="331" spans="2:9" s="28" customFormat="1">
+      <c r="B331" s="30"/>
+      <c r="I331" s="30"/>
+    </row>
+    <row r="332" spans="2:9" s="28" customFormat="1">
+      <c r="B332" s="30"/>
+      <c r="I332" s="30"/>
+    </row>
+    <row r="333" spans="2:9" s="28" customFormat="1">
+      <c r="B333" s="30"/>
+      <c r="I333" s="30"/>
+    </row>
+    <row r="334" spans="2:9" s="28" customFormat="1">
+      <c r="B334" s="30"/>
+      <c r="I334" s="30"/>
+    </row>
+    <row r="335" spans="2:9" s="28" customFormat="1">
+      <c r="B335" s="30"/>
+      <c r="I335" s="30"/>
+    </row>
+    <row r="336" spans="2:9" s="28" customFormat="1">
+      <c r="B336" s="30"/>
+      <c r="I336" s="30"/>
+    </row>
+    <row r="337" spans="2:9" s="28" customFormat="1">
+      <c r="B337" s="30"/>
+      <c r="I337" s="30"/>
+    </row>
+    <row r="338" spans="2:9" s="28" customFormat="1">
+      <c r="B338" s="30"/>
+      <c r="I338" s="30"/>
+    </row>
+    <row r="339" spans="2:9" s="28" customFormat="1">
+      <c r="B339" s="30"/>
+      <c r="I339" s="30"/>
+    </row>
+    <row r="340" spans="2:9" s="28" customFormat="1">
+      <c r="B340" s="30"/>
+      <c r="I340" s="30"/>
+    </row>
+    <row r="341" spans="2:9" s="28" customFormat="1">
+      <c r="B341" s="30"/>
+      <c r="I341" s="30"/>
+    </row>
+    <row r="342" spans="2:9" s="28" customFormat="1">
+      <c r="B342" s="30"/>
+      <c r="I342" s="30"/>
+    </row>
+    <row r="343" spans="2:9" s="28" customFormat="1">
+      <c r="B343" s="30"/>
+      <c r="I343" s="30"/>
+    </row>
+    <row r="344" spans="2:9" s="28" customFormat="1">
+      <c r="B344" s="30"/>
+      <c r="I344" s="30"/>
+    </row>
+    <row r="345" spans="2:9" s="28" customFormat="1">
+      <c r="B345" s="30"/>
+      <c r="I345" s="30"/>
+    </row>
+    <row r="346" spans="2:9" s="28" customFormat="1">
+      <c r="B346" s="30"/>
+      <c r="I346" s="30"/>
+    </row>
+    <row r="347" spans="2:9" s="28" customFormat="1">
+      <c r="B347" s="30"/>
+      <c r="I347" s="30"/>
+    </row>
+    <row r="348" spans="2:9" s="28" customFormat="1">
+      <c r="B348" s="30"/>
+      <c r="I348" s="30"/>
+    </row>
+    <row r="349" spans="2:9" s="28" customFormat="1">
+      <c r="B349" s="30"/>
+      <c r="I349" s="30"/>
+    </row>
+    <row r="350" spans="2:9" s="28" customFormat="1">
+      <c r="B350" s="30"/>
+      <c r="I350" s="30"/>
+    </row>
+    <row r="351" spans="2:9" s="28" customFormat="1">
+      <c r="B351" s="30"/>
+      <c r="I351" s="30"/>
+    </row>
+    <row r="352" spans="2:9" s="28" customFormat="1">
+      <c r="B352" s="30"/>
+      <c r="I352" s="30"/>
+    </row>
+    <row r="353" spans="2:10" s="28" customFormat="1">
+      <c r="B353" s="30"/>
+      <c r="I353" s="30"/>
+    </row>
+    <row r="354" spans="2:10" s="28" customFormat="1">
+      <c r="B354" s="30"/>
+      <c r="I354" s="30"/>
+    </row>
+    <row r="355" spans="2:10" s="28" customFormat="1">
+      <c r="B355" s="30"/>
+      <c r="I355" s="30"/>
+    </row>
+    <row r="356" spans="2:10" s="28" customFormat="1">
+      <c r="B356" s="30"/>
+      <c r="I356" s="30"/>
+    </row>
+    <row r="357" spans="2:10" s="28" customFormat="1">
+      <c r="B357" s="30"/>
+      <c r="I357" s="30"/>
+    </row>
+    <row r="358" spans="2:10" s="28" customFormat="1">
+      <c r="B358" s="30"/>
+      <c r="I358" s="30"/>
+    </row>
+    <row r="359" spans="2:10" s="28" customFormat="1">
+      <c r="B359" s="30"/>
+      <c r="I359" s="30"/>
+    </row>
+    <row r="360" spans="2:10" s="28" customFormat="1">
+      <c r="B360" s="30"/>
+      <c r="I360" s="30"/>
+    </row>
+    <row r="361" spans="2:10" s="28" customFormat="1">
+      <c r="B361" s="30"/>
+      <c r="I361" s="30"/>
+    </row>
+    <row r="362" spans="2:10">
+      <c r="B362" s="30"/>
+      <c r="C362" s="28"/>
+      <c r="D362" s="28"/>
+      <c r="E362" s="28"/>
+      <c r="F362" s="28"/>
+      <c r="G362" s="28"/>
+      <c r="H362" s="28"/>
+      <c r="I362" s="30"/>
+      <c r="J362" s="28"/>
+    </row>
+    <row r="363" spans="2:10">
+      <c r="B363" s="30"/>
+      <c r="C363" s="28"/>
+      <c r="D363" s="28"/>
+      <c r="E363" s="28"/>
+      <c r="F363" s="28"/>
+      <c r="G363" s="28"/>
+      <c r="H363" s="28"/>
+      <c r="I363" s="30"/>
+      <c r="J363" s="28"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:K3"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K27">
+      <formula1>'cuentas de e-mail'!$C$10:$C$11</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I27">
+      <formula1>'cuentas de e-mail'!$B$10:$B$11</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:L339"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -10884,10 +12558,11 @@
     <col min="9" max="9" width="14.140625" style="26" customWidth="1"/>
     <col min="10" max="10" width="30" style="24" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" style="24" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="24"/>
+    <col min="12" max="12" width="17.5703125" style="24" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="24"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="18" customHeight="1">
+    <row r="2" spans="2:12" ht="18" customHeight="1">
       <c r="B2" s="23" t="s">
         <v>123</v>
       </c>
@@ -10896,7 +12571,7 @@
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
     </row>
-    <row r="3" spans="2:11" s="26" customFormat="1" ht="37.5">
+    <row r="3" spans="2:12" s="26" customFormat="1" ht="37.5">
       <c r="B3" s="20" t="s">
         <v>34</v>
       </c>
@@ -10927,8 +12602,11 @@
       <c r="K3" s="20" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" s="28" customFormat="1" ht="102">
+      <c r="L3" s="20" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" s="28" customFormat="1" ht="102">
       <c r="B4" s="18" t="s">
         <v>88</v>
       </c>
@@ -10957,8 +12635,9 @@
       <c r="K4" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" s="28" customFormat="1" ht="102">
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="2:12" s="28" customFormat="1" ht="102">
       <c r="B5" s="18" t="s">
         <v>88</v>
       </c>
@@ -10985,8 +12664,9 @@
       <c r="K5" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="2:12" s="28" customFormat="1" ht="51">
       <c r="B6" s="18" t="s">
         <v>88</v>
       </c>
@@ -11015,8 +12695,9 @@
       <c r="K6" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" s="28" customFormat="1" ht="89.25">
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" spans="2:12" s="28" customFormat="1" ht="89.25">
       <c r="B7" s="18" t="s">
         <v>88</v>
       </c>
@@ -11045,8 +12726,9 @@
       <c r="K7" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="2:12" s="28" customFormat="1" ht="51">
       <c r="B8" s="18" t="s">
         <v>88</v>
       </c>
@@ -11073,8 +12755,9 @@
       <c r="K8" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" spans="2:12" s="28" customFormat="1" ht="51">
       <c r="B9" s="18" t="s">
         <v>88</v>
       </c>
@@ -11101,8 +12784,9 @@
       <c r="K9" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" s="28" customFormat="1" ht="102">
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="2:12" s="28" customFormat="1" ht="102">
       <c r="B10" s="18" t="s">
         <v>88</v>
       </c>
@@ -11131,8 +12815,9 @@
       <c r="K10" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" s="28" customFormat="1" ht="63.75">
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" spans="2:12" s="28" customFormat="1" ht="63.75">
       <c r="B11" s="18" t="s">
         <v>88</v>
       </c>
@@ -11163,8 +12848,9 @@
       <c r="K11" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="2:12" s="28" customFormat="1" ht="51">
       <c r="B12" s="18" t="s">
         <v>88</v>
       </c>
@@ -11191,56 +12877,62 @@
       <c r="K12" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" s="28" customFormat="1" ht="38.25">
+      <c r="L12" s="19"/>
+    </row>
+    <row r="13" spans="2:12" s="28" customFormat="1" ht="76.5">
       <c r="B13" s="18" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="E13" s="19"/>
+        <v>174</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>339</v>
+      </c>
       <c r="F13" s="19" t="s">
-        <v>335</v>
+        <v>179</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>336</v>
+        <v>180</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J13" s="19"/>
+        <v>384</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>403</v>
+      </c>
       <c r="K13" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" s="28" customFormat="1" ht="63.75">
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="2:12" s="28" customFormat="1" ht="38.25">
       <c r="B14" s="18" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>383</v>
@@ -11249,518 +12941,349 @@
       <c r="K14" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" s="28" customFormat="1" ht="76.5">
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" spans="2:12" s="28" customFormat="1" ht="165.75">
       <c r="B15" s="18" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>339</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="E15" s="19"/>
       <c r="F15" s="19" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>180</v>
+        <v>342</v>
       </c>
       <c r="I15" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="J15" s="19" t="s">
-        <v>403</v>
+      <c r="J15" s="17" t="s">
+        <v>427</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" s="28" customFormat="1" ht="38.25">
+        <v>55</v>
+      </c>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="2:12" s="28" customFormat="1" ht="38.25">
       <c r="B16" s="18" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>178</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="E16" s="19"/>
       <c r="F16" s="19" t="s">
-        <v>340</v>
+        <v>188</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="J16" s="19"/>
+      <c r="J16" s="17"/>
       <c r="K16" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" s="28" customFormat="1" ht="165.75">
+        <v>55</v>
+      </c>
+      <c r="L16" s="19"/>
+    </row>
+    <row r="17" spans="2:12" s="28" customFormat="1" ht="38.25">
       <c r="B17" s="18" t="s">
         <v>181</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="E17" s="19"/>
+        <v>184</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>178</v>
+      </c>
       <c r="F17" s="19" t="s">
-        <v>187</v>
+        <v>344</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I17" s="16" t="s">
         <v>384</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="K17" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" s="28" customFormat="1" ht="38.25">
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="2:12" s="28" customFormat="1" ht="153">
       <c r="B18" s="18" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>186</v>
+        <v>362</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="E18" s="19"/>
+        <v>217</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>224</v>
+      </c>
       <c r="F18" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>99</v>
+        <v>225</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>363</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J18" s="17"/>
+        <v>384</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>412</v>
+      </c>
       <c r="K18" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" s="28" customFormat="1" ht="38.25">
+      <c r="L18" s="19"/>
+    </row>
+    <row r="19" spans="2:12" s="28" customFormat="1" ht="153">
       <c r="B19" s="18" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>177</v>
+        <v>44</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>344</v>
+        <v>218</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>341</v>
+        <v>359</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="I19" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="J19" s="17" t="s">
-        <v>404</v>
+      <c r="J19" s="16" t="s">
+        <v>410</v>
       </c>
       <c r="K19" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" s="28" customFormat="1" ht="25.5">
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="2:12" s="28" customFormat="1" ht="165.75">
       <c r="B20" s="18" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>345</v>
+        <v>58</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>194</v>
+        <v>215</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J20" s="17"/>
+        <v>384</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>411</v>
+      </c>
       <c r="K20" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" s="28" customFormat="1" ht="293.25">
+      <c r="L20" s="19"/>
+    </row>
+    <row r="21" spans="2:12" s="28" customFormat="1" ht="89.25">
       <c r="B21" s="18" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="E21" s="19"/>
+        <v>220</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>226</v>
+      </c>
       <c r="F21" s="19" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>350</v>
+        <v>99</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>351</v>
+        <v>227</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>426</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="J21" s="16"/>
       <c r="K21" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" s="28" customFormat="1" ht="25.5">
+      <c r="L21" s="19"/>
+    </row>
+    <row r="22" spans="2:12" s="28" customFormat="1" ht="63.75">
       <c r="B22" s="18" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>68</v>
+        <v>367</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="17" t="s">
-        <v>295</v>
+        <v>221</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>231</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>64</v>
+        <v>99</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>368</v>
       </c>
       <c r="I22" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="J22" s="17"/>
+      <c r="J22" s="16"/>
       <c r="K22" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" s="28" customFormat="1" ht="25.5">
+      <c r="L22" s="19"/>
+    </row>
+    <row r="23" spans="2:12" s="28" customFormat="1" ht="51">
       <c r="B23" s="18" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>81</v>
+        <v>369</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="E23" s="19"/>
-      <c r="F23" s="17" t="s">
-        <v>200</v>
+      <c r="F23" s="19" t="s">
+        <v>310</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>202</v>
+        <v>99</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>228</v>
       </c>
       <c r="I23" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="J23" s="17" t="s">
-        <v>391</v>
+      <c r="J23" s="16" t="s">
+        <v>413</v>
       </c>
       <c r="K23" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" s="28" customFormat="1" ht="25.5">
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" spans="2:12" s="28" customFormat="1" ht="51">
       <c r="B24" s="18" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>44</v>
+        <v>370</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>424</v>
+        <v>223</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="19" t="s">
-        <v>47</v>
+        <v>310</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>425</v>
+        <v>99</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>51</v>
+        <v>229</v>
       </c>
       <c r="I24" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="J24" s="17" t="s">
-        <v>391</v>
+      <c r="J24" s="16" t="s">
+        <v>414</v>
       </c>
       <c r="K24" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" s="28" customFormat="1" ht="153">
-      <c r="B25" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J25" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="K25" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" s="28" customFormat="1" ht="153">
-      <c r="B26" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J26" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="K26" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" s="28" customFormat="1" ht="165.75">
-      <c r="B27" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J27" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" s="28" customFormat="1" ht="89.25">
-      <c r="B28" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J28" s="16"/>
-      <c r="K28" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" s="28" customFormat="1" ht="63.75">
-      <c r="B29" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="I29" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" s="28" customFormat="1" ht="51">
-      <c r="B30" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J30" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="K30" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" s="28" customFormat="1" ht="51">
-      <c r="B31" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J31" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="K31" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" s="28" customFormat="1">
+      <c r="L24" s="19"/>
+    </row>
+    <row r="25" spans="2:12" s="28" customFormat="1">
+      <c r="B25" s="30"/>
+      <c r="I25" s="30"/>
+    </row>
+    <row r="26" spans="2:12" s="28" customFormat="1">
+      <c r="B26" s="30"/>
+      <c r="I26" s="30"/>
+    </row>
+    <row r="27" spans="2:12" s="28" customFormat="1">
+      <c r="B27" s="30"/>
+      <c r="I27" s="30"/>
+    </row>
+    <row r="28" spans="2:12" s="28" customFormat="1">
+      <c r="B28" s="30"/>
+      <c r="I28" s="30"/>
+    </row>
+    <row r="29" spans="2:12" s="28" customFormat="1">
+      <c r="B29" s="30"/>
+      <c r="I29" s="30"/>
+    </row>
+    <row r="30" spans="2:12" s="28" customFormat="1">
+      <c r="B30" s="30"/>
+      <c r="I30" s="30"/>
+    </row>
+    <row r="31" spans="2:12" s="28" customFormat="1">
+      <c r="B31" s="30"/>
+      <c r="I31" s="30"/>
+    </row>
+    <row r="32" spans="2:12" s="28" customFormat="1">
       <c r="B32" s="30"/>
       <c r="I32" s="30"/>
     </row>
@@ -12980,191 +14503,51 @@
       <c r="B336" s="30"/>
       <c r="I336" s="30"/>
     </row>
-    <row r="337" spans="2:9" s="28" customFormat="1">
+    <row r="337" spans="2:10" s="28" customFormat="1">
       <c r="B337" s="30"/>
       <c r="I337" s="30"/>
     </row>
-    <row r="338" spans="2:9" s="28" customFormat="1">
+    <row r="338" spans="2:10">
       <c r="B338" s="30"/>
+      <c r="C338" s="28"/>
+      <c r="D338" s="28"/>
+      <c r="E338" s="28"/>
+      <c r="F338" s="28"/>
+      <c r="G338" s="28"/>
+      <c r="H338" s="28"/>
       <c r="I338" s="30"/>
-    </row>
-    <row r="339" spans="2:9" s="28" customFormat="1">
+      <c r="J338" s="28"/>
+    </row>
+    <row r="339" spans="2:10">
       <c r="B339" s="30"/>
+      <c r="C339" s="28"/>
+      <c r="D339" s="28"/>
+      <c r="E339" s="28"/>
+      <c r="F339" s="28"/>
+      <c r="G339" s="28"/>
+      <c r="H339" s="28"/>
       <c r="I339" s="30"/>
-    </row>
-    <row r="340" spans="2:9" s="28" customFormat="1">
-      <c r="B340" s="30"/>
-      <c r="I340" s="30"/>
-    </row>
-    <row r="341" spans="2:9" s="28" customFormat="1">
-      <c r="B341" s="30"/>
-      <c r="I341" s="30"/>
-    </row>
-    <row r="342" spans="2:9" s="28" customFormat="1">
-      <c r="B342" s="30"/>
-      <c r="I342" s="30"/>
-    </row>
-    <row r="343" spans="2:9" s="28" customFormat="1">
-      <c r="B343" s="30"/>
-      <c r="I343" s="30"/>
-    </row>
-    <row r="344" spans="2:9" s="28" customFormat="1">
-      <c r="B344" s="30"/>
-      <c r="I344" s="30"/>
-    </row>
-    <row r="345" spans="2:9" s="28" customFormat="1">
-      <c r="B345" s="30"/>
-      <c r="I345" s="30"/>
-    </row>
-    <row r="346" spans="2:9" s="28" customFormat="1">
-      <c r="B346" s="30"/>
-      <c r="I346" s="30"/>
-    </row>
-    <row r="347" spans="2:9" s="28" customFormat="1">
-      <c r="B347" s="30"/>
-      <c r="I347" s="30"/>
-    </row>
-    <row r="348" spans="2:9" s="28" customFormat="1">
-      <c r="B348" s="30"/>
-      <c r="I348" s="30"/>
-    </row>
-    <row r="349" spans="2:9" s="28" customFormat="1">
-      <c r="B349" s="30"/>
-      <c r="I349" s="30"/>
-    </row>
-    <row r="350" spans="2:9" s="28" customFormat="1">
-      <c r="B350" s="30"/>
-      <c r="I350" s="30"/>
-    </row>
-    <row r="351" spans="2:9" s="28" customFormat="1">
-      <c r="B351" s="30"/>
-      <c r="I351" s="30"/>
-    </row>
-    <row r="352" spans="2:9" s="28" customFormat="1">
-      <c r="B352" s="30"/>
-      <c r="I352" s="30"/>
-    </row>
-    <row r="353" spans="2:9" s="28" customFormat="1">
-      <c r="B353" s="30"/>
-      <c r="I353" s="30"/>
-    </row>
-    <row r="354" spans="2:9" s="28" customFormat="1">
-      <c r="B354" s="30"/>
-      <c r="I354" s="30"/>
-    </row>
-    <row r="355" spans="2:9" s="28" customFormat="1">
-      <c r="B355" s="30"/>
-      <c r="I355" s="30"/>
-    </row>
-    <row r="356" spans="2:9" s="28" customFormat="1">
-      <c r="B356" s="30"/>
-      <c r="I356" s="30"/>
-    </row>
-    <row r="357" spans="2:9" s="28" customFormat="1">
-      <c r="B357" s="30"/>
-      <c r="I357" s="30"/>
-    </row>
-    <row r="358" spans="2:9" s="28" customFormat="1">
-      <c r="B358" s="30"/>
-      <c r="I358" s="30"/>
-    </row>
-    <row r="359" spans="2:9" s="28" customFormat="1">
-      <c r="B359" s="30"/>
-      <c r="I359" s="30"/>
-    </row>
-    <row r="360" spans="2:9" s="28" customFormat="1">
-      <c r="B360" s="30"/>
-      <c r="I360" s="30"/>
-    </row>
-    <row r="361" spans="2:9" s="28" customFormat="1">
-      <c r="B361" s="30"/>
-      <c r="I361" s="30"/>
-    </row>
-    <row r="362" spans="2:9" s="28" customFormat="1">
-      <c r="B362" s="30"/>
-      <c r="I362" s="30"/>
-    </row>
-    <row r="363" spans="2:9" s="28" customFormat="1">
-      <c r="B363" s="30"/>
-      <c r="I363" s="30"/>
-    </row>
-    <row r="364" spans="2:9" s="28" customFormat="1">
-      <c r="B364" s="30"/>
-      <c r="I364" s="30"/>
-    </row>
-    <row r="365" spans="2:9" s="28" customFormat="1">
-      <c r="B365" s="30"/>
-      <c r="I365" s="30"/>
-    </row>
-    <row r="366" spans="2:9" s="28" customFormat="1">
-      <c r="B366" s="30"/>
-      <c r="I366" s="30"/>
-    </row>
-    <row r="367" spans="2:9" s="28" customFormat="1">
-      <c r="B367" s="30"/>
-      <c r="I367" s="30"/>
-    </row>
-    <row r="368" spans="2:9" s="28" customFormat="1">
-      <c r="B368" s="30"/>
-      <c r="I368" s="30"/>
-    </row>
-    <row r="369" spans="2:10" s="28" customFormat="1">
-      <c r="B369" s="30"/>
-      <c r="I369" s="30"/>
-    </row>
-    <row r="370" spans="2:10" s="28" customFormat="1">
-      <c r="B370" s="30"/>
-      <c r="I370" s="30"/>
-    </row>
-    <row r="371" spans="2:10" s="28" customFormat="1">
-      <c r="B371" s="30"/>
-      <c r="I371" s="30"/>
-    </row>
-    <row r="372" spans="2:10" s="28" customFormat="1">
-      <c r="B372" s="30"/>
-      <c r="I372" s="30"/>
-    </row>
-    <row r="373" spans="2:10">
-      <c r="B373" s="30"/>
-      <c r="C373" s="28"/>
-      <c r="D373" s="28"/>
-      <c r="E373" s="28"/>
-      <c r="F373" s="28"/>
-      <c r="G373" s="28"/>
-      <c r="H373" s="28"/>
-      <c r="I373" s="30"/>
-      <c r="J373" s="28"/>
-    </row>
-    <row r="374" spans="2:10">
-      <c r="B374" s="30"/>
-      <c r="C374" s="28"/>
-      <c r="D374" s="28"/>
-      <c r="E374" s="28"/>
-      <c r="F374" s="28"/>
-      <c r="G374" s="28"/>
-      <c r="H374" s="28"/>
-      <c r="I374" s="30"/>
-      <c r="J374" s="28"/>
+      <c r="J339" s="28"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I24">
+      <formula1>'cuentas de e-mail'!$B$10:$B$11</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K24">
       <formula1>'cuentas de e-mail'!$C$10:$C$11</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I31">
-      <formula1>'cuentas de e-mail'!$B$10:$B$11</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K394"/>
+  <dimension ref="A2:L394"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B79" sqref="B4:B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -13180,10 +14563,11 @@
     <col min="9" max="9" width="14.140625" style="26" customWidth="1"/>
     <col min="10" max="10" width="30" style="24" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" style="24" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="24"/>
+    <col min="12" max="12" width="21.140625" style="24" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="24"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="18" customHeight="1">
+    <row r="2" spans="1:12" ht="18" customHeight="1">
       <c r="B2" s="23" t="s">
         <v>123</v>
       </c>
@@ -13192,7 +14576,7 @@
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
     </row>
-    <row r="3" spans="1:11" s="26" customFormat="1" ht="37.5">
+    <row r="3" spans="1:12" s="26" customFormat="1" ht="37.5">
       <c r="B3" s="20" t="s">
         <v>34</v>
       </c>
@@ -13223,8 +14607,11 @@
       <c r="K3" s="20" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="76.5">
+      <c r="L3" s="20" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="76.5">
       <c r="A4" s="27"/>
       <c r="B4" s="16" t="s">
         <v>57</v>
@@ -13254,8 +14641,9 @@
       <c r="K4" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="38.25">
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="1:12" ht="38.25">
       <c r="A5" s="27"/>
       <c r="B5" s="16" t="s">
         <v>57</v>
@@ -13283,8 +14671,9 @@
       <c r="K5" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="38.25">
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="1:12" ht="38.25">
       <c r="A6" s="27"/>
       <c r="B6" s="16" t="s">
         <v>57</v>
@@ -13314,8 +14703,9 @@
       <c r="K6" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" s="28" customFormat="1" ht="63.75">
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:12" s="28" customFormat="1" ht="63.75">
       <c r="A7" s="27"/>
       <c r="B7" s="16" t="s">
         <v>57</v>
@@ -13345,8 +14735,9 @@
       <c r="K7" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" s="28" customFormat="1" ht="25.5">
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" s="28" customFormat="1" ht="25.5">
       <c r="A8" s="27"/>
       <c r="B8" s="16" t="s">
         <v>57</v>
@@ -13374,8 +14765,9 @@
       <c r="K8" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" s="28" customFormat="1" ht="63.75">
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="1:12" s="28" customFormat="1" ht="63.75">
       <c r="A9" s="27"/>
       <c r="B9" s="16" t="s">
         <v>57</v>
@@ -13405,8 +14797,9 @@
       <c r="K9" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" s="28" customFormat="1" ht="38.25">
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:12" s="28" customFormat="1" ht="38.25">
       <c r="A10" s="27"/>
       <c r="B10" s="18" t="s">
         <v>71</v>
@@ -13436,8 +14829,9 @@
       <c r="K10" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="28" customFormat="1" ht="76.5">
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="1:12" s="28" customFormat="1" ht="76.5">
       <c r="A11" s="27"/>
       <c r="B11" s="18" t="s">
         <v>71</v>
@@ -13467,8 +14861,9 @@
       <c r="K11" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" s="28" customFormat="1" ht="38.25">
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="1:12" s="28" customFormat="1" ht="38.25">
       <c r="A12" s="27"/>
       <c r="B12" s="18" t="s">
         <v>71</v>
@@ -13496,8 +14891,9 @@
       <c r="K12" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" s="28" customFormat="1" ht="38.25">
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="1:12" s="28" customFormat="1" ht="38.25">
       <c r="A13" s="27"/>
       <c r="B13" s="18" t="s">
         <v>71</v>
@@ -13525,8 +14921,9 @@
       <c r="K13" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="28" customFormat="1" ht="89.25">
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" spans="1:12" s="28" customFormat="1" ht="89.25">
       <c r="A14" s="27"/>
       <c r="B14" s="18" t="s">
         <v>71</v>
@@ -13556,8 +14953,9 @@
       <c r="K14" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="28" customFormat="1" ht="38.25">
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" spans="1:12" s="28" customFormat="1" ht="38.25">
       <c r="A15" s="27"/>
       <c r="B15" s="18" t="s">
         <v>71</v>
@@ -13589,8 +14987,9 @@
       <c r="K15" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" s="28" customFormat="1" ht="38.25">
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="1:12" s="28" customFormat="1" ht="38.25">
       <c r="A16" s="27"/>
       <c r="B16" s="18" t="s">
         <v>85</v>
@@ -13620,8 +15019,9 @@
       <c r="K16" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" s="28" customFormat="1" ht="89.25">
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="2:12" s="28" customFormat="1" ht="89.25">
       <c r="B17" s="18" t="s">
         <v>111</v>
       </c>
@@ -13650,8 +15050,9 @@
       <c r="K17" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" s="28" customFormat="1" ht="89.25">
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" spans="2:12" s="28" customFormat="1" ht="89.25">
       <c r="B18" s="18" t="s">
         <v>111</v>
       </c>
@@ -13680,8 +15081,9 @@
       <c r="K18" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" s="28" customFormat="1" ht="76.5">
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="2:12" s="28" customFormat="1" ht="76.5">
       <c r="B19" s="18" t="s">
         <v>111</v>
       </c>
@@ -13710,8 +15112,9 @@
       <c r="K19" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" s="28" customFormat="1" ht="25.5">
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="2:12" s="28" customFormat="1" ht="25.5">
       <c r="B20" s="18" t="s">
         <v>111</v>
       </c>
@@ -13738,8 +15141,9 @@
       <c r="K20" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" s="28" customFormat="1" ht="38.25">
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="2:12" s="28" customFormat="1" ht="38.25">
       <c r="B21" s="18" t="s">
         <v>111</v>
       </c>
@@ -13766,8 +15170,9 @@
       <c r="K21" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="2:12" s="28" customFormat="1" ht="51">
       <c r="B22" s="18" t="s">
         <v>129</v>
       </c>
@@ -13796,8 +15201,9 @@
       <c r="K22" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="2:12" s="28" customFormat="1" ht="51">
       <c r="B23" s="18" t="s">
         <v>129</v>
       </c>
@@ -13826,8 +15232,9 @@
       <c r="K23" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="2:12" s="28" customFormat="1" ht="51">
       <c r="B24" s="18" t="s">
         <v>129</v>
       </c>
@@ -13856,8 +15263,9 @@
       <c r="K24" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" s="28" customFormat="1" ht="127.5">
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="2:12" s="28" customFormat="1" ht="127.5">
       <c r="B25" s="18" t="s">
         <v>144</v>
       </c>
@@ -13888,8 +15296,9 @@
       <c r="K25" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" s="28" customFormat="1" ht="38.25">
+      <c r="L25" s="17"/>
+    </row>
+    <row r="26" spans="2:12" s="28" customFormat="1" ht="38.25">
       <c r="B26" s="18" t="s">
         <v>144</v>
       </c>
@@ -13918,8 +15327,9 @@
       <c r="K26" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="L26" s="17"/>
+    </row>
+    <row r="27" spans="2:12" s="28" customFormat="1" ht="51">
       <c r="B27" s="18" t="s">
         <v>144</v>
       </c>
@@ -13948,8 +15358,9 @@
       <c r="K27" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" s="28" customFormat="1" ht="89.25">
+      <c r="L27" s="17"/>
+    </row>
+    <row r="28" spans="2:12" s="28" customFormat="1" ht="89.25">
       <c r="B28" s="18" t="s">
         <v>154</v>
       </c>
@@ -13980,8 +15391,9 @@
       <c r="K28" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="2:11" s="28" customFormat="1" ht="89.25">
+      <c r="L28" s="17"/>
+    </row>
+    <row r="29" spans="2:12" s="28" customFormat="1" ht="89.25">
       <c r="B29" s="18" t="s">
         <v>154</v>
       </c>
@@ -14012,8 +15424,9 @@
       <c r="K29" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="2:11" s="28" customFormat="1" ht="89.25">
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" spans="2:12" s="28" customFormat="1" ht="89.25">
       <c r="B30" s="18" t="s">
         <v>154</v>
       </c>
@@ -14044,8 +15457,9 @@
       <c r="K30" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="L30" s="17"/>
+    </row>
+    <row r="31" spans="2:12" s="28" customFormat="1" ht="51">
       <c r="B31" s="18" t="s">
         <v>154</v>
       </c>
@@ -14072,8 +15486,9 @@
       <c r="K31" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="32" spans="2:11" s="28" customFormat="1" ht="127.5">
+      <c r="L31" s="17"/>
+    </row>
+    <row r="32" spans="2:12" s="28" customFormat="1" ht="127.5">
       <c r="B32" s="18" t="s">
         <v>203</v>
       </c>
@@ -14104,8 +15519,9 @@
       <c r="K32" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" s="28" customFormat="1" ht="76.5">
+      <c r="L32" s="17"/>
+    </row>
+    <row r="33" spans="2:12" s="28" customFormat="1" ht="76.5">
       <c r="B33" s="18" t="s">
         <v>203</v>
       </c>
@@ -14136,8 +15552,9 @@
       <c r="K33" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" s="28" customFormat="1" ht="63.75">
+      <c r="L33" s="17"/>
+    </row>
+    <row r="34" spans="2:12" s="28" customFormat="1" ht="63.75">
       <c r="B34" s="18" t="s">
         <v>203</v>
       </c>
@@ -14168,8 +15585,9 @@
       <c r="K34" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" s="29" customFormat="1" ht="51">
+      <c r="L34" s="17"/>
+    </row>
+    <row r="35" spans="2:12" s="29" customFormat="1" ht="51">
       <c r="B35" s="16" t="s">
         <v>203</v>
       </c>
@@ -14198,8 +15616,9 @@
       <c r="K35" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="2:11" s="28" customFormat="1" ht="38.25">
+      <c r="L35" s="17"/>
+    </row>
+    <row r="36" spans="2:12" s="28" customFormat="1" ht="38.25">
       <c r="B36" s="18" t="s">
         <v>203</v>
       </c>
@@ -14230,8 +15649,9 @@
       <c r="K36" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" s="28" customFormat="1" ht="153">
+      <c r="L36" s="17"/>
+    </row>
+    <row r="37" spans="2:12" s="28" customFormat="1" ht="153">
       <c r="B37" s="18" t="s">
         <v>209</v>
       </c>
@@ -14260,8 +15680,9 @@
       <c r="K37" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="2:11" s="28" customFormat="1" ht="153">
+      <c r="L37" s="17"/>
+    </row>
+    <row r="38" spans="2:12" s="28" customFormat="1" ht="153">
       <c r="B38" s="18" t="s">
         <v>209</v>
       </c>
@@ -14288,8 +15709,9 @@
       <c r="K38" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" s="28" customFormat="1" ht="165.75">
+      <c r="L38" s="17"/>
+    </row>
+    <row r="39" spans="2:12" s="28" customFormat="1" ht="165.75">
       <c r="B39" s="18" t="s">
         <v>209</v>
       </c>
@@ -14318,8 +15740,9 @@
       <c r="K39" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="40" spans="2:11" s="28" customFormat="1" ht="25.5">
+      <c r="L39" s="17"/>
+    </row>
+    <row r="40" spans="2:12" s="28" customFormat="1" ht="25.5">
       <c r="B40" s="18" t="s">
         <v>236</v>
       </c>
@@ -14346,8 +15769,9 @@
       <c r="K40" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="41" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="L40" s="17"/>
+    </row>
+    <row r="41" spans="2:12" s="28" customFormat="1" ht="51">
       <c r="B41" s="18" t="s">
         <v>236</v>
       </c>
@@ -14376,8 +15800,9 @@
       <c r="K41" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="L41" s="17"/>
+    </row>
+    <row r="42" spans="2:12" s="28" customFormat="1" ht="51">
       <c r="B42" s="18" t="s">
         <v>236</v>
       </c>
@@ -14406,8 +15831,9 @@
       <c r="K42" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" s="28" customFormat="1" ht="76.5">
+      <c r="L42" s="17"/>
+    </row>
+    <row r="43" spans="2:12" s="28" customFormat="1" ht="76.5">
       <c r="B43" s="18" t="s">
         <v>236</v>
       </c>
@@ -14436,8 +15862,9 @@
       <c r="K43" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="L43" s="17"/>
+    </row>
+    <row r="44" spans="2:12" s="28" customFormat="1" ht="51">
       <c r="B44" s="16" t="s">
         <v>236</v>
       </c>
@@ -14468,8 +15895,9 @@
       <c r="K44" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="L44" s="17"/>
+    </row>
+    <row r="45" spans="2:12" s="28" customFormat="1" ht="51">
       <c r="B45" s="18" t="s">
         <v>242</v>
       </c>
@@ -14498,8 +15926,9 @@
       <c r="K45" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" s="28" customFormat="1" ht="114.75">
+      <c r="L45" s="17"/>
+    </row>
+    <row r="46" spans="2:12" s="28" customFormat="1" ht="114.75">
       <c r="B46" s="18" t="s">
         <v>242</v>
       </c>
@@ -14530,8 +15959,9 @@
       <c r="K46" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" s="28" customFormat="1" ht="114.75">
+      <c r="L46" s="17"/>
+    </row>
+    <row r="47" spans="2:12" s="28" customFormat="1" ht="114.75">
       <c r="B47" s="18" t="s">
         <v>242</v>
       </c>
@@ -14558,8 +15988,9 @@
       <c r="K47" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" s="28" customFormat="1" ht="102">
+      <c r="L47" s="17"/>
+    </row>
+    <row r="48" spans="2:12" s="28" customFormat="1" ht="102">
       <c r="B48" s="18" t="s">
         <v>242</v>
       </c>
@@ -14588,8 +16019,9 @@
       <c r="K48" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="49" spans="2:11" s="28" customFormat="1" ht="76.5">
+      <c r="L48" s="17"/>
+    </row>
+    <row r="49" spans="2:12" s="28" customFormat="1" ht="76.5">
       <c r="B49" s="18" t="s">
         <v>242</v>
       </c>
@@ -14618,8 +16050,9 @@
       <c r="K49" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="2:11" s="28" customFormat="1" ht="63.75">
+      <c r="L49" s="17"/>
+    </row>
+    <row r="50" spans="2:12" s="28" customFormat="1" ht="63.75">
       <c r="B50" s="18" t="s">
         <v>242</v>
       </c>
@@ -14648,8 +16081,9 @@
       <c r="K50" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="L50" s="17"/>
+    </row>
+    <row r="51" spans="2:12" s="28" customFormat="1" ht="51">
       <c r="B51" s="16" t="s">
         <v>242</v>
       </c>
@@ -14680,8 +16114,9 @@
       <c r="K51" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="2:11" s="28" customFormat="1" ht="102">
+      <c r="L51" s="17"/>
+    </row>
+    <row r="52" spans="2:12" s="28" customFormat="1" ht="102">
       <c r="B52" s="18" t="s">
         <v>88</v>
       </c>
@@ -14710,8 +16145,9 @@
       <c r="K52" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="53" spans="2:11" s="28" customFormat="1" ht="102">
+      <c r="L52" s="17"/>
+    </row>
+    <row r="53" spans="2:12" s="28" customFormat="1" ht="102">
       <c r="B53" s="18" t="s">
         <v>88</v>
       </c>
@@ -14738,8 +16174,9 @@
       <c r="K53" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="54" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="L53" s="17"/>
+    </row>
+    <row r="54" spans="2:12" s="28" customFormat="1" ht="51">
       <c r="B54" s="18" t="s">
         <v>88</v>
       </c>
@@ -14768,8 +16205,9 @@
       <c r="K54" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="55" spans="2:11" s="28" customFormat="1" ht="89.25">
+      <c r="L54" s="17"/>
+    </row>
+    <row r="55" spans="2:12" s="28" customFormat="1" ht="89.25">
       <c r="B55" s="18" t="s">
         <v>88</v>
       </c>
@@ -14798,8 +16236,9 @@
       <c r="K55" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="56" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="L55" s="17"/>
+    </row>
+    <row r="56" spans="2:12" s="28" customFormat="1" ht="51">
       <c r="B56" s="18" t="s">
         <v>88</v>
       </c>
@@ -14826,8 +16265,9 @@
       <c r="K56" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="L56" s="17"/>
+    </row>
+    <row r="57" spans="2:12" s="28" customFormat="1" ht="51">
       <c r="B57" s="18" t="s">
         <v>88</v>
       </c>
@@ -14854,8 +16294,9 @@
       <c r="K57" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="2:11" s="28" customFormat="1" ht="102">
+      <c r="L57" s="17"/>
+    </row>
+    <row r="58" spans="2:12" s="28" customFormat="1" ht="102">
       <c r="B58" s="18" t="s">
         <v>88</v>
       </c>
@@ -14884,8 +16325,9 @@
       <c r="K58" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="2:11" s="28" customFormat="1" ht="63.75">
+      <c r="L58" s="17"/>
+    </row>
+    <row r="59" spans="2:12" s="28" customFormat="1" ht="63.75">
       <c r="B59" s="18" t="s">
         <v>88</v>
       </c>
@@ -14916,8 +16358,9 @@
       <c r="K59" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="L59" s="17"/>
+    </row>
+    <row r="60" spans="2:12" s="28" customFormat="1" ht="51">
       <c r="B60" s="18" t="s">
         <v>88</v>
       </c>
@@ -14944,8 +16387,9 @@
       <c r="K60" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="61" spans="2:11" s="28" customFormat="1" ht="38.25">
+      <c r="L60" s="17"/>
+    </row>
+    <row r="61" spans="2:12" s="28" customFormat="1" ht="38.25">
       <c r="B61" s="18" t="s">
         <v>167</v>
       </c>
@@ -14972,8 +16416,9 @@
       <c r="K61" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="62" spans="2:11" s="28" customFormat="1" ht="63.75">
+      <c r="L61" s="17"/>
+    </row>
+    <row r="62" spans="2:12" s="28" customFormat="1" ht="63.75">
       <c r="B62" s="18" t="s">
         <v>167</v>
       </c>
@@ -15002,8 +16447,9 @@
       <c r="K62" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="63" spans="2:11" s="28" customFormat="1" ht="76.5">
+      <c r="L62" s="17"/>
+    </row>
+    <row r="63" spans="2:12" s="28" customFormat="1" ht="76.5">
       <c r="B63" s="18" t="s">
         <v>173</v>
       </c>
@@ -15034,8 +16480,9 @@
       <c r="K63" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="64" spans="2:11" s="28" customFormat="1" ht="38.25">
+      <c r="L63" s="17"/>
+    </row>
+    <row r="64" spans="2:12" s="28" customFormat="1" ht="38.25">
       <c r="B64" s="18" t="s">
         <v>173</v>
       </c>
@@ -15064,8 +16511,9 @@
       <c r="K64" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" s="28" customFormat="1" ht="165.75">
+      <c r="L64" s="17"/>
+    </row>
+    <row r="65" spans="2:12" s="28" customFormat="1" ht="165.75">
       <c r="B65" s="18" t="s">
         <v>181</v>
       </c>
@@ -15094,8 +16542,9 @@
       <c r="K65" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" s="28" customFormat="1" ht="38.25">
+      <c r="L65" s="17"/>
+    </row>
+    <row r="66" spans="2:12" s="28" customFormat="1" ht="38.25">
       <c r="B66" s="18" t="s">
         <v>181</v>
       </c>
@@ -15122,8 +16571,9 @@
       <c r="K66" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" s="28" customFormat="1" ht="38.25">
+      <c r="L66" s="17"/>
+    </row>
+    <row r="67" spans="2:12" s="28" customFormat="1" ht="38.25">
       <c r="B67" s="18" t="s">
         <v>181</v>
       </c>
@@ -15154,8 +16604,9 @@
       <c r="K67" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="68" spans="2:11" s="28" customFormat="1" ht="25.5">
+      <c r="L67" s="17"/>
+    </row>
+    <row r="68" spans="2:12" s="28" customFormat="1" ht="25.5">
       <c r="B68" s="18" t="s">
         <v>189</v>
       </c>
@@ -15182,8 +16633,9 @@
       <c r="K68" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" s="28" customFormat="1" ht="293.25">
+      <c r="L68" s="17"/>
+    </row>
+    <row r="69" spans="2:12" s="28" customFormat="1" ht="293.25">
       <c r="B69" s="18" t="s">
         <v>189</v>
       </c>
@@ -15212,8 +16664,9 @@
       <c r="K69" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" s="28" customFormat="1" ht="25.5">
+      <c r="L69" s="17"/>
+    </row>
+    <row r="70" spans="2:12" s="28" customFormat="1" ht="25.5">
       <c r="B70" s="18" t="s">
         <v>189</v>
       </c>
@@ -15240,8 +16693,9 @@
       <c r="K70" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" s="28" customFormat="1" ht="25.5">
+      <c r="L70" s="17"/>
+    </row>
+    <row r="71" spans="2:12" s="28" customFormat="1" ht="25.5">
       <c r="B71" s="18" t="s">
         <v>189</v>
       </c>
@@ -15270,8 +16724,9 @@
       <c r="K71" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" s="28" customFormat="1" ht="25.5">
+      <c r="L71" s="17"/>
+    </row>
+    <row r="72" spans="2:12" s="28" customFormat="1" ht="25.5">
       <c r="B72" s="18" t="s">
         <v>189</v>
       </c>
@@ -15300,8 +16755,9 @@
       <c r="K72" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" s="28" customFormat="1" ht="153">
+      <c r="L72" s="17"/>
+    </row>
+    <row r="73" spans="2:12" s="28" customFormat="1" ht="153">
       <c r="B73" s="18" t="s">
         <v>216</v>
       </c>
@@ -15332,8 +16788,9 @@
       <c r="K73" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" s="28" customFormat="1" ht="153">
+      <c r="L73" s="17"/>
+    </row>
+    <row r="74" spans="2:12" s="28" customFormat="1" ht="153">
       <c r="B74" s="18" t="s">
         <v>216</v>
       </c>
@@ -15362,8 +16819,9 @@
       <c r="K74" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" s="28" customFormat="1" ht="165.75">
+      <c r="L74" s="17"/>
+    </row>
+    <row r="75" spans="2:12" s="28" customFormat="1" ht="165.75">
       <c r="B75" s="18" t="s">
         <v>216</v>
       </c>
@@ -15392,8 +16850,9 @@
       <c r="K75" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" s="28" customFormat="1" ht="89.25">
+      <c r="L75" s="17"/>
+    </row>
+    <row r="76" spans="2:12" s="28" customFormat="1" ht="89.25">
       <c r="B76" s="18" t="s">
         <v>216</v>
       </c>
@@ -15422,8 +16881,9 @@
       <c r="K76" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" s="28" customFormat="1" ht="63.75">
+      <c r="L76" s="17"/>
+    </row>
+    <row r="77" spans="2:12" s="28" customFormat="1" ht="63.75">
       <c r="B77" s="18" t="s">
         <v>216</v>
       </c>
@@ -15452,8 +16912,9 @@
       <c r="K77" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="78" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="L77" s="17"/>
+    </row>
+    <row r="78" spans="2:12" s="28" customFormat="1" ht="51">
       <c r="B78" s="18" t="s">
         <v>216</v>
       </c>
@@ -15482,8 +16943,9 @@
       <c r="K78" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" s="28" customFormat="1" ht="51">
+      <c r="L78" s="17"/>
+    </row>
+    <row r="79" spans="2:12" s="28" customFormat="1" ht="51">
       <c r="B79" s="18" t="s">
         <v>216</v>
       </c>
@@ -15512,8 +16974,9 @@
       <c r="K79" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="80" spans="2:11" s="28" customFormat="1">
+      <c r="L79" s="17"/>
+    </row>
+    <row r="80" spans="2:12" s="28" customFormat="1">
       <c r="B80" s="30"/>
       <c r="I80" s="30"/>
     </row>
@@ -16800,7 +18263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C11"/>
   <sheetViews>
